--- a/spreadsheets/DBex.xlsx
+++ b/spreadsheets/DBex.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="219">
   <si>
     <t>Картинки</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>3916-12221</t>
-  </si>
-  <si>
-    <t>3916-12221 </t>
   </si>
   <si>
     <t>Диммер повор. 400Вт</t>
@@ -647,15 +644,6 @@
     <t>295-черный шато</t>
   </si>
   <si>
-    <t>296-белый шале</t>
-  </si>
-  <si>
-    <t>297-огненно-красный</t>
-  </si>
-  <si>
-    <t>299-бежевый мейсон</t>
-  </si>
-  <si>
     <t>Декоративная накладка</t>
   </si>
   <si>
@@ -690,18 +678,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="\ * #,##0&quot; DM &quot;;\-* #,##0&quot; DM &quot;;\ * &quot;- DM &quot;;@\ "/>
-    <numFmt numFmtId="166" formatCode="\ * #,##0.00&quot; DM &quot;;\-* #,##0.00&quot; DM &quot;;\ * \-#&quot; DM &quot;;@\ "/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -722,27 +709,32 @@
       <sz val="10"/>
       <name val="Arial CE"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -820,7 +812,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -844,10 +836,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -856,31 +844,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -900,7 +874,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -908,7 +882,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,43 +890,39 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -964,7 +934,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -972,15 +942,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -988,31 +958,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1024,23 +986,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1048,29 +998,24 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal_BJE+EPJ+CMC_14.06.10" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="normalni_A (2)" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="normalni_PERSONAL" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="normální_A (2)" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Style 1" xfId="24" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Wahrung [0]_PERSONAL" xfId="25" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Wahrung_PERSONAL" xfId="26" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in normalni_A (2)" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Normal_BJE+EPJ+CMC_14.06.10" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1138,13 +1083,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:90"/>
+  <dimension ref="1:85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4370,7 +4315,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="2" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -14906,7 +14851,7 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" s="16" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
         <v>52</v>
       </c>
@@ -15998,7 +15943,7 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -17050,7 +16995,7 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="9"/>
       <c r="C25" s="12" t="s">
         <v>59</v>
@@ -18104,37 +18049,37 @@
       <c r="B26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="17" t="s">
         <v>64</v>
       </c>
       <c r="N26" s="0"/>
@@ -19152,37 +19097,37 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="J27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="M27" s="18" t="s">
+      <c r="M27" s="17" t="s">
         <v>60</v>
       </c>
       <c r="N27" s="0"/>
@@ -20198,7 +20143,7 @@
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -21250,7 +21195,7 @@
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="9"/>
       <c r="C29" s="12" t="s">
         <v>71</v>
@@ -22304,37 +22249,37 @@
       <c r="B30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="L30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="M30" s="18" t="s">
+      <c r="M30" s="17" t="s">
         <v>76</v>
       </c>
       <c r="N30" s="0"/>
@@ -23351,38 +23296,38 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="L31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M31" s="18" t="s">
+      <c r="M31" s="17" t="s">
         <v>72</v>
       </c>
       <c r="N31" s="0"/>
@@ -24401,7 +24346,7 @@
       <c r="A32" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -25451,7 +25396,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="12" t="s">
         <v>80</v>
       </c>
@@ -26499,7 +26444,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="12" t="s">
         <v>82</v>
       </c>
@@ -26522,7 +26467,7 @@
         <v>82</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="12" t="s">
@@ -27545,28 +27490,28 @@
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
+      <c r="D35" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
       <c r="N35" s="0"/>
       <c r="O35" s="0"/>
       <c r="P35" s="0"/>
@@ -28581,43 +28526,43 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="C36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>88</v>
+      <c r="K36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="N36" s="0"/>
       <c r="O36" s="0"/>
@@ -29633,41 +29578,41 @@
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="D37" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="G37" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="H37" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="K37" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="M37" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="M37" s="20" t="s">
-        <v>93</v>
       </c>
       <c r="N37" s="0"/>
       <c r="O37" s="0"/>
@@ -30682,42 +30627,42 @@
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19" t="s">
+      <c r="D38" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J38" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="L38" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="M38" s="19" t="s">
-        <v>95</v>
+      <c r="K38" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="N38" s="0"/>
       <c r="O38" s="0"/>
@@ -31732,40 +31677,40 @@
       <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="I39" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="J39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="L39" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="M39" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="L39" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="M39" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="N39" s="0"/>
       <c r="O39" s="0"/>
@@ -32780,42 +32725,42 @@
       <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="M40" s="20" t="s">
-        <v>101</v>
+      <c r="C40" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="N40" s="0"/>
       <c r="O40" s="0"/>
@@ -33829,80 +33774,80 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22"/>
-      <c r="B41" s="20" t="s">
+    <row r="41" s="22" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="21"/>
+      <c r="B41" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>103</v>
+      <c r="D41" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="K41" s="12"/>
-      <c r="L41" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="M41" s="20" t="s">
-        <v>103</v>
+      <c r="L41" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19" t="s">
+      <c r="D42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J42" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="L42" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="M42" s="19" t="s">
-        <v>105</v>
+      <c r="K42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M42" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="N42" s="0"/>
       <c r="O42" s="0"/>
@@ -34917,40 +34862,40 @@
       <c r="AMJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="L43" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="M43" s="18" t="s">
-        <v>107</v>
+      <c r="A43" s="20"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="N43" s="0"/>
       <c r="O43" s="0"/>
@@ -35965,19 +35910,19 @@
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
       <c r="N44" s="0"/>
       <c r="O44" s="0"/>
       <c r="P44" s="0"/>
@@ -36990,48 +36935,48 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="27" t="s">
-        <v>108</v>
+    <row r="45" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="26" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29" t="s">
+      <c r="A46" s="27"/>
+      <c r="B46" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="D46" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="E46" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F46" s="29" t="s">
+      <c r="G46" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="I46" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="J46" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="I46" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="J46" s="23" t="s">
+      <c r="K46" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="K46" s="29" t="s">
+      <c r="L46" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="M46" s="23" t="s">
-        <v>113</v>
+      <c r="M46" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="N46" s="0"/>
       <c r="O46" s="0"/>
@@ -38046,34 +37991,34 @@
       <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="28"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="27"/>
+      <c r="B47" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="32" t="s">
+      <c r="G47" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="32" t="s">
+      <c r="I47" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="J47" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J47" s="33" t="s">
+      <c r="K47" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="K47" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="L47" s="31"/>
+      <c r="L47" s="30"/>
       <c r="M47" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N47" s="0"/>
       <c r="O47" s="0"/>
@@ -39088,32 +39033,32 @@
       <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="29" t="s">
+      <c r="G48" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J48" s="30"/>
+      <c r="K48" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J48" s="31"/>
-      <c r="K48" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="L48" s="31"/>
-      <c r="M48" s="23" t="s">
-        <v>114</v>
+      <c r="L48" s="30"/>
+      <c r="M48" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="N48" s="0"/>
       <c r="O48" s="0"/>
@@ -40128,31 +40073,31 @@
       <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="28"/>
-      <c r="B49" s="34" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31" t="s">
+      <c r="G49" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="30"/>
+      <c r="K49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J49" s="31"/>
-      <c r="K49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
       <c r="N49" s="0"/>
       <c r="O49" s="0"/>
       <c r="P49" s="0"/>
@@ -41166,31 +41111,31 @@
       <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="23" t="s">
+      <c r="G50" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="I50" s="32" t="s">
+      <c r="J50" s="30"/>
+      <c r="K50" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J50" s="31"/>
-      <c r="K50" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
       <c r="N50" s="0"/>
       <c r="O50" s="0"/>
       <c r="P50" s="0"/>
@@ -42204,27 +42149,27 @@
       <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="28"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
       <c r="F51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
       <c r="N51" s="0"/>
       <c r="O51" s="0"/>
       <c r="P51" s="0"/>
@@ -43238,25 +43183,25 @@
       <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="28"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
       <c r="F52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
       <c r="N52" s="0"/>
       <c r="O52" s="0"/>
       <c r="P52" s="0"/>
@@ -44270,19 +44215,19 @@
       <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="28"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
       <c r="N53" s="0"/>
       <c r="O53" s="0"/>
       <c r="P53" s="0"/>
@@ -45295,286 +45240,286 @@
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" s="36" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="36" t="s">
+    <row r="54" s="33" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="34" t="s">
         <v>140</v>
       </c>
+      <c r="B55" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="55" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K55" s="7" t="s">
+    <row r="56" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="L55" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>144</v>
+      <c r="B56" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="56" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K56" s="7" t="s">
+    <row r="57" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="L56" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>151</v>
+      <c r="B57" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="57" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H57" s="7" t="s">
+    <row r="58" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="I57" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>158</v>
+      <c r="B58" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="58" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K58" s="7" t="s">
+    <row r="59" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="L58" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>164</v>
+      <c r="B59" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="59" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H59" s="7" t="s">
+    <row r="60" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="I59" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>171</v>
-      </c>
     </row>
-    <row r="60" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="27" t="s">
+    <row r="61" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="28" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="61" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="29" t="s">
+      <c r="D61" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H61" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="G61" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="H61" s="29" t="s">
+      <c r="I61" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="I61" s="29" t="s">
+      <c r="J61" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="J61" s="23" t="s">
+      <c r="K61" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="L61" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="K61" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="L61" s="29" t="s">
+      <c r="M61" s="28" t="s">
         <v>179</v>
-      </c>
-      <c r="M61" s="29" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29" t="s">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>110</v>
-      </c>
       <c r="D62" s="0"/>
-      <c r="E62" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G62" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="H62" s="29" t="s">
+      <c r="E62" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I62" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="I62" s="29" t="s">
+      <c r="J62" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="K62" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K62" s="32" t="s">
+      <c r="L62" s="0"/>
+      <c r="M62" s="28" t="s">
         <v>184</v>
-      </c>
-      <c r="L62" s="0"/>
-      <c r="M62" s="29" t="s">
-        <v>185</v>
       </c>
       <c r="N62" s="0"/>
       <c r="O62" s="0"/>
@@ -46588,82 +46533,82 @@
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F63" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G63" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="H63" s="29" t="s">
+    <row r="63" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="I63" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="I63" s="23" t="s">
+      <c r="J63" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J63" s="29" t="s">
+      <c r="K63" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="M63" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="K63" s="29" t="s">
+    </row>
+    <row r="64" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="M63" s="23" t="s">
+      <c r="F64" s="22" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="64" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="F64" s="23" t="s">
+      <c r="G64" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H64" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="G64" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="H64" s="23" t="s">
+      <c r="J64" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="J64" s="23" t="s">
+      <c r="K64" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="M64" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="K64" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="M64" s="32" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0"/>
-      <c r="B65" s="34" t="s">
-        <v>194</v>
+      <c r="B65" s="29" t="s">
+        <v>193</v>
       </c>
       <c r="C65" s="0"/>
       <c r="D65" s="0"/>
       <c r="E65" s="0"/>
       <c r="F65" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="H65" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I65" s="0"/>
+      <c r="J65" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="I65" s="0"/>
-      <c r="J65" s="32" t="s">
+      <c r="K65" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="L65" s="0"/>
       <c r="M65" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N65" s="0"/>
       <c r="O65" s="0"/>
@@ -47679,31 +47624,31 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0"/>
-      <c r="B66" s="29" t="s">
-        <v>199</v>
+      <c r="B66" s="28" t="s">
+        <v>198</v>
       </c>
       <c r="C66" s="0"/>
       <c r="D66" s="0"/>
       <c r="E66" s="0"/>
       <c r="F66" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G66" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="I66" s="0"/>
       <c r="J66" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L66" s="0"/>
       <c r="M66" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N66" s="0"/>
       <c r="O66" s="0"/>
@@ -48719,23 +48664,23 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
-      <c r="B67" s="29" t="s">
-        <v>204</v>
+      <c r="B67" s="28" t="s">
+        <v>203</v>
       </c>
       <c r="C67" s="0"/>
       <c r="D67" s="0"/>
       <c r="E67" s="0"/>
       <c r="F67" s="0"/>
-      <c r="G67" s="16" t="s">
-        <v>138</v>
+      <c r="G67" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="H67" s="0"/>
       <c r="I67" s="0"/>
       <c r="J67" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L67" s="0"/>
       <c r="M67" s="0"/>
@@ -49753,8 +49698,8 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
-      <c r="B68" s="29" t="s">
-        <v>206</v>
+      <c r="B68" s="28" t="s">
+        <v>205</v>
       </c>
       <c r="C68" s="0"/>
       <c r="D68" s="0"/>
@@ -49763,8 +49708,8 @@
       <c r="G68" s="0"/>
       <c r="H68" s="0"/>
       <c r="I68" s="0"/>
-      <c r="J68" s="40" t="s">
-        <v>207</v>
+      <c r="J68" s="36" t="s">
+        <v>206</v>
       </c>
       <c r="K68" s="0"/>
       <c r="L68" s="0"/>
@@ -50783,18 +50728,18 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0"/>
-      <c r="B69" s="29" t="s">
-        <v>208</v>
+      <c r="B69" s="28" t="s">
+        <v>207</v>
       </c>
       <c r="C69" s="0"/>
       <c r="D69" s="0"/>
       <c r="E69" s="0"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
       <c r="H69" s="0"/>
       <c r="I69" s="0"/>
-      <c r="J69" s="40" t="s">
-        <v>209</v>
+      <c r="J69" s="36" t="s">
+        <v>208</v>
       </c>
       <c r="K69" s="0"/>
       <c r="L69" s="0"/>
@@ -51813,17 +51758,15 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
-      <c r="B70" s="0"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="0"/>
       <c r="D70" s="0"/>
       <c r="E70" s="0"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
+      <c r="F70" s="0"/>
+      <c r="G70" s="0"/>
       <c r="H70" s="0"/>
-      <c r="I70" s="0"/>
-      <c r="J70" s="40" t="s">
-        <v>210</v>
-      </c>
+      <c r="I70" s="22"/>
+      <c r="J70" s="0"/>
       <c r="K70" s="0"/>
       <c r="L70" s="0"/>
       <c r="M70" s="0"/>
@@ -52839,1050 +52782,29 @@
       <c r="AMI70" s="0"/>
       <c r="AMJ70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0"/>
-      <c r="B71" s="0"/>
-      <c r="C71" s="0"/>
-      <c r="D71" s="0"/>
-      <c r="E71" s="0"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="0"/>
-      <c r="I71" s="0"/>
-      <c r="J71" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="K71" s="23"/>
-      <c r="L71" s="0"/>
-      <c r="M71" s="0"/>
-      <c r="N71" s="0"/>
-      <c r="O71" s="0"/>
-      <c r="P71" s="0"/>
-      <c r="Q71" s="0"/>
-      <c r="R71" s="0"/>
-      <c r="S71" s="0"/>
-      <c r="T71" s="0"/>
-      <c r="U71" s="0"/>
-      <c r="V71" s="0"/>
-      <c r="W71" s="0"/>
-      <c r="X71" s="0"/>
-      <c r="Y71" s="0"/>
-      <c r="Z71" s="0"/>
-      <c r="AA71" s="0"/>
-      <c r="AB71" s="0"/>
-      <c r="AC71" s="0"/>
-      <c r="AD71" s="0"/>
-      <c r="AE71" s="0"/>
-      <c r="AF71" s="0"/>
-      <c r="AG71" s="0"/>
-      <c r="AH71" s="0"/>
-      <c r="AI71" s="0"/>
-      <c r="AJ71" s="0"/>
-      <c r="AK71" s="0"/>
-      <c r="AL71" s="0"/>
-      <c r="AM71" s="0"/>
-      <c r="AN71" s="0"/>
-      <c r="AO71" s="0"/>
-      <c r="AP71" s="0"/>
-      <c r="AQ71" s="0"/>
-      <c r="AR71" s="0"/>
-      <c r="AS71" s="0"/>
-      <c r="AT71" s="0"/>
-      <c r="AU71" s="0"/>
-      <c r="AV71" s="0"/>
-      <c r="AW71" s="0"/>
-      <c r="AX71" s="0"/>
-      <c r="AY71" s="0"/>
-      <c r="AZ71" s="0"/>
-      <c r="BA71" s="0"/>
-      <c r="BB71" s="0"/>
-      <c r="BC71" s="0"/>
-      <c r="BD71" s="0"/>
-      <c r="BE71" s="0"/>
-      <c r="BF71" s="0"/>
-      <c r="BG71" s="0"/>
-      <c r="BH71" s="0"/>
-      <c r="BI71" s="0"/>
-      <c r="BJ71" s="0"/>
-      <c r="BK71" s="0"/>
-      <c r="BL71" s="0"/>
-      <c r="BM71" s="0"/>
-      <c r="BN71" s="0"/>
-      <c r="BO71" s="0"/>
-      <c r="BP71" s="0"/>
-      <c r="BQ71" s="0"/>
-      <c r="BR71" s="0"/>
-      <c r="BS71" s="0"/>
-      <c r="BT71" s="0"/>
-      <c r="BU71" s="0"/>
-      <c r="BV71" s="0"/>
-      <c r="BW71" s="0"/>
-      <c r="BX71" s="0"/>
-      <c r="BY71" s="0"/>
-      <c r="BZ71" s="0"/>
-      <c r="CA71" s="0"/>
-      <c r="CB71" s="0"/>
-      <c r="CC71" s="0"/>
-      <c r="CD71" s="0"/>
-      <c r="CE71" s="0"/>
-      <c r="CF71" s="0"/>
-      <c r="CG71" s="0"/>
-      <c r="CH71" s="0"/>
-      <c r="CI71" s="0"/>
-      <c r="CJ71" s="0"/>
-      <c r="CK71" s="0"/>
-      <c r="CL71" s="0"/>
-      <c r="CM71" s="0"/>
-      <c r="CN71" s="0"/>
-      <c r="CO71" s="0"/>
-      <c r="CP71" s="0"/>
-      <c r="CQ71" s="0"/>
-      <c r="CR71" s="0"/>
-      <c r="CS71" s="0"/>
-      <c r="CT71" s="0"/>
-      <c r="CU71" s="0"/>
-      <c r="CV71" s="0"/>
-      <c r="CW71" s="0"/>
-      <c r="CX71" s="0"/>
-      <c r="CY71" s="0"/>
-      <c r="CZ71" s="0"/>
-      <c r="DA71" s="0"/>
-      <c r="DB71" s="0"/>
-      <c r="DC71" s="0"/>
-      <c r="DD71" s="0"/>
-      <c r="DE71" s="0"/>
-      <c r="DF71" s="0"/>
-      <c r="DG71" s="0"/>
-      <c r="DH71" s="0"/>
-      <c r="DI71" s="0"/>
-      <c r="DJ71" s="0"/>
-      <c r="DK71" s="0"/>
-      <c r="DL71" s="0"/>
-      <c r="DM71" s="0"/>
-      <c r="DN71" s="0"/>
-      <c r="DO71" s="0"/>
-      <c r="DP71" s="0"/>
-      <c r="DQ71" s="0"/>
-      <c r="DR71" s="0"/>
-      <c r="DS71" s="0"/>
-      <c r="DT71" s="0"/>
-      <c r="DU71" s="0"/>
-      <c r="DV71" s="0"/>
-      <c r="DW71" s="0"/>
-      <c r="DX71" s="0"/>
-      <c r="DY71" s="0"/>
-      <c r="DZ71" s="0"/>
-      <c r="EA71" s="0"/>
-      <c r="EB71" s="0"/>
-      <c r="EC71" s="0"/>
-      <c r="ED71" s="0"/>
-      <c r="EE71" s="0"/>
-      <c r="EF71" s="0"/>
-      <c r="EG71" s="0"/>
-      <c r="EH71" s="0"/>
-      <c r="EI71" s="0"/>
-      <c r="EJ71" s="0"/>
-      <c r="EK71" s="0"/>
-      <c r="EL71" s="0"/>
-      <c r="EM71" s="0"/>
-      <c r="EN71" s="0"/>
-      <c r="EO71" s="0"/>
-      <c r="EP71" s="0"/>
-      <c r="EQ71" s="0"/>
-      <c r="ER71" s="0"/>
-      <c r="ES71" s="0"/>
-      <c r="ET71" s="0"/>
-      <c r="EU71" s="0"/>
-      <c r="EV71" s="0"/>
-      <c r="EW71" s="0"/>
-      <c r="EX71" s="0"/>
-      <c r="EY71" s="0"/>
-      <c r="EZ71" s="0"/>
-      <c r="FA71" s="0"/>
-      <c r="FB71" s="0"/>
-      <c r="FC71" s="0"/>
-      <c r="FD71" s="0"/>
-      <c r="FE71" s="0"/>
-      <c r="FF71" s="0"/>
-      <c r="FG71" s="0"/>
-      <c r="FH71" s="0"/>
-      <c r="FI71" s="0"/>
-      <c r="FJ71" s="0"/>
-      <c r="FK71" s="0"/>
-      <c r="FL71" s="0"/>
-      <c r="FM71" s="0"/>
-      <c r="FN71" s="0"/>
-      <c r="FO71" s="0"/>
-      <c r="FP71" s="0"/>
-      <c r="FQ71" s="0"/>
-      <c r="FR71" s="0"/>
-      <c r="FS71" s="0"/>
-      <c r="FT71" s="0"/>
-      <c r="FU71" s="0"/>
-      <c r="FV71" s="0"/>
-      <c r="FW71" s="0"/>
-      <c r="FX71" s="0"/>
-      <c r="FY71" s="0"/>
-      <c r="FZ71" s="0"/>
-      <c r="GA71" s="0"/>
-      <c r="GB71" s="0"/>
-      <c r="GC71" s="0"/>
-      <c r="GD71" s="0"/>
-      <c r="GE71" s="0"/>
-      <c r="GF71" s="0"/>
-      <c r="GG71" s="0"/>
-      <c r="GH71" s="0"/>
-      <c r="GI71" s="0"/>
-      <c r="GJ71" s="0"/>
-      <c r="GK71" s="0"/>
-      <c r="GL71" s="0"/>
-      <c r="GM71" s="0"/>
-      <c r="GN71" s="0"/>
-      <c r="GO71" s="0"/>
-      <c r="GP71" s="0"/>
-      <c r="GQ71" s="0"/>
-      <c r="GR71" s="0"/>
-      <c r="GS71" s="0"/>
-      <c r="GT71" s="0"/>
-      <c r="GU71" s="0"/>
-      <c r="GV71" s="0"/>
-      <c r="GW71" s="0"/>
-      <c r="GX71" s="0"/>
-      <c r="GY71" s="0"/>
-      <c r="GZ71" s="0"/>
-      <c r="HA71" s="0"/>
-      <c r="HB71" s="0"/>
-      <c r="HC71" s="0"/>
-      <c r="HD71" s="0"/>
-      <c r="HE71" s="0"/>
-      <c r="HF71" s="0"/>
-      <c r="HG71" s="0"/>
-      <c r="HH71" s="0"/>
-      <c r="HI71" s="0"/>
-      <c r="HJ71" s="0"/>
-      <c r="HK71" s="0"/>
-      <c r="HL71" s="0"/>
-      <c r="HM71" s="0"/>
-      <c r="HN71" s="0"/>
-      <c r="HO71" s="0"/>
-      <c r="HP71" s="0"/>
-      <c r="HQ71" s="0"/>
-      <c r="HR71" s="0"/>
-      <c r="HS71" s="0"/>
-      <c r="HT71" s="0"/>
-      <c r="HU71" s="0"/>
-      <c r="HV71" s="0"/>
-      <c r="HW71" s="0"/>
-      <c r="HX71" s="0"/>
-      <c r="HY71" s="0"/>
-      <c r="HZ71" s="0"/>
-      <c r="IA71" s="0"/>
-      <c r="IB71" s="0"/>
-      <c r="IC71" s="0"/>
-      <c r="ID71" s="0"/>
-      <c r="IE71" s="0"/>
-      <c r="IF71" s="0"/>
-      <c r="IG71" s="0"/>
-      <c r="IH71" s="0"/>
-      <c r="II71" s="0"/>
-      <c r="IJ71" s="0"/>
-      <c r="IK71" s="0"/>
-      <c r="IL71" s="0"/>
-      <c r="IM71" s="0"/>
-      <c r="IN71" s="0"/>
-      <c r="IO71" s="0"/>
-      <c r="IP71" s="0"/>
-      <c r="IQ71" s="0"/>
-      <c r="IR71" s="0"/>
-      <c r="IS71" s="0"/>
-      <c r="IT71" s="0"/>
-      <c r="IU71" s="0"/>
-      <c r="IV71" s="0"/>
-      <c r="IW71" s="0"/>
-      <c r="IX71" s="0"/>
-      <c r="IY71" s="0"/>
-      <c r="IZ71" s="0"/>
-      <c r="JA71" s="0"/>
-      <c r="JB71" s="0"/>
-      <c r="JC71" s="0"/>
-      <c r="JD71" s="0"/>
-      <c r="JE71" s="0"/>
-      <c r="JF71" s="0"/>
-      <c r="JG71" s="0"/>
-      <c r="JH71" s="0"/>
-      <c r="JI71" s="0"/>
-      <c r="JJ71" s="0"/>
-      <c r="JK71" s="0"/>
-      <c r="JL71" s="0"/>
-      <c r="JM71" s="0"/>
-      <c r="JN71" s="0"/>
-      <c r="JO71" s="0"/>
-      <c r="JP71" s="0"/>
-      <c r="JQ71" s="0"/>
-      <c r="JR71" s="0"/>
-      <c r="JS71" s="0"/>
-      <c r="JT71" s="0"/>
-      <c r="JU71" s="0"/>
-      <c r="JV71" s="0"/>
-      <c r="JW71" s="0"/>
-      <c r="JX71" s="0"/>
-      <c r="JY71" s="0"/>
-      <c r="JZ71" s="0"/>
-      <c r="KA71" s="0"/>
-      <c r="KB71" s="0"/>
-      <c r="KC71" s="0"/>
-      <c r="KD71" s="0"/>
-      <c r="KE71" s="0"/>
-      <c r="KF71" s="0"/>
-      <c r="KG71" s="0"/>
-      <c r="KH71" s="0"/>
-      <c r="KI71" s="0"/>
-      <c r="KJ71" s="0"/>
-      <c r="KK71" s="0"/>
-      <c r="KL71" s="0"/>
-      <c r="KM71" s="0"/>
-      <c r="KN71" s="0"/>
-      <c r="KO71" s="0"/>
-      <c r="KP71" s="0"/>
-      <c r="KQ71" s="0"/>
-      <c r="KR71" s="0"/>
-      <c r="KS71" s="0"/>
-      <c r="KT71" s="0"/>
-      <c r="KU71" s="0"/>
-      <c r="KV71" s="0"/>
-      <c r="KW71" s="0"/>
-      <c r="KX71" s="0"/>
-      <c r="KY71" s="0"/>
-      <c r="KZ71" s="0"/>
-      <c r="LA71" s="0"/>
-      <c r="LB71" s="0"/>
-      <c r="LC71" s="0"/>
-      <c r="LD71" s="0"/>
-      <c r="LE71" s="0"/>
-      <c r="LF71" s="0"/>
-      <c r="LG71" s="0"/>
-      <c r="LH71" s="0"/>
-      <c r="LI71" s="0"/>
-      <c r="LJ71" s="0"/>
-      <c r="LK71" s="0"/>
-      <c r="LL71" s="0"/>
-      <c r="LM71" s="0"/>
-      <c r="LN71" s="0"/>
-      <c r="LO71" s="0"/>
-      <c r="LP71" s="0"/>
-      <c r="LQ71" s="0"/>
-      <c r="LR71" s="0"/>
-      <c r="LS71" s="0"/>
-      <c r="LT71" s="0"/>
-      <c r="LU71" s="0"/>
-      <c r="LV71" s="0"/>
-      <c r="LW71" s="0"/>
-      <c r="LX71" s="0"/>
-      <c r="LY71" s="0"/>
-      <c r="LZ71" s="0"/>
-      <c r="MA71" s="0"/>
-      <c r="MB71" s="0"/>
-      <c r="MC71" s="0"/>
-      <c r="MD71" s="0"/>
-      <c r="ME71" s="0"/>
-      <c r="MF71" s="0"/>
-      <c r="MG71" s="0"/>
-      <c r="MH71" s="0"/>
-      <c r="MI71" s="0"/>
-      <c r="MJ71" s="0"/>
-      <c r="MK71" s="0"/>
-      <c r="ML71" s="0"/>
-      <c r="MM71" s="0"/>
-      <c r="MN71" s="0"/>
-      <c r="MO71" s="0"/>
-      <c r="MP71" s="0"/>
-      <c r="MQ71" s="0"/>
-      <c r="MR71" s="0"/>
-      <c r="MS71" s="0"/>
-      <c r="MT71" s="0"/>
-      <c r="MU71" s="0"/>
-      <c r="MV71" s="0"/>
-      <c r="MW71" s="0"/>
-      <c r="MX71" s="0"/>
-      <c r="MY71" s="0"/>
-      <c r="MZ71" s="0"/>
-      <c r="NA71" s="0"/>
-      <c r="NB71" s="0"/>
-      <c r="NC71" s="0"/>
-      <c r="ND71" s="0"/>
-      <c r="NE71" s="0"/>
-      <c r="NF71" s="0"/>
-      <c r="NG71" s="0"/>
-      <c r="NH71" s="0"/>
-      <c r="NI71" s="0"/>
-      <c r="NJ71" s="0"/>
-      <c r="NK71" s="0"/>
-      <c r="NL71" s="0"/>
-      <c r="NM71" s="0"/>
-      <c r="NN71" s="0"/>
-      <c r="NO71" s="0"/>
-      <c r="NP71" s="0"/>
-      <c r="NQ71" s="0"/>
-      <c r="NR71" s="0"/>
-      <c r="NS71" s="0"/>
-      <c r="NT71" s="0"/>
-      <c r="NU71" s="0"/>
-      <c r="NV71" s="0"/>
-      <c r="NW71" s="0"/>
-      <c r="NX71" s="0"/>
-      <c r="NY71" s="0"/>
-      <c r="NZ71" s="0"/>
-      <c r="OA71" s="0"/>
-      <c r="OB71" s="0"/>
-      <c r="OC71" s="0"/>
-      <c r="OD71" s="0"/>
-      <c r="OE71" s="0"/>
-      <c r="OF71" s="0"/>
-      <c r="OG71" s="0"/>
-      <c r="OH71" s="0"/>
-      <c r="OI71" s="0"/>
-      <c r="OJ71" s="0"/>
-      <c r="OK71" s="0"/>
-      <c r="OL71" s="0"/>
-      <c r="OM71" s="0"/>
-      <c r="ON71" s="0"/>
-      <c r="OO71" s="0"/>
-      <c r="OP71" s="0"/>
-      <c r="OQ71" s="0"/>
-      <c r="OR71" s="0"/>
-      <c r="OS71" s="0"/>
-      <c r="OT71" s="0"/>
-      <c r="OU71" s="0"/>
-      <c r="OV71" s="0"/>
-      <c r="OW71" s="0"/>
-      <c r="OX71" s="0"/>
-      <c r="OY71" s="0"/>
-      <c r="OZ71" s="0"/>
-      <c r="PA71" s="0"/>
-      <c r="PB71" s="0"/>
-      <c r="PC71" s="0"/>
-      <c r="PD71" s="0"/>
-      <c r="PE71" s="0"/>
-      <c r="PF71" s="0"/>
-      <c r="PG71" s="0"/>
-      <c r="PH71" s="0"/>
-      <c r="PI71" s="0"/>
-      <c r="PJ71" s="0"/>
-      <c r="PK71" s="0"/>
-      <c r="PL71" s="0"/>
-      <c r="PM71" s="0"/>
-      <c r="PN71" s="0"/>
-      <c r="PO71" s="0"/>
-      <c r="PP71" s="0"/>
-      <c r="PQ71" s="0"/>
-      <c r="PR71" s="0"/>
-      <c r="PS71" s="0"/>
-      <c r="PT71" s="0"/>
-      <c r="PU71" s="0"/>
-      <c r="PV71" s="0"/>
-      <c r="PW71" s="0"/>
-      <c r="PX71" s="0"/>
-      <c r="PY71" s="0"/>
-      <c r="PZ71" s="0"/>
-      <c r="QA71" s="0"/>
-      <c r="QB71" s="0"/>
-      <c r="QC71" s="0"/>
-      <c r="QD71" s="0"/>
-      <c r="QE71" s="0"/>
-      <c r="QF71" s="0"/>
-      <c r="QG71" s="0"/>
-      <c r="QH71" s="0"/>
-      <c r="QI71" s="0"/>
-      <c r="QJ71" s="0"/>
-      <c r="QK71" s="0"/>
-      <c r="QL71" s="0"/>
-      <c r="QM71" s="0"/>
-      <c r="QN71" s="0"/>
-      <c r="QO71" s="0"/>
-      <c r="QP71" s="0"/>
-      <c r="QQ71" s="0"/>
-      <c r="QR71" s="0"/>
-      <c r="QS71" s="0"/>
-      <c r="QT71" s="0"/>
-      <c r="QU71" s="0"/>
-      <c r="QV71" s="0"/>
-      <c r="QW71" s="0"/>
-      <c r="QX71" s="0"/>
-      <c r="QY71" s="0"/>
-      <c r="QZ71" s="0"/>
-      <c r="RA71" s="0"/>
-      <c r="RB71" s="0"/>
-      <c r="RC71" s="0"/>
-      <c r="RD71" s="0"/>
-      <c r="RE71" s="0"/>
-      <c r="RF71" s="0"/>
-      <c r="RG71" s="0"/>
-      <c r="RH71" s="0"/>
-      <c r="RI71" s="0"/>
-      <c r="RJ71" s="0"/>
-      <c r="RK71" s="0"/>
-      <c r="RL71" s="0"/>
-      <c r="RM71" s="0"/>
-      <c r="RN71" s="0"/>
-      <c r="RO71" s="0"/>
-      <c r="RP71" s="0"/>
-      <c r="RQ71" s="0"/>
-      <c r="RR71" s="0"/>
-      <c r="RS71" s="0"/>
-      <c r="RT71" s="0"/>
-      <c r="RU71" s="0"/>
-      <c r="RV71" s="0"/>
-      <c r="RW71" s="0"/>
-      <c r="RX71" s="0"/>
-      <c r="RY71" s="0"/>
-      <c r="RZ71" s="0"/>
-      <c r="SA71" s="0"/>
-      <c r="SB71" s="0"/>
-      <c r="SC71" s="0"/>
-      <c r="SD71" s="0"/>
-      <c r="SE71" s="0"/>
-      <c r="SF71" s="0"/>
-      <c r="SG71" s="0"/>
-      <c r="SH71" s="0"/>
-      <c r="SI71" s="0"/>
-      <c r="SJ71" s="0"/>
-      <c r="SK71" s="0"/>
-      <c r="SL71" s="0"/>
-      <c r="SM71" s="0"/>
-      <c r="SN71" s="0"/>
-      <c r="SO71" s="0"/>
-      <c r="SP71" s="0"/>
-      <c r="SQ71" s="0"/>
-      <c r="SR71" s="0"/>
-      <c r="SS71" s="0"/>
-      <c r="ST71" s="0"/>
-      <c r="SU71" s="0"/>
-      <c r="SV71" s="0"/>
-      <c r="SW71" s="0"/>
-      <c r="SX71" s="0"/>
-      <c r="SY71" s="0"/>
-      <c r="SZ71" s="0"/>
-      <c r="TA71" s="0"/>
-      <c r="TB71" s="0"/>
-      <c r="TC71" s="0"/>
-      <c r="TD71" s="0"/>
-      <c r="TE71" s="0"/>
-      <c r="TF71" s="0"/>
-      <c r="TG71" s="0"/>
-      <c r="TH71" s="0"/>
-      <c r="TI71" s="0"/>
-      <c r="TJ71" s="0"/>
-      <c r="TK71" s="0"/>
-      <c r="TL71" s="0"/>
-      <c r="TM71" s="0"/>
-      <c r="TN71" s="0"/>
-      <c r="TO71" s="0"/>
-      <c r="TP71" s="0"/>
-      <c r="TQ71" s="0"/>
-      <c r="TR71" s="0"/>
-      <c r="TS71" s="0"/>
-      <c r="TT71" s="0"/>
-      <c r="TU71" s="0"/>
-      <c r="TV71" s="0"/>
-      <c r="TW71" s="0"/>
-      <c r="TX71" s="0"/>
-      <c r="TY71" s="0"/>
-      <c r="TZ71" s="0"/>
-      <c r="UA71" s="0"/>
-      <c r="UB71" s="0"/>
-      <c r="UC71" s="0"/>
-      <c r="UD71" s="0"/>
-      <c r="UE71" s="0"/>
-      <c r="UF71" s="0"/>
-      <c r="UG71" s="0"/>
-      <c r="UH71" s="0"/>
-      <c r="UI71" s="0"/>
-      <c r="UJ71" s="0"/>
-      <c r="UK71" s="0"/>
-      <c r="UL71" s="0"/>
-      <c r="UM71" s="0"/>
-      <c r="UN71" s="0"/>
-      <c r="UO71" s="0"/>
-      <c r="UP71" s="0"/>
-      <c r="UQ71" s="0"/>
-      <c r="UR71" s="0"/>
-      <c r="US71" s="0"/>
-      <c r="UT71" s="0"/>
-      <c r="UU71" s="0"/>
-      <c r="UV71" s="0"/>
-      <c r="UW71" s="0"/>
-      <c r="UX71" s="0"/>
-      <c r="UY71" s="0"/>
-      <c r="UZ71" s="0"/>
-      <c r="VA71" s="0"/>
-      <c r="VB71" s="0"/>
-      <c r="VC71" s="0"/>
-      <c r="VD71" s="0"/>
-      <c r="VE71" s="0"/>
-      <c r="VF71" s="0"/>
-      <c r="VG71" s="0"/>
-      <c r="VH71" s="0"/>
-      <c r="VI71" s="0"/>
-      <c r="VJ71" s="0"/>
-      <c r="VK71" s="0"/>
-      <c r="VL71" s="0"/>
-      <c r="VM71" s="0"/>
-      <c r="VN71" s="0"/>
-      <c r="VO71" s="0"/>
-      <c r="VP71" s="0"/>
-      <c r="VQ71" s="0"/>
-      <c r="VR71" s="0"/>
-      <c r="VS71" s="0"/>
-      <c r="VT71" s="0"/>
-      <c r="VU71" s="0"/>
-      <c r="VV71" s="0"/>
-      <c r="VW71" s="0"/>
-      <c r="VX71" s="0"/>
-      <c r="VY71" s="0"/>
-      <c r="VZ71" s="0"/>
-      <c r="WA71" s="0"/>
-      <c r="WB71" s="0"/>
-      <c r="WC71" s="0"/>
-      <c r="WD71" s="0"/>
-      <c r="WE71" s="0"/>
-      <c r="WF71" s="0"/>
-      <c r="WG71" s="0"/>
-      <c r="WH71" s="0"/>
-      <c r="WI71" s="0"/>
-      <c r="WJ71" s="0"/>
-      <c r="WK71" s="0"/>
-      <c r="WL71" s="0"/>
-      <c r="WM71" s="0"/>
-      <c r="WN71" s="0"/>
-      <c r="WO71" s="0"/>
-      <c r="WP71" s="0"/>
-      <c r="WQ71" s="0"/>
-      <c r="WR71" s="0"/>
-      <c r="WS71" s="0"/>
-      <c r="WT71" s="0"/>
-      <c r="WU71" s="0"/>
-      <c r="WV71" s="0"/>
-      <c r="WW71" s="0"/>
-      <c r="WX71" s="0"/>
-      <c r="WY71" s="0"/>
-      <c r="WZ71" s="0"/>
-      <c r="XA71" s="0"/>
-      <c r="XB71" s="0"/>
-      <c r="XC71" s="0"/>
-      <c r="XD71" s="0"/>
-      <c r="XE71" s="0"/>
-      <c r="XF71" s="0"/>
-      <c r="XG71" s="0"/>
-      <c r="XH71" s="0"/>
-      <c r="XI71" s="0"/>
-      <c r="XJ71" s="0"/>
-      <c r="XK71" s="0"/>
-      <c r="XL71" s="0"/>
-      <c r="XM71" s="0"/>
-      <c r="XN71" s="0"/>
-      <c r="XO71" s="0"/>
-      <c r="XP71" s="0"/>
-      <c r="XQ71" s="0"/>
-      <c r="XR71" s="0"/>
-      <c r="XS71" s="0"/>
-      <c r="XT71" s="0"/>
-      <c r="XU71" s="0"/>
-      <c r="XV71" s="0"/>
-      <c r="XW71" s="0"/>
-      <c r="XX71" s="0"/>
-      <c r="XY71" s="0"/>
-      <c r="XZ71" s="0"/>
-      <c r="YA71" s="0"/>
-      <c r="YB71" s="0"/>
-      <c r="YC71" s="0"/>
-      <c r="YD71" s="0"/>
-      <c r="YE71" s="0"/>
-      <c r="YF71" s="0"/>
-      <c r="YG71" s="0"/>
-      <c r="YH71" s="0"/>
-      <c r="YI71" s="0"/>
-      <c r="YJ71" s="0"/>
-      <c r="YK71" s="0"/>
-      <c r="YL71" s="0"/>
-      <c r="YM71" s="0"/>
-      <c r="YN71" s="0"/>
-      <c r="YO71" s="0"/>
-      <c r="YP71" s="0"/>
-      <c r="YQ71" s="0"/>
-      <c r="YR71" s="0"/>
-      <c r="YS71" s="0"/>
-      <c r="YT71" s="0"/>
-      <c r="YU71" s="0"/>
-      <c r="YV71" s="0"/>
-      <c r="YW71" s="0"/>
-      <c r="YX71" s="0"/>
-      <c r="YY71" s="0"/>
-      <c r="YZ71" s="0"/>
-      <c r="ZA71" s="0"/>
-      <c r="ZB71" s="0"/>
-      <c r="ZC71" s="0"/>
-      <c r="ZD71" s="0"/>
-      <c r="ZE71" s="0"/>
-      <c r="ZF71" s="0"/>
-      <c r="ZG71" s="0"/>
-      <c r="ZH71" s="0"/>
-      <c r="ZI71" s="0"/>
-      <c r="ZJ71" s="0"/>
-      <c r="ZK71" s="0"/>
-      <c r="ZL71" s="0"/>
-      <c r="ZM71" s="0"/>
-      <c r="ZN71" s="0"/>
-      <c r="ZO71" s="0"/>
-      <c r="ZP71" s="0"/>
-      <c r="ZQ71" s="0"/>
-      <c r="ZR71" s="0"/>
-      <c r="ZS71" s="0"/>
-      <c r="ZT71" s="0"/>
-      <c r="ZU71" s="0"/>
-      <c r="ZV71" s="0"/>
-      <c r="ZW71" s="0"/>
-      <c r="ZX71" s="0"/>
-      <c r="ZY71" s="0"/>
-      <c r="ZZ71" s="0"/>
-      <c r="AAA71" s="0"/>
-      <c r="AAB71" s="0"/>
-      <c r="AAC71" s="0"/>
-      <c r="AAD71" s="0"/>
-      <c r="AAE71" s="0"/>
-      <c r="AAF71" s="0"/>
-      <c r="AAG71" s="0"/>
-      <c r="AAH71" s="0"/>
-      <c r="AAI71" s="0"/>
-      <c r="AAJ71" s="0"/>
-      <c r="AAK71" s="0"/>
-      <c r="AAL71" s="0"/>
-      <c r="AAM71" s="0"/>
-      <c r="AAN71" s="0"/>
-      <c r="AAO71" s="0"/>
-      <c r="AAP71" s="0"/>
-      <c r="AAQ71" s="0"/>
-      <c r="AAR71" s="0"/>
-      <c r="AAS71" s="0"/>
-      <c r="AAT71" s="0"/>
-      <c r="AAU71" s="0"/>
-      <c r="AAV71" s="0"/>
-      <c r="AAW71" s="0"/>
-      <c r="AAX71" s="0"/>
-      <c r="AAY71" s="0"/>
-      <c r="AAZ71" s="0"/>
-      <c r="ABA71" s="0"/>
-      <c r="ABB71" s="0"/>
-      <c r="ABC71" s="0"/>
-      <c r="ABD71" s="0"/>
-      <c r="ABE71" s="0"/>
-      <c r="ABF71" s="0"/>
-      <c r="ABG71" s="0"/>
-      <c r="ABH71" s="0"/>
-      <c r="ABI71" s="0"/>
-      <c r="ABJ71" s="0"/>
-      <c r="ABK71" s="0"/>
-      <c r="ABL71" s="0"/>
-      <c r="ABM71" s="0"/>
-      <c r="ABN71" s="0"/>
-      <c r="ABO71" s="0"/>
-      <c r="ABP71" s="0"/>
-      <c r="ABQ71" s="0"/>
-      <c r="ABR71" s="0"/>
-      <c r="ABS71" s="0"/>
-      <c r="ABT71" s="0"/>
-      <c r="ABU71" s="0"/>
-      <c r="ABV71" s="0"/>
-      <c r="ABW71" s="0"/>
-      <c r="ABX71" s="0"/>
-      <c r="ABY71" s="0"/>
-      <c r="ABZ71" s="0"/>
-      <c r="ACA71" s="0"/>
-      <c r="ACB71" s="0"/>
-      <c r="ACC71" s="0"/>
-      <c r="ACD71" s="0"/>
-      <c r="ACE71" s="0"/>
-      <c r="ACF71" s="0"/>
-      <c r="ACG71" s="0"/>
-      <c r="ACH71" s="0"/>
-      <c r="ACI71" s="0"/>
-      <c r="ACJ71" s="0"/>
-      <c r="ACK71" s="0"/>
-      <c r="ACL71" s="0"/>
-      <c r="ACM71" s="0"/>
-      <c r="ACN71" s="0"/>
-      <c r="ACO71" s="0"/>
-      <c r="ACP71" s="0"/>
-      <c r="ACQ71" s="0"/>
-      <c r="ACR71" s="0"/>
-      <c r="ACS71" s="0"/>
-      <c r="ACT71" s="0"/>
-      <c r="ACU71" s="0"/>
-      <c r="ACV71" s="0"/>
-      <c r="ACW71" s="0"/>
-      <c r="ACX71" s="0"/>
-      <c r="ACY71" s="0"/>
-      <c r="ACZ71" s="0"/>
-      <c r="ADA71" s="0"/>
-      <c r="ADB71" s="0"/>
-      <c r="ADC71" s="0"/>
-      <c r="ADD71" s="0"/>
-      <c r="ADE71" s="0"/>
-      <c r="ADF71" s="0"/>
-      <c r="ADG71" s="0"/>
-      <c r="ADH71" s="0"/>
-      <c r="ADI71" s="0"/>
-      <c r="ADJ71" s="0"/>
-      <c r="ADK71" s="0"/>
-      <c r="ADL71" s="0"/>
-      <c r="ADM71" s="0"/>
-      <c r="ADN71" s="0"/>
-      <c r="ADO71" s="0"/>
-      <c r="ADP71" s="0"/>
-      <c r="ADQ71" s="0"/>
-      <c r="ADR71" s="0"/>
-      <c r="ADS71" s="0"/>
-      <c r="ADT71" s="0"/>
-      <c r="ADU71" s="0"/>
-      <c r="ADV71" s="0"/>
-      <c r="ADW71" s="0"/>
-      <c r="ADX71" s="0"/>
-      <c r="ADY71" s="0"/>
-      <c r="ADZ71" s="0"/>
-      <c r="AEA71" s="0"/>
-      <c r="AEB71" s="0"/>
-      <c r="AEC71" s="0"/>
-      <c r="AED71" s="0"/>
-      <c r="AEE71" s="0"/>
-      <c r="AEF71" s="0"/>
-      <c r="AEG71" s="0"/>
-      <c r="AEH71" s="0"/>
-      <c r="AEI71" s="0"/>
-      <c r="AEJ71" s="0"/>
-      <c r="AEK71" s="0"/>
-      <c r="AEL71" s="0"/>
-      <c r="AEM71" s="0"/>
-      <c r="AEN71" s="0"/>
-      <c r="AEO71" s="0"/>
-      <c r="AEP71" s="0"/>
-      <c r="AEQ71" s="0"/>
-      <c r="AER71" s="0"/>
-      <c r="AES71" s="0"/>
-      <c r="AET71" s="0"/>
-      <c r="AEU71" s="0"/>
-      <c r="AEV71" s="0"/>
-      <c r="AEW71" s="0"/>
-      <c r="AEX71" s="0"/>
-      <c r="AEY71" s="0"/>
-      <c r="AEZ71" s="0"/>
-      <c r="AFA71" s="0"/>
-      <c r="AFB71" s="0"/>
-      <c r="AFC71" s="0"/>
-      <c r="AFD71" s="0"/>
-      <c r="AFE71" s="0"/>
-      <c r="AFF71" s="0"/>
-      <c r="AFG71" s="0"/>
-      <c r="AFH71" s="0"/>
-      <c r="AFI71" s="0"/>
-      <c r="AFJ71" s="0"/>
-      <c r="AFK71" s="0"/>
-      <c r="AFL71" s="0"/>
-      <c r="AFM71" s="0"/>
-      <c r="AFN71" s="0"/>
-      <c r="AFO71" s="0"/>
-      <c r="AFP71" s="0"/>
-      <c r="AFQ71" s="0"/>
-      <c r="AFR71" s="0"/>
-      <c r="AFS71" s="0"/>
-      <c r="AFT71" s="0"/>
-      <c r="AFU71" s="0"/>
-      <c r="AFV71" s="0"/>
-      <c r="AFW71" s="0"/>
-      <c r="AFX71" s="0"/>
-      <c r="AFY71" s="0"/>
-      <c r="AFZ71" s="0"/>
-      <c r="AGA71" s="0"/>
-      <c r="AGB71" s="0"/>
-      <c r="AGC71" s="0"/>
-      <c r="AGD71" s="0"/>
-      <c r="AGE71" s="0"/>
-      <c r="AGF71" s="0"/>
-      <c r="AGG71" s="0"/>
-      <c r="AGH71" s="0"/>
-      <c r="AGI71" s="0"/>
-      <c r="AGJ71" s="0"/>
-      <c r="AGK71" s="0"/>
-      <c r="AGL71" s="0"/>
-      <c r="AGM71" s="0"/>
-      <c r="AGN71" s="0"/>
-      <c r="AGO71" s="0"/>
-      <c r="AGP71" s="0"/>
-      <c r="AGQ71" s="0"/>
-      <c r="AGR71" s="0"/>
-      <c r="AGS71" s="0"/>
-      <c r="AGT71" s="0"/>
-      <c r="AGU71" s="0"/>
-      <c r="AGV71" s="0"/>
-      <c r="AGW71" s="0"/>
-      <c r="AGX71" s="0"/>
-      <c r="AGY71" s="0"/>
-      <c r="AGZ71" s="0"/>
-      <c r="AHA71" s="0"/>
-      <c r="AHB71" s="0"/>
-      <c r="AHC71" s="0"/>
-      <c r="AHD71" s="0"/>
-      <c r="AHE71" s="0"/>
-      <c r="AHF71" s="0"/>
-      <c r="AHG71" s="0"/>
-      <c r="AHH71" s="0"/>
-      <c r="AHI71" s="0"/>
-      <c r="AHJ71" s="0"/>
-      <c r="AHK71" s="0"/>
-      <c r="AHL71" s="0"/>
-      <c r="AHM71" s="0"/>
-      <c r="AHN71" s="0"/>
-      <c r="AHO71" s="0"/>
-      <c r="AHP71" s="0"/>
-      <c r="AHQ71" s="0"/>
-      <c r="AHR71" s="0"/>
-      <c r="AHS71" s="0"/>
-      <c r="AHT71" s="0"/>
-      <c r="AHU71" s="0"/>
-      <c r="AHV71" s="0"/>
-      <c r="AHW71" s="0"/>
-      <c r="AHX71" s="0"/>
-      <c r="AHY71" s="0"/>
-      <c r="AHZ71" s="0"/>
-      <c r="AIA71" s="0"/>
-      <c r="AIB71" s="0"/>
-      <c r="AIC71" s="0"/>
-      <c r="AID71" s="0"/>
-      <c r="AIE71" s="0"/>
-      <c r="AIF71" s="0"/>
-      <c r="AIG71" s="0"/>
-      <c r="AIH71" s="0"/>
-      <c r="AII71" s="0"/>
-      <c r="AIJ71" s="0"/>
-      <c r="AIK71" s="0"/>
-      <c r="AIL71" s="0"/>
-      <c r="AIM71" s="0"/>
-      <c r="AIN71" s="0"/>
-      <c r="AIO71" s="0"/>
-      <c r="AIP71" s="0"/>
-      <c r="AIQ71" s="0"/>
-      <c r="AIR71" s="0"/>
-      <c r="AIS71" s="0"/>
-      <c r="AIT71" s="0"/>
-      <c r="AIU71" s="0"/>
-      <c r="AIV71" s="0"/>
-      <c r="AIW71" s="0"/>
-      <c r="AIX71" s="0"/>
-      <c r="AIY71" s="0"/>
-      <c r="AIZ71" s="0"/>
-      <c r="AJA71" s="0"/>
-      <c r="AJB71" s="0"/>
-      <c r="AJC71" s="0"/>
-      <c r="AJD71" s="0"/>
-      <c r="AJE71" s="0"/>
-      <c r="AJF71" s="0"/>
-      <c r="AJG71" s="0"/>
-      <c r="AJH71" s="0"/>
-      <c r="AJI71" s="0"/>
-      <c r="AJJ71" s="0"/>
-      <c r="AJK71" s="0"/>
-      <c r="AJL71" s="0"/>
-      <c r="AJM71" s="0"/>
-      <c r="AJN71" s="0"/>
-      <c r="AJO71" s="0"/>
-      <c r="AJP71" s="0"/>
-      <c r="AJQ71" s="0"/>
-      <c r="AJR71" s="0"/>
-      <c r="AJS71" s="0"/>
-      <c r="AJT71" s="0"/>
-      <c r="AJU71" s="0"/>
-      <c r="AJV71" s="0"/>
-      <c r="AJW71" s="0"/>
-      <c r="AJX71" s="0"/>
-      <c r="AJY71" s="0"/>
-      <c r="AJZ71" s="0"/>
-      <c r="AKA71" s="0"/>
-      <c r="AKB71" s="0"/>
-      <c r="AKC71" s="0"/>
-      <c r="AKD71" s="0"/>
-      <c r="AKE71" s="0"/>
-      <c r="AKF71" s="0"/>
-      <c r="AKG71" s="0"/>
-      <c r="AKH71" s="0"/>
-      <c r="AKI71" s="0"/>
-      <c r="AKJ71" s="0"/>
-      <c r="AKK71" s="0"/>
-      <c r="AKL71" s="0"/>
-      <c r="AKM71" s="0"/>
-      <c r="AKN71" s="0"/>
-      <c r="AKO71" s="0"/>
-      <c r="AKP71" s="0"/>
-      <c r="AKQ71" s="0"/>
-      <c r="AKR71" s="0"/>
-      <c r="AKS71" s="0"/>
-      <c r="AKT71" s="0"/>
-      <c r="AKU71" s="0"/>
-      <c r="AKV71" s="0"/>
-      <c r="AKW71" s="0"/>
-      <c r="AKX71" s="0"/>
-      <c r="AKY71" s="0"/>
-      <c r="AKZ71" s="0"/>
-      <c r="ALA71" s="0"/>
-      <c r="ALB71" s="0"/>
-      <c r="ALC71" s="0"/>
-      <c r="ALD71" s="0"/>
-      <c r="ALE71" s="0"/>
-      <c r="ALF71" s="0"/>
-      <c r="ALG71" s="0"/>
-      <c r="ALH71" s="0"/>
-      <c r="ALI71" s="0"/>
-      <c r="ALJ71" s="0"/>
-      <c r="ALK71" s="0"/>
-      <c r="ALL71" s="0"/>
-      <c r="ALM71" s="0"/>
-      <c r="ALN71" s="0"/>
-      <c r="ALO71" s="0"/>
-      <c r="ALP71" s="0"/>
-      <c r="ALQ71" s="0"/>
-      <c r="ALR71" s="0"/>
-      <c r="ALS71" s="0"/>
-      <c r="ALT71" s="0"/>
-      <c r="ALU71" s="0"/>
-      <c r="ALV71" s="0"/>
-      <c r="ALW71" s="0"/>
-      <c r="ALX71" s="0"/>
-      <c r="ALY71" s="0"/>
-      <c r="ALZ71" s="0"/>
-      <c r="AMA71" s="0"/>
-      <c r="AMB71" s="0"/>
-      <c r="AMC71" s="0"/>
-      <c r="AMD71" s="0"/>
-      <c r="AME71" s="0"/>
-      <c r="AMF71" s="0"/>
-      <c r="AMG71" s="0"/>
-      <c r="AMH71" s="0"/>
-      <c r="AMI71" s="0"/>
-      <c r="AMJ71" s="0"/>
+    <row r="71" s="37" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="37" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="41"/>
-      <c r="B72" s="0"/>
-      <c r="C72" s="0"/>
-      <c r="D72" s="0"/>
-      <c r="E72" s="0"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="0"/>
-      <c r="I72" s="0"/>
-      <c r="J72" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="K72" s="23"/>
-      <c r="L72" s="0"/>
-      <c r="M72" s="0"/>
+      <c r="A72" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
       <c r="N72" s="0"/>
       <c r="O72" s="0"/>
       <c r="P72" s="0"/>
@@ -54895,145 +53817,85 @@
       <c r="AMI72" s="0"/>
       <c r="AMJ72" s="0"/>
     </row>
-    <row r="73" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="42"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="40"/>
+    <row r="73" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="26" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="0"/>
-      <c r="D74" s="0"/>
-      <c r="E74" s="0"/>
+      <c r="B74" s="28" t="s">
+        <v>108</v>
+      </c>
       <c r="H74" s="0"/>
-      <c r="J74" s="0"/>
-      <c r="K74" s="0"/>
-      <c r="L74" s="0"/>
-      <c r="M74" s="0"/>
+      <c r="J74" s="22"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="0"/>
-      <c r="D75" s="0"/>
-      <c r="E75" s="0"/>
-      <c r="F75" s="0"/>
-      <c r="G75" s="0"/>
-      <c r="H75" s="0"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="0"/>
-      <c r="K75" s="0"/>
-      <c r="L75" s="0"/>
-      <c r="M75" s="0"/>
+      <c r="B75" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75" s="22"/>
+      <c r="J75" s="22"/>
     </row>
-    <row r="76" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="43" t="s">
-        <v>28</v>
-      </c>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H76" s="22"/>
+      <c r="J76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="B77" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="44"/>
+      <c r="B77" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="J77" s="0"/>
     </row>
-    <row r="78" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="27" t="s">
-        <v>215</v>
-      </c>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="J78" s="36"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="H79" s="0"/>
-      <c r="J79" s="23"/>
+      <c r="B79" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J79" s="36"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="H80" s="23"/>
-      <c r="J80" s="32"/>
+      <c r="B80" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J80" s="36"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="H81" s="23"/>
-      <c r="J81" s="0"/>
+      <c r="B81" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J81" s="36"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="J82" s="0"/>
+      <c r="B82" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J82" s="36"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="J83" s="40"/>
+      <c r="B83" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J84" s="40"/>
+        <v>217</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J85" s="40"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="J86" s="40"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J87" s="40"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="11:11"/>
+  <mergeCells count="14">
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
@@ -55048,11 +53910,6 @@
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="45:45"/>
-    <mergeCell ref="54:54"/>
-    <mergeCell ref="60:60"/>
-    <mergeCell ref="76:76"/>
-    <mergeCell ref="78:78"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.354166666666667" right="0.354166666666667" top="0.39375" bottom="0.275694444444444" header="0.511805555555555" footer="0.236111111111111"/>

--- a/spreadsheets/DBex.xlsx
+++ b/spreadsheets/DBex.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="222">
   <si>
     <t>Картинки</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>3916-12221</t>
+  </si>
+  <si>
+    <t>3916-12221 </t>
   </si>
   <si>
     <t>Диммер повор. 400Вт</t>
@@ -644,13 +647,19 @@
     <t>295-черный шато</t>
   </si>
   <si>
+    <t>296-белый шале</t>
+  </si>
+  <si>
+    <t>Пропустить Опция 1</t>
+  </si>
+  <si>
     <t>Декоративная накладка</t>
   </si>
   <si>
     <t>2516-X3-507</t>
   </si>
   <si>
-    <t>Параметр X3 - Цвет</t>
+    <t>Пропустить Параметр X3 - Цвет</t>
   </si>
   <si>
     <t>901-синий</t>
@@ -678,17 +687,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="\ * #,##0&quot; DM &quot;;\-* #,##0&quot; DM &quot;;\ * &quot;- DM &quot;;@\ "/>
+    <numFmt numFmtId="166" formatCode="\ * #,##0.00&quot; DM &quot;;\-* #,##0.00&quot; DM &quot;;\ * \-#&quot; DM &quot;;@\ "/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
   <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -709,32 +719,27 @@
       <sz val="10"/>
       <name val="Arial CE"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -812,7 +817,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -836,6 +841,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -844,17 +853,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -874,7 +897,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -882,7 +905,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -890,39 +913,43 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -934,7 +961,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -942,15 +969,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -958,23 +985,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -986,11 +1021,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -998,24 +1037,29 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in normalni_A (2)" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Normal_BJE+EPJ+CMC_14.06.10" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Normal_BJE+EPJ+CMC_14.06.10" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="normalni_A (2)" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="normalni_PERSONAL" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="normální_A (2)" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Style 1" xfId="24" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Wahrung [0]_PERSONAL" xfId="25" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Wahrung_PERSONAL" xfId="26" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1083,13 +1127,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFFF"/>
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:85"/>
+  <dimension ref="1:86"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4315,7 +4359,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" s="2" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -14851,7 +14895,7 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" s="16" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
         <v>52</v>
       </c>
@@ -15943,7 +15987,7 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -16995,7 +17039,7 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="9"/>
       <c r="C25" s="12" t="s">
         <v>59</v>
@@ -18049,37 +18093,37 @@
       <c r="B26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="L26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" s="18" t="s">
         <v>64</v>
       </c>
       <c r="N26" s="0"/>
@@ -19097,37 +19141,37 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M27" s="17" t="s">
+      <c r="M27" s="18" t="s">
         <v>60</v>
       </c>
       <c r="N27" s="0"/>
@@ -20143,7 +20187,7 @@
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -21195,7 +21239,7 @@
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="9"/>
       <c r="C29" s="12" t="s">
         <v>71</v>
@@ -22249,37 +22293,37 @@
       <c r="B30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="L30" s="17" t="s">
+      <c r="L30" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="M30" s="17" t="s">
+      <c r="M30" s="18" t="s">
         <v>76</v>
       </c>
       <c r="N30" s="0"/>
@@ -23296,38 +23340,38 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="L31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="M31" s="17" t="s">
+      <c r="M31" s="18" t="s">
         <v>72</v>
       </c>
       <c r="N31" s="0"/>
@@ -24346,7 +24390,7 @@
       <c r="A32" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="20" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -25396,7 +25440,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="12" t="s">
         <v>80</v>
       </c>
@@ -26444,7 +26488,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="12" t="s">
         <v>82</v>
       </c>
@@ -26467,7 +26511,7 @@
         <v>82</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="12" t="s">
@@ -27490,28 +27534,28 @@
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="B35" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
+      <c r="C35" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
       <c r="N35" s="0"/>
       <c r="O35" s="0"/>
       <c r="P35" s="0"/>
@@ -28526,43 +28570,43 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J36" s="19" t="s">
+      <c r="B36" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K36" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="M36" s="19" t="s">
-        <v>87</v>
+      <c r="C36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="N36" s="0"/>
       <c r="O36" s="0"/>
@@ -29578,41 +29622,41 @@
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
-      <c r="B37" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="D37" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="E37" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="G37" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="J37" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="L37" s="19" t="s">
+      <c r="H37" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="19" t="s">
+      <c r="K37" s="20" t="s">
         <v>92</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="N37" s="0"/>
       <c r="O37" s="0"/>
@@ -30627,42 +30671,42 @@
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18" t="s">
+      <c r="A38" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J38" s="18" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K38" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="L38" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="M38" s="18" t="s">
-        <v>94</v>
+      <c r="D38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="N38" s="0"/>
       <c r="O38" s="0"/>
@@ -31677,40 +31721,40 @@
       <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" s="18" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="D39" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="J39" s="18" t="s">
+      <c r="E39" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="K39" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="L39" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>97</v>
+      <c r="I39" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="N39" s="0"/>
       <c r="O39" s="0"/>
@@ -32725,42 +32769,42 @@
       <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="19" t="s">
+      <c r="A40" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="M40" s="19" t="s">
-        <v>100</v>
+      <c r="B40" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="N40" s="0"/>
       <c r="O40" s="0"/>
@@ -33774,80 +33818,80 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" s="22" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21"/>
-      <c r="B41" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="19" t="s">
+    <row r="41" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="22"/>
+      <c r="B41" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>102</v>
+      <c r="C41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="K41" s="12"/>
-      <c r="L41" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>102</v>
+      <c r="L41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M41" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18" t="s">
+      <c r="A42" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="J42" s="18" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="K42" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="L42" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="M42" s="18" t="s">
-        <v>104</v>
+      <c r="D42" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="N42" s="0"/>
       <c r="O42" s="0"/>
@@ -34862,40 +34906,40 @@
       <c r="AMJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="L43" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="M43" s="17" t="s">
-        <v>106</v>
+      <c r="A43" s="21"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="N43" s="0"/>
       <c r="O43" s="0"/>
@@ -35910,19 +35954,19 @@
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="23"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
       <c r="N44" s="0"/>
       <c r="O44" s="0"/>
       <c r="P44" s="0"/>
@@ -36935,48 +36979,48 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="26" t="s">
-        <v>107</v>
+    <row r="45" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="27" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="28" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="C46" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F46" s="28" t="s">
+      <c r="D46" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G46" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" s="22" t="s">
+      <c r="E46" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I46" s="22" t="s">
+      <c r="G46" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J46" s="22" t="s">
+      <c r="H46" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="K46" s="28" t="s">
+      <c r="I46" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J46" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="L46" s="28" t="s">
+      <c r="K46" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="M46" s="22" t="s">
-        <v>112</v>
+      <c r="L46" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="N46" s="0"/>
       <c r="O46" s="0"/>
@@ -37991,34 +38035,34 @@
       <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="27"/>
-      <c r="B47" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="22" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="G47" s="22" t="s">
-        <v>117</v>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J47" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="K47" s="28" t="s">
+      <c r="J47" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="L47" s="30"/>
+      <c r="K47" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="L47" s="31"/>
       <c r="M47" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N47" s="0"/>
       <c r="O47" s="0"/>
@@ -39033,32 +39077,32 @@
       <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="28" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="G48" s="28" t="s">
-        <v>122</v>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J48" s="30"/>
-      <c r="K48" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="L48" s="30"/>
-      <c r="M48" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="K48" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="L48" s="31"/>
+      <c r="M48" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="N48" s="0"/>
       <c r="O48" s="0"/>
@@ -40073,31 +40117,31 @@
       <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="27"/>
-      <c r="B49" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="G49" s="30" t="s">
-        <v>126</v>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>127</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J49" s="30"/>
+        <v>128</v>
+      </c>
+      <c r="J49" s="31"/>
       <c r="K49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
       <c r="N49" s="0"/>
       <c r="O49" s="0"/>
       <c r="P49" s="0"/>
@@ -41111,31 +41155,31 @@
       <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="22" t="s">
+      <c r="A50" s="28"/>
+      <c r="B50" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="22" t="s">
-        <v>130</v>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I50" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="J50" s="30"/>
+      <c r="I50" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="J50" s="31"/>
       <c r="K50" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
+        <v>134</v>
+      </c>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
       <c r="N50" s="0"/>
       <c r="O50" s="0"/>
       <c r="P50" s="0"/>
@@ -42149,27 +42193,27 @@
       <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="27"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
       <c r="F51" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
+        <v>136</v>
+      </c>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
       <c r="K51" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
+        <v>137</v>
+      </c>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
       <c r="N51" s="0"/>
       <c r="O51" s="0"/>
       <c r="P51" s="0"/>
@@ -43183,25 +43227,25 @@
       <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="27"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
       <c r="F52" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
+        <v>138</v>
+      </c>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
       <c r="K52" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
       <c r="N52" s="0"/>
       <c r="O52" s="0"/>
       <c r="P52" s="0"/>
@@ -44215,19 +44259,19 @@
       <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="27"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
       <c r="N53" s="0"/>
       <c r="O53" s="0"/>
       <c r="P53" s="0"/>
@@ -45240,286 +45284,286 @@
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" s="33" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="33" t="s">
-        <v>139</v>
+    <row r="54" s="36" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="36" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="55" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="34" t="s">
-        <v>140</v>
+    <row r="55" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="37" t="s">
+        <v>141</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I55" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H55" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="J55" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="56" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="34" t="s">
-        <v>147</v>
+    <row r="56" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="37" t="s">
+        <v>148</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="J56" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="57" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="34" t="s">
-        <v>154</v>
+    <row r="57" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="37" t="s">
+        <v>155</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G57" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I57" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="J57" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="58" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="34" t="s">
-        <v>160</v>
+    <row r="58" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G58" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="J58" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="59" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="34" t="s">
-        <v>167</v>
+    <row r="59" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="37" t="s">
+        <v>168</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G59" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I59" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="J59" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="60" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="26" t="s">
-        <v>173</v>
+    <row r="60" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="27" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="61" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F61" s="28" t="s">
+    <row r="61" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G61" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="I61" s="28" t="s">
+      <c r="F61" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="J61" s="22" t="s">
+      <c r="I61" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="K61" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="L61" s="28" t="s">
+      <c r="J61" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="M61" s="28" t="s">
+      <c r="K61" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="L61" s="29" t="s">
         <v>179</v>
+      </c>
+      <c r="M61" s="29" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="28" t="s">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29" t="s">
         <v>109</v>
       </c>
+      <c r="C62" s="29" t="s">
+        <v>110</v>
+      </c>
       <c r="D62" s="0"/>
-      <c r="E62" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G62" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="I62" s="28" t="s">
+      <c r="E62" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" s="29" t="s">
         <v>181</v>
       </c>
+      <c r="I62" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="J62" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K62" s="22" t="s">
         <v>183</v>
       </c>
+      <c r="K62" s="32" t="s">
+        <v>184</v>
+      </c>
       <c r="L62" s="0"/>
-      <c r="M62" s="28" t="s">
-        <v>184</v>
+      <c r="M62" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="N62" s="0"/>
       <c r="O62" s="0"/>
@@ -46533,82 +46577,82 @@
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F63" s="28" t="s">
+    <row r="63" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J63" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K63" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="M63" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="G63" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="I63" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="J63" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="K63" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="M63" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H64" s="22" t="s">
+      <c r="F64" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="J64" s="22" t="s">
+      <c r="G64" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H64" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="K64" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="M64" s="22" t="s">
+      <c r="J64" s="23" t="s">
         <v>192</v>
+      </c>
+      <c r="K64" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="M64" s="32" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0"/>
-      <c r="B65" s="29" t="s">
-        <v>193</v>
+      <c r="B65" s="34" t="s">
+        <v>194</v>
       </c>
       <c r="C65" s="0"/>
       <c r="D65" s="0"/>
       <c r="E65" s="0"/>
       <c r="F65" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H65" s="22" t="s">
-        <v>194</v>
+        <v>135</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H65" s="32" t="s">
+        <v>195</v>
       </c>
       <c r="I65" s="0"/>
-      <c r="J65" s="22" t="s">
-        <v>195</v>
+      <c r="J65" s="32" t="s">
+        <v>196</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L65" s="0"/>
       <c r="M65" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N65" s="0"/>
       <c r="O65" s="0"/>
@@ -47624,31 +47668,31 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0"/>
-      <c r="B66" s="28" t="s">
-        <v>198</v>
+      <c r="B66" s="29" t="s">
+        <v>199</v>
       </c>
       <c r="C66" s="0"/>
       <c r="D66" s="0"/>
       <c r="E66" s="0"/>
       <c r="F66" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>199</v>
+        <v>138</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I66" s="0"/>
       <c r="J66" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L66" s="0"/>
       <c r="M66" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N66" s="0"/>
       <c r="O66" s="0"/>
@@ -48664,23 +48708,23 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
-      <c r="B67" s="28" t="s">
-        <v>203</v>
+      <c r="B67" s="29" t="s">
+        <v>204</v>
       </c>
       <c r="C67" s="0"/>
       <c r="D67" s="0"/>
       <c r="E67" s="0"/>
       <c r="F67" s="0"/>
-      <c r="G67" s="1" t="s">
-        <v>137</v>
+      <c r="G67" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="H67" s="0"/>
       <c r="I67" s="0"/>
       <c r="J67" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L67" s="0"/>
       <c r="M67" s="0"/>
@@ -49698,8 +49742,8 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
-      <c r="B68" s="28" t="s">
-        <v>205</v>
+      <c r="B68" s="29" t="s">
+        <v>206</v>
       </c>
       <c r="C68" s="0"/>
       <c r="D68" s="0"/>
@@ -49708,8 +49752,8 @@
       <c r="G68" s="0"/>
       <c r="H68" s="0"/>
       <c r="I68" s="0"/>
-      <c r="J68" s="36" t="s">
-        <v>206</v>
+      <c r="J68" s="40" t="s">
+        <v>207</v>
       </c>
       <c r="K68" s="0"/>
       <c r="L68" s="0"/>
@@ -50728,18 +50772,18 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0"/>
-      <c r="B69" s="28" t="s">
-        <v>207</v>
+      <c r="B69" s="29" t="s">
+        <v>208</v>
       </c>
       <c r="C69" s="0"/>
       <c r="D69" s="0"/>
       <c r="E69" s="0"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
       <c r="H69" s="0"/>
       <c r="I69" s="0"/>
-      <c r="J69" s="36" t="s">
-        <v>208</v>
+      <c r="J69" s="40" t="s">
+        <v>209</v>
       </c>
       <c r="K69" s="0"/>
       <c r="L69" s="0"/>
@@ -51758,15 +51802,17 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="0"/>
       <c r="C70" s="0"/>
       <c r="D70" s="0"/>
       <c r="E70" s="0"/>
-      <c r="F70" s="0"/>
-      <c r="G70" s="0"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
       <c r="H70" s="0"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="0"/>
+      <c r="I70" s="0"/>
+      <c r="J70" s="40" t="s">
+        <v>210</v>
+      </c>
       <c r="K70" s="0"/>
       <c r="L70" s="0"/>
       <c r="M70" s="0"/>
@@ -52782,1120 +52828,125 @@
       <c r="AMI70" s="0"/>
       <c r="AMJ70" s="0"/>
     </row>
-    <row r="71" s="37" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="37" t="s">
-        <v>28</v>
-      </c>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="0"/>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
+      <c r="F71" s="0"/>
+      <c r="G71" s="0"/>
+      <c r="H71" s="0"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="0"/>
+      <c r="K71" s="0"/>
+      <c r="L71" s="0"/>
+      <c r="M71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="0"/>
-      <c r="O72" s="0"/>
-      <c r="P72" s="0"/>
-      <c r="Q72" s="0"/>
-      <c r="R72" s="0"/>
-      <c r="S72" s="0"/>
-      <c r="T72" s="0"/>
-      <c r="U72" s="0"/>
-      <c r="V72" s="0"/>
-      <c r="W72" s="0"/>
-      <c r="X72" s="0"/>
-      <c r="Y72" s="0"/>
-      <c r="Z72" s="0"/>
-      <c r="AA72" s="0"/>
-      <c r="AB72" s="0"/>
-      <c r="AC72" s="0"/>
-      <c r="AD72" s="0"/>
-      <c r="AE72" s="0"/>
-      <c r="AF72" s="0"/>
-      <c r="AG72" s="0"/>
-      <c r="AH72" s="0"/>
-      <c r="AI72" s="0"/>
-      <c r="AJ72" s="0"/>
-      <c r="AK72" s="0"/>
-      <c r="AL72" s="0"/>
-      <c r="AM72" s="0"/>
-      <c r="AN72" s="0"/>
-      <c r="AO72" s="0"/>
-      <c r="AP72" s="0"/>
-      <c r="AQ72" s="0"/>
-      <c r="AR72" s="0"/>
-      <c r="AS72" s="0"/>
-      <c r="AT72" s="0"/>
-      <c r="AU72" s="0"/>
-      <c r="AV72" s="0"/>
-      <c r="AW72" s="0"/>
-      <c r="AX72" s="0"/>
-      <c r="AY72" s="0"/>
-      <c r="AZ72" s="0"/>
-      <c r="BA72" s="0"/>
-      <c r="BB72" s="0"/>
-      <c r="BC72" s="0"/>
-      <c r="BD72" s="0"/>
-      <c r="BE72" s="0"/>
-      <c r="BF72" s="0"/>
-      <c r="BG72" s="0"/>
-      <c r="BH72" s="0"/>
-      <c r="BI72" s="0"/>
-      <c r="BJ72" s="0"/>
-      <c r="BK72" s="0"/>
-      <c r="BL72" s="0"/>
-      <c r="BM72" s="0"/>
-      <c r="BN72" s="0"/>
-      <c r="BO72" s="0"/>
-      <c r="BP72" s="0"/>
-      <c r="BQ72" s="0"/>
-      <c r="BR72" s="0"/>
-      <c r="BS72" s="0"/>
-      <c r="BT72" s="0"/>
-      <c r="BU72" s="0"/>
-      <c r="BV72" s="0"/>
-      <c r="BW72" s="0"/>
-      <c r="BX72" s="0"/>
-      <c r="BY72" s="0"/>
-      <c r="BZ72" s="0"/>
-      <c r="CA72" s="0"/>
-      <c r="CB72" s="0"/>
-      <c r="CC72" s="0"/>
-      <c r="CD72" s="0"/>
-      <c r="CE72" s="0"/>
-      <c r="CF72" s="0"/>
-      <c r="CG72" s="0"/>
-      <c r="CH72" s="0"/>
-      <c r="CI72" s="0"/>
-      <c r="CJ72" s="0"/>
-      <c r="CK72" s="0"/>
-      <c r="CL72" s="0"/>
-      <c r="CM72" s="0"/>
-      <c r="CN72" s="0"/>
-      <c r="CO72" s="0"/>
-      <c r="CP72" s="0"/>
-      <c r="CQ72" s="0"/>
-      <c r="CR72" s="0"/>
-      <c r="CS72" s="0"/>
-      <c r="CT72" s="0"/>
-      <c r="CU72" s="0"/>
-      <c r="CV72" s="0"/>
-      <c r="CW72" s="0"/>
-      <c r="CX72" s="0"/>
-      <c r="CY72" s="0"/>
-      <c r="CZ72" s="0"/>
-      <c r="DA72" s="0"/>
-      <c r="DB72" s="0"/>
-      <c r="DC72" s="0"/>
-      <c r="DD72" s="0"/>
-      <c r="DE72" s="0"/>
-      <c r="DF72" s="0"/>
-      <c r="DG72" s="0"/>
-      <c r="DH72" s="0"/>
-      <c r="DI72" s="0"/>
-      <c r="DJ72" s="0"/>
-      <c r="DK72" s="0"/>
-      <c r="DL72" s="0"/>
-      <c r="DM72" s="0"/>
-      <c r="DN72" s="0"/>
-      <c r="DO72" s="0"/>
-      <c r="DP72" s="0"/>
-      <c r="DQ72" s="0"/>
-      <c r="DR72" s="0"/>
-      <c r="DS72" s="0"/>
-      <c r="DT72" s="0"/>
-      <c r="DU72" s="0"/>
-      <c r="DV72" s="0"/>
-      <c r="DW72" s="0"/>
-      <c r="DX72" s="0"/>
-      <c r="DY72" s="0"/>
-      <c r="DZ72" s="0"/>
-      <c r="EA72" s="0"/>
-      <c r="EB72" s="0"/>
-      <c r="EC72" s="0"/>
-      <c r="ED72" s="0"/>
-      <c r="EE72" s="0"/>
-      <c r="EF72" s="0"/>
-      <c r="EG72" s="0"/>
-      <c r="EH72" s="0"/>
-      <c r="EI72" s="0"/>
-      <c r="EJ72" s="0"/>
-      <c r="EK72" s="0"/>
-      <c r="EL72" s="0"/>
-      <c r="EM72" s="0"/>
-      <c r="EN72" s="0"/>
-      <c r="EO72" s="0"/>
-      <c r="EP72" s="0"/>
-      <c r="EQ72" s="0"/>
-      <c r="ER72" s="0"/>
-      <c r="ES72" s="0"/>
-      <c r="ET72" s="0"/>
-      <c r="EU72" s="0"/>
-      <c r="EV72" s="0"/>
-      <c r="EW72" s="0"/>
-      <c r="EX72" s="0"/>
-      <c r="EY72" s="0"/>
-      <c r="EZ72" s="0"/>
-      <c r="FA72" s="0"/>
-      <c r="FB72" s="0"/>
-      <c r="FC72" s="0"/>
-      <c r="FD72" s="0"/>
-      <c r="FE72" s="0"/>
-      <c r="FF72" s="0"/>
-      <c r="FG72" s="0"/>
-      <c r="FH72" s="0"/>
-      <c r="FI72" s="0"/>
-      <c r="FJ72" s="0"/>
-      <c r="FK72" s="0"/>
-      <c r="FL72" s="0"/>
-      <c r="FM72" s="0"/>
-      <c r="FN72" s="0"/>
-      <c r="FO72" s="0"/>
-      <c r="FP72" s="0"/>
-      <c r="FQ72" s="0"/>
-      <c r="FR72" s="0"/>
-      <c r="FS72" s="0"/>
-      <c r="FT72" s="0"/>
-      <c r="FU72" s="0"/>
-      <c r="FV72" s="0"/>
-      <c r="FW72" s="0"/>
-      <c r="FX72" s="0"/>
-      <c r="FY72" s="0"/>
-      <c r="FZ72" s="0"/>
-      <c r="GA72" s="0"/>
-      <c r="GB72" s="0"/>
-      <c r="GC72" s="0"/>
-      <c r="GD72" s="0"/>
-      <c r="GE72" s="0"/>
-      <c r="GF72" s="0"/>
-      <c r="GG72" s="0"/>
-      <c r="GH72" s="0"/>
-      <c r="GI72" s="0"/>
-      <c r="GJ72" s="0"/>
-      <c r="GK72" s="0"/>
-      <c r="GL72" s="0"/>
-      <c r="GM72" s="0"/>
-      <c r="GN72" s="0"/>
-      <c r="GO72" s="0"/>
-      <c r="GP72" s="0"/>
-      <c r="GQ72" s="0"/>
-      <c r="GR72" s="0"/>
-      <c r="GS72" s="0"/>
-      <c r="GT72" s="0"/>
-      <c r="GU72" s="0"/>
-      <c r="GV72" s="0"/>
-      <c r="GW72" s="0"/>
-      <c r="GX72" s="0"/>
-      <c r="GY72" s="0"/>
-      <c r="GZ72" s="0"/>
-      <c r="HA72" s="0"/>
-      <c r="HB72" s="0"/>
-      <c r="HC72" s="0"/>
-      <c r="HD72" s="0"/>
-      <c r="HE72" s="0"/>
-      <c r="HF72" s="0"/>
-      <c r="HG72" s="0"/>
-      <c r="HH72" s="0"/>
-      <c r="HI72" s="0"/>
-      <c r="HJ72" s="0"/>
-      <c r="HK72" s="0"/>
-      <c r="HL72" s="0"/>
-      <c r="HM72" s="0"/>
-      <c r="HN72" s="0"/>
-      <c r="HO72" s="0"/>
-      <c r="HP72" s="0"/>
-      <c r="HQ72" s="0"/>
-      <c r="HR72" s="0"/>
-      <c r="HS72" s="0"/>
-      <c r="HT72" s="0"/>
-      <c r="HU72" s="0"/>
-      <c r="HV72" s="0"/>
-      <c r="HW72" s="0"/>
-      <c r="HX72" s="0"/>
-      <c r="HY72" s="0"/>
-      <c r="HZ72" s="0"/>
-      <c r="IA72" s="0"/>
-      <c r="IB72" s="0"/>
-      <c r="IC72" s="0"/>
-      <c r="ID72" s="0"/>
-      <c r="IE72" s="0"/>
-      <c r="IF72" s="0"/>
-      <c r="IG72" s="0"/>
-      <c r="IH72" s="0"/>
-      <c r="II72" s="0"/>
-      <c r="IJ72" s="0"/>
-      <c r="IK72" s="0"/>
-      <c r="IL72" s="0"/>
-      <c r="IM72" s="0"/>
-      <c r="IN72" s="0"/>
-      <c r="IO72" s="0"/>
-      <c r="IP72" s="0"/>
-      <c r="IQ72" s="0"/>
-      <c r="IR72" s="0"/>
-      <c r="IS72" s="0"/>
-      <c r="IT72" s="0"/>
-      <c r="IU72" s="0"/>
-      <c r="IV72" s="0"/>
-      <c r="IW72" s="0"/>
-      <c r="IX72" s="0"/>
-      <c r="IY72" s="0"/>
-      <c r="IZ72" s="0"/>
-      <c r="JA72" s="0"/>
-      <c r="JB72" s="0"/>
-      <c r="JC72" s="0"/>
-      <c r="JD72" s="0"/>
-      <c r="JE72" s="0"/>
-      <c r="JF72" s="0"/>
-      <c r="JG72" s="0"/>
-      <c r="JH72" s="0"/>
-      <c r="JI72" s="0"/>
-      <c r="JJ72" s="0"/>
-      <c r="JK72" s="0"/>
-      <c r="JL72" s="0"/>
-      <c r="JM72" s="0"/>
-      <c r="JN72" s="0"/>
-      <c r="JO72" s="0"/>
-      <c r="JP72" s="0"/>
-      <c r="JQ72" s="0"/>
-      <c r="JR72" s="0"/>
-      <c r="JS72" s="0"/>
-      <c r="JT72" s="0"/>
-      <c r="JU72" s="0"/>
-      <c r="JV72" s="0"/>
-      <c r="JW72" s="0"/>
-      <c r="JX72" s="0"/>
-      <c r="JY72" s="0"/>
-      <c r="JZ72" s="0"/>
-      <c r="KA72" s="0"/>
-      <c r="KB72" s="0"/>
-      <c r="KC72" s="0"/>
-      <c r="KD72" s="0"/>
-      <c r="KE72" s="0"/>
-      <c r="KF72" s="0"/>
-      <c r="KG72" s="0"/>
-      <c r="KH72" s="0"/>
-      <c r="KI72" s="0"/>
-      <c r="KJ72" s="0"/>
-      <c r="KK72" s="0"/>
-      <c r="KL72" s="0"/>
-      <c r="KM72" s="0"/>
-      <c r="KN72" s="0"/>
-      <c r="KO72" s="0"/>
-      <c r="KP72" s="0"/>
-      <c r="KQ72" s="0"/>
-      <c r="KR72" s="0"/>
-      <c r="KS72" s="0"/>
-      <c r="KT72" s="0"/>
-      <c r="KU72" s="0"/>
-      <c r="KV72" s="0"/>
-      <c r="KW72" s="0"/>
-      <c r="KX72" s="0"/>
-      <c r="KY72" s="0"/>
-      <c r="KZ72" s="0"/>
-      <c r="LA72" s="0"/>
-      <c r="LB72" s="0"/>
-      <c r="LC72" s="0"/>
-      <c r="LD72" s="0"/>
-      <c r="LE72" s="0"/>
-      <c r="LF72" s="0"/>
-      <c r="LG72" s="0"/>
-      <c r="LH72" s="0"/>
-      <c r="LI72" s="0"/>
-      <c r="LJ72" s="0"/>
-      <c r="LK72" s="0"/>
-      <c r="LL72" s="0"/>
-      <c r="LM72" s="0"/>
-      <c r="LN72" s="0"/>
-      <c r="LO72" s="0"/>
-      <c r="LP72" s="0"/>
-      <c r="LQ72" s="0"/>
-      <c r="LR72" s="0"/>
-      <c r="LS72" s="0"/>
-      <c r="LT72" s="0"/>
-      <c r="LU72" s="0"/>
-      <c r="LV72" s="0"/>
-      <c r="LW72" s="0"/>
-      <c r="LX72" s="0"/>
-      <c r="LY72" s="0"/>
-      <c r="LZ72" s="0"/>
-      <c r="MA72" s="0"/>
-      <c r="MB72" s="0"/>
-      <c r="MC72" s="0"/>
-      <c r="MD72" s="0"/>
-      <c r="ME72" s="0"/>
-      <c r="MF72" s="0"/>
-      <c r="MG72" s="0"/>
-      <c r="MH72" s="0"/>
-      <c r="MI72" s="0"/>
-      <c r="MJ72" s="0"/>
-      <c r="MK72" s="0"/>
-      <c r="ML72" s="0"/>
-      <c r="MM72" s="0"/>
-      <c r="MN72" s="0"/>
-      <c r="MO72" s="0"/>
-      <c r="MP72" s="0"/>
-      <c r="MQ72" s="0"/>
-      <c r="MR72" s="0"/>
-      <c r="MS72" s="0"/>
-      <c r="MT72" s="0"/>
-      <c r="MU72" s="0"/>
-      <c r="MV72" s="0"/>
-      <c r="MW72" s="0"/>
-      <c r="MX72" s="0"/>
-      <c r="MY72" s="0"/>
-      <c r="MZ72" s="0"/>
-      <c r="NA72" s="0"/>
-      <c r="NB72" s="0"/>
-      <c r="NC72" s="0"/>
-      <c r="ND72" s="0"/>
-      <c r="NE72" s="0"/>
-      <c r="NF72" s="0"/>
-      <c r="NG72" s="0"/>
-      <c r="NH72" s="0"/>
-      <c r="NI72" s="0"/>
-      <c r="NJ72" s="0"/>
-      <c r="NK72" s="0"/>
-      <c r="NL72" s="0"/>
-      <c r="NM72" s="0"/>
-      <c r="NN72" s="0"/>
-      <c r="NO72" s="0"/>
-      <c r="NP72" s="0"/>
-      <c r="NQ72" s="0"/>
-      <c r="NR72" s="0"/>
-      <c r="NS72" s="0"/>
-      <c r="NT72" s="0"/>
-      <c r="NU72" s="0"/>
-      <c r="NV72" s="0"/>
-      <c r="NW72" s="0"/>
-      <c r="NX72" s="0"/>
-      <c r="NY72" s="0"/>
-      <c r="NZ72" s="0"/>
-      <c r="OA72" s="0"/>
-      <c r="OB72" s="0"/>
-      <c r="OC72" s="0"/>
-      <c r="OD72" s="0"/>
-      <c r="OE72" s="0"/>
-      <c r="OF72" s="0"/>
-      <c r="OG72" s="0"/>
-      <c r="OH72" s="0"/>
-      <c r="OI72" s="0"/>
-      <c r="OJ72" s="0"/>
-      <c r="OK72" s="0"/>
-      <c r="OL72" s="0"/>
-      <c r="OM72" s="0"/>
-      <c r="ON72" s="0"/>
-      <c r="OO72" s="0"/>
-      <c r="OP72" s="0"/>
-      <c r="OQ72" s="0"/>
-      <c r="OR72" s="0"/>
-      <c r="OS72" s="0"/>
-      <c r="OT72" s="0"/>
-      <c r="OU72" s="0"/>
-      <c r="OV72" s="0"/>
-      <c r="OW72" s="0"/>
-      <c r="OX72" s="0"/>
-      <c r="OY72" s="0"/>
-      <c r="OZ72" s="0"/>
-      <c r="PA72" s="0"/>
-      <c r="PB72" s="0"/>
-      <c r="PC72" s="0"/>
-      <c r="PD72" s="0"/>
-      <c r="PE72" s="0"/>
-      <c r="PF72" s="0"/>
-      <c r="PG72" s="0"/>
-      <c r="PH72" s="0"/>
-      <c r="PI72" s="0"/>
-      <c r="PJ72" s="0"/>
-      <c r="PK72" s="0"/>
-      <c r="PL72" s="0"/>
-      <c r="PM72" s="0"/>
-      <c r="PN72" s="0"/>
-      <c r="PO72" s="0"/>
-      <c r="PP72" s="0"/>
-      <c r="PQ72" s="0"/>
-      <c r="PR72" s="0"/>
-      <c r="PS72" s="0"/>
-      <c r="PT72" s="0"/>
-      <c r="PU72" s="0"/>
-      <c r="PV72" s="0"/>
-      <c r="PW72" s="0"/>
-      <c r="PX72" s="0"/>
-      <c r="PY72" s="0"/>
-      <c r="PZ72" s="0"/>
-      <c r="QA72" s="0"/>
-      <c r="QB72" s="0"/>
-      <c r="QC72" s="0"/>
-      <c r="QD72" s="0"/>
-      <c r="QE72" s="0"/>
-      <c r="QF72" s="0"/>
-      <c r="QG72" s="0"/>
-      <c r="QH72" s="0"/>
-      <c r="QI72" s="0"/>
-      <c r="QJ72" s="0"/>
-      <c r="QK72" s="0"/>
-      <c r="QL72" s="0"/>
-      <c r="QM72" s="0"/>
-      <c r="QN72" s="0"/>
-      <c r="QO72" s="0"/>
-      <c r="QP72" s="0"/>
-      <c r="QQ72" s="0"/>
-      <c r="QR72" s="0"/>
-      <c r="QS72" s="0"/>
-      <c r="QT72" s="0"/>
-      <c r="QU72" s="0"/>
-      <c r="QV72" s="0"/>
-      <c r="QW72" s="0"/>
-      <c r="QX72" s="0"/>
-      <c r="QY72" s="0"/>
-      <c r="QZ72" s="0"/>
-      <c r="RA72" s="0"/>
-      <c r="RB72" s="0"/>
-      <c r="RC72" s="0"/>
-      <c r="RD72" s="0"/>
-      <c r="RE72" s="0"/>
-      <c r="RF72" s="0"/>
-      <c r="RG72" s="0"/>
-      <c r="RH72" s="0"/>
-      <c r="RI72" s="0"/>
-      <c r="RJ72" s="0"/>
-      <c r="RK72" s="0"/>
-      <c r="RL72" s="0"/>
-      <c r="RM72" s="0"/>
-      <c r="RN72" s="0"/>
-      <c r="RO72" s="0"/>
-      <c r="RP72" s="0"/>
-      <c r="RQ72" s="0"/>
-      <c r="RR72" s="0"/>
-      <c r="RS72" s="0"/>
-      <c r="RT72" s="0"/>
-      <c r="RU72" s="0"/>
-      <c r="RV72" s="0"/>
-      <c r="RW72" s="0"/>
-      <c r="RX72" s="0"/>
-      <c r="RY72" s="0"/>
-      <c r="RZ72" s="0"/>
-      <c r="SA72" s="0"/>
-      <c r="SB72" s="0"/>
-      <c r="SC72" s="0"/>
-      <c r="SD72" s="0"/>
-      <c r="SE72" s="0"/>
-      <c r="SF72" s="0"/>
-      <c r="SG72" s="0"/>
-      <c r="SH72" s="0"/>
-      <c r="SI72" s="0"/>
-      <c r="SJ72" s="0"/>
-      <c r="SK72" s="0"/>
-      <c r="SL72" s="0"/>
-      <c r="SM72" s="0"/>
-      <c r="SN72" s="0"/>
-      <c r="SO72" s="0"/>
-      <c r="SP72" s="0"/>
-      <c r="SQ72" s="0"/>
-      <c r="SR72" s="0"/>
-      <c r="SS72" s="0"/>
-      <c r="ST72" s="0"/>
-      <c r="SU72" s="0"/>
-      <c r="SV72" s="0"/>
-      <c r="SW72" s="0"/>
-      <c r="SX72" s="0"/>
-      <c r="SY72" s="0"/>
-      <c r="SZ72" s="0"/>
-      <c r="TA72" s="0"/>
-      <c r="TB72" s="0"/>
-      <c r="TC72" s="0"/>
-      <c r="TD72" s="0"/>
-      <c r="TE72" s="0"/>
-      <c r="TF72" s="0"/>
-      <c r="TG72" s="0"/>
-      <c r="TH72" s="0"/>
-      <c r="TI72" s="0"/>
-      <c r="TJ72" s="0"/>
-      <c r="TK72" s="0"/>
-      <c r="TL72" s="0"/>
-      <c r="TM72" s="0"/>
-      <c r="TN72" s="0"/>
-      <c r="TO72" s="0"/>
-      <c r="TP72" s="0"/>
-      <c r="TQ72" s="0"/>
-      <c r="TR72" s="0"/>
-      <c r="TS72" s="0"/>
-      <c r="TT72" s="0"/>
-      <c r="TU72" s="0"/>
-      <c r="TV72" s="0"/>
-      <c r="TW72" s="0"/>
-      <c r="TX72" s="0"/>
-      <c r="TY72" s="0"/>
-      <c r="TZ72" s="0"/>
-      <c r="UA72" s="0"/>
-      <c r="UB72" s="0"/>
-      <c r="UC72" s="0"/>
-      <c r="UD72" s="0"/>
-      <c r="UE72" s="0"/>
-      <c r="UF72" s="0"/>
-      <c r="UG72" s="0"/>
-      <c r="UH72" s="0"/>
-      <c r="UI72" s="0"/>
-      <c r="UJ72" s="0"/>
-      <c r="UK72" s="0"/>
-      <c r="UL72" s="0"/>
-      <c r="UM72" s="0"/>
-      <c r="UN72" s="0"/>
-      <c r="UO72" s="0"/>
-      <c r="UP72" s="0"/>
-      <c r="UQ72" s="0"/>
-      <c r="UR72" s="0"/>
-      <c r="US72" s="0"/>
-      <c r="UT72" s="0"/>
-      <c r="UU72" s="0"/>
-      <c r="UV72" s="0"/>
-      <c r="UW72" s="0"/>
-      <c r="UX72" s="0"/>
-      <c r="UY72" s="0"/>
-      <c r="UZ72" s="0"/>
-      <c r="VA72" s="0"/>
-      <c r="VB72" s="0"/>
-      <c r="VC72" s="0"/>
-      <c r="VD72" s="0"/>
-      <c r="VE72" s="0"/>
-      <c r="VF72" s="0"/>
-      <c r="VG72" s="0"/>
-      <c r="VH72" s="0"/>
-      <c r="VI72" s="0"/>
-      <c r="VJ72" s="0"/>
-      <c r="VK72" s="0"/>
-      <c r="VL72" s="0"/>
-      <c r="VM72" s="0"/>
-      <c r="VN72" s="0"/>
-      <c r="VO72" s="0"/>
-      <c r="VP72" s="0"/>
-      <c r="VQ72" s="0"/>
-      <c r="VR72" s="0"/>
-      <c r="VS72" s="0"/>
-      <c r="VT72" s="0"/>
-      <c r="VU72" s="0"/>
-      <c r="VV72" s="0"/>
-      <c r="VW72" s="0"/>
-      <c r="VX72" s="0"/>
-      <c r="VY72" s="0"/>
-      <c r="VZ72" s="0"/>
-      <c r="WA72" s="0"/>
-      <c r="WB72" s="0"/>
-      <c r="WC72" s="0"/>
-      <c r="WD72" s="0"/>
-      <c r="WE72" s="0"/>
-      <c r="WF72" s="0"/>
-      <c r="WG72" s="0"/>
-      <c r="WH72" s="0"/>
-      <c r="WI72" s="0"/>
-      <c r="WJ72" s="0"/>
-      <c r="WK72" s="0"/>
-      <c r="WL72" s="0"/>
-      <c r="WM72" s="0"/>
-      <c r="WN72" s="0"/>
-      <c r="WO72" s="0"/>
-      <c r="WP72" s="0"/>
-      <c r="WQ72" s="0"/>
-      <c r="WR72" s="0"/>
-      <c r="WS72" s="0"/>
-      <c r="WT72" s="0"/>
-      <c r="WU72" s="0"/>
-      <c r="WV72" s="0"/>
-      <c r="WW72" s="0"/>
-      <c r="WX72" s="0"/>
-      <c r="WY72" s="0"/>
-      <c r="WZ72" s="0"/>
-      <c r="XA72" s="0"/>
-      <c r="XB72" s="0"/>
-      <c r="XC72" s="0"/>
-      <c r="XD72" s="0"/>
-      <c r="XE72" s="0"/>
-      <c r="XF72" s="0"/>
-      <c r="XG72" s="0"/>
-      <c r="XH72" s="0"/>
-      <c r="XI72" s="0"/>
-      <c r="XJ72" s="0"/>
-      <c r="XK72" s="0"/>
-      <c r="XL72" s="0"/>
-      <c r="XM72" s="0"/>
-      <c r="XN72" s="0"/>
-      <c r="XO72" s="0"/>
-      <c r="XP72" s="0"/>
-      <c r="XQ72" s="0"/>
-      <c r="XR72" s="0"/>
-      <c r="XS72" s="0"/>
-      <c r="XT72" s="0"/>
-      <c r="XU72" s="0"/>
-      <c r="XV72" s="0"/>
-      <c r="XW72" s="0"/>
-      <c r="XX72" s="0"/>
-      <c r="XY72" s="0"/>
-      <c r="XZ72" s="0"/>
-      <c r="YA72" s="0"/>
-      <c r="YB72" s="0"/>
-      <c r="YC72" s="0"/>
-      <c r="YD72" s="0"/>
-      <c r="YE72" s="0"/>
-      <c r="YF72" s="0"/>
-      <c r="YG72" s="0"/>
-      <c r="YH72" s="0"/>
-      <c r="YI72" s="0"/>
-      <c r="YJ72" s="0"/>
-      <c r="YK72" s="0"/>
-      <c r="YL72" s="0"/>
-      <c r="YM72" s="0"/>
-      <c r="YN72" s="0"/>
-      <c r="YO72" s="0"/>
-      <c r="YP72" s="0"/>
-      <c r="YQ72" s="0"/>
-      <c r="YR72" s="0"/>
-      <c r="YS72" s="0"/>
-      <c r="YT72" s="0"/>
-      <c r="YU72" s="0"/>
-      <c r="YV72" s="0"/>
-      <c r="YW72" s="0"/>
-      <c r="YX72" s="0"/>
-      <c r="YY72" s="0"/>
-      <c r="YZ72" s="0"/>
-      <c r="ZA72" s="0"/>
-      <c r="ZB72" s="0"/>
-      <c r="ZC72" s="0"/>
-      <c r="ZD72" s="0"/>
-      <c r="ZE72" s="0"/>
-      <c r="ZF72" s="0"/>
-      <c r="ZG72" s="0"/>
-      <c r="ZH72" s="0"/>
-      <c r="ZI72" s="0"/>
-      <c r="ZJ72" s="0"/>
-      <c r="ZK72" s="0"/>
-      <c r="ZL72" s="0"/>
-      <c r="ZM72" s="0"/>
-      <c r="ZN72" s="0"/>
-      <c r="ZO72" s="0"/>
-      <c r="ZP72" s="0"/>
-      <c r="ZQ72" s="0"/>
-      <c r="ZR72" s="0"/>
-      <c r="ZS72" s="0"/>
-      <c r="ZT72" s="0"/>
-      <c r="ZU72" s="0"/>
-      <c r="ZV72" s="0"/>
-      <c r="ZW72" s="0"/>
-      <c r="ZX72" s="0"/>
-      <c r="ZY72" s="0"/>
-      <c r="ZZ72" s="0"/>
-      <c r="AAA72" s="0"/>
-      <c r="AAB72" s="0"/>
-      <c r="AAC72" s="0"/>
-      <c r="AAD72" s="0"/>
-      <c r="AAE72" s="0"/>
-      <c r="AAF72" s="0"/>
-      <c r="AAG72" s="0"/>
-      <c r="AAH72" s="0"/>
-      <c r="AAI72" s="0"/>
-      <c r="AAJ72" s="0"/>
-      <c r="AAK72" s="0"/>
-      <c r="AAL72" s="0"/>
-      <c r="AAM72" s="0"/>
-      <c r="AAN72" s="0"/>
-      <c r="AAO72" s="0"/>
-      <c r="AAP72" s="0"/>
-      <c r="AAQ72" s="0"/>
-      <c r="AAR72" s="0"/>
-      <c r="AAS72" s="0"/>
-      <c r="AAT72" s="0"/>
-      <c r="AAU72" s="0"/>
-      <c r="AAV72" s="0"/>
-      <c r="AAW72" s="0"/>
-      <c r="AAX72" s="0"/>
-      <c r="AAY72" s="0"/>
-      <c r="AAZ72" s="0"/>
-      <c r="ABA72" s="0"/>
-      <c r="ABB72" s="0"/>
-      <c r="ABC72" s="0"/>
-      <c r="ABD72" s="0"/>
-      <c r="ABE72" s="0"/>
-      <c r="ABF72" s="0"/>
-      <c r="ABG72" s="0"/>
-      <c r="ABH72" s="0"/>
-      <c r="ABI72" s="0"/>
-      <c r="ABJ72" s="0"/>
-      <c r="ABK72" s="0"/>
-      <c r="ABL72" s="0"/>
-      <c r="ABM72" s="0"/>
-      <c r="ABN72" s="0"/>
-      <c r="ABO72" s="0"/>
-      <c r="ABP72" s="0"/>
-      <c r="ABQ72" s="0"/>
-      <c r="ABR72" s="0"/>
-      <c r="ABS72" s="0"/>
-      <c r="ABT72" s="0"/>
-      <c r="ABU72" s="0"/>
-      <c r="ABV72" s="0"/>
-      <c r="ABW72" s="0"/>
-      <c r="ABX72" s="0"/>
-      <c r="ABY72" s="0"/>
-      <c r="ABZ72" s="0"/>
-      <c r="ACA72" s="0"/>
-      <c r="ACB72" s="0"/>
-      <c r="ACC72" s="0"/>
-      <c r="ACD72" s="0"/>
-      <c r="ACE72" s="0"/>
-      <c r="ACF72" s="0"/>
-      <c r="ACG72" s="0"/>
-      <c r="ACH72" s="0"/>
-      <c r="ACI72" s="0"/>
-      <c r="ACJ72" s="0"/>
-      <c r="ACK72" s="0"/>
-      <c r="ACL72" s="0"/>
-      <c r="ACM72" s="0"/>
-      <c r="ACN72" s="0"/>
-      <c r="ACO72" s="0"/>
-      <c r="ACP72" s="0"/>
-      <c r="ACQ72" s="0"/>
-      <c r="ACR72" s="0"/>
-      <c r="ACS72" s="0"/>
-      <c r="ACT72" s="0"/>
-      <c r="ACU72" s="0"/>
-      <c r="ACV72" s="0"/>
-      <c r="ACW72" s="0"/>
-      <c r="ACX72" s="0"/>
-      <c r="ACY72" s="0"/>
-      <c r="ACZ72" s="0"/>
-      <c r="ADA72" s="0"/>
-      <c r="ADB72" s="0"/>
-      <c r="ADC72" s="0"/>
-      <c r="ADD72" s="0"/>
-      <c r="ADE72" s="0"/>
-      <c r="ADF72" s="0"/>
-      <c r="ADG72" s="0"/>
-      <c r="ADH72" s="0"/>
-      <c r="ADI72" s="0"/>
-      <c r="ADJ72" s="0"/>
-      <c r="ADK72" s="0"/>
-      <c r="ADL72" s="0"/>
-      <c r="ADM72" s="0"/>
-      <c r="ADN72" s="0"/>
-      <c r="ADO72" s="0"/>
-      <c r="ADP72" s="0"/>
-      <c r="ADQ72" s="0"/>
-      <c r="ADR72" s="0"/>
-      <c r="ADS72" s="0"/>
-      <c r="ADT72" s="0"/>
-      <c r="ADU72" s="0"/>
-      <c r="ADV72" s="0"/>
-      <c r="ADW72" s="0"/>
-      <c r="ADX72" s="0"/>
-      <c r="ADY72" s="0"/>
-      <c r="ADZ72" s="0"/>
-      <c r="AEA72" s="0"/>
-      <c r="AEB72" s="0"/>
-      <c r="AEC72" s="0"/>
-      <c r="AED72" s="0"/>
-      <c r="AEE72" s="0"/>
-      <c r="AEF72" s="0"/>
-      <c r="AEG72" s="0"/>
-      <c r="AEH72" s="0"/>
-      <c r="AEI72" s="0"/>
-      <c r="AEJ72" s="0"/>
-      <c r="AEK72" s="0"/>
-      <c r="AEL72" s="0"/>
-      <c r="AEM72" s="0"/>
-      <c r="AEN72" s="0"/>
-      <c r="AEO72" s="0"/>
-      <c r="AEP72" s="0"/>
-      <c r="AEQ72" s="0"/>
-      <c r="AER72" s="0"/>
-      <c r="AES72" s="0"/>
-      <c r="AET72" s="0"/>
-      <c r="AEU72" s="0"/>
-      <c r="AEV72" s="0"/>
-      <c r="AEW72" s="0"/>
-      <c r="AEX72" s="0"/>
-      <c r="AEY72" s="0"/>
-      <c r="AEZ72" s="0"/>
-      <c r="AFA72" s="0"/>
-      <c r="AFB72" s="0"/>
-      <c r="AFC72" s="0"/>
-      <c r="AFD72" s="0"/>
-      <c r="AFE72" s="0"/>
-      <c r="AFF72" s="0"/>
-      <c r="AFG72" s="0"/>
-      <c r="AFH72" s="0"/>
-      <c r="AFI72" s="0"/>
-      <c r="AFJ72" s="0"/>
-      <c r="AFK72" s="0"/>
-      <c r="AFL72" s="0"/>
-      <c r="AFM72" s="0"/>
-      <c r="AFN72" s="0"/>
-      <c r="AFO72" s="0"/>
-      <c r="AFP72" s="0"/>
-      <c r="AFQ72" s="0"/>
-      <c r="AFR72" s="0"/>
-      <c r="AFS72" s="0"/>
-      <c r="AFT72" s="0"/>
-      <c r="AFU72" s="0"/>
-      <c r="AFV72" s="0"/>
-      <c r="AFW72" s="0"/>
-      <c r="AFX72" s="0"/>
-      <c r="AFY72" s="0"/>
-      <c r="AFZ72" s="0"/>
-      <c r="AGA72" s="0"/>
-      <c r="AGB72" s="0"/>
-      <c r="AGC72" s="0"/>
-      <c r="AGD72" s="0"/>
-      <c r="AGE72" s="0"/>
-      <c r="AGF72" s="0"/>
-      <c r="AGG72" s="0"/>
-      <c r="AGH72" s="0"/>
-      <c r="AGI72" s="0"/>
-      <c r="AGJ72" s="0"/>
-      <c r="AGK72" s="0"/>
-      <c r="AGL72" s="0"/>
-      <c r="AGM72" s="0"/>
-      <c r="AGN72" s="0"/>
-      <c r="AGO72" s="0"/>
-      <c r="AGP72" s="0"/>
-      <c r="AGQ72" s="0"/>
-      <c r="AGR72" s="0"/>
-      <c r="AGS72" s="0"/>
-      <c r="AGT72" s="0"/>
-      <c r="AGU72" s="0"/>
-      <c r="AGV72" s="0"/>
-      <c r="AGW72" s="0"/>
-      <c r="AGX72" s="0"/>
-      <c r="AGY72" s="0"/>
-      <c r="AGZ72" s="0"/>
-      <c r="AHA72" s="0"/>
-      <c r="AHB72" s="0"/>
-      <c r="AHC72" s="0"/>
-      <c r="AHD72" s="0"/>
-      <c r="AHE72" s="0"/>
-      <c r="AHF72" s="0"/>
-      <c r="AHG72" s="0"/>
-      <c r="AHH72" s="0"/>
-      <c r="AHI72" s="0"/>
-      <c r="AHJ72" s="0"/>
-      <c r="AHK72" s="0"/>
-      <c r="AHL72" s="0"/>
-      <c r="AHM72" s="0"/>
-      <c r="AHN72" s="0"/>
-      <c r="AHO72" s="0"/>
-      <c r="AHP72" s="0"/>
-      <c r="AHQ72" s="0"/>
-      <c r="AHR72" s="0"/>
-      <c r="AHS72" s="0"/>
-      <c r="AHT72" s="0"/>
-      <c r="AHU72" s="0"/>
-      <c r="AHV72" s="0"/>
-      <c r="AHW72" s="0"/>
-      <c r="AHX72" s="0"/>
-      <c r="AHY72" s="0"/>
-      <c r="AHZ72" s="0"/>
-      <c r="AIA72" s="0"/>
-      <c r="AIB72" s="0"/>
-      <c r="AIC72" s="0"/>
-      <c r="AID72" s="0"/>
-      <c r="AIE72" s="0"/>
-      <c r="AIF72" s="0"/>
-      <c r="AIG72" s="0"/>
-      <c r="AIH72" s="0"/>
-      <c r="AII72" s="0"/>
-      <c r="AIJ72" s="0"/>
-      <c r="AIK72" s="0"/>
-      <c r="AIL72" s="0"/>
-      <c r="AIM72" s="0"/>
-      <c r="AIN72" s="0"/>
-      <c r="AIO72" s="0"/>
-      <c r="AIP72" s="0"/>
-      <c r="AIQ72" s="0"/>
-      <c r="AIR72" s="0"/>
-      <c r="AIS72" s="0"/>
-      <c r="AIT72" s="0"/>
-      <c r="AIU72" s="0"/>
-      <c r="AIV72" s="0"/>
-      <c r="AIW72" s="0"/>
-      <c r="AIX72" s="0"/>
-      <c r="AIY72" s="0"/>
-      <c r="AIZ72" s="0"/>
-      <c r="AJA72" s="0"/>
-      <c r="AJB72" s="0"/>
-      <c r="AJC72" s="0"/>
-      <c r="AJD72" s="0"/>
-      <c r="AJE72" s="0"/>
-      <c r="AJF72" s="0"/>
-      <c r="AJG72" s="0"/>
-      <c r="AJH72" s="0"/>
-      <c r="AJI72" s="0"/>
-      <c r="AJJ72" s="0"/>
-      <c r="AJK72" s="0"/>
-      <c r="AJL72" s="0"/>
-      <c r="AJM72" s="0"/>
-      <c r="AJN72" s="0"/>
-      <c r="AJO72" s="0"/>
-      <c r="AJP72" s="0"/>
-      <c r="AJQ72" s="0"/>
-      <c r="AJR72" s="0"/>
-      <c r="AJS72" s="0"/>
-      <c r="AJT72" s="0"/>
-      <c r="AJU72" s="0"/>
-      <c r="AJV72" s="0"/>
-      <c r="AJW72" s="0"/>
-      <c r="AJX72" s="0"/>
-      <c r="AJY72" s="0"/>
-      <c r="AJZ72" s="0"/>
-      <c r="AKA72" s="0"/>
-      <c r="AKB72" s="0"/>
-      <c r="AKC72" s="0"/>
-      <c r="AKD72" s="0"/>
-      <c r="AKE72" s="0"/>
-      <c r="AKF72" s="0"/>
-      <c r="AKG72" s="0"/>
-      <c r="AKH72" s="0"/>
-      <c r="AKI72" s="0"/>
-      <c r="AKJ72" s="0"/>
-      <c r="AKK72" s="0"/>
-      <c r="AKL72" s="0"/>
-      <c r="AKM72" s="0"/>
-      <c r="AKN72" s="0"/>
-      <c r="AKO72" s="0"/>
-      <c r="AKP72" s="0"/>
-      <c r="AKQ72" s="0"/>
-      <c r="AKR72" s="0"/>
-      <c r="AKS72" s="0"/>
-      <c r="AKT72" s="0"/>
-      <c r="AKU72" s="0"/>
-      <c r="AKV72" s="0"/>
-      <c r="AKW72" s="0"/>
-      <c r="AKX72" s="0"/>
-      <c r="AKY72" s="0"/>
-      <c r="AKZ72" s="0"/>
-      <c r="ALA72" s="0"/>
-      <c r="ALB72" s="0"/>
-      <c r="ALC72" s="0"/>
-      <c r="ALD72" s="0"/>
-      <c r="ALE72" s="0"/>
-      <c r="ALF72" s="0"/>
-      <c r="ALG72" s="0"/>
-      <c r="ALH72" s="0"/>
-      <c r="ALI72" s="0"/>
-      <c r="ALJ72" s="0"/>
-      <c r="ALK72" s="0"/>
-      <c r="ALL72" s="0"/>
-      <c r="ALM72" s="0"/>
-      <c r="ALN72" s="0"/>
-      <c r="ALO72" s="0"/>
-      <c r="ALP72" s="0"/>
-      <c r="ALQ72" s="0"/>
-      <c r="ALR72" s="0"/>
-      <c r="ALS72" s="0"/>
-      <c r="ALT72" s="0"/>
-      <c r="ALU72" s="0"/>
-      <c r="ALV72" s="0"/>
-      <c r="ALW72" s="0"/>
-      <c r="ALX72" s="0"/>
-      <c r="ALY72" s="0"/>
-      <c r="ALZ72" s="0"/>
-      <c r="AMA72" s="0"/>
-      <c r="AMB72" s="0"/>
-      <c r="AMC72" s="0"/>
-      <c r="AMD72" s="0"/>
-      <c r="AME72" s="0"/>
-      <c r="AMF72" s="0"/>
-      <c r="AMG72" s="0"/>
-      <c r="AMH72" s="0"/>
-      <c r="AMI72" s="0"/>
-      <c r="AMJ72" s="0"/>
+    <row r="72" s="41" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="41" t="s">
+        <v>211</v>
+      </c>
     </row>
-    <row r="73" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="26" t="s">
-        <v>211</v>
-      </c>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="H74" s="0"/>
-      <c r="J74" s="22"/>
+    <row r="74" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="27" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="H75" s="22"/>
-      <c r="J75" s="22"/>
+        <v>109</v>
+      </c>
+      <c r="H75" s="0"/>
+      <c r="J75" s="23"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="H76" s="22"/>
-      <c r="J76" s="0"/>
+      <c r="B76" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="H76" s="23"/>
+      <c r="J76" s="32"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="29" t="s">
-        <v>193</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="H77" s="23"/>
       <c r="J77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="J78" s="36"/>
+      <c r="B78" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J79" s="36"/>
+      <c r="B79" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="J79" s="40"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J80" s="36"/>
+        <v>215</v>
+      </c>
+      <c r="J80" s="40"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J81" s="36"/>
+        <v>216</v>
+      </c>
+      <c r="J81" s="40"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J82" s="36"/>
+        <v>217</v>
+      </c>
+      <c r="J82" s="40"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
-        <v>216</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="J83" s="40"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
+    <mergeCell ref="11:11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
@@ -53910,6 +52961,11 @@
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
+    <mergeCell ref="45:45"/>
+    <mergeCell ref="54:54"/>
+    <mergeCell ref="60:60"/>
+    <mergeCell ref="72:72"/>
+    <mergeCell ref="74:74"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.354166666666667" right="0.354166666666667" top="0.39375" bottom="0.275694444444444" header="0.511805555555555" footer="0.236111111111111"/>

--- a/spreadsheets/DBex.xlsx
+++ b/spreadsheets/DBex.xlsx
@@ -780,40 +780,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -868,7 +840,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -889,47 +861,43 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -937,27 +905,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -965,24 +933,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -991,10 +955,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1009,15 +969,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1033,15 +985,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1127,13 +1071,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:86"/>
+  <dimension ref="1:88"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4380,7 +4323,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="2" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -7554,7 +7497,7 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -8593,40 +8536,40 @@
       <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="10" t="s">
         <v>36</v>
       </c>
       <c r="N16" s="0"/>
@@ -9643,40 +9586,40 @@
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="11" t="s">
         <v>39</v>
       </c>
       <c r="N17" s="0"/>
@@ -10692,43 +10635,43 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="13" t="s">
+      <c r="M18" s="12" t="s">
         <v>42</v>
       </c>
       <c r="N18" s="0"/>
@@ -11744,41 +11687,41 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="13" t="s">
         <v>45</v>
       </c>
       <c r="N19" s="0"/>
@@ -12797,40 +12740,40 @@
       <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="14" t="s">
         <v>47</v>
       </c>
       <c r="N20" s="0"/>
@@ -13847,40 +13790,40 @@
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="10" t="s">
         <v>51</v>
       </c>
       <c r="N21" s="0"/>
@@ -14895,83 +14838,83 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" s="16" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+    <row r="22" s="15" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="M23" s="13" t="s">
         <v>45</v>
       </c>
       <c r="N23" s="0"/>
@@ -15987,43 +15930,43 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="11" t="s">
         <v>56</v>
       </c>
       <c r="N24" s="0"/>
@@ -17039,39 +16982,39 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="11" t="s">
         <v>60</v>
       </c>
       <c r="N25" s="0"/>
@@ -18087,43 +18030,43 @@
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="17" t="s">
         <v>64</v>
       </c>
       <c r="N26" s="0"/>
@@ -19139,39 +19082,39 @@
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="J27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="M27" s="18" t="s">
+      <c r="M27" s="17" t="s">
         <v>60</v>
       </c>
       <c r="N27" s="0"/>
@@ -20187,43 +20130,43 @@
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="11" t="s">
         <v>68</v>
       </c>
       <c r="N28" s="0"/>
@@ -21239,39 +21182,39 @@
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="11" t="s">
         <v>72</v>
       </c>
       <c r="N29" s="0"/>
@@ -22287,43 +22230,43 @@
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="L30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="M30" s="18" t="s">
+      <c r="M30" s="17" t="s">
         <v>76</v>
       </c>
       <c r="N30" s="0"/>
@@ -23339,39 +23282,39 @@
       <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="18" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="L31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M31" s="18" t="s">
+      <c r="M31" s="17" t="s">
         <v>72</v>
       </c>
       <c r="N31" s="0"/>
@@ -24390,40 +24333,40 @@
       <c r="A32" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="M32" s="11" t="s">
         <v>56</v>
       </c>
       <c r="N32" s="0"/>
@@ -25440,38 +25383,38 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="M33" s="12" t="s">
+      <c r="M33" s="11" t="s">
         <v>81</v>
       </c>
       <c r="N33" s="0"/>
@@ -26488,36 +26431,36 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12" t="s">
+      <c r="K34" s="11"/>
+      <c r="L34" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M34" s="12" t="s">
+      <c r="M34" s="11" t="s">
         <v>82</v>
       </c>
       <c r="N34" s="0"/>
@@ -27533,29 +27476,29 @@
       <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
       <c r="N35" s="0"/>
       <c r="O35" s="0"/>
       <c r="P35" s="0"/>
@@ -28572,40 +28515,40 @@
       <c r="A36" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="M36" s="20" t="s">
+      <c r="M36" s="19" t="s">
         <v>88</v>
       </c>
       <c r="N36" s="0"/>
@@ -29622,40 +29565,40 @@
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="L37" s="20" t="s">
+      <c r="L37" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="M37" s="19" t="s">
         <v>93</v>
       </c>
       <c r="N37" s="0"/>
@@ -30671,41 +30614,41 @@
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="K38" s="19" t="s">
+      <c r="K38" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="M38" s="19" t="s">
+      <c r="M38" s="18" t="s">
         <v>95</v>
       </c>
       <c r="N38" s="0"/>
@@ -31721,39 +31664,39 @@
       <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="I39" s="19" t="s">
+      <c r="I39" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="K39" s="19" t="s">
+      <c r="K39" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="L39" s="19" t="s">
+      <c r="L39" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="M39" s="19" t="s">
+      <c r="M39" s="18" t="s">
         <v>98</v>
       </c>
       <c r="N39" s="0"/>
@@ -32769,41 +32712,41 @@
       <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="H40" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="I40" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20" t="s">
+      <c r="K40" s="19"/>
+      <c r="L40" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="M40" s="20" t="s">
+      <c r="M40" s="19" t="s">
         <v>101</v>
       </c>
       <c r="N40" s="0"/>
@@ -33818,79 +33761,79 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" s="23" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22"/>
-      <c r="B41" s="20" t="s">
+    <row r="41" s="22" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="21"/>
+      <c r="B41" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="H41" s="20" t="s">
+      <c r="H41" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="K41" s="12"/>
-      <c r="L41" s="20" t="s">
+      <c r="K41" s="11"/>
+      <c r="L41" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="M41" s="20" t="s">
+      <c r="M41" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="K42" s="19" t="s">
+      <c r="K42" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="L42" s="19" t="s">
+      <c r="L42" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="M42" s="19" t="s">
+      <c r="M42" s="18" t="s">
         <v>105</v>
       </c>
       <c r="N42" s="0"/>
@@ -34906,39 +34849,39 @@
       <c r="AMJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="18" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="K43" s="18" t="s">
+      <c r="K43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L43" s="18" t="s">
+      <c r="L43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M43" s="18" t="s">
+      <c r="M43" s="17" t="s">
         <v>107</v>
       </c>
       <c r="N43" s="0"/>
@@ -35954,19 +35897,19 @@
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
       <c r="N44" s="0"/>
       <c r="O44" s="0"/>
       <c r="P44" s="0"/>
@@ -36979,47 +36922,47 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="27" t="s">
+    <row r="45" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="26" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="I46" s="23" t="s">
+      <c r="I46" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="J46" s="23" t="s">
+      <c r="J46" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K46" s="29" t="s">
+      <c r="K46" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="29" t="s">
+      <c r="L46" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="M46" s="23" t="s">
+      <c r="M46" s="22" t="s">
         <v>113</v>
       </c>
       <c r="N46" s="0"/>
@@ -38035,17 +37978,17 @@
       <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="28"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="32" t="s">
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="32" t="s">
+      <c r="G47" s="29" t="s">
         <v>118</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -38054,13 +37997,13 @@
       <c r="I47" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="33" t="s">
+      <c r="J47" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="K47" s="29" t="s">
+      <c r="K47" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="L47" s="31"/>
+      <c r="L47" s="17"/>
       <c r="M47" s="1" t="s">
         <v>119</v>
       </c>
@@ -39077,17 +39020,17 @@
       <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29" t="s">
+      <c r="A48" s="20"/>
+      <c r="B48" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="29" t="s">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="27" t="s">
         <v>123</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -39096,12 +39039,12 @@
       <c r="I48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J48" s="31"/>
-      <c r="K48" s="23" t="s">
+      <c r="J48" s="17"/>
+      <c r="K48" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="L48" s="31"/>
-      <c r="M48" s="23" t="s">
+      <c r="L48" s="17"/>
+      <c r="M48" s="22" t="s">
         <v>114</v>
       </c>
       <c r="N48" s="0"/>
@@ -40117,17 +40060,17 @@
       <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="28"/>
-      <c r="B49" s="34" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31" t="s">
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="31" t="s">
+      <c r="G49" s="17" t="s">
         <v>127</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -40136,12 +40079,12 @@
       <c r="I49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J49" s="31"/>
+      <c r="J49" s="17"/>
       <c r="K49" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
       <c r="N49" s="0"/>
       <c r="O49" s="0"/>
       <c r="P49" s="0"/>
@@ -41155,31 +41098,31 @@
       <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="23" t="s">
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="22" t="s">
         <v>131</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I50" s="32" t="s">
+      <c r="I50" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="J50" s="31"/>
+      <c r="J50" s="17"/>
       <c r="K50" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
       <c r="N50" s="0"/>
       <c r="O50" s="0"/>
       <c r="P50" s="0"/>
@@ -42193,11 +42136,11 @@
       <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="28"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
       <c r="F51" s="1" t="s">
         <v>135</v>
       </c>
@@ -42207,13 +42150,13 @@
       <c r="H51" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
       <c r="K51" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
       <c r="N51" s="0"/>
       <c r="O51" s="0"/>
       <c r="P51" s="0"/>
@@ -43227,25 +43170,25 @@
       <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="28"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
       <c r="F52" s="1" t="s">
         <v>138</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
       <c r="K52" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
       <c r="N52" s="0"/>
       <c r="O52" s="0"/>
       <c r="P52" s="0"/>
@@ -44259,19 +44202,19 @@
       <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="28"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
       <c r="N53" s="0"/>
       <c r="O53" s="0"/>
       <c r="P53" s="0"/>
@@ -45284,13 +45227,13 @@
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" s="36" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="36" t="s">
+    <row r="54" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="55" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="37" t="s">
+    <row r="55" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="32" t="s">
         <v>141</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -45330,8 +45273,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37" t="s">
+    <row r="56" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="32" t="s">
         <v>148</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -45371,8 +45314,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37" t="s">
+    <row r="57" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="32" t="s">
         <v>155</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -45412,8 +45355,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="37" t="s">
+    <row r="58" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="32" t="s">
         <v>161</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -45453,8 +45396,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="37" t="s">
+    <row r="59" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="32" t="s">
         <v>168</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -45494,2205 +45437,2191 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="27" t="s">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="23"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="0"/>
+      <c r="O60" s="0"/>
+      <c r="P60" s="0"/>
+      <c r="Q60" s="0"/>
+      <c r="R60" s="0"/>
+      <c r="S60" s="0"/>
+      <c r="T60" s="0"/>
+      <c r="U60" s="0"/>
+      <c r="V60" s="0"/>
+      <c r="W60" s="0"/>
+      <c r="X60" s="0"/>
+      <c r="Y60" s="0"/>
+      <c r="Z60" s="0"/>
+      <c r="AA60" s="0"/>
+      <c r="AB60" s="0"/>
+      <c r="AC60" s="0"/>
+      <c r="AD60" s="0"/>
+      <c r="AE60" s="0"/>
+      <c r="AF60" s="0"/>
+      <c r="AG60" s="0"/>
+      <c r="AH60" s="0"/>
+      <c r="AI60" s="0"/>
+      <c r="AJ60" s="0"/>
+      <c r="AK60" s="0"/>
+      <c r="AL60" s="0"/>
+      <c r="AM60" s="0"/>
+      <c r="AN60" s="0"/>
+      <c r="AO60" s="0"/>
+      <c r="AP60" s="0"/>
+      <c r="AQ60" s="0"/>
+      <c r="AR60" s="0"/>
+      <c r="AS60" s="0"/>
+      <c r="AT60" s="0"/>
+      <c r="AU60" s="0"/>
+      <c r="AV60" s="0"/>
+      <c r="AW60" s="0"/>
+      <c r="AX60" s="0"/>
+      <c r="AY60" s="0"/>
+      <c r="AZ60" s="0"/>
+      <c r="BA60" s="0"/>
+      <c r="BB60" s="0"/>
+      <c r="BC60" s="0"/>
+      <c r="BD60" s="0"/>
+      <c r="BE60" s="0"/>
+      <c r="BF60" s="0"/>
+      <c r="BG60" s="0"/>
+      <c r="BH60" s="0"/>
+      <c r="BI60" s="0"/>
+      <c r="BJ60" s="0"/>
+      <c r="BK60" s="0"/>
+      <c r="BL60" s="0"/>
+      <c r="BM60" s="0"/>
+      <c r="BN60" s="0"/>
+      <c r="BO60" s="0"/>
+      <c r="BP60" s="0"/>
+      <c r="BQ60" s="0"/>
+      <c r="BR60" s="0"/>
+      <c r="BS60" s="0"/>
+      <c r="BT60" s="0"/>
+      <c r="BU60" s="0"/>
+      <c r="BV60" s="0"/>
+      <c r="BW60" s="0"/>
+      <c r="BX60" s="0"/>
+      <c r="BY60" s="0"/>
+      <c r="BZ60" s="0"/>
+      <c r="CA60" s="0"/>
+      <c r="CB60" s="0"/>
+      <c r="CC60" s="0"/>
+      <c r="CD60" s="0"/>
+      <c r="CE60" s="0"/>
+      <c r="CF60" s="0"/>
+      <c r="CG60" s="0"/>
+      <c r="CH60" s="0"/>
+      <c r="CI60" s="0"/>
+      <c r="CJ60" s="0"/>
+      <c r="CK60" s="0"/>
+      <c r="CL60" s="0"/>
+      <c r="CM60" s="0"/>
+      <c r="CN60" s="0"/>
+      <c r="CO60" s="0"/>
+      <c r="CP60" s="0"/>
+      <c r="CQ60" s="0"/>
+      <c r="CR60" s="0"/>
+      <c r="CS60" s="0"/>
+      <c r="CT60" s="0"/>
+      <c r="CU60" s="0"/>
+      <c r="CV60" s="0"/>
+      <c r="CW60" s="0"/>
+      <c r="CX60" s="0"/>
+      <c r="CY60" s="0"/>
+      <c r="CZ60" s="0"/>
+      <c r="DA60" s="0"/>
+      <c r="DB60" s="0"/>
+      <c r="DC60" s="0"/>
+      <c r="DD60" s="0"/>
+      <c r="DE60" s="0"/>
+      <c r="DF60" s="0"/>
+      <c r="DG60" s="0"/>
+      <c r="DH60" s="0"/>
+      <c r="DI60" s="0"/>
+      <c r="DJ60" s="0"/>
+      <c r="DK60" s="0"/>
+      <c r="DL60" s="0"/>
+      <c r="DM60" s="0"/>
+      <c r="DN60" s="0"/>
+      <c r="DO60" s="0"/>
+      <c r="DP60" s="0"/>
+      <c r="DQ60" s="0"/>
+      <c r="DR60" s="0"/>
+      <c r="DS60" s="0"/>
+      <c r="DT60" s="0"/>
+      <c r="DU60" s="0"/>
+      <c r="DV60" s="0"/>
+      <c r="DW60" s="0"/>
+      <c r="DX60" s="0"/>
+      <c r="DY60" s="0"/>
+      <c r="DZ60" s="0"/>
+      <c r="EA60" s="0"/>
+      <c r="EB60" s="0"/>
+      <c r="EC60" s="0"/>
+      <c r="ED60" s="0"/>
+      <c r="EE60" s="0"/>
+      <c r="EF60" s="0"/>
+      <c r="EG60" s="0"/>
+      <c r="EH60" s="0"/>
+      <c r="EI60" s="0"/>
+      <c r="EJ60" s="0"/>
+      <c r="EK60" s="0"/>
+      <c r="EL60" s="0"/>
+      <c r="EM60" s="0"/>
+      <c r="EN60" s="0"/>
+      <c r="EO60" s="0"/>
+      <c r="EP60" s="0"/>
+      <c r="EQ60" s="0"/>
+      <c r="ER60" s="0"/>
+      <c r="ES60" s="0"/>
+      <c r="ET60" s="0"/>
+      <c r="EU60" s="0"/>
+      <c r="EV60" s="0"/>
+      <c r="EW60" s="0"/>
+      <c r="EX60" s="0"/>
+      <c r="EY60" s="0"/>
+      <c r="EZ60" s="0"/>
+      <c r="FA60" s="0"/>
+      <c r="FB60" s="0"/>
+      <c r="FC60" s="0"/>
+      <c r="FD60" s="0"/>
+      <c r="FE60" s="0"/>
+      <c r="FF60" s="0"/>
+      <c r="FG60" s="0"/>
+      <c r="FH60" s="0"/>
+      <c r="FI60" s="0"/>
+      <c r="FJ60" s="0"/>
+      <c r="FK60" s="0"/>
+      <c r="FL60" s="0"/>
+      <c r="FM60" s="0"/>
+      <c r="FN60" s="0"/>
+      <c r="FO60" s="0"/>
+      <c r="FP60" s="0"/>
+      <c r="FQ60" s="0"/>
+      <c r="FR60" s="0"/>
+      <c r="FS60" s="0"/>
+      <c r="FT60" s="0"/>
+      <c r="FU60" s="0"/>
+      <c r="FV60" s="0"/>
+      <c r="FW60" s="0"/>
+      <c r="FX60" s="0"/>
+      <c r="FY60" s="0"/>
+      <c r="FZ60" s="0"/>
+      <c r="GA60" s="0"/>
+      <c r="GB60" s="0"/>
+      <c r="GC60" s="0"/>
+      <c r="GD60" s="0"/>
+      <c r="GE60" s="0"/>
+      <c r="GF60" s="0"/>
+      <c r="GG60" s="0"/>
+      <c r="GH60" s="0"/>
+      <c r="GI60" s="0"/>
+      <c r="GJ60" s="0"/>
+      <c r="GK60" s="0"/>
+      <c r="GL60" s="0"/>
+      <c r="GM60" s="0"/>
+      <c r="GN60" s="0"/>
+      <c r="GO60" s="0"/>
+      <c r="GP60" s="0"/>
+      <c r="GQ60" s="0"/>
+      <c r="GR60" s="0"/>
+      <c r="GS60" s="0"/>
+      <c r="GT60" s="0"/>
+      <c r="GU60" s="0"/>
+      <c r="GV60" s="0"/>
+      <c r="GW60" s="0"/>
+      <c r="GX60" s="0"/>
+      <c r="GY60" s="0"/>
+      <c r="GZ60" s="0"/>
+      <c r="HA60" s="0"/>
+      <c r="HB60" s="0"/>
+      <c r="HC60" s="0"/>
+      <c r="HD60" s="0"/>
+      <c r="HE60" s="0"/>
+      <c r="HF60" s="0"/>
+      <c r="HG60" s="0"/>
+      <c r="HH60" s="0"/>
+      <c r="HI60" s="0"/>
+      <c r="HJ60" s="0"/>
+      <c r="HK60" s="0"/>
+      <c r="HL60" s="0"/>
+      <c r="HM60" s="0"/>
+      <c r="HN60" s="0"/>
+      <c r="HO60" s="0"/>
+      <c r="HP60" s="0"/>
+      <c r="HQ60" s="0"/>
+      <c r="HR60" s="0"/>
+      <c r="HS60" s="0"/>
+      <c r="HT60" s="0"/>
+      <c r="HU60" s="0"/>
+      <c r="HV60" s="0"/>
+      <c r="HW60" s="0"/>
+      <c r="HX60" s="0"/>
+      <c r="HY60" s="0"/>
+      <c r="HZ60" s="0"/>
+      <c r="IA60" s="0"/>
+      <c r="IB60" s="0"/>
+      <c r="IC60" s="0"/>
+      <c r="ID60" s="0"/>
+      <c r="IE60" s="0"/>
+      <c r="IF60" s="0"/>
+      <c r="IG60" s="0"/>
+      <c r="IH60" s="0"/>
+      <c r="II60" s="0"/>
+      <c r="IJ60" s="0"/>
+      <c r="IK60" s="0"/>
+      <c r="IL60" s="0"/>
+      <c r="IM60" s="0"/>
+      <c r="IN60" s="0"/>
+      <c r="IO60" s="0"/>
+      <c r="IP60" s="0"/>
+      <c r="IQ60" s="0"/>
+      <c r="IR60" s="0"/>
+      <c r="IS60" s="0"/>
+      <c r="IT60" s="0"/>
+      <c r="IU60" s="0"/>
+      <c r="IV60" s="0"/>
+      <c r="IW60" s="0"/>
+      <c r="IX60" s="0"/>
+      <c r="IY60" s="0"/>
+      <c r="IZ60" s="0"/>
+      <c r="JA60" s="0"/>
+      <c r="JB60" s="0"/>
+      <c r="JC60" s="0"/>
+      <c r="JD60" s="0"/>
+      <c r="JE60" s="0"/>
+      <c r="JF60" s="0"/>
+      <c r="JG60" s="0"/>
+      <c r="JH60" s="0"/>
+      <c r="JI60" s="0"/>
+      <c r="JJ60" s="0"/>
+      <c r="JK60" s="0"/>
+      <c r="JL60" s="0"/>
+      <c r="JM60" s="0"/>
+      <c r="JN60" s="0"/>
+      <c r="JO60" s="0"/>
+      <c r="JP60" s="0"/>
+      <c r="JQ60" s="0"/>
+      <c r="JR60" s="0"/>
+      <c r="JS60" s="0"/>
+      <c r="JT60" s="0"/>
+      <c r="JU60" s="0"/>
+      <c r="JV60" s="0"/>
+      <c r="JW60" s="0"/>
+      <c r="JX60" s="0"/>
+      <c r="JY60" s="0"/>
+      <c r="JZ60" s="0"/>
+      <c r="KA60" s="0"/>
+      <c r="KB60" s="0"/>
+      <c r="KC60" s="0"/>
+      <c r="KD60" s="0"/>
+      <c r="KE60" s="0"/>
+      <c r="KF60" s="0"/>
+      <c r="KG60" s="0"/>
+      <c r="KH60" s="0"/>
+      <c r="KI60" s="0"/>
+      <c r="KJ60" s="0"/>
+      <c r="KK60" s="0"/>
+      <c r="KL60" s="0"/>
+      <c r="KM60" s="0"/>
+      <c r="KN60" s="0"/>
+      <c r="KO60" s="0"/>
+      <c r="KP60" s="0"/>
+      <c r="KQ60" s="0"/>
+      <c r="KR60" s="0"/>
+      <c r="KS60" s="0"/>
+      <c r="KT60" s="0"/>
+      <c r="KU60" s="0"/>
+      <c r="KV60" s="0"/>
+      <c r="KW60" s="0"/>
+      <c r="KX60" s="0"/>
+      <c r="KY60" s="0"/>
+      <c r="KZ60" s="0"/>
+      <c r="LA60" s="0"/>
+      <c r="LB60" s="0"/>
+      <c r="LC60" s="0"/>
+      <c r="LD60" s="0"/>
+      <c r="LE60" s="0"/>
+      <c r="LF60" s="0"/>
+      <c r="LG60" s="0"/>
+      <c r="LH60" s="0"/>
+      <c r="LI60" s="0"/>
+      <c r="LJ60" s="0"/>
+      <c r="LK60" s="0"/>
+      <c r="LL60" s="0"/>
+      <c r="LM60" s="0"/>
+      <c r="LN60" s="0"/>
+      <c r="LO60" s="0"/>
+      <c r="LP60" s="0"/>
+      <c r="LQ60" s="0"/>
+      <c r="LR60" s="0"/>
+      <c r="LS60" s="0"/>
+      <c r="LT60" s="0"/>
+      <c r="LU60" s="0"/>
+      <c r="LV60" s="0"/>
+      <c r="LW60" s="0"/>
+      <c r="LX60" s="0"/>
+      <c r="LY60" s="0"/>
+      <c r="LZ60" s="0"/>
+      <c r="MA60" s="0"/>
+      <c r="MB60" s="0"/>
+      <c r="MC60" s="0"/>
+      <c r="MD60" s="0"/>
+      <c r="ME60" s="0"/>
+      <c r="MF60" s="0"/>
+      <c r="MG60" s="0"/>
+      <c r="MH60" s="0"/>
+      <c r="MI60" s="0"/>
+      <c r="MJ60" s="0"/>
+      <c r="MK60" s="0"/>
+      <c r="ML60" s="0"/>
+      <c r="MM60" s="0"/>
+      <c r="MN60" s="0"/>
+      <c r="MO60" s="0"/>
+      <c r="MP60" s="0"/>
+      <c r="MQ60" s="0"/>
+      <c r="MR60" s="0"/>
+      <c r="MS60" s="0"/>
+      <c r="MT60" s="0"/>
+      <c r="MU60" s="0"/>
+      <c r="MV60" s="0"/>
+      <c r="MW60" s="0"/>
+      <c r="MX60" s="0"/>
+      <c r="MY60" s="0"/>
+      <c r="MZ60" s="0"/>
+      <c r="NA60" s="0"/>
+      <c r="NB60" s="0"/>
+      <c r="NC60" s="0"/>
+      <c r="ND60" s="0"/>
+      <c r="NE60" s="0"/>
+      <c r="NF60" s="0"/>
+      <c r="NG60" s="0"/>
+      <c r="NH60" s="0"/>
+      <c r="NI60" s="0"/>
+      <c r="NJ60" s="0"/>
+      <c r="NK60" s="0"/>
+      <c r="NL60" s="0"/>
+      <c r="NM60" s="0"/>
+      <c r="NN60" s="0"/>
+      <c r="NO60" s="0"/>
+      <c r="NP60" s="0"/>
+      <c r="NQ60" s="0"/>
+      <c r="NR60" s="0"/>
+      <c r="NS60" s="0"/>
+      <c r="NT60" s="0"/>
+      <c r="NU60" s="0"/>
+      <c r="NV60" s="0"/>
+      <c r="NW60" s="0"/>
+      <c r="NX60" s="0"/>
+      <c r="NY60" s="0"/>
+      <c r="NZ60" s="0"/>
+      <c r="OA60" s="0"/>
+      <c r="OB60" s="0"/>
+      <c r="OC60" s="0"/>
+      <c r="OD60" s="0"/>
+      <c r="OE60" s="0"/>
+      <c r="OF60" s="0"/>
+      <c r="OG60" s="0"/>
+      <c r="OH60" s="0"/>
+      <c r="OI60" s="0"/>
+      <c r="OJ60" s="0"/>
+      <c r="OK60" s="0"/>
+      <c r="OL60" s="0"/>
+      <c r="OM60" s="0"/>
+      <c r="ON60" s="0"/>
+      <c r="OO60" s="0"/>
+      <c r="OP60" s="0"/>
+      <c r="OQ60" s="0"/>
+      <c r="OR60" s="0"/>
+      <c r="OS60" s="0"/>
+      <c r="OT60" s="0"/>
+      <c r="OU60" s="0"/>
+      <c r="OV60" s="0"/>
+      <c r="OW60" s="0"/>
+      <c r="OX60" s="0"/>
+      <c r="OY60" s="0"/>
+      <c r="OZ60" s="0"/>
+      <c r="PA60" s="0"/>
+      <c r="PB60" s="0"/>
+      <c r="PC60" s="0"/>
+      <c r="PD60" s="0"/>
+      <c r="PE60" s="0"/>
+      <c r="PF60" s="0"/>
+      <c r="PG60" s="0"/>
+      <c r="PH60" s="0"/>
+      <c r="PI60" s="0"/>
+      <c r="PJ60" s="0"/>
+      <c r="PK60" s="0"/>
+      <c r="PL60" s="0"/>
+      <c r="PM60" s="0"/>
+      <c r="PN60" s="0"/>
+      <c r="PO60" s="0"/>
+      <c r="PP60" s="0"/>
+      <c r="PQ60" s="0"/>
+      <c r="PR60" s="0"/>
+      <c r="PS60" s="0"/>
+      <c r="PT60" s="0"/>
+      <c r="PU60" s="0"/>
+      <c r="PV60" s="0"/>
+      <c r="PW60" s="0"/>
+      <c r="PX60" s="0"/>
+      <c r="PY60" s="0"/>
+      <c r="PZ60" s="0"/>
+      <c r="QA60" s="0"/>
+      <c r="QB60" s="0"/>
+      <c r="QC60" s="0"/>
+      <c r="QD60" s="0"/>
+      <c r="QE60" s="0"/>
+      <c r="QF60" s="0"/>
+      <c r="QG60" s="0"/>
+      <c r="QH60" s="0"/>
+      <c r="QI60" s="0"/>
+      <c r="QJ60" s="0"/>
+      <c r="QK60" s="0"/>
+      <c r="QL60" s="0"/>
+      <c r="QM60" s="0"/>
+      <c r="QN60" s="0"/>
+      <c r="QO60" s="0"/>
+      <c r="QP60" s="0"/>
+      <c r="QQ60" s="0"/>
+      <c r="QR60" s="0"/>
+      <c r="QS60" s="0"/>
+      <c r="QT60" s="0"/>
+      <c r="QU60" s="0"/>
+      <c r="QV60" s="0"/>
+      <c r="QW60" s="0"/>
+      <c r="QX60" s="0"/>
+      <c r="QY60" s="0"/>
+      <c r="QZ60" s="0"/>
+      <c r="RA60" s="0"/>
+      <c r="RB60" s="0"/>
+      <c r="RC60" s="0"/>
+      <c r="RD60" s="0"/>
+      <c r="RE60" s="0"/>
+      <c r="RF60" s="0"/>
+      <c r="RG60" s="0"/>
+      <c r="RH60" s="0"/>
+      <c r="RI60" s="0"/>
+      <c r="RJ60" s="0"/>
+      <c r="RK60" s="0"/>
+      <c r="RL60" s="0"/>
+      <c r="RM60" s="0"/>
+      <c r="RN60" s="0"/>
+      <c r="RO60" s="0"/>
+      <c r="RP60" s="0"/>
+      <c r="RQ60" s="0"/>
+      <c r="RR60" s="0"/>
+      <c r="RS60" s="0"/>
+      <c r="RT60" s="0"/>
+      <c r="RU60" s="0"/>
+      <c r="RV60" s="0"/>
+      <c r="RW60" s="0"/>
+      <c r="RX60" s="0"/>
+      <c r="RY60" s="0"/>
+      <c r="RZ60" s="0"/>
+      <c r="SA60" s="0"/>
+      <c r="SB60" s="0"/>
+      <c r="SC60" s="0"/>
+      <c r="SD60" s="0"/>
+      <c r="SE60" s="0"/>
+      <c r="SF60" s="0"/>
+      <c r="SG60" s="0"/>
+      <c r="SH60" s="0"/>
+      <c r="SI60" s="0"/>
+      <c r="SJ60" s="0"/>
+      <c r="SK60" s="0"/>
+      <c r="SL60" s="0"/>
+      <c r="SM60" s="0"/>
+      <c r="SN60" s="0"/>
+      <c r="SO60" s="0"/>
+      <c r="SP60" s="0"/>
+      <c r="SQ60" s="0"/>
+      <c r="SR60" s="0"/>
+      <c r="SS60" s="0"/>
+      <c r="ST60" s="0"/>
+      <c r="SU60" s="0"/>
+      <c r="SV60" s="0"/>
+      <c r="SW60" s="0"/>
+      <c r="SX60" s="0"/>
+      <c r="SY60" s="0"/>
+      <c r="SZ60" s="0"/>
+      <c r="TA60" s="0"/>
+      <c r="TB60" s="0"/>
+      <c r="TC60" s="0"/>
+      <c r="TD60" s="0"/>
+      <c r="TE60" s="0"/>
+      <c r="TF60" s="0"/>
+      <c r="TG60" s="0"/>
+      <c r="TH60" s="0"/>
+      <c r="TI60" s="0"/>
+      <c r="TJ60" s="0"/>
+      <c r="TK60" s="0"/>
+      <c r="TL60" s="0"/>
+      <c r="TM60" s="0"/>
+      <c r="TN60" s="0"/>
+      <c r="TO60" s="0"/>
+      <c r="TP60" s="0"/>
+      <c r="TQ60" s="0"/>
+      <c r="TR60" s="0"/>
+      <c r="TS60" s="0"/>
+      <c r="TT60" s="0"/>
+      <c r="TU60" s="0"/>
+      <c r="TV60" s="0"/>
+      <c r="TW60" s="0"/>
+      <c r="TX60" s="0"/>
+      <c r="TY60" s="0"/>
+      <c r="TZ60" s="0"/>
+      <c r="UA60" s="0"/>
+      <c r="UB60" s="0"/>
+      <c r="UC60" s="0"/>
+      <c r="UD60" s="0"/>
+      <c r="UE60" s="0"/>
+      <c r="UF60" s="0"/>
+      <c r="UG60" s="0"/>
+      <c r="UH60" s="0"/>
+      <c r="UI60" s="0"/>
+      <c r="UJ60" s="0"/>
+      <c r="UK60" s="0"/>
+      <c r="UL60" s="0"/>
+      <c r="UM60" s="0"/>
+      <c r="UN60" s="0"/>
+      <c r="UO60" s="0"/>
+      <c r="UP60" s="0"/>
+      <c r="UQ60" s="0"/>
+      <c r="UR60" s="0"/>
+      <c r="US60" s="0"/>
+      <c r="UT60" s="0"/>
+      <c r="UU60" s="0"/>
+      <c r="UV60" s="0"/>
+      <c r="UW60" s="0"/>
+      <c r="UX60" s="0"/>
+      <c r="UY60" s="0"/>
+      <c r="UZ60" s="0"/>
+      <c r="VA60" s="0"/>
+      <c r="VB60" s="0"/>
+      <c r="VC60" s="0"/>
+      <c r="VD60" s="0"/>
+      <c r="VE60" s="0"/>
+      <c r="VF60" s="0"/>
+      <c r="VG60" s="0"/>
+      <c r="VH60" s="0"/>
+      <c r="VI60" s="0"/>
+      <c r="VJ60" s="0"/>
+      <c r="VK60" s="0"/>
+      <c r="VL60" s="0"/>
+      <c r="VM60" s="0"/>
+      <c r="VN60" s="0"/>
+      <c r="VO60" s="0"/>
+      <c r="VP60" s="0"/>
+      <c r="VQ60" s="0"/>
+      <c r="VR60" s="0"/>
+      <c r="VS60" s="0"/>
+      <c r="VT60" s="0"/>
+      <c r="VU60" s="0"/>
+      <c r="VV60" s="0"/>
+      <c r="VW60" s="0"/>
+      <c r="VX60" s="0"/>
+      <c r="VY60" s="0"/>
+      <c r="VZ60" s="0"/>
+      <c r="WA60" s="0"/>
+      <c r="WB60" s="0"/>
+      <c r="WC60" s="0"/>
+      <c r="WD60" s="0"/>
+      <c r="WE60" s="0"/>
+      <c r="WF60" s="0"/>
+      <c r="WG60" s="0"/>
+      <c r="WH60" s="0"/>
+      <c r="WI60" s="0"/>
+      <c r="WJ60" s="0"/>
+      <c r="WK60" s="0"/>
+      <c r="WL60" s="0"/>
+      <c r="WM60" s="0"/>
+      <c r="WN60" s="0"/>
+      <c r="WO60" s="0"/>
+      <c r="WP60" s="0"/>
+      <c r="WQ60" s="0"/>
+      <c r="WR60" s="0"/>
+      <c r="WS60" s="0"/>
+      <c r="WT60" s="0"/>
+      <c r="WU60" s="0"/>
+      <c r="WV60" s="0"/>
+      <c r="WW60" s="0"/>
+      <c r="WX60" s="0"/>
+      <c r="WY60" s="0"/>
+      <c r="WZ60" s="0"/>
+      <c r="XA60" s="0"/>
+      <c r="XB60" s="0"/>
+      <c r="XC60" s="0"/>
+      <c r="XD60" s="0"/>
+      <c r="XE60" s="0"/>
+      <c r="XF60" s="0"/>
+      <c r="XG60" s="0"/>
+      <c r="XH60" s="0"/>
+      <c r="XI60" s="0"/>
+      <c r="XJ60" s="0"/>
+      <c r="XK60" s="0"/>
+      <c r="XL60" s="0"/>
+      <c r="XM60" s="0"/>
+      <c r="XN60" s="0"/>
+      <c r="XO60" s="0"/>
+      <c r="XP60" s="0"/>
+      <c r="XQ60" s="0"/>
+      <c r="XR60" s="0"/>
+      <c r="XS60" s="0"/>
+      <c r="XT60" s="0"/>
+      <c r="XU60" s="0"/>
+      <c r="XV60" s="0"/>
+      <c r="XW60" s="0"/>
+      <c r="XX60" s="0"/>
+      <c r="XY60" s="0"/>
+      <c r="XZ60" s="0"/>
+      <c r="YA60" s="0"/>
+      <c r="YB60" s="0"/>
+      <c r="YC60" s="0"/>
+      <c r="YD60" s="0"/>
+      <c r="YE60" s="0"/>
+      <c r="YF60" s="0"/>
+      <c r="YG60" s="0"/>
+      <c r="YH60" s="0"/>
+      <c r="YI60" s="0"/>
+      <c r="YJ60" s="0"/>
+      <c r="YK60" s="0"/>
+      <c r="YL60" s="0"/>
+      <c r="YM60" s="0"/>
+      <c r="YN60" s="0"/>
+      <c r="YO60" s="0"/>
+      <c r="YP60" s="0"/>
+      <c r="YQ60" s="0"/>
+      <c r="YR60" s="0"/>
+      <c r="YS60" s="0"/>
+      <c r="YT60" s="0"/>
+      <c r="YU60" s="0"/>
+      <c r="YV60" s="0"/>
+      <c r="YW60" s="0"/>
+      <c r="YX60" s="0"/>
+      <c r="YY60" s="0"/>
+      <c r="YZ60" s="0"/>
+      <c r="ZA60" s="0"/>
+      <c r="ZB60" s="0"/>
+      <c r="ZC60" s="0"/>
+      <c r="ZD60" s="0"/>
+      <c r="ZE60" s="0"/>
+      <c r="ZF60" s="0"/>
+      <c r="ZG60" s="0"/>
+      <c r="ZH60" s="0"/>
+      <c r="ZI60" s="0"/>
+      <c r="ZJ60" s="0"/>
+      <c r="ZK60" s="0"/>
+      <c r="ZL60" s="0"/>
+      <c r="ZM60" s="0"/>
+      <c r="ZN60" s="0"/>
+      <c r="ZO60" s="0"/>
+      <c r="ZP60" s="0"/>
+      <c r="ZQ60" s="0"/>
+      <c r="ZR60" s="0"/>
+      <c r="ZS60" s="0"/>
+      <c r="ZT60" s="0"/>
+      <c r="ZU60" s="0"/>
+      <c r="ZV60" s="0"/>
+      <c r="ZW60" s="0"/>
+      <c r="ZX60" s="0"/>
+      <c r="ZY60" s="0"/>
+      <c r="ZZ60" s="0"/>
+      <c r="AAA60" s="0"/>
+      <c r="AAB60" s="0"/>
+      <c r="AAC60" s="0"/>
+      <c r="AAD60" s="0"/>
+      <c r="AAE60" s="0"/>
+      <c r="AAF60" s="0"/>
+      <c r="AAG60" s="0"/>
+      <c r="AAH60" s="0"/>
+      <c r="AAI60" s="0"/>
+      <c r="AAJ60" s="0"/>
+      <c r="AAK60" s="0"/>
+      <c r="AAL60" s="0"/>
+      <c r="AAM60" s="0"/>
+      <c r="AAN60" s="0"/>
+      <c r="AAO60" s="0"/>
+      <c r="AAP60" s="0"/>
+      <c r="AAQ60" s="0"/>
+      <c r="AAR60" s="0"/>
+      <c r="AAS60" s="0"/>
+      <c r="AAT60" s="0"/>
+      <c r="AAU60" s="0"/>
+      <c r="AAV60" s="0"/>
+      <c r="AAW60" s="0"/>
+      <c r="AAX60" s="0"/>
+      <c r="AAY60" s="0"/>
+      <c r="AAZ60" s="0"/>
+      <c r="ABA60" s="0"/>
+      <c r="ABB60" s="0"/>
+      <c r="ABC60" s="0"/>
+      <c r="ABD60" s="0"/>
+      <c r="ABE60" s="0"/>
+      <c r="ABF60" s="0"/>
+      <c r="ABG60" s="0"/>
+      <c r="ABH60" s="0"/>
+      <c r="ABI60" s="0"/>
+      <c r="ABJ60" s="0"/>
+      <c r="ABK60" s="0"/>
+      <c r="ABL60" s="0"/>
+      <c r="ABM60" s="0"/>
+      <c r="ABN60" s="0"/>
+      <c r="ABO60" s="0"/>
+      <c r="ABP60" s="0"/>
+      <c r="ABQ60" s="0"/>
+      <c r="ABR60" s="0"/>
+      <c r="ABS60" s="0"/>
+      <c r="ABT60" s="0"/>
+      <c r="ABU60" s="0"/>
+      <c r="ABV60" s="0"/>
+      <c r="ABW60" s="0"/>
+      <c r="ABX60" s="0"/>
+      <c r="ABY60" s="0"/>
+      <c r="ABZ60" s="0"/>
+      <c r="ACA60" s="0"/>
+      <c r="ACB60" s="0"/>
+      <c r="ACC60" s="0"/>
+      <c r="ACD60" s="0"/>
+      <c r="ACE60" s="0"/>
+      <c r="ACF60" s="0"/>
+      <c r="ACG60" s="0"/>
+      <c r="ACH60" s="0"/>
+      <c r="ACI60" s="0"/>
+      <c r="ACJ60" s="0"/>
+      <c r="ACK60" s="0"/>
+      <c r="ACL60" s="0"/>
+      <c r="ACM60" s="0"/>
+      <c r="ACN60" s="0"/>
+      <c r="ACO60" s="0"/>
+      <c r="ACP60" s="0"/>
+      <c r="ACQ60" s="0"/>
+      <c r="ACR60" s="0"/>
+      <c r="ACS60" s="0"/>
+      <c r="ACT60" s="0"/>
+      <c r="ACU60" s="0"/>
+      <c r="ACV60" s="0"/>
+      <c r="ACW60" s="0"/>
+      <c r="ACX60" s="0"/>
+      <c r="ACY60" s="0"/>
+      <c r="ACZ60" s="0"/>
+      <c r="ADA60" s="0"/>
+      <c r="ADB60" s="0"/>
+      <c r="ADC60" s="0"/>
+      <c r="ADD60" s="0"/>
+      <c r="ADE60" s="0"/>
+      <c r="ADF60" s="0"/>
+      <c r="ADG60" s="0"/>
+      <c r="ADH60" s="0"/>
+      <c r="ADI60" s="0"/>
+      <c r="ADJ60" s="0"/>
+      <c r="ADK60" s="0"/>
+      <c r="ADL60" s="0"/>
+      <c r="ADM60" s="0"/>
+      <c r="ADN60" s="0"/>
+      <c r="ADO60" s="0"/>
+      <c r="ADP60" s="0"/>
+      <c r="ADQ60" s="0"/>
+      <c r="ADR60" s="0"/>
+      <c r="ADS60" s="0"/>
+      <c r="ADT60" s="0"/>
+      <c r="ADU60" s="0"/>
+      <c r="ADV60" s="0"/>
+      <c r="ADW60" s="0"/>
+      <c r="ADX60" s="0"/>
+      <c r="ADY60" s="0"/>
+      <c r="ADZ60" s="0"/>
+      <c r="AEA60" s="0"/>
+      <c r="AEB60" s="0"/>
+      <c r="AEC60" s="0"/>
+      <c r="AED60" s="0"/>
+      <c r="AEE60" s="0"/>
+      <c r="AEF60" s="0"/>
+      <c r="AEG60" s="0"/>
+      <c r="AEH60" s="0"/>
+      <c r="AEI60" s="0"/>
+      <c r="AEJ60" s="0"/>
+      <c r="AEK60" s="0"/>
+      <c r="AEL60" s="0"/>
+      <c r="AEM60" s="0"/>
+      <c r="AEN60" s="0"/>
+      <c r="AEO60" s="0"/>
+      <c r="AEP60" s="0"/>
+      <c r="AEQ60" s="0"/>
+      <c r="AER60" s="0"/>
+      <c r="AES60" s="0"/>
+      <c r="AET60" s="0"/>
+      <c r="AEU60" s="0"/>
+      <c r="AEV60" s="0"/>
+      <c r="AEW60" s="0"/>
+      <c r="AEX60" s="0"/>
+      <c r="AEY60" s="0"/>
+      <c r="AEZ60" s="0"/>
+      <c r="AFA60" s="0"/>
+      <c r="AFB60" s="0"/>
+      <c r="AFC60" s="0"/>
+      <c r="AFD60" s="0"/>
+      <c r="AFE60" s="0"/>
+      <c r="AFF60" s="0"/>
+      <c r="AFG60" s="0"/>
+      <c r="AFH60" s="0"/>
+      <c r="AFI60" s="0"/>
+      <c r="AFJ60" s="0"/>
+      <c r="AFK60" s="0"/>
+      <c r="AFL60" s="0"/>
+      <c r="AFM60" s="0"/>
+      <c r="AFN60" s="0"/>
+      <c r="AFO60" s="0"/>
+      <c r="AFP60" s="0"/>
+      <c r="AFQ60" s="0"/>
+      <c r="AFR60" s="0"/>
+      <c r="AFS60" s="0"/>
+      <c r="AFT60" s="0"/>
+      <c r="AFU60" s="0"/>
+      <c r="AFV60" s="0"/>
+      <c r="AFW60" s="0"/>
+      <c r="AFX60" s="0"/>
+      <c r="AFY60" s="0"/>
+      <c r="AFZ60" s="0"/>
+      <c r="AGA60" s="0"/>
+      <c r="AGB60" s="0"/>
+      <c r="AGC60" s="0"/>
+      <c r="AGD60" s="0"/>
+      <c r="AGE60" s="0"/>
+      <c r="AGF60" s="0"/>
+      <c r="AGG60" s="0"/>
+      <c r="AGH60" s="0"/>
+      <c r="AGI60" s="0"/>
+      <c r="AGJ60" s="0"/>
+      <c r="AGK60" s="0"/>
+      <c r="AGL60" s="0"/>
+      <c r="AGM60" s="0"/>
+      <c r="AGN60" s="0"/>
+      <c r="AGO60" s="0"/>
+      <c r="AGP60" s="0"/>
+      <c r="AGQ60" s="0"/>
+      <c r="AGR60" s="0"/>
+      <c r="AGS60" s="0"/>
+      <c r="AGT60" s="0"/>
+      <c r="AGU60" s="0"/>
+      <c r="AGV60" s="0"/>
+      <c r="AGW60" s="0"/>
+      <c r="AGX60" s="0"/>
+      <c r="AGY60" s="0"/>
+      <c r="AGZ60" s="0"/>
+      <c r="AHA60" s="0"/>
+      <c r="AHB60" s="0"/>
+      <c r="AHC60" s="0"/>
+      <c r="AHD60" s="0"/>
+      <c r="AHE60" s="0"/>
+      <c r="AHF60" s="0"/>
+      <c r="AHG60" s="0"/>
+      <c r="AHH60" s="0"/>
+      <c r="AHI60" s="0"/>
+      <c r="AHJ60" s="0"/>
+      <c r="AHK60" s="0"/>
+      <c r="AHL60" s="0"/>
+      <c r="AHM60" s="0"/>
+      <c r="AHN60" s="0"/>
+      <c r="AHO60" s="0"/>
+      <c r="AHP60" s="0"/>
+      <c r="AHQ60" s="0"/>
+      <c r="AHR60" s="0"/>
+      <c r="AHS60" s="0"/>
+      <c r="AHT60" s="0"/>
+      <c r="AHU60" s="0"/>
+      <c r="AHV60" s="0"/>
+      <c r="AHW60" s="0"/>
+      <c r="AHX60" s="0"/>
+      <c r="AHY60" s="0"/>
+      <c r="AHZ60" s="0"/>
+      <c r="AIA60" s="0"/>
+      <c r="AIB60" s="0"/>
+      <c r="AIC60" s="0"/>
+      <c r="AID60" s="0"/>
+      <c r="AIE60" s="0"/>
+      <c r="AIF60" s="0"/>
+      <c r="AIG60" s="0"/>
+      <c r="AIH60" s="0"/>
+      <c r="AII60" s="0"/>
+      <c r="AIJ60" s="0"/>
+      <c r="AIK60" s="0"/>
+      <c r="AIL60" s="0"/>
+      <c r="AIM60" s="0"/>
+      <c r="AIN60" s="0"/>
+      <c r="AIO60" s="0"/>
+      <c r="AIP60" s="0"/>
+      <c r="AIQ60" s="0"/>
+      <c r="AIR60" s="0"/>
+      <c r="AIS60" s="0"/>
+      <c r="AIT60" s="0"/>
+      <c r="AIU60" s="0"/>
+      <c r="AIV60" s="0"/>
+      <c r="AIW60" s="0"/>
+      <c r="AIX60" s="0"/>
+      <c r="AIY60" s="0"/>
+      <c r="AIZ60" s="0"/>
+      <c r="AJA60" s="0"/>
+      <c r="AJB60" s="0"/>
+      <c r="AJC60" s="0"/>
+      <c r="AJD60" s="0"/>
+      <c r="AJE60" s="0"/>
+      <c r="AJF60" s="0"/>
+      <c r="AJG60" s="0"/>
+      <c r="AJH60" s="0"/>
+      <c r="AJI60" s="0"/>
+      <c r="AJJ60" s="0"/>
+      <c r="AJK60" s="0"/>
+      <c r="AJL60" s="0"/>
+      <c r="AJM60" s="0"/>
+      <c r="AJN60" s="0"/>
+      <c r="AJO60" s="0"/>
+      <c r="AJP60" s="0"/>
+      <c r="AJQ60" s="0"/>
+      <c r="AJR60" s="0"/>
+      <c r="AJS60" s="0"/>
+      <c r="AJT60" s="0"/>
+      <c r="AJU60" s="0"/>
+      <c r="AJV60" s="0"/>
+      <c r="AJW60" s="0"/>
+      <c r="AJX60" s="0"/>
+      <c r="AJY60" s="0"/>
+      <c r="AJZ60" s="0"/>
+      <c r="AKA60" s="0"/>
+      <c r="AKB60" s="0"/>
+      <c r="AKC60" s="0"/>
+      <c r="AKD60" s="0"/>
+      <c r="AKE60" s="0"/>
+      <c r="AKF60" s="0"/>
+      <c r="AKG60" s="0"/>
+      <c r="AKH60" s="0"/>
+      <c r="AKI60" s="0"/>
+      <c r="AKJ60" s="0"/>
+      <c r="AKK60" s="0"/>
+      <c r="AKL60" s="0"/>
+      <c r="AKM60" s="0"/>
+      <c r="AKN60" s="0"/>
+      <c r="AKO60" s="0"/>
+      <c r="AKP60" s="0"/>
+      <c r="AKQ60" s="0"/>
+      <c r="AKR60" s="0"/>
+      <c r="AKS60" s="0"/>
+      <c r="AKT60" s="0"/>
+      <c r="AKU60" s="0"/>
+      <c r="AKV60" s="0"/>
+      <c r="AKW60" s="0"/>
+      <c r="AKX60" s="0"/>
+      <c r="AKY60" s="0"/>
+      <c r="AKZ60" s="0"/>
+      <c r="ALA60" s="0"/>
+      <c r="ALB60" s="0"/>
+      <c r="ALC60" s="0"/>
+      <c r="ALD60" s="0"/>
+      <c r="ALE60" s="0"/>
+      <c r="ALF60" s="0"/>
+      <c r="ALG60" s="0"/>
+      <c r="ALH60" s="0"/>
+      <c r="ALI60" s="0"/>
+      <c r="ALJ60" s="0"/>
+      <c r="ALK60" s="0"/>
+      <c r="ALL60" s="0"/>
+      <c r="ALM60" s="0"/>
+      <c r="ALN60" s="0"/>
+      <c r="ALO60" s="0"/>
+      <c r="ALP60" s="0"/>
+      <c r="ALQ60" s="0"/>
+      <c r="ALR60" s="0"/>
+      <c r="ALS60" s="0"/>
+      <c r="ALT60" s="0"/>
+      <c r="ALU60" s="0"/>
+      <c r="ALV60" s="0"/>
+      <c r="ALW60" s="0"/>
+      <c r="ALX60" s="0"/>
+      <c r="ALY60" s="0"/>
+      <c r="ALZ60" s="0"/>
+      <c r="AMA60" s="0"/>
+      <c r="AMB60" s="0"/>
+      <c r="AMC60" s="0"/>
+      <c r="AMD60" s="0"/>
+      <c r="AME60" s="0"/>
+      <c r="AMF60" s="0"/>
+      <c r="AMG60" s="0"/>
+      <c r="AMH60" s="0"/>
+      <c r="AMI60" s="0"/>
+      <c r="AMJ60" s="0"/>
+    </row>
+    <row r="61" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="26" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="29" t="s">
+    <row r="62" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D62" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="F62" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="G61" s="38" t="s">
+      <c r="G62" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="H61" s="29" t="s">
+      <c r="H62" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="I61" s="29" t="s">
+      <c r="I62" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="J61" s="23" t="s">
+      <c r="J62" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="K61" s="29" t="s">
+      <c r="K62" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="L61" s="29" t="s">
+      <c r="L62" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="M61" s="29" t="s">
+      <c r="M62" s="27" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29" t="s">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C63" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="0"/>
-      <c r="E62" s="29" t="s">
+      <c r="D63" s="0"/>
+      <c r="E63" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="F63" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="G62" s="39" t="s">
+      <c r="G63" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="H62" s="29" t="s">
+      <c r="H63" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="I62" s="29" t="s">
+      <c r="I63" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K62" s="32" t="s">
+      <c r="K63" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="L62" s="0"/>
-      <c r="M62" s="29" t="s">
+      <c r="L63" s="0"/>
+      <c r="M63" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="N62" s="0"/>
-      <c r="O62" s="0"/>
-      <c r="P62" s="0"/>
-      <c r="Q62" s="0"/>
-      <c r="R62" s="0"/>
-      <c r="S62" s="0"/>
-      <c r="T62" s="0"/>
-      <c r="U62" s="0"/>
-      <c r="V62" s="0"/>
-      <c r="W62" s="0"/>
-      <c r="X62" s="0"/>
-      <c r="Y62" s="0"/>
-      <c r="Z62" s="0"/>
-      <c r="AA62" s="0"/>
-      <c r="AB62" s="0"/>
-      <c r="AC62" s="0"/>
-      <c r="AD62" s="0"/>
-      <c r="AE62" s="0"/>
-      <c r="AF62" s="0"/>
-      <c r="AG62" s="0"/>
-      <c r="AH62" s="0"/>
-      <c r="AI62" s="0"/>
-      <c r="AJ62" s="0"/>
-      <c r="AK62" s="0"/>
-      <c r="AL62" s="0"/>
-      <c r="AM62" s="0"/>
-      <c r="AN62" s="0"/>
-      <c r="AO62" s="0"/>
-      <c r="AP62" s="0"/>
-      <c r="AQ62" s="0"/>
-      <c r="AR62" s="0"/>
-      <c r="AS62" s="0"/>
-      <c r="AT62" s="0"/>
-      <c r="AU62" s="0"/>
-      <c r="AV62" s="0"/>
-      <c r="AW62" s="0"/>
-      <c r="AX62" s="0"/>
-      <c r="AY62" s="0"/>
-      <c r="AZ62" s="0"/>
-      <c r="BA62" s="0"/>
-      <c r="BB62" s="0"/>
-      <c r="BC62" s="0"/>
-      <c r="BD62" s="0"/>
-      <c r="BE62" s="0"/>
-      <c r="BF62" s="0"/>
-      <c r="BG62" s="0"/>
-      <c r="BH62" s="0"/>
-      <c r="BI62" s="0"/>
-      <c r="BJ62" s="0"/>
-      <c r="BK62" s="0"/>
-      <c r="BL62" s="0"/>
-      <c r="BM62" s="0"/>
-      <c r="BN62" s="0"/>
-      <c r="BO62" s="0"/>
-      <c r="BP62" s="0"/>
-      <c r="BQ62" s="0"/>
-      <c r="BR62" s="0"/>
-      <c r="BS62" s="0"/>
-      <c r="BT62" s="0"/>
-      <c r="BU62" s="0"/>
-      <c r="BV62" s="0"/>
-      <c r="BW62" s="0"/>
-      <c r="BX62" s="0"/>
-      <c r="BY62" s="0"/>
-      <c r="BZ62" s="0"/>
-      <c r="CA62" s="0"/>
-      <c r="CB62" s="0"/>
-      <c r="CC62" s="0"/>
-      <c r="CD62" s="0"/>
-      <c r="CE62" s="0"/>
-      <c r="CF62" s="0"/>
-      <c r="CG62" s="0"/>
-      <c r="CH62" s="0"/>
-      <c r="CI62" s="0"/>
-      <c r="CJ62" s="0"/>
-      <c r="CK62" s="0"/>
-      <c r="CL62" s="0"/>
-      <c r="CM62" s="0"/>
-      <c r="CN62" s="0"/>
-      <c r="CO62" s="0"/>
-      <c r="CP62" s="0"/>
-      <c r="CQ62" s="0"/>
-      <c r="CR62" s="0"/>
-      <c r="CS62" s="0"/>
-      <c r="CT62" s="0"/>
-      <c r="CU62" s="0"/>
-      <c r="CV62" s="0"/>
-      <c r="CW62" s="0"/>
-      <c r="CX62" s="0"/>
-      <c r="CY62" s="0"/>
-      <c r="CZ62" s="0"/>
-      <c r="DA62" s="0"/>
-      <c r="DB62" s="0"/>
-      <c r="DC62" s="0"/>
-      <c r="DD62" s="0"/>
-      <c r="DE62" s="0"/>
-      <c r="DF62" s="0"/>
-      <c r="DG62" s="0"/>
-      <c r="DH62" s="0"/>
-      <c r="DI62" s="0"/>
-      <c r="DJ62" s="0"/>
-      <c r="DK62" s="0"/>
-      <c r="DL62" s="0"/>
-      <c r="DM62" s="0"/>
-      <c r="DN62" s="0"/>
-      <c r="DO62" s="0"/>
-      <c r="DP62" s="0"/>
-      <c r="DQ62" s="0"/>
-      <c r="DR62" s="0"/>
-      <c r="DS62" s="0"/>
-      <c r="DT62" s="0"/>
-      <c r="DU62" s="0"/>
-      <c r="DV62" s="0"/>
-      <c r="DW62" s="0"/>
-      <c r="DX62" s="0"/>
-      <c r="DY62" s="0"/>
-      <c r="DZ62" s="0"/>
-      <c r="EA62" s="0"/>
-      <c r="EB62" s="0"/>
-      <c r="EC62" s="0"/>
-      <c r="ED62" s="0"/>
-      <c r="EE62" s="0"/>
-      <c r="EF62" s="0"/>
-      <c r="EG62" s="0"/>
-      <c r="EH62" s="0"/>
-      <c r="EI62" s="0"/>
-      <c r="EJ62" s="0"/>
-      <c r="EK62" s="0"/>
-      <c r="EL62" s="0"/>
-      <c r="EM62" s="0"/>
-      <c r="EN62" s="0"/>
-      <c r="EO62" s="0"/>
-      <c r="EP62" s="0"/>
-      <c r="EQ62" s="0"/>
-      <c r="ER62" s="0"/>
-      <c r="ES62" s="0"/>
-      <c r="ET62" s="0"/>
-      <c r="EU62" s="0"/>
-      <c r="EV62" s="0"/>
-      <c r="EW62" s="0"/>
-      <c r="EX62" s="0"/>
-      <c r="EY62" s="0"/>
-      <c r="EZ62" s="0"/>
-      <c r="FA62" s="0"/>
-      <c r="FB62" s="0"/>
-      <c r="FC62" s="0"/>
-      <c r="FD62" s="0"/>
-      <c r="FE62" s="0"/>
-      <c r="FF62" s="0"/>
-      <c r="FG62" s="0"/>
-      <c r="FH62" s="0"/>
-      <c r="FI62" s="0"/>
-      <c r="FJ62" s="0"/>
-      <c r="FK62" s="0"/>
-      <c r="FL62" s="0"/>
-      <c r="FM62" s="0"/>
-      <c r="FN62" s="0"/>
-      <c r="FO62" s="0"/>
-      <c r="FP62" s="0"/>
-      <c r="FQ62" s="0"/>
-      <c r="FR62" s="0"/>
-      <c r="FS62" s="0"/>
-      <c r="FT62" s="0"/>
-      <c r="FU62" s="0"/>
-      <c r="FV62" s="0"/>
-      <c r="FW62" s="0"/>
-      <c r="FX62" s="0"/>
-      <c r="FY62" s="0"/>
-      <c r="FZ62" s="0"/>
-      <c r="GA62" s="0"/>
-      <c r="GB62" s="0"/>
-      <c r="GC62" s="0"/>
-      <c r="GD62" s="0"/>
-      <c r="GE62" s="0"/>
-      <c r="GF62" s="0"/>
-      <c r="GG62" s="0"/>
-      <c r="GH62" s="0"/>
-      <c r="GI62" s="0"/>
-      <c r="GJ62" s="0"/>
-      <c r="GK62" s="0"/>
-      <c r="GL62" s="0"/>
-      <c r="GM62" s="0"/>
-      <c r="GN62" s="0"/>
-      <c r="GO62" s="0"/>
-      <c r="GP62" s="0"/>
-      <c r="GQ62" s="0"/>
-      <c r="GR62" s="0"/>
-      <c r="GS62" s="0"/>
-      <c r="GT62" s="0"/>
-      <c r="GU62" s="0"/>
-      <c r="GV62" s="0"/>
-      <c r="GW62" s="0"/>
-      <c r="GX62" s="0"/>
-      <c r="GY62" s="0"/>
-      <c r="GZ62" s="0"/>
-      <c r="HA62" s="0"/>
-      <c r="HB62" s="0"/>
-      <c r="HC62" s="0"/>
-      <c r="HD62" s="0"/>
-      <c r="HE62" s="0"/>
-      <c r="HF62" s="0"/>
-      <c r="HG62" s="0"/>
-      <c r="HH62" s="0"/>
-      <c r="HI62" s="0"/>
-      <c r="HJ62" s="0"/>
-      <c r="HK62" s="0"/>
-      <c r="HL62" s="0"/>
-      <c r="HM62" s="0"/>
-      <c r="HN62" s="0"/>
-      <c r="HO62" s="0"/>
-      <c r="HP62" s="0"/>
-      <c r="HQ62" s="0"/>
-      <c r="HR62" s="0"/>
-      <c r="HS62" s="0"/>
-      <c r="HT62" s="0"/>
-      <c r="HU62" s="0"/>
-      <c r="HV62" s="0"/>
-      <c r="HW62" s="0"/>
-      <c r="HX62" s="0"/>
-      <c r="HY62" s="0"/>
-      <c r="HZ62" s="0"/>
-      <c r="IA62" s="0"/>
-      <c r="IB62" s="0"/>
-      <c r="IC62" s="0"/>
-      <c r="ID62" s="0"/>
-      <c r="IE62" s="0"/>
-      <c r="IF62" s="0"/>
-      <c r="IG62" s="0"/>
-      <c r="IH62" s="0"/>
-      <c r="II62" s="0"/>
-      <c r="IJ62" s="0"/>
-      <c r="IK62" s="0"/>
-      <c r="IL62" s="0"/>
-      <c r="IM62" s="0"/>
-      <c r="IN62" s="0"/>
-      <c r="IO62" s="0"/>
-      <c r="IP62" s="0"/>
-      <c r="IQ62" s="0"/>
-      <c r="IR62" s="0"/>
-      <c r="IS62" s="0"/>
-      <c r="IT62" s="0"/>
-      <c r="IU62" s="0"/>
-      <c r="IV62" s="0"/>
-      <c r="IW62" s="0"/>
-      <c r="IX62" s="0"/>
-      <c r="IY62" s="0"/>
-      <c r="IZ62" s="0"/>
-      <c r="JA62" s="0"/>
-      <c r="JB62" s="0"/>
-      <c r="JC62" s="0"/>
-      <c r="JD62" s="0"/>
-      <c r="JE62" s="0"/>
-      <c r="JF62" s="0"/>
-      <c r="JG62" s="0"/>
-      <c r="JH62" s="0"/>
-      <c r="JI62" s="0"/>
-      <c r="JJ62" s="0"/>
-      <c r="JK62" s="0"/>
-      <c r="JL62" s="0"/>
-      <c r="JM62" s="0"/>
-      <c r="JN62" s="0"/>
-      <c r="JO62" s="0"/>
-      <c r="JP62" s="0"/>
-      <c r="JQ62" s="0"/>
-      <c r="JR62" s="0"/>
-      <c r="JS62" s="0"/>
-      <c r="JT62" s="0"/>
-      <c r="JU62" s="0"/>
-      <c r="JV62" s="0"/>
-      <c r="JW62" s="0"/>
-      <c r="JX62" s="0"/>
-      <c r="JY62" s="0"/>
-      <c r="JZ62" s="0"/>
-      <c r="KA62" s="0"/>
-      <c r="KB62" s="0"/>
-      <c r="KC62" s="0"/>
-      <c r="KD62" s="0"/>
-      <c r="KE62" s="0"/>
-      <c r="KF62" s="0"/>
-      <c r="KG62" s="0"/>
-      <c r="KH62" s="0"/>
-      <c r="KI62" s="0"/>
-      <c r="KJ62" s="0"/>
-      <c r="KK62" s="0"/>
-      <c r="KL62" s="0"/>
-      <c r="KM62" s="0"/>
-      <c r="KN62" s="0"/>
-      <c r="KO62" s="0"/>
-      <c r="KP62" s="0"/>
-      <c r="KQ62" s="0"/>
-      <c r="KR62" s="0"/>
-      <c r="KS62" s="0"/>
-      <c r="KT62" s="0"/>
-      <c r="KU62" s="0"/>
-      <c r="KV62" s="0"/>
-      <c r="KW62" s="0"/>
-      <c r="KX62" s="0"/>
-      <c r="KY62" s="0"/>
-      <c r="KZ62" s="0"/>
-      <c r="LA62" s="0"/>
-      <c r="LB62" s="0"/>
-      <c r="LC62" s="0"/>
-      <c r="LD62" s="0"/>
-      <c r="LE62" s="0"/>
-      <c r="LF62" s="0"/>
-      <c r="LG62" s="0"/>
-      <c r="LH62" s="0"/>
-      <c r="LI62" s="0"/>
-      <c r="LJ62" s="0"/>
-      <c r="LK62" s="0"/>
-      <c r="LL62" s="0"/>
-      <c r="LM62" s="0"/>
-      <c r="LN62" s="0"/>
-      <c r="LO62" s="0"/>
-      <c r="LP62" s="0"/>
-      <c r="LQ62" s="0"/>
-      <c r="LR62" s="0"/>
-      <c r="LS62" s="0"/>
-      <c r="LT62" s="0"/>
-      <c r="LU62" s="0"/>
-      <c r="LV62" s="0"/>
-      <c r="LW62" s="0"/>
-      <c r="LX62" s="0"/>
-      <c r="LY62" s="0"/>
-      <c r="LZ62" s="0"/>
-      <c r="MA62" s="0"/>
-      <c r="MB62" s="0"/>
-      <c r="MC62" s="0"/>
-      <c r="MD62" s="0"/>
-      <c r="ME62" s="0"/>
-      <c r="MF62" s="0"/>
-      <c r="MG62" s="0"/>
-      <c r="MH62" s="0"/>
-      <c r="MI62" s="0"/>
-      <c r="MJ62" s="0"/>
-      <c r="MK62" s="0"/>
-      <c r="ML62" s="0"/>
-      <c r="MM62" s="0"/>
-      <c r="MN62" s="0"/>
-      <c r="MO62" s="0"/>
-      <c r="MP62" s="0"/>
-      <c r="MQ62" s="0"/>
-      <c r="MR62" s="0"/>
-      <c r="MS62" s="0"/>
-      <c r="MT62" s="0"/>
-      <c r="MU62" s="0"/>
-      <c r="MV62" s="0"/>
-      <c r="MW62" s="0"/>
-      <c r="MX62" s="0"/>
-      <c r="MY62" s="0"/>
-      <c r="MZ62" s="0"/>
-      <c r="NA62" s="0"/>
-      <c r="NB62" s="0"/>
-      <c r="NC62" s="0"/>
-      <c r="ND62" s="0"/>
-      <c r="NE62" s="0"/>
-      <c r="NF62" s="0"/>
-      <c r="NG62" s="0"/>
-      <c r="NH62" s="0"/>
-      <c r="NI62" s="0"/>
-      <c r="NJ62" s="0"/>
-      <c r="NK62" s="0"/>
-      <c r="NL62" s="0"/>
-      <c r="NM62" s="0"/>
-      <c r="NN62" s="0"/>
-      <c r="NO62" s="0"/>
-      <c r="NP62" s="0"/>
-      <c r="NQ62" s="0"/>
-      <c r="NR62" s="0"/>
-      <c r="NS62" s="0"/>
-      <c r="NT62" s="0"/>
-      <c r="NU62" s="0"/>
-      <c r="NV62" s="0"/>
-      <c r="NW62" s="0"/>
-      <c r="NX62" s="0"/>
-      <c r="NY62" s="0"/>
-      <c r="NZ62" s="0"/>
-      <c r="OA62" s="0"/>
-      <c r="OB62" s="0"/>
-      <c r="OC62" s="0"/>
-      <c r="OD62" s="0"/>
-      <c r="OE62" s="0"/>
-      <c r="OF62" s="0"/>
-      <c r="OG62" s="0"/>
-      <c r="OH62" s="0"/>
-      <c r="OI62" s="0"/>
-      <c r="OJ62" s="0"/>
-      <c r="OK62" s="0"/>
-      <c r="OL62" s="0"/>
-      <c r="OM62" s="0"/>
-      <c r="ON62" s="0"/>
-      <c r="OO62" s="0"/>
-      <c r="OP62" s="0"/>
-      <c r="OQ62" s="0"/>
-      <c r="OR62" s="0"/>
-      <c r="OS62" s="0"/>
-      <c r="OT62" s="0"/>
-      <c r="OU62" s="0"/>
-      <c r="OV62" s="0"/>
-      <c r="OW62" s="0"/>
-      <c r="OX62" s="0"/>
-      <c r="OY62" s="0"/>
-      <c r="OZ62" s="0"/>
-      <c r="PA62" s="0"/>
-      <c r="PB62" s="0"/>
-      <c r="PC62" s="0"/>
-      <c r="PD62" s="0"/>
-      <c r="PE62" s="0"/>
-      <c r="PF62" s="0"/>
-      <c r="PG62" s="0"/>
-      <c r="PH62" s="0"/>
-      <c r="PI62" s="0"/>
-      <c r="PJ62" s="0"/>
-      <c r="PK62" s="0"/>
-      <c r="PL62" s="0"/>
-      <c r="PM62" s="0"/>
-      <c r="PN62" s="0"/>
-      <c r="PO62" s="0"/>
-      <c r="PP62" s="0"/>
-      <c r="PQ62" s="0"/>
-      <c r="PR62" s="0"/>
-      <c r="PS62" s="0"/>
-      <c r="PT62" s="0"/>
-      <c r="PU62" s="0"/>
-      <c r="PV62" s="0"/>
-      <c r="PW62" s="0"/>
-      <c r="PX62" s="0"/>
-      <c r="PY62" s="0"/>
-      <c r="PZ62" s="0"/>
-      <c r="QA62" s="0"/>
-      <c r="QB62" s="0"/>
-      <c r="QC62" s="0"/>
-      <c r="QD62" s="0"/>
-      <c r="QE62" s="0"/>
-      <c r="QF62" s="0"/>
-      <c r="QG62" s="0"/>
-      <c r="QH62" s="0"/>
-      <c r="QI62" s="0"/>
-      <c r="QJ62" s="0"/>
-      <c r="QK62" s="0"/>
-      <c r="QL62" s="0"/>
-      <c r="QM62" s="0"/>
-      <c r="QN62" s="0"/>
-      <c r="QO62" s="0"/>
-      <c r="QP62" s="0"/>
-      <c r="QQ62" s="0"/>
-      <c r="QR62" s="0"/>
-      <c r="QS62" s="0"/>
-      <c r="QT62" s="0"/>
-      <c r="QU62" s="0"/>
-      <c r="QV62" s="0"/>
-      <c r="QW62" s="0"/>
-      <c r="QX62" s="0"/>
-      <c r="QY62" s="0"/>
-      <c r="QZ62" s="0"/>
-      <c r="RA62" s="0"/>
-      <c r="RB62" s="0"/>
-      <c r="RC62" s="0"/>
-      <c r="RD62" s="0"/>
-      <c r="RE62" s="0"/>
-      <c r="RF62" s="0"/>
-      <c r="RG62" s="0"/>
-      <c r="RH62" s="0"/>
-      <c r="RI62" s="0"/>
-      <c r="RJ62" s="0"/>
-      <c r="RK62" s="0"/>
-      <c r="RL62" s="0"/>
-      <c r="RM62" s="0"/>
-      <c r="RN62" s="0"/>
-      <c r="RO62" s="0"/>
-      <c r="RP62" s="0"/>
-      <c r="RQ62" s="0"/>
-      <c r="RR62" s="0"/>
-      <c r="RS62" s="0"/>
-      <c r="RT62" s="0"/>
-      <c r="RU62" s="0"/>
-      <c r="RV62" s="0"/>
-      <c r="RW62" s="0"/>
-      <c r="RX62" s="0"/>
-      <c r="RY62" s="0"/>
-      <c r="RZ62" s="0"/>
-      <c r="SA62" s="0"/>
-      <c r="SB62" s="0"/>
-      <c r="SC62" s="0"/>
-      <c r="SD62" s="0"/>
-      <c r="SE62" s="0"/>
-      <c r="SF62" s="0"/>
-      <c r="SG62" s="0"/>
-      <c r="SH62" s="0"/>
-      <c r="SI62" s="0"/>
-      <c r="SJ62" s="0"/>
-      <c r="SK62" s="0"/>
-      <c r="SL62" s="0"/>
-      <c r="SM62" s="0"/>
-      <c r="SN62" s="0"/>
-      <c r="SO62" s="0"/>
-      <c r="SP62" s="0"/>
-      <c r="SQ62" s="0"/>
-      <c r="SR62" s="0"/>
-      <c r="SS62" s="0"/>
-      <c r="ST62" s="0"/>
-      <c r="SU62" s="0"/>
-      <c r="SV62" s="0"/>
-      <c r="SW62" s="0"/>
-      <c r="SX62" s="0"/>
-      <c r="SY62" s="0"/>
-      <c r="SZ62" s="0"/>
-      <c r="TA62" s="0"/>
-      <c r="TB62" s="0"/>
-      <c r="TC62" s="0"/>
-      <c r="TD62" s="0"/>
-      <c r="TE62" s="0"/>
-      <c r="TF62" s="0"/>
-      <c r="TG62" s="0"/>
-      <c r="TH62" s="0"/>
-      <c r="TI62" s="0"/>
-      <c r="TJ62" s="0"/>
-      <c r="TK62" s="0"/>
-      <c r="TL62" s="0"/>
-      <c r="TM62" s="0"/>
-      <c r="TN62" s="0"/>
-      <c r="TO62" s="0"/>
-      <c r="TP62" s="0"/>
-      <c r="TQ62" s="0"/>
-      <c r="TR62" s="0"/>
-      <c r="TS62" s="0"/>
-      <c r="TT62" s="0"/>
-      <c r="TU62" s="0"/>
-      <c r="TV62" s="0"/>
-      <c r="TW62" s="0"/>
-      <c r="TX62" s="0"/>
-      <c r="TY62" s="0"/>
-      <c r="TZ62" s="0"/>
-      <c r="UA62" s="0"/>
-      <c r="UB62" s="0"/>
-      <c r="UC62" s="0"/>
-      <c r="UD62" s="0"/>
-      <c r="UE62" s="0"/>
-      <c r="UF62" s="0"/>
-      <c r="UG62" s="0"/>
-      <c r="UH62" s="0"/>
-      <c r="UI62" s="0"/>
-      <c r="UJ62" s="0"/>
-      <c r="UK62" s="0"/>
-      <c r="UL62" s="0"/>
-      <c r="UM62" s="0"/>
-      <c r="UN62" s="0"/>
-      <c r="UO62" s="0"/>
-      <c r="UP62" s="0"/>
-      <c r="UQ62" s="0"/>
-      <c r="UR62" s="0"/>
-      <c r="US62" s="0"/>
-      <c r="UT62" s="0"/>
-      <c r="UU62" s="0"/>
-      <c r="UV62" s="0"/>
-      <c r="UW62" s="0"/>
-      <c r="UX62" s="0"/>
-      <c r="UY62" s="0"/>
-      <c r="UZ62" s="0"/>
-      <c r="VA62" s="0"/>
-      <c r="VB62" s="0"/>
-      <c r="VC62" s="0"/>
-      <c r="VD62" s="0"/>
-      <c r="VE62" s="0"/>
-      <c r="VF62" s="0"/>
-      <c r="VG62" s="0"/>
-      <c r="VH62" s="0"/>
-      <c r="VI62" s="0"/>
-      <c r="VJ62" s="0"/>
-      <c r="VK62" s="0"/>
-      <c r="VL62" s="0"/>
-      <c r="VM62" s="0"/>
-      <c r="VN62" s="0"/>
-      <c r="VO62" s="0"/>
-      <c r="VP62" s="0"/>
-      <c r="VQ62" s="0"/>
-      <c r="VR62" s="0"/>
-      <c r="VS62" s="0"/>
-      <c r="VT62" s="0"/>
-      <c r="VU62" s="0"/>
-      <c r="VV62" s="0"/>
-      <c r="VW62" s="0"/>
-      <c r="VX62" s="0"/>
-      <c r="VY62" s="0"/>
-      <c r="VZ62" s="0"/>
-      <c r="WA62" s="0"/>
-      <c r="WB62" s="0"/>
-      <c r="WC62" s="0"/>
-      <c r="WD62" s="0"/>
-      <c r="WE62" s="0"/>
-      <c r="WF62" s="0"/>
-      <c r="WG62" s="0"/>
-      <c r="WH62" s="0"/>
-      <c r="WI62" s="0"/>
-      <c r="WJ62" s="0"/>
-      <c r="WK62" s="0"/>
-      <c r="WL62" s="0"/>
-      <c r="WM62" s="0"/>
-      <c r="WN62" s="0"/>
-      <c r="WO62" s="0"/>
-      <c r="WP62" s="0"/>
-      <c r="WQ62" s="0"/>
-      <c r="WR62" s="0"/>
-      <c r="WS62" s="0"/>
-      <c r="WT62" s="0"/>
-      <c r="WU62" s="0"/>
-      <c r="WV62" s="0"/>
-      <c r="WW62" s="0"/>
-      <c r="WX62" s="0"/>
-      <c r="WY62" s="0"/>
-      <c r="WZ62" s="0"/>
-      <c r="XA62" s="0"/>
-      <c r="XB62" s="0"/>
-      <c r="XC62" s="0"/>
-      <c r="XD62" s="0"/>
-      <c r="XE62" s="0"/>
-      <c r="XF62" s="0"/>
-      <c r="XG62" s="0"/>
-      <c r="XH62" s="0"/>
-      <c r="XI62" s="0"/>
-      <c r="XJ62" s="0"/>
-      <c r="XK62" s="0"/>
-      <c r="XL62" s="0"/>
-      <c r="XM62" s="0"/>
-      <c r="XN62" s="0"/>
-      <c r="XO62" s="0"/>
-      <c r="XP62" s="0"/>
-      <c r="XQ62" s="0"/>
-      <c r="XR62" s="0"/>
-      <c r="XS62" s="0"/>
-      <c r="XT62" s="0"/>
-      <c r="XU62" s="0"/>
-      <c r="XV62" s="0"/>
-      <c r="XW62" s="0"/>
-      <c r="XX62" s="0"/>
-      <c r="XY62" s="0"/>
-      <c r="XZ62" s="0"/>
-      <c r="YA62" s="0"/>
-      <c r="YB62" s="0"/>
-      <c r="YC62" s="0"/>
-      <c r="YD62" s="0"/>
-      <c r="YE62" s="0"/>
-      <c r="YF62" s="0"/>
-      <c r="YG62" s="0"/>
-      <c r="YH62" s="0"/>
-      <c r="YI62" s="0"/>
-      <c r="YJ62" s="0"/>
-      <c r="YK62" s="0"/>
-      <c r="YL62" s="0"/>
-      <c r="YM62" s="0"/>
-      <c r="YN62" s="0"/>
-      <c r="YO62" s="0"/>
-      <c r="YP62" s="0"/>
-      <c r="YQ62" s="0"/>
-      <c r="YR62" s="0"/>
-      <c r="YS62" s="0"/>
-      <c r="YT62" s="0"/>
-      <c r="YU62" s="0"/>
-      <c r="YV62" s="0"/>
-      <c r="YW62" s="0"/>
-      <c r="YX62" s="0"/>
-      <c r="YY62" s="0"/>
-      <c r="YZ62" s="0"/>
-      <c r="ZA62" s="0"/>
-      <c r="ZB62" s="0"/>
-      <c r="ZC62" s="0"/>
-      <c r="ZD62" s="0"/>
-      <c r="ZE62" s="0"/>
-      <c r="ZF62" s="0"/>
-      <c r="ZG62" s="0"/>
-      <c r="ZH62" s="0"/>
-      <c r="ZI62" s="0"/>
-      <c r="ZJ62" s="0"/>
-      <c r="ZK62" s="0"/>
-      <c r="ZL62" s="0"/>
-      <c r="ZM62" s="0"/>
-      <c r="ZN62" s="0"/>
-      <c r="ZO62" s="0"/>
-      <c r="ZP62" s="0"/>
-      <c r="ZQ62" s="0"/>
-      <c r="ZR62" s="0"/>
-      <c r="ZS62" s="0"/>
-      <c r="ZT62" s="0"/>
-      <c r="ZU62" s="0"/>
-      <c r="ZV62" s="0"/>
-      <c r="ZW62" s="0"/>
-      <c r="ZX62" s="0"/>
-      <c r="ZY62" s="0"/>
-      <c r="ZZ62" s="0"/>
-      <c r="AAA62" s="0"/>
-      <c r="AAB62" s="0"/>
-      <c r="AAC62" s="0"/>
-      <c r="AAD62" s="0"/>
-      <c r="AAE62" s="0"/>
-      <c r="AAF62" s="0"/>
-      <c r="AAG62" s="0"/>
-      <c r="AAH62" s="0"/>
-      <c r="AAI62" s="0"/>
-      <c r="AAJ62" s="0"/>
-      <c r="AAK62" s="0"/>
-      <c r="AAL62" s="0"/>
-      <c r="AAM62" s="0"/>
-      <c r="AAN62" s="0"/>
-      <c r="AAO62" s="0"/>
-      <c r="AAP62" s="0"/>
-      <c r="AAQ62" s="0"/>
-      <c r="AAR62" s="0"/>
-      <c r="AAS62" s="0"/>
-      <c r="AAT62" s="0"/>
-      <c r="AAU62" s="0"/>
-      <c r="AAV62" s="0"/>
-      <c r="AAW62" s="0"/>
-      <c r="AAX62" s="0"/>
-      <c r="AAY62" s="0"/>
-      <c r="AAZ62" s="0"/>
-      <c r="ABA62" s="0"/>
-      <c r="ABB62" s="0"/>
-      <c r="ABC62" s="0"/>
-      <c r="ABD62" s="0"/>
-      <c r="ABE62" s="0"/>
-      <c r="ABF62" s="0"/>
-      <c r="ABG62" s="0"/>
-      <c r="ABH62" s="0"/>
-      <c r="ABI62" s="0"/>
-      <c r="ABJ62" s="0"/>
-      <c r="ABK62" s="0"/>
-      <c r="ABL62" s="0"/>
-      <c r="ABM62" s="0"/>
-      <c r="ABN62" s="0"/>
-      <c r="ABO62" s="0"/>
-      <c r="ABP62" s="0"/>
-      <c r="ABQ62" s="0"/>
-      <c r="ABR62" s="0"/>
-      <c r="ABS62" s="0"/>
-      <c r="ABT62" s="0"/>
-      <c r="ABU62" s="0"/>
-      <c r="ABV62" s="0"/>
-      <c r="ABW62" s="0"/>
-      <c r="ABX62" s="0"/>
-      <c r="ABY62" s="0"/>
-      <c r="ABZ62" s="0"/>
-      <c r="ACA62" s="0"/>
-      <c r="ACB62" s="0"/>
-      <c r="ACC62" s="0"/>
-      <c r="ACD62" s="0"/>
-      <c r="ACE62" s="0"/>
-      <c r="ACF62" s="0"/>
-      <c r="ACG62" s="0"/>
-      <c r="ACH62" s="0"/>
-      <c r="ACI62" s="0"/>
-      <c r="ACJ62" s="0"/>
-      <c r="ACK62" s="0"/>
-      <c r="ACL62" s="0"/>
-      <c r="ACM62" s="0"/>
-      <c r="ACN62" s="0"/>
-      <c r="ACO62" s="0"/>
-      <c r="ACP62" s="0"/>
-      <c r="ACQ62" s="0"/>
-      <c r="ACR62" s="0"/>
-      <c r="ACS62" s="0"/>
-      <c r="ACT62" s="0"/>
-      <c r="ACU62" s="0"/>
-      <c r="ACV62" s="0"/>
-      <c r="ACW62" s="0"/>
-      <c r="ACX62" s="0"/>
-      <c r="ACY62" s="0"/>
-      <c r="ACZ62" s="0"/>
-      <c r="ADA62" s="0"/>
-      <c r="ADB62" s="0"/>
-      <c r="ADC62" s="0"/>
-      <c r="ADD62" s="0"/>
-      <c r="ADE62" s="0"/>
-      <c r="ADF62" s="0"/>
-      <c r="ADG62" s="0"/>
-      <c r="ADH62" s="0"/>
-      <c r="ADI62" s="0"/>
-      <c r="ADJ62" s="0"/>
-      <c r="ADK62" s="0"/>
-      <c r="ADL62" s="0"/>
-      <c r="ADM62" s="0"/>
-      <c r="ADN62" s="0"/>
-      <c r="ADO62" s="0"/>
-      <c r="ADP62" s="0"/>
-      <c r="ADQ62" s="0"/>
-      <c r="ADR62" s="0"/>
-      <c r="ADS62" s="0"/>
-      <c r="ADT62" s="0"/>
-      <c r="ADU62" s="0"/>
-      <c r="ADV62" s="0"/>
-      <c r="ADW62" s="0"/>
-      <c r="ADX62" s="0"/>
-      <c r="ADY62" s="0"/>
-      <c r="ADZ62" s="0"/>
-      <c r="AEA62" s="0"/>
-      <c r="AEB62" s="0"/>
-      <c r="AEC62" s="0"/>
-      <c r="AED62" s="0"/>
-      <c r="AEE62" s="0"/>
-      <c r="AEF62" s="0"/>
-      <c r="AEG62" s="0"/>
-      <c r="AEH62" s="0"/>
-      <c r="AEI62" s="0"/>
-      <c r="AEJ62" s="0"/>
-      <c r="AEK62" s="0"/>
-      <c r="AEL62" s="0"/>
-      <c r="AEM62" s="0"/>
-      <c r="AEN62" s="0"/>
-      <c r="AEO62" s="0"/>
-      <c r="AEP62" s="0"/>
-      <c r="AEQ62" s="0"/>
-      <c r="AER62" s="0"/>
-      <c r="AES62" s="0"/>
-      <c r="AET62" s="0"/>
-      <c r="AEU62" s="0"/>
-      <c r="AEV62" s="0"/>
-      <c r="AEW62" s="0"/>
-      <c r="AEX62" s="0"/>
-      <c r="AEY62" s="0"/>
-      <c r="AEZ62" s="0"/>
-      <c r="AFA62" s="0"/>
-      <c r="AFB62" s="0"/>
-      <c r="AFC62" s="0"/>
-      <c r="AFD62" s="0"/>
-      <c r="AFE62" s="0"/>
-      <c r="AFF62" s="0"/>
-      <c r="AFG62" s="0"/>
-      <c r="AFH62" s="0"/>
-      <c r="AFI62" s="0"/>
-      <c r="AFJ62" s="0"/>
-      <c r="AFK62" s="0"/>
-      <c r="AFL62" s="0"/>
-      <c r="AFM62" s="0"/>
-      <c r="AFN62" s="0"/>
-      <c r="AFO62" s="0"/>
-      <c r="AFP62" s="0"/>
-      <c r="AFQ62" s="0"/>
-      <c r="AFR62" s="0"/>
-      <c r="AFS62" s="0"/>
-      <c r="AFT62" s="0"/>
-      <c r="AFU62" s="0"/>
-      <c r="AFV62" s="0"/>
-      <c r="AFW62" s="0"/>
-      <c r="AFX62" s="0"/>
-      <c r="AFY62" s="0"/>
-      <c r="AFZ62" s="0"/>
-      <c r="AGA62" s="0"/>
-      <c r="AGB62" s="0"/>
-      <c r="AGC62" s="0"/>
-      <c r="AGD62" s="0"/>
-      <c r="AGE62" s="0"/>
-      <c r="AGF62" s="0"/>
-      <c r="AGG62" s="0"/>
-      <c r="AGH62" s="0"/>
-      <c r="AGI62" s="0"/>
-      <c r="AGJ62" s="0"/>
-      <c r="AGK62" s="0"/>
-      <c r="AGL62" s="0"/>
-      <c r="AGM62" s="0"/>
-      <c r="AGN62" s="0"/>
-      <c r="AGO62" s="0"/>
-      <c r="AGP62" s="0"/>
-      <c r="AGQ62" s="0"/>
-      <c r="AGR62" s="0"/>
-      <c r="AGS62" s="0"/>
-      <c r="AGT62" s="0"/>
-      <c r="AGU62" s="0"/>
-      <c r="AGV62" s="0"/>
-      <c r="AGW62" s="0"/>
-      <c r="AGX62" s="0"/>
-      <c r="AGY62" s="0"/>
-      <c r="AGZ62" s="0"/>
-      <c r="AHA62" s="0"/>
-      <c r="AHB62" s="0"/>
-      <c r="AHC62" s="0"/>
-      <c r="AHD62" s="0"/>
-      <c r="AHE62" s="0"/>
-      <c r="AHF62" s="0"/>
-      <c r="AHG62" s="0"/>
-      <c r="AHH62" s="0"/>
-      <c r="AHI62" s="0"/>
-      <c r="AHJ62" s="0"/>
-      <c r="AHK62" s="0"/>
-      <c r="AHL62" s="0"/>
-      <c r="AHM62" s="0"/>
-      <c r="AHN62" s="0"/>
-      <c r="AHO62" s="0"/>
-      <c r="AHP62" s="0"/>
-      <c r="AHQ62" s="0"/>
-      <c r="AHR62" s="0"/>
-      <c r="AHS62" s="0"/>
-      <c r="AHT62" s="0"/>
-      <c r="AHU62" s="0"/>
-      <c r="AHV62" s="0"/>
-      <c r="AHW62" s="0"/>
-      <c r="AHX62" s="0"/>
-      <c r="AHY62" s="0"/>
-      <c r="AHZ62" s="0"/>
-      <c r="AIA62" s="0"/>
-      <c r="AIB62" s="0"/>
-      <c r="AIC62" s="0"/>
-      <c r="AID62" s="0"/>
-      <c r="AIE62" s="0"/>
-      <c r="AIF62" s="0"/>
-      <c r="AIG62" s="0"/>
-      <c r="AIH62" s="0"/>
-      <c r="AII62" s="0"/>
-      <c r="AIJ62" s="0"/>
-      <c r="AIK62" s="0"/>
-      <c r="AIL62" s="0"/>
-      <c r="AIM62" s="0"/>
-      <c r="AIN62" s="0"/>
-      <c r="AIO62" s="0"/>
-      <c r="AIP62" s="0"/>
-      <c r="AIQ62" s="0"/>
-      <c r="AIR62" s="0"/>
-      <c r="AIS62" s="0"/>
-      <c r="AIT62" s="0"/>
-      <c r="AIU62" s="0"/>
-      <c r="AIV62" s="0"/>
-      <c r="AIW62" s="0"/>
-      <c r="AIX62" s="0"/>
-      <c r="AIY62" s="0"/>
-      <c r="AIZ62" s="0"/>
-      <c r="AJA62" s="0"/>
-      <c r="AJB62" s="0"/>
-      <c r="AJC62" s="0"/>
-      <c r="AJD62" s="0"/>
-      <c r="AJE62" s="0"/>
-      <c r="AJF62" s="0"/>
-      <c r="AJG62" s="0"/>
-      <c r="AJH62" s="0"/>
-      <c r="AJI62" s="0"/>
-      <c r="AJJ62" s="0"/>
-      <c r="AJK62" s="0"/>
-      <c r="AJL62" s="0"/>
-      <c r="AJM62" s="0"/>
-      <c r="AJN62" s="0"/>
-      <c r="AJO62" s="0"/>
-      <c r="AJP62" s="0"/>
-      <c r="AJQ62" s="0"/>
-      <c r="AJR62" s="0"/>
-      <c r="AJS62" s="0"/>
-      <c r="AJT62" s="0"/>
-      <c r="AJU62" s="0"/>
-      <c r="AJV62" s="0"/>
-      <c r="AJW62" s="0"/>
-      <c r="AJX62" s="0"/>
-      <c r="AJY62" s="0"/>
-      <c r="AJZ62" s="0"/>
-      <c r="AKA62" s="0"/>
-      <c r="AKB62" s="0"/>
-      <c r="AKC62" s="0"/>
-      <c r="AKD62" s="0"/>
-      <c r="AKE62" s="0"/>
-      <c r="AKF62" s="0"/>
-      <c r="AKG62" s="0"/>
-      <c r="AKH62" s="0"/>
-      <c r="AKI62" s="0"/>
-      <c r="AKJ62" s="0"/>
-      <c r="AKK62" s="0"/>
-      <c r="AKL62" s="0"/>
-      <c r="AKM62" s="0"/>
-      <c r="AKN62" s="0"/>
-      <c r="AKO62" s="0"/>
-      <c r="AKP62" s="0"/>
-      <c r="AKQ62" s="0"/>
-      <c r="AKR62" s="0"/>
-      <c r="AKS62" s="0"/>
-      <c r="AKT62" s="0"/>
-      <c r="AKU62" s="0"/>
-      <c r="AKV62" s="0"/>
-      <c r="AKW62" s="0"/>
-      <c r="AKX62" s="0"/>
-      <c r="AKY62" s="0"/>
-      <c r="AKZ62" s="0"/>
-      <c r="ALA62" s="0"/>
-      <c r="ALB62" s="0"/>
-      <c r="ALC62" s="0"/>
-      <c r="ALD62" s="0"/>
-      <c r="ALE62" s="0"/>
-      <c r="ALF62" s="0"/>
-      <c r="ALG62" s="0"/>
-      <c r="ALH62" s="0"/>
-      <c r="ALI62" s="0"/>
-      <c r="ALJ62" s="0"/>
-      <c r="ALK62" s="0"/>
-      <c r="ALL62" s="0"/>
-      <c r="ALM62" s="0"/>
-      <c r="ALN62" s="0"/>
-      <c r="ALO62" s="0"/>
-      <c r="ALP62" s="0"/>
-      <c r="ALQ62" s="0"/>
-      <c r="ALR62" s="0"/>
-      <c r="ALS62" s="0"/>
-      <c r="ALT62" s="0"/>
-      <c r="ALU62" s="0"/>
-      <c r="ALV62" s="0"/>
-      <c r="ALW62" s="0"/>
-      <c r="ALX62" s="0"/>
-      <c r="ALY62" s="0"/>
-      <c r="ALZ62" s="0"/>
-      <c r="AMA62" s="0"/>
-      <c r="AMB62" s="0"/>
-      <c r="AMC62" s="0"/>
-      <c r="AMD62" s="0"/>
-      <c r="AME62" s="0"/>
-      <c r="AMF62" s="0"/>
-      <c r="AMG62" s="0"/>
-      <c r="AMH62" s="0"/>
-      <c r="AMI62" s="0"/>
-      <c r="AMJ62" s="0"/>
+      <c r="N63" s="0"/>
+      <c r="O63" s="0"/>
+      <c r="P63" s="0"/>
+      <c r="Q63" s="0"/>
+      <c r="R63" s="0"/>
+      <c r="S63" s="0"/>
+      <c r="T63" s="0"/>
+      <c r="U63" s="0"/>
+      <c r="V63" s="0"/>
+      <c r="W63" s="0"/>
+      <c r="X63" s="0"/>
+      <c r="Y63" s="0"/>
+      <c r="Z63" s="0"/>
+      <c r="AA63" s="0"/>
+      <c r="AB63" s="0"/>
+      <c r="AC63" s="0"/>
+      <c r="AD63" s="0"/>
+      <c r="AE63" s="0"/>
+      <c r="AF63" s="0"/>
+      <c r="AG63" s="0"/>
+      <c r="AH63" s="0"/>
+      <c r="AI63" s="0"/>
+      <c r="AJ63" s="0"/>
+      <c r="AK63" s="0"/>
+      <c r="AL63" s="0"/>
+      <c r="AM63" s="0"/>
+      <c r="AN63" s="0"/>
+      <c r="AO63" s="0"/>
+      <c r="AP63" s="0"/>
+      <c r="AQ63" s="0"/>
+      <c r="AR63" s="0"/>
+      <c r="AS63" s="0"/>
+      <c r="AT63" s="0"/>
+      <c r="AU63" s="0"/>
+      <c r="AV63" s="0"/>
+      <c r="AW63" s="0"/>
+      <c r="AX63" s="0"/>
+      <c r="AY63" s="0"/>
+      <c r="AZ63" s="0"/>
+      <c r="BA63" s="0"/>
+      <c r="BB63" s="0"/>
+      <c r="BC63" s="0"/>
+      <c r="BD63" s="0"/>
+      <c r="BE63" s="0"/>
+      <c r="BF63" s="0"/>
+      <c r="BG63" s="0"/>
+      <c r="BH63" s="0"/>
+      <c r="BI63" s="0"/>
+      <c r="BJ63" s="0"/>
+      <c r="BK63" s="0"/>
+      <c r="BL63" s="0"/>
+      <c r="BM63" s="0"/>
+      <c r="BN63" s="0"/>
+      <c r="BO63" s="0"/>
+      <c r="BP63" s="0"/>
+      <c r="BQ63" s="0"/>
+      <c r="BR63" s="0"/>
+      <c r="BS63" s="0"/>
+      <c r="BT63" s="0"/>
+      <c r="BU63" s="0"/>
+      <c r="BV63" s="0"/>
+      <c r="BW63" s="0"/>
+      <c r="BX63" s="0"/>
+      <c r="BY63" s="0"/>
+      <c r="BZ63" s="0"/>
+      <c r="CA63" s="0"/>
+      <c r="CB63" s="0"/>
+      <c r="CC63" s="0"/>
+      <c r="CD63" s="0"/>
+      <c r="CE63" s="0"/>
+      <c r="CF63" s="0"/>
+      <c r="CG63" s="0"/>
+      <c r="CH63" s="0"/>
+      <c r="CI63" s="0"/>
+      <c r="CJ63" s="0"/>
+      <c r="CK63" s="0"/>
+      <c r="CL63" s="0"/>
+      <c r="CM63" s="0"/>
+      <c r="CN63" s="0"/>
+      <c r="CO63" s="0"/>
+      <c r="CP63" s="0"/>
+      <c r="CQ63" s="0"/>
+      <c r="CR63" s="0"/>
+      <c r="CS63" s="0"/>
+      <c r="CT63" s="0"/>
+      <c r="CU63" s="0"/>
+      <c r="CV63" s="0"/>
+      <c r="CW63" s="0"/>
+      <c r="CX63" s="0"/>
+      <c r="CY63" s="0"/>
+      <c r="CZ63" s="0"/>
+      <c r="DA63" s="0"/>
+      <c r="DB63" s="0"/>
+      <c r="DC63" s="0"/>
+      <c r="DD63" s="0"/>
+      <c r="DE63" s="0"/>
+      <c r="DF63" s="0"/>
+      <c r="DG63" s="0"/>
+      <c r="DH63" s="0"/>
+      <c r="DI63" s="0"/>
+      <c r="DJ63" s="0"/>
+      <c r="DK63" s="0"/>
+      <c r="DL63" s="0"/>
+      <c r="DM63" s="0"/>
+      <c r="DN63" s="0"/>
+      <c r="DO63" s="0"/>
+      <c r="DP63" s="0"/>
+      <c r="DQ63" s="0"/>
+      <c r="DR63" s="0"/>
+      <c r="DS63" s="0"/>
+      <c r="DT63" s="0"/>
+      <c r="DU63" s="0"/>
+      <c r="DV63" s="0"/>
+      <c r="DW63" s="0"/>
+      <c r="DX63" s="0"/>
+      <c r="DY63" s="0"/>
+      <c r="DZ63" s="0"/>
+      <c r="EA63" s="0"/>
+      <c r="EB63" s="0"/>
+      <c r="EC63" s="0"/>
+      <c r="ED63" s="0"/>
+      <c r="EE63" s="0"/>
+      <c r="EF63" s="0"/>
+      <c r="EG63" s="0"/>
+      <c r="EH63" s="0"/>
+      <c r="EI63" s="0"/>
+      <c r="EJ63" s="0"/>
+      <c r="EK63" s="0"/>
+      <c r="EL63" s="0"/>
+      <c r="EM63" s="0"/>
+      <c r="EN63" s="0"/>
+      <c r="EO63" s="0"/>
+      <c r="EP63" s="0"/>
+      <c r="EQ63" s="0"/>
+      <c r="ER63" s="0"/>
+      <c r="ES63" s="0"/>
+      <c r="ET63" s="0"/>
+      <c r="EU63" s="0"/>
+      <c r="EV63" s="0"/>
+      <c r="EW63" s="0"/>
+      <c r="EX63" s="0"/>
+      <c r="EY63" s="0"/>
+      <c r="EZ63" s="0"/>
+      <c r="FA63" s="0"/>
+      <c r="FB63" s="0"/>
+      <c r="FC63" s="0"/>
+      <c r="FD63" s="0"/>
+      <c r="FE63" s="0"/>
+      <c r="FF63" s="0"/>
+      <c r="FG63" s="0"/>
+      <c r="FH63" s="0"/>
+      <c r="FI63" s="0"/>
+      <c r="FJ63" s="0"/>
+      <c r="FK63" s="0"/>
+      <c r="FL63" s="0"/>
+      <c r="FM63" s="0"/>
+      <c r="FN63" s="0"/>
+      <c r="FO63" s="0"/>
+      <c r="FP63" s="0"/>
+      <c r="FQ63" s="0"/>
+      <c r="FR63" s="0"/>
+      <c r="FS63" s="0"/>
+      <c r="FT63" s="0"/>
+      <c r="FU63" s="0"/>
+      <c r="FV63" s="0"/>
+      <c r="FW63" s="0"/>
+      <c r="FX63" s="0"/>
+      <c r="FY63" s="0"/>
+      <c r="FZ63" s="0"/>
+      <c r="GA63" s="0"/>
+      <c r="GB63" s="0"/>
+      <c r="GC63" s="0"/>
+      <c r="GD63" s="0"/>
+      <c r="GE63" s="0"/>
+      <c r="GF63" s="0"/>
+      <c r="GG63" s="0"/>
+      <c r="GH63" s="0"/>
+      <c r="GI63" s="0"/>
+      <c r="GJ63" s="0"/>
+      <c r="GK63" s="0"/>
+      <c r="GL63" s="0"/>
+      <c r="GM63" s="0"/>
+      <c r="GN63" s="0"/>
+      <c r="GO63" s="0"/>
+      <c r="GP63" s="0"/>
+      <c r="GQ63" s="0"/>
+      <c r="GR63" s="0"/>
+      <c r="GS63" s="0"/>
+      <c r="GT63" s="0"/>
+      <c r="GU63" s="0"/>
+      <c r="GV63" s="0"/>
+      <c r="GW63" s="0"/>
+      <c r="GX63" s="0"/>
+      <c r="GY63" s="0"/>
+      <c r="GZ63" s="0"/>
+      <c r="HA63" s="0"/>
+      <c r="HB63" s="0"/>
+      <c r="HC63" s="0"/>
+      <c r="HD63" s="0"/>
+      <c r="HE63" s="0"/>
+      <c r="HF63" s="0"/>
+      <c r="HG63" s="0"/>
+      <c r="HH63" s="0"/>
+      <c r="HI63" s="0"/>
+      <c r="HJ63" s="0"/>
+      <c r="HK63" s="0"/>
+      <c r="HL63" s="0"/>
+      <c r="HM63" s="0"/>
+      <c r="HN63" s="0"/>
+      <c r="HO63" s="0"/>
+      <c r="HP63" s="0"/>
+      <c r="HQ63" s="0"/>
+      <c r="HR63" s="0"/>
+      <c r="HS63" s="0"/>
+      <c r="HT63" s="0"/>
+      <c r="HU63" s="0"/>
+      <c r="HV63" s="0"/>
+      <c r="HW63" s="0"/>
+      <c r="HX63" s="0"/>
+      <c r="HY63" s="0"/>
+      <c r="HZ63" s="0"/>
+      <c r="IA63" s="0"/>
+      <c r="IB63" s="0"/>
+      <c r="IC63" s="0"/>
+      <c r="ID63" s="0"/>
+      <c r="IE63" s="0"/>
+      <c r="IF63" s="0"/>
+      <c r="IG63" s="0"/>
+      <c r="IH63" s="0"/>
+      <c r="II63" s="0"/>
+      <c r="IJ63" s="0"/>
+      <c r="IK63" s="0"/>
+      <c r="IL63" s="0"/>
+      <c r="IM63" s="0"/>
+      <c r="IN63" s="0"/>
+      <c r="IO63" s="0"/>
+      <c r="IP63" s="0"/>
+      <c r="IQ63" s="0"/>
+      <c r="IR63" s="0"/>
+      <c r="IS63" s="0"/>
+      <c r="IT63" s="0"/>
+      <c r="IU63" s="0"/>
+      <c r="IV63" s="0"/>
+      <c r="IW63" s="0"/>
+      <c r="IX63" s="0"/>
+      <c r="IY63" s="0"/>
+      <c r="IZ63" s="0"/>
+      <c r="JA63" s="0"/>
+      <c r="JB63" s="0"/>
+      <c r="JC63" s="0"/>
+      <c r="JD63" s="0"/>
+      <c r="JE63" s="0"/>
+      <c r="JF63" s="0"/>
+      <c r="JG63" s="0"/>
+      <c r="JH63" s="0"/>
+      <c r="JI63" s="0"/>
+      <c r="JJ63" s="0"/>
+      <c r="JK63" s="0"/>
+      <c r="JL63" s="0"/>
+      <c r="JM63" s="0"/>
+      <c r="JN63" s="0"/>
+      <c r="JO63" s="0"/>
+      <c r="JP63" s="0"/>
+      <c r="JQ63" s="0"/>
+      <c r="JR63" s="0"/>
+      <c r="JS63" s="0"/>
+      <c r="JT63" s="0"/>
+      <c r="JU63" s="0"/>
+      <c r="JV63" s="0"/>
+      <c r="JW63" s="0"/>
+      <c r="JX63" s="0"/>
+      <c r="JY63" s="0"/>
+      <c r="JZ63" s="0"/>
+      <c r="KA63" s="0"/>
+      <c r="KB63" s="0"/>
+      <c r="KC63" s="0"/>
+      <c r="KD63" s="0"/>
+      <c r="KE63" s="0"/>
+      <c r="KF63" s="0"/>
+      <c r="KG63" s="0"/>
+      <c r="KH63" s="0"/>
+      <c r="KI63" s="0"/>
+      <c r="KJ63" s="0"/>
+      <c r="KK63" s="0"/>
+      <c r="KL63" s="0"/>
+      <c r="KM63" s="0"/>
+      <c r="KN63" s="0"/>
+      <c r="KO63" s="0"/>
+      <c r="KP63" s="0"/>
+      <c r="KQ63" s="0"/>
+      <c r="KR63" s="0"/>
+      <c r="KS63" s="0"/>
+      <c r="KT63" s="0"/>
+      <c r="KU63" s="0"/>
+      <c r="KV63" s="0"/>
+      <c r="KW63" s="0"/>
+      <c r="KX63" s="0"/>
+      <c r="KY63" s="0"/>
+      <c r="KZ63" s="0"/>
+      <c r="LA63" s="0"/>
+      <c r="LB63" s="0"/>
+      <c r="LC63" s="0"/>
+      <c r="LD63" s="0"/>
+      <c r="LE63" s="0"/>
+      <c r="LF63" s="0"/>
+      <c r="LG63" s="0"/>
+      <c r="LH63" s="0"/>
+      <c r="LI63" s="0"/>
+      <c r="LJ63" s="0"/>
+      <c r="LK63" s="0"/>
+      <c r="LL63" s="0"/>
+      <c r="LM63" s="0"/>
+      <c r="LN63" s="0"/>
+      <c r="LO63" s="0"/>
+      <c r="LP63" s="0"/>
+      <c r="LQ63" s="0"/>
+      <c r="LR63" s="0"/>
+      <c r="LS63" s="0"/>
+      <c r="LT63" s="0"/>
+      <c r="LU63" s="0"/>
+      <c r="LV63" s="0"/>
+      <c r="LW63" s="0"/>
+      <c r="LX63" s="0"/>
+      <c r="LY63" s="0"/>
+      <c r="LZ63" s="0"/>
+      <c r="MA63" s="0"/>
+      <c r="MB63" s="0"/>
+      <c r="MC63" s="0"/>
+      <c r="MD63" s="0"/>
+      <c r="ME63" s="0"/>
+      <c r="MF63" s="0"/>
+      <c r="MG63" s="0"/>
+      <c r="MH63" s="0"/>
+      <c r="MI63" s="0"/>
+      <c r="MJ63" s="0"/>
+      <c r="MK63" s="0"/>
+      <c r="ML63" s="0"/>
+      <c r="MM63" s="0"/>
+      <c r="MN63" s="0"/>
+      <c r="MO63" s="0"/>
+      <c r="MP63" s="0"/>
+      <c r="MQ63" s="0"/>
+      <c r="MR63" s="0"/>
+      <c r="MS63" s="0"/>
+      <c r="MT63" s="0"/>
+      <c r="MU63" s="0"/>
+      <c r="MV63" s="0"/>
+      <c r="MW63" s="0"/>
+      <c r="MX63" s="0"/>
+      <c r="MY63" s="0"/>
+      <c r="MZ63" s="0"/>
+      <c r="NA63" s="0"/>
+      <c r="NB63" s="0"/>
+      <c r="NC63" s="0"/>
+      <c r="ND63" s="0"/>
+      <c r="NE63" s="0"/>
+      <c r="NF63" s="0"/>
+      <c r="NG63" s="0"/>
+      <c r="NH63" s="0"/>
+      <c r="NI63" s="0"/>
+      <c r="NJ63" s="0"/>
+      <c r="NK63" s="0"/>
+      <c r="NL63" s="0"/>
+      <c r="NM63" s="0"/>
+      <c r="NN63" s="0"/>
+      <c r="NO63" s="0"/>
+      <c r="NP63" s="0"/>
+      <c r="NQ63" s="0"/>
+      <c r="NR63" s="0"/>
+      <c r="NS63" s="0"/>
+      <c r="NT63" s="0"/>
+      <c r="NU63" s="0"/>
+      <c r="NV63" s="0"/>
+      <c r="NW63" s="0"/>
+      <c r="NX63" s="0"/>
+      <c r="NY63" s="0"/>
+      <c r="NZ63" s="0"/>
+      <c r="OA63" s="0"/>
+      <c r="OB63" s="0"/>
+      <c r="OC63" s="0"/>
+      <c r="OD63" s="0"/>
+      <c r="OE63" s="0"/>
+      <c r="OF63" s="0"/>
+      <c r="OG63" s="0"/>
+      <c r="OH63" s="0"/>
+      <c r="OI63" s="0"/>
+      <c r="OJ63" s="0"/>
+      <c r="OK63" s="0"/>
+      <c r="OL63" s="0"/>
+      <c r="OM63" s="0"/>
+      <c r="ON63" s="0"/>
+      <c r="OO63" s="0"/>
+      <c r="OP63" s="0"/>
+      <c r="OQ63" s="0"/>
+      <c r="OR63" s="0"/>
+      <c r="OS63" s="0"/>
+      <c r="OT63" s="0"/>
+      <c r="OU63" s="0"/>
+      <c r="OV63" s="0"/>
+      <c r="OW63" s="0"/>
+      <c r="OX63" s="0"/>
+      <c r="OY63" s="0"/>
+      <c r="OZ63" s="0"/>
+      <c r="PA63" s="0"/>
+      <c r="PB63" s="0"/>
+      <c r="PC63" s="0"/>
+      <c r="PD63" s="0"/>
+      <c r="PE63" s="0"/>
+      <c r="PF63" s="0"/>
+      <c r="PG63" s="0"/>
+      <c r="PH63" s="0"/>
+      <c r="PI63" s="0"/>
+      <c r="PJ63" s="0"/>
+      <c r="PK63" s="0"/>
+      <c r="PL63" s="0"/>
+      <c r="PM63" s="0"/>
+      <c r="PN63" s="0"/>
+      <c r="PO63" s="0"/>
+      <c r="PP63" s="0"/>
+      <c r="PQ63" s="0"/>
+      <c r="PR63" s="0"/>
+      <c r="PS63" s="0"/>
+      <c r="PT63" s="0"/>
+      <c r="PU63" s="0"/>
+      <c r="PV63" s="0"/>
+      <c r="PW63" s="0"/>
+      <c r="PX63" s="0"/>
+      <c r="PY63" s="0"/>
+      <c r="PZ63" s="0"/>
+      <c r="QA63" s="0"/>
+      <c r="QB63" s="0"/>
+      <c r="QC63" s="0"/>
+      <c r="QD63" s="0"/>
+      <c r="QE63" s="0"/>
+      <c r="QF63" s="0"/>
+      <c r="QG63" s="0"/>
+      <c r="QH63" s="0"/>
+      <c r="QI63" s="0"/>
+      <c r="QJ63" s="0"/>
+      <c r="QK63" s="0"/>
+      <c r="QL63" s="0"/>
+      <c r="QM63" s="0"/>
+      <c r="QN63" s="0"/>
+      <c r="QO63" s="0"/>
+      <c r="QP63" s="0"/>
+      <c r="QQ63" s="0"/>
+      <c r="QR63" s="0"/>
+      <c r="QS63" s="0"/>
+      <c r="QT63" s="0"/>
+      <c r="QU63" s="0"/>
+      <c r="QV63" s="0"/>
+      <c r="QW63" s="0"/>
+      <c r="QX63" s="0"/>
+      <c r="QY63" s="0"/>
+      <c r="QZ63" s="0"/>
+      <c r="RA63" s="0"/>
+      <c r="RB63" s="0"/>
+      <c r="RC63" s="0"/>
+      <c r="RD63" s="0"/>
+      <c r="RE63" s="0"/>
+      <c r="RF63" s="0"/>
+      <c r="RG63" s="0"/>
+      <c r="RH63" s="0"/>
+      <c r="RI63" s="0"/>
+      <c r="RJ63" s="0"/>
+      <c r="RK63" s="0"/>
+      <c r="RL63" s="0"/>
+      <c r="RM63" s="0"/>
+      <c r="RN63" s="0"/>
+      <c r="RO63" s="0"/>
+      <c r="RP63" s="0"/>
+      <c r="RQ63" s="0"/>
+      <c r="RR63" s="0"/>
+      <c r="RS63" s="0"/>
+      <c r="RT63" s="0"/>
+      <c r="RU63" s="0"/>
+      <c r="RV63" s="0"/>
+      <c r="RW63" s="0"/>
+      <c r="RX63" s="0"/>
+      <c r="RY63" s="0"/>
+      <c r="RZ63" s="0"/>
+      <c r="SA63" s="0"/>
+      <c r="SB63" s="0"/>
+      <c r="SC63" s="0"/>
+      <c r="SD63" s="0"/>
+      <c r="SE63" s="0"/>
+      <c r="SF63" s="0"/>
+      <c r="SG63" s="0"/>
+      <c r="SH63" s="0"/>
+      <c r="SI63" s="0"/>
+      <c r="SJ63" s="0"/>
+      <c r="SK63" s="0"/>
+      <c r="SL63" s="0"/>
+      <c r="SM63" s="0"/>
+      <c r="SN63" s="0"/>
+      <c r="SO63" s="0"/>
+      <c r="SP63" s="0"/>
+      <c r="SQ63" s="0"/>
+      <c r="SR63" s="0"/>
+      <c r="SS63" s="0"/>
+      <c r="ST63" s="0"/>
+      <c r="SU63" s="0"/>
+      <c r="SV63" s="0"/>
+      <c r="SW63" s="0"/>
+      <c r="SX63" s="0"/>
+      <c r="SY63" s="0"/>
+      <c r="SZ63" s="0"/>
+      <c r="TA63" s="0"/>
+      <c r="TB63" s="0"/>
+      <c r="TC63" s="0"/>
+      <c r="TD63" s="0"/>
+      <c r="TE63" s="0"/>
+      <c r="TF63" s="0"/>
+      <c r="TG63" s="0"/>
+      <c r="TH63" s="0"/>
+      <c r="TI63" s="0"/>
+      <c r="TJ63" s="0"/>
+      <c r="TK63" s="0"/>
+      <c r="TL63" s="0"/>
+      <c r="TM63" s="0"/>
+      <c r="TN63" s="0"/>
+      <c r="TO63" s="0"/>
+      <c r="TP63" s="0"/>
+      <c r="TQ63" s="0"/>
+      <c r="TR63" s="0"/>
+      <c r="TS63" s="0"/>
+      <c r="TT63" s="0"/>
+      <c r="TU63" s="0"/>
+      <c r="TV63" s="0"/>
+      <c r="TW63" s="0"/>
+      <c r="TX63" s="0"/>
+      <c r="TY63" s="0"/>
+      <c r="TZ63" s="0"/>
+      <c r="UA63" s="0"/>
+      <c r="UB63" s="0"/>
+      <c r="UC63" s="0"/>
+      <c r="UD63" s="0"/>
+      <c r="UE63" s="0"/>
+      <c r="UF63" s="0"/>
+      <c r="UG63" s="0"/>
+      <c r="UH63" s="0"/>
+      <c r="UI63" s="0"/>
+      <c r="UJ63" s="0"/>
+      <c r="UK63" s="0"/>
+      <c r="UL63" s="0"/>
+      <c r="UM63" s="0"/>
+      <c r="UN63" s="0"/>
+      <c r="UO63" s="0"/>
+      <c r="UP63" s="0"/>
+      <c r="UQ63" s="0"/>
+      <c r="UR63" s="0"/>
+      <c r="US63" s="0"/>
+      <c r="UT63" s="0"/>
+      <c r="UU63" s="0"/>
+      <c r="UV63" s="0"/>
+      <c r="UW63" s="0"/>
+      <c r="UX63" s="0"/>
+      <c r="UY63" s="0"/>
+      <c r="UZ63" s="0"/>
+      <c r="VA63" s="0"/>
+      <c r="VB63" s="0"/>
+      <c r="VC63" s="0"/>
+      <c r="VD63" s="0"/>
+      <c r="VE63" s="0"/>
+      <c r="VF63" s="0"/>
+      <c r="VG63" s="0"/>
+      <c r="VH63" s="0"/>
+      <c r="VI63" s="0"/>
+      <c r="VJ63" s="0"/>
+      <c r="VK63" s="0"/>
+      <c r="VL63" s="0"/>
+      <c r="VM63" s="0"/>
+      <c r="VN63" s="0"/>
+      <c r="VO63" s="0"/>
+      <c r="VP63" s="0"/>
+      <c r="VQ63" s="0"/>
+      <c r="VR63" s="0"/>
+      <c r="VS63" s="0"/>
+      <c r="VT63" s="0"/>
+      <c r="VU63" s="0"/>
+      <c r="VV63" s="0"/>
+      <c r="VW63" s="0"/>
+      <c r="VX63" s="0"/>
+      <c r="VY63" s="0"/>
+      <c r="VZ63" s="0"/>
+      <c r="WA63" s="0"/>
+      <c r="WB63" s="0"/>
+      <c r="WC63" s="0"/>
+      <c r="WD63" s="0"/>
+      <c r="WE63" s="0"/>
+      <c r="WF63" s="0"/>
+      <c r="WG63" s="0"/>
+      <c r="WH63" s="0"/>
+      <c r="WI63" s="0"/>
+      <c r="WJ63" s="0"/>
+      <c r="WK63" s="0"/>
+      <c r="WL63" s="0"/>
+      <c r="WM63" s="0"/>
+      <c r="WN63" s="0"/>
+      <c r="WO63" s="0"/>
+      <c r="WP63" s="0"/>
+      <c r="WQ63" s="0"/>
+      <c r="WR63" s="0"/>
+      <c r="WS63" s="0"/>
+      <c r="WT63" s="0"/>
+      <c r="WU63" s="0"/>
+      <c r="WV63" s="0"/>
+      <c r="WW63" s="0"/>
+      <c r="WX63" s="0"/>
+      <c r="WY63" s="0"/>
+      <c r="WZ63" s="0"/>
+      <c r="XA63" s="0"/>
+      <c r="XB63" s="0"/>
+      <c r="XC63" s="0"/>
+      <c r="XD63" s="0"/>
+      <c r="XE63" s="0"/>
+      <c r="XF63" s="0"/>
+      <c r="XG63" s="0"/>
+      <c r="XH63" s="0"/>
+      <c r="XI63" s="0"/>
+      <c r="XJ63" s="0"/>
+      <c r="XK63" s="0"/>
+      <c r="XL63" s="0"/>
+      <c r="XM63" s="0"/>
+      <c r="XN63" s="0"/>
+      <c r="XO63" s="0"/>
+      <c r="XP63" s="0"/>
+      <c r="XQ63" s="0"/>
+      <c r="XR63" s="0"/>
+      <c r="XS63" s="0"/>
+      <c r="XT63" s="0"/>
+      <c r="XU63" s="0"/>
+      <c r="XV63" s="0"/>
+      <c r="XW63" s="0"/>
+      <c r="XX63" s="0"/>
+      <c r="XY63" s="0"/>
+      <c r="XZ63" s="0"/>
+      <c r="YA63" s="0"/>
+      <c r="YB63" s="0"/>
+      <c r="YC63" s="0"/>
+      <c r="YD63" s="0"/>
+      <c r="YE63" s="0"/>
+      <c r="YF63" s="0"/>
+      <c r="YG63" s="0"/>
+      <c r="YH63" s="0"/>
+      <c r="YI63" s="0"/>
+      <c r="YJ63" s="0"/>
+      <c r="YK63" s="0"/>
+      <c r="YL63" s="0"/>
+      <c r="YM63" s="0"/>
+      <c r="YN63" s="0"/>
+      <c r="YO63" s="0"/>
+      <c r="YP63" s="0"/>
+      <c r="YQ63" s="0"/>
+      <c r="YR63" s="0"/>
+      <c r="YS63" s="0"/>
+      <c r="YT63" s="0"/>
+      <c r="YU63" s="0"/>
+      <c r="YV63" s="0"/>
+      <c r="YW63" s="0"/>
+      <c r="YX63" s="0"/>
+      <c r="YY63" s="0"/>
+      <c r="YZ63" s="0"/>
+      <c r="ZA63" s="0"/>
+      <c r="ZB63" s="0"/>
+      <c r="ZC63" s="0"/>
+      <c r="ZD63" s="0"/>
+      <c r="ZE63" s="0"/>
+      <c r="ZF63" s="0"/>
+      <c r="ZG63" s="0"/>
+      <c r="ZH63" s="0"/>
+      <c r="ZI63" s="0"/>
+      <c r="ZJ63" s="0"/>
+      <c r="ZK63" s="0"/>
+      <c r="ZL63" s="0"/>
+      <c r="ZM63" s="0"/>
+      <c r="ZN63" s="0"/>
+      <c r="ZO63" s="0"/>
+      <c r="ZP63" s="0"/>
+      <c r="ZQ63" s="0"/>
+      <c r="ZR63" s="0"/>
+      <c r="ZS63" s="0"/>
+      <c r="ZT63" s="0"/>
+      <c r="ZU63" s="0"/>
+      <c r="ZV63" s="0"/>
+      <c r="ZW63" s="0"/>
+      <c r="ZX63" s="0"/>
+      <c r="ZY63" s="0"/>
+      <c r="ZZ63" s="0"/>
+      <c r="AAA63" s="0"/>
+      <c r="AAB63" s="0"/>
+      <c r="AAC63" s="0"/>
+      <c r="AAD63" s="0"/>
+      <c r="AAE63" s="0"/>
+      <c r="AAF63" s="0"/>
+      <c r="AAG63" s="0"/>
+      <c r="AAH63" s="0"/>
+      <c r="AAI63" s="0"/>
+      <c r="AAJ63" s="0"/>
+      <c r="AAK63" s="0"/>
+      <c r="AAL63" s="0"/>
+      <c r="AAM63" s="0"/>
+      <c r="AAN63" s="0"/>
+      <c r="AAO63" s="0"/>
+      <c r="AAP63" s="0"/>
+      <c r="AAQ63" s="0"/>
+      <c r="AAR63" s="0"/>
+      <c r="AAS63" s="0"/>
+      <c r="AAT63" s="0"/>
+      <c r="AAU63" s="0"/>
+      <c r="AAV63" s="0"/>
+      <c r="AAW63" s="0"/>
+      <c r="AAX63" s="0"/>
+      <c r="AAY63" s="0"/>
+      <c r="AAZ63" s="0"/>
+      <c r="ABA63" s="0"/>
+      <c r="ABB63" s="0"/>
+      <c r="ABC63" s="0"/>
+      <c r="ABD63" s="0"/>
+      <c r="ABE63" s="0"/>
+      <c r="ABF63" s="0"/>
+      <c r="ABG63" s="0"/>
+      <c r="ABH63" s="0"/>
+      <c r="ABI63" s="0"/>
+      <c r="ABJ63" s="0"/>
+      <c r="ABK63" s="0"/>
+      <c r="ABL63" s="0"/>
+      <c r="ABM63" s="0"/>
+      <c r="ABN63" s="0"/>
+      <c r="ABO63" s="0"/>
+      <c r="ABP63" s="0"/>
+      <c r="ABQ63" s="0"/>
+      <c r="ABR63" s="0"/>
+      <c r="ABS63" s="0"/>
+      <c r="ABT63" s="0"/>
+      <c r="ABU63" s="0"/>
+      <c r="ABV63" s="0"/>
+      <c r="ABW63" s="0"/>
+      <c r="ABX63" s="0"/>
+      <c r="ABY63" s="0"/>
+      <c r="ABZ63" s="0"/>
+      <c r="ACA63" s="0"/>
+      <c r="ACB63" s="0"/>
+      <c r="ACC63" s="0"/>
+      <c r="ACD63" s="0"/>
+      <c r="ACE63" s="0"/>
+      <c r="ACF63" s="0"/>
+      <c r="ACG63" s="0"/>
+      <c r="ACH63" s="0"/>
+      <c r="ACI63" s="0"/>
+      <c r="ACJ63" s="0"/>
+      <c r="ACK63" s="0"/>
+      <c r="ACL63" s="0"/>
+      <c r="ACM63" s="0"/>
+      <c r="ACN63" s="0"/>
+      <c r="ACO63" s="0"/>
+      <c r="ACP63" s="0"/>
+      <c r="ACQ63" s="0"/>
+      <c r="ACR63" s="0"/>
+      <c r="ACS63" s="0"/>
+      <c r="ACT63" s="0"/>
+      <c r="ACU63" s="0"/>
+      <c r="ACV63" s="0"/>
+      <c r="ACW63" s="0"/>
+      <c r="ACX63" s="0"/>
+      <c r="ACY63" s="0"/>
+      <c r="ACZ63" s="0"/>
+      <c r="ADA63" s="0"/>
+      <c r="ADB63" s="0"/>
+      <c r="ADC63" s="0"/>
+      <c r="ADD63" s="0"/>
+      <c r="ADE63" s="0"/>
+      <c r="ADF63" s="0"/>
+      <c r="ADG63" s="0"/>
+      <c r="ADH63" s="0"/>
+      <c r="ADI63" s="0"/>
+      <c r="ADJ63" s="0"/>
+      <c r="ADK63" s="0"/>
+      <c r="ADL63" s="0"/>
+      <c r="ADM63" s="0"/>
+      <c r="ADN63" s="0"/>
+      <c r="ADO63" s="0"/>
+      <c r="ADP63" s="0"/>
+      <c r="ADQ63" s="0"/>
+      <c r="ADR63" s="0"/>
+      <c r="ADS63" s="0"/>
+      <c r="ADT63" s="0"/>
+      <c r="ADU63" s="0"/>
+      <c r="ADV63" s="0"/>
+      <c r="ADW63" s="0"/>
+      <c r="ADX63" s="0"/>
+      <c r="ADY63" s="0"/>
+      <c r="ADZ63" s="0"/>
+      <c r="AEA63" s="0"/>
+      <c r="AEB63" s="0"/>
+      <c r="AEC63" s="0"/>
+      <c r="AED63" s="0"/>
+      <c r="AEE63" s="0"/>
+      <c r="AEF63" s="0"/>
+      <c r="AEG63" s="0"/>
+      <c r="AEH63" s="0"/>
+      <c r="AEI63" s="0"/>
+      <c r="AEJ63" s="0"/>
+      <c r="AEK63" s="0"/>
+      <c r="AEL63" s="0"/>
+      <c r="AEM63" s="0"/>
+      <c r="AEN63" s="0"/>
+      <c r="AEO63" s="0"/>
+      <c r="AEP63" s="0"/>
+      <c r="AEQ63" s="0"/>
+      <c r="AER63" s="0"/>
+      <c r="AES63" s="0"/>
+      <c r="AET63" s="0"/>
+      <c r="AEU63" s="0"/>
+      <c r="AEV63" s="0"/>
+      <c r="AEW63" s="0"/>
+      <c r="AEX63" s="0"/>
+      <c r="AEY63" s="0"/>
+      <c r="AEZ63" s="0"/>
+      <c r="AFA63" s="0"/>
+      <c r="AFB63" s="0"/>
+      <c r="AFC63" s="0"/>
+      <c r="AFD63" s="0"/>
+      <c r="AFE63" s="0"/>
+      <c r="AFF63" s="0"/>
+      <c r="AFG63" s="0"/>
+      <c r="AFH63" s="0"/>
+      <c r="AFI63" s="0"/>
+      <c r="AFJ63" s="0"/>
+      <c r="AFK63" s="0"/>
+      <c r="AFL63" s="0"/>
+      <c r="AFM63" s="0"/>
+      <c r="AFN63" s="0"/>
+      <c r="AFO63" s="0"/>
+      <c r="AFP63" s="0"/>
+      <c r="AFQ63" s="0"/>
+      <c r="AFR63" s="0"/>
+      <c r="AFS63" s="0"/>
+      <c r="AFT63" s="0"/>
+      <c r="AFU63" s="0"/>
+      <c r="AFV63" s="0"/>
+      <c r="AFW63" s="0"/>
+      <c r="AFX63" s="0"/>
+      <c r="AFY63" s="0"/>
+      <c r="AFZ63" s="0"/>
+      <c r="AGA63" s="0"/>
+      <c r="AGB63" s="0"/>
+      <c r="AGC63" s="0"/>
+      <c r="AGD63" s="0"/>
+      <c r="AGE63" s="0"/>
+      <c r="AGF63" s="0"/>
+      <c r="AGG63" s="0"/>
+      <c r="AGH63" s="0"/>
+      <c r="AGI63" s="0"/>
+      <c r="AGJ63" s="0"/>
+      <c r="AGK63" s="0"/>
+      <c r="AGL63" s="0"/>
+      <c r="AGM63" s="0"/>
+      <c r="AGN63" s="0"/>
+      <c r="AGO63" s="0"/>
+      <c r="AGP63" s="0"/>
+      <c r="AGQ63" s="0"/>
+      <c r="AGR63" s="0"/>
+      <c r="AGS63" s="0"/>
+      <c r="AGT63" s="0"/>
+      <c r="AGU63" s="0"/>
+      <c r="AGV63" s="0"/>
+      <c r="AGW63" s="0"/>
+      <c r="AGX63" s="0"/>
+      <c r="AGY63" s="0"/>
+      <c r="AGZ63" s="0"/>
+      <c r="AHA63" s="0"/>
+      <c r="AHB63" s="0"/>
+      <c r="AHC63" s="0"/>
+      <c r="AHD63" s="0"/>
+      <c r="AHE63" s="0"/>
+      <c r="AHF63" s="0"/>
+      <c r="AHG63" s="0"/>
+      <c r="AHH63" s="0"/>
+      <c r="AHI63" s="0"/>
+      <c r="AHJ63" s="0"/>
+      <c r="AHK63" s="0"/>
+      <c r="AHL63" s="0"/>
+      <c r="AHM63" s="0"/>
+      <c r="AHN63" s="0"/>
+      <c r="AHO63" s="0"/>
+      <c r="AHP63" s="0"/>
+      <c r="AHQ63" s="0"/>
+      <c r="AHR63" s="0"/>
+      <c r="AHS63" s="0"/>
+      <c r="AHT63" s="0"/>
+      <c r="AHU63" s="0"/>
+      <c r="AHV63" s="0"/>
+      <c r="AHW63" s="0"/>
+      <c r="AHX63" s="0"/>
+      <c r="AHY63" s="0"/>
+      <c r="AHZ63" s="0"/>
+      <c r="AIA63" s="0"/>
+      <c r="AIB63" s="0"/>
+      <c r="AIC63" s="0"/>
+      <c r="AID63" s="0"/>
+      <c r="AIE63" s="0"/>
+      <c r="AIF63" s="0"/>
+      <c r="AIG63" s="0"/>
+      <c r="AIH63" s="0"/>
+      <c r="AII63" s="0"/>
+      <c r="AIJ63" s="0"/>
+      <c r="AIK63" s="0"/>
+      <c r="AIL63" s="0"/>
+      <c r="AIM63" s="0"/>
+      <c r="AIN63" s="0"/>
+      <c r="AIO63" s="0"/>
+      <c r="AIP63" s="0"/>
+      <c r="AIQ63" s="0"/>
+      <c r="AIR63" s="0"/>
+      <c r="AIS63" s="0"/>
+      <c r="AIT63" s="0"/>
+      <c r="AIU63" s="0"/>
+      <c r="AIV63" s="0"/>
+      <c r="AIW63" s="0"/>
+      <c r="AIX63" s="0"/>
+      <c r="AIY63" s="0"/>
+      <c r="AIZ63" s="0"/>
+      <c r="AJA63" s="0"/>
+      <c r="AJB63" s="0"/>
+      <c r="AJC63" s="0"/>
+      <c r="AJD63" s="0"/>
+      <c r="AJE63" s="0"/>
+      <c r="AJF63" s="0"/>
+      <c r="AJG63" s="0"/>
+      <c r="AJH63" s="0"/>
+      <c r="AJI63" s="0"/>
+      <c r="AJJ63" s="0"/>
+      <c r="AJK63" s="0"/>
+      <c r="AJL63" s="0"/>
+      <c r="AJM63" s="0"/>
+      <c r="AJN63" s="0"/>
+      <c r="AJO63" s="0"/>
+      <c r="AJP63" s="0"/>
+      <c r="AJQ63" s="0"/>
+      <c r="AJR63" s="0"/>
+      <c r="AJS63" s="0"/>
+      <c r="AJT63" s="0"/>
+      <c r="AJU63" s="0"/>
+      <c r="AJV63" s="0"/>
+      <c r="AJW63" s="0"/>
+      <c r="AJX63" s="0"/>
+      <c r="AJY63" s="0"/>
+      <c r="AJZ63" s="0"/>
+      <c r="AKA63" s="0"/>
+      <c r="AKB63" s="0"/>
+      <c r="AKC63" s="0"/>
+      <c r="AKD63" s="0"/>
+      <c r="AKE63" s="0"/>
+      <c r="AKF63" s="0"/>
+      <c r="AKG63" s="0"/>
+      <c r="AKH63" s="0"/>
+      <c r="AKI63" s="0"/>
+      <c r="AKJ63" s="0"/>
+      <c r="AKK63" s="0"/>
+      <c r="AKL63" s="0"/>
+      <c r="AKM63" s="0"/>
+      <c r="AKN63" s="0"/>
+      <c r="AKO63" s="0"/>
+      <c r="AKP63" s="0"/>
+      <c r="AKQ63" s="0"/>
+      <c r="AKR63" s="0"/>
+      <c r="AKS63" s="0"/>
+      <c r="AKT63" s="0"/>
+      <c r="AKU63" s="0"/>
+      <c r="AKV63" s="0"/>
+      <c r="AKW63" s="0"/>
+      <c r="AKX63" s="0"/>
+      <c r="AKY63" s="0"/>
+      <c r="AKZ63" s="0"/>
+      <c r="ALA63" s="0"/>
+      <c r="ALB63" s="0"/>
+      <c r="ALC63" s="0"/>
+      <c r="ALD63" s="0"/>
+      <c r="ALE63" s="0"/>
+      <c r="ALF63" s="0"/>
+      <c r="ALG63" s="0"/>
+      <c r="ALH63" s="0"/>
+      <c r="ALI63" s="0"/>
+      <c r="ALJ63" s="0"/>
+      <c r="ALK63" s="0"/>
+      <c r="ALL63" s="0"/>
+      <c r="ALM63" s="0"/>
+      <c r="ALN63" s="0"/>
+      <c r="ALO63" s="0"/>
+      <c r="ALP63" s="0"/>
+      <c r="ALQ63" s="0"/>
+      <c r="ALR63" s="0"/>
+      <c r="ALS63" s="0"/>
+      <c r="ALT63" s="0"/>
+      <c r="ALU63" s="0"/>
+      <c r="ALV63" s="0"/>
+      <c r="ALW63" s="0"/>
+      <c r="ALX63" s="0"/>
+      <c r="ALY63" s="0"/>
+      <c r="ALZ63" s="0"/>
+      <c r="AMA63" s="0"/>
+      <c r="AMB63" s="0"/>
+      <c r="AMC63" s="0"/>
+      <c r="AMD63" s="0"/>
+      <c r="AME63" s="0"/>
+      <c r="AMF63" s="0"/>
+      <c r="AMG63" s="0"/>
+      <c r="AMH63" s="0"/>
+      <c r="AMI63" s="0"/>
+      <c r="AMJ63" s="0"/>
     </row>
-    <row r="63" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="30" t="s">
+    <row r="64" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F64" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="G63" s="38" t="s">
+      <c r="G64" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H64" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="I63" s="23" t="s">
+      <c r="I64" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="J63" s="29" t="s">
+      <c r="J64" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="K63" s="29" t="s">
+      <c r="K64" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="M63" s="23" t="s">
+      <c r="M64" s="22" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="29" t="s">
+    <row r="65" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="F65" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="G64" s="32" t="s">
+      <c r="G65" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="H65" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="J64" s="23" t="s">
+      <c r="J65" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="K64" s="23" t="s">
+      <c r="K65" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="M64" s="32" t="s">
+      <c r="M65" s="29" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0"/>
-      <c r="B65" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="C65" s="0"/>
-      <c r="D65" s="0"/>
-      <c r="E65" s="0"/>
-      <c r="F65" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="H65" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="I65" s="0"/>
-      <c r="J65" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L65" s="0"/>
-      <c r="M65" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N65" s="0"/>
-      <c r="O65" s="0"/>
-      <c r="P65" s="0"/>
-      <c r="Q65" s="0"/>
-      <c r="R65" s="0"/>
-      <c r="S65" s="0"/>
-      <c r="T65" s="0"/>
-      <c r="U65" s="0"/>
-      <c r="V65" s="0"/>
-      <c r="W65" s="0"/>
-      <c r="X65" s="0"/>
-      <c r="Y65" s="0"/>
-      <c r="Z65" s="0"/>
-      <c r="AA65" s="0"/>
-      <c r="AB65" s="0"/>
-      <c r="AC65" s="0"/>
-      <c r="AD65" s="0"/>
-      <c r="AE65" s="0"/>
-      <c r="AF65" s="0"/>
-      <c r="AG65" s="0"/>
-      <c r="AH65" s="0"/>
-      <c r="AI65" s="0"/>
-      <c r="AJ65" s="0"/>
-      <c r="AK65" s="0"/>
-      <c r="AL65" s="0"/>
-      <c r="AM65" s="0"/>
-      <c r="AN65" s="0"/>
-      <c r="AO65" s="0"/>
-      <c r="AP65" s="0"/>
-      <c r="AQ65" s="0"/>
-      <c r="AR65" s="0"/>
-      <c r="AS65" s="0"/>
-      <c r="AT65" s="0"/>
-      <c r="AU65" s="0"/>
-      <c r="AV65" s="0"/>
-      <c r="AW65" s="0"/>
-      <c r="AX65" s="0"/>
-      <c r="AY65" s="0"/>
-      <c r="AZ65" s="0"/>
-      <c r="BA65" s="0"/>
-      <c r="BB65" s="0"/>
-      <c r="BC65" s="0"/>
-      <c r="BD65" s="0"/>
-      <c r="BE65" s="0"/>
-      <c r="BF65" s="0"/>
-      <c r="BG65" s="0"/>
-      <c r="BH65" s="0"/>
-      <c r="BI65" s="0"/>
-      <c r="BJ65" s="0"/>
-      <c r="BK65" s="0"/>
-      <c r="BL65" s="0"/>
-      <c r="BM65" s="0"/>
-      <c r="BN65" s="0"/>
-      <c r="BO65" s="0"/>
-      <c r="BP65" s="0"/>
-      <c r="BQ65" s="0"/>
-      <c r="BR65" s="0"/>
-      <c r="BS65" s="0"/>
-      <c r="BT65" s="0"/>
-      <c r="BU65" s="0"/>
-      <c r="BV65" s="0"/>
-      <c r="BW65" s="0"/>
-      <c r="BX65" s="0"/>
-      <c r="BY65" s="0"/>
-      <c r="BZ65" s="0"/>
-      <c r="CA65" s="0"/>
-      <c r="CB65" s="0"/>
-      <c r="CC65" s="0"/>
-      <c r="CD65" s="0"/>
-      <c r="CE65" s="0"/>
-      <c r="CF65" s="0"/>
-      <c r="CG65" s="0"/>
-      <c r="CH65" s="0"/>
-      <c r="CI65" s="0"/>
-      <c r="CJ65" s="0"/>
-      <c r="CK65" s="0"/>
-      <c r="CL65" s="0"/>
-      <c r="CM65" s="0"/>
-      <c r="CN65" s="0"/>
-      <c r="CO65" s="0"/>
-      <c r="CP65" s="0"/>
-      <c r="CQ65" s="0"/>
-      <c r="CR65" s="0"/>
-      <c r="CS65" s="0"/>
-      <c r="CT65" s="0"/>
-      <c r="CU65" s="0"/>
-      <c r="CV65" s="0"/>
-      <c r="CW65" s="0"/>
-      <c r="CX65" s="0"/>
-      <c r="CY65" s="0"/>
-      <c r="CZ65" s="0"/>
-      <c r="DA65" s="0"/>
-      <c r="DB65" s="0"/>
-      <c r="DC65" s="0"/>
-      <c r="DD65" s="0"/>
-      <c r="DE65" s="0"/>
-      <c r="DF65" s="0"/>
-      <c r="DG65" s="0"/>
-      <c r="DH65" s="0"/>
-      <c r="DI65" s="0"/>
-      <c r="DJ65" s="0"/>
-      <c r="DK65" s="0"/>
-      <c r="DL65" s="0"/>
-      <c r="DM65" s="0"/>
-      <c r="DN65" s="0"/>
-      <c r="DO65" s="0"/>
-      <c r="DP65" s="0"/>
-      <c r="DQ65" s="0"/>
-      <c r="DR65" s="0"/>
-      <c r="DS65" s="0"/>
-      <c r="DT65" s="0"/>
-      <c r="DU65" s="0"/>
-      <c r="DV65" s="0"/>
-      <c r="DW65" s="0"/>
-      <c r="DX65" s="0"/>
-      <c r="DY65" s="0"/>
-      <c r="DZ65" s="0"/>
-      <c r="EA65" s="0"/>
-      <c r="EB65" s="0"/>
-      <c r="EC65" s="0"/>
-      <c r="ED65" s="0"/>
-      <c r="EE65" s="0"/>
-      <c r="EF65" s="0"/>
-      <c r="EG65" s="0"/>
-      <c r="EH65" s="0"/>
-      <c r="EI65" s="0"/>
-      <c r="EJ65" s="0"/>
-      <c r="EK65" s="0"/>
-      <c r="EL65" s="0"/>
-      <c r="EM65" s="0"/>
-      <c r="EN65" s="0"/>
-      <c r="EO65" s="0"/>
-      <c r="EP65" s="0"/>
-      <c r="EQ65" s="0"/>
-      <c r="ER65" s="0"/>
-      <c r="ES65" s="0"/>
-      <c r="ET65" s="0"/>
-      <c r="EU65" s="0"/>
-      <c r="EV65" s="0"/>
-      <c r="EW65" s="0"/>
-      <c r="EX65" s="0"/>
-      <c r="EY65" s="0"/>
-      <c r="EZ65" s="0"/>
-      <c r="FA65" s="0"/>
-      <c r="FB65" s="0"/>
-      <c r="FC65" s="0"/>
-      <c r="FD65" s="0"/>
-      <c r="FE65" s="0"/>
-      <c r="FF65" s="0"/>
-      <c r="FG65" s="0"/>
-      <c r="FH65" s="0"/>
-      <c r="FI65" s="0"/>
-      <c r="FJ65" s="0"/>
-      <c r="FK65" s="0"/>
-      <c r="FL65" s="0"/>
-      <c r="FM65" s="0"/>
-      <c r="FN65" s="0"/>
-      <c r="FO65" s="0"/>
-      <c r="FP65" s="0"/>
-      <c r="FQ65" s="0"/>
-      <c r="FR65" s="0"/>
-      <c r="FS65" s="0"/>
-      <c r="FT65" s="0"/>
-      <c r="FU65" s="0"/>
-      <c r="FV65" s="0"/>
-      <c r="FW65" s="0"/>
-      <c r="FX65" s="0"/>
-      <c r="FY65" s="0"/>
-      <c r="FZ65" s="0"/>
-      <c r="GA65" s="0"/>
-      <c r="GB65" s="0"/>
-      <c r="GC65" s="0"/>
-      <c r="GD65" s="0"/>
-      <c r="GE65" s="0"/>
-      <c r="GF65" s="0"/>
-      <c r="GG65" s="0"/>
-      <c r="GH65" s="0"/>
-      <c r="GI65" s="0"/>
-      <c r="GJ65" s="0"/>
-      <c r="GK65" s="0"/>
-      <c r="GL65" s="0"/>
-      <c r="GM65" s="0"/>
-      <c r="GN65" s="0"/>
-      <c r="GO65" s="0"/>
-      <c r="GP65" s="0"/>
-      <c r="GQ65" s="0"/>
-      <c r="GR65" s="0"/>
-      <c r="GS65" s="0"/>
-      <c r="GT65" s="0"/>
-      <c r="GU65" s="0"/>
-      <c r="GV65" s="0"/>
-      <c r="GW65" s="0"/>
-      <c r="GX65" s="0"/>
-      <c r="GY65" s="0"/>
-      <c r="GZ65" s="0"/>
-      <c r="HA65" s="0"/>
-      <c r="HB65" s="0"/>
-      <c r="HC65" s="0"/>
-      <c r="HD65" s="0"/>
-      <c r="HE65" s="0"/>
-      <c r="HF65" s="0"/>
-      <c r="HG65" s="0"/>
-      <c r="HH65" s="0"/>
-      <c r="HI65" s="0"/>
-      <c r="HJ65" s="0"/>
-      <c r="HK65" s="0"/>
-      <c r="HL65" s="0"/>
-      <c r="HM65" s="0"/>
-      <c r="HN65" s="0"/>
-      <c r="HO65" s="0"/>
-      <c r="HP65" s="0"/>
-      <c r="HQ65" s="0"/>
-      <c r="HR65" s="0"/>
-      <c r="HS65" s="0"/>
-      <c r="HT65" s="0"/>
-      <c r="HU65" s="0"/>
-      <c r="HV65" s="0"/>
-      <c r="HW65" s="0"/>
-      <c r="HX65" s="0"/>
-      <c r="HY65" s="0"/>
-      <c r="HZ65" s="0"/>
-      <c r="IA65" s="0"/>
-      <c r="IB65" s="0"/>
-      <c r="IC65" s="0"/>
-      <c r="ID65" s="0"/>
-      <c r="IE65" s="0"/>
-      <c r="IF65" s="0"/>
-      <c r="IG65" s="0"/>
-      <c r="IH65" s="0"/>
-      <c r="II65" s="0"/>
-      <c r="IJ65" s="0"/>
-      <c r="IK65" s="0"/>
-      <c r="IL65" s="0"/>
-      <c r="IM65" s="0"/>
-      <c r="IN65" s="0"/>
-      <c r="IO65" s="0"/>
-      <c r="IP65" s="0"/>
-      <c r="IQ65" s="0"/>
-      <c r="IR65" s="0"/>
-      <c r="IS65" s="0"/>
-      <c r="IT65" s="0"/>
-      <c r="IU65" s="0"/>
-      <c r="IV65" s="0"/>
-      <c r="IW65" s="0"/>
-      <c r="IX65" s="0"/>
-      <c r="IY65" s="0"/>
-      <c r="IZ65" s="0"/>
-      <c r="JA65" s="0"/>
-      <c r="JB65" s="0"/>
-      <c r="JC65" s="0"/>
-      <c r="JD65" s="0"/>
-      <c r="JE65" s="0"/>
-      <c r="JF65" s="0"/>
-      <c r="JG65" s="0"/>
-      <c r="JH65" s="0"/>
-      <c r="JI65" s="0"/>
-      <c r="JJ65" s="0"/>
-      <c r="JK65" s="0"/>
-      <c r="JL65" s="0"/>
-      <c r="JM65" s="0"/>
-      <c r="JN65" s="0"/>
-      <c r="JO65" s="0"/>
-      <c r="JP65" s="0"/>
-      <c r="JQ65" s="0"/>
-      <c r="JR65" s="0"/>
-      <c r="JS65" s="0"/>
-      <c r="JT65" s="0"/>
-      <c r="JU65" s="0"/>
-      <c r="JV65" s="0"/>
-      <c r="JW65" s="0"/>
-      <c r="JX65" s="0"/>
-      <c r="JY65" s="0"/>
-      <c r="JZ65" s="0"/>
-      <c r="KA65" s="0"/>
-      <c r="KB65" s="0"/>
-      <c r="KC65" s="0"/>
-      <c r="KD65" s="0"/>
-      <c r="KE65" s="0"/>
-      <c r="KF65" s="0"/>
-      <c r="KG65" s="0"/>
-      <c r="KH65" s="0"/>
-      <c r="KI65" s="0"/>
-      <c r="KJ65" s="0"/>
-      <c r="KK65" s="0"/>
-      <c r="KL65" s="0"/>
-      <c r="KM65" s="0"/>
-      <c r="KN65" s="0"/>
-      <c r="KO65" s="0"/>
-      <c r="KP65" s="0"/>
-      <c r="KQ65" s="0"/>
-      <c r="KR65" s="0"/>
-      <c r="KS65" s="0"/>
-      <c r="KT65" s="0"/>
-      <c r="KU65" s="0"/>
-      <c r="KV65" s="0"/>
-      <c r="KW65" s="0"/>
-      <c r="KX65" s="0"/>
-      <c r="KY65" s="0"/>
-      <c r="KZ65" s="0"/>
-      <c r="LA65" s="0"/>
-      <c r="LB65" s="0"/>
-      <c r="LC65" s="0"/>
-      <c r="LD65" s="0"/>
-      <c r="LE65" s="0"/>
-      <c r="LF65" s="0"/>
-      <c r="LG65" s="0"/>
-      <c r="LH65" s="0"/>
-      <c r="LI65" s="0"/>
-      <c r="LJ65" s="0"/>
-      <c r="LK65" s="0"/>
-      <c r="LL65" s="0"/>
-      <c r="LM65" s="0"/>
-      <c r="LN65" s="0"/>
-      <c r="LO65" s="0"/>
-      <c r="LP65" s="0"/>
-      <c r="LQ65" s="0"/>
-      <c r="LR65" s="0"/>
-      <c r="LS65" s="0"/>
-      <c r="LT65" s="0"/>
-      <c r="LU65" s="0"/>
-      <c r="LV65" s="0"/>
-      <c r="LW65" s="0"/>
-      <c r="LX65" s="0"/>
-      <c r="LY65" s="0"/>
-      <c r="LZ65" s="0"/>
-      <c r="MA65" s="0"/>
-      <c r="MB65" s="0"/>
-      <c r="MC65" s="0"/>
-      <c r="MD65" s="0"/>
-      <c r="ME65" s="0"/>
-      <c r="MF65" s="0"/>
-      <c r="MG65" s="0"/>
-      <c r="MH65" s="0"/>
-      <c r="MI65" s="0"/>
-      <c r="MJ65" s="0"/>
-      <c r="MK65" s="0"/>
-      <c r="ML65" s="0"/>
-      <c r="MM65" s="0"/>
-      <c r="MN65" s="0"/>
-      <c r="MO65" s="0"/>
-      <c r="MP65" s="0"/>
-      <c r="MQ65" s="0"/>
-      <c r="MR65" s="0"/>
-      <c r="MS65" s="0"/>
-      <c r="MT65" s="0"/>
-      <c r="MU65" s="0"/>
-      <c r="MV65" s="0"/>
-      <c r="MW65" s="0"/>
-      <c r="MX65" s="0"/>
-      <c r="MY65" s="0"/>
-      <c r="MZ65" s="0"/>
-      <c r="NA65" s="0"/>
-      <c r="NB65" s="0"/>
-      <c r="NC65" s="0"/>
-      <c r="ND65" s="0"/>
-      <c r="NE65" s="0"/>
-      <c r="NF65" s="0"/>
-      <c r="NG65" s="0"/>
-      <c r="NH65" s="0"/>
-      <c r="NI65" s="0"/>
-      <c r="NJ65" s="0"/>
-      <c r="NK65" s="0"/>
-      <c r="NL65" s="0"/>
-      <c r="NM65" s="0"/>
-      <c r="NN65" s="0"/>
-      <c r="NO65" s="0"/>
-      <c r="NP65" s="0"/>
-      <c r="NQ65" s="0"/>
-      <c r="NR65" s="0"/>
-      <c r="NS65" s="0"/>
-      <c r="NT65" s="0"/>
-      <c r="NU65" s="0"/>
-      <c r="NV65" s="0"/>
-      <c r="NW65" s="0"/>
-      <c r="NX65" s="0"/>
-      <c r="NY65" s="0"/>
-      <c r="NZ65" s="0"/>
-      <c r="OA65" s="0"/>
-      <c r="OB65" s="0"/>
-      <c r="OC65" s="0"/>
-      <c r="OD65" s="0"/>
-      <c r="OE65" s="0"/>
-      <c r="OF65" s="0"/>
-      <c r="OG65" s="0"/>
-      <c r="OH65" s="0"/>
-      <c r="OI65" s="0"/>
-      <c r="OJ65" s="0"/>
-      <c r="OK65" s="0"/>
-      <c r="OL65" s="0"/>
-      <c r="OM65" s="0"/>
-      <c r="ON65" s="0"/>
-      <c r="OO65" s="0"/>
-      <c r="OP65" s="0"/>
-      <c r="OQ65" s="0"/>
-      <c r="OR65" s="0"/>
-      <c r="OS65" s="0"/>
-      <c r="OT65" s="0"/>
-      <c r="OU65" s="0"/>
-      <c r="OV65" s="0"/>
-      <c r="OW65" s="0"/>
-      <c r="OX65" s="0"/>
-      <c r="OY65" s="0"/>
-      <c r="OZ65" s="0"/>
-      <c r="PA65" s="0"/>
-      <c r="PB65" s="0"/>
-      <c r="PC65" s="0"/>
-      <c r="PD65" s="0"/>
-      <c r="PE65" s="0"/>
-      <c r="PF65" s="0"/>
-      <c r="PG65" s="0"/>
-      <c r="PH65" s="0"/>
-      <c r="PI65" s="0"/>
-      <c r="PJ65" s="0"/>
-      <c r="PK65" s="0"/>
-      <c r="PL65" s="0"/>
-      <c r="PM65" s="0"/>
-      <c r="PN65" s="0"/>
-      <c r="PO65" s="0"/>
-      <c r="PP65" s="0"/>
-      <c r="PQ65" s="0"/>
-      <c r="PR65" s="0"/>
-      <c r="PS65" s="0"/>
-      <c r="PT65" s="0"/>
-      <c r="PU65" s="0"/>
-      <c r="PV65" s="0"/>
-      <c r="PW65" s="0"/>
-      <c r="PX65" s="0"/>
-      <c r="PY65" s="0"/>
-      <c r="PZ65" s="0"/>
-      <c r="QA65" s="0"/>
-      <c r="QB65" s="0"/>
-      <c r="QC65" s="0"/>
-      <c r="QD65" s="0"/>
-      <c r="QE65" s="0"/>
-      <c r="QF65" s="0"/>
-      <c r="QG65" s="0"/>
-      <c r="QH65" s="0"/>
-      <c r="QI65" s="0"/>
-      <c r="QJ65" s="0"/>
-      <c r="QK65" s="0"/>
-      <c r="QL65" s="0"/>
-      <c r="QM65" s="0"/>
-      <c r="QN65" s="0"/>
-      <c r="QO65" s="0"/>
-      <c r="QP65" s="0"/>
-      <c r="QQ65" s="0"/>
-      <c r="QR65" s="0"/>
-      <c r="QS65" s="0"/>
-      <c r="QT65" s="0"/>
-      <c r="QU65" s="0"/>
-      <c r="QV65" s="0"/>
-      <c r="QW65" s="0"/>
-      <c r="QX65" s="0"/>
-      <c r="QY65" s="0"/>
-      <c r="QZ65" s="0"/>
-      <c r="RA65" s="0"/>
-      <c r="RB65" s="0"/>
-      <c r="RC65" s="0"/>
-      <c r="RD65" s="0"/>
-      <c r="RE65" s="0"/>
-      <c r="RF65" s="0"/>
-      <c r="RG65" s="0"/>
-      <c r="RH65" s="0"/>
-      <c r="RI65" s="0"/>
-      <c r="RJ65" s="0"/>
-      <c r="RK65" s="0"/>
-      <c r="RL65" s="0"/>
-      <c r="RM65" s="0"/>
-      <c r="RN65" s="0"/>
-      <c r="RO65" s="0"/>
-      <c r="RP65" s="0"/>
-      <c r="RQ65" s="0"/>
-      <c r="RR65" s="0"/>
-      <c r="RS65" s="0"/>
-      <c r="RT65" s="0"/>
-      <c r="RU65" s="0"/>
-      <c r="RV65" s="0"/>
-      <c r="RW65" s="0"/>
-      <c r="RX65" s="0"/>
-      <c r="RY65" s="0"/>
-      <c r="RZ65" s="0"/>
-      <c r="SA65" s="0"/>
-      <c r="SB65" s="0"/>
-      <c r="SC65" s="0"/>
-      <c r="SD65" s="0"/>
-      <c r="SE65" s="0"/>
-      <c r="SF65" s="0"/>
-      <c r="SG65" s="0"/>
-      <c r="SH65" s="0"/>
-      <c r="SI65" s="0"/>
-      <c r="SJ65" s="0"/>
-      <c r="SK65" s="0"/>
-      <c r="SL65" s="0"/>
-      <c r="SM65" s="0"/>
-      <c r="SN65" s="0"/>
-      <c r="SO65" s="0"/>
-      <c r="SP65" s="0"/>
-      <c r="SQ65" s="0"/>
-      <c r="SR65" s="0"/>
-      <c r="SS65" s="0"/>
-      <c r="ST65" s="0"/>
-      <c r="SU65" s="0"/>
-      <c r="SV65" s="0"/>
-      <c r="SW65" s="0"/>
-      <c r="SX65" s="0"/>
-      <c r="SY65" s="0"/>
-      <c r="SZ65" s="0"/>
-      <c r="TA65" s="0"/>
-      <c r="TB65" s="0"/>
-      <c r="TC65" s="0"/>
-      <c r="TD65" s="0"/>
-      <c r="TE65" s="0"/>
-      <c r="TF65" s="0"/>
-      <c r="TG65" s="0"/>
-      <c r="TH65" s="0"/>
-      <c r="TI65" s="0"/>
-      <c r="TJ65" s="0"/>
-      <c r="TK65" s="0"/>
-      <c r="TL65" s="0"/>
-      <c r="TM65" s="0"/>
-      <c r="TN65" s="0"/>
-      <c r="TO65" s="0"/>
-      <c r="TP65" s="0"/>
-      <c r="TQ65" s="0"/>
-      <c r="TR65" s="0"/>
-      <c r="TS65" s="0"/>
-      <c r="TT65" s="0"/>
-      <c r="TU65" s="0"/>
-      <c r="TV65" s="0"/>
-      <c r="TW65" s="0"/>
-      <c r="TX65" s="0"/>
-      <c r="TY65" s="0"/>
-      <c r="TZ65" s="0"/>
-      <c r="UA65" s="0"/>
-      <c r="UB65" s="0"/>
-      <c r="UC65" s="0"/>
-      <c r="UD65" s="0"/>
-      <c r="UE65" s="0"/>
-      <c r="UF65" s="0"/>
-      <c r="UG65" s="0"/>
-      <c r="UH65" s="0"/>
-      <c r="UI65" s="0"/>
-      <c r="UJ65" s="0"/>
-      <c r="UK65" s="0"/>
-      <c r="UL65" s="0"/>
-      <c r="UM65" s="0"/>
-      <c r="UN65" s="0"/>
-      <c r="UO65" s="0"/>
-      <c r="UP65" s="0"/>
-      <c r="UQ65" s="0"/>
-      <c r="UR65" s="0"/>
-      <c r="US65" s="0"/>
-      <c r="UT65" s="0"/>
-      <c r="UU65" s="0"/>
-      <c r="UV65" s="0"/>
-      <c r="UW65" s="0"/>
-      <c r="UX65" s="0"/>
-      <c r="UY65" s="0"/>
-      <c r="UZ65" s="0"/>
-      <c r="VA65" s="0"/>
-      <c r="VB65" s="0"/>
-      <c r="VC65" s="0"/>
-      <c r="VD65" s="0"/>
-      <c r="VE65" s="0"/>
-      <c r="VF65" s="0"/>
-      <c r="VG65" s="0"/>
-      <c r="VH65" s="0"/>
-      <c r="VI65" s="0"/>
-      <c r="VJ65" s="0"/>
-      <c r="VK65" s="0"/>
-      <c r="VL65" s="0"/>
-      <c r="VM65" s="0"/>
-      <c r="VN65" s="0"/>
-      <c r="VO65" s="0"/>
-      <c r="VP65" s="0"/>
-      <c r="VQ65" s="0"/>
-      <c r="VR65" s="0"/>
-      <c r="VS65" s="0"/>
-      <c r="VT65" s="0"/>
-      <c r="VU65" s="0"/>
-      <c r="VV65" s="0"/>
-      <c r="VW65" s="0"/>
-      <c r="VX65" s="0"/>
-      <c r="VY65" s="0"/>
-      <c r="VZ65" s="0"/>
-      <c r="WA65" s="0"/>
-      <c r="WB65" s="0"/>
-      <c r="WC65" s="0"/>
-      <c r="WD65" s="0"/>
-      <c r="WE65" s="0"/>
-      <c r="WF65" s="0"/>
-      <c r="WG65" s="0"/>
-      <c r="WH65" s="0"/>
-      <c r="WI65" s="0"/>
-      <c r="WJ65" s="0"/>
-      <c r="WK65" s="0"/>
-      <c r="WL65" s="0"/>
-      <c r="WM65" s="0"/>
-      <c r="WN65" s="0"/>
-      <c r="WO65" s="0"/>
-      <c r="WP65" s="0"/>
-      <c r="WQ65" s="0"/>
-      <c r="WR65" s="0"/>
-      <c r="WS65" s="0"/>
-      <c r="WT65" s="0"/>
-      <c r="WU65" s="0"/>
-      <c r="WV65" s="0"/>
-      <c r="WW65" s="0"/>
-      <c r="WX65" s="0"/>
-      <c r="WY65" s="0"/>
-      <c r="WZ65" s="0"/>
-      <c r="XA65" s="0"/>
-      <c r="XB65" s="0"/>
-      <c r="XC65" s="0"/>
-      <c r="XD65" s="0"/>
-      <c r="XE65" s="0"/>
-      <c r="XF65" s="0"/>
-      <c r="XG65" s="0"/>
-      <c r="XH65" s="0"/>
-      <c r="XI65" s="0"/>
-      <c r="XJ65" s="0"/>
-      <c r="XK65" s="0"/>
-      <c r="XL65" s="0"/>
-      <c r="XM65" s="0"/>
-      <c r="XN65" s="0"/>
-      <c r="XO65" s="0"/>
-      <c r="XP65" s="0"/>
-      <c r="XQ65" s="0"/>
-      <c r="XR65" s="0"/>
-      <c r="XS65" s="0"/>
-      <c r="XT65" s="0"/>
-      <c r="XU65" s="0"/>
-      <c r="XV65" s="0"/>
-      <c r="XW65" s="0"/>
-      <c r="XX65" s="0"/>
-      <c r="XY65" s="0"/>
-      <c r="XZ65" s="0"/>
-      <c r="YA65" s="0"/>
-      <c r="YB65" s="0"/>
-      <c r="YC65" s="0"/>
-      <c r="YD65" s="0"/>
-      <c r="YE65" s="0"/>
-      <c r="YF65" s="0"/>
-      <c r="YG65" s="0"/>
-      <c r="YH65" s="0"/>
-      <c r="YI65" s="0"/>
-      <c r="YJ65" s="0"/>
-      <c r="YK65" s="0"/>
-      <c r="YL65" s="0"/>
-      <c r="YM65" s="0"/>
-      <c r="YN65" s="0"/>
-      <c r="YO65" s="0"/>
-      <c r="YP65" s="0"/>
-      <c r="YQ65" s="0"/>
-      <c r="YR65" s="0"/>
-      <c r="YS65" s="0"/>
-      <c r="YT65" s="0"/>
-      <c r="YU65" s="0"/>
-      <c r="YV65" s="0"/>
-      <c r="YW65" s="0"/>
-      <c r="YX65" s="0"/>
-      <c r="YY65" s="0"/>
-      <c r="YZ65" s="0"/>
-      <c r="ZA65" s="0"/>
-      <c r="ZB65" s="0"/>
-      <c r="ZC65" s="0"/>
-      <c r="ZD65" s="0"/>
-      <c r="ZE65" s="0"/>
-      <c r="ZF65" s="0"/>
-      <c r="ZG65" s="0"/>
-      <c r="ZH65" s="0"/>
-      <c r="ZI65" s="0"/>
-      <c r="ZJ65" s="0"/>
-      <c r="ZK65" s="0"/>
-      <c r="ZL65" s="0"/>
-      <c r="ZM65" s="0"/>
-      <c r="ZN65" s="0"/>
-      <c r="ZO65" s="0"/>
-      <c r="ZP65" s="0"/>
-      <c r="ZQ65" s="0"/>
-      <c r="ZR65" s="0"/>
-      <c r="ZS65" s="0"/>
-      <c r="ZT65" s="0"/>
-      <c r="ZU65" s="0"/>
-      <c r="ZV65" s="0"/>
-      <c r="ZW65" s="0"/>
-      <c r="ZX65" s="0"/>
-      <c r="ZY65" s="0"/>
-      <c r="ZZ65" s="0"/>
-      <c r="AAA65" s="0"/>
-      <c r="AAB65" s="0"/>
-      <c r="AAC65" s="0"/>
-      <c r="AAD65" s="0"/>
-      <c r="AAE65" s="0"/>
-      <c r="AAF65" s="0"/>
-      <c r="AAG65" s="0"/>
-      <c r="AAH65" s="0"/>
-      <c r="AAI65" s="0"/>
-      <c r="AAJ65" s="0"/>
-      <c r="AAK65" s="0"/>
-      <c r="AAL65" s="0"/>
-      <c r="AAM65" s="0"/>
-      <c r="AAN65" s="0"/>
-      <c r="AAO65" s="0"/>
-      <c r="AAP65" s="0"/>
-      <c r="AAQ65" s="0"/>
-      <c r="AAR65" s="0"/>
-      <c r="AAS65" s="0"/>
-      <c r="AAT65" s="0"/>
-      <c r="AAU65" s="0"/>
-      <c r="AAV65" s="0"/>
-      <c r="AAW65" s="0"/>
-      <c r="AAX65" s="0"/>
-      <c r="AAY65" s="0"/>
-      <c r="AAZ65" s="0"/>
-      <c r="ABA65" s="0"/>
-      <c r="ABB65" s="0"/>
-      <c r="ABC65" s="0"/>
-      <c r="ABD65" s="0"/>
-      <c r="ABE65" s="0"/>
-      <c r="ABF65" s="0"/>
-      <c r="ABG65" s="0"/>
-      <c r="ABH65" s="0"/>
-      <c r="ABI65" s="0"/>
-      <c r="ABJ65" s="0"/>
-      <c r="ABK65" s="0"/>
-      <c r="ABL65" s="0"/>
-      <c r="ABM65" s="0"/>
-      <c r="ABN65" s="0"/>
-      <c r="ABO65" s="0"/>
-      <c r="ABP65" s="0"/>
-      <c r="ABQ65" s="0"/>
-      <c r="ABR65" s="0"/>
-      <c r="ABS65" s="0"/>
-      <c r="ABT65" s="0"/>
-      <c r="ABU65" s="0"/>
-      <c r="ABV65" s="0"/>
-      <c r="ABW65" s="0"/>
-      <c r="ABX65" s="0"/>
-      <c r="ABY65" s="0"/>
-      <c r="ABZ65" s="0"/>
-      <c r="ACA65" s="0"/>
-      <c r="ACB65" s="0"/>
-      <c r="ACC65" s="0"/>
-      <c r="ACD65" s="0"/>
-      <c r="ACE65" s="0"/>
-      <c r="ACF65" s="0"/>
-      <c r="ACG65" s="0"/>
-      <c r="ACH65" s="0"/>
-      <c r="ACI65" s="0"/>
-      <c r="ACJ65" s="0"/>
-      <c r="ACK65" s="0"/>
-      <c r="ACL65" s="0"/>
-      <c r="ACM65" s="0"/>
-      <c r="ACN65" s="0"/>
-      <c r="ACO65" s="0"/>
-      <c r="ACP65" s="0"/>
-      <c r="ACQ65" s="0"/>
-      <c r="ACR65" s="0"/>
-      <c r="ACS65" s="0"/>
-      <c r="ACT65" s="0"/>
-      <c r="ACU65" s="0"/>
-      <c r="ACV65" s="0"/>
-      <c r="ACW65" s="0"/>
-      <c r="ACX65" s="0"/>
-      <c r="ACY65" s="0"/>
-      <c r="ACZ65" s="0"/>
-      <c r="ADA65" s="0"/>
-      <c r="ADB65" s="0"/>
-      <c r="ADC65" s="0"/>
-      <c r="ADD65" s="0"/>
-      <c r="ADE65" s="0"/>
-      <c r="ADF65" s="0"/>
-      <c r="ADG65" s="0"/>
-      <c r="ADH65" s="0"/>
-      <c r="ADI65" s="0"/>
-      <c r="ADJ65" s="0"/>
-      <c r="ADK65" s="0"/>
-      <c r="ADL65" s="0"/>
-      <c r="ADM65" s="0"/>
-      <c r="ADN65" s="0"/>
-      <c r="ADO65" s="0"/>
-      <c r="ADP65" s="0"/>
-      <c r="ADQ65" s="0"/>
-      <c r="ADR65" s="0"/>
-      <c r="ADS65" s="0"/>
-      <c r="ADT65" s="0"/>
-      <c r="ADU65" s="0"/>
-      <c r="ADV65" s="0"/>
-      <c r="ADW65" s="0"/>
-      <c r="ADX65" s="0"/>
-      <c r="ADY65" s="0"/>
-      <c r="ADZ65" s="0"/>
-      <c r="AEA65" s="0"/>
-      <c r="AEB65" s="0"/>
-      <c r="AEC65" s="0"/>
-      <c r="AED65" s="0"/>
-      <c r="AEE65" s="0"/>
-      <c r="AEF65" s="0"/>
-      <c r="AEG65" s="0"/>
-      <c r="AEH65" s="0"/>
-      <c r="AEI65" s="0"/>
-      <c r="AEJ65" s="0"/>
-      <c r="AEK65" s="0"/>
-      <c r="AEL65" s="0"/>
-      <c r="AEM65" s="0"/>
-      <c r="AEN65" s="0"/>
-      <c r="AEO65" s="0"/>
-      <c r="AEP65" s="0"/>
-      <c r="AEQ65" s="0"/>
-      <c r="AER65" s="0"/>
-      <c r="AES65" s="0"/>
-      <c r="AET65" s="0"/>
-      <c r="AEU65" s="0"/>
-      <c r="AEV65" s="0"/>
-      <c r="AEW65" s="0"/>
-      <c r="AEX65" s="0"/>
-      <c r="AEY65" s="0"/>
-      <c r="AEZ65" s="0"/>
-      <c r="AFA65" s="0"/>
-      <c r="AFB65" s="0"/>
-      <c r="AFC65" s="0"/>
-      <c r="AFD65" s="0"/>
-      <c r="AFE65" s="0"/>
-      <c r="AFF65" s="0"/>
-      <c r="AFG65" s="0"/>
-      <c r="AFH65" s="0"/>
-      <c r="AFI65" s="0"/>
-      <c r="AFJ65" s="0"/>
-      <c r="AFK65" s="0"/>
-      <c r="AFL65" s="0"/>
-      <c r="AFM65" s="0"/>
-      <c r="AFN65" s="0"/>
-      <c r="AFO65" s="0"/>
-      <c r="AFP65" s="0"/>
-      <c r="AFQ65" s="0"/>
-      <c r="AFR65" s="0"/>
-      <c r="AFS65" s="0"/>
-      <c r="AFT65" s="0"/>
-      <c r="AFU65" s="0"/>
-      <c r="AFV65" s="0"/>
-      <c r="AFW65" s="0"/>
-      <c r="AFX65" s="0"/>
-      <c r="AFY65" s="0"/>
-      <c r="AFZ65" s="0"/>
-      <c r="AGA65" s="0"/>
-      <c r="AGB65" s="0"/>
-      <c r="AGC65" s="0"/>
-      <c r="AGD65" s="0"/>
-      <c r="AGE65" s="0"/>
-      <c r="AGF65" s="0"/>
-      <c r="AGG65" s="0"/>
-      <c r="AGH65" s="0"/>
-      <c r="AGI65" s="0"/>
-      <c r="AGJ65" s="0"/>
-      <c r="AGK65" s="0"/>
-      <c r="AGL65" s="0"/>
-      <c r="AGM65" s="0"/>
-      <c r="AGN65" s="0"/>
-      <c r="AGO65" s="0"/>
-      <c r="AGP65" s="0"/>
-      <c r="AGQ65" s="0"/>
-      <c r="AGR65" s="0"/>
-      <c r="AGS65" s="0"/>
-      <c r="AGT65" s="0"/>
-      <c r="AGU65" s="0"/>
-      <c r="AGV65" s="0"/>
-      <c r="AGW65" s="0"/>
-      <c r="AGX65" s="0"/>
-      <c r="AGY65" s="0"/>
-      <c r="AGZ65" s="0"/>
-      <c r="AHA65" s="0"/>
-      <c r="AHB65" s="0"/>
-      <c r="AHC65" s="0"/>
-      <c r="AHD65" s="0"/>
-      <c r="AHE65" s="0"/>
-      <c r="AHF65" s="0"/>
-      <c r="AHG65" s="0"/>
-      <c r="AHH65" s="0"/>
-      <c r="AHI65" s="0"/>
-      <c r="AHJ65" s="0"/>
-      <c r="AHK65" s="0"/>
-      <c r="AHL65" s="0"/>
-      <c r="AHM65" s="0"/>
-      <c r="AHN65" s="0"/>
-      <c r="AHO65" s="0"/>
-      <c r="AHP65" s="0"/>
-      <c r="AHQ65" s="0"/>
-      <c r="AHR65" s="0"/>
-      <c r="AHS65" s="0"/>
-      <c r="AHT65" s="0"/>
-      <c r="AHU65" s="0"/>
-      <c r="AHV65" s="0"/>
-      <c r="AHW65" s="0"/>
-      <c r="AHX65" s="0"/>
-      <c r="AHY65" s="0"/>
-      <c r="AHZ65" s="0"/>
-      <c r="AIA65" s="0"/>
-      <c r="AIB65" s="0"/>
-      <c r="AIC65" s="0"/>
-      <c r="AID65" s="0"/>
-      <c r="AIE65" s="0"/>
-      <c r="AIF65" s="0"/>
-      <c r="AIG65" s="0"/>
-      <c r="AIH65" s="0"/>
-      <c r="AII65" s="0"/>
-      <c r="AIJ65" s="0"/>
-      <c r="AIK65" s="0"/>
-      <c r="AIL65" s="0"/>
-      <c r="AIM65" s="0"/>
-      <c r="AIN65" s="0"/>
-      <c r="AIO65" s="0"/>
-      <c r="AIP65" s="0"/>
-      <c r="AIQ65" s="0"/>
-      <c r="AIR65" s="0"/>
-      <c r="AIS65" s="0"/>
-      <c r="AIT65" s="0"/>
-      <c r="AIU65" s="0"/>
-      <c r="AIV65" s="0"/>
-      <c r="AIW65" s="0"/>
-      <c r="AIX65" s="0"/>
-      <c r="AIY65" s="0"/>
-      <c r="AIZ65" s="0"/>
-      <c r="AJA65" s="0"/>
-      <c r="AJB65" s="0"/>
-      <c r="AJC65" s="0"/>
-      <c r="AJD65" s="0"/>
-      <c r="AJE65" s="0"/>
-      <c r="AJF65" s="0"/>
-      <c r="AJG65" s="0"/>
-      <c r="AJH65" s="0"/>
-      <c r="AJI65" s="0"/>
-      <c r="AJJ65" s="0"/>
-      <c r="AJK65" s="0"/>
-      <c r="AJL65" s="0"/>
-      <c r="AJM65" s="0"/>
-      <c r="AJN65" s="0"/>
-      <c r="AJO65" s="0"/>
-      <c r="AJP65" s="0"/>
-      <c r="AJQ65" s="0"/>
-      <c r="AJR65" s="0"/>
-      <c r="AJS65" s="0"/>
-      <c r="AJT65" s="0"/>
-      <c r="AJU65" s="0"/>
-      <c r="AJV65" s="0"/>
-      <c r="AJW65" s="0"/>
-      <c r="AJX65" s="0"/>
-      <c r="AJY65" s="0"/>
-      <c r="AJZ65" s="0"/>
-      <c r="AKA65" s="0"/>
-      <c r="AKB65" s="0"/>
-      <c r="AKC65" s="0"/>
-      <c r="AKD65" s="0"/>
-      <c r="AKE65" s="0"/>
-      <c r="AKF65" s="0"/>
-      <c r="AKG65" s="0"/>
-      <c r="AKH65" s="0"/>
-      <c r="AKI65" s="0"/>
-      <c r="AKJ65" s="0"/>
-      <c r="AKK65" s="0"/>
-      <c r="AKL65" s="0"/>
-      <c r="AKM65" s="0"/>
-      <c r="AKN65" s="0"/>
-      <c r="AKO65" s="0"/>
-      <c r="AKP65" s="0"/>
-      <c r="AKQ65" s="0"/>
-      <c r="AKR65" s="0"/>
-      <c r="AKS65" s="0"/>
-      <c r="AKT65" s="0"/>
-      <c r="AKU65" s="0"/>
-      <c r="AKV65" s="0"/>
-      <c r="AKW65" s="0"/>
-      <c r="AKX65" s="0"/>
-      <c r="AKY65" s="0"/>
-      <c r="AKZ65" s="0"/>
-      <c r="ALA65" s="0"/>
-      <c r="ALB65" s="0"/>
-      <c r="ALC65" s="0"/>
-      <c r="ALD65" s="0"/>
-      <c r="ALE65" s="0"/>
-      <c r="ALF65" s="0"/>
-      <c r="ALG65" s="0"/>
-      <c r="ALH65" s="0"/>
-      <c r="ALI65" s="0"/>
-      <c r="ALJ65" s="0"/>
-      <c r="ALK65" s="0"/>
-      <c r="ALL65" s="0"/>
-      <c r="ALM65" s="0"/>
-      <c r="ALN65" s="0"/>
-      <c r="ALO65" s="0"/>
-      <c r="ALP65" s="0"/>
-      <c r="ALQ65" s="0"/>
-      <c r="ALR65" s="0"/>
-      <c r="ALS65" s="0"/>
-      <c r="ALT65" s="0"/>
-      <c r="ALU65" s="0"/>
-      <c r="ALV65" s="0"/>
-      <c r="ALW65" s="0"/>
-      <c r="ALX65" s="0"/>
-      <c r="ALY65" s="0"/>
-      <c r="ALZ65" s="0"/>
-      <c r="AMA65" s="0"/>
-      <c r="AMB65" s="0"/>
-      <c r="AMC65" s="0"/>
-      <c r="AMD65" s="0"/>
-      <c r="AME65" s="0"/>
-      <c r="AMF65" s="0"/>
-      <c r="AMG65" s="0"/>
-      <c r="AMH65" s="0"/>
-      <c r="AMI65" s="0"/>
-      <c r="AMJ65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0"/>
-      <c r="B66" s="29" t="s">
-        <v>199</v>
+      <c r="B66" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="C66" s="0"/>
       <c r="D66" s="0"/>
       <c r="E66" s="0"/>
       <c r="F66" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>195</v>
       </c>
       <c r="I66" s="0"/>
-      <c r="J66" s="1" t="s">
-        <v>202</v>
+      <c r="J66" s="29" t="s">
+        <v>196</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="L66" s="0"/>
       <c r="M66" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N66" s="0"/>
       <c r="O66" s="0"/>
@@ -48708,26 +48637,32 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
-      <c r="B67" s="29" t="s">
-        <v>204</v>
+      <c r="B67" s="27" t="s">
+        <v>199</v>
       </c>
       <c r="C67" s="0"/>
       <c r="D67" s="0"/>
       <c r="E67" s="0"/>
-      <c r="F67" s="0"/>
-      <c r="G67" s="16" t="s">
+      <c r="F67" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H67" s="0"/>
+      <c r="G67" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="I67" s="0"/>
       <c r="J67" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L67" s="0"/>
-      <c r="M67" s="0"/>
+      <c r="M67" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="N67" s="0"/>
       <c r="O67" s="0"/>
       <c r="P67" s="0"/>
@@ -49742,20 +49677,24 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
-      <c r="B68" s="29" t="s">
-        <v>206</v>
+      <c r="B68" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="C68" s="0"/>
       <c r="D68" s="0"/>
       <c r="E68" s="0"/>
       <c r="F68" s="0"/>
-      <c r="G68" s="0"/>
+      <c r="G68" s="15" t="s">
+        <v>138</v>
+      </c>
       <c r="H68" s="0"/>
       <c r="I68" s="0"/>
-      <c r="J68" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="K68" s="0"/>
+      <c r="J68" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="L68" s="0"/>
       <c r="M68" s="0"/>
       <c r="N68" s="0"/>
@@ -50772,18 +50711,18 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0"/>
-      <c r="B69" s="29" t="s">
-        <v>208</v>
+      <c r="B69" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="C69" s="0"/>
       <c r="D69" s="0"/>
       <c r="E69" s="0"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
       <c r="H69" s="0"/>
       <c r="I69" s="0"/>
-      <c r="J69" s="40" t="s">
-        <v>209</v>
+      <c r="J69" s="35" t="s">
+        <v>207</v>
       </c>
       <c r="K69" s="0"/>
       <c r="L69" s="0"/>
@@ -51802,16 +51741,18 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
-      <c r="B70" s="0"/>
+      <c r="B70" s="27" t="s">
+        <v>208</v>
+      </c>
       <c r="C70" s="0"/>
       <c r="D70" s="0"/>
       <c r="E70" s="0"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
       <c r="H70" s="0"/>
       <c r="I70" s="0"/>
-      <c r="J70" s="40" t="s">
-        <v>210</v>
+      <c r="J70" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="K70" s="0"/>
       <c r="L70" s="0"/>
@@ -52830,117 +52771,2160 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
-      <c r="B71" s="29"/>
+      <c r="B71" s="0"/>
       <c r="C71" s="0"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
-      <c r="F71" s="0"/>
-      <c r="G71" s="0"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
       <c r="H71" s="0"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="0"/>
+      <c r="I71" s="0"/>
+      <c r="J71" s="35" t="s">
+        <v>210</v>
+      </c>
       <c r="K71" s="0"/>
       <c r="L71" s="0"/>
       <c r="M71" s="0"/>
+      <c r="N71" s="0"/>
+      <c r="O71" s="0"/>
+      <c r="P71" s="0"/>
+      <c r="Q71" s="0"/>
+      <c r="R71" s="0"/>
+      <c r="S71" s="0"/>
+      <c r="T71" s="0"/>
+      <c r="U71" s="0"/>
+      <c r="V71" s="0"/>
+      <c r="W71" s="0"/>
+      <c r="X71" s="0"/>
+      <c r="Y71" s="0"/>
+      <c r="Z71" s="0"/>
+      <c r="AA71" s="0"/>
+      <c r="AB71" s="0"/>
+      <c r="AC71" s="0"/>
+      <c r="AD71" s="0"/>
+      <c r="AE71" s="0"/>
+      <c r="AF71" s="0"/>
+      <c r="AG71" s="0"/>
+      <c r="AH71" s="0"/>
+      <c r="AI71" s="0"/>
+      <c r="AJ71" s="0"/>
+      <c r="AK71" s="0"/>
+      <c r="AL71" s="0"/>
+      <c r="AM71" s="0"/>
+      <c r="AN71" s="0"/>
+      <c r="AO71" s="0"/>
+      <c r="AP71" s="0"/>
+      <c r="AQ71" s="0"/>
+      <c r="AR71" s="0"/>
+      <c r="AS71" s="0"/>
+      <c r="AT71" s="0"/>
+      <c r="AU71" s="0"/>
+      <c r="AV71" s="0"/>
+      <c r="AW71" s="0"/>
+      <c r="AX71" s="0"/>
+      <c r="AY71" s="0"/>
+      <c r="AZ71" s="0"/>
+      <c r="BA71" s="0"/>
+      <c r="BB71" s="0"/>
+      <c r="BC71" s="0"/>
+      <c r="BD71" s="0"/>
+      <c r="BE71" s="0"/>
+      <c r="BF71" s="0"/>
+      <c r="BG71" s="0"/>
+      <c r="BH71" s="0"/>
+      <c r="BI71" s="0"/>
+      <c r="BJ71" s="0"/>
+      <c r="BK71" s="0"/>
+      <c r="BL71" s="0"/>
+      <c r="BM71" s="0"/>
+      <c r="BN71" s="0"/>
+      <c r="BO71" s="0"/>
+      <c r="BP71" s="0"/>
+      <c r="BQ71" s="0"/>
+      <c r="BR71" s="0"/>
+      <c r="BS71" s="0"/>
+      <c r="BT71" s="0"/>
+      <c r="BU71" s="0"/>
+      <c r="BV71" s="0"/>
+      <c r="BW71" s="0"/>
+      <c r="BX71" s="0"/>
+      <c r="BY71" s="0"/>
+      <c r="BZ71" s="0"/>
+      <c r="CA71" s="0"/>
+      <c r="CB71" s="0"/>
+      <c r="CC71" s="0"/>
+      <c r="CD71" s="0"/>
+      <c r="CE71" s="0"/>
+      <c r="CF71" s="0"/>
+      <c r="CG71" s="0"/>
+      <c r="CH71" s="0"/>
+      <c r="CI71" s="0"/>
+      <c r="CJ71" s="0"/>
+      <c r="CK71" s="0"/>
+      <c r="CL71" s="0"/>
+      <c r="CM71" s="0"/>
+      <c r="CN71" s="0"/>
+      <c r="CO71" s="0"/>
+      <c r="CP71" s="0"/>
+      <c r="CQ71" s="0"/>
+      <c r="CR71" s="0"/>
+      <c r="CS71" s="0"/>
+      <c r="CT71" s="0"/>
+      <c r="CU71" s="0"/>
+      <c r="CV71" s="0"/>
+      <c r="CW71" s="0"/>
+      <c r="CX71" s="0"/>
+      <c r="CY71" s="0"/>
+      <c r="CZ71" s="0"/>
+      <c r="DA71" s="0"/>
+      <c r="DB71" s="0"/>
+      <c r="DC71" s="0"/>
+      <c r="DD71" s="0"/>
+      <c r="DE71" s="0"/>
+      <c r="DF71" s="0"/>
+      <c r="DG71" s="0"/>
+      <c r="DH71" s="0"/>
+      <c r="DI71" s="0"/>
+      <c r="DJ71" s="0"/>
+      <c r="DK71" s="0"/>
+      <c r="DL71" s="0"/>
+      <c r="DM71" s="0"/>
+      <c r="DN71" s="0"/>
+      <c r="DO71" s="0"/>
+      <c r="DP71" s="0"/>
+      <c r="DQ71" s="0"/>
+      <c r="DR71" s="0"/>
+      <c r="DS71" s="0"/>
+      <c r="DT71" s="0"/>
+      <c r="DU71" s="0"/>
+      <c r="DV71" s="0"/>
+      <c r="DW71" s="0"/>
+      <c r="DX71" s="0"/>
+      <c r="DY71" s="0"/>
+      <c r="DZ71" s="0"/>
+      <c r="EA71" s="0"/>
+      <c r="EB71" s="0"/>
+      <c r="EC71" s="0"/>
+      <c r="ED71" s="0"/>
+      <c r="EE71" s="0"/>
+      <c r="EF71" s="0"/>
+      <c r="EG71" s="0"/>
+      <c r="EH71" s="0"/>
+      <c r="EI71" s="0"/>
+      <c r="EJ71" s="0"/>
+      <c r="EK71" s="0"/>
+      <c r="EL71" s="0"/>
+      <c r="EM71" s="0"/>
+      <c r="EN71" s="0"/>
+      <c r="EO71" s="0"/>
+      <c r="EP71" s="0"/>
+      <c r="EQ71" s="0"/>
+      <c r="ER71" s="0"/>
+      <c r="ES71" s="0"/>
+      <c r="ET71" s="0"/>
+      <c r="EU71" s="0"/>
+      <c r="EV71" s="0"/>
+      <c r="EW71" s="0"/>
+      <c r="EX71" s="0"/>
+      <c r="EY71" s="0"/>
+      <c r="EZ71" s="0"/>
+      <c r="FA71" s="0"/>
+      <c r="FB71" s="0"/>
+      <c r="FC71" s="0"/>
+      <c r="FD71" s="0"/>
+      <c r="FE71" s="0"/>
+      <c r="FF71" s="0"/>
+      <c r="FG71" s="0"/>
+      <c r="FH71" s="0"/>
+      <c r="FI71" s="0"/>
+      <c r="FJ71" s="0"/>
+      <c r="FK71" s="0"/>
+      <c r="FL71" s="0"/>
+      <c r="FM71" s="0"/>
+      <c r="FN71" s="0"/>
+      <c r="FO71" s="0"/>
+      <c r="FP71" s="0"/>
+      <c r="FQ71" s="0"/>
+      <c r="FR71" s="0"/>
+      <c r="FS71" s="0"/>
+      <c r="FT71" s="0"/>
+      <c r="FU71" s="0"/>
+      <c r="FV71" s="0"/>
+      <c r="FW71" s="0"/>
+      <c r="FX71" s="0"/>
+      <c r="FY71" s="0"/>
+      <c r="FZ71" s="0"/>
+      <c r="GA71" s="0"/>
+      <c r="GB71" s="0"/>
+      <c r="GC71" s="0"/>
+      <c r="GD71" s="0"/>
+      <c r="GE71" s="0"/>
+      <c r="GF71" s="0"/>
+      <c r="GG71" s="0"/>
+      <c r="GH71" s="0"/>
+      <c r="GI71" s="0"/>
+      <c r="GJ71" s="0"/>
+      <c r="GK71" s="0"/>
+      <c r="GL71" s="0"/>
+      <c r="GM71" s="0"/>
+      <c r="GN71" s="0"/>
+      <c r="GO71" s="0"/>
+      <c r="GP71" s="0"/>
+      <c r="GQ71" s="0"/>
+      <c r="GR71" s="0"/>
+      <c r="GS71" s="0"/>
+      <c r="GT71" s="0"/>
+      <c r="GU71" s="0"/>
+      <c r="GV71" s="0"/>
+      <c r="GW71" s="0"/>
+      <c r="GX71" s="0"/>
+      <c r="GY71" s="0"/>
+      <c r="GZ71" s="0"/>
+      <c r="HA71" s="0"/>
+      <c r="HB71" s="0"/>
+      <c r="HC71" s="0"/>
+      <c r="HD71" s="0"/>
+      <c r="HE71" s="0"/>
+      <c r="HF71" s="0"/>
+      <c r="HG71" s="0"/>
+      <c r="HH71" s="0"/>
+      <c r="HI71" s="0"/>
+      <c r="HJ71" s="0"/>
+      <c r="HK71" s="0"/>
+      <c r="HL71" s="0"/>
+      <c r="HM71" s="0"/>
+      <c r="HN71" s="0"/>
+      <c r="HO71" s="0"/>
+      <c r="HP71" s="0"/>
+      <c r="HQ71" s="0"/>
+      <c r="HR71" s="0"/>
+      <c r="HS71" s="0"/>
+      <c r="HT71" s="0"/>
+      <c r="HU71" s="0"/>
+      <c r="HV71" s="0"/>
+      <c r="HW71" s="0"/>
+      <c r="HX71" s="0"/>
+      <c r="HY71" s="0"/>
+      <c r="HZ71" s="0"/>
+      <c r="IA71" s="0"/>
+      <c r="IB71" s="0"/>
+      <c r="IC71" s="0"/>
+      <c r="ID71" s="0"/>
+      <c r="IE71" s="0"/>
+      <c r="IF71" s="0"/>
+      <c r="IG71" s="0"/>
+      <c r="IH71" s="0"/>
+      <c r="II71" s="0"/>
+      <c r="IJ71" s="0"/>
+      <c r="IK71" s="0"/>
+      <c r="IL71" s="0"/>
+      <c r="IM71" s="0"/>
+      <c r="IN71" s="0"/>
+      <c r="IO71" s="0"/>
+      <c r="IP71" s="0"/>
+      <c r="IQ71" s="0"/>
+      <c r="IR71" s="0"/>
+      <c r="IS71" s="0"/>
+      <c r="IT71" s="0"/>
+      <c r="IU71" s="0"/>
+      <c r="IV71" s="0"/>
+      <c r="IW71" s="0"/>
+      <c r="IX71" s="0"/>
+      <c r="IY71" s="0"/>
+      <c r="IZ71" s="0"/>
+      <c r="JA71" s="0"/>
+      <c r="JB71" s="0"/>
+      <c r="JC71" s="0"/>
+      <c r="JD71" s="0"/>
+      <c r="JE71" s="0"/>
+      <c r="JF71" s="0"/>
+      <c r="JG71" s="0"/>
+      <c r="JH71" s="0"/>
+      <c r="JI71" s="0"/>
+      <c r="JJ71" s="0"/>
+      <c r="JK71" s="0"/>
+      <c r="JL71" s="0"/>
+      <c r="JM71" s="0"/>
+      <c r="JN71" s="0"/>
+      <c r="JO71" s="0"/>
+      <c r="JP71" s="0"/>
+      <c r="JQ71" s="0"/>
+      <c r="JR71" s="0"/>
+      <c r="JS71" s="0"/>
+      <c r="JT71" s="0"/>
+      <c r="JU71" s="0"/>
+      <c r="JV71" s="0"/>
+      <c r="JW71" s="0"/>
+      <c r="JX71" s="0"/>
+      <c r="JY71" s="0"/>
+      <c r="JZ71" s="0"/>
+      <c r="KA71" s="0"/>
+      <c r="KB71" s="0"/>
+      <c r="KC71" s="0"/>
+      <c r="KD71" s="0"/>
+      <c r="KE71" s="0"/>
+      <c r="KF71" s="0"/>
+      <c r="KG71" s="0"/>
+      <c r="KH71" s="0"/>
+      <c r="KI71" s="0"/>
+      <c r="KJ71" s="0"/>
+      <c r="KK71" s="0"/>
+      <c r="KL71" s="0"/>
+      <c r="KM71" s="0"/>
+      <c r="KN71" s="0"/>
+      <c r="KO71" s="0"/>
+      <c r="KP71" s="0"/>
+      <c r="KQ71" s="0"/>
+      <c r="KR71" s="0"/>
+      <c r="KS71" s="0"/>
+      <c r="KT71" s="0"/>
+      <c r="KU71" s="0"/>
+      <c r="KV71" s="0"/>
+      <c r="KW71" s="0"/>
+      <c r="KX71" s="0"/>
+      <c r="KY71" s="0"/>
+      <c r="KZ71" s="0"/>
+      <c r="LA71" s="0"/>
+      <c r="LB71" s="0"/>
+      <c r="LC71" s="0"/>
+      <c r="LD71" s="0"/>
+      <c r="LE71" s="0"/>
+      <c r="LF71" s="0"/>
+      <c r="LG71" s="0"/>
+      <c r="LH71" s="0"/>
+      <c r="LI71" s="0"/>
+      <c r="LJ71" s="0"/>
+      <c r="LK71" s="0"/>
+      <c r="LL71" s="0"/>
+      <c r="LM71" s="0"/>
+      <c r="LN71" s="0"/>
+      <c r="LO71" s="0"/>
+      <c r="LP71" s="0"/>
+      <c r="LQ71" s="0"/>
+      <c r="LR71" s="0"/>
+      <c r="LS71" s="0"/>
+      <c r="LT71" s="0"/>
+      <c r="LU71" s="0"/>
+      <c r="LV71" s="0"/>
+      <c r="LW71" s="0"/>
+      <c r="LX71" s="0"/>
+      <c r="LY71" s="0"/>
+      <c r="LZ71" s="0"/>
+      <c r="MA71" s="0"/>
+      <c r="MB71" s="0"/>
+      <c r="MC71" s="0"/>
+      <c r="MD71" s="0"/>
+      <c r="ME71" s="0"/>
+      <c r="MF71" s="0"/>
+      <c r="MG71" s="0"/>
+      <c r="MH71" s="0"/>
+      <c r="MI71" s="0"/>
+      <c r="MJ71" s="0"/>
+      <c r="MK71" s="0"/>
+      <c r="ML71" s="0"/>
+      <c r="MM71" s="0"/>
+      <c r="MN71" s="0"/>
+      <c r="MO71" s="0"/>
+      <c r="MP71" s="0"/>
+      <c r="MQ71" s="0"/>
+      <c r="MR71" s="0"/>
+      <c r="MS71" s="0"/>
+      <c r="MT71" s="0"/>
+      <c r="MU71" s="0"/>
+      <c r="MV71" s="0"/>
+      <c r="MW71" s="0"/>
+      <c r="MX71" s="0"/>
+      <c r="MY71" s="0"/>
+      <c r="MZ71" s="0"/>
+      <c r="NA71" s="0"/>
+      <c r="NB71" s="0"/>
+      <c r="NC71" s="0"/>
+      <c r="ND71" s="0"/>
+      <c r="NE71" s="0"/>
+      <c r="NF71" s="0"/>
+      <c r="NG71" s="0"/>
+      <c r="NH71" s="0"/>
+      <c r="NI71" s="0"/>
+      <c r="NJ71" s="0"/>
+      <c r="NK71" s="0"/>
+      <c r="NL71" s="0"/>
+      <c r="NM71" s="0"/>
+      <c r="NN71" s="0"/>
+      <c r="NO71" s="0"/>
+      <c r="NP71" s="0"/>
+      <c r="NQ71" s="0"/>
+      <c r="NR71" s="0"/>
+      <c r="NS71" s="0"/>
+      <c r="NT71" s="0"/>
+      <c r="NU71" s="0"/>
+      <c r="NV71" s="0"/>
+      <c r="NW71" s="0"/>
+      <c r="NX71" s="0"/>
+      <c r="NY71" s="0"/>
+      <c r="NZ71" s="0"/>
+      <c r="OA71" s="0"/>
+      <c r="OB71" s="0"/>
+      <c r="OC71" s="0"/>
+      <c r="OD71" s="0"/>
+      <c r="OE71" s="0"/>
+      <c r="OF71" s="0"/>
+      <c r="OG71" s="0"/>
+      <c r="OH71" s="0"/>
+      <c r="OI71" s="0"/>
+      <c r="OJ71" s="0"/>
+      <c r="OK71" s="0"/>
+      <c r="OL71" s="0"/>
+      <c r="OM71" s="0"/>
+      <c r="ON71" s="0"/>
+      <c r="OO71" s="0"/>
+      <c r="OP71" s="0"/>
+      <c r="OQ71" s="0"/>
+      <c r="OR71" s="0"/>
+      <c r="OS71" s="0"/>
+      <c r="OT71" s="0"/>
+      <c r="OU71" s="0"/>
+      <c r="OV71" s="0"/>
+      <c r="OW71" s="0"/>
+      <c r="OX71" s="0"/>
+      <c r="OY71" s="0"/>
+      <c r="OZ71" s="0"/>
+      <c r="PA71" s="0"/>
+      <c r="PB71" s="0"/>
+      <c r="PC71" s="0"/>
+      <c r="PD71" s="0"/>
+      <c r="PE71" s="0"/>
+      <c r="PF71" s="0"/>
+      <c r="PG71" s="0"/>
+      <c r="PH71" s="0"/>
+      <c r="PI71" s="0"/>
+      <c r="PJ71" s="0"/>
+      <c r="PK71" s="0"/>
+      <c r="PL71" s="0"/>
+      <c r="PM71" s="0"/>
+      <c r="PN71" s="0"/>
+      <c r="PO71" s="0"/>
+      <c r="PP71" s="0"/>
+      <c r="PQ71" s="0"/>
+      <c r="PR71" s="0"/>
+      <c r="PS71" s="0"/>
+      <c r="PT71" s="0"/>
+      <c r="PU71" s="0"/>
+      <c r="PV71" s="0"/>
+      <c r="PW71" s="0"/>
+      <c r="PX71" s="0"/>
+      <c r="PY71" s="0"/>
+      <c r="PZ71" s="0"/>
+      <c r="QA71" s="0"/>
+      <c r="QB71" s="0"/>
+      <c r="QC71" s="0"/>
+      <c r="QD71" s="0"/>
+      <c r="QE71" s="0"/>
+      <c r="QF71" s="0"/>
+      <c r="QG71" s="0"/>
+      <c r="QH71" s="0"/>
+      <c r="QI71" s="0"/>
+      <c r="QJ71" s="0"/>
+      <c r="QK71" s="0"/>
+      <c r="QL71" s="0"/>
+      <c r="QM71" s="0"/>
+      <c r="QN71" s="0"/>
+      <c r="QO71" s="0"/>
+      <c r="QP71" s="0"/>
+      <c r="QQ71" s="0"/>
+      <c r="QR71" s="0"/>
+      <c r="QS71" s="0"/>
+      <c r="QT71" s="0"/>
+      <c r="QU71" s="0"/>
+      <c r="QV71" s="0"/>
+      <c r="QW71" s="0"/>
+      <c r="QX71" s="0"/>
+      <c r="QY71" s="0"/>
+      <c r="QZ71" s="0"/>
+      <c r="RA71" s="0"/>
+      <c r="RB71" s="0"/>
+      <c r="RC71" s="0"/>
+      <c r="RD71" s="0"/>
+      <c r="RE71" s="0"/>
+      <c r="RF71" s="0"/>
+      <c r="RG71" s="0"/>
+      <c r="RH71" s="0"/>
+      <c r="RI71" s="0"/>
+      <c r="RJ71" s="0"/>
+      <c r="RK71" s="0"/>
+      <c r="RL71" s="0"/>
+      <c r="RM71" s="0"/>
+      <c r="RN71" s="0"/>
+      <c r="RO71" s="0"/>
+      <c r="RP71" s="0"/>
+      <c r="RQ71" s="0"/>
+      <c r="RR71" s="0"/>
+      <c r="RS71" s="0"/>
+      <c r="RT71" s="0"/>
+      <c r="RU71" s="0"/>
+      <c r="RV71" s="0"/>
+      <c r="RW71" s="0"/>
+      <c r="RX71" s="0"/>
+      <c r="RY71" s="0"/>
+      <c r="RZ71" s="0"/>
+      <c r="SA71" s="0"/>
+      <c r="SB71" s="0"/>
+      <c r="SC71" s="0"/>
+      <c r="SD71" s="0"/>
+      <c r="SE71" s="0"/>
+      <c r="SF71" s="0"/>
+      <c r="SG71" s="0"/>
+      <c r="SH71" s="0"/>
+      <c r="SI71" s="0"/>
+      <c r="SJ71" s="0"/>
+      <c r="SK71" s="0"/>
+      <c r="SL71" s="0"/>
+      <c r="SM71" s="0"/>
+      <c r="SN71" s="0"/>
+      <c r="SO71" s="0"/>
+      <c r="SP71" s="0"/>
+      <c r="SQ71" s="0"/>
+      <c r="SR71" s="0"/>
+      <c r="SS71" s="0"/>
+      <c r="ST71" s="0"/>
+      <c r="SU71" s="0"/>
+      <c r="SV71" s="0"/>
+      <c r="SW71" s="0"/>
+      <c r="SX71" s="0"/>
+      <c r="SY71" s="0"/>
+      <c r="SZ71" s="0"/>
+      <c r="TA71" s="0"/>
+      <c r="TB71" s="0"/>
+      <c r="TC71" s="0"/>
+      <c r="TD71" s="0"/>
+      <c r="TE71" s="0"/>
+      <c r="TF71" s="0"/>
+      <c r="TG71" s="0"/>
+      <c r="TH71" s="0"/>
+      <c r="TI71" s="0"/>
+      <c r="TJ71" s="0"/>
+      <c r="TK71" s="0"/>
+      <c r="TL71" s="0"/>
+      <c r="TM71" s="0"/>
+      <c r="TN71" s="0"/>
+      <c r="TO71" s="0"/>
+      <c r="TP71" s="0"/>
+      <c r="TQ71" s="0"/>
+      <c r="TR71" s="0"/>
+      <c r="TS71" s="0"/>
+      <c r="TT71" s="0"/>
+      <c r="TU71" s="0"/>
+      <c r="TV71" s="0"/>
+      <c r="TW71" s="0"/>
+      <c r="TX71" s="0"/>
+      <c r="TY71" s="0"/>
+      <c r="TZ71" s="0"/>
+      <c r="UA71" s="0"/>
+      <c r="UB71" s="0"/>
+      <c r="UC71" s="0"/>
+      <c r="UD71" s="0"/>
+      <c r="UE71" s="0"/>
+      <c r="UF71" s="0"/>
+      <c r="UG71" s="0"/>
+      <c r="UH71" s="0"/>
+      <c r="UI71" s="0"/>
+      <c r="UJ71" s="0"/>
+      <c r="UK71" s="0"/>
+      <c r="UL71" s="0"/>
+      <c r="UM71" s="0"/>
+      <c r="UN71" s="0"/>
+      <c r="UO71" s="0"/>
+      <c r="UP71" s="0"/>
+      <c r="UQ71" s="0"/>
+      <c r="UR71" s="0"/>
+      <c r="US71" s="0"/>
+      <c r="UT71" s="0"/>
+      <c r="UU71" s="0"/>
+      <c r="UV71" s="0"/>
+      <c r="UW71" s="0"/>
+      <c r="UX71" s="0"/>
+      <c r="UY71" s="0"/>
+      <c r="UZ71" s="0"/>
+      <c r="VA71" s="0"/>
+      <c r="VB71" s="0"/>
+      <c r="VC71" s="0"/>
+      <c r="VD71" s="0"/>
+      <c r="VE71" s="0"/>
+      <c r="VF71" s="0"/>
+      <c r="VG71" s="0"/>
+      <c r="VH71" s="0"/>
+      <c r="VI71" s="0"/>
+      <c r="VJ71" s="0"/>
+      <c r="VK71" s="0"/>
+      <c r="VL71" s="0"/>
+      <c r="VM71" s="0"/>
+      <c r="VN71" s="0"/>
+      <c r="VO71" s="0"/>
+      <c r="VP71" s="0"/>
+      <c r="VQ71" s="0"/>
+      <c r="VR71" s="0"/>
+      <c r="VS71" s="0"/>
+      <c r="VT71" s="0"/>
+      <c r="VU71" s="0"/>
+      <c r="VV71" s="0"/>
+      <c r="VW71" s="0"/>
+      <c r="VX71" s="0"/>
+      <c r="VY71" s="0"/>
+      <c r="VZ71" s="0"/>
+      <c r="WA71" s="0"/>
+      <c r="WB71" s="0"/>
+      <c r="WC71" s="0"/>
+      <c r="WD71" s="0"/>
+      <c r="WE71" s="0"/>
+      <c r="WF71" s="0"/>
+      <c r="WG71" s="0"/>
+      <c r="WH71" s="0"/>
+      <c r="WI71" s="0"/>
+      <c r="WJ71" s="0"/>
+      <c r="WK71" s="0"/>
+      <c r="WL71" s="0"/>
+      <c r="WM71" s="0"/>
+      <c r="WN71" s="0"/>
+      <c r="WO71" s="0"/>
+      <c r="WP71" s="0"/>
+      <c r="WQ71" s="0"/>
+      <c r="WR71" s="0"/>
+      <c r="WS71" s="0"/>
+      <c r="WT71" s="0"/>
+      <c r="WU71" s="0"/>
+      <c r="WV71" s="0"/>
+      <c r="WW71" s="0"/>
+      <c r="WX71" s="0"/>
+      <c r="WY71" s="0"/>
+      <c r="WZ71" s="0"/>
+      <c r="XA71" s="0"/>
+      <c r="XB71" s="0"/>
+      <c r="XC71" s="0"/>
+      <c r="XD71" s="0"/>
+      <c r="XE71" s="0"/>
+      <c r="XF71" s="0"/>
+      <c r="XG71" s="0"/>
+      <c r="XH71" s="0"/>
+      <c r="XI71" s="0"/>
+      <c r="XJ71" s="0"/>
+      <c r="XK71" s="0"/>
+      <c r="XL71" s="0"/>
+      <c r="XM71" s="0"/>
+      <c r="XN71" s="0"/>
+      <c r="XO71" s="0"/>
+      <c r="XP71" s="0"/>
+      <c r="XQ71" s="0"/>
+      <c r="XR71" s="0"/>
+      <c r="XS71" s="0"/>
+      <c r="XT71" s="0"/>
+      <c r="XU71" s="0"/>
+      <c r="XV71" s="0"/>
+      <c r="XW71" s="0"/>
+      <c r="XX71" s="0"/>
+      <c r="XY71" s="0"/>
+      <c r="XZ71" s="0"/>
+      <c r="YA71" s="0"/>
+      <c r="YB71" s="0"/>
+      <c r="YC71" s="0"/>
+      <c r="YD71" s="0"/>
+      <c r="YE71" s="0"/>
+      <c r="YF71" s="0"/>
+      <c r="YG71" s="0"/>
+      <c r="YH71" s="0"/>
+      <c r="YI71" s="0"/>
+      <c r="YJ71" s="0"/>
+      <c r="YK71" s="0"/>
+      <c r="YL71" s="0"/>
+      <c r="YM71" s="0"/>
+      <c r="YN71" s="0"/>
+      <c r="YO71" s="0"/>
+      <c r="YP71" s="0"/>
+      <c r="YQ71" s="0"/>
+      <c r="YR71" s="0"/>
+      <c r="YS71" s="0"/>
+      <c r="YT71" s="0"/>
+      <c r="YU71" s="0"/>
+      <c r="YV71" s="0"/>
+      <c r="YW71" s="0"/>
+      <c r="YX71" s="0"/>
+      <c r="YY71" s="0"/>
+      <c r="YZ71" s="0"/>
+      <c r="ZA71" s="0"/>
+      <c r="ZB71" s="0"/>
+      <c r="ZC71" s="0"/>
+      <c r="ZD71" s="0"/>
+      <c r="ZE71" s="0"/>
+      <c r="ZF71" s="0"/>
+      <c r="ZG71" s="0"/>
+      <c r="ZH71" s="0"/>
+      <c r="ZI71" s="0"/>
+      <c r="ZJ71" s="0"/>
+      <c r="ZK71" s="0"/>
+      <c r="ZL71" s="0"/>
+      <c r="ZM71" s="0"/>
+      <c r="ZN71" s="0"/>
+      <c r="ZO71" s="0"/>
+      <c r="ZP71" s="0"/>
+      <c r="ZQ71" s="0"/>
+      <c r="ZR71" s="0"/>
+      <c r="ZS71" s="0"/>
+      <c r="ZT71" s="0"/>
+      <c r="ZU71" s="0"/>
+      <c r="ZV71" s="0"/>
+      <c r="ZW71" s="0"/>
+      <c r="ZX71" s="0"/>
+      <c r="ZY71" s="0"/>
+      <c r="ZZ71" s="0"/>
+      <c r="AAA71" s="0"/>
+      <c r="AAB71" s="0"/>
+      <c r="AAC71" s="0"/>
+      <c r="AAD71" s="0"/>
+      <c r="AAE71" s="0"/>
+      <c r="AAF71" s="0"/>
+      <c r="AAG71" s="0"/>
+      <c r="AAH71" s="0"/>
+      <c r="AAI71" s="0"/>
+      <c r="AAJ71" s="0"/>
+      <c r="AAK71" s="0"/>
+      <c r="AAL71" s="0"/>
+      <c r="AAM71" s="0"/>
+      <c r="AAN71" s="0"/>
+      <c r="AAO71" s="0"/>
+      <c r="AAP71" s="0"/>
+      <c r="AAQ71" s="0"/>
+      <c r="AAR71" s="0"/>
+      <c r="AAS71" s="0"/>
+      <c r="AAT71" s="0"/>
+      <c r="AAU71" s="0"/>
+      <c r="AAV71" s="0"/>
+      <c r="AAW71" s="0"/>
+      <c r="AAX71" s="0"/>
+      <c r="AAY71" s="0"/>
+      <c r="AAZ71" s="0"/>
+      <c r="ABA71" s="0"/>
+      <c r="ABB71" s="0"/>
+      <c r="ABC71" s="0"/>
+      <c r="ABD71" s="0"/>
+      <c r="ABE71" s="0"/>
+      <c r="ABF71" s="0"/>
+      <c r="ABG71" s="0"/>
+      <c r="ABH71" s="0"/>
+      <c r="ABI71" s="0"/>
+      <c r="ABJ71" s="0"/>
+      <c r="ABK71" s="0"/>
+      <c r="ABL71" s="0"/>
+      <c r="ABM71" s="0"/>
+      <c r="ABN71" s="0"/>
+      <c r="ABO71" s="0"/>
+      <c r="ABP71" s="0"/>
+      <c r="ABQ71" s="0"/>
+      <c r="ABR71" s="0"/>
+      <c r="ABS71" s="0"/>
+      <c r="ABT71" s="0"/>
+      <c r="ABU71" s="0"/>
+      <c r="ABV71" s="0"/>
+      <c r="ABW71" s="0"/>
+      <c r="ABX71" s="0"/>
+      <c r="ABY71" s="0"/>
+      <c r="ABZ71" s="0"/>
+      <c r="ACA71" s="0"/>
+      <c r="ACB71" s="0"/>
+      <c r="ACC71" s="0"/>
+      <c r="ACD71" s="0"/>
+      <c r="ACE71" s="0"/>
+      <c r="ACF71" s="0"/>
+      <c r="ACG71" s="0"/>
+      <c r="ACH71" s="0"/>
+      <c r="ACI71" s="0"/>
+      <c r="ACJ71" s="0"/>
+      <c r="ACK71" s="0"/>
+      <c r="ACL71" s="0"/>
+      <c r="ACM71" s="0"/>
+      <c r="ACN71" s="0"/>
+      <c r="ACO71" s="0"/>
+      <c r="ACP71" s="0"/>
+      <c r="ACQ71" s="0"/>
+      <c r="ACR71" s="0"/>
+      <c r="ACS71" s="0"/>
+      <c r="ACT71" s="0"/>
+      <c r="ACU71" s="0"/>
+      <c r="ACV71" s="0"/>
+      <c r="ACW71" s="0"/>
+      <c r="ACX71" s="0"/>
+      <c r="ACY71" s="0"/>
+      <c r="ACZ71" s="0"/>
+      <c r="ADA71" s="0"/>
+      <c r="ADB71" s="0"/>
+      <c r="ADC71" s="0"/>
+      <c r="ADD71" s="0"/>
+      <c r="ADE71" s="0"/>
+      <c r="ADF71" s="0"/>
+      <c r="ADG71" s="0"/>
+      <c r="ADH71" s="0"/>
+      <c r="ADI71" s="0"/>
+      <c r="ADJ71" s="0"/>
+      <c r="ADK71" s="0"/>
+      <c r="ADL71" s="0"/>
+      <c r="ADM71" s="0"/>
+      <c r="ADN71" s="0"/>
+      <c r="ADO71" s="0"/>
+      <c r="ADP71" s="0"/>
+      <c r="ADQ71" s="0"/>
+      <c r="ADR71" s="0"/>
+      <c r="ADS71" s="0"/>
+      <c r="ADT71" s="0"/>
+      <c r="ADU71" s="0"/>
+      <c r="ADV71" s="0"/>
+      <c r="ADW71" s="0"/>
+      <c r="ADX71" s="0"/>
+      <c r="ADY71" s="0"/>
+      <c r="ADZ71" s="0"/>
+      <c r="AEA71" s="0"/>
+      <c r="AEB71" s="0"/>
+      <c r="AEC71" s="0"/>
+      <c r="AED71" s="0"/>
+      <c r="AEE71" s="0"/>
+      <c r="AEF71" s="0"/>
+      <c r="AEG71" s="0"/>
+      <c r="AEH71" s="0"/>
+      <c r="AEI71" s="0"/>
+      <c r="AEJ71" s="0"/>
+      <c r="AEK71" s="0"/>
+      <c r="AEL71" s="0"/>
+      <c r="AEM71" s="0"/>
+      <c r="AEN71" s="0"/>
+      <c r="AEO71" s="0"/>
+      <c r="AEP71" s="0"/>
+      <c r="AEQ71" s="0"/>
+      <c r="AER71" s="0"/>
+      <c r="AES71" s="0"/>
+      <c r="AET71" s="0"/>
+      <c r="AEU71" s="0"/>
+      <c r="AEV71" s="0"/>
+      <c r="AEW71" s="0"/>
+      <c r="AEX71" s="0"/>
+      <c r="AEY71" s="0"/>
+      <c r="AEZ71" s="0"/>
+      <c r="AFA71" s="0"/>
+      <c r="AFB71" s="0"/>
+      <c r="AFC71" s="0"/>
+      <c r="AFD71" s="0"/>
+      <c r="AFE71" s="0"/>
+      <c r="AFF71" s="0"/>
+      <c r="AFG71" s="0"/>
+      <c r="AFH71" s="0"/>
+      <c r="AFI71" s="0"/>
+      <c r="AFJ71" s="0"/>
+      <c r="AFK71" s="0"/>
+      <c r="AFL71" s="0"/>
+      <c r="AFM71" s="0"/>
+      <c r="AFN71" s="0"/>
+      <c r="AFO71" s="0"/>
+      <c r="AFP71" s="0"/>
+      <c r="AFQ71" s="0"/>
+      <c r="AFR71" s="0"/>
+      <c r="AFS71" s="0"/>
+      <c r="AFT71" s="0"/>
+      <c r="AFU71" s="0"/>
+      <c r="AFV71" s="0"/>
+      <c r="AFW71" s="0"/>
+      <c r="AFX71" s="0"/>
+      <c r="AFY71" s="0"/>
+      <c r="AFZ71" s="0"/>
+      <c r="AGA71" s="0"/>
+      <c r="AGB71" s="0"/>
+      <c r="AGC71" s="0"/>
+      <c r="AGD71" s="0"/>
+      <c r="AGE71" s="0"/>
+      <c r="AGF71" s="0"/>
+      <c r="AGG71" s="0"/>
+      <c r="AGH71" s="0"/>
+      <c r="AGI71" s="0"/>
+      <c r="AGJ71" s="0"/>
+      <c r="AGK71" s="0"/>
+      <c r="AGL71" s="0"/>
+      <c r="AGM71" s="0"/>
+      <c r="AGN71" s="0"/>
+      <c r="AGO71" s="0"/>
+      <c r="AGP71" s="0"/>
+      <c r="AGQ71" s="0"/>
+      <c r="AGR71" s="0"/>
+      <c r="AGS71" s="0"/>
+      <c r="AGT71" s="0"/>
+      <c r="AGU71" s="0"/>
+      <c r="AGV71" s="0"/>
+      <c r="AGW71" s="0"/>
+      <c r="AGX71" s="0"/>
+      <c r="AGY71" s="0"/>
+      <c r="AGZ71" s="0"/>
+      <c r="AHA71" s="0"/>
+      <c r="AHB71" s="0"/>
+      <c r="AHC71" s="0"/>
+      <c r="AHD71" s="0"/>
+      <c r="AHE71" s="0"/>
+      <c r="AHF71" s="0"/>
+      <c r="AHG71" s="0"/>
+      <c r="AHH71" s="0"/>
+      <c r="AHI71" s="0"/>
+      <c r="AHJ71" s="0"/>
+      <c r="AHK71" s="0"/>
+      <c r="AHL71" s="0"/>
+      <c r="AHM71" s="0"/>
+      <c r="AHN71" s="0"/>
+      <c r="AHO71" s="0"/>
+      <c r="AHP71" s="0"/>
+      <c r="AHQ71" s="0"/>
+      <c r="AHR71" s="0"/>
+      <c r="AHS71" s="0"/>
+      <c r="AHT71" s="0"/>
+      <c r="AHU71" s="0"/>
+      <c r="AHV71" s="0"/>
+      <c r="AHW71" s="0"/>
+      <c r="AHX71" s="0"/>
+      <c r="AHY71" s="0"/>
+      <c r="AHZ71" s="0"/>
+      <c r="AIA71" s="0"/>
+      <c r="AIB71" s="0"/>
+      <c r="AIC71" s="0"/>
+      <c r="AID71" s="0"/>
+      <c r="AIE71" s="0"/>
+      <c r="AIF71" s="0"/>
+      <c r="AIG71" s="0"/>
+      <c r="AIH71" s="0"/>
+      <c r="AII71" s="0"/>
+      <c r="AIJ71" s="0"/>
+      <c r="AIK71" s="0"/>
+      <c r="AIL71" s="0"/>
+      <c r="AIM71" s="0"/>
+      <c r="AIN71" s="0"/>
+      <c r="AIO71" s="0"/>
+      <c r="AIP71" s="0"/>
+      <c r="AIQ71" s="0"/>
+      <c r="AIR71" s="0"/>
+      <c r="AIS71" s="0"/>
+      <c r="AIT71" s="0"/>
+      <c r="AIU71" s="0"/>
+      <c r="AIV71" s="0"/>
+      <c r="AIW71" s="0"/>
+      <c r="AIX71" s="0"/>
+      <c r="AIY71" s="0"/>
+      <c r="AIZ71" s="0"/>
+      <c r="AJA71" s="0"/>
+      <c r="AJB71" s="0"/>
+      <c r="AJC71" s="0"/>
+      <c r="AJD71" s="0"/>
+      <c r="AJE71" s="0"/>
+      <c r="AJF71" s="0"/>
+      <c r="AJG71" s="0"/>
+      <c r="AJH71" s="0"/>
+      <c r="AJI71" s="0"/>
+      <c r="AJJ71" s="0"/>
+      <c r="AJK71" s="0"/>
+      <c r="AJL71" s="0"/>
+      <c r="AJM71" s="0"/>
+      <c r="AJN71" s="0"/>
+      <c r="AJO71" s="0"/>
+      <c r="AJP71" s="0"/>
+      <c r="AJQ71" s="0"/>
+      <c r="AJR71" s="0"/>
+      <c r="AJS71" s="0"/>
+      <c r="AJT71" s="0"/>
+      <c r="AJU71" s="0"/>
+      <c r="AJV71" s="0"/>
+      <c r="AJW71" s="0"/>
+      <c r="AJX71" s="0"/>
+      <c r="AJY71" s="0"/>
+      <c r="AJZ71" s="0"/>
+      <c r="AKA71" s="0"/>
+      <c r="AKB71" s="0"/>
+      <c r="AKC71" s="0"/>
+      <c r="AKD71" s="0"/>
+      <c r="AKE71" s="0"/>
+      <c r="AKF71" s="0"/>
+      <c r="AKG71" s="0"/>
+      <c r="AKH71" s="0"/>
+      <c r="AKI71" s="0"/>
+      <c r="AKJ71" s="0"/>
+      <c r="AKK71" s="0"/>
+      <c r="AKL71" s="0"/>
+      <c r="AKM71" s="0"/>
+      <c r="AKN71" s="0"/>
+      <c r="AKO71" s="0"/>
+      <c r="AKP71" s="0"/>
+      <c r="AKQ71" s="0"/>
+      <c r="AKR71" s="0"/>
+      <c r="AKS71" s="0"/>
+      <c r="AKT71" s="0"/>
+      <c r="AKU71" s="0"/>
+      <c r="AKV71" s="0"/>
+      <c r="AKW71" s="0"/>
+      <c r="AKX71" s="0"/>
+      <c r="AKY71" s="0"/>
+      <c r="AKZ71" s="0"/>
+      <c r="ALA71" s="0"/>
+      <c r="ALB71" s="0"/>
+      <c r="ALC71" s="0"/>
+      <c r="ALD71" s="0"/>
+      <c r="ALE71" s="0"/>
+      <c r="ALF71" s="0"/>
+      <c r="ALG71" s="0"/>
+      <c r="ALH71" s="0"/>
+      <c r="ALI71" s="0"/>
+      <c r="ALJ71" s="0"/>
+      <c r="ALK71" s="0"/>
+      <c r="ALL71" s="0"/>
+      <c r="ALM71" s="0"/>
+      <c r="ALN71" s="0"/>
+      <c r="ALO71" s="0"/>
+      <c r="ALP71" s="0"/>
+      <c r="ALQ71" s="0"/>
+      <c r="ALR71" s="0"/>
+      <c r="ALS71" s="0"/>
+      <c r="ALT71" s="0"/>
+      <c r="ALU71" s="0"/>
+      <c r="ALV71" s="0"/>
+      <c r="ALW71" s="0"/>
+      <c r="ALX71" s="0"/>
+      <c r="ALY71" s="0"/>
+      <c r="ALZ71" s="0"/>
+      <c r="AMA71" s="0"/>
+      <c r="AMB71" s="0"/>
+      <c r="AMC71" s="0"/>
+      <c r="AMD71" s="0"/>
+      <c r="AME71" s="0"/>
+      <c r="AMF71" s="0"/>
+      <c r="AMG71" s="0"/>
+      <c r="AMH71" s="0"/>
+      <c r="AMI71" s="0"/>
+      <c r="AMJ71" s="0"/>
     </row>
-    <row r="72" s="41" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="41" t="s">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="0"/>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
+      <c r="F72" s="0"/>
+      <c r="G72" s="0"/>
+      <c r="H72" s="0"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="0"/>
+      <c r="K72" s="0"/>
+      <c r="L72" s="0"/>
+      <c r="M72" s="0"/>
+    </row>
+    <row r="73" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="42" t="s">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B74" s="36" t="s">
         <v>213</v>
-      </c>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
-    </row>
-    <row r="74" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="27" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="H75" s="0"/>
-      <c r="J75" s="23"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="0"/>
+      <c r="O75" s="0"/>
+      <c r="P75" s="0"/>
+      <c r="Q75" s="0"/>
+      <c r="R75" s="0"/>
+      <c r="S75" s="0"/>
+      <c r="T75" s="0"/>
+      <c r="U75" s="0"/>
+      <c r="V75" s="0"/>
+      <c r="W75" s="0"/>
+      <c r="X75" s="0"/>
+      <c r="Y75" s="0"/>
+      <c r="Z75" s="0"/>
+      <c r="AA75" s="0"/>
+      <c r="AB75" s="0"/>
+      <c r="AC75" s="0"/>
+      <c r="AD75" s="0"/>
+      <c r="AE75" s="0"/>
+      <c r="AF75" s="0"/>
+      <c r="AG75" s="0"/>
+      <c r="AH75" s="0"/>
+      <c r="AI75" s="0"/>
+      <c r="AJ75" s="0"/>
+      <c r="AK75" s="0"/>
+      <c r="AL75" s="0"/>
+      <c r="AM75" s="0"/>
+      <c r="AN75" s="0"/>
+      <c r="AO75" s="0"/>
+      <c r="AP75" s="0"/>
+      <c r="AQ75" s="0"/>
+      <c r="AR75" s="0"/>
+      <c r="AS75" s="0"/>
+      <c r="AT75" s="0"/>
+      <c r="AU75" s="0"/>
+      <c r="AV75" s="0"/>
+      <c r="AW75" s="0"/>
+      <c r="AX75" s="0"/>
+      <c r="AY75" s="0"/>
+      <c r="AZ75" s="0"/>
+      <c r="BA75" s="0"/>
+      <c r="BB75" s="0"/>
+      <c r="BC75" s="0"/>
+      <c r="BD75" s="0"/>
+      <c r="BE75" s="0"/>
+      <c r="BF75" s="0"/>
+      <c r="BG75" s="0"/>
+      <c r="BH75" s="0"/>
+      <c r="BI75" s="0"/>
+      <c r="BJ75" s="0"/>
+      <c r="BK75" s="0"/>
+      <c r="BL75" s="0"/>
+      <c r="BM75" s="0"/>
+      <c r="BN75" s="0"/>
+      <c r="BO75" s="0"/>
+      <c r="BP75" s="0"/>
+      <c r="BQ75" s="0"/>
+      <c r="BR75" s="0"/>
+      <c r="BS75" s="0"/>
+      <c r="BT75" s="0"/>
+      <c r="BU75" s="0"/>
+      <c r="BV75" s="0"/>
+      <c r="BW75" s="0"/>
+      <c r="BX75" s="0"/>
+      <c r="BY75" s="0"/>
+      <c r="BZ75" s="0"/>
+      <c r="CA75" s="0"/>
+      <c r="CB75" s="0"/>
+      <c r="CC75" s="0"/>
+      <c r="CD75" s="0"/>
+      <c r="CE75" s="0"/>
+      <c r="CF75" s="0"/>
+      <c r="CG75" s="0"/>
+      <c r="CH75" s="0"/>
+      <c r="CI75" s="0"/>
+      <c r="CJ75" s="0"/>
+      <c r="CK75" s="0"/>
+      <c r="CL75" s="0"/>
+      <c r="CM75" s="0"/>
+      <c r="CN75" s="0"/>
+      <c r="CO75" s="0"/>
+      <c r="CP75" s="0"/>
+      <c r="CQ75" s="0"/>
+      <c r="CR75" s="0"/>
+      <c r="CS75" s="0"/>
+      <c r="CT75" s="0"/>
+      <c r="CU75" s="0"/>
+      <c r="CV75" s="0"/>
+      <c r="CW75" s="0"/>
+      <c r="CX75" s="0"/>
+      <c r="CY75" s="0"/>
+      <c r="CZ75" s="0"/>
+      <c r="DA75" s="0"/>
+      <c r="DB75" s="0"/>
+      <c r="DC75" s="0"/>
+      <c r="DD75" s="0"/>
+      <c r="DE75" s="0"/>
+      <c r="DF75" s="0"/>
+      <c r="DG75" s="0"/>
+      <c r="DH75" s="0"/>
+      <c r="DI75" s="0"/>
+      <c r="DJ75" s="0"/>
+      <c r="DK75" s="0"/>
+      <c r="DL75" s="0"/>
+      <c r="DM75" s="0"/>
+      <c r="DN75" s="0"/>
+      <c r="DO75" s="0"/>
+      <c r="DP75" s="0"/>
+      <c r="DQ75" s="0"/>
+      <c r="DR75" s="0"/>
+      <c r="DS75" s="0"/>
+      <c r="DT75" s="0"/>
+      <c r="DU75" s="0"/>
+      <c r="DV75" s="0"/>
+      <c r="DW75" s="0"/>
+      <c r="DX75" s="0"/>
+      <c r="DY75" s="0"/>
+      <c r="DZ75" s="0"/>
+      <c r="EA75" s="0"/>
+      <c r="EB75" s="0"/>
+      <c r="EC75" s="0"/>
+      <c r="ED75" s="0"/>
+      <c r="EE75" s="0"/>
+      <c r="EF75" s="0"/>
+      <c r="EG75" s="0"/>
+      <c r="EH75" s="0"/>
+      <c r="EI75" s="0"/>
+      <c r="EJ75" s="0"/>
+      <c r="EK75" s="0"/>
+      <c r="EL75" s="0"/>
+      <c r="EM75" s="0"/>
+      <c r="EN75" s="0"/>
+      <c r="EO75" s="0"/>
+      <c r="EP75" s="0"/>
+      <c r="EQ75" s="0"/>
+      <c r="ER75" s="0"/>
+      <c r="ES75" s="0"/>
+      <c r="ET75" s="0"/>
+      <c r="EU75" s="0"/>
+      <c r="EV75" s="0"/>
+      <c r="EW75" s="0"/>
+      <c r="EX75" s="0"/>
+      <c r="EY75" s="0"/>
+      <c r="EZ75" s="0"/>
+      <c r="FA75" s="0"/>
+      <c r="FB75" s="0"/>
+      <c r="FC75" s="0"/>
+      <c r="FD75" s="0"/>
+      <c r="FE75" s="0"/>
+      <c r="FF75" s="0"/>
+      <c r="FG75" s="0"/>
+      <c r="FH75" s="0"/>
+      <c r="FI75" s="0"/>
+      <c r="FJ75" s="0"/>
+      <c r="FK75" s="0"/>
+      <c r="FL75" s="0"/>
+      <c r="FM75" s="0"/>
+      <c r="FN75" s="0"/>
+      <c r="FO75" s="0"/>
+      <c r="FP75" s="0"/>
+      <c r="FQ75" s="0"/>
+      <c r="FR75" s="0"/>
+      <c r="FS75" s="0"/>
+      <c r="FT75" s="0"/>
+      <c r="FU75" s="0"/>
+      <c r="FV75" s="0"/>
+      <c r="FW75" s="0"/>
+      <c r="FX75" s="0"/>
+      <c r="FY75" s="0"/>
+      <c r="FZ75" s="0"/>
+      <c r="GA75" s="0"/>
+      <c r="GB75" s="0"/>
+      <c r="GC75" s="0"/>
+      <c r="GD75" s="0"/>
+      <c r="GE75" s="0"/>
+      <c r="GF75" s="0"/>
+      <c r="GG75" s="0"/>
+      <c r="GH75" s="0"/>
+      <c r="GI75" s="0"/>
+      <c r="GJ75" s="0"/>
+      <c r="GK75" s="0"/>
+      <c r="GL75" s="0"/>
+      <c r="GM75" s="0"/>
+      <c r="GN75" s="0"/>
+      <c r="GO75" s="0"/>
+      <c r="GP75" s="0"/>
+      <c r="GQ75" s="0"/>
+      <c r="GR75" s="0"/>
+      <c r="GS75" s="0"/>
+      <c r="GT75" s="0"/>
+      <c r="GU75" s="0"/>
+      <c r="GV75" s="0"/>
+      <c r="GW75" s="0"/>
+      <c r="GX75" s="0"/>
+      <c r="GY75" s="0"/>
+      <c r="GZ75" s="0"/>
+      <c r="HA75" s="0"/>
+      <c r="HB75" s="0"/>
+      <c r="HC75" s="0"/>
+      <c r="HD75" s="0"/>
+      <c r="HE75" s="0"/>
+      <c r="HF75" s="0"/>
+      <c r="HG75" s="0"/>
+      <c r="HH75" s="0"/>
+      <c r="HI75" s="0"/>
+      <c r="HJ75" s="0"/>
+      <c r="HK75" s="0"/>
+      <c r="HL75" s="0"/>
+      <c r="HM75" s="0"/>
+      <c r="HN75" s="0"/>
+      <c r="HO75" s="0"/>
+      <c r="HP75" s="0"/>
+      <c r="HQ75" s="0"/>
+      <c r="HR75" s="0"/>
+      <c r="HS75" s="0"/>
+      <c r="HT75" s="0"/>
+      <c r="HU75" s="0"/>
+      <c r="HV75" s="0"/>
+      <c r="HW75" s="0"/>
+      <c r="HX75" s="0"/>
+      <c r="HY75" s="0"/>
+      <c r="HZ75" s="0"/>
+      <c r="IA75" s="0"/>
+      <c r="IB75" s="0"/>
+      <c r="IC75" s="0"/>
+      <c r="ID75" s="0"/>
+      <c r="IE75" s="0"/>
+      <c r="IF75" s="0"/>
+      <c r="IG75" s="0"/>
+      <c r="IH75" s="0"/>
+      <c r="II75" s="0"/>
+      <c r="IJ75" s="0"/>
+      <c r="IK75" s="0"/>
+      <c r="IL75" s="0"/>
+      <c r="IM75" s="0"/>
+      <c r="IN75" s="0"/>
+      <c r="IO75" s="0"/>
+      <c r="IP75" s="0"/>
+      <c r="IQ75" s="0"/>
+      <c r="IR75" s="0"/>
+      <c r="IS75" s="0"/>
+      <c r="IT75" s="0"/>
+      <c r="IU75" s="0"/>
+      <c r="IV75" s="0"/>
+      <c r="IW75" s="0"/>
+      <c r="IX75" s="0"/>
+      <c r="IY75" s="0"/>
+      <c r="IZ75" s="0"/>
+      <c r="JA75" s="0"/>
+      <c r="JB75" s="0"/>
+      <c r="JC75" s="0"/>
+      <c r="JD75" s="0"/>
+      <c r="JE75" s="0"/>
+      <c r="JF75" s="0"/>
+      <c r="JG75" s="0"/>
+      <c r="JH75" s="0"/>
+      <c r="JI75" s="0"/>
+      <c r="JJ75" s="0"/>
+      <c r="JK75" s="0"/>
+      <c r="JL75" s="0"/>
+      <c r="JM75" s="0"/>
+      <c r="JN75" s="0"/>
+      <c r="JO75" s="0"/>
+      <c r="JP75" s="0"/>
+      <c r="JQ75" s="0"/>
+      <c r="JR75" s="0"/>
+      <c r="JS75" s="0"/>
+      <c r="JT75" s="0"/>
+      <c r="JU75" s="0"/>
+      <c r="JV75" s="0"/>
+      <c r="JW75" s="0"/>
+      <c r="JX75" s="0"/>
+      <c r="JY75" s="0"/>
+      <c r="JZ75" s="0"/>
+      <c r="KA75" s="0"/>
+      <c r="KB75" s="0"/>
+      <c r="KC75" s="0"/>
+      <c r="KD75" s="0"/>
+      <c r="KE75" s="0"/>
+      <c r="KF75" s="0"/>
+      <c r="KG75" s="0"/>
+      <c r="KH75" s="0"/>
+      <c r="KI75" s="0"/>
+      <c r="KJ75" s="0"/>
+      <c r="KK75" s="0"/>
+      <c r="KL75" s="0"/>
+      <c r="KM75" s="0"/>
+      <c r="KN75" s="0"/>
+      <c r="KO75" s="0"/>
+      <c r="KP75" s="0"/>
+      <c r="KQ75" s="0"/>
+      <c r="KR75" s="0"/>
+      <c r="KS75" s="0"/>
+      <c r="KT75" s="0"/>
+      <c r="KU75" s="0"/>
+      <c r="KV75" s="0"/>
+      <c r="KW75" s="0"/>
+      <c r="KX75" s="0"/>
+      <c r="KY75" s="0"/>
+      <c r="KZ75" s="0"/>
+      <c r="LA75" s="0"/>
+      <c r="LB75" s="0"/>
+      <c r="LC75" s="0"/>
+      <c r="LD75" s="0"/>
+      <c r="LE75" s="0"/>
+      <c r="LF75" s="0"/>
+      <c r="LG75" s="0"/>
+      <c r="LH75" s="0"/>
+      <c r="LI75" s="0"/>
+      <c r="LJ75" s="0"/>
+      <c r="LK75" s="0"/>
+      <c r="LL75" s="0"/>
+      <c r="LM75" s="0"/>
+      <c r="LN75" s="0"/>
+      <c r="LO75" s="0"/>
+      <c r="LP75" s="0"/>
+      <c r="LQ75" s="0"/>
+      <c r="LR75" s="0"/>
+      <c r="LS75" s="0"/>
+      <c r="LT75" s="0"/>
+      <c r="LU75" s="0"/>
+      <c r="LV75" s="0"/>
+      <c r="LW75" s="0"/>
+      <c r="LX75" s="0"/>
+      <c r="LY75" s="0"/>
+      <c r="LZ75" s="0"/>
+      <c r="MA75" s="0"/>
+      <c r="MB75" s="0"/>
+      <c r="MC75" s="0"/>
+      <c r="MD75" s="0"/>
+      <c r="ME75" s="0"/>
+      <c r="MF75" s="0"/>
+      <c r="MG75" s="0"/>
+      <c r="MH75" s="0"/>
+      <c r="MI75" s="0"/>
+      <c r="MJ75" s="0"/>
+      <c r="MK75" s="0"/>
+      <c r="ML75" s="0"/>
+      <c r="MM75" s="0"/>
+      <c r="MN75" s="0"/>
+      <c r="MO75" s="0"/>
+      <c r="MP75" s="0"/>
+      <c r="MQ75" s="0"/>
+      <c r="MR75" s="0"/>
+      <c r="MS75" s="0"/>
+      <c r="MT75" s="0"/>
+      <c r="MU75" s="0"/>
+      <c r="MV75" s="0"/>
+      <c r="MW75" s="0"/>
+      <c r="MX75" s="0"/>
+      <c r="MY75" s="0"/>
+      <c r="MZ75" s="0"/>
+      <c r="NA75" s="0"/>
+      <c r="NB75" s="0"/>
+      <c r="NC75" s="0"/>
+      <c r="ND75" s="0"/>
+      <c r="NE75" s="0"/>
+      <c r="NF75" s="0"/>
+      <c r="NG75" s="0"/>
+      <c r="NH75" s="0"/>
+      <c r="NI75" s="0"/>
+      <c r="NJ75" s="0"/>
+      <c r="NK75" s="0"/>
+      <c r="NL75" s="0"/>
+      <c r="NM75" s="0"/>
+      <c r="NN75" s="0"/>
+      <c r="NO75" s="0"/>
+      <c r="NP75" s="0"/>
+      <c r="NQ75" s="0"/>
+      <c r="NR75" s="0"/>
+      <c r="NS75" s="0"/>
+      <c r="NT75" s="0"/>
+      <c r="NU75" s="0"/>
+      <c r="NV75" s="0"/>
+      <c r="NW75" s="0"/>
+      <c r="NX75" s="0"/>
+      <c r="NY75" s="0"/>
+      <c r="NZ75" s="0"/>
+      <c r="OA75" s="0"/>
+      <c r="OB75" s="0"/>
+      <c r="OC75" s="0"/>
+      <c r="OD75" s="0"/>
+      <c r="OE75" s="0"/>
+      <c r="OF75" s="0"/>
+      <c r="OG75" s="0"/>
+      <c r="OH75" s="0"/>
+      <c r="OI75" s="0"/>
+      <c r="OJ75" s="0"/>
+      <c r="OK75" s="0"/>
+      <c r="OL75" s="0"/>
+      <c r="OM75" s="0"/>
+      <c r="ON75" s="0"/>
+      <c r="OO75" s="0"/>
+      <c r="OP75" s="0"/>
+      <c r="OQ75" s="0"/>
+      <c r="OR75" s="0"/>
+      <c r="OS75" s="0"/>
+      <c r="OT75" s="0"/>
+      <c r="OU75" s="0"/>
+      <c r="OV75" s="0"/>
+      <c r="OW75" s="0"/>
+      <c r="OX75" s="0"/>
+      <c r="OY75" s="0"/>
+      <c r="OZ75" s="0"/>
+      <c r="PA75" s="0"/>
+      <c r="PB75" s="0"/>
+      <c r="PC75" s="0"/>
+      <c r="PD75" s="0"/>
+      <c r="PE75" s="0"/>
+      <c r="PF75" s="0"/>
+      <c r="PG75" s="0"/>
+      <c r="PH75" s="0"/>
+      <c r="PI75" s="0"/>
+      <c r="PJ75" s="0"/>
+      <c r="PK75" s="0"/>
+      <c r="PL75" s="0"/>
+      <c r="PM75" s="0"/>
+      <c r="PN75" s="0"/>
+      <c r="PO75" s="0"/>
+      <c r="PP75" s="0"/>
+      <c r="PQ75" s="0"/>
+      <c r="PR75" s="0"/>
+      <c r="PS75" s="0"/>
+      <c r="PT75" s="0"/>
+      <c r="PU75" s="0"/>
+      <c r="PV75" s="0"/>
+      <c r="PW75" s="0"/>
+      <c r="PX75" s="0"/>
+      <c r="PY75" s="0"/>
+      <c r="PZ75" s="0"/>
+      <c r="QA75" s="0"/>
+      <c r="QB75" s="0"/>
+      <c r="QC75" s="0"/>
+      <c r="QD75" s="0"/>
+      <c r="QE75" s="0"/>
+      <c r="QF75" s="0"/>
+      <c r="QG75" s="0"/>
+      <c r="QH75" s="0"/>
+      <c r="QI75" s="0"/>
+      <c r="QJ75" s="0"/>
+      <c r="QK75" s="0"/>
+      <c r="QL75" s="0"/>
+      <c r="QM75" s="0"/>
+      <c r="QN75" s="0"/>
+      <c r="QO75" s="0"/>
+      <c r="QP75" s="0"/>
+      <c r="QQ75" s="0"/>
+      <c r="QR75" s="0"/>
+      <c r="QS75" s="0"/>
+      <c r="QT75" s="0"/>
+      <c r="QU75" s="0"/>
+      <c r="QV75" s="0"/>
+      <c r="QW75" s="0"/>
+      <c r="QX75" s="0"/>
+      <c r="QY75" s="0"/>
+      <c r="QZ75" s="0"/>
+      <c r="RA75" s="0"/>
+      <c r="RB75" s="0"/>
+      <c r="RC75" s="0"/>
+      <c r="RD75" s="0"/>
+      <c r="RE75" s="0"/>
+      <c r="RF75" s="0"/>
+      <c r="RG75" s="0"/>
+      <c r="RH75" s="0"/>
+      <c r="RI75" s="0"/>
+      <c r="RJ75" s="0"/>
+      <c r="RK75" s="0"/>
+      <c r="RL75" s="0"/>
+      <c r="RM75" s="0"/>
+      <c r="RN75" s="0"/>
+      <c r="RO75" s="0"/>
+      <c r="RP75" s="0"/>
+      <c r="RQ75" s="0"/>
+      <c r="RR75" s="0"/>
+      <c r="RS75" s="0"/>
+      <c r="RT75" s="0"/>
+      <c r="RU75" s="0"/>
+      <c r="RV75" s="0"/>
+      <c r="RW75" s="0"/>
+      <c r="RX75" s="0"/>
+      <c r="RY75" s="0"/>
+      <c r="RZ75" s="0"/>
+      <c r="SA75" s="0"/>
+      <c r="SB75" s="0"/>
+      <c r="SC75" s="0"/>
+      <c r="SD75" s="0"/>
+      <c r="SE75" s="0"/>
+      <c r="SF75" s="0"/>
+      <c r="SG75" s="0"/>
+      <c r="SH75" s="0"/>
+      <c r="SI75" s="0"/>
+      <c r="SJ75" s="0"/>
+      <c r="SK75" s="0"/>
+      <c r="SL75" s="0"/>
+      <c r="SM75" s="0"/>
+      <c r="SN75" s="0"/>
+      <c r="SO75" s="0"/>
+      <c r="SP75" s="0"/>
+      <c r="SQ75" s="0"/>
+      <c r="SR75" s="0"/>
+      <c r="SS75" s="0"/>
+      <c r="ST75" s="0"/>
+      <c r="SU75" s="0"/>
+      <c r="SV75" s="0"/>
+      <c r="SW75" s="0"/>
+      <c r="SX75" s="0"/>
+      <c r="SY75" s="0"/>
+      <c r="SZ75" s="0"/>
+      <c r="TA75" s="0"/>
+      <c r="TB75" s="0"/>
+      <c r="TC75" s="0"/>
+      <c r="TD75" s="0"/>
+      <c r="TE75" s="0"/>
+      <c r="TF75" s="0"/>
+      <c r="TG75" s="0"/>
+      <c r="TH75" s="0"/>
+      <c r="TI75" s="0"/>
+      <c r="TJ75" s="0"/>
+      <c r="TK75" s="0"/>
+      <c r="TL75" s="0"/>
+      <c r="TM75" s="0"/>
+      <c r="TN75" s="0"/>
+      <c r="TO75" s="0"/>
+      <c r="TP75" s="0"/>
+      <c r="TQ75" s="0"/>
+      <c r="TR75" s="0"/>
+      <c r="TS75" s="0"/>
+      <c r="TT75" s="0"/>
+      <c r="TU75" s="0"/>
+      <c r="TV75" s="0"/>
+      <c r="TW75" s="0"/>
+      <c r="TX75" s="0"/>
+      <c r="TY75" s="0"/>
+      <c r="TZ75" s="0"/>
+      <c r="UA75" s="0"/>
+      <c r="UB75" s="0"/>
+      <c r="UC75" s="0"/>
+      <c r="UD75" s="0"/>
+      <c r="UE75" s="0"/>
+      <c r="UF75" s="0"/>
+      <c r="UG75" s="0"/>
+      <c r="UH75" s="0"/>
+      <c r="UI75" s="0"/>
+      <c r="UJ75" s="0"/>
+      <c r="UK75" s="0"/>
+      <c r="UL75" s="0"/>
+      <c r="UM75" s="0"/>
+      <c r="UN75" s="0"/>
+      <c r="UO75" s="0"/>
+      <c r="UP75" s="0"/>
+      <c r="UQ75" s="0"/>
+      <c r="UR75" s="0"/>
+      <c r="US75" s="0"/>
+      <c r="UT75" s="0"/>
+      <c r="UU75" s="0"/>
+      <c r="UV75" s="0"/>
+      <c r="UW75" s="0"/>
+      <c r="UX75" s="0"/>
+      <c r="UY75" s="0"/>
+      <c r="UZ75" s="0"/>
+      <c r="VA75" s="0"/>
+      <c r="VB75" s="0"/>
+      <c r="VC75" s="0"/>
+      <c r="VD75" s="0"/>
+      <c r="VE75" s="0"/>
+      <c r="VF75" s="0"/>
+      <c r="VG75" s="0"/>
+      <c r="VH75" s="0"/>
+      <c r="VI75" s="0"/>
+      <c r="VJ75" s="0"/>
+      <c r="VK75" s="0"/>
+      <c r="VL75" s="0"/>
+      <c r="VM75" s="0"/>
+      <c r="VN75" s="0"/>
+      <c r="VO75" s="0"/>
+      <c r="VP75" s="0"/>
+      <c r="VQ75" s="0"/>
+      <c r="VR75" s="0"/>
+      <c r="VS75" s="0"/>
+      <c r="VT75" s="0"/>
+      <c r="VU75" s="0"/>
+      <c r="VV75" s="0"/>
+      <c r="VW75" s="0"/>
+      <c r="VX75" s="0"/>
+      <c r="VY75" s="0"/>
+      <c r="VZ75" s="0"/>
+      <c r="WA75" s="0"/>
+      <c r="WB75" s="0"/>
+      <c r="WC75" s="0"/>
+      <c r="WD75" s="0"/>
+      <c r="WE75" s="0"/>
+      <c r="WF75" s="0"/>
+      <c r="WG75" s="0"/>
+      <c r="WH75" s="0"/>
+      <c r="WI75" s="0"/>
+      <c r="WJ75" s="0"/>
+      <c r="WK75" s="0"/>
+      <c r="WL75" s="0"/>
+      <c r="WM75" s="0"/>
+      <c r="WN75" s="0"/>
+      <c r="WO75" s="0"/>
+      <c r="WP75" s="0"/>
+      <c r="WQ75" s="0"/>
+      <c r="WR75" s="0"/>
+      <c r="WS75" s="0"/>
+      <c r="WT75" s="0"/>
+      <c r="WU75" s="0"/>
+      <c r="WV75" s="0"/>
+      <c r="WW75" s="0"/>
+      <c r="WX75" s="0"/>
+      <c r="WY75" s="0"/>
+      <c r="WZ75" s="0"/>
+      <c r="XA75" s="0"/>
+      <c r="XB75" s="0"/>
+      <c r="XC75" s="0"/>
+      <c r="XD75" s="0"/>
+      <c r="XE75" s="0"/>
+      <c r="XF75" s="0"/>
+      <c r="XG75" s="0"/>
+      <c r="XH75" s="0"/>
+      <c r="XI75" s="0"/>
+      <c r="XJ75" s="0"/>
+      <c r="XK75" s="0"/>
+      <c r="XL75" s="0"/>
+      <c r="XM75" s="0"/>
+      <c r="XN75" s="0"/>
+      <c r="XO75" s="0"/>
+      <c r="XP75" s="0"/>
+      <c r="XQ75" s="0"/>
+      <c r="XR75" s="0"/>
+      <c r="XS75" s="0"/>
+      <c r="XT75" s="0"/>
+      <c r="XU75" s="0"/>
+      <c r="XV75" s="0"/>
+      <c r="XW75" s="0"/>
+      <c r="XX75" s="0"/>
+      <c r="XY75" s="0"/>
+      <c r="XZ75" s="0"/>
+      <c r="YA75" s="0"/>
+      <c r="YB75" s="0"/>
+      <c r="YC75" s="0"/>
+      <c r="YD75" s="0"/>
+      <c r="YE75" s="0"/>
+      <c r="YF75" s="0"/>
+      <c r="YG75" s="0"/>
+      <c r="YH75" s="0"/>
+      <c r="YI75" s="0"/>
+      <c r="YJ75" s="0"/>
+      <c r="YK75" s="0"/>
+      <c r="YL75" s="0"/>
+      <c r="YM75" s="0"/>
+      <c r="YN75" s="0"/>
+      <c r="YO75" s="0"/>
+      <c r="YP75" s="0"/>
+      <c r="YQ75" s="0"/>
+      <c r="YR75" s="0"/>
+      <c r="YS75" s="0"/>
+      <c r="YT75" s="0"/>
+      <c r="YU75" s="0"/>
+      <c r="YV75" s="0"/>
+      <c r="YW75" s="0"/>
+      <c r="YX75" s="0"/>
+      <c r="YY75" s="0"/>
+      <c r="YZ75" s="0"/>
+      <c r="ZA75" s="0"/>
+      <c r="ZB75" s="0"/>
+      <c r="ZC75" s="0"/>
+      <c r="ZD75" s="0"/>
+      <c r="ZE75" s="0"/>
+      <c r="ZF75" s="0"/>
+      <c r="ZG75" s="0"/>
+      <c r="ZH75" s="0"/>
+      <c r="ZI75" s="0"/>
+      <c r="ZJ75" s="0"/>
+      <c r="ZK75" s="0"/>
+      <c r="ZL75" s="0"/>
+      <c r="ZM75" s="0"/>
+      <c r="ZN75" s="0"/>
+      <c r="ZO75" s="0"/>
+      <c r="ZP75" s="0"/>
+      <c r="ZQ75" s="0"/>
+      <c r="ZR75" s="0"/>
+      <c r="ZS75" s="0"/>
+      <c r="ZT75" s="0"/>
+      <c r="ZU75" s="0"/>
+      <c r="ZV75" s="0"/>
+      <c r="ZW75" s="0"/>
+      <c r="ZX75" s="0"/>
+      <c r="ZY75" s="0"/>
+      <c r="ZZ75" s="0"/>
+      <c r="AAA75" s="0"/>
+      <c r="AAB75" s="0"/>
+      <c r="AAC75" s="0"/>
+      <c r="AAD75" s="0"/>
+      <c r="AAE75" s="0"/>
+      <c r="AAF75" s="0"/>
+      <c r="AAG75" s="0"/>
+      <c r="AAH75" s="0"/>
+      <c r="AAI75" s="0"/>
+      <c r="AAJ75" s="0"/>
+      <c r="AAK75" s="0"/>
+      <c r="AAL75" s="0"/>
+      <c r="AAM75" s="0"/>
+      <c r="AAN75" s="0"/>
+      <c r="AAO75" s="0"/>
+      <c r="AAP75" s="0"/>
+      <c r="AAQ75" s="0"/>
+      <c r="AAR75" s="0"/>
+      <c r="AAS75" s="0"/>
+      <c r="AAT75" s="0"/>
+      <c r="AAU75" s="0"/>
+      <c r="AAV75" s="0"/>
+      <c r="AAW75" s="0"/>
+      <c r="AAX75" s="0"/>
+      <c r="AAY75" s="0"/>
+      <c r="AAZ75" s="0"/>
+      <c r="ABA75" s="0"/>
+      <c r="ABB75" s="0"/>
+      <c r="ABC75" s="0"/>
+      <c r="ABD75" s="0"/>
+      <c r="ABE75" s="0"/>
+      <c r="ABF75" s="0"/>
+      <c r="ABG75" s="0"/>
+      <c r="ABH75" s="0"/>
+      <c r="ABI75" s="0"/>
+      <c r="ABJ75" s="0"/>
+      <c r="ABK75" s="0"/>
+      <c r="ABL75" s="0"/>
+      <c r="ABM75" s="0"/>
+      <c r="ABN75" s="0"/>
+      <c r="ABO75" s="0"/>
+      <c r="ABP75" s="0"/>
+      <c r="ABQ75" s="0"/>
+      <c r="ABR75" s="0"/>
+      <c r="ABS75" s="0"/>
+      <c r="ABT75" s="0"/>
+      <c r="ABU75" s="0"/>
+      <c r="ABV75" s="0"/>
+      <c r="ABW75" s="0"/>
+      <c r="ABX75" s="0"/>
+      <c r="ABY75" s="0"/>
+      <c r="ABZ75" s="0"/>
+      <c r="ACA75" s="0"/>
+      <c r="ACB75" s="0"/>
+      <c r="ACC75" s="0"/>
+      <c r="ACD75" s="0"/>
+      <c r="ACE75" s="0"/>
+      <c r="ACF75" s="0"/>
+      <c r="ACG75" s="0"/>
+      <c r="ACH75" s="0"/>
+      <c r="ACI75" s="0"/>
+      <c r="ACJ75" s="0"/>
+      <c r="ACK75" s="0"/>
+      <c r="ACL75" s="0"/>
+      <c r="ACM75" s="0"/>
+      <c r="ACN75" s="0"/>
+      <c r="ACO75" s="0"/>
+      <c r="ACP75" s="0"/>
+      <c r="ACQ75" s="0"/>
+      <c r="ACR75" s="0"/>
+      <c r="ACS75" s="0"/>
+      <c r="ACT75" s="0"/>
+      <c r="ACU75" s="0"/>
+      <c r="ACV75" s="0"/>
+      <c r="ACW75" s="0"/>
+      <c r="ACX75" s="0"/>
+      <c r="ACY75" s="0"/>
+      <c r="ACZ75" s="0"/>
+      <c r="ADA75" s="0"/>
+      <c r="ADB75" s="0"/>
+      <c r="ADC75" s="0"/>
+      <c r="ADD75" s="0"/>
+      <c r="ADE75" s="0"/>
+      <c r="ADF75" s="0"/>
+      <c r="ADG75" s="0"/>
+      <c r="ADH75" s="0"/>
+      <c r="ADI75" s="0"/>
+      <c r="ADJ75" s="0"/>
+      <c r="ADK75" s="0"/>
+      <c r="ADL75" s="0"/>
+      <c r="ADM75" s="0"/>
+      <c r="ADN75" s="0"/>
+      <c r="ADO75" s="0"/>
+      <c r="ADP75" s="0"/>
+      <c r="ADQ75" s="0"/>
+      <c r="ADR75" s="0"/>
+      <c r="ADS75" s="0"/>
+      <c r="ADT75" s="0"/>
+      <c r="ADU75" s="0"/>
+      <c r="ADV75" s="0"/>
+      <c r="ADW75" s="0"/>
+      <c r="ADX75" s="0"/>
+      <c r="ADY75" s="0"/>
+      <c r="ADZ75" s="0"/>
+      <c r="AEA75" s="0"/>
+      <c r="AEB75" s="0"/>
+      <c r="AEC75" s="0"/>
+      <c r="AED75" s="0"/>
+      <c r="AEE75" s="0"/>
+      <c r="AEF75" s="0"/>
+      <c r="AEG75" s="0"/>
+      <c r="AEH75" s="0"/>
+      <c r="AEI75" s="0"/>
+      <c r="AEJ75" s="0"/>
+      <c r="AEK75" s="0"/>
+      <c r="AEL75" s="0"/>
+      <c r="AEM75" s="0"/>
+      <c r="AEN75" s="0"/>
+      <c r="AEO75" s="0"/>
+      <c r="AEP75" s="0"/>
+      <c r="AEQ75" s="0"/>
+      <c r="AER75" s="0"/>
+      <c r="AES75" s="0"/>
+      <c r="AET75" s="0"/>
+      <c r="AEU75" s="0"/>
+      <c r="AEV75" s="0"/>
+      <c r="AEW75" s="0"/>
+      <c r="AEX75" s="0"/>
+      <c r="AEY75" s="0"/>
+      <c r="AEZ75" s="0"/>
+      <c r="AFA75" s="0"/>
+      <c r="AFB75" s="0"/>
+      <c r="AFC75" s="0"/>
+      <c r="AFD75" s="0"/>
+      <c r="AFE75" s="0"/>
+      <c r="AFF75" s="0"/>
+      <c r="AFG75" s="0"/>
+      <c r="AFH75" s="0"/>
+      <c r="AFI75" s="0"/>
+      <c r="AFJ75" s="0"/>
+      <c r="AFK75" s="0"/>
+      <c r="AFL75" s="0"/>
+      <c r="AFM75" s="0"/>
+      <c r="AFN75" s="0"/>
+      <c r="AFO75" s="0"/>
+      <c r="AFP75" s="0"/>
+      <c r="AFQ75" s="0"/>
+      <c r="AFR75" s="0"/>
+      <c r="AFS75" s="0"/>
+      <c r="AFT75" s="0"/>
+      <c r="AFU75" s="0"/>
+      <c r="AFV75" s="0"/>
+      <c r="AFW75" s="0"/>
+      <c r="AFX75" s="0"/>
+      <c r="AFY75" s="0"/>
+      <c r="AFZ75" s="0"/>
+      <c r="AGA75" s="0"/>
+      <c r="AGB75" s="0"/>
+      <c r="AGC75" s="0"/>
+      <c r="AGD75" s="0"/>
+      <c r="AGE75" s="0"/>
+      <c r="AGF75" s="0"/>
+      <c r="AGG75" s="0"/>
+      <c r="AGH75" s="0"/>
+      <c r="AGI75" s="0"/>
+      <c r="AGJ75" s="0"/>
+      <c r="AGK75" s="0"/>
+      <c r="AGL75" s="0"/>
+      <c r="AGM75" s="0"/>
+      <c r="AGN75" s="0"/>
+      <c r="AGO75" s="0"/>
+      <c r="AGP75" s="0"/>
+      <c r="AGQ75" s="0"/>
+      <c r="AGR75" s="0"/>
+      <c r="AGS75" s="0"/>
+      <c r="AGT75" s="0"/>
+      <c r="AGU75" s="0"/>
+      <c r="AGV75" s="0"/>
+      <c r="AGW75" s="0"/>
+      <c r="AGX75" s="0"/>
+      <c r="AGY75" s="0"/>
+      <c r="AGZ75" s="0"/>
+      <c r="AHA75" s="0"/>
+      <c r="AHB75" s="0"/>
+      <c r="AHC75" s="0"/>
+      <c r="AHD75" s="0"/>
+      <c r="AHE75" s="0"/>
+      <c r="AHF75" s="0"/>
+      <c r="AHG75" s="0"/>
+      <c r="AHH75" s="0"/>
+      <c r="AHI75" s="0"/>
+      <c r="AHJ75" s="0"/>
+      <c r="AHK75" s="0"/>
+      <c r="AHL75" s="0"/>
+      <c r="AHM75" s="0"/>
+      <c r="AHN75" s="0"/>
+      <c r="AHO75" s="0"/>
+      <c r="AHP75" s="0"/>
+      <c r="AHQ75" s="0"/>
+      <c r="AHR75" s="0"/>
+      <c r="AHS75" s="0"/>
+      <c r="AHT75" s="0"/>
+      <c r="AHU75" s="0"/>
+      <c r="AHV75" s="0"/>
+      <c r="AHW75" s="0"/>
+      <c r="AHX75" s="0"/>
+      <c r="AHY75" s="0"/>
+      <c r="AHZ75" s="0"/>
+      <c r="AIA75" s="0"/>
+      <c r="AIB75" s="0"/>
+      <c r="AIC75" s="0"/>
+      <c r="AID75" s="0"/>
+      <c r="AIE75" s="0"/>
+      <c r="AIF75" s="0"/>
+      <c r="AIG75" s="0"/>
+      <c r="AIH75" s="0"/>
+      <c r="AII75" s="0"/>
+      <c r="AIJ75" s="0"/>
+      <c r="AIK75" s="0"/>
+      <c r="AIL75" s="0"/>
+      <c r="AIM75" s="0"/>
+      <c r="AIN75" s="0"/>
+      <c r="AIO75" s="0"/>
+      <c r="AIP75" s="0"/>
+      <c r="AIQ75" s="0"/>
+      <c r="AIR75" s="0"/>
+      <c r="AIS75" s="0"/>
+      <c r="AIT75" s="0"/>
+      <c r="AIU75" s="0"/>
+      <c r="AIV75" s="0"/>
+      <c r="AIW75" s="0"/>
+      <c r="AIX75" s="0"/>
+      <c r="AIY75" s="0"/>
+      <c r="AIZ75" s="0"/>
+      <c r="AJA75" s="0"/>
+      <c r="AJB75" s="0"/>
+      <c r="AJC75" s="0"/>
+      <c r="AJD75" s="0"/>
+      <c r="AJE75" s="0"/>
+      <c r="AJF75" s="0"/>
+      <c r="AJG75" s="0"/>
+      <c r="AJH75" s="0"/>
+      <c r="AJI75" s="0"/>
+      <c r="AJJ75" s="0"/>
+      <c r="AJK75" s="0"/>
+      <c r="AJL75" s="0"/>
+      <c r="AJM75" s="0"/>
+      <c r="AJN75" s="0"/>
+      <c r="AJO75" s="0"/>
+      <c r="AJP75" s="0"/>
+      <c r="AJQ75" s="0"/>
+      <c r="AJR75" s="0"/>
+      <c r="AJS75" s="0"/>
+      <c r="AJT75" s="0"/>
+      <c r="AJU75" s="0"/>
+      <c r="AJV75" s="0"/>
+      <c r="AJW75" s="0"/>
+      <c r="AJX75" s="0"/>
+      <c r="AJY75" s="0"/>
+      <c r="AJZ75" s="0"/>
+      <c r="AKA75" s="0"/>
+      <c r="AKB75" s="0"/>
+      <c r="AKC75" s="0"/>
+      <c r="AKD75" s="0"/>
+      <c r="AKE75" s="0"/>
+      <c r="AKF75" s="0"/>
+      <c r="AKG75" s="0"/>
+      <c r="AKH75" s="0"/>
+      <c r="AKI75" s="0"/>
+      <c r="AKJ75" s="0"/>
+      <c r="AKK75" s="0"/>
+      <c r="AKL75" s="0"/>
+      <c r="AKM75" s="0"/>
+      <c r="AKN75" s="0"/>
+      <c r="AKO75" s="0"/>
+      <c r="AKP75" s="0"/>
+      <c r="AKQ75" s="0"/>
+      <c r="AKR75" s="0"/>
+      <c r="AKS75" s="0"/>
+      <c r="AKT75" s="0"/>
+      <c r="AKU75" s="0"/>
+      <c r="AKV75" s="0"/>
+      <c r="AKW75" s="0"/>
+      <c r="AKX75" s="0"/>
+      <c r="AKY75" s="0"/>
+      <c r="AKZ75" s="0"/>
+      <c r="ALA75" s="0"/>
+      <c r="ALB75" s="0"/>
+      <c r="ALC75" s="0"/>
+      <c r="ALD75" s="0"/>
+      <c r="ALE75" s="0"/>
+      <c r="ALF75" s="0"/>
+      <c r="ALG75" s="0"/>
+      <c r="ALH75" s="0"/>
+      <c r="ALI75" s="0"/>
+      <c r="ALJ75" s="0"/>
+      <c r="ALK75" s="0"/>
+      <c r="ALL75" s="0"/>
+      <c r="ALM75" s="0"/>
+      <c r="ALN75" s="0"/>
+      <c r="ALO75" s="0"/>
+      <c r="ALP75" s="0"/>
+      <c r="ALQ75" s="0"/>
+      <c r="ALR75" s="0"/>
+      <c r="ALS75" s="0"/>
+      <c r="ALT75" s="0"/>
+      <c r="ALU75" s="0"/>
+      <c r="ALV75" s="0"/>
+      <c r="ALW75" s="0"/>
+      <c r="ALX75" s="0"/>
+      <c r="ALY75" s="0"/>
+      <c r="ALZ75" s="0"/>
+      <c r="AMA75" s="0"/>
+      <c r="AMB75" s="0"/>
+      <c r="AMC75" s="0"/>
+      <c r="AMD75" s="0"/>
+      <c r="AME75" s="0"/>
+      <c r="AMF75" s="0"/>
+      <c r="AMG75" s="0"/>
+      <c r="AMH75" s="0"/>
+      <c r="AMI75" s="0"/>
+      <c r="AMJ75" s="0"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="H76" s="23"/>
-      <c r="J76" s="32"/>
+    <row r="76" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="26" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="H77" s="23"/>
-      <c r="J77" s="0"/>
+      <c r="B77" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H77" s="0"/>
+      <c r="J77" s="22"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="J78" s="0"/>
+      <c r="B78" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H78" s="22"/>
+      <c r="J78" s="29"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="J79" s="40"/>
+      <c r="B79" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H79" s="22"/>
+      <c r="J79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J80" s="40"/>
+      <c r="B80" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="J80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J81" s="40"/>
+      <c r="B81" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J81" s="35"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J82" s="40"/>
+        <v>215</v>
+      </c>
+      <c r="J82" s="35"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J83" s="40"/>
+        <v>216</v>
+      </c>
+      <c r="J83" s="35"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
-        <v>219</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="J84" s="35"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="J85" s="35"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -52963,9 +54947,9 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="45:45"/>
     <mergeCell ref="54:54"/>
-    <mergeCell ref="60:60"/>
-    <mergeCell ref="72:72"/>
-    <mergeCell ref="74:74"/>
+    <mergeCell ref="61:61"/>
+    <mergeCell ref="73:73"/>
+    <mergeCell ref="76:76"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.354166666666667" right="0.354166666666667" top="0.39375" bottom="0.275694444444444" header="0.511805555555555" footer="0.236111111111111"/>

--- a/spreadsheets/DBex.xlsx
+++ b/spreadsheets/DBex.xlsx
@@ -262,43 +262,43 @@
     <t>20 EUC-X1</t>
   </si>
   <si>
-    <t>20 EUC-X1-507</t>
-  </si>
-  <si>
     <t>20 EUC-X1</t>
   </si>
   <si>
     <t>20 EUC-X1</t>
   </si>
   <si>
-    <t>5518G-A03449 X</t>
-  </si>
-  <si>
-    <t>5518A-A3459 X</t>
-  </si>
-  <si>
-    <t>5518E-A03459 X</t>
-  </si>
-  <si>
-    <t>5518E-A03459 X</t>
-  </si>
-  <si>
-    <t>5518E-A03459 X</t>
-  </si>
-  <si>
-    <t>5518M-A03459 X</t>
+    <t>20 EUC-X1</t>
+  </si>
+  <si>
+    <t>5518G-A03449 X1</t>
+  </si>
+  <si>
+    <t>5518A-A3459 X1X</t>
+  </si>
+  <si>
+    <t>5518E-A03459 X1</t>
+  </si>
+  <si>
+    <t>5518E-A03459 X1</t>
+  </si>
+  <si>
+    <t>5518E-A03459 X1</t>
+  </si>
+  <si>
+    <t>5518M-A03459 74</t>
   </si>
   <si>
     <t>8188.5</t>
   </si>
   <si>
-    <t>N2288 X</t>
+    <t>N2288 X1</t>
   </si>
   <si>
     <t>Опция 1</t>
   </si>
   <si>
-    <t>5588 X</t>
+    <t>5588 X1</t>
   </si>
   <si>
     <t>N2271.9</t>
@@ -346,19 +346,19 @@
     <t>20 EUK-X1</t>
   </si>
   <si>
-    <t>5518A-A3499 X</t>
-  </si>
-  <si>
-    <t>5518E-A03499 X</t>
-  </si>
-  <si>
-    <t>5518E-A03499 X</t>
-  </si>
-  <si>
-    <t>5518E-A03499 X</t>
-  </si>
-  <si>
-    <t>N2288.1 X</t>
+    <t>5518A-A3499 X1X</t>
+  </si>
+  <si>
+    <t>5518E-A03499 X1</t>
+  </si>
+  <si>
+    <t>5518E-A03499 X1</t>
+  </si>
+  <si>
+    <t>5518E-A03499 X1</t>
+  </si>
+  <si>
+    <t>N2288.1 X1</t>
   </si>
   <si>
     <t>N2271.9</t>
@@ -370,22 +370,22 @@
     <t>Розетка двойная с заземлением</t>
   </si>
   <si>
-    <t>5512J-C03459 X</t>
-  </si>
-  <si>
-    <t>5512A-3459 X</t>
-  </si>
-  <si>
-    <t>5512E-C03459 X</t>
-  </si>
-  <si>
-    <t>5512F-C03459 X</t>
-  </si>
-  <si>
-    <t>5512F-C03459 X</t>
-  </si>
-  <si>
-    <t>5512M-C03459 X</t>
+    <t>5512J-C03459 X1</t>
+  </si>
+  <si>
+    <t>5512A-3459 X1</t>
+  </si>
+  <si>
+    <t>5512E-C03459 X1</t>
+  </si>
+  <si>
+    <t>5512F-C03459 X1</t>
+  </si>
+  <si>
+    <t>5512F-C03459 X1</t>
+  </si>
+  <si>
+    <t>5512M-C03459 74</t>
   </si>
   <si>
     <t>Socket4</t>
@@ -508,28 +508,28 @@
     <t>1743-X1</t>
   </si>
   <si>
-    <t>5011G-A00300 X</t>
-  </si>
-  <si>
-    <t>5011A-A00300 X</t>
-  </si>
-  <si>
-    <t>5011E-A00300 X</t>
-  </si>
-  <si>
-    <t>5011E-A00300 X</t>
-  </si>
-  <si>
-    <t>5011E-A00300 X</t>
-  </si>
-  <si>
-    <t>5011M-A00300 X</t>
-  </si>
-  <si>
-    <t>5550 X</t>
-  </si>
-  <si>
-    <t>N2250.8 X</t>
+    <t>5011G-A00300 X1</t>
+  </si>
+  <si>
+    <t>5011A-A00300 X1</t>
+  </si>
+  <si>
+    <t>5011E-A00300 X1</t>
+  </si>
+  <si>
+    <t>5011E-A00300 X1</t>
+  </si>
+  <si>
+    <t>5011E-A00300 X1</t>
+  </si>
+  <si>
+    <t>5011M-A00300 74</t>
+  </si>
+  <si>
+    <t>5550 X1</t>
+  </si>
+  <si>
+    <t>N2250.8 X1</t>
   </si>
   <si>
     <t>Socket6</t>
@@ -595,7 +595,7 @@
     <t>0211/11-507</t>
   </si>
   <si>
-    <t>N2217.6 X</t>
+    <t>N2217.6 X1</t>
   </si>
   <si>
     <t>2561-X1-507</t>
@@ -634,22 +634,22 @@
     <t>1803-X1</t>
   </si>
   <si>
-    <t>5013G-A00213 X</t>
-  </si>
-  <si>
-    <t>5013A-A00213 X</t>
-  </si>
-  <si>
-    <t>5013E-A00213 X</t>
-  </si>
-  <si>
-    <t>5013E-A00213 X</t>
-  </si>
-  <si>
-    <t>5013E-A00213 X</t>
-  </si>
-  <si>
-    <t>5014M-A00100 X</t>
+    <t>5013G-A00213 X1</t>
+  </si>
+  <si>
+    <t>5013A-A00213 X1</t>
+  </si>
+  <si>
+    <t>5013E-A00213 X1</t>
+  </si>
+  <si>
+    <t>5013E-A00213 X1</t>
+  </si>
+  <si>
+    <t>5013E-A00213 X1</t>
+  </si>
+  <si>
+    <t>5014M-A00100 74</t>
   </si>
   <si>
     <t>U-2018</t>
@@ -661,7 +661,7 @@
     <t>5014M-B01017</t>
   </si>
   <si>
-    <t>5518.1 X</t>
+    <t>5518.1 X1</t>
   </si>
   <si>
     <t>Socket7</t>
@@ -766,22 +766,22 @@
     <t>1803-02-X1</t>
   </si>
   <si>
-    <t>5014G-A01018 X</t>
-  </si>
-  <si>
-    <t>5013A-A00215 X</t>
-  </si>
-  <si>
-    <t>5013E-A00215 X</t>
-  </si>
-  <si>
-    <t>5013E-A00215 X</t>
-  </si>
-  <si>
-    <t>5013E-A00215 X</t>
-  </si>
-  <si>
-    <t>5014M-A00100 X</t>
+    <t>5014G-A01018 X1</t>
+  </si>
+  <si>
+    <t>5013A-A00215 X1</t>
+  </si>
+  <si>
+    <t>5013E-A00215 X1</t>
+  </si>
+  <si>
+    <t>5013E-A00215 X1</t>
+  </si>
+  <si>
+    <t>5013E-A00215 X1</t>
+  </si>
+  <si>
+    <t>5014M-A00100 74</t>
   </si>
   <si>
     <t>U-2018*2шт</t>
@@ -793,10 +793,10 @@
     <t>5014M-B01018</t>
   </si>
   <si>
-    <t>5518.2 X</t>
-  </si>
-  <si>
-    <t>N2218.2 X</t>
+    <t>5518.2 X1</t>
+  </si>
+  <si>
+    <t>N2218.2 X1</t>
   </si>
   <si>
     <t>N2271.9</t>
@@ -904,22 +904,22 @@
     <t>1803-X1</t>
   </si>
   <si>
-    <t>5014G-A01018 X</t>
-  </si>
-  <si>
-    <t>5014A-A100 X</t>
-  </si>
-  <si>
-    <t>5014E-A00100 X</t>
-  </si>
-  <si>
-    <t>5014E-A00100 X</t>
-  </si>
-  <si>
-    <t>5014E-A00100 X</t>
-  </si>
-  <si>
-    <t>5014M-A00100 X</t>
+    <t>5014G-A01018 X1</t>
+  </si>
+  <si>
+    <t>5014A-A100 X1</t>
+  </si>
+  <si>
+    <t>5014E-A00100 X1</t>
+  </si>
+  <si>
+    <t>5014E-A00100 X1</t>
+  </si>
+  <si>
+    <t>5014E-A00100 X1</t>
+  </si>
+  <si>
+    <t>5014M-A00100 74</t>
   </si>
   <si>
     <t>U-2018</t>
@@ -946,10 +946,10 @@
     <t>5014M-B01017</t>
   </si>
   <si>
-    <t>5518.1 X</t>
-  </si>
-  <si>
-    <t>N2218.1 X</t>
+    <t>5518.1 X1</t>
+  </si>
+  <si>
+    <t>N2218.1 X1</t>
   </si>
   <si>
     <t>N2271.9</t>
@@ -985,7 +985,7 @@
     <t>2000/1 US-500</t>
   </si>
   <si>
-    <t>2000/1 US</t>
+    <t>2000/1 US-500</t>
   </si>
   <si>
     <t>2001/6 U-507</t>
@@ -1018,7 +1018,7 @@
     <t>8101</t>
   </si>
   <si>
-    <t>N2201 X</t>
+    <t>N2201 X1</t>
   </si>
   <si>
     <t>2506-X1-507</t>
@@ -1045,34 +1045,34 @@
     <t>1786-X1</t>
   </si>
   <si>
-    <t>1786-X1-507</t>
-  </si>
-  <si>
     <t>1786-X1</t>
   </si>
   <si>
     <t>1786-X1</t>
   </si>
   <si>
-    <t>3557G-A00651 X</t>
-  </si>
-  <si>
-    <t>3558A-A651 X</t>
-  </si>
-  <si>
-    <t>3558E-A00651 X</t>
-  </si>
-  <si>
-    <t>3558E-A00651 X</t>
-  </si>
-  <si>
-    <t>3558E-A00651 X</t>
-  </si>
-  <si>
-    <t>3559M-A00651 X</t>
-  </si>
-  <si>
-    <t>5501 X</t>
+    <t>1786-X1</t>
+  </si>
+  <si>
+    <t>3557G-A00651 X1</t>
+  </si>
+  <si>
+    <t>3558A-A651 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00651 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00651 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00651 X1</t>
+  </si>
+  <si>
+    <t>3559M-A00651 74</t>
+  </si>
+  <si>
+    <t>5501 X1</t>
   </si>
   <si>
     <t>N2271.9</t>
@@ -1108,7 +1108,7 @@
     <t>2000/6 US-507</t>
   </si>
   <si>
-    <t>2000/6 US</t>
+    <t>2000/6 US-507</t>
   </si>
   <si>
     <t>2001/6 U-507</t>
@@ -1141,7 +1141,7 @@
     <t>8102</t>
   </si>
   <si>
-    <t>N2202 X</t>
+    <t>N2202 X1</t>
   </si>
   <si>
     <t>2506-X1-507</t>
@@ -1168,34 +1168,34 @@
     <t>1786-X1</t>
   </si>
   <si>
-    <t>1786-X1-507</t>
-  </si>
-  <si>
     <t>1786-X1</t>
   </si>
   <si>
     <t>1786-X1</t>
   </si>
   <si>
-    <t>3557G-A00651 X</t>
-  </si>
-  <si>
-    <t>3558A-A651 X</t>
-  </si>
-  <si>
-    <t>3558E-A00651 X</t>
-  </si>
-  <si>
-    <t>3558E-A00651 X</t>
-  </si>
-  <si>
-    <t>3558E-A00651 X</t>
-  </si>
-  <si>
-    <t>3559M-A00651 X</t>
-  </si>
-  <si>
-    <t>5501 X</t>
+    <t>1786-X1</t>
+  </si>
+  <si>
+    <t>3557G-A00651 X1</t>
+  </si>
+  <si>
+    <t>3558A-A651 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00651 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00651 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00651 X1</t>
+  </si>
+  <si>
+    <t>3559M-A00651 74</t>
+  </si>
+  <si>
+    <t>5501 X1</t>
   </si>
   <si>
     <t>N2271.9</t>
@@ -1231,7 +1231,7 @@
     <t>2000/5 US-507</t>
   </si>
   <si>
-    <t>2000/5 US</t>
+    <t>2000/5 US-507</t>
   </si>
   <si>
     <t>2001/5 U-507</t>
@@ -1264,7 +1264,7 @@
     <t>8111</t>
   </si>
   <si>
-    <t>N2101 X * 2шт.</t>
+    <t>N2101 X1 * 2шт.</t>
   </si>
   <si>
     <t>2505-X1-507</t>
@@ -1300,25 +1300,25 @@
     <t>1785-X1</t>
   </si>
   <si>
-    <t>3557G-A00652 X</t>
-  </si>
-  <si>
-    <t>3558A-A652 X</t>
-  </si>
-  <si>
-    <t>3558E-A00652 X</t>
-  </si>
-  <si>
-    <t>3558E-A00652 X</t>
-  </si>
-  <si>
-    <t>3558E-A00652 X</t>
-  </si>
-  <si>
-    <t>3559M-A00652 X</t>
-  </si>
-  <si>
-    <t>5511 X</t>
+    <t>3557G-A00652 X1</t>
+  </si>
+  <si>
+    <t>3558A-A652 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00652 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00652 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00652 X1</t>
+  </si>
+  <si>
+    <t>3559M-A00652 74</t>
+  </si>
+  <si>
+    <t>5511 X1</t>
   </si>
   <si>
     <t>N2271.9</t>
@@ -1348,22 +1348,22 @@
     <t>2000/6/6 US-101-500</t>
   </si>
   <si>
-    <t>2000/6/6US-101-500</t>
-  </si>
-  <si>
-    <t>2000/6/6US-101-500</t>
-  </si>
-  <si>
-    <t>2000/6/6US-101-500</t>
+    <t>2000/6/6 US-101-500</t>
+  </si>
+  <si>
+    <t>2000/6/6 US-101-500</t>
+  </si>
+  <si>
+    <t>2000/6/6 US-101-500</t>
   </si>
   <si>
     <t>2001/6/6 U</t>
   </si>
   <si>
-    <t>2000/6/6US-101-500</t>
-  </si>
-  <si>
-    <t>2000/6/6US-101-500</t>
+    <t>2000/6/6 US-101-500</t>
+  </si>
+  <si>
+    <t>2000/6/6 US-101-500</t>
   </si>
   <si>
     <t>3557-A52440</t>
@@ -1387,7 +1387,7 @@
     <t>8122</t>
   </si>
   <si>
-    <t>N2102 X * 2шт.</t>
+    <t>N2102 X1 * 2шт.</t>
   </si>
   <si>
     <t>2505-X1-507</t>
@@ -1423,25 +1423,25 @@
     <t>1785-X1</t>
   </si>
   <si>
-    <t>3557G-A00652 X</t>
-  </si>
-  <si>
-    <t>3558A-A652 X</t>
-  </si>
-  <si>
-    <t>3558E-A00652 X</t>
-  </si>
-  <si>
-    <t>3558E-A00652 X</t>
-  </si>
-  <si>
-    <t>3558E-A00652 X</t>
-  </si>
-  <si>
-    <t>3559M-A00652 X</t>
-  </si>
-  <si>
-    <t>5511 X</t>
+    <t>3557G-A00652 X1</t>
+  </si>
+  <si>
+    <t>3558A-A652 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00652 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00652 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00652 X1</t>
+  </si>
+  <si>
+    <t>3559M-A00652 74</t>
+  </si>
+  <si>
+    <t>5511 X1</t>
   </si>
   <si>
     <t>N2271.9</t>
@@ -1477,7 +1477,7 @@
     <t>2000/1 US-500</t>
   </si>
   <si>
-    <t>2000/1 US</t>
+    <t>2000/1 US-500</t>
   </si>
   <si>
     <t>2001/6 U-507</t>
@@ -1510,7 +1510,7 @@
     <t>8101</t>
   </si>
   <si>
-    <t>N2201 X</t>
+    <t>N2201 X1</t>
   </si>
   <si>
     <t>2509-X1-500</t>
@@ -1537,7 +1537,7 @@
     <t>1789-X1</t>
   </si>
   <si>
-    <t>1786-X1-507</t>
+    <t>1789-X1-101</t>
   </si>
   <si>
     <t>1789-X1</t>
@@ -1546,25 +1546,25 @@
     <t>1789-X1</t>
   </si>
   <si>
-    <t>3557G-A00653 X</t>
-  </si>
-  <si>
-    <t>3558A-A653 X</t>
-  </si>
-  <si>
-    <t>3558E-A00653 X</t>
-  </si>
-  <si>
-    <t>3558E-A00653 X</t>
-  </si>
-  <si>
-    <t>3558E-A00653 X</t>
-  </si>
-  <si>
-    <t>3559M-A00651 X</t>
-  </si>
-  <si>
-    <t>5501.3 X</t>
+    <t>3557G-A00653 X1</t>
+  </si>
+  <si>
+    <t>3558A-A653 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00653 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00653 X1</t>
+  </si>
+  <si>
+    <t>3558E-A00653 X1</t>
+  </si>
+  <si>
+    <t>3559M-A00651 74</t>
+  </si>
+  <si>
+    <t>5501.3 X1</t>
   </si>
   <si>
     <t>N2191 VD</t>
@@ -1591,9 +1591,6 @@
     <t>3916-12221</t>
   </si>
   <si>
-    <t>3916-12221 </t>
-  </si>
-  <si>
     <t>3916-12221</t>
   </si>
   <si>
@@ -1621,6 +1618,9 @@
     <t>3916-12221</t>
   </si>
   <si>
+    <t>3916-12221</t>
+  </si>
+  <si>
     <t>N2271.9</t>
   </si>
   <si>
@@ -1660,22 +1660,22 @@
     <t>6514-0-0111</t>
   </si>
   <si>
-    <t>3294G-A00125 X</t>
-  </si>
-  <si>
-    <t>3294A-A123 X</t>
-  </si>
-  <si>
-    <t>3294E-A00123 X</t>
-  </si>
-  <si>
-    <t>3294E-A00123 X</t>
-  </si>
-  <si>
-    <t>3294E-A00123 X</t>
-  </si>
-  <si>
-    <t>3294M-A00123 X</t>
+    <t>3294G-A00125 X1</t>
+  </si>
+  <si>
+    <t>3294A-A123 X1</t>
+  </si>
+  <si>
+    <t>3294E-A00123 X1</t>
+  </si>
+  <si>
+    <t>3294E-A00123 X1</t>
+  </si>
+  <si>
+    <t>3294E-A00123 X1</t>
+  </si>
+  <si>
+    <t>3294M-A00123 74</t>
   </si>
   <si>
     <t>Dimmer2</t>
@@ -1708,9 +1708,6 @@
     <t>2250 U-507</t>
   </si>
   <si>
-    <t>2250 U</t>
-  </si>
-  <si>
     <t>2250 U-507</t>
   </si>
   <si>
@@ -1741,7 +1738,10 @@
     <t>2250 U-507</t>
   </si>
   <si>
-    <t>N2260.2 X</t>
+    <t>2250 U-507</t>
+  </si>
+  <si>
+    <t>N2260.2 X1</t>
   </si>
   <si>
     <t>2115-X1-507</t>
@@ -1768,37 +1768,37 @@
     <t>6540-X1-102</t>
   </si>
   <si>
+    <t>6540-X1-102</t>
+  </si>
+  <si>
     <t>6540-X1</t>
   </si>
   <si>
-    <t>6540-X1</t>
-  </si>
-  <si>
     <t>6540-X1-102</t>
   </si>
   <si>
     <t>6540-X1-102</t>
   </si>
   <si>
-    <t>3294G-A00125 X</t>
-  </si>
-  <si>
-    <t>3294A-A123 X</t>
-  </si>
-  <si>
-    <t>3294E-A00123 X</t>
-  </si>
-  <si>
-    <t>3294E-A00123 X</t>
-  </si>
-  <si>
-    <t>3294E-A00123 X</t>
-  </si>
-  <si>
-    <t>3294M-A00123 X</t>
-  </si>
-  <si>
-    <t>5560 X</t>
+    <t>3294G-A00125 X1</t>
+  </si>
+  <si>
+    <t>3294A-A123 X1</t>
+  </si>
+  <si>
+    <t>3294E-A00123 X1</t>
+  </si>
+  <si>
+    <t>3294E-A00123 X1</t>
+  </si>
+  <si>
+    <t>3294E-A00123 X1</t>
+  </si>
+  <si>
+    <t>3294M-A00123 74</t>
+  </si>
+  <si>
+    <t>5560 X1</t>
   </si>
   <si>
     <t>N2271.9</t>
@@ -1831,9 +1831,6 @@
     <t>6560 U-101</t>
   </si>
   <si>
-    <t>6560 U</t>
-  </si>
-  <si>
     <t>6560 U-101</t>
   </si>
   <si>
@@ -1858,10 +1855,13 @@
     <t>6560 U-101</t>
   </si>
   <si>
+    <t>6560 U-101</t>
+  </si>
+  <si>
     <t>8160.1</t>
   </si>
   <si>
-    <t>N2260 X</t>
+    <t>N2260 X1</t>
   </si>
   <si>
     <t>6543-X1-102</t>
@@ -1885,9 +1885,6 @@
     <t>6543-X1-101</t>
   </si>
   <si>
-    <t>6543-X1</t>
-  </si>
-  <si>
     <t>6543-X1-101</t>
   </si>
   <si>
@@ -1897,22 +1894,25 @@
     <t>6543-X1-101</t>
   </si>
   <si>
-    <t>3299A-A100 X</t>
-  </si>
-  <si>
-    <t>3299E-A00100 X</t>
-  </si>
-  <si>
-    <t>3299E-A00100 X</t>
-  </si>
-  <si>
-    <t>3299E-A00100 X</t>
-  </si>
-  <si>
-    <t>3299M-A00100 X</t>
-  </si>
-  <si>
-    <t>5560.1 X</t>
+    <t>6543-X1-101</t>
+  </si>
+  <si>
+    <t>3299A-A100 X1</t>
+  </si>
+  <si>
+    <t>3299E-A00100 X1</t>
+  </si>
+  <si>
+    <t>3299E-A00100 X1</t>
+  </si>
+  <si>
+    <t>3299E-A00100 X1</t>
+  </si>
+  <si>
+    <t>3299M-A00100 74</t>
+  </si>
+  <si>
+    <t>5560.1 X1</t>
   </si>
   <si>
     <t>N2271.9</t>
@@ -2017,9 +2017,6 @@
     <t>6804 U-101-500</t>
   </si>
   <si>
-    <t>6804 U</t>
-  </si>
-  <si>
     <t>6804 U-101-500</t>
   </si>
   <si>
@@ -2029,25 +2026,28 @@
     <t>6804 U-101-500</t>
   </si>
   <si>
-    <t>3299G-A22180 X</t>
-  </si>
-  <si>
-    <t>3299A-A22100 X</t>
-  </si>
-  <si>
-    <t>3299E-A22100 X</t>
-  </si>
-  <si>
-    <t>3299E-A22100 X</t>
-  </si>
-  <si>
-    <t>3299E-A22100 X</t>
-  </si>
-  <si>
-    <t>3299M-A22180 X</t>
-  </si>
-  <si>
-    <t>N2241 X</t>
+    <t>6804 U-101-500</t>
+  </si>
+  <si>
+    <t>3299G-A22180 X1</t>
+  </si>
+  <si>
+    <t>3299A-A22100 X1</t>
+  </si>
+  <si>
+    <t>3299E-A22100 X1</t>
+  </si>
+  <si>
+    <t>3299E-A22100 X1</t>
+  </si>
+  <si>
+    <t>3299E-A22100 X1</t>
+  </si>
+  <si>
+    <t>3299M-A22180 74</t>
+  </si>
+  <si>
+    <t>N2241 X1</t>
   </si>
   <si>
     <t>6800-X1-104M</t>
@@ -2326,7 +2326,7 @@
     <t>N-Черный</t>
   </si>
   <si>
-    <t>22- Агава/Бело-ледяной</t>
+    <t>22-Агава/Бело-ледяной</t>
   </si>
   <si>
     <t>34-Черный металлик</t>
@@ -2386,7 +2386,7 @@
     <t>2511-X2</t>
   </si>
   <si>
-    <t>2511-X2</t>
+    <t>2511-X2-507</t>
   </si>
   <si>
     <t>1721-X2</t>
@@ -2395,7 +2395,7 @@
     <t>1721-X2</t>
   </si>
   <si>
-    <t>1721KA-X2</t>
+    <t>1721 KA-X2</t>
   </si>
   <si>
     <t>1721-X2</t>
@@ -2407,15 +2407,15 @@
     <t>1721-X2</t>
   </si>
   <si>
-    <t>1721-X2-507</t>
-  </si>
-  <si>
     <t>1721-X2</t>
   </si>
   <si>
     <t>1721-X2</t>
   </si>
   <si>
+    <t>1721-X2</t>
+  </si>
+  <si>
     <t>3901J-A00010 X2</t>
   </si>
   <si>
@@ -2434,10 +2434,10 @@
     <t>3901M-A00110 X2</t>
   </si>
   <si>
-    <t>5571 X</t>
-  </si>
-  <si>
-    <t>N2271 X</t>
+    <t>5571 X2</t>
+  </si>
+  <si>
+    <t>N2271 X2</t>
   </si>
   <si>
     <t>Frame2</t>
@@ -2452,7 +2452,7 @@
     <t>2512-X2</t>
   </si>
   <si>
-    <t>2512-X2</t>
+    <t>2512-X2-507</t>
   </si>
   <si>
     <t>1722-X2</t>
@@ -2461,7 +2461,7 @@
     <t>1722-X2</t>
   </si>
   <si>
-    <t>1722KA-X2</t>
+    <t>1722 KA-X2</t>
   </si>
   <si>
     <t>1722-X2</t>
@@ -2473,15 +2473,15 @@
     <t>1722-X2</t>
   </si>
   <si>
-    <t>1722-X2-507</t>
-  </si>
-  <si>
     <t>1722-X2</t>
   </si>
   <si>
     <t>1722-X2</t>
   </si>
   <si>
+    <t>1722-X2</t>
+  </si>
+  <si>
     <t>3901J-A00020 X2</t>
   </si>
   <si>
@@ -2500,10 +2500,10 @@
     <t>3901M-A00120 X2</t>
   </si>
   <si>
-    <t>5572.1 X</t>
-  </si>
-  <si>
-    <t>N2272 X</t>
+    <t>5572.1 X2</t>
+  </si>
+  <si>
+    <t>N2272 X2</t>
   </si>
   <si>
     <t>Frame3</t>
@@ -2518,7 +2518,7 @@
     <t>2513-X2</t>
   </si>
   <si>
-    <t>2513-X2</t>
+    <t>2513-X2-507</t>
   </si>
   <si>
     <t>1723-X2</t>
@@ -2527,7 +2527,7 @@
     <t>1723-X2</t>
   </si>
   <si>
-    <t>1723KA-X2</t>
+    <t>1723 KA-X2</t>
   </si>
   <si>
     <t>1723-X2</t>
@@ -2566,10 +2566,10 @@
     <t>3901M-A00130 X2</t>
   </si>
   <si>
-    <t>5573.1 X</t>
-  </si>
-  <si>
-    <t>N2273 X</t>
+    <t>5573.1 X2</t>
+  </si>
+  <si>
+    <t>N2273 X2</t>
   </si>
   <si>
     <t>Frame4</t>
@@ -2584,7 +2584,7 @@
     <t>2514-X2</t>
   </si>
   <si>
-    <t>2514-X2</t>
+    <t>2514-X2-507</t>
   </si>
   <si>
     <t>1724-X2</t>
@@ -2593,7 +2593,7 @@
     <t>1724-X2</t>
   </si>
   <si>
-    <t>1724KA-X2</t>
+    <t>1724 KA-X2</t>
   </si>
   <si>
     <t>1724-X2</t>
@@ -2605,15 +2605,15 @@
     <t>1724-X2</t>
   </si>
   <si>
-    <t>1724-X2-507</t>
-  </si>
-  <si>
     <t>1724-X2</t>
   </si>
   <si>
     <t>1724-X2</t>
   </si>
   <si>
+    <t>1724-X2</t>
+  </si>
+  <si>
     <t>3901J-A00040 X2</t>
   </si>
   <si>
@@ -2632,10 +2632,10 @@
     <t>3901M-A00140 X2</t>
   </si>
   <si>
-    <t>5574.1 X</t>
-  </si>
-  <si>
-    <t>N2274 X</t>
+    <t>5574.1 X2</t>
+  </si>
+  <si>
+    <t>N2274 X2</t>
   </si>
   <si>
     <t>Frame5</t>
@@ -2650,7 +2650,7 @@
     <t>2515-X2</t>
   </si>
   <si>
-    <t>2515-X2</t>
+    <t>2515-X2-507</t>
   </si>
   <si>
     <t>1725-X2</t>
@@ -2659,7 +2659,7 @@
     <t>1725-X2</t>
   </si>
   <si>
-    <t>1725KA-X2</t>
+    <t>1725 KA-X2</t>
   </si>
   <si>
     <t>1725-X2</t>
@@ -2698,6 +2698,9 @@
     <t>91-Серый энтре</t>
   </si>
   <si>
+    <t>214-Белый</t>
+  </si>
+  <si>
     <t>212-Слоновая кость</t>
   </si>
   <si>
@@ -2710,7 +2713,7 @@
     <t>20-Платина</t>
   </si>
   <si>
-    <t>181K - анрацит</t>
+    <t>181K-Анттрацит</t>
   </si>
   <si>
     <t>80-Матовый хром</t>
@@ -2719,7 +2722,7 @@
     <t>280-Белое стекло</t>
   </si>
   <si>
-    <t>72 - сл.кость</t>
+    <t>72-Слоновая кость</t>
   </si>
   <si>
     <t>866K-Сталь</t>
@@ -2755,16 +2758,13 @@
     <t>92-Слоновая кость</t>
   </si>
   <si>
-    <t>214-Белый</t>
-  </si>
-  <si>
     <t>21-Бронза</t>
   </si>
   <si>
     <t>21-Бронза</t>
   </si>
   <si>
-    <t>182K - сл.кость</t>
+    <t>182K -Слоновая кость</t>
   </si>
   <si>
     <t>80G-Глянцевый хром</t>
@@ -2773,7 +2773,7 @@
     <t>281-Черный</t>
   </si>
   <si>
-    <t>73 - золото</t>
+    <t>73-Золото</t>
   </si>
   <si>
     <t>821-Бронза</t>
@@ -2812,7 +2812,7 @@
     <t>22G-Слоновая кость</t>
   </si>
   <si>
-    <t>183K - серебр.</t>
+    <t>183K-Серебристый</t>
   </si>
   <si>
     <t>84-Белый</t>
@@ -2821,10 +2821,10 @@
     <t>284-Белый</t>
   </si>
   <si>
-    <t>74- белый</t>
-  </si>
-  <si>
-    <t>823-101: Золото</t>
+    <t>74-Белый</t>
+  </si>
+  <si>
+    <t>823-101-Золото</t>
   </si>
   <si>
     <t>С2 -Слоновая кость </t>
@@ -2860,13 +2860,13 @@
     <t>24G-Белый</t>
   </si>
   <si>
-    <t>184K - белый</t>
+    <t>184K-Белый</t>
   </si>
   <si>
     <t>285-Желтый</t>
   </si>
   <si>
-    <t>79- шампань мет.</t>
+    <t>79-Шампань металлик</t>
   </si>
   <si>
     <t>825-Черное стекло</t>
@@ -2905,16 +2905,16 @@
     <t>260-Палладий</t>
   </si>
   <si>
-    <t>884K- бел.бархат</t>
+    <t>884K-Белый бархат</t>
   </si>
   <si>
     <t>286-Зеленый</t>
   </si>
   <si>
-    <t>726 - хром</t>
-  </si>
-  <si>
-    <t>826-101: Хром</t>
+    <t>726-Хром</t>
+  </si>
+  <si>
+    <t>826-101-Хром</t>
   </si>
   <si>
     <t>S1-Серый</t>
@@ -2950,13 +2950,13 @@
     <t>263-Хром</t>
   </si>
   <si>
-    <t>885K- черн.бархат</t>
+    <t>885K-Черный бархат</t>
   </si>
   <si>
     <t>287-Красный</t>
   </si>
   <si>
-    <t>774- бел.бархат</t>
+    <t>774-Белый бархат</t>
   </si>
   <si>
     <t>860-Сталь</t>
@@ -2968,7 +2968,7 @@
     <t>N-Черный</t>
   </si>
   <si>
-    <t>22- Агава/Бело-ледяной</t>
+    <t>22-Агава/Бело-ледяной</t>
   </si>
   <si>
     <t>34-Черный металлик</t>
@@ -2992,7 +2992,7 @@
     <t>288-Синий</t>
   </si>
   <si>
-    <t>775- черн.бархат</t>
+    <t>775-Черный бархат</t>
   </si>
   <si>
     <t>08-Титан</t>
@@ -3094,19 +3094,19 @@
     <t>Пропустить Параметр X3 - Цвет</t>
   </si>
   <si>
-    <t>92 - сл.кость</t>
+    <t>92-сл.кость</t>
   </si>
   <si>
     <t>93-шампань</t>
   </si>
   <si>
-    <t>94 - белый</t>
-  </si>
-  <si>
-    <t>95 - черный шато</t>
-  </si>
-  <si>
-    <t>96 - белый шале</t>
+    <t>94-белый</t>
+  </si>
+  <si>
+    <t>95-черныйшато</t>
+  </si>
+  <si>
+    <t>96-белыйшале</t>
   </si>
   <si>
     <t>901-синий</t>
@@ -3134,7 +3134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
@@ -3152,9 +3152,6 @@
       <sz val="10.0"/>
     </font>
     <font>
-      <sz val="9.0"/>
-    </font>
-    <font>
       <b/>
       <sz val="10.0"/>
       <name val="Calibri"/>
@@ -3166,6 +3163,12 @@
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3197,14 +3200,8 @@
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3218,26 +3215,22 @@
       <top/>
       <bottom/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="44">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
@@ -3246,19 +3239,12 @@
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3" applyFill="1">
+    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3" applyFill="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
@@ -3267,22 +3253,8 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4" applyFill="1">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4" applyFill="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3294,89 +3266,60 @@
     <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4" applyFill="1">
-      <alignment horizontal="left"/>
+    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
+    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment vertical="center" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
+    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
-      <alignment vertical="center"/>
+    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4" applyFill="1">
-      <alignment horizontal="left"/>
+    <xf applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
+      <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
       <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="2" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1">
-      <alignment vertical="center" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="2" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="6">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center"/>
@@ -3384,33 +3327,17 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="left" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyBorder="1" fillId="7" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
     </xf>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5"/>
+    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6">
-      <alignment vertical="center" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fillId="0" xfId="0" numFmtId="2" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3475,18 +3402,19 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
-      <c s="2" r="C1"/>
-      <c s="2" r="D1"/>
-      <c s="2" r="E1"/>
-      <c s="2" r="F1"/>
-      <c s="2" r="G1"/>
-      <c s="2" r="H1"/>
-      <c s="2" r="I1"/>
-      <c s="2" r="J1"/>
-      <c s="2" r="K1"/>
-      <c s="2" r="L1"/>
-      <c s="2" r="M1"/>
-      <c t="s" s="2" r="N1">
+      <c s="2" r="B1"/>
+      <c s="3" r="C1"/>
+      <c s="3" r="D1"/>
+      <c s="3" r="E1"/>
+      <c s="3" r="F1"/>
+      <c s="3" r="G1"/>
+      <c s="3" r="H1"/>
+      <c s="3" r="I1"/>
+      <c s="3" r="J1"/>
+      <c s="3" r="K1"/>
+      <c s="3" r="L1"/>
+      <c s="3" r="M1"/>
+      <c t="s" s="3" r="N1">
         <v>1</v>
       </c>
       <c s="1" r="O1"/>
@@ -3495,11 +3423,12 @@
       <c s="1" r="R1"/>
       <c s="1" r="S1"/>
       <c s="1" r="T1"/>
-      <c s="2" r="U1"/>
-      <c s="2" r="V1"/>
+      <c s="3" r="U1"/>
+      <c s="3" r="V1"/>
     </row>
     <row customHeight="1" r="2" ht="12.75">
       <c s="1" r="A2"/>
+      <c s="2" r="B2"/>
       <c s="1" r="C2"/>
       <c s="1" r="D2"/>
       <c s="1" r="E2"/>
@@ -3518,11 +3447,12 @@
       <c s="1" r="R2"/>
       <c s="1" r="S2"/>
       <c s="1" r="T2"/>
-      <c s="2" r="U2"/>
-      <c s="2" r="V2"/>
+      <c s="3" r="U2"/>
+      <c s="3" r="V2"/>
     </row>
     <row customHeight="1" r="3" ht="12.75">
       <c s="1" r="A3"/>
+      <c s="2" r="B3"/>
       <c s="1" r="C3"/>
       <c s="1" r="D3"/>
       <c s="1" r="E3"/>
@@ -3541,71 +3471,72 @@
       <c s="1" r="R3"/>
       <c s="1" r="S3"/>
       <c s="1" r="T3"/>
-      <c s="2" r="U3"/>
-      <c s="2" r="V3"/>
+      <c s="3" r="U3"/>
+      <c s="3" r="V3"/>
     </row>
     <row customHeight="1" r="4" ht="12.75">
       <c t="s" s="1" r="A4">
         <v>2</v>
       </c>
-      <c t="s" s="3" r="C4">
+      <c s="2" r="B4"/>
+      <c t="s" s="4" r="C4">
         <v>3</v>
       </c>
-      <c t="s" s="3" r="D4">
+      <c t="s" s="4" r="D4">
         <v>4</v>
       </c>
-      <c t="s" s="3" r="E4">
+      <c t="s" s="4" r="E4">
         <v>5</v>
       </c>
-      <c t="s" s="3" r="F4">
+      <c t="s" s="4" r="F4">
         <v>6</v>
       </c>
-      <c t="s" s="3" r="G4">
+      <c t="s" s="4" r="G4">
         <v>7</v>
       </c>
-      <c t="s" s="3" r="H4">
+      <c t="s" s="4" r="H4">
         <v>8</v>
       </c>
-      <c t="s" s="3" r="I4">
+      <c t="s" s="4" r="I4">
         <v>9</v>
       </c>
-      <c t="s" s="3" r="J4">
+      <c t="s" s="4" r="J4">
         <v>10</v>
       </c>
-      <c t="s" s="3" r="K4">
+      <c t="s" s="4" r="K4">
         <v>11</v>
       </c>
-      <c t="s" s="3" r="L4">
+      <c t="s" s="4" r="L4">
         <v>12</v>
       </c>
-      <c t="s" s="3" r="M4">
+      <c t="s" s="4" r="M4">
         <v>13</v>
       </c>
-      <c t="s" s="3" r="N4">
+      <c t="s" s="4" r="N4">
         <v>14</v>
       </c>
-      <c t="s" s="3" r="O4">
+      <c t="s" s="4" r="O4">
         <v>15</v>
       </c>
-      <c t="s" s="3" r="P4">
+      <c t="s" s="4" r="P4">
         <v>16</v>
       </c>
-      <c t="s" s="3" r="Q4">
+      <c t="s" s="4" r="Q4">
         <v>17</v>
       </c>
-      <c t="s" s="3" r="R4">
+      <c t="s" s="4" r="R4">
         <v>18</v>
       </c>
-      <c t="s" s="3" r="S4">
+      <c t="s" s="4" r="S4">
         <v>19</v>
       </c>
-      <c t="s" s="3" r="T4">
+      <c t="s" s="4" r="T4">
         <v>20</v>
       </c>
-      <c t="s" s="3" r="U4">
+      <c t="s" s="4" r="U4">
         <v>21</v>
       </c>
-      <c t="s" s="3" r="V4">
+      <c t="s" s="4" r="V4">
         <v>22</v>
       </c>
     </row>
@@ -3613,160 +3544,163 @@
       <c t="s" s="1" r="A5">
         <v>23</v>
       </c>
-      <c t="s" s="2" r="C5">
+      <c s="2" r="B5"/>
+      <c t="s" s="5" r="C5">
         <v>24</v>
       </c>
-      <c t="s" s="2" r="D5">
+      <c t="s" s="5" r="D5">
         <v>25</v>
       </c>
-      <c t="s" s="2" r="E5">
+      <c t="s" s="5" r="E5">
         <v>26</v>
       </c>
-      <c t="s" s="2" r="F5">
+      <c t="s" s="5" r="F5">
         <v>27</v>
       </c>
-      <c t="s" s="2" r="G5">
+      <c t="s" s="5" r="G5">
         <v>28</v>
       </c>
-      <c t="s" s="2" r="H5">
+      <c t="s" s="5" r="H5">
         <v>29</v>
       </c>
-      <c t="s" s="2" r="I5">
+      <c t="s" s="5" r="I5">
         <v>30</v>
       </c>
-      <c t="s" s="2" r="J5">
+      <c t="s" s="5" r="J5">
         <v>31</v>
       </c>
-      <c t="s" s="2" r="K5">
+      <c t="s" s="5" r="K5">
         <v>32</v>
       </c>
-      <c t="s" s="2" r="L5">
+      <c t="s" s="5" r="L5">
         <v>33</v>
       </c>
-      <c t="s" s="2" r="M5">
+      <c t="s" s="5" r="M5">
         <v>34</v>
       </c>
-      <c t="s" s="2" r="N5">
+      <c t="s" s="5" r="N5">
         <v>35</v>
       </c>
-      <c t="s" s="2" r="O5">
+      <c t="s" s="5" r="O5">
         <v>36</v>
       </c>
-      <c t="s" s="2" r="P5">
+      <c t="s" s="5" r="P5">
         <v>37</v>
       </c>
-      <c t="s" s="2" r="Q5">
+      <c t="s" s="5" r="Q5">
         <v>38</v>
       </c>
-      <c t="s" s="2" r="R5">
+      <c t="s" s="5" r="R5">
         <v>39</v>
       </c>
-      <c t="s" s="2" r="S5">
+      <c t="s" s="5" r="S5">
         <v>40</v>
       </c>
-      <c t="s" s="2" r="T5">
+      <c t="s" s="5" r="T5">
         <v>41</v>
       </c>
-      <c t="s" s="2" r="U5">
+      <c t="s" s="5" r="U5">
         <v>42</v>
       </c>
-      <c t="s" s="2" r="V5">
+      <c t="s" s="5" r="V5">
         <v>43</v>
       </c>
     </row>
     <row customHeight="1" r="6" ht="12.75">
-      <c t="s" s="4" r="A6">
+      <c t="s" s="6" r="A6">
         <v>44</v>
       </c>
-      <c t="s" s="3" r="C6">
+      <c s="2" r="B6"/>
+      <c t="s" s="4" r="C6">
         <v>45</v>
       </c>
-      <c t="s" s="3" r="D6">
+      <c t="s" s="4" r="D6">
         <v>46</v>
       </c>
-      <c t="s" s="3" r="E6">
+      <c t="s" s="4" r="E6">
         <v>47</v>
       </c>
-      <c t="s" s="3" r="F6">
+      <c t="s" s="4" r="F6">
         <v>48</v>
       </c>
-      <c t="s" s="3" r="G6">
+      <c t="s" s="4" r="G6">
         <v>49</v>
       </c>
-      <c t="s" s="3" r="H6">
+      <c t="s" s="4" r="H6">
         <v>50</v>
       </c>
-      <c t="s" s="3" r="I6">
+      <c t="s" s="4" r="I6">
         <v>51</v>
       </c>
-      <c t="s" s="3" r="J6">
+      <c t="s" s="4" r="J6">
         <v>52</v>
       </c>
-      <c t="s" s="3" r="K6">
+      <c t="s" s="4" r="K6">
         <v>53</v>
       </c>
-      <c t="s" s="3" r="L6">
+      <c t="s" s="4" r="L6">
         <v>54</v>
       </c>
-      <c t="s" s="3" r="M6">
+      <c t="s" s="4" r="M6">
         <v>55</v>
       </c>
-      <c t="s" s="3" r="N6">
+      <c t="s" s="4" r="N6">
         <v>56</v>
       </c>
-      <c t="s" s="3" r="O6">
+      <c t="s" s="4" r="O6">
         <v>57</v>
       </c>
-      <c t="s" s="3" r="P6">
+      <c t="s" s="4" r="P6">
         <v>58</v>
       </c>
-      <c t="s" s="3" r="Q6">
+      <c t="s" s="4" r="Q6">
         <v>59</v>
       </c>
-      <c t="s" s="3" r="R6">
+      <c t="s" s="4" r="R6">
         <v>60</v>
       </c>
-      <c t="s" s="3" r="S6">
+      <c t="s" s="4" r="S6">
         <v>61</v>
       </c>
-      <c t="s" s="3" r="T6">
+      <c t="s" s="4" r="T6">
         <v>62</v>
       </c>
-      <c t="s" s="3" r="U6">
+      <c t="s" s="4" r="U6">
         <v>63</v>
       </c>
-      <c t="s" s="3" r="V6">
+      <c t="s" s="4" r="V6">
         <v>64</v>
       </c>
     </row>
     <row customHeight="1" r="7" ht="12.75">
-      <c s="5" r="A7"/>
-      <c s="3" r="C7"/>
-      <c s="3" r="D7"/>
-      <c s="3" r="E7"/>
-      <c s="3" r="F7"/>
-      <c s="3" r="G7"/>
-      <c s="3" r="H7"/>
-      <c s="3" r="I7"/>
-      <c s="3" r="J7"/>
-      <c s="3" r="K7"/>
-      <c s="3" r="L7"/>
-      <c s="3" r="M7"/>
-      <c s="3" r="N7"/>
-      <c s="2" r="O7"/>
-      <c s="2" r="P7"/>
-      <c s="2" r="Q7"/>
-      <c s="2" r="R7"/>
-      <c s="2" r="S7"/>
-      <c s="2" r="T7"/>
-      <c s="2" r="U7"/>
-      <c s="2" r="V7"/>
+      <c s="7" r="A7"/>
+      <c s="2" r="B7"/>
+      <c s="8" r="C7"/>
+      <c s="8" r="D7"/>
+      <c s="8" r="E7"/>
+      <c s="8" r="F7"/>
+      <c s="8" r="G7"/>
+      <c s="8" r="H7"/>
+      <c s="8" r="I7"/>
+      <c s="8" r="J7"/>
+      <c s="8" r="K7"/>
+      <c s="8" r="L7"/>
+      <c s="8" r="M7"/>
+      <c s="8" r="N7"/>
+      <c s="3" r="O7"/>
+      <c s="3" r="P7"/>
+      <c s="3" r="Q7"/>
+      <c s="3" r="R7"/>
+      <c s="3" r="S7"/>
+      <c s="3" r="T7"/>
+      <c s="3" r="U7"/>
+      <c s="3" r="V7"/>
     </row>
     <row customHeight="1" r="8" ht="28.5">
-      <c t="s" s="6" r="A8">
+      <c t="s" s="7" r="A8">
         <v>65</v>
       </c>
-      <c s="7" r="B8"/>
+      <c s="2" r="B8"/>
       <c s="8" r="C8"/>
       <c s="8" r="D8"/>
       <c s="8" r="E8"/>
@@ -3783,20 +3717,20 @@
       <c s="8" r="L8"/>
       <c s="8" r="M8"/>
       <c s="8" r="N8"/>
-      <c s="9" r="O8"/>
-      <c s="9" r="P8"/>
-      <c s="9" r="Q8"/>
-      <c s="9" r="R8"/>
-      <c s="9" r="S8"/>
-      <c s="9" r="T8"/>
-      <c s="9" r="U8"/>
-      <c s="9" r="V8"/>
+      <c s="3" r="O8"/>
+      <c s="3" r="P8"/>
+      <c s="3" r="Q8"/>
+      <c s="3" r="R8"/>
+      <c s="3" r="S8"/>
+      <c s="3" r="T8"/>
+      <c s="3" r="U8"/>
+      <c s="3" r="V8"/>
     </row>
     <row customHeight="1" r="9" ht="28.5">
-      <c t="s" s="6" r="A9">
+      <c t="s" s="7" r="A9">
         <v>68</v>
       </c>
-      <c s="7" r="B9"/>
+      <c s="2" r="B9"/>
       <c s="8" r="C9"/>
       <c s="8" r="D9"/>
       <c s="8" r="E9"/>
@@ -3811,20 +3745,20 @@
       <c t="s" s="8" r="N9">
         <v>69</v>
       </c>
-      <c s="9" r="O9"/>
-      <c s="9" r="P9"/>
-      <c s="9" r="Q9"/>
-      <c s="9" r="R9"/>
-      <c s="9" r="S9"/>
-      <c s="9" r="T9"/>
-      <c s="9" r="U9"/>
-      <c s="9" r="V9"/>
+      <c s="3" r="O9"/>
+      <c s="3" r="P9"/>
+      <c s="3" r="Q9"/>
+      <c s="3" r="R9"/>
+      <c s="3" r="S9"/>
+      <c s="3" r="T9"/>
+      <c s="3" r="U9"/>
+      <c s="3" r="V9"/>
     </row>
     <row customHeight="1" r="10" ht="12.75">
-      <c t="s" s="6" r="A10">
+      <c t="s" s="7" r="A10">
         <v>70</v>
       </c>
-      <c s="7" r="B10"/>
+      <c s="2" r="B10"/>
       <c s="8" r="C10"/>
       <c s="8" r="D10"/>
       <c s="8" r="E10"/>
@@ -3837,3593 +3771,3578 @@
       <c s="8" r="L10"/>
       <c s="8" r="M10"/>
       <c s="8" r="N10"/>
-      <c s="9" r="O10"/>
-      <c s="9" r="P10"/>
-      <c s="9" r="Q10"/>
-      <c s="9" r="R10"/>
-      <c s="9" r="S10"/>
-      <c s="9" r="T10"/>
-      <c s="9" r="U10"/>
-      <c s="9" r="V10"/>
+      <c s="3" r="O10"/>
+      <c s="3" r="P10"/>
+      <c s="3" r="Q10"/>
+      <c s="3" r="R10"/>
+      <c s="3" r="S10"/>
+      <c s="3" r="T10"/>
+      <c s="3" r="U10"/>
+      <c s="3" r="V10"/>
     </row>
     <row customHeight="1" r="11" ht="12.75">
-      <c t="s" s="10" r="A11">
+      <c t="s" s="9" r="A11">
         <v>71</v>
       </c>
     </row>
     <row customHeight="1" r="12" ht="12.75">
-      <c t="s" s="11" r="A12">
+      <c t="s" s="10" r="A12">
         <v>72</v>
       </c>
-      <c t="s" s="12" r="B12">
+      <c t="s" s="11" r="B12">
         <v>73</v>
       </c>
-      <c t="s" s="13" r="C12">
+      <c t="s" s="12" r="C12">
         <v>74</v>
       </c>
-      <c t="s" s="13" r="D12">
+      <c t="s" s="12" r="D12">
         <v>75</v>
       </c>
-      <c t="s" s="13" r="E12">
+      <c t="s" s="12" r="E12">
         <v>76</v>
       </c>
-      <c t="s" s="13" r="F12">
+      <c t="s" s="12" r="F12">
         <v>77</v>
       </c>
-      <c t="s" s="13" r="G12">
+      <c t="s" s="12" r="G12">
         <v>78</v>
       </c>
-      <c t="s" s="13" r="H12">
+      <c t="s" s="12" r="H12">
         <v>79</v>
       </c>
-      <c t="s" s="13" r="I12">
+      <c t="s" s="12" r="I12">
         <v>80</v>
       </c>
-      <c t="s" s="13" r="J12">
+      <c t="s" s="12" r="J12">
         <v>81</v>
       </c>
-      <c t="s" s="13" r="K12">
+      <c t="s" s="12" r="K12">
         <v>82</v>
       </c>
-      <c t="s" s="13" r="L12">
+      <c t="s" s="12" r="L12">
         <v>83</v>
       </c>
-      <c t="s" s="13" r="M12">
+      <c t="s" s="12" r="M12">
         <v>84</v>
       </c>
-      <c t="s" s="13" r="N12">
+      <c t="s" s="12" r="N12">
         <v>85</v>
       </c>
-      <c t="s" s="14" r="O12">
+      <c t="s" s="1" r="O12">
         <v>86</v>
       </c>
-      <c t="s" s="14" r="P12">
+      <c t="s" s="1" r="P12">
         <v>87</v>
       </c>
-      <c t="s" s="14" r="Q12">
+      <c t="s" s="1" r="Q12">
         <v>88</v>
       </c>
-      <c t="s" s="14" r="R12">
+      <c t="s" s="1" r="R12">
         <v>89</v>
       </c>
-      <c t="s" s="14" r="S12">
+      <c t="s" s="1" r="S12">
         <v>90</v>
       </c>
-      <c t="s" s="14" r="T12">
+      <c t="s" s="1" r="T12">
         <v>91</v>
       </c>
-      <c t="s" s="13" r="U12">
+      <c t="s" s="12" r="U12">
         <v>92</v>
       </c>
-      <c t="s" s="13" r="V12">
+      <c t="s" s="12" r="V12">
         <v>93</v>
       </c>
     </row>
     <row customHeight="1" r="13" ht="12.75">
-      <c t="s" s="13" r="C13">
+      <c t="s" s="12" r="C13">
         <v>94</v>
       </c>
-      <c s="13" r="D13"/>
-      <c s="13" r="E13"/>
-      <c s="13" r="F13"/>
-      <c s="13" r="G13"/>
-      <c s="13" r="H13"/>
-      <c s="13" r="I13"/>
-      <c s="13" r="J13"/>
-      <c s="13" r="K13"/>
-      <c s="13" r="L13"/>
-      <c s="13" r="M13"/>
-      <c s="13" r="N13"/>
-      <c s="14" r="O13"/>
-      <c s="14" r="P13"/>
-      <c s="14" r="Q13"/>
-      <c s="14" r="R13"/>
-      <c s="14" r="S13"/>
-      <c s="14" r="T13"/>
-      <c t="s" s="13" r="U13">
+      <c s="12" r="D13"/>
+      <c s="12" r="E13"/>
+      <c s="12" r="F13"/>
+      <c s="12" r="G13"/>
+      <c s="12" r="H13"/>
+      <c s="12" r="I13"/>
+      <c s="12" r="J13"/>
+      <c s="12" r="K13"/>
+      <c s="12" r="L13"/>
+      <c s="12" r="M13"/>
+      <c s="12" r="N13"/>
+      <c s="1" r="O13"/>
+      <c s="1" r="P13"/>
+      <c s="1" r="Q13"/>
+      <c s="1" r="R13"/>
+      <c s="1" r="S13"/>
+      <c s="1" r="T13"/>
+      <c t="s" s="12" r="U13">
         <v>95</v>
       </c>
-      <c t="s" s="13" r="V13">
+      <c t="s" s="12" r="V13">
         <v>96</v>
       </c>
     </row>
     <row customHeight="1" r="14" ht="12.75">
-      <c t="s" s="15" r="A14">
+      <c t="s" s="13" r="A14">
         <v>97</v>
       </c>
-      <c t="s" s="16" r="B14">
+      <c t="s" s="14" r="B14">
         <v>98</v>
       </c>
-      <c t="s" s="17" r="C14">
+      <c t="s" s="15" r="C14">
         <v>99</v>
       </c>
-      <c t="s" s="17" r="D14">
+      <c t="s" s="15" r="D14">
         <v>100</v>
       </c>
-      <c t="s" s="17" r="E14">
+      <c t="s" s="15" r="E14">
         <v>101</v>
       </c>
-      <c t="s" s="17" r="F14">
+      <c t="s" s="15" r="F14">
         <v>102</v>
       </c>
-      <c t="s" s="17" r="G14">
+      <c t="s" s="15" r="G14">
         <v>103</v>
       </c>
-      <c t="s" s="17" r="H14">
+      <c t="s" s="15" r="H14">
         <v>104</v>
       </c>
-      <c t="s" s="17" r="I14">
+      <c t="s" s="15" r="I14">
         <v>105</v>
       </c>
-      <c t="s" s="17" r="J14">
+      <c t="s" s="15" r="J14">
         <v>106</v>
       </c>
-      <c t="s" s="17" r="K14">
+      <c t="s" s="15" r="K14">
         <v>107</v>
       </c>
-      <c t="s" s="17" r="L14">
+      <c t="s" s="15" r="L14">
         <v>108</v>
       </c>
-      <c t="s" s="17" r="M14">
+      <c t="s" s="15" r="M14">
         <v>109</v>
       </c>
-      <c t="s" s="17" r="N14">
+      <c t="s" s="15" r="N14">
         <v>110</v>
       </c>
-      <c s="18" r="O14"/>
-      <c t="s" s="18" r="P14">
+      <c s="16" r="O14"/>
+      <c t="s" s="16" r="P14">
         <v>111</v>
       </c>
-      <c t="s" s="18" r="Q14">
+      <c t="s" s="16" r="Q14">
         <v>112</v>
       </c>
-      <c t="s" s="18" r="R14">
+      <c t="s" s="16" r="R14">
         <v>113</v>
       </c>
-      <c t="s" s="18" r="S14">
+      <c t="s" s="16" r="S14">
         <v>114</v>
       </c>
-      <c s="18" r="T14"/>
-      <c s="19" r="U14"/>
-      <c t="s" s="17" r="V14">
+      <c s="16" r="T14"/>
+      <c s="17" r="U14"/>
+      <c t="s" s="15" r="V14">
         <v>115</v>
       </c>
     </row>
     <row customHeight="1" r="15" ht="12.75">
-      <c s="17" r="C15"/>
-      <c s="17" r="D15"/>
-      <c s="17" r="E15"/>
-      <c s="17" r="F15"/>
-      <c s="17" r="G15"/>
-      <c s="17" r="H15"/>
-      <c s="17" r="I15"/>
-      <c s="17" r="J15"/>
-      <c s="17" r="K15"/>
-      <c s="17" r="L15"/>
-      <c s="17" r="M15"/>
-      <c s="17" r="N15"/>
-      <c s="18" r="O15"/>
-      <c s="18" r="P15"/>
-      <c s="18" r="Q15"/>
-      <c s="18" r="R15"/>
-      <c s="18" r="S15"/>
-      <c s="18" r="T15"/>
-      <c s="19" r="U15"/>
-      <c t="s" s="17" r="V15">
+      <c s="15" r="C15"/>
+      <c s="15" r="D15"/>
+      <c s="15" r="E15"/>
+      <c s="15" r="F15"/>
+      <c s="15" r="G15"/>
+      <c s="15" r="H15"/>
+      <c s="15" r="I15"/>
+      <c s="15" r="J15"/>
+      <c s="15" r="K15"/>
+      <c s="15" r="L15"/>
+      <c s="15" r="M15"/>
+      <c s="15" r="N15"/>
+      <c s="16" r="O15"/>
+      <c s="16" r="P15"/>
+      <c s="16" r="Q15"/>
+      <c s="16" r="R15"/>
+      <c s="16" r="S15"/>
+      <c s="16" r="T15"/>
+      <c s="17" r="U15"/>
+      <c t="s" s="15" r="V15">
         <v>116</v>
       </c>
     </row>
     <row customHeight="1" r="16" ht="12.75">
-      <c t="s" s="20" r="A16">
+      <c t="s" s="18" r="A16">
         <v>117</v>
       </c>
-      <c t="s" s="21" r="B16">
+      <c t="s" s="19" r="B16">
         <v>118</v>
       </c>
-      <c s="22" r="C16"/>
-      <c s="22" r="D16"/>
-      <c s="22" r="E16"/>
-      <c s="22" r="F16"/>
-      <c s="22" r="G16"/>
-      <c s="22" r="H16"/>
-      <c s="22" r="I16"/>
-      <c s="22" r="J16"/>
-      <c s="22" r="K16"/>
-      <c s="22" r="L16"/>
-      <c s="22" r="M16"/>
-      <c s="22" r="N16"/>
-      <c t="s" s="23" r="O16">
+      <c s="20" r="C16"/>
+      <c s="20" r="D16"/>
+      <c s="20" r="E16"/>
+      <c s="20" r="F16"/>
+      <c s="20" r="G16"/>
+      <c s="20" r="H16"/>
+      <c s="20" r="I16"/>
+      <c s="20" r="J16"/>
+      <c s="20" r="K16"/>
+      <c s="20" r="L16"/>
+      <c s="20" r="M16"/>
+      <c s="20" r="N16"/>
+      <c t="s" s="21" r="O16">
         <v>119</v>
       </c>
-      <c t="s" s="23" r="P16">
+      <c t="s" s="21" r="P16">
         <v>120</v>
       </c>
-      <c t="s" s="23" r="Q16">
+      <c t="s" s="21" r="Q16">
         <v>121</v>
       </c>
-      <c t="s" s="23" r="R16">
+      <c t="s" s="21" r="R16">
         <v>122</v>
       </c>
-      <c t="s" s="23" r="S16">
+      <c t="s" s="21" r="S16">
         <v>123</v>
       </c>
-      <c t="s" s="23" r="T16">
+      <c t="s" s="21" r="T16">
         <v>124</v>
       </c>
-      <c s="24" r="U16"/>
-      <c s="24" r="V16"/>
+      <c s="22" r="U16"/>
+      <c s="22" r="V16"/>
     </row>
     <row customHeight="1" r="17" ht="12.75">
-      <c t="s" s="25" r="A17">
+      <c t="s" s="23" r="A17">
         <v>125</v>
       </c>
-      <c t="s" s="26" r="B17">
+      <c t="s" s="24" r="B17">
         <v>126</v>
       </c>
-      <c t="s" s="13" r="C17">
+      <c t="s" s="12" r="C17">
         <v>127</v>
       </c>
-      <c t="s" s="13" r="D17">
+      <c t="s" s="12" r="D17">
         <v>128</v>
       </c>
-      <c t="s" s="13" r="E17">
+      <c t="s" s="12" r="E17">
         <v>129</v>
       </c>
-      <c t="s" s="13" r="F17">
+      <c t="s" s="12" r="F17">
         <v>130</v>
       </c>
-      <c s="13" r="G17"/>
-      <c s="13" r="H17"/>
-      <c s="13" r="I17"/>
-      <c s="13" r="J17"/>
-      <c s="13" r="K17"/>
-      <c s="13" r="L17"/>
-      <c s="13" r="M17"/>
-      <c s="13" r="N17"/>
-      <c s="14" r="O17"/>
-      <c s="14" r="P17"/>
-      <c s="14" r="Q17"/>
-      <c s="14" r="R17"/>
-      <c s="14" r="S17"/>
-      <c s="14" r="T17"/>
-      <c s="9" r="U17"/>
-      <c s="9" r="V17"/>
+      <c s="12" r="G17"/>
+      <c s="12" r="H17"/>
+      <c s="12" r="I17"/>
+      <c s="12" r="J17"/>
+      <c s="12" r="K17"/>
+      <c s="12" r="L17"/>
+      <c s="12" r="M17"/>
+      <c s="12" r="N17"/>
+      <c s="1" r="O17"/>
+      <c s="1" r="P17"/>
+      <c s="1" r="Q17"/>
+      <c s="1" r="R17"/>
+      <c s="1" r="S17"/>
+      <c s="1" r="T17"/>
+      <c s="3" r="U17"/>
+      <c s="3" r="V17"/>
     </row>
     <row customHeight="1" r="18" ht="12.75">
-      <c t="s" s="15" r="A18">
+      <c t="s" s="25" r="A18">
         <v>131</v>
       </c>
-      <c t="s" s="27" r="B18">
+      <c t="s" s="26" r="B18">
         <v>132</v>
       </c>
-      <c t="s" s="28" r="C18">
+      <c t="s" s="27" r="C18">
         <v>133</v>
       </c>
-      <c t="s" s="28" r="D18">
+      <c t="s" s="27" r="D18">
         <v>134</v>
       </c>
-      <c t="s" s="28" r="E18">
+      <c t="s" s="27" r="E18">
         <v>135</v>
       </c>
-      <c t="s" s="28" r="F18">
+      <c t="s" s="27" r="F18">
         <v>136</v>
       </c>
-      <c t="s" s="28" r="G18">
+      <c t="s" s="27" r="G18">
         <v>137</v>
       </c>
-      <c t="s" s="28" r="H18">
+      <c t="s" s="27" r="H18">
         <v>138</v>
       </c>
-      <c t="s" s="28" r="I18">
+      <c t="s" s="27" r="I18">
         <v>139</v>
       </c>
-      <c t="s" s="28" r="J18">
+      <c t="s" s="27" r="J18">
         <v>140</v>
       </c>
-      <c t="s" s="28" r="K18">
+      <c t="s" s="27" r="K18">
         <v>141</v>
       </c>
-      <c t="s" s="28" r="L18">
+      <c t="s" s="27" r="L18">
         <v>142</v>
       </c>
-      <c t="s" s="28" r="M18">
+      <c t="s" s="27" r="M18">
         <v>143</v>
       </c>
-      <c t="s" s="28" r="N18">
+      <c t="s" s="27" r="N18">
         <v>144</v>
       </c>
-      <c t="s" s="18" r="O18">
+      <c t="s" s="16" r="O18">
         <v>145</v>
       </c>
-      <c t="s" s="18" r="P18">
+      <c t="s" s="16" r="P18">
         <v>146</v>
       </c>
-      <c t="s" s="18" r="Q18">
+      <c t="s" s="16" r="Q18">
         <v>147</v>
       </c>
-      <c t="s" s="18" r="R18">
+      <c t="s" s="16" r="R18">
         <v>148</v>
       </c>
-      <c t="s" s="18" r="S18">
+      <c t="s" s="16" r="S18">
         <v>149</v>
       </c>
-      <c t="s" s="18" r="T18">
+      <c t="s" s="16" r="T18">
         <v>150</v>
       </c>
-      <c t="s" s="28" r="U18">
+      <c t="s" s="27" r="U18">
         <v>151</v>
       </c>
-      <c t="s" s="28" r="V18">
+      <c t="s" s="27" r="V18">
         <v>152</v>
       </c>
     </row>
     <row customHeight="1" r="19" ht="12.75">
-      <c t="s" s="28" r="C19">
+      <c t="s" s="27" r="C19">
         <v>153</v>
       </c>
-      <c t="s" s="28" r="D19">
+      <c t="s" s="27" r="D19">
         <v>154</v>
       </c>
-      <c t="s" s="28" r="E19">
+      <c t="s" s="27" r="E19">
         <v>155</v>
       </c>
-      <c t="s" s="28" r="F19">
+      <c t="s" s="27" r="F19">
         <v>156</v>
       </c>
-      <c t="s" s="29" r="G19">
+      <c t="s" s="28" r="G19">
         <v>157</v>
       </c>
-      <c t="s" s="29" r="H19">
+      <c t="s" s="28" r="H19">
         <v>158</v>
       </c>
-      <c t="s" s="29" r="I19">
+      <c t="s" s="28" r="I19">
         <v>159</v>
       </c>
-      <c t="s" s="29" r="J19">
+      <c t="s" s="28" r="J19">
         <v>160</v>
       </c>
-      <c t="s" s="29" r="K19">
+      <c t="s" s="28" r="K19">
         <v>161</v>
       </c>
-      <c t="s" s="29" r="L19">
+      <c t="s" s="28" r="L19">
         <v>162</v>
       </c>
-      <c t="s" s="29" r="M19">
+      <c t="s" s="28" r="M19">
         <v>163</v>
       </c>
-      <c t="s" s="29" r="N19">
+      <c t="s" s="28" r="N19">
         <v>164</v>
       </c>
-      <c t="s" s="18" r="O19">
+      <c t="s" s="16" r="O19">
         <v>165</v>
       </c>
-      <c t="s" s="18" r="P19">
+      <c t="s" s="16" r="P19">
         <v>166</v>
       </c>
-      <c t="s" s="18" r="Q19">
+      <c t="s" s="16" r="Q19">
         <v>167</v>
       </c>
-      <c t="s" s="18" r="R19">
+      <c t="s" s="16" r="R19">
         <v>168</v>
       </c>
-      <c t="s" s="18" r="S19">
+      <c t="s" s="16" r="S19">
         <v>169</v>
       </c>
-      <c t="s" s="18" r="T19">
+      <c t="s" s="16" r="T19">
         <v>170</v>
       </c>
-      <c t="s" s="28" r="U19">
+      <c t="s" s="27" r="U19">
         <v>171</v>
       </c>
-      <c t="s" s="28" r="V19">
+      <c t="s" s="27" r="V19">
         <v>172</v>
       </c>
     </row>
     <row customHeight="1" r="20" ht="12.75">
-      <c t="s" s="30" r="A20">
+      <c t="s" s="6" r="A20">
         <v>173</v>
       </c>
-      <c t="s" s="6" r="B20">
+      <c t="s" s="7" r="B20">
         <v>174</v>
       </c>
-      <c t="s" s="31" r="C20">
+      <c t="s" s="29" r="C20">
         <v>175</v>
       </c>
-      <c t="s" s="31" r="D20">
+      <c t="s" s="29" r="D20">
         <v>176</v>
       </c>
-      <c t="s" s="31" r="E20">
+      <c t="s" s="29" r="E20">
         <v>177</v>
       </c>
-      <c t="s" s="31" r="F20">
+      <c t="s" s="29" r="F20">
         <v>178</v>
       </c>
-      <c t="s" s="31" r="G20">
+      <c t="s" s="29" r="G20">
         <v>179</v>
       </c>
-      <c t="s" s="31" r="H20">
+      <c t="s" s="29" r="H20">
         <v>180</v>
       </c>
-      <c t="s" s="31" r="I20">
+      <c t="s" s="29" r="I20">
         <v>181</v>
       </c>
-      <c t="s" s="31" r="J20">
+      <c t="s" s="29" r="J20">
         <v>182</v>
       </c>
-      <c t="s" s="31" r="K20">
+      <c t="s" s="29" r="K20">
         <v>183</v>
       </c>
-      <c t="s" s="31" r="L20">
+      <c t="s" s="29" r="L20">
         <v>184</v>
       </c>
-      <c t="s" s="31" r="M20">
+      <c t="s" s="29" r="M20">
         <v>185</v>
       </c>
-      <c t="s" s="31" r="N20">
+      <c t="s" s="29" r="N20">
         <v>186</v>
       </c>
-      <c t="s" s="31" r="O20">
+      <c t="s" s="29" r="O20">
         <v>187</v>
       </c>
-      <c t="s" s="31" r="P20">
+      <c t="s" s="29" r="P20">
         <v>188</v>
       </c>
-      <c t="s" s="31" r="Q20">
+      <c t="s" s="29" r="Q20">
         <v>189</v>
       </c>
-      <c t="s" s="31" r="R20">
+      <c t="s" s="29" r="R20">
         <v>190</v>
       </c>
-      <c t="s" s="31" r="S20">
+      <c t="s" s="29" r="S20">
         <v>191</v>
       </c>
-      <c t="s" s="31" r="T20">
+      <c t="s" s="29" r="T20">
         <v>192</v>
       </c>
-      <c t="s" s="32" r="U20">
+      <c t="s" s="30" r="U20">
         <v>193</v>
       </c>
-      <c t="s" s="32" r="V20">
+      <c t="s" s="30" r="V20">
         <v>194</v>
       </c>
     </row>
     <row customHeight="1" r="21" ht="12.75">
-      <c t="s" s="31" r="C21">
+      <c t="s" s="29" r="C21">
         <v>195</v>
       </c>
-      <c t="s" s="31" r="D21">
+      <c t="s" s="29" r="D21">
         <v>196</v>
       </c>
-      <c t="s" s="31" r="E21">
+      <c t="s" s="29" r="E21">
         <v>197</v>
       </c>
-      <c t="s" s="31" r="F21">
+      <c t="s" s="29" r="F21">
         <v>198</v>
       </c>
-      <c t="s" s="31" r="G21">
+      <c t="s" s="29" r="G21">
         <v>199</v>
       </c>
-      <c t="s" s="31" r="H21">
+      <c t="s" s="29" r="H21">
         <v>200</v>
       </c>
-      <c t="s" s="31" r="I21">
+      <c t="s" s="29" r="I21">
         <v>201</v>
       </c>
-      <c t="s" s="31" r="J21">
+      <c t="s" s="29" r="J21">
         <v>202</v>
       </c>
-      <c t="s" s="31" r="K21">
+      <c t="s" s="29" r="K21">
         <v>203</v>
       </c>
-      <c t="s" s="31" r="L21">
+      <c t="s" s="29" r="L21">
         <v>204</v>
       </c>
-      <c t="s" s="31" r="M21">
+      <c t="s" s="29" r="M21">
         <v>205</v>
       </c>
-      <c t="s" s="31" r="N21">
+      <c t="s" s="29" r="N21">
         <v>206</v>
       </c>
-      <c t="s" s="31" r="O21">
+      <c t="s" s="29" r="O21">
         <v>207</v>
       </c>
-      <c t="s" s="31" r="P21">
+      <c t="s" s="29" r="P21">
         <v>208</v>
       </c>
-      <c t="s" s="31" r="Q21">
+      <c t="s" s="29" r="Q21">
         <v>209</v>
       </c>
-      <c t="s" s="31" r="R21">
+      <c t="s" s="29" r="R21">
         <v>210</v>
       </c>
-      <c t="s" s="31" r="S21">
+      <c t="s" s="29" r="S21">
         <v>211</v>
       </c>
-      <c t="s" s="31" r="T21">
+      <c t="s" s="29" r="T21">
         <v>212</v>
       </c>
-      <c t="s" s="32" r="U21">
+      <c t="s" s="30" r="U21">
         <v>213</v>
       </c>
-      <c t="s" s="13" r="V21">
+      <c t="s" s="12" r="V21">
         <v>214</v>
       </c>
     </row>
     <row customHeight="1" r="22" ht="12.75">
-      <c s="31" r="C22"/>
-      <c s="31" r="D22"/>
-      <c s="31" r="E22"/>
-      <c s="31" r="F22"/>
-      <c s="31" r="G22"/>
-      <c s="31" r="H22"/>
-      <c s="31" r="I22"/>
-      <c s="31" r="J22"/>
-      <c s="31" r="K22"/>
-      <c s="31" r="L22"/>
-      <c s="31" r="M22"/>
-      <c s="31" r="N22"/>
-      <c s="31" r="O22"/>
-      <c s="31" r="P22"/>
-      <c s="31" r="Q22"/>
-      <c s="31" r="R22"/>
-      <c s="31" r="S22"/>
-      <c t="s" s="31" r="T22">
+      <c s="29" r="C22"/>
+      <c s="29" r="D22"/>
+      <c s="29" r="E22"/>
+      <c s="29" r="F22"/>
+      <c s="29" r="G22"/>
+      <c s="29" r="H22"/>
+      <c s="29" r="I22"/>
+      <c s="29" r="J22"/>
+      <c s="29" r="K22"/>
+      <c s="29" r="L22"/>
+      <c s="29" r="M22"/>
+      <c s="29" r="N22"/>
+      <c s="29" r="O22"/>
+      <c s="29" r="P22"/>
+      <c s="29" r="Q22"/>
+      <c s="29" r="R22"/>
+      <c s="29" r="S22"/>
+      <c t="s" s="29" r="T22">
         <v>215</v>
       </c>
-      <c t="s" s="32" r="U22">
+      <c t="s" s="30" r="U22">
         <v>216</v>
       </c>
-      <c s="32" r="V22"/>
+      <c s="30" r="V22"/>
     </row>
     <row customHeight="1" r="23" ht="12.75">
-      <c t="s" s="15" r="A23">
+      <c t="s" s="25" r="A23">
         <v>217</v>
       </c>
-      <c t="s" s="27" r="B23">
+      <c t="s" s="26" r="B23">
         <v>218</v>
       </c>
-      <c t="s" s="28" r="C23">
+      <c t="s" s="27" r="C23">
         <v>219</v>
       </c>
-      <c t="s" s="28" r="D23">
+      <c t="s" s="27" r="D23">
         <v>220</v>
       </c>
-      <c t="s" s="28" r="E23">
+      <c t="s" s="27" r="E23">
         <v>221</v>
       </c>
-      <c t="s" s="28" r="F23">
+      <c t="s" s="27" r="F23">
         <v>222</v>
       </c>
-      <c t="s" s="28" r="G23">
+      <c t="s" s="27" r="G23">
         <v>223</v>
       </c>
-      <c t="s" s="28" r="H23">
+      <c t="s" s="27" r="H23">
         <v>224</v>
       </c>
-      <c t="s" s="28" r="I23">
+      <c t="s" s="27" r="I23">
         <v>225</v>
       </c>
-      <c t="s" s="28" r="J23">
+      <c t="s" s="27" r="J23">
         <v>226</v>
       </c>
-      <c t="s" s="28" r="K23">
+      <c t="s" s="27" r="K23">
         <v>227</v>
       </c>
-      <c t="s" s="28" r="L23">
+      <c t="s" s="27" r="L23">
         <v>228</v>
       </c>
-      <c t="s" s="28" r="M23">
+      <c t="s" s="27" r="M23">
         <v>229</v>
       </c>
-      <c t="s" s="28" r="N23">
+      <c t="s" s="27" r="N23">
         <v>230</v>
       </c>
-      <c t="s" s="18" r="O23">
+      <c t="s" s="16" r="O23">
         <v>231</v>
       </c>
-      <c t="s" s="18" r="P23">
+      <c t="s" s="16" r="P23">
         <v>232</v>
       </c>
-      <c t="s" s="18" r="Q23">
+      <c t="s" s="16" r="Q23">
         <v>233</v>
       </c>
-      <c t="s" s="18" r="R23">
+      <c t="s" s="16" r="R23">
         <v>234</v>
       </c>
-      <c t="s" s="18" r="S23">
+      <c t="s" s="16" r="S23">
         <v>235</v>
       </c>
-      <c t="s" s="18" r="T23">
+      <c t="s" s="16" r="T23">
         <v>236</v>
       </c>
-      <c t="s" s="28" r="U23">
+      <c t="s" s="27" r="U23">
         <v>237</v>
       </c>
-      <c t="s" s="28" r="V23">
+      <c t="s" s="27" r="V23">
         <v>238</v>
       </c>
     </row>
     <row customHeight="1" r="24" ht="12.75">
-      <c t="s" s="28" r="C24">
+      <c t="s" s="27" r="C24">
         <v>239</v>
       </c>
-      <c t="s" s="28" r="D24">
+      <c t="s" s="27" r="D24">
         <v>240</v>
       </c>
-      <c t="s" s="28" r="E24">
+      <c t="s" s="27" r="E24">
         <v>241</v>
       </c>
-      <c t="s" s="28" r="F24">
+      <c t="s" s="27" r="F24">
         <v>242</v>
       </c>
-      <c t="s" s="28" r="G24">
+      <c t="s" s="27" r="G24">
         <v>243</v>
       </c>
-      <c t="s" s="28" r="H24">
+      <c t="s" s="27" r="H24">
         <v>244</v>
       </c>
-      <c t="s" s="28" r="I24">
+      <c t="s" s="27" r="I24">
         <v>245</v>
       </c>
-      <c t="s" s="28" r="J24">
+      <c t="s" s="27" r="J24">
         <v>246</v>
       </c>
-      <c t="s" s="28" r="K24">
+      <c t="s" s="27" r="K24">
         <v>247</v>
       </c>
-      <c t="s" s="28" r="L24">
+      <c t="s" s="27" r="L24">
         <v>248</v>
       </c>
-      <c t="s" s="28" r="M24">
+      <c t="s" s="27" r="M24">
         <v>249</v>
       </c>
-      <c t="s" s="28" r="N24">
+      <c t="s" s="27" r="N24">
         <v>250</v>
       </c>
-      <c t="s" s="18" r="O24">
+      <c t="s" s="16" r="O24">
         <v>251</v>
       </c>
-      <c t="s" s="18" r="P24">
+      <c t="s" s="16" r="P24">
         <v>252</v>
       </c>
-      <c t="s" s="18" r="Q24">
+      <c t="s" s="16" r="Q24">
         <v>253</v>
       </c>
-      <c t="s" s="18" r="R24">
+      <c t="s" s="16" r="R24">
         <v>254</v>
       </c>
-      <c t="s" s="18" r="S24">
+      <c t="s" s="16" r="S24">
         <v>255</v>
       </c>
-      <c t="s" s="18" r="T24">
+      <c t="s" s="16" r="T24">
         <v>256</v>
       </c>
-      <c t="s" s="28" r="U24">
+      <c t="s" s="27" r="U24">
         <v>257</v>
       </c>
-      <c t="s" s="28" r="V24">
+      <c t="s" s="27" r="V24">
         <v>258</v>
       </c>
     </row>
     <row customHeight="1" r="25" ht="12.75">
-      <c s="28" r="C25"/>
-      <c s="28" r="D25"/>
-      <c s="28" r="E25"/>
-      <c s="28" r="F25"/>
-      <c s="28" r="G25"/>
-      <c s="28" r="H25"/>
-      <c s="28" r="I25"/>
-      <c s="28" r="J25"/>
-      <c s="28" r="K25"/>
-      <c s="28" r="L25"/>
-      <c s="28" r="M25"/>
-      <c s="28" r="N25"/>
-      <c s="18" r="O25"/>
-      <c s="18" r="P25"/>
-      <c s="18" r="Q25"/>
-      <c s="18" r="R25"/>
-      <c s="18" r="S25"/>
-      <c t="s" s="18" r="T25">
+      <c s="27" r="C25"/>
+      <c s="27" r="D25"/>
+      <c s="27" r="E25"/>
+      <c s="27" r="F25"/>
+      <c s="27" r="G25"/>
+      <c s="27" r="H25"/>
+      <c s="27" r="I25"/>
+      <c s="27" r="J25"/>
+      <c s="27" r="K25"/>
+      <c s="27" r="L25"/>
+      <c s="27" r="M25"/>
+      <c s="27" r="N25"/>
+      <c s="16" r="O25"/>
+      <c s="16" r="P25"/>
+      <c s="16" r="Q25"/>
+      <c s="16" r="R25"/>
+      <c s="16" r="S25"/>
+      <c t="s" s="16" r="T25">
         <v>259</v>
       </c>
-      <c t="s" s="28" r="U25">
+      <c t="s" s="27" r="U25">
         <v>260</v>
       </c>
-      <c t="s" s="28" r="V25">
+      <c t="s" s="27" r="V25">
         <v>261</v>
       </c>
     </row>
     <row customHeight="1" r="26" ht="12.75">
-      <c s="28" r="C26"/>
-      <c s="28" r="D26"/>
-      <c s="28" r="E26"/>
-      <c s="28" r="F26"/>
-      <c s="28" r="G26"/>
-      <c s="28" r="H26"/>
-      <c s="28" r="I26"/>
-      <c s="28" r="J26"/>
-      <c s="28" r="K26"/>
-      <c s="28" r="L26"/>
-      <c s="28" r="M26"/>
-      <c s="28" r="N26"/>
-      <c s="18" r="O26"/>
-      <c s="18" r="P26"/>
-      <c s="18" r="Q26"/>
-      <c s="18" r="R26"/>
-      <c s="18" r="S26"/>
-      <c s="18" r="T26"/>
-      <c s="28" r="U26"/>
-      <c t="s" s="17" r="V26">
+      <c s="27" r="C26"/>
+      <c s="27" r="D26"/>
+      <c s="27" r="E26"/>
+      <c s="27" r="F26"/>
+      <c s="27" r="G26"/>
+      <c s="27" r="H26"/>
+      <c s="27" r="I26"/>
+      <c s="27" r="J26"/>
+      <c s="27" r="K26"/>
+      <c s="27" r="L26"/>
+      <c s="27" r="M26"/>
+      <c s="27" r="N26"/>
+      <c s="16" r="O26"/>
+      <c s="16" r="P26"/>
+      <c s="16" r="Q26"/>
+      <c s="16" r="R26"/>
+      <c s="16" r="S26"/>
+      <c s="16" r="T26"/>
+      <c s="27" r="U26"/>
+      <c t="s" s="15" r="V26">
         <v>262</v>
       </c>
     </row>
     <row customHeight="1" r="27" ht="12.75">
-      <c t="s" s="33" r="A27">
+      <c t="s" s="6" r="A27">
         <v>263</v>
       </c>
-      <c t="s" s="34" r="B27">
+      <c t="s" s="7" r="B27">
         <v>264</v>
       </c>
-      <c t="s" s="31" r="C27">
+      <c t="s" s="29" r="C27">
         <v>265</v>
       </c>
-      <c t="s" s="31" r="D27">
+      <c t="s" s="29" r="D27">
         <v>266</v>
       </c>
-      <c t="s" s="31" r="E27">
+      <c t="s" s="29" r="E27">
         <v>267</v>
       </c>
-      <c t="s" s="31" r="F27">
+      <c t="s" s="29" r="F27">
         <v>268</v>
       </c>
-      <c t="s" s="31" r="G27">
+      <c t="s" s="29" r="G27">
         <v>269</v>
       </c>
-      <c t="s" s="31" r="H27">
+      <c t="s" s="29" r="H27">
         <v>270</v>
       </c>
-      <c t="s" s="31" r="I27">
+      <c t="s" s="29" r="I27">
         <v>271</v>
       </c>
-      <c t="s" s="31" r="J27">
+      <c t="s" s="29" r="J27">
         <v>272</v>
       </c>
-      <c t="s" s="31" r="K27">
+      <c t="s" s="29" r="K27">
         <v>273</v>
       </c>
-      <c t="s" s="31" r="L27">
+      <c t="s" s="29" r="L27">
         <v>274</v>
       </c>
-      <c t="s" s="31" r="M27">
+      <c t="s" s="29" r="M27">
         <v>275</v>
       </c>
-      <c t="s" s="31" r="N27">
+      <c t="s" s="29" r="N27">
         <v>276</v>
       </c>
-      <c t="s" s="14" r="O27">
+      <c t="s" s="1" r="O27">
         <v>277</v>
       </c>
-      <c t="s" s="14" r="P27">
+      <c t="s" s="1" r="P27">
         <v>278</v>
       </c>
-      <c t="s" s="14" r="Q27">
+      <c t="s" s="1" r="Q27">
         <v>279</v>
       </c>
-      <c t="s" s="14" r="R27">
+      <c t="s" s="1" r="R27">
         <v>280</v>
       </c>
-      <c t="s" s="14" r="S27">
+      <c t="s" s="1" r="S27">
         <v>281</v>
       </c>
-      <c t="s" s="14" r="T27">
+      <c t="s" s="1" r="T27">
         <v>282</v>
       </c>
-      <c t="s" s="32" r="U27">
+      <c t="s" s="30" r="U27">
         <v>283</v>
       </c>
-      <c t="s" s="32" r="V27">
+      <c t="s" s="30" r="V27">
         <v>284</v>
       </c>
     </row>
     <row customHeight="1" r="28" ht="12.75">
-      <c t="s" s="31" r="C28">
+      <c t="s" s="29" r="C28">
         <v>285</v>
       </c>
-      <c t="s" s="31" r="D28">
+      <c t="s" s="29" r="D28">
         <v>286</v>
       </c>
-      <c t="s" s="31" r="E28">
+      <c t="s" s="29" r="E28">
         <v>287</v>
       </c>
-      <c t="s" s="31" r="F28">
+      <c t="s" s="29" r="F28">
         <v>288</v>
       </c>
-      <c t="s" s="31" r="G28">
+      <c t="s" s="29" r="G28">
         <v>289</v>
       </c>
-      <c t="s" s="31" r="H28">
+      <c t="s" s="29" r="H28">
         <v>290</v>
       </c>
-      <c t="s" s="31" r="I28">
+      <c t="s" s="29" r="I28">
         <v>291</v>
       </c>
-      <c t="s" s="31" r="J28">
+      <c t="s" s="29" r="J28">
         <v>292</v>
       </c>
-      <c t="s" s="31" r="K28">
+      <c t="s" s="29" r="K28">
         <v>293</v>
       </c>
-      <c t="s" s="31" r="L28">
+      <c t="s" s="29" r="L28">
         <v>294</v>
       </c>
-      <c t="s" s="31" r="M28">
+      <c t="s" s="29" r="M28">
         <v>295</v>
       </c>
-      <c t="s" s="31" r="N28">
+      <c t="s" s="29" r="N28">
         <v>296</v>
       </c>
-      <c t="s" s="14" r="O28">
+      <c t="s" s="1" r="O28">
         <v>297</v>
       </c>
-      <c t="s" s="14" r="P28">
+      <c t="s" s="1" r="P28">
         <v>298</v>
       </c>
-      <c t="s" s="14" r="Q28">
+      <c t="s" s="1" r="Q28">
         <v>299</v>
       </c>
-      <c t="s" s="14" r="R28">
+      <c t="s" s="1" r="R28">
         <v>300</v>
       </c>
-      <c t="s" s="14" r="S28">
+      <c t="s" s="1" r="S28">
         <v>301</v>
       </c>
-      <c t="s" s="14" r="T28">
+      <c t="s" s="1" r="T28">
         <v>302</v>
       </c>
-      <c t="s" s="32" r="U28">
+      <c t="s" s="30" r="U28">
         <v>303</v>
       </c>
-      <c t="s" s="32" r="V28">
+      <c t="s" s="30" r="V28">
         <v>304</v>
       </c>
     </row>
     <row customHeight="1" r="29" ht="12.75">
-      <c s="31" r="C29"/>
-      <c s="31" r="D29"/>
-      <c s="31" r="E29"/>
-      <c s="31" r="F29"/>
-      <c s="31" r="G29"/>
-      <c s="31" r="H29"/>
-      <c s="31" r="I29"/>
-      <c s="31" r="J29"/>
-      <c s="31" r="K29"/>
-      <c s="31" r="L29"/>
-      <c s="31" r="M29"/>
-      <c s="31" r="N29"/>
-      <c t="s" s="14" r="O29">
+      <c s="29" r="C29"/>
+      <c s="29" r="D29"/>
+      <c s="29" r="E29"/>
+      <c s="29" r="F29"/>
+      <c s="29" r="G29"/>
+      <c s="29" r="H29"/>
+      <c s="29" r="I29"/>
+      <c s="29" r="J29"/>
+      <c s="29" r="K29"/>
+      <c s="29" r="L29"/>
+      <c s="29" r="M29"/>
+      <c s="29" r="N29"/>
+      <c t="s" s="1" r="O29">
         <v>305</v>
       </c>
-      <c t="s" s="14" r="P29">
+      <c t="s" s="1" r="P29">
         <v>306</v>
       </c>
-      <c t="s" s="14" r="Q29">
+      <c t="s" s="1" r="Q29">
         <v>307</v>
       </c>
-      <c t="s" s="14" r="R29">
+      <c t="s" s="1" r="R29">
         <v>308</v>
       </c>
-      <c t="s" s="14" r="S29">
+      <c t="s" s="1" r="S29">
         <v>309</v>
       </c>
-      <c t="s" s="14" r="T29">
+      <c t="s" s="1" r="T29">
         <v>310</v>
       </c>
-      <c t="s" s="32" r="U29">
+      <c t="s" s="30" r="U29">
         <v>311</v>
       </c>
-      <c t="s" s="32" r="V29">
+      <c t="s" s="30" r="V29">
         <v>312</v>
       </c>
     </row>
     <row customHeight="1" r="30" ht="12.75">
-      <c s="31" r="C30"/>
-      <c s="31" r="D30"/>
-      <c s="31" r="E30"/>
-      <c s="31" r="F30"/>
-      <c s="31" r="G30"/>
-      <c s="31" r="H30"/>
-      <c s="31" r="I30"/>
-      <c s="31" r="J30"/>
-      <c s="31" r="K30"/>
-      <c s="31" r="L30"/>
-      <c s="31" r="M30"/>
-      <c s="31" r="N30"/>
-      <c s="14" r="O30"/>
-      <c s="14" r="P30"/>
-      <c s="14" r="Q30"/>
-      <c s="14" r="R30"/>
-      <c s="14" r="S30"/>
-      <c s="14" r="T30"/>
-      <c s="32" r="U30"/>
-      <c t="s" s="13" r="V30">
+      <c s="29" r="C30"/>
+      <c s="29" r="D30"/>
+      <c s="29" r="E30"/>
+      <c s="29" r="F30"/>
+      <c s="29" r="G30"/>
+      <c s="29" r="H30"/>
+      <c s="29" r="I30"/>
+      <c s="29" r="J30"/>
+      <c s="29" r="K30"/>
+      <c s="29" r="L30"/>
+      <c s="29" r="M30"/>
+      <c s="29" r="N30"/>
+      <c s="1" r="O30"/>
+      <c s="1" r="P30"/>
+      <c s="1" r="Q30"/>
+      <c s="1" r="R30"/>
+      <c s="1" r="S30"/>
+      <c s="1" r="T30"/>
+      <c s="30" r="U30"/>
+      <c t="s" s="12" r="V30">
         <v>313</v>
       </c>
     </row>
     <row customHeight="1" r="31" ht="12.75">
-      <c t="s" s="35" r="A31">
+      <c t="s" s="31" r="A31">
         <v>314</v>
       </c>
-      <c t="s" s="29" r="B31">
+      <c t="s" s="28" r="B31">
         <v>315</v>
       </c>
-      <c t="s" s="17" r="C31">
+      <c t="s" s="15" r="C31">
         <v>316</v>
       </c>
-      <c t="s" s="29" r="D31">
+      <c t="s" s="28" r="D31">
         <v>317</v>
       </c>
-      <c t="s" s="29" r="E31">
+      <c t="s" s="28" r="E31">
         <v>318</v>
       </c>
-      <c t="s" s="29" r="F31">
+      <c t="s" s="28" r="F31">
         <v>319</v>
       </c>
-      <c t="s" s="29" r="G31">
+      <c t="s" s="28" r="G31">
         <v>320</v>
       </c>
-      <c t="s" s="29" r="H31">
+      <c t="s" s="28" r="H31">
         <v>321</v>
       </c>
-      <c t="s" s="29" r="I31">
+      <c t="s" s="28" r="I31">
         <v>322</v>
       </c>
-      <c t="s" s="29" r="J31">
+      <c t="s" s="28" r="J31">
         <v>323</v>
       </c>
-      <c t="s" s="29" r="K31">
+      <c t="s" s="28" r="K31">
         <v>324</v>
       </c>
-      <c t="s" s="29" r="L31">
+      <c t="s" s="28" r="L31">
         <v>325</v>
       </c>
-      <c t="s" s="29" r="M31">
+      <c t="s" s="28" r="M31">
         <v>326</v>
       </c>
-      <c t="s" s="29" r="N31">
+      <c t="s" s="28" r="N31">
         <v>327</v>
       </c>
-      <c t="s" s="18" r="O31">
+      <c t="s" s="16" r="O31">
         <v>328</v>
       </c>
-      <c t="s" s="18" r="P31">
+      <c t="s" s="16" r="P31">
         <v>329</v>
       </c>
-      <c t="s" s="18" r="Q31">
+      <c t="s" s="16" r="Q31">
         <v>330</v>
       </c>
-      <c t="s" s="18" r="R31">
+      <c t="s" s="16" r="R31">
         <v>331</v>
       </c>
-      <c t="s" s="18" r="S31">
+      <c t="s" s="16" r="S31">
         <v>332</v>
       </c>
-      <c t="s" s="18" r="T31">
+      <c t="s" s="16" r="T31">
         <v>333</v>
       </c>
-      <c t="s" s="17" r="U31">
+      <c t="s" s="15" r="U31">
         <v>334</v>
       </c>
-      <c t="s" s="29" r="V31">
+      <c t="s" s="28" r="V31">
         <v>335</v>
       </c>
     </row>
     <row customHeight="1" r="32" ht="12.75">
-      <c s="17" r="C32"/>
-      <c t="s" s="29" r="D32">
+      <c s="15" r="C32"/>
+      <c t="s" s="28" r="D32">
         <v>336</v>
       </c>
-      <c t="s" s="29" r="E32">
+      <c t="s" s="28" r="E32">
         <v>337</v>
       </c>
-      <c t="s" s="29" r="F32">
+      <c t="s" s="28" r="F32">
         <v>338</v>
       </c>
-      <c t="s" s="29" r="G32">
+      <c t="s" s="28" r="G32">
         <v>339</v>
       </c>
-      <c t="s" s="29" r="H32">
+      <c t="s" s="28" r="H32">
         <v>340</v>
       </c>
-      <c t="s" s="29" r="I32">
+      <c t="s" s="28" r="I32">
         <v>341</v>
       </c>
-      <c t="s" s="29" r="J32">
+      <c t="s" s="28" r="J32">
         <v>342</v>
       </c>
-      <c t="s" s="29" r="K32">
+      <c t="s" s="28" r="K32">
         <v>343</v>
       </c>
-      <c t="s" s="29" r="L32">
+      <c t="s" s="28" r="L32">
         <v>344</v>
       </c>
-      <c t="s" s="29" r="M32">
+      <c t="s" s="28" r="M32">
         <v>345</v>
       </c>
-      <c t="s" s="29" r="N32">
+      <c t="s" s="28" r="N32">
         <v>346</v>
       </c>
-      <c t="s" s="18" r="O32">
+      <c t="s" s="16" r="O32">
         <v>347</v>
       </c>
-      <c t="s" s="18" r="P32">
+      <c t="s" s="16" r="P32">
         <v>348</v>
       </c>
-      <c t="s" s="18" r="Q32">
+      <c t="s" s="16" r="Q32">
         <v>349</v>
       </c>
-      <c t="s" s="18" r="R32">
+      <c t="s" s="16" r="R32">
         <v>350</v>
       </c>
-      <c t="s" s="18" r="S32">
+      <c t="s" s="16" r="S32">
         <v>351</v>
       </c>
-      <c t="s" s="18" r="T32">
+      <c t="s" s="16" r="T32">
         <v>352</v>
       </c>
-      <c t="s" s="17" r="U32">
+      <c t="s" s="15" r="U32">
         <v>353</v>
       </c>
-      <c t="s" s="17" r="V32">
+      <c t="s" s="15" r="V32">
         <v>354</v>
       </c>
     </row>
     <row customHeight="1" r="33" ht="12.75">
-      <c t="s" s="36" r="A33">
+      <c t="s" s="6" r="A33">
         <v>355</v>
       </c>
-      <c t="s" s="6" r="B33">
+      <c t="s" s="7" r="B33">
         <v>356</v>
       </c>
-      <c t="s" s="13" r="C33">
+      <c t="s" s="12" r="C33">
         <v>357</v>
       </c>
-      <c t="s" s="37" r="D33">
+      <c t="s" s="32" r="D33">
         <v>358</v>
       </c>
-      <c t="s" s="37" r="E33">
+      <c t="s" s="32" r="E33">
         <v>359</v>
       </c>
-      <c t="s" s="37" r="F33">
+      <c t="s" s="32" r="F33">
         <v>360</v>
       </c>
-      <c t="s" s="37" r="G33">
+      <c t="s" s="32" r="G33">
         <v>361</v>
       </c>
-      <c t="s" s="37" r="H33">
+      <c t="s" s="32" r="H33">
         <v>362</v>
       </c>
-      <c t="s" s="37" r="I33">
+      <c t="s" s="32" r="I33">
         <v>363</v>
       </c>
-      <c t="s" s="37" r="J33">
+      <c t="s" s="32" r="J33">
         <v>364</v>
       </c>
-      <c t="s" s="37" r="K33">
+      <c t="s" s="32" r="K33">
         <v>365</v>
       </c>
-      <c t="s" s="37" r="L33">
+      <c t="s" s="32" r="L33">
         <v>366</v>
       </c>
-      <c t="s" s="37" r="M33">
+      <c t="s" s="32" r="M33">
         <v>367</v>
       </c>
-      <c t="s" s="37" r="N33">
+      <c t="s" s="32" r="N33">
         <v>368</v>
       </c>
-      <c t="s" s="14" r="O33">
+      <c t="s" s="1" r="O33">
         <v>369</v>
       </c>
-      <c t="s" s="14" r="P33">
+      <c t="s" s="1" r="P33">
         <v>370</v>
       </c>
-      <c t="s" s="14" r="Q33">
+      <c t="s" s="1" r="Q33">
         <v>371</v>
       </c>
-      <c t="s" s="14" r="R33">
+      <c t="s" s="1" r="R33">
         <v>372</v>
       </c>
-      <c t="s" s="14" r="S33">
+      <c t="s" s="1" r="S33">
         <v>373</v>
       </c>
-      <c t="s" s="14" r="T33">
+      <c t="s" s="1" r="T33">
         <v>374</v>
       </c>
-      <c t="s" s="13" r="U33">
+      <c t="s" s="12" r="U33">
         <v>375</v>
       </c>
-      <c t="s" s="12" r="V33">
+      <c t="s" s="11" r="V33">
         <v>376</v>
       </c>
     </row>
     <row customHeight="1" r="34" ht="12.75">
-      <c s="13" r="C34"/>
-      <c t="s" s="37" r="D34">
+      <c s="12" r="C34"/>
+      <c t="s" s="32" r="D34">
         <v>377</v>
       </c>
-      <c t="s" s="37" r="E34">
+      <c t="s" s="32" r="E34">
         <v>378</v>
       </c>
-      <c t="s" s="37" r="F34">
+      <c t="s" s="32" r="F34">
         <v>379</v>
       </c>
-      <c t="s" s="37" r="G34">
+      <c t="s" s="32" r="G34">
         <v>380</v>
       </c>
-      <c t="s" s="37" r="H34">
+      <c t="s" s="32" r="H34">
         <v>381</v>
       </c>
-      <c t="s" s="37" r="I34">
+      <c t="s" s="32" r="I34">
         <v>382</v>
       </c>
-      <c t="s" s="37" r="J34">
+      <c t="s" s="32" r="J34">
         <v>383</v>
       </c>
-      <c t="s" s="37" r="K34">
+      <c t="s" s="32" r="K34">
         <v>384</v>
       </c>
-      <c t="s" s="37" r="L34">
+      <c t="s" s="32" r="L34">
         <v>385</v>
       </c>
-      <c t="s" s="37" r="M34">
+      <c t="s" s="32" r="M34">
         <v>386</v>
       </c>
-      <c t="s" s="37" r="N34">
+      <c t="s" s="32" r="N34">
         <v>387</v>
       </c>
-      <c t="s" s="14" r="O34">
+      <c t="s" s="1" r="O34">
         <v>388</v>
       </c>
-      <c t="s" s="14" r="P34">
+      <c t="s" s="1" r="P34">
         <v>389</v>
       </c>
-      <c t="s" s="14" r="Q34">
+      <c t="s" s="1" r="Q34">
         <v>390</v>
       </c>
-      <c t="s" s="14" r="R34">
+      <c t="s" s="1" r="R34">
         <v>391</v>
       </c>
-      <c t="s" s="14" r="S34">
+      <c t="s" s="1" r="S34">
         <v>392</v>
       </c>
-      <c t="s" s="14" r="T34">
+      <c t="s" s="1" r="T34">
         <v>393</v>
       </c>
-      <c t="s" s="13" r="U34">
+      <c t="s" s="12" r="U34">
         <v>394</v>
       </c>
-      <c t="s" s="13" r="V34">
+      <c t="s" s="12" r="V34">
         <v>395</v>
       </c>
     </row>
     <row customHeight="1" r="35" ht="12.75">
-      <c t="s" s="35" r="A35">
+      <c t="s" s="31" r="A35">
         <v>396</v>
       </c>
-      <c t="s" s="29" r="B35">
+      <c t="s" s="28" r="B35">
         <v>397</v>
       </c>
-      <c t="s" s="17" r="C35">
+      <c t="s" s="15" r="C35">
         <v>398</v>
       </c>
-      <c t="s" s="29" r="D35">
+      <c t="s" s="28" r="D35">
         <v>399</v>
       </c>
-      <c t="s" s="29" r="E35">
+      <c t="s" s="28" r="E35">
         <v>400</v>
       </c>
-      <c t="s" s="29" r="F35">
+      <c t="s" s="28" r="F35">
         <v>401</v>
       </c>
-      <c t="s" s="29" r="G35">
+      <c t="s" s="28" r="G35">
         <v>402</v>
       </c>
-      <c t="s" s="29" r="H35">
+      <c t="s" s="28" r="H35">
         <v>403</v>
       </c>
-      <c t="s" s="29" r="I35">
+      <c t="s" s="28" r="I35">
         <v>404</v>
       </c>
-      <c t="s" s="29" r="J35">
+      <c t="s" s="28" r="J35">
         <v>405</v>
       </c>
-      <c t="s" s="29" r="K35">
+      <c t="s" s="28" r="K35">
         <v>406</v>
       </c>
-      <c t="s" s="29" r="L35">
+      <c t="s" s="28" r="L35">
         <v>407</v>
       </c>
-      <c t="s" s="29" r="M35">
+      <c t="s" s="28" r="M35">
         <v>408</v>
       </c>
-      <c t="s" s="29" r="N35">
+      <c t="s" s="28" r="N35">
         <v>409</v>
       </c>
-      <c t="s" s="18" r="O35">
+      <c t="s" s="16" r="O35">
         <v>410</v>
       </c>
-      <c t="s" s="18" r="P35">
+      <c t="s" s="16" r="P35">
         <v>411</v>
       </c>
-      <c t="s" s="18" r="Q35">
+      <c t="s" s="16" r="Q35">
         <v>412</v>
       </c>
-      <c t="s" s="18" r="R35">
+      <c t="s" s="16" r="R35">
         <v>413</v>
       </c>
-      <c t="s" s="18" r="S35">
+      <c t="s" s="16" r="S35">
         <v>414</v>
       </c>
-      <c t="s" s="18" r="T35">
+      <c t="s" s="16" r="T35">
         <v>415</v>
       </c>
-      <c t="s" s="17" r="U35">
+      <c t="s" s="15" r="U35">
         <v>416</v>
       </c>
-      <c t="s" s="29" r="V35">
+      <c t="s" s="28" r="V35">
         <v>417</v>
       </c>
     </row>
     <row customHeight="1" r="36" ht="12.75">
-      <c s="17" r="C36"/>
-      <c t="s" s="29" r="D36">
+      <c s="15" r="C36"/>
+      <c t="s" s="28" r="D36">
         <v>418</v>
       </c>
-      <c t="s" s="29" r="E36">
+      <c t="s" s="28" r="E36">
         <v>419</v>
       </c>
-      <c t="s" s="29" r="F36">
+      <c t="s" s="28" r="F36">
         <v>420</v>
       </c>
-      <c t="s" s="29" r="G36">
+      <c t="s" s="28" r="G36">
         <v>421</v>
       </c>
-      <c t="s" s="29" r="H36">
+      <c t="s" s="28" r="H36">
         <v>422</v>
       </c>
-      <c t="s" s="29" r="I36">
+      <c t="s" s="28" r="I36">
         <v>423</v>
       </c>
-      <c t="s" s="29" r="J36">
+      <c t="s" s="28" r="J36">
         <v>424</v>
       </c>
-      <c t="s" s="29" r="K36">
+      <c t="s" s="28" r="K36">
         <v>425</v>
       </c>
-      <c t="s" s="29" r="L36">
+      <c t="s" s="28" r="L36">
         <v>426</v>
       </c>
-      <c t="s" s="29" r="M36">
+      <c t="s" s="28" r="M36">
         <v>427</v>
       </c>
-      <c t="s" s="29" r="N36">
+      <c t="s" s="28" r="N36">
         <v>428</v>
       </c>
-      <c t="s" s="18" r="O36">
+      <c t="s" s="16" r="O36">
         <v>429</v>
       </c>
-      <c t="s" s="18" r="P36">
+      <c t="s" s="16" r="P36">
         <v>430</v>
       </c>
-      <c t="s" s="18" r="Q36">
+      <c t="s" s="16" r="Q36">
         <v>431</v>
       </c>
-      <c t="s" s="18" r="R36">
+      <c t="s" s="16" r="R36">
         <v>432</v>
       </c>
-      <c t="s" s="18" r="S36">
+      <c t="s" s="16" r="S36">
         <v>433</v>
       </c>
-      <c t="s" s="18" r="T36">
+      <c t="s" s="16" r="T36">
         <v>434</v>
       </c>
-      <c t="s" s="17" r="U36">
+      <c t="s" s="15" r="U36">
         <v>435</v>
       </c>
-      <c t="s" s="17" r="V36">
+      <c t="s" s="15" r="V36">
         <v>436</v>
       </c>
     </row>
     <row customHeight="1" r="37" ht="12.75">
-      <c t="s" s="38" r="A37">
+      <c t="s" s="6" r="A37">
         <v>437</v>
       </c>
-      <c t="s" s="6" r="B37">
+      <c t="s" s="7" r="B37">
         <v>438</v>
       </c>
-      <c t="s" s="13" r="C37">
+      <c t="s" s="12" r="C37">
         <v>439</v>
       </c>
-      <c t="s" s="37" r="D37">
+      <c t="s" s="32" r="D37">
         <v>440</v>
       </c>
-      <c t="s" s="37" r="E37">
+      <c t="s" s="32" r="E37">
         <v>441</v>
       </c>
-      <c t="s" s="37" r="F37">
+      <c t="s" s="32" r="F37">
         <v>442</v>
       </c>
-      <c t="s" s="37" r="G37">
+      <c t="s" s="32" r="G37">
         <v>443</v>
       </c>
-      <c t="s" s="37" r="H37">
+      <c t="s" s="32" r="H37">
         <v>444</v>
       </c>
-      <c t="s" s="37" r="I37">
+      <c t="s" s="32" r="I37">
         <v>445</v>
       </c>
-      <c t="s" s="37" r="J37">
+      <c t="s" s="32" r="J37">
         <v>446</v>
       </c>
-      <c t="s" s="37" r="K37">
+      <c t="s" s="32" r="K37">
         <v>447</v>
       </c>
-      <c t="s" s="37" r="L37">
+      <c t="s" s="32" r="L37">
         <v>448</v>
       </c>
-      <c t="s" s="37" r="M37">
+      <c t="s" s="32" r="M37">
         <v>449</v>
       </c>
-      <c t="s" s="37" r="N37">
+      <c t="s" s="32" r="N37">
         <v>450</v>
       </c>
-      <c t="s" s="14" r="O37">
+      <c t="s" s="1" r="O37">
         <v>451</v>
       </c>
-      <c t="s" s="14" r="P37">
+      <c t="s" s="1" r="P37">
         <v>452</v>
       </c>
-      <c t="s" s="14" r="Q37">
+      <c t="s" s="1" r="Q37">
         <v>453</v>
       </c>
-      <c t="s" s="14" r="R37">
+      <c t="s" s="1" r="R37">
         <v>454</v>
       </c>
-      <c t="s" s="14" r="S37">
+      <c t="s" s="1" r="S37">
         <v>455</v>
       </c>
-      <c t="s" s="14" r="T37">
+      <c t="s" s="1" r="T37">
         <v>456</v>
       </c>
-      <c t="s" s="13" r="U37">
+      <c t="s" s="12" r="U37">
         <v>457</v>
       </c>
-      <c t="s" s="12" r="V37">
+      <c t="s" s="11" r="V37">
         <v>458</v>
       </c>
     </row>
     <row customHeight="1" r="38" ht="12.75">
-      <c s="34" r="C38"/>
-      <c t="s" s="37" r="D38">
+      <c s="33" r="C38"/>
+      <c t="s" s="32" r="D38">
         <v>459</v>
       </c>
-      <c t="s" s="37" r="E38">
+      <c t="s" s="32" r="E38">
         <v>460</v>
       </c>
-      <c t="s" s="37" r="F38">
+      <c t="s" s="32" r="F38">
         <v>461</v>
       </c>
-      <c t="s" s="37" r="G38">
+      <c t="s" s="32" r="G38">
         <v>462</v>
       </c>
-      <c t="s" s="37" r="H38">
+      <c t="s" s="32" r="H38">
         <v>463</v>
       </c>
-      <c t="s" s="37" r="I38">
+      <c t="s" s="32" r="I38">
         <v>464</v>
       </c>
-      <c t="s" s="37" r="J38">
+      <c t="s" s="32" r="J38">
         <v>465</v>
       </c>
-      <c t="s" s="37" r="K38">
+      <c t="s" s="32" r="K38">
         <v>466</v>
       </c>
-      <c t="s" s="37" r="L38">
+      <c t="s" s="32" r="L38">
         <v>467</v>
       </c>
-      <c t="s" s="37" r="M38">
+      <c t="s" s="32" r="M38">
         <v>468</v>
       </c>
-      <c t="s" s="37" r="N38">
+      <c t="s" s="32" r="N38">
         <v>469</v>
       </c>
-      <c t="s" s="14" r="O38">
+      <c t="s" s="1" r="O38">
         <v>470</v>
       </c>
-      <c t="s" s="14" r="P38">
+      <c t="s" s="1" r="P38">
         <v>471</v>
       </c>
-      <c t="s" s="14" r="Q38">
+      <c t="s" s="1" r="Q38">
         <v>472</v>
       </c>
-      <c t="s" s="14" r="R38">
+      <c t="s" s="1" r="R38">
         <v>473</v>
       </c>
-      <c t="s" s="14" r="S38">
+      <c t="s" s="1" r="S38">
         <v>474</v>
       </c>
-      <c t="s" s="14" r="T38">
+      <c t="s" s="1" r="T38">
         <v>475</v>
       </c>
-      <c t="s" s="13" r="U38">
+      <c t="s" s="12" r="U38">
         <v>476</v>
       </c>
-      <c t="s" s="13" r="V38">
+      <c t="s" s="12" r="V38">
         <v>477</v>
       </c>
     </row>
     <row customHeight="1" r="39" ht="12.75">
-      <c t="s" s="35" r="A39">
+      <c t="s" s="25" r="A39">
         <v>478</v>
       </c>
-      <c t="s" s="27" r="B39">
+      <c t="s" s="26" r="B39">
         <v>479</v>
       </c>
-      <c t="s" s="27" r="C39">
+      <c t="s" s="26" r="C39">
         <v>480</v>
       </c>
-      <c t="s" s="29" r="D39">
+      <c t="s" s="28" r="D39">
         <v>481</v>
       </c>
-      <c t="s" s="29" r="E39">
+      <c t="s" s="28" r="E39">
         <v>482</v>
       </c>
-      <c t="s" s="29" r="F39">
+      <c t="s" s="28" r="F39">
         <v>483</v>
       </c>
-      <c t="s" s="29" r="G39">
+      <c t="s" s="28" r="G39">
         <v>484</v>
       </c>
-      <c t="s" s="29" r="H39">
+      <c t="s" s="28" r="H39">
         <v>485</v>
       </c>
-      <c t="s" s="29" r="I39">
+      <c t="s" s="28" r="I39">
         <v>486</v>
       </c>
-      <c t="s" s="29" r="J39">
+      <c t="s" s="28" r="J39">
         <v>487</v>
       </c>
-      <c t="s" s="29" r="K39">
+      <c t="s" s="28" r="K39">
         <v>488</v>
       </c>
-      <c t="s" s="29" r="L39">
+      <c t="s" s="28" r="L39">
         <v>489</v>
       </c>
-      <c t="s" s="29" r="M39">
+      <c t="s" s="28" r="M39">
         <v>490</v>
       </c>
-      <c t="s" s="29" r="N39">
+      <c t="s" s="28" r="N39">
         <v>491</v>
       </c>
-      <c t="s" s="18" r="O39">
+      <c t="s" s="16" r="O39">
         <v>492</v>
       </c>
-      <c t="s" s="18" r="P39">
+      <c t="s" s="16" r="P39">
         <v>493</v>
       </c>
-      <c t="s" s="18" r="Q39">
+      <c t="s" s="16" r="Q39">
         <v>494</v>
       </c>
-      <c t="s" s="18" r="R39">
+      <c t="s" s="16" r="R39">
         <v>495</v>
       </c>
-      <c t="s" s="18" r="S39">
+      <c t="s" s="16" r="S39">
         <v>496</v>
       </c>
-      <c t="s" s="18" r="T39">
+      <c t="s" s="16" r="T39">
         <v>497</v>
       </c>
-      <c t="s" s="17" r="U39">
+      <c t="s" s="15" r="U39">
         <v>498</v>
       </c>
-      <c t="s" s="29" r="V39">
+      <c t="s" s="28" r="V39">
         <v>499</v>
       </c>
     </row>
     <row customHeight="1" r="40" ht="12.75">
-      <c s="27" r="C40"/>
-      <c t="s" s="29" r="D40">
+      <c s="26" r="C40"/>
+      <c t="s" s="28" r="D40">
         <v>500</v>
       </c>
-      <c t="s" s="29" r="E40">
+      <c t="s" s="28" r="E40">
         <v>501</v>
       </c>
-      <c t="s" s="29" r="F40">
+      <c t="s" s="28" r="F40">
         <v>502</v>
       </c>
-      <c t="s" s="29" r="G40">
+      <c t="s" s="28" r="G40">
         <v>503</v>
       </c>
-      <c t="s" s="29" r="H40">
+      <c t="s" s="28" r="H40">
         <v>504</v>
       </c>
-      <c t="s" s="29" r="I40">
+      <c t="s" s="28" r="I40">
         <v>505</v>
       </c>
-      <c t="s" s="29" r="J40">
+      <c t="s" s="28" r="J40">
         <v>506</v>
       </c>
-      <c t="s" s="29" r="K40">
+      <c t="s" s="28" r="K40">
         <v>507</v>
       </c>
-      <c t="s" s="29" r="L40">
+      <c t="s" s="28" r="L40">
         <v>508</v>
       </c>
-      <c t="s" s="29" r="M40">
+      <c t="s" s="28" r="M40">
         <v>509</v>
       </c>
-      <c t="s" s="29" r="N40">
+      <c t="s" s="28" r="N40">
         <v>510</v>
       </c>
-      <c t="s" s="18" r="O40">
+      <c t="s" s="16" r="O40">
         <v>511</v>
       </c>
-      <c t="s" s="18" r="P40">
+      <c t="s" s="16" r="P40">
         <v>512</v>
       </c>
-      <c t="s" s="18" r="Q40">
+      <c t="s" s="16" r="Q40">
         <v>513</v>
       </c>
-      <c t="s" s="18" r="R40">
+      <c t="s" s="16" r="R40">
         <v>514</v>
       </c>
-      <c t="s" s="18" r="S40">
+      <c t="s" s="16" r="S40">
         <v>515</v>
       </c>
-      <c t="s" s="18" r="T40">
+      <c t="s" s="16" r="T40">
         <v>516</v>
       </c>
-      <c t="s" s="27" r="U40">
+      <c t="s" s="26" r="U40">
         <v>517</v>
       </c>
-      <c t="s" s="29" r="V40">
+      <c t="s" s="28" r="V40">
         <v>518</v>
       </c>
     </row>
     <row customHeight="1" r="41" ht="12.75">
-      <c s="27" r="C41"/>
-      <c t="s" s="29" r="D41">
+      <c s="26" r="C41"/>
+      <c t="s" s="28" r="D41">
         <v>519</v>
       </c>
-      <c t="s" s="29" r="E41">
+      <c t="s" s="28" r="E41">
         <v>520</v>
       </c>
-      <c t="s" s="29" r="F41">
+      <c t="s" s="28" r="F41">
         <v>521</v>
       </c>
-      <c t="s" s="29" r="G41">
+      <c t="s" s="28" r="G41">
         <v>522</v>
       </c>
-      <c t="s" s="29" r="H41">
+      <c t="s" s="28" r="H41">
         <v>523</v>
       </c>
-      <c t="s" s="29" r="I41">
+      <c t="s" s="28" r="I41">
         <v>524</v>
       </c>
-      <c t="s" s="29" r="J41">
+      <c t="s" s="28" r="J41">
         <v>525</v>
       </c>
-      <c t="s" s="29" r="K41">
+      <c t="s" s="28" r="K41">
         <v>526</v>
       </c>
-      <c s="29" r="L41"/>
-      <c t="s" s="29" r="M41">
+      <c s="28" r="L41"/>
+      <c t="s" s="28" r="M41">
         <v>527</v>
       </c>
-      <c t="s" s="29" r="N41">
+      <c t="s" s="28" r="N41">
         <v>528</v>
       </c>
-      <c t="s" s="18" r="O41">
+      <c t="s" s="16" r="O41">
         <v>529</v>
       </c>
-      <c t="s" s="18" r="P41">
+      <c t="s" s="16" r="P41">
         <v>530</v>
       </c>
-      <c t="s" s="18" r="Q41">
+      <c t="s" s="16" r="Q41">
         <v>531</v>
       </c>
-      <c t="s" s="18" r="R41">
+      <c t="s" s="16" r="R41">
         <v>532</v>
       </c>
-      <c t="s" s="18" r="S41">
+      <c t="s" s="16" r="S41">
         <v>533</v>
       </c>
-      <c t="s" s="18" r="T41">
+      <c t="s" s="16" r="T41">
         <v>534</v>
       </c>
-      <c t="s" s="27" r="U41">
+      <c t="s" s="26" r="U41">
         <v>535</v>
       </c>
-      <c t="s" s="17" r="V41">
+      <c t="s" s="15" r="V41">
         <v>536</v>
       </c>
     </row>
     <row customHeight="1" r="42" ht="12.75">
-      <c t="s" s="36" r="A42">
+      <c t="s" s="6" r="A42">
         <v>537</v>
       </c>
-      <c t="s" s="34" r="B42">
+      <c t="s" s="7" r="B42">
         <v>538</v>
       </c>
-      <c t="s" s="34" r="C42">
+      <c t="s" s="33" r="C42">
         <v>539</v>
       </c>
-      <c t="s" s="37" r="D42">
+      <c t="s" s="32" r="D42">
         <v>540</v>
       </c>
-      <c t="s" s="37" r="E42">
+      <c t="s" s="32" r="E42">
         <v>541</v>
       </c>
-      <c t="s" s="37" r="F42">
+      <c t="s" s="32" r="F42">
         <v>542</v>
       </c>
-      <c s="37" r="G42"/>
-      <c s="37" r="H42"/>
-      <c s="37" r="I42"/>
-      <c s="37" r="J42"/>
-      <c s="37" r="K42"/>
-      <c s="37" r="L42"/>
-      <c s="37" r="M42"/>
-      <c s="37" r="N42"/>
-      <c t="s" s="14" r="O42">
+      <c s="32" r="G42"/>
+      <c s="32" r="H42"/>
+      <c s="32" r="I42"/>
+      <c s="32" r="J42"/>
+      <c s="32" r="K42"/>
+      <c s="32" r="L42"/>
+      <c s="32" r="M42"/>
+      <c s="32" r="N42"/>
+      <c t="s" s="1" r="O42">
         <v>543</v>
       </c>
-      <c t="s" s="14" r="P42">
+      <c t="s" s="1" r="P42">
         <v>544</v>
       </c>
-      <c t="s" s="14" r="Q42">
+      <c t="s" s="1" r="Q42">
         <v>545</v>
       </c>
-      <c t="s" s="14" r="R42">
+      <c t="s" s="1" r="R42">
         <v>546</v>
       </c>
-      <c t="s" s="14" r="S42">
+      <c t="s" s="1" r="S42">
         <v>547</v>
       </c>
-      <c t="s" s="14" r="T42">
+      <c t="s" s="1" r="T42">
         <v>548</v>
       </c>
-      <c s="9" r="U42"/>
-      <c s="9" r="V42"/>
+      <c s="3" r="U42"/>
+      <c s="3" r="V42"/>
     </row>
     <row customHeight="1" r="43" ht="12.75">
-      <c s="34" r="C43"/>
-      <c s="37" r="D43"/>
-      <c s="37" r="E43"/>
-      <c s="37" r="F43"/>
-      <c s="37" r="G43"/>
-      <c s="37" r="H43"/>
-      <c s="37" r="I43"/>
-      <c s="37" r="J43"/>
-      <c s="37" r="K43"/>
-      <c s="37" r="L43"/>
-      <c s="37" r="M43"/>
-      <c s="37" r="N43"/>
-      <c t="s" s="14" r="O43">
+      <c s="33" r="C43"/>
+      <c s="32" r="D43"/>
+      <c s="32" r="E43"/>
+      <c s="32" r="F43"/>
+      <c s="32" r="G43"/>
+      <c s="32" r="H43"/>
+      <c s="32" r="I43"/>
+      <c s="32" r="J43"/>
+      <c s="32" r="K43"/>
+      <c s="32" r="L43"/>
+      <c s="32" r="M43"/>
+      <c s="32" r="N43"/>
+      <c t="s" s="1" r="O43">
         <v>549</v>
       </c>
-      <c t="s" s="14" r="P43">
+      <c t="s" s="1" r="P43">
         <v>550</v>
       </c>
-      <c t="s" s="14" r="Q43">
+      <c t="s" s="1" r="Q43">
         <v>551</v>
       </c>
-      <c t="s" s="14" r="R43">
+      <c t="s" s="1" r="R43">
         <v>552</v>
       </c>
-      <c t="s" s="14" r="S43">
+      <c t="s" s="1" r="S43">
         <v>553</v>
       </c>
-      <c t="s" s="14" r="T43">
+      <c t="s" s="1" r="T43">
         <v>554</v>
       </c>
-      <c s="9" r="U43"/>
-      <c s="9" r="V43"/>
+      <c s="3" r="U43"/>
+      <c s="3" r="V43"/>
     </row>
     <row customHeight="1" r="44" ht="12.75">
-      <c t="s" s="35" r="A44">
+      <c t="s" s="25" r="A44">
         <v>555</v>
       </c>
-      <c t="s" s="27" r="B44">
+      <c t="s" s="26" r="B44">
         <v>556</v>
       </c>
-      <c t="s" s="27" r="C44">
+      <c t="s" s="26" r="C44">
         <v>557</v>
       </c>
-      <c t="s" s="27" r="D44">
+      <c t="s" s="26" r="D44">
         <v>558</v>
       </c>
-      <c t="s" s="27" r="E44">
+      <c t="s" s="26" r="E44">
         <v>559</v>
       </c>
-      <c t="s" s="27" r="F44">
+      <c t="s" s="26" r="F44">
         <v>560</v>
       </c>
-      <c t="s" s="27" r="G44">
+      <c t="s" s="26" r="G44">
         <v>561</v>
       </c>
-      <c t="s" s="27" r="H44">
+      <c t="s" s="26" r="H44">
         <v>562</v>
       </c>
-      <c t="s" s="27" r="I44">
+      <c t="s" s="26" r="I44">
         <v>563</v>
       </c>
-      <c t="s" s="27" r="J44">
+      <c t="s" s="26" r="J44">
         <v>564</v>
       </c>
-      <c t="s" s="27" r="K44">
+      <c t="s" s="26" r="K44">
         <v>565</v>
       </c>
-      <c t="s" s="27" r="L44">
+      <c t="s" s="26" r="L44">
         <v>566</v>
       </c>
-      <c t="s" s="27" r="M44">
+      <c t="s" s="26" r="M44">
         <v>567</v>
       </c>
-      <c t="s" s="27" r="N44">
+      <c t="s" s="26" r="N44">
         <v>568</v>
       </c>
-      <c t="s" s="18" r="O44">
+      <c t="s" s="16" r="O44">
         <v>569</v>
       </c>
-      <c t="s" s="18" r="P44">
+      <c t="s" s="16" r="P44">
         <v>570</v>
       </c>
-      <c t="s" s="18" r="Q44">
+      <c t="s" s="16" r="Q44">
         <v>571</v>
       </c>
-      <c t="s" s="18" r="R44">
+      <c t="s" s="16" r="R44">
         <v>572</v>
       </c>
-      <c t="s" s="18" r="S44">
+      <c t="s" s="16" r="S44">
         <v>573</v>
       </c>
-      <c t="s" s="18" r="T44">
+      <c t="s" s="16" r="T44">
         <v>574</v>
       </c>
-      <c t="s" s="27" r="U44">
+      <c t="s" s="26" r="U44">
         <v>575</v>
       </c>
-      <c t="s" s="27" r="V44">
+      <c t="s" s="26" r="V44">
         <v>576</v>
       </c>
     </row>
     <row customHeight="1" r="45" ht="12.75">
-      <c t="s" s="27" r="C45">
+      <c t="s" s="26" r="C45">
         <v>577</v>
       </c>
-      <c t="s" s="27" r="D45">
+      <c t="s" s="26" r="D45">
         <v>578</v>
       </c>
-      <c t="s" s="27" r="E45">
+      <c t="s" s="26" r="E45">
         <v>579</v>
       </c>
-      <c t="s" s="27" r="F45">
+      <c t="s" s="26" r="F45">
         <v>580</v>
       </c>
-      <c t="s" s="27" r="G45">
+      <c t="s" s="26" r="G45">
         <v>581</v>
       </c>
-      <c t="s" s="27" r="H45">
+      <c t="s" s="26" r="H45">
         <v>582</v>
       </c>
-      <c t="s" s="27" r="I45">
+      <c t="s" s="26" r="I45">
         <v>583</v>
       </c>
-      <c t="s" s="27" r="J45">
+      <c t="s" s="26" r="J45">
         <v>584</v>
       </c>
-      <c t="s" s="27" r="K45">
+      <c t="s" s="26" r="K45">
         <v>585</v>
       </c>
-      <c t="s" s="27" r="L45">
+      <c t="s" s="26" r="L45">
         <v>586</v>
       </c>
-      <c t="s" s="27" r="M45">
+      <c t="s" s="26" r="M45">
         <v>587</v>
       </c>
-      <c t="s" s="27" r="N45">
+      <c t="s" s="26" r="N45">
         <v>588</v>
       </c>
-      <c t="s" s="18" r="O45">
+      <c t="s" s="16" r="O45">
         <v>589</v>
       </c>
-      <c t="s" s="18" r="P45">
+      <c t="s" s="16" r="P45">
         <v>590</v>
       </c>
-      <c t="s" s="18" r="Q45">
+      <c t="s" s="16" r="Q45">
         <v>591</v>
       </c>
-      <c t="s" s="18" r="R45">
+      <c t="s" s="16" r="R45">
         <v>592</v>
       </c>
-      <c t="s" s="18" r="S45">
+      <c t="s" s="16" r="S45">
         <v>593</v>
       </c>
-      <c t="s" s="18" r="T45">
+      <c t="s" s="16" r="T45">
         <v>594</v>
       </c>
-      <c t="s" s="27" r="U45">
+      <c t="s" s="26" r="U45">
         <v>595</v>
       </c>
-      <c t="s" s="17" r="V45">
+      <c t="s" s="15" r="V45">
         <v>596</v>
       </c>
     </row>
     <row customHeight="1" r="46" ht="12.75">
-      <c t="s" s="33" r="A46">
+      <c t="s" s="34" r="A46">
         <v>597</v>
       </c>
-      <c t="s" s="34" r="B46">
+      <c t="s" s="33" r="B46">
         <v>598</v>
       </c>
-      <c s="34" r="C46"/>
-      <c t="s" s="34" r="D46">
+      <c s="33" r="C46"/>
+      <c t="s" s="33" r="D46">
         <v>599</v>
       </c>
-      <c t="s" s="34" r="E46">
+      <c t="s" s="33" r="E46">
         <v>600</v>
       </c>
-      <c t="s" s="34" r="F46">
+      <c t="s" s="33" r="F46">
         <v>601</v>
       </c>
-      <c t="s" s="34" r="G46">
+      <c t="s" s="33" r="G46">
         <v>602</v>
       </c>
-      <c t="s" s="34" r="H46">
+      <c t="s" s="33" r="H46">
         <v>603</v>
       </c>
-      <c t="s" s="34" r="I46">
+      <c t="s" s="33" r="I46">
         <v>604</v>
       </c>
-      <c t="s" s="34" r="J46">
+      <c t="s" s="33" r="J46">
         <v>605</v>
       </c>
-      <c t="s" s="34" r="K46">
+      <c t="s" s="33" r="K46">
         <v>606</v>
       </c>
-      <c t="s" s="34" r="L46">
+      <c t="s" s="33" r="L46">
         <v>607</v>
       </c>
-      <c t="s" s="34" r="M46">
+      <c t="s" s="33" r="M46">
         <v>608</v>
       </c>
-      <c t="s" s="34" r="N46">
+      <c t="s" s="33" r="N46">
         <v>609</v>
       </c>
-      <c s="14" r="O46"/>
-      <c t="s" s="14" r="P46">
+      <c s="1" r="O46"/>
+      <c t="s" s="1" r="P46">
         <v>610</v>
       </c>
-      <c t="s" s="14" r="Q46">
+      <c t="s" s="1" r="Q46">
         <v>611</v>
       </c>
-      <c t="s" s="14" r="R46">
+      <c t="s" s="1" r="R46">
         <v>612</v>
       </c>
-      <c t="s" s="14" r="S46">
+      <c t="s" s="1" r="S46">
         <v>613</v>
       </c>
-      <c t="s" s="14" r="T46">
+      <c t="s" s="1" r="T46">
         <v>614</v>
       </c>
-      <c t="s" s="6" r="U46">
+      <c t="s" s="7" r="U46">
         <v>615</v>
       </c>
-      <c t="s" s="6" r="V46">
+      <c t="s" s="7" r="V46">
         <v>616</v>
       </c>
     </row>
     <row customHeight="1" r="47" ht="12.75">
-      <c s="34" r="C47"/>
-      <c t="s" s="34" r="D47">
+      <c s="33" r="C47"/>
+      <c t="s" s="33" r="D47">
         <v>617</v>
       </c>
-      <c t="s" s="34" r="E47">
+      <c t="s" s="33" r="E47">
         <v>618</v>
       </c>
-      <c t="s" s="34" r="F47">
+      <c t="s" s="33" r="F47">
         <v>619</v>
       </c>
-      <c t="s" s="34" r="G47">
+      <c t="s" s="33" r="G47">
         <v>620</v>
       </c>
-      <c t="s" s="34" r="H47">
+      <c t="s" s="33" r="H47">
         <v>621</v>
       </c>
-      <c t="s" s="34" r="I47">
+      <c t="s" s="33" r="I47">
         <v>622</v>
       </c>
-      <c t="s" s="34" r="J47">
+      <c t="s" s="33" r="J47">
         <v>623</v>
       </c>
-      <c t="s" s="34" r="K47">
+      <c t="s" s="33" r="K47">
         <v>624</v>
       </c>
-      <c t="s" s="34" r="L47">
+      <c t="s" s="33" r="L47">
         <v>625</v>
       </c>
-      <c t="s" s="34" r="M47">
+      <c t="s" s="33" r="M47">
         <v>626</v>
       </c>
-      <c t="s" s="34" r="N47">
+      <c t="s" s="33" r="N47">
         <v>627</v>
       </c>
-      <c s="14" r="O47"/>
-      <c t="s" s="14" r="P47">
+      <c s="1" r="O47"/>
+      <c t="s" s="1" r="P47">
         <v>628</v>
       </c>
-      <c t="s" s="14" r="Q47">
+      <c t="s" s="1" r="Q47">
         <v>629</v>
       </c>
-      <c t="s" s="14" r="R47">
+      <c t="s" s="1" r="R47">
         <v>630</v>
       </c>
-      <c t="s" s="14" r="S47">
+      <c t="s" s="1" r="S47">
         <v>631</v>
       </c>
-      <c t="s" s="14" r="T47">
+      <c t="s" s="1" r="T47">
         <v>632</v>
       </c>
-      <c t="s" s="6" r="U47">
+      <c t="s" s="7" r="U47">
         <v>633</v>
       </c>
-      <c t="s" s="13" r="V47">
+      <c t="s" s="12" r="V47">
         <v>634</v>
       </c>
     </row>
     <row customHeight="1" r="48" ht="12.75">
-      <c t="s" s="39" r="A48">
+      <c t="s" s="13" r="A48">
         <v>635</v>
       </c>
-      <c t="s" s="16" r="B48">
+      <c t="s" s="14" r="B48">
         <v>636</v>
       </c>
-      <c t="s" s="27" r="C48">
+      <c t="s" s="26" r="C48">
         <v>637</v>
       </c>
-      <c t="s" s="27" r="D48">
+      <c t="s" s="26" r="D48">
         <v>638</v>
       </c>
-      <c t="s" s="27" r="E48">
+      <c t="s" s="26" r="E48">
         <v>639</v>
       </c>
-      <c t="s" s="27" r="F48">
+      <c t="s" s="26" r="F48">
         <v>640</v>
       </c>
-      <c t="s" s="27" r="G48">
+      <c t="s" s="26" r="G48">
         <v>641</v>
       </c>
-      <c t="s" s="27" r="H48">
+      <c t="s" s="26" r="H48">
         <v>642</v>
       </c>
-      <c t="s" s="27" r="I48">
+      <c t="s" s="26" r="I48">
         <v>643</v>
       </c>
-      <c t="s" s="27" r="J48">
+      <c t="s" s="26" r="J48">
         <v>644</v>
       </c>
-      <c t="s" s="27" r="K48">
+      <c t="s" s="26" r="K48">
         <v>645</v>
       </c>
-      <c s="27" r="L48"/>
-      <c t="s" s="27" r="M48">
+      <c s="26" r="L48"/>
+      <c t="s" s="26" r="M48">
         <v>646</v>
       </c>
-      <c t="s" s="27" r="N48">
+      <c t="s" s="26" r="N48">
         <v>647</v>
       </c>
-      <c s="18" r="O48"/>
-      <c s="18" r="P48"/>
-      <c s="18" r="Q48"/>
-      <c s="18" r="R48"/>
-      <c s="18" r="S48"/>
-      <c s="18" r="T48"/>
-      <c s="19" r="U48"/>
-      <c s="19" r="V48"/>
+      <c s="16" r="O48"/>
+      <c s="16" r="P48"/>
+      <c s="16" r="Q48"/>
+      <c s="16" r="R48"/>
+      <c s="16" r="S48"/>
+      <c s="16" r="T48"/>
+      <c s="17" r="U48"/>
+      <c s="17" r="V48"/>
     </row>
     <row customHeight="1" r="49" ht="12.75">
-      <c t="s" s="27" r="C49">
+      <c t="s" s="26" r="C49">
         <v>648</v>
       </c>
-      <c t="s" s="27" r="D49">
+      <c t="s" s="26" r="D49">
         <v>649</v>
       </c>
-      <c t="s" s="27" r="E49">
+      <c t="s" s="26" r="E49">
         <v>650</v>
       </c>
-      <c t="s" s="27" r="F49">
+      <c t="s" s="26" r="F49">
         <v>651</v>
       </c>
-      <c t="s" s="27" r="G49">
+      <c t="s" s="26" r="G49">
         <v>652</v>
       </c>
-      <c t="s" s="27" r="H49">
+      <c t="s" s="26" r="H49">
         <v>653</v>
       </c>
-      <c t="s" s="27" r="I49">
+      <c t="s" s="26" r="I49">
         <v>654</v>
       </c>
-      <c t="s" s="27" r="J49">
+      <c t="s" s="26" r="J49">
         <v>655</v>
       </c>
-      <c t="s" s="27" r="K49">
+      <c t="s" s="26" r="K49">
         <v>656</v>
       </c>
-      <c s="29" r="L49"/>
-      <c t="s" s="27" r="M49">
+      <c s="28" r="L49"/>
+      <c t="s" s="26" r="M49">
         <v>657</v>
       </c>
-      <c t="s" s="27" r="N49">
+      <c t="s" s="26" r="N49">
         <v>658</v>
       </c>
-      <c s="18" r="O49"/>
-      <c s="18" r="P49"/>
-      <c s="18" r="Q49"/>
-      <c s="18" r="R49"/>
-      <c s="18" r="S49"/>
-      <c s="18" r="T49"/>
-      <c s="19" r="U49"/>
-      <c s="19" r="V49"/>
+      <c s="16" r="O49"/>
+      <c s="16" r="P49"/>
+      <c s="16" r="Q49"/>
+      <c s="16" r="R49"/>
+      <c s="16" r="S49"/>
+      <c s="16" r="T49"/>
+      <c s="17" r="U49"/>
+      <c s="17" r="V49"/>
     </row>
     <row customHeight="1" r="50" ht="13.5">
-      <c t="s" s="38" r="A50">
+      <c t="s" s="34" r="A50">
         <v>659</v>
       </c>
-      <c t="s" s="34" r="B50">
+      <c t="s" s="33" r="B50">
         <v>660</v>
       </c>
-      <c s="34" r="C50"/>
-      <c t="s" s="34" r="D50">
+      <c s="33" r="C50"/>
+      <c t="s" s="33" r="D50">
         <v>661</v>
       </c>
-      <c t="s" s="34" r="E50">
+      <c t="s" s="33" r="E50">
         <v>662</v>
       </c>
-      <c t="s" s="34" r="F50">
+      <c t="s" s="33" r="F50">
         <v>663</v>
       </c>
-      <c t="s" s="34" r="G50">
+      <c t="s" s="33" r="G50">
         <v>664</v>
       </c>
-      <c t="s" s="34" r="H50">
+      <c t="s" s="33" r="H50">
         <v>665</v>
       </c>
-      <c t="s" s="34" r="I50">
+      <c t="s" s="33" r="I50">
         <v>666</v>
       </c>
-      <c t="s" s="34" r="J50">
+      <c t="s" s="33" r="J50">
         <v>667</v>
       </c>
-      <c t="s" s="34" r="K50">
+      <c t="s" s="33" r="K50">
         <v>668</v>
       </c>
-      <c t="s" s="34" r="L50">
+      <c t="s" s="33" r="L50">
         <v>669</v>
       </c>
-      <c t="s" s="34" r="M50">
+      <c t="s" s="33" r="M50">
         <v>670</v>
       </c>
-      <c t="s" s="34" r="N50">
+      <c t="s" s="33" r="N50">
         <v>671</v>
       </c>
-      <c t="s" s="14" r="O50">
+      <c t="s" s="1" r="O50">
         <v>672</v>
       </c>
-      <c t="s" s="14" r="P50">
+      <c t="s" s="1" r="P50">
         <v>673</v>
       </c>
-      <c t="s" s="14" r="Q50">
+      <c t="s" s="1" r="Q50">
         <v>674</v>
       </c>
-      <c t="s" s="14" r="R50">
+      <c t="s" s="1" r="R50">
         <v>675</v>
       </c>
-      <c t="s" s="14" r="S50">
+      <c t="s" s="1" r="S50">
         <v>676</v>
       </c>
-      <c t="s" s="14" r="T50">
+      <c t="s" s="1" r="T50">
         <v>677</v>
       </c>
-      <c s="9" r="U50"/>
-      <c t="s" s="6" r="V50">
+      <c s="3" r="U50"/>
+      <c t="s" s="7" r="V50">
         <v>678</v>
       </c>
     </row>
     <row customHeight="1" r="51" ht="12.75">
-      <c s="34" r="C51"/>
-      <c t="s" s="37" r="D51">
+      <c s="33" r="C51"/>
+      <c t="s" s="32" r="D51">
         <v>679</v>
       </c>
-      <c t="s" s="37" r="E51">
+      <c t="s" s="32" r="E51">
         <v>680</v>
       </c>
-      <c t="s" s="37" r="F51">
+      <c t="s" s="32" r="F51">
         <v>681</v>
       </c>
-      <c t="s" s="37" r="G51">
+      <c t="s" s="32" r="G51">
         <v>682</v>
       </c>
-      <c t="s" s="37" r="H51">
+      <c t="s" s="32" r="H51">
         <v>683</v>
       </c>
-      <c t="s" s="37" r="I51">
+      <c t="s" s="32" r="I51">
         <v>684</v>
       </c>
-      <c t="s" s="37" r="J51">
+      <c t="s" s="32" r="J51">
         <v>685</v>
       </c>
-      <c t="s" s="37" r="K51">
+      <c t="s" s="32" r="K51">
         <v>686</v>
       </c>
-      <c t="s" s="37" r="L51">
+      <c t="s" s="32" r="L51">
         <v>687</v>
       </c>
-      <c t="s" s="37" r="M51">
+      <c t="s" s="32" r="M51">
         <v>688</v>
       </c>
-      <c t="s" s="37" r="N51">
+      <c t="s" s="32" r="N51">
         <v>689</v>
       </c>
-      <c s="14" r="O51"/>
-      <c s="14" r="P51"/>
-      <c s="14" r="Q51"/>
-      <c s="14" r="R51"/>
-      <c s="14" r="S51"/>
-      <c s="14" r="T51"/>
-      <c s="9" r="U51"/>
-      <c t="s" s="13" r="V51">
+      <c s="1" r="O51"/>
+      <c s="1" r="P51"/>
+      <c s="1" r="Q51"/>
+      <c s="1" r="R51"/>
+      <c s="1" r="S51"/>
+      <c s="1" r="T51"/>
+      <c s="3" r="U51"/>
+      <c t="s" s="12" r="V51">
         <v>690</v>
       </c>
     </row>
     <row customHeight="1" r="52" ht="12.75">
-      <c s="40" r="A52"/>
+      <c s="35" r="A52"/>
     </row>
     <row customHeight="1" r="53" ht="12.75">
-      <c t="s" s="41" r="A53">
+      <c t="s" s="36" r="A53">
         <v>691</v>
       </c>
-      <c s="42" r="O53"/>
-      <c s="42" r="P53"/>
-      <c s="42" r="Q53"/>
-      <c s="42" r="R53"/>
-      <c s="42" r="S53"/>
-      <c s="42" r="T53"/>
-      <c s="42" r="U53"/>
-      <c s="42" r="V53"/>
     </row>
     <row customHeight="1" r="54" ht="12.75">
-      <c s="43" r="A54"/>
-      <c s="7" r="B54"/>
-      <c t="s" s="14" r="C54">
+      <c s="33" r="A54"/>
+      <c s="33" r="B54"/>
+      <c t="s" s="1" r="C54">
         <v>692</v>
       </c>
-      <c t="s" s="14" r="D54">
+      <c t="s" s="1" r="D54">
         <v>693</v>
       </c>
-      <c t="s" s="14" r="E54">
+      <c t="s" s="1" r="E54">
         <v>694</v>
       </c>
-      <c t="s" s="14" r="F54">
+      <c t="s" s="1" r="F54">
         <v>695</v>
       </c>
-      <c t="s" s="14" r="G54">
+      <c t="s" s="1" r="G54">
         <v>696</v>
       </c>
-      <c t="s" s="14" r="H54">
+      <c t="s" s="1" r="H54">
         <v>697</v>
       </c>
-      <c t="s" s="14" r="I54">
+      <c t="s" s="1" r="I54">
         <v>698</v>
       </c>
-      <c t="s" s="14" r="J54">
+      <c t="s" s="1" r="J54">
         <v>699</v>
       </c>
-      <c t="s" s="14" r="K54">
+      <c t="s" s="1" r="K54">
         <v>700</v>
       </c>
-      <c t="s" s="14" r="L54">
+      <c t="s" s="1" r="L54">
         <v>701</v>
       </c>
-      <c t="s" s="14" r="M54">
+      <c t="s" s="1" r="M54">
         <v>702</v>
       </c>
-      <c t="s" s="14" r="N54">
+      <c t="s" s="1" r="N54">
         <v>703</v>
       </c>
-      <c t="s" s="14" r="O54">
+      <c t="s" s="1" r="O54">
         <v>704</v>
       </c>
-      <c t="s" s="14" r="P54">
+      <c t="s" s="1" r="P54">
         <v>705</v>
       </c>
-      <c t="s" s="14" r="Q54">
+      <c t="s" s="1" r="Q54">
         <v>706</v>
       </c>
-      <c t="s" s="14" r="R54">
+      <c t="s" s="1" r="R54">
         <v>707</v>
       </c>
-      <c t="s" s="14" r="S54">
+      <c t="s" s="1" r="S54">
         <v>708</v>
       </c>
-      <c t="s" s="14" r="T54">
+      <c t="s" s="1" r="T54">
         <v>709</v>
       </c>
-      <c t="s" s="13" r="U54">
+      <c t="s" s="12" r="U54">
         <v>710</v>
       </c>
-      <c t="s" s="13" r="V54">
+      <c t="s" s="12" r="V54">
         <v>711</v>
       </c>
     </row>
     <row customHeight="1" r="55" ht="12.75">
-      <c s="43" r="A55"/>
-      <c s="7" r="B55"/>
-      <c t="s" s="14" r="C55">
+      <c s="33" r="A55"/>
+      <c s="33" r="B55"/>
+      <c t="s" s="1" r="C55">
         <v>712</v>
       </c>
-      <c s="44" r="D55"/>
-      <c s="44" r="E55"/>
-      <c s="44" r="F55"/>
-      <c t="s" s="14" r="G55">
+      <c s="32" r="D55"/>
+      <c s="32" r="E55"/>
+      <c s="32" r="F55"/>
+      <c t="s" s="1" r="G55">
         <v>713</v>
       </c>
-      <c t="s" s="14" r="H55">
+      <c t="s" s="1" r="H55">
         <v>714</v>
       </c>
-      <c t="s" s="14" r="I55">
+      <c t="s" s="1" r="I55">
         <v>715</v>
       </c>
-      <c t="s" s="14" r="J55">
+      <c t="s" s="1" r="J55">
         <v>716</v>
       </c>
-      <c t="s" s="14" r="K55">
+      <c t="s" s="1" r="K55">
         <v>717</v>
       </c>
-      <c t="s" s="14" r="L55">
+      <c t="s" s="1" r="L55">
         <v>718</v>
       </c>
-      <c s="44" r="M55"/>
-      <c t="s" s="14" r="N55">
+      <c s="32" r="M55"/>
+      <c t="s" s="1" r="N55">
         <v>719</v>
       </c>
-      <c t="s" s="14" r="O55">
+      <c t="s" s="1" r="O55">
         <v>720</v>
       </c>
-      <c t="s" s="14" r="P55">
+      <c t="s" s="1" r="P55">
         <v>721</v>
       </c>
-      <c t="s" s="14" r="Q55">
+      <c t="s" s="1" r="Q55">
         <v>722</v>
       </c>
-      <c t="s" s="14" r="R55">
+      <c t="s" s="1" r="R55">
         <v>723</v>
       </c>
-      <c t="s" s="14" r="S55">
+      <c t="s" s="1" r="S55">
         <v>724</v>
       </c>
-      <c t="s" s="14" r="T55">
+      <c t="s" s="1" r="T55">
         <v>725</v>
       </c>
-      <c t="s" s="13" r="U55">
+      <c t="s" s="12" r="U55">
         <v>726</v>
       </c>
-      <c t="s" s="13" r="V55">
+      <c t="s" s="12" r="V55">
         <v>727</v>
       </c>
     </row>
     <row customHeight="1" r="56" ht="12.75">
-      <c s="43" r="A56"/>
-      <c s="7" r="B56"/>
-      <c t="s" s="14" r="C56">
+      <c s="33" r="A56"/>
+      <c s="33" r="B56"/>
+      <c t="s" s="1" r="C56">
         <v>728</v>
       </c>
-      <c s="44" r="D56"/>
-      <c s="44" r="E56"/>
-      <c s="44" r="F56"/>
-      <c t="s" s="14" r="G56">
+      <c s="32" r="D56"/>
+      <c s="32" r="E56"/>
+      <c s="32" r="F56"/>
+      <c t="s" s="1" r="G56">
         <v>729</v>
       </c>
-      <c t="s" s="14" r="H56">
+      <c t="s" s="1" r="H56">
         <v>730</v>
       </c>
-      <c t="s" s="14" r="I56">
+      <c t="s" s="1" r="I56">
         <v>731</v>
       </c>
-      <c t="s" s="14" r="J56">
+      <c t="s" s="1" r="J56">
         <v>732</v>
       </c>
-      <c s="44" r="K56"/>
-      <c t="s" s="14" r="L56">
+      <c s="32" r="K56"/>
+      <c t="s" s="1" r="L56">
         <v>733</v>
       </c>
-      <c s="44" r="M56"/>
-      <c t="s" s="14" r="N56">
+      <c s="32" r="M56"/>
+      <c t="s" s="1" r="N56">
         <v>734</v>
       </c>
-      <c s="14" r="O56"/>
-      <c t="s" s="14" r="P56">
+      <c s="1" r="O56"/>
+      <c t="s" s="1" r="P56">
         <v>735</v>
       </c>
-      <c t="s" s="14" r="Q56">
+      <c t="s" s="1" r="Q56">
         <v>736</v>
       </c>
-      <c t="s" s="14" r="R56">
+      <c t="s" s="1" r="R56">
         <v>737</v>
       </c>
-      <c t="s" s="14" r="S56">
+      <c t="s" s="1" r="S56">
         <v>738</v>
       </c>
-      <c t="s" s="14" r="T56">
+      <c t="s" s="1" r="T56">
         <v>739</v>
       </c>
-      <c t="s" s="13" r="U56">
+      <c t="s" s="12" r="U56">
         <v>740</v>
       </c>
-      <c t="s" s="13" r="V56">
+      <c t="s" s="12" r="V56">
         <v>741</v>
       </c>
     </row>
     <row customHeight="1" r="57" ht="12.75">
-      <c s="45" r="A57"/>
-      <c s="7" r="B57"/>
-      <c t="s" s="14" r="C57">
+      <c s="33" r="A57"/>
+      <c s="33" r="B57"/>
+      <c t="s" s="1" r="C57">
         <v>742</v>
       </c>
-      <c s="44" r="D57"/>
-      <c s="44" r="E57"/>
-      <c s="44" r="F57"/>
-      <c t="s" s="44" r="G57">
+      <c s="32" r="D57"/>
+      <c s="32" r="E57"/>
+      <c s="32" r="F57"/>
+      <c t="s" s="32" r="G57">
         <v>743</v>
       </c>
-      <c t="s" s="44" r="H57">
+      <c t="s" s="32" r="H57">
         <v>744</v>
       </c>
-      <c t="s" s="14" r="I57">
+      <c t="s" s="1" r="I57">
         <v>745</v>
       </c>
-      <c t="s" s="14" r="J57">
+      <c t="s" s="1" r="J57">
         <v>746</v>
       </c>
-      <c s="44" r="K57"/>
-      <c t="s" s="14" r="L57">
+      <c s="32" r="K57"/>
+      <c t="s" s="1" r="L57">
         <v>747</v>
       </c>
-      <c s="44" r="M57"/>
-      <c s="44" r="N57"/>
-      <c s="14" r="O57"/>
-      <c t="s" s="14" r="P57">
+      <c s="32" r="M57"/>
+      <c s="32" r="N57"/>
+      <c s="1" r="O57"/>
+      <c t="s" s="1" r="P57">
         <v>748</v>
       </c>
-      <c t="s" s="14" r="Q57">
+      <c t="s" s="1" r="Q57">
         <v>749</v>
       </c>
-      <c t="s" s="14" r="R57">
+      <c t="s" s="1" r="R57">
         <v>750</v>
       </c>
-      <c t="s" s="14" r="S57">
+      <c t="s" s="1" r="S57">
         <v>751</v>
       </c>
-      <c t="s" s="14" r="T57">
+      <c t="s" s="1" r="T57">
         <v>752</v>
       </c>
-      <c t="s" s="13" r="U57">
+      <c t="s" s="12" r="U57">
         <v>753</v>
       </c>
-      <c s="9" r="V57"/>
+      <c s="3" r="V57"/>
     </row>
     <row customHeight="1" r="58" ht="12.75">
-      <c s="45" r="A58"/>
-      <c s="7" r="B58"/>
-      <c t="s" s="14" r="C58">
+      <c s="33" r="A58"/>
+      <c s="33" r="B58"/>
+      <c t="s" s="1" r="C58">
         <v>754</v>
       </c>
-      <c s="44" r="D58"/>
-      <c s="44" r="E58"/>
-      <c s="44" r="F58"/>
-      <c t="s" s="14" r="G58">
+      <c s="32" r="D58"/>
+      <c s="32" r="E58"/>
+      <c s="32" r="F58"/>
+      <c t="s" s="1" r="G58">
         <v>755</v>
       </c>
-      <c t="s" s="14" r="H58">
+      <c t="s" s="1" r="H58">
         <v>756</v>
       </c>
-      <c t="s" s="14" r="I58">
+      <c t="s" s="1" r="I58">
         <v>757</v>
       </c>
-      <c t="s" s="14" r="J58">
+      <c t="s" s="1" r="J58">
         <v>758</v>
       </c>
-      <c s="44" r="K58"/>
-      <c t="s" s="14" r="L58">
+      <c s="32" r="K58"/>
+      <c t="s" s="1" r="L58">
         <v>759</v>
       </c>
-      <c s="44" r="M58"/>
-      <c s="44" r="N58"/>
-      <c s="14" r="O58"/>
-      <c t="s" s="14" r="P58">
+      <c s="32" r="M58"/>
+      <c s="32" r="N58"/>
+      <c s="1" r="O58"/>
+      <c t="s" s="1" r="P58">
         <v>760</v>
       </c>
-      <c t="s" s="14" r="Q58">
+      <c t="s" s="1" r="Q58">
         <v>761</v>
       </c>
-      <c t="s" s="14" r="R58">
+      <c t="s" s="1" r="R58">
         <v>762</v>
       </c>
-      <c t="s" s="14" r="S58">
+      <c t="s" s="1" r="S58">
         <v>763</v>
       </c>
-      <c t="s" s="14" r="T58">
+      <c t="s" s="1" r="T58">
         <v>764</v>
       </c>
-      <c t="s" s="13" r="U58">
+      <c t="s" s="12" r="U58">
         <v>765</v>
       </c>
-      <c s="9" r="V58"/>
+      <c s="3" r="V58"/>
     </row>
     <row customHeight="1" r="59" ht="12.75">
-      <c s="43" r="A59"/>
-      <c s="7" r="B59"/>
-      <c s="46" r="C59"/>
-      <c s="44" r="D59"/>
-      <c s="44" r="E59"/>
-      <c s="44" r="F59"/>
-      <c t="s" s="14" r="G59">
+      <c s="33" r="A59"/>
+      <c s="33" r="B59"/>
+      <c s="33" r="C59"/>
+      <c s="32" r="D59"/>
+      <c s="32" r="E59"/>
+      <c s="32" r="F59"/>
+      <c t="s" s="1" r="G59">
         <v>766</v>
       </c>
-      <c t="s" s="14" r="H59">
+      <c t="s" s="1" r="H59">
         <v>767</v>
       </c>
-      <c t="s" s="14" r="I59">
+      <c t="s" s="1" r="I59">
         <v>768</v>
       </c>
-      <c s="44" r="J59"/>
-      <c s="44" r="K59"/>
-      <c t="s" s="14" r="L59">
+      <c s="32" r="J59"/>
+      <c s="32" r="K59"/>
+      <c t="s" s="1" r="L59">
         <v>769</v>
       </c>
-      <c s="44" r="M59"/>
-      <c s="44" r="N59"/>
-      <c s="14" r="O59"/>
-      <c t="s" s="14" r="P59">
+      <c s="32" r="M59"/>
+      <c s="32" r="N59"/>
+      <c s="1" r="O59"/>
+      <c t="s" s="1" r="P59">
         <v>770</v>
       </c>
-      <c t="s" s="14" r="Q59">
+      <c t="s" s="1" r="Q59">
         <v>771</v>
       </c>
-      <c t="s" s="14" r="R59">
+      <c t="s" s="1" r="R59">
         <v>772</v>
       </c>
-      <c t="s" s="14" r="S59">
+      <c t="s" s="1" r="S59">
         <v>773</v>
       </c>
-      <c t="s" s="14" r="T59">
+      <c t="s" s="1" r="T59">
         <v>774</v>
       </c>
-      <c s="13" r="U59"/>
-      <c s="9" r="V59"/>
+      <c s="12" r="U59"/>
+      <c s="3" r="V59"/>
     </row>
     <row customHeight="1" r="60" ht="12.75">
-      <c s="46" r="A60"/>
-      <c s="7" r="B60"/>
-      <c s="46" r="C60"/>
-      <c s="44" r="D60"/>
-      <c s="44" r="E60"/>
-      <c s="44" r="F60"/>
-      <c t="s" s="14" r="G60">
+      <c s="33" r="A60"/>
+      <c s="33" r="B60"/>
+      <c s="33" r="C60"/>
+      <c s="32" r="D60"/>
+      <c s="32" r="E60"/>
+      <c s="32" r="F60"/>
+      <c t="s" s="1" r="G60">
         <v>775</v>
       </c>
-      <c t="s" s="14" r="H60">
+      <c t="s" s="1" r="H60">
         <v>776</v>
       </c>
-      <c s="44" r="I60"/>
-      <c s="44" r="J60"/>
-      <c s="44" r="K60"/>
-      <c t="s" s="14" r="L60">
+      <c s="32" r="I60"/>
+      <c s="32" r="J60"/>
+      <c s="32" r="K60"/>
+      <c t="s" s="1" r="L60">
         <v>777</v>
       </c>
-      <c s="44" r="M60"/>
-      <c s="44" r="N60"/>
-      <c s="14" r="O60"/>
-      <c t="s" s="14" r="P60">
+      <c s="32" r="M60"/>
+      <c s="32" r="N60"/>
+      <c s="1" r="O60"/>
+      <c t="s" s="1" r="P60">
         <v>778</v>
       </c>
-      <c t="s" s="14" r="Q60">
+      <c t="s" s="1" r="Q60">
         <v>779</v>
       </c>
-      <c s="14" r="R60"/>
-      <c s="14" r="S60"/>
-      <c t="s" s="14" r="T60">
+      <c s="1" r="R60"/>
+      <c s="1" r="S60"/>
+      <c t="s" s="1" r="T60">
         <v>780</v>
       </c>
-      <c s="13" r="U60"/>
-      <c s="9" r="V60"/>
+      <c s="12" r="U60"/>
+      <c s="3" r="V60"/>
     </row>
     <row customHeight="1" r="61" ht="12.75">
-      <c s="46" r="A61"/>
-      <c s="7" r="B61"/>
-      <c s="46" r="C61"/>
-      <c s="44" r="D61"/>
-      <c s="44" r="E61"/>
-      <c s="44" r="F61"/>
-      <c s="44" r="G61"/>
-      <c s="44" r="H61"/>
-      <c s="44" r="I61"/>
-      <c s="44" r="J61"/>
-      <c s="44" r="K61"/>
-      <c s="44" r="L61"/>
-      <c s="44" r="M61"/>
-      <c s="44" r="N61"/>
-      <c s="14" r="O61"/>
-      <c t="s" s="14" r="P61">
+      <c s="33" r="A61"/>
+      <c s="33" r="B61"/>
+      <c s="33" r="C61"/>
+      <c s="32" r="D61"/>
+      <c s="32" r="E61"/>
+      <c s="32" r="F61"/>
+      <c s="32" r="G61"/>
+      <c s="32" r="H61"/>
+      <c s="32" r="I61"/>
+      <c s="32" r="J61"/>
+      <c s="32" r="K61"/>
+      <c s="32" r="L61"/>
+      <c s="32" r="M61"/>
+      <c s="32" r="N61"/>
+      <c s="1" r="O61"/>
+      <c t="s" s="1" r="P61">
         <v>781</v>
       </c>
-      <c t="s" s="14" r="Q61">
+      <c t="s" s="1" r="Q61">
         <v>782</v>
       </c>
-      <c s="14" r="R61"/>
-      <c s="14" r="S61"/>
-      <c t="s" s="14" r="T61">
+      <c s="1" r="R61"/>
+      <c s="1" r="S61"/>
+      <c t="s" s="1" r="T61">
         <v>783</v>
       </c>
-      <c s="9" r="U61"/>
-      <c s="9" r="V61"/>
+      <c s="3" r="U61"/>
+      <c s="3" r="V61"/>
     </row>
     <row customHeight="1" r="62" ht="12.75">
-      <c s="46" r="A62"/>
-      <c s="7" r="B62"/>
-      <c s="46" r="C62"/>
-      <c s="44" r="D62"/>
-      <c s="44" r="E62"/>
-      <c s="44" r="F62"/>
-      <c s="44" r="G62"/>
-      <c s="44" r="H62"/>
-      <c s="44" r="I62"/>
-      <c s="44" r="J62"/>
-      <c s="44" r="K62"/>
-      <c s="44" r="L62"/>
-      <c s="44" r="M62"/>
-      <c s="44" r="N62"/>
-      <c s="14" r="O62"/>
-      <c s="14" r="P62"/>
-      <c s="14" r="Q62"/>
-      <c s="14" r="R62"/>
-      <c s="14" r="S62"/>
-      <c t="s" s="14" r="T62">
+      <c s="33" r="A62"/>
+      <c s="33" r="B62"/>
+      <c s="33" r="C62"/>
+      <c s="32" r="D62"/>
+      <c s="32" r="E62"/>
+      <c s="32" r="F62"/>
+      <c s="32" r="G62"/>
+      <c s="32" r="H62"/>
+      <c s="32" r="I62"/>
+      <c s="32" r="J62"/>
+      <c s="32" r="K62"/>
+      <c s="32" r="L62"/>
+      <c s="32" r="M62"/>
+      <c s="32" r="N62"/>
+      <c s="1" r="O62"/>
+      <c s="1" r="P62"/>
+      <c s="1" r="Q62"/>
+      <c s="1" r="R62"/>
+      <c s="1" r="S62"/>
+      <c t="s" s="1" r="T62">
         <v>784</v>
       </c>
-      <c s="9" r="U62"/>
-      <c s="9" r="V62"/>
+      <c s="3" r="U62"/>
+      <c s="3" r="V62"/>
     </row>
     <row customHeight="1" r="63" ht="12.75">
-      <c s="46" r="A63"/>
-      <c s="7" r="B63"/>
-      <c s="46" r="C63"/>
-      <c s="44" r="D63"/>
-      <c s="44" r="E63"/>
-      <c s="44" r="F63"/>
-      <c s="44" r="G63"/>
-      <c s="44" r="H63"/>
-      <c s="44" r="I63"/>
-      <c s="44" r="J63"/>
-      <c s="44" r="K63"/>
-      <c s="44" r="L63"/>
-      <c s="44" r="M63"/>
-      <c s="44" r="N63"/>
-      <c s="14" r="O63"/>
-      <c s="14" r="P63"/>
-      <c s="14" r="Q63"/>
-      <c s="14" r="R63"/>
-      <c s="14" r="S63"/>
-      <c t="s" s="14" r="T63">
+      <c s="33" r="A63"/>
+      <c s="33" r="B63"/>
+      <c s="33" r="C63"/>
+      <c s="32" r="D63"/>
+      <c s="32" r="E63"/>
+      <c s="32" r="F63"/>
+      <c s="32" r="G63"/>
+      <c s="32" r="H63"/>
+      <c s="32" r="I63"/>
+      <c s="32" r="J63"/>
+      <c s="32" r="K63"/>
+      <c s="32" r="L63"/>
+      <c s="32" r="M63"/>
+      <c s="32" r="N63"/>
+      <c s="1" r="O63"/>
+      <c s="1" r="P63"/>
+      <c s="1" r="Q63"/>
+      <c s="1" r="R63"/>
+      <c s="1" r="S63"/>
+      <c t="s" s="1" r="T63">
         <v>785</v>
       </c>
-      <c s="9" r="U63"/>
-      <c s="9" r="V63"/>
+      <c s="3" r="U63"/>
+      <c s="3" r="V63"/>
     </row>
     <row customHeight="1" r="64" ht="12.75">
-      <c s="47" r="A64"/>
-      <c s="48" r="C64"/>
-      <c s="49" r="D64"/>
-      <c s="49" r="E64"/>
-      <c s="49" r="F64"/>
-      <c s="49" r="G64"/>
-      <c s="49" r="H64"/>
-      <c s="49" r="I64"/>
-      <c s="49" r="J64"/>
-      <c s="49" r="K64"/>
-      <c s="49" r="L64"/>
-      <c s="49" r="M64"/>
-      <c s="49" r="N64"/>
+      <c s="33" r="A64"/>
+      <c s="33" r="B64"/>
+      <c s="33" r="C64"/>
+      <c s="32" r="D64"/>
+      <c s="32" r="E64"/>
+      <c s="32" r="F64"/>
+      <c s="32" r="G64"/>
+      <c s="32" r="H64"/>
+      <c s="32" r="I64"/>
+      <c s="32" r="J64"/>
+      <c s="32" r="K64"/>
+      <c s="32" r="L64"/>
+      <c s="32" r="M64"/>
+      <c s="32" r="N64"/>
       <c s="1" r="O64"/>
       <c s="1" r="P64"/>
       <c s="1" r="Q64"/>
       <c s="1" r="R64"/>
       <c s="1" r="S64"/>
       <c s="1" r="T64"/>
-      <c s="2" r="U64"/>
-      <c s="2" r="V64"/>
+      <c s="3" r="U64"/>
+      <c s="3" r="V64"/>
     </row>
     <row customHeight="1" r="65" ht="12.75">
-      <c t="s" s="50" r="A65">
+      <c t="s" s="9" r="A65">
         <v>786</v>
       </c>
-      <c s="51" r="O65"/>
-      <c s="51" r="P65"/>
-      <c s="51" r="Q65"/>
-      <c s="51" r="R65"/>
-      <c s="51" r="S65"/>
-      <c s="51" r="T65"/>
-      <c s="51" r="U65"/>
-      <c s="52" r="V65"/>
     </row>
     <row customHeight="1" r="66" ht="12.75">
-      <c t="s" s="53" r="A66">
+      <c t="s" s="37" r="A66">
         <v>787</v>
       </c>
-      <c t="s" s="54" r="B66">
+      <c t="s" s="38" r="B66">
         <v>788</v>
       </c>
-      <c t="s" s="13" r="C66">
+      <c t="s" s="12" r="C66">
         <v>789</v>
       </c>
-      <c t="s" s="13" r="D66">
+      <c t="s" s="12" r="D66">
         <v>790</v>
       </c>
-      <c t="s" s="13" r="E66">
+      <c t="s" s="12" r="E66">
         <v>791</v>
       </c>
-      <c t="s" s="13" r="F66">
+      <c t="s" s="12" r="F66">
         <v>792</v>
       </c>
-      <c t="s" s="13" r="G66">
+      <c t="s" s="12" r="G66">
         <v>793</v>
       </c>
-      <c t="s" s="13" r="H66">
+      <c t="s" s="12" r="H66">
         <v>794</v>
       </c>
-      <c t="s" s="13" r="I66">
+      <c t="s" s="12" r="I66">
         <v>795</v>
       </c>
-      <c t="s" s="13" r="J66">
+      <c t="s" s="12" r="J66">
         <v>796</v>
       </c>
-      <c t="s" s="13" r="K66">
+      <c t="s" s="12" r="K66">
         <v>797</v>
       </c>
-      <c t="s" s="13" r="L66">
+      <c t="s" s="12" r="L66">
         <v>798</v>
       </c>
-      <c t="s" s="13" r="M66">
+      <c t="s" s="12" r="M66">
         <v>799</v>
       </c>
-      <c t="s" s="13" r="N66">
+      <c t="s" s="12" r="N66">
         <v>800</v>
       </c>
-      <c t="s" s="14" r="O66">
+      <c t="s" s="1" r="O66">
         <v>801</v>
       </c>
-      <c t="s" s="14" r="P66">
+      <c t="s" s="1" r="P66">
         <v>802</v>
       </c>
-      <c t="s" s="14" r="Q66">
+      <c t="s" s="1" r="Q66">
         <v>803</v>
       </c>
-      <c t="s" s="14" r="R66">
+      <c t="s" s="1" r="R66">
         <v>804</v>
       </c>
-      <c t="s" s="14" r="S66">
+      <c t="s" s="1" r="S66">
         <v>805</v>
       </c>
-      <c t="s" s="14" r="T66">
+      <c t="s" s="1" r="T66">
         <v>806</v>
       </c>
-      <c t="s" s="13" r="U66">
+      <c t="s" s="12" r="U66">
         <v>807</v>
       </c>
-      <c t="s" s="13" r="V66">
+      <c t="s" s="12" r="V66">
         <v>808</v>
       </c>
     </row>
     <row customHeight="1" r="67" ht="12.75">
-      <c t="s" s="53" r="A67">
+      <c t="s" s="37" r="A67">
         <v>809</v>
       </c>
-      <c t="s" s="54" r="B67">
+      <c t="s" s="38" r="B67">
         <v>810</v>
       </c>
-      <c t="s" s="13" r="C67">
+      <c t="s" s="12" r="C67">
         <v>811</v>
       </c>
-      <c t="s" s="13" r="D67">
+      <c t="s" s="12" r="D67">
         <v>812</v>
       </c>
-      <c t="s" s="13" r="E67">
+      <c t="s" s="12" r="E67">
         <v>813</v>
       </c>
-      <c t="s" s="13" r="F67">
+      <c t="s" s="12" r="F67">
         <v>814</v>
       </c>
-      <c t="s" s="13" r="G67">
+      <c t="s" s="12" r="G67">
         <v>815</v>
       </c>
-      <c t="s" s="13" r="H67">
+      <c t="s" s="12" r="H67">
         <v>816</v>
       </c>
-      <c t="s" s="13" r="I67">
+      <c t="s" s="12" r="I67">
         <v>817</v>
       </c>
-      <c t="s" s="13" r="J67">
+      <c t="s" s="12" r="J67">
         <v>818</v>
       </c>
-      <c t="s" s="13" r="K67">
+      <c t="s" s="12" r="K67">
         <v>819</v>
       </c>
-      <c t="s" s="13" r="L67">
+      <c t="s" s="12" r="L67">
         <v>820</v>
       </c>
-      <c t="s" s="13" r="M67">
+      <c t="s" s="12" r="M67">
         <v>821</v>
       </c>
-      <c t="s" s="13" r="N67">
+      <c t="s" s="12" r="N67">
         <v>822</v>
       </c>
-      <c t="s" s="14" r="O67">
+      <c t="s" s="1" r="O67">
         <v>823</v>
       </c>
-      <c t="s" s="14" r="P67">
+      <c t="s" s="1" r="P67">
         <v>824</v>
       </c>
-      <c t="s" s="14" r="Q67">
+      <c t="s" s="1" r="Q67">
         <v>825</v>
       </c>
-      <c t="s" s="14" r="R67">
+      <c t="s" s="1" r="R67">
         <v>826</v>
       </c>
-      <c t="s" s="14" r="S67">
+      <c t="s" s="1" r="S67">
         <v>827</v>
       </c>
-      <c t="s" s="14" r="T67">
+      <c t="s" s="1" r="T67">
         <v>828</v>
       </c>
-      <c t="s" s="13" r="U67">
+      <c t="s" s="12" r="U67">
         <v>829</v>
       </c>
-      <c t="s" s="13" r="V67">
+      <c t="s" s="12" r="V67">
         <v>830</v>
       </c>
     </row>
     <row customHeight="1" r="68" ht="12.75">
-      <c t="s" s="53" r="A68">
+      <c t="s" s="37" r="A68">
         <v>831</v>
       </c>
-      <c t="s" s="54" r="B68">
+      <c t="s" s="38" r="B68">
         <v>832</v>
       </c>
-      <c t="s" s="13" r="C68">
+      <c t="s" s="12" r="C68">
         <v>833</v>
       </c>
-      <c t="s" s="13" r="D68">
+      <c t="s" s="12" r="D68">
         <v>834</v>
       </c>
-      <c t="s" s="13" r="E68">
+      <c t="s" s="12" r="E68">
         <v>835</v>
       </c>
-      <c t="s" s="13" r="F68">
+      <c t="s" s="12" r="F68">
         <v>836</v>
       </c>
-      <c t="s" s="13" r="G68">
+      <c t="s" s="12" r="G68">
         <v>837</v>
       </c>
-      <c t="s" s="13" r="H68">
+      <c t="s" s="12" r="H68">
         <v>838</v>
       </c>
-      <c t="s" s="13" r="I68">
+      <c t="s" s="12" r="I68">
         <v>839</v>
       </c>
-      <c t="s" s="13" r="J68">
+      <c t="s" s="12" r="J68">
         <v>840</v>
       </c>
-      <c t="s" s="13" r="K68">
+      <c t="s" s="12" r="K68">
         <v>841</v>
       </c>
-      <c t="s" s="13" r="L68">
+      <c t="s" s="12" r="L68">
         <v>842</v>
       </c>
-      <c t="s" s="13" r="M68">
+      <c t="s" s="12" r="M68">
         <v>843</v>
       </c>
-      <c t="s" s="13" r="N68">
+      <c t="s" s="12" r="N68">
         <v>844</v>
       </c>
-      <c t="s" s="14" r="O68">
+      <c t="s" s="1" r="O68">
         <v>845</v>
       </c>
-      <c t="s" s="14" r="P68">
+      <c t="s" s="1" r="P68">
         <v>846</v>
       </c>
-      <c t="s" s="14" r="Q68">
+      <c t="s" s="1" r="Q68">
         <v>847</v>
       </c>
-      <c t="s" s="14" r="R68">
+      <c t="s" s="1" r="R68">
         <v>848</v>
       </c>
-      <c t="s" s="14" r="S68">
+      <c t="s" s="1" r="S68">
         <v>849</v>
       </c>
-      <c t="s" s="14" r="T68">
+      <c t="s" s="1" r="T68">
         <v>850</v>
       </c>
-      <c t="s" s="13" r="U68">
+      <c t="s" s="12" r="U68">
         <v>851</v>
       </c>
-      <c t="s" s="13" r="V68">
+      <c t="s" s="12" r="V68">
         <v>852</v>
       </c>
     </row>
     <row customHeight="1" r="69" ht="12.75">
-      <c t="s" s="53" r="A69">
+      <c t="s" s="37" r="A69">
         <v>853</v>
       </c>
-      <c t="s" s="54" r="B69">
+      <c t="s" s="38" r="B69">
         <v>854</v>
       </c>
-      <c t="s" s="13" r="C69">
+      <c t="s" s="12" r="C69">
         <v>855</v>
       </c>
-      <c t="s" s="13" r="D69">
+      <c t="s" s="12" r="D69">
         <v>856</v>
       </c>
-      <c t="s" s="13" r="E69">
+      <c t="s" s="12" r="E69">
         <v>857</v>
       </c>
-      <c t="s" s="13" r="F69">
+      <c t="s" s="12" r="F69">
         <v>858</v>
       </c>
-      <c t="s" s="13" r="G69">
+      <c t="s" s="12" r="G69">
         <v>859</v>
       </c>
-      <c t="s" s="13" r="H69">
+      <c t="s" s="12" r="H69">
         <v>860</v>
       </c>
-      <c t="s" s="13" r="I69">
+      <c t="s" s="12" r="I69">
         <v>861</v>
       </c>
-      <c t="s" s="13" r="J69">
+      <c t="s" s="12" r="J69">
         <v>862</v>
       </c>
-      <c t="s" s="13" r="K69">
+      <c t="s" s="12" r="K69">
         <v>863</v>
       </c>
-      <c t="s" s="13" r="L69">
+      <c t="s" s="12" r="L69">
         <v>864</v>
       </c>
-      <c t="s" s="13" r="M69">
+      <c t="s" s="12" r="M69">
         <v>865</v>
       </c>
-      <c t="s" s="13" r="N69">
+      <c t="s" s="12" r="N69">
         <v>866</v>
       </c>
-      <c t="s" s="14" r="O69">
+      <c t="s" s="1" r="O69">
         <v>867</v>
       </c>
-      <c t="s" s="14" r="P69">
+      <c t="s" s="1" r="P69">
         <v>868</v>
       </c>
-      <c t="s" s="14" r="Q69">
+      <c t="s" s="1" r="Q69">
         <v>869</v>
       </c>
-      <c t="s" s="14" r="R69">
+      <c t="s" s="1" r="R69">
         <v>870</v>
       </c>
-      <c t="s" s="14" r="S69">
+      <c t="s" s="1" r="S69">
         <v>871</v>
       </c>
-      <c t="s" s="14" r="T69">
+      <c t="s" s="1" r="T69">
         <v>872</v>
       </c>
-      <c t="s" s="13" r="U69">
+      <c t="s" s="12" r="U69">
         <v>873</v>
       </c>
-      <c t="s" s="13" r="V69">
+      <c t="s" s="12" r="V69">
         <v>874</v>
       </c>
     </row>
     <row customHeight="1" r="70" ht="12.75">
-      <c t="s" s="53" r="A70">
+      <c t="s" s="37" r="A70">
         <v>875</v>
       </c>
-      <c t="s" s="54" r="B70">
+      <c t="s" s="38" r="B70">
         <v>876</v>
       </c>
-      <c t="s" s="13" r="C70">
+      <c t="s" s="12" r="C70">
         <v>877</v>
       </c>
-      <c t="s" s="13" r="D70">
+      <c t="s" s="12" r="D70">
         <v>878</v>
       </c>
-      <c t="s" s="13" r="E70">
+      <c t="s" s="12" r="E70">
         <v>879</v>
       </c>
-      <c t="s" s="13" r="F70">
+      <c t="s" s="12" r="F70">
         <v>880</v>
       </c>
-      <c t="s" s="13" r="G70">
+      <c t="s" s="12" r="G70">
         <v>881</v>
       </c>
-      <c t="s" s="13" r="H70">
+      <c t="s" s="12" r="H70">
         <v>882</v>
       </c>
-      <c t="s" s="13" r="I70">
+      <c t="s" s="12" r="I70">
         <v>883</v>
       </c>
-      <c t="s" s="13" r="J70">
+      <c t="s" s="12" r="J70">
         <v>884</v>
       </c>
-      <c t="s" s="13" r="K70">
+      <c t="s" s="12" r="K70">
         <v>885</v>
       </c>
-      <c t="s" s="13" r="L70">
+      <c t="s" s="12" r="L70">
         <v>886</v>
       </c>
-      <c t="s" s="13" r="M70">
+      <c t="s" s="12" r="M70">
         <v>887</v>
       </c>
-      <c s="13" r="N70"/>
-      <c t="s" s="14" r="O70">
+      <c s="12" r="N70"/>
+      <c t="s" s="1" r="O70">
         <v>888</v>
       </c>
-      <c t="s" s="14" r="P70">
+      <c t="s" s="1" r="P70">
         <v>889</v>
       </c>
-      <c t="s" s="14" r="Q70">
+      <c t="s" s="1" r="Q70">
         <v>890</v>
       </c>
-      <c t="s" s="14" r="R70">
+      <c t="s" s="1" r="R70">
         <v>891</v>
       </c>
-      <c s="14" r="S70"/>
-      <c t="s" s="14" r="T70">
+      <c s="1" r="S70"/>
+      <c t="s" s="1" r="T70">
         <v>892</v>
       </c>
-      <c s="9" r="U70"/>
-      <c s="9" r="V70"/>
+      <c s="3" r="U70"/>
+      <c s="3" r="V70"/>
     </row>
     <row customHeight="1" r="71" ht="12.75">
-      <c s="55" r="A71"/>
+      <c s="35" r="A71"/>
     </row>
     <row customHeight="1" r="72" ht="12.75">
-      <c t="s" s="56" r="A72">
+      <c t="s" s="36" r="A72">
         <v>893</v>
       </c>
-      <c s="14" r="O72"/>
-      <c s="14" r="P72"/>
-      <c s="14" r="Q72"/>
-      <c s="14" r="R72"/>
-      <c s="14" r="S72"/>
-      <c s="14" r="T72"/>
-      <c s="14" r="U72"/>
-      <c s="14" r="V72"/>
+      <c s="39" r="O72"/>
+      <c s="39" r="P72"/>
+      <c s="39" r="Q72"/>
+      <c s="39" r="R72"/>
+      <c s="39" r="S72"/>
+      <c s="39" r="T72"/>
+      <c s="39" r="U72"/>
+      <c s="3" r="V72"/>
     </row>
     <row customHeight="1" r="73" ht="13.5">
-      <c s="14" r="A73"/>
-      <c s="14" r="B73"/>
-      <c t="s" s="14" r="C73">
+      <c s="1" r="A73"/>
+      <c s="1" r="B73"/>
+      <c t="s" s="1" r="C73">
         <v>894</v>
       </c>
-      <c s="14" r="D73"/>
-      <c t="s" s="14" r="E73">
+      <c t="s" s="1" r="D73">
         <v>895</v>
       </c>
-      <c t="s" s="14" r="F73">
+      <c t="s" s="1" r="E73">
         <v>896</v>
       </c>
-      <c t="s" s="14" r="G73">
+      <c t="s" s="1" r="F73">
         <v>897</v>
       </c>
-      <c t="s" s="14" r="H73">
+      <c t="s" s="1" r="G73">
         <v>898</v>
       </c>
-      <c t="s" s="14" r="I73">
+      <c t="s" s="1" r="H73">
         <v>899</v>
       </c>
-      <c t="s" s="14" r="J73">
+      <c t="s" s="1" r="I73">
         <v>900</v>
       </c>
-      <c t="s" s="14" r="K73">
+      <c t="s" s="1" r="J73">
         <v>901</v>
       </c>
-      <c t="s" s="14" r="L73">
+      <c t="s" s="1" r="K73">
         <v>902</v>
       </c>
-      <c t="s" s="14" r="M73">
+      <c t="s" s="1" r="L73">
         <v>903</v>
       </c>
-      <c t="s" s="14" r="N73">
+      <c t="s" s="1" r="M73">
         <v>904</v>
       </c>
-      <c t="s" s="14" r="O73">
+      <c t="s" s="1" r="N73">
         <v>905</v>
       </c>
-      <c t="s" s="14" r="P73">
+      <c t="s" s="1" r="O73">
         <v>906</v>
       </c>
-      <c t="s" s="14" r="Q73">
+      <c t="s" s="1" r="P73">
         <v>907</v>
       </c>
-      <c t="s" s="14" r="R73">
+      <c t="s" s="1" r="Q73">
         <v>908</v>
       </c>
-      <c t="s" s="14" r="S73">
+      <c t="s" s="1" r="R73">
         <v>909</v>
       </c>
-      <c t="s" s="14" r="T73">
+      <c t="s" s="1" r="S73">
         <v>910</v>
       </c>
-      <c t="s" s="13" r="U73">
+      <c t="s" s="1" r="T73">
         <v>911</v>
       </c>
-      <c t="s" s="13" r="V73">
+      <c t="s" s="12" r="U73">
         <v>912</v>
       </c>
+      <c t="s" s="12" r="V73">
+        <v>913</v>
+      </c>
     </row>
     <row customHeight="1" r="74" ht="13.5">
-      <c s="14" r="A74"/>
-      <c s="14" r="B74"/>
-      <c t="s" s="14" r="C74">
-        <v>913</v>
-      </c>
-      <c t="s" s="14" r="D74">
+      <c s="1" r="A74"/>
+      <c s="1" r="B74"/>
+      <c t="s" s="1" r="C74">
         <v>914</v>
       </c>
-      <c s="14" r="E74"/>
-      <c s="14" r="F74"/>
-      <c t="s" s="14" r="G74">
+      <c s="1" r="D74"/>
+      <c s="1" r="E74"/>
+      <c s="1" r="F74"/>
+      <c t="s" s="1" r="G74">
         <v>915</v>
       </c>
-      <c t="s" s="57" r="H74">
+      <c t="s" s="40" r="H74">
         <v>916</v>
       </c>
-      <c t="s" s="14" r="I74">
+      <c t="s" s="1" r="I74">
         <v>917</v>
       </c>
-      <c t="s" s="14" r="J74">
+      <c t="s" s="1" r="J74">
         <v>918</v>
       </c>
-      <c t="s" s="14" r="K74">
+      <c t="s" s="1" r="K74">
         <v>919</v>
       </c>
-      <c t="s" s="14" r="L74">
+      <c t="s" s="1" r="L74">
         <v>920</v>
       </c>
-      <c s="14" r="M74"/>
-      <c t="s" s="14" r="N74">
+      <c s="1" r="M74"/>
+      <c t="s" s="1" r="N74">
         <v>921</v>
       </c>
-      <c t="s" s="14" r="O74">
+      <c t="s" s="1" r="O74">
         <v>922</v>
       </c>
-      <c t="s" s="14" r="P74">
+      <c t="s" s="1" r="P74">
         <v>923</v>
       </c>
-      <c t="s" s="14" r="Q74">
+      <c t="s" s="1" r="Q74">
         <v>924</v>
       </c>
-      <c t="s" s="14" r="R74">
+      <c t="s" s="1" r="R74">
         <v>925</v>
       </c>
-      <c t="s" s="14" r="S74">
+      <c t="s" s="1" r="S74">
         <v>926</v>
       </c>
-      <c t="s" s="14" r="T74">
+      <c t="s" s="1" r="T74">
         <v>927</v>
       </c>
-      <c t="s" s="13" r="U74">
+      <c t="s" s="12" r="U74">
         <v>928</v>
       </c>
-      <c t="s" s="13" r="V74">
+      <c t="s" s="12" r="V74">
         <v>929</v>
       </c>
     </row>
     <row customHeight="1" r="75" ht="13.5">
-      <c s="14" r="A75"/>
-      <c s="14" r="B75"/>
-      <c t="s" s="14" r="C75">
+      <c s="1" r="A75"/>
+      <c s="1" r="B75"/>
+      <c t="s" s="1" r="C75">
         <v>930</v>
       </c>
-      <c s="14" r="D75"/>
-      <c s="14" r="E75"/>
-      <c s="14" r="F75"/>
-      <c t="s" s="14" r="G75">
+      <c s="1" r="D75"/>
+      <c s="1" r="E75"/>
+      <c s="1" r="F75"/>
+      <c t="s" s="1" r="G75">
         <v>931</v>
       </c>
-      <c t="s" s="14" r="H75">
+      <c t="s" s="1" r="H75">
         <v>932</v>
       </c>
-      <c t="s" s="14" r="I75">
+      <c t="s" s="1" r="I75">
         <v>933</v>
       </c>
-      <c t="s" s="14" r="J75">
+      <c t="s" s="1" r="J75">
         <v>934</v>
       </c>
-      <c t="s" s="14" r="K75">
+      <c t="s" s="1" r="K75">
         <v>935</v>
       </c>
-      <c t="s" s="14" r="L75">
+      <c t="s" s="1" r="L75">
         <v>936</v>
       </c>
-      <c s="14" r="M75"/>
-      <c t="s" s="58" r="N75">
+      <c s="1" r="M75"/>
+      <c t="s" s="1" r="N75">
         <v>937</v>
       </c>
-      <c t="s" s="14" r="O75">
+      <c t="s" s="1" r="O75">
         <v>938</v>
       </c>
-      <c t="s" s="14" r="P75">
+      <c t="s" s="1" r="P75">
         <v>939</v>
       </c>
-      <c t="s" s="14" r="Q75">
+      <c t="s" s="1" r="Q75">
         <v>940</v>
       </c>
-      <c t="s" s="14" r="R75">
+      <c t="s" s="1" r="R75">
         <v>941</v>
       </c>
-      <c t="s" s="14" r="S75">
+      <c t="s" s="1" r="S75">
         <v>942</v>
       </c>
-      <c t="s" s="14" r="T75">
+      <c t="s" s="1" r="T75">
         <v>943</v>
       </c>
-      <c t="s" s="13" r="U75">
+      <c t="s" s="12" r="U75">
         <v>944</v>
       </c>
-      <c t="s" s="13" r="V75">
+      <c t="s" s="12" r="V75">
         <v>945</v>
       </c>
     </row>
     <row customHeight="1" r="76" ht="13.5">
-      <c s="14" r="A76"/>
-      <c s="14" r="B76"/>
-      <c t="s" s="14" r="C76">
+      <c s="1" r="A76"/>
+      <c s="1" r="B76"/>
+      <c t="s" s="1" r="C76">
         <v>946</v>
       </c>
-      <c s="14" r="D76"/>
-      <c s="14" r="E76"/>
-      <c s="14" r="F76"/>
-      <c t="s" s="44" r="G76">
+      <c s="1" r="D76"/>
+      <c s="1" r="E76"/>
+      <c s="1" r="F76"/>
+      <c t="s" s="32" r="G76">
         <v>947</v>
       </c>
-      <c t="s" s="14" r="H76">
+      <c t="s" s="1" r="H76">
         <v>948</v>
       </c>
-      <c t="s" s="14" r="I76">
+      <c t="s" s="1" r="I76">
         <v>949</v>
       </c>
-      <c s="14" r="J76"/>
-      <c t="s" s="14" r="K76">
+      <c s="1" r="J76"/>
+      <c t="s" s="1" r="K76">
         <v>950</v>
       </c>
-      <c t="s" s="14" r="L76">
+      <c t="s" s="1" r="L76">
         <v>951</v>
       </c>
-      <c s="14" r="M76"/>
-      <c t="s" s="14" r="N76">
+      <c s="1" r="M76"/>
+      <c t="s" s="1" r="N76">
         <v>952</v>
       </c>
-      <c t="s" s="14" r="O76">
+      <c t="s" s="1" r="O76">
         <v>953</v>
       </c>
-      <c t="s" s="14" r="P76">
+      <c t="s" s="1" r="P76">
         <v>954</v>
       </c>
-      <c t="s" s="14" r="Q76">
+      <c t="s" s="1" r="Q76">
         <v>955</v>
       </c>
-      <c t="s" s="14" r="R76">
+      <c t="s" s="1" r="R76">
         <v>956</v>
       </c>
-      <c t="s" s="14" r="S76">
+      <c t="s" s="1" r="S76">
         <v>957</v>
       </c>
-      <c t="s" s="14" r="T76">
+      <c t="s" s="1" r="T76">
         <v>958</v>
       </c>
-      <c t="s" s="13" r="U76">
+      <c t="s" s="12" r="U76">
         <v>959</v>
       </c>
-      <c t="s" s="13" r="V76">
+      <c t="s" s="12" r="V76">
         <v>960</v>
       </c>
     </row>
     <row customHeight="1" r="77" ht="13.5">
-      <c s="14" r="A77"/>
-      <c s="14" r="B77"/>
-      <c t="s" s="14" r="C77">
+      <c s="1" r="A77"/>
+      <c s="1" r="B77"/>
+      <c t="s" s="1" r="C77">
         <v>961</v>
       </c>
-      <c s="14" r="D77"/>
-      <c s="14" r="E77"/>
-      <c s="14" r="F77"/>
-      <c t="s" s="14" r="G77">
+      <c s="1" r="D77"/>
+      <c s="1" r="E77"/>
+      <c s="1" r="F77"/>
+      <c t="s" s="1" r="G77">
         <v>962</v>
       </c>
-      <c t="s" s="14" r="H77">
+      <c t="s" s="1" r="H77">
         <v>963</v>
       </c>
-      <c t="s" s="14" r="I77">
+      <c t="s" s="1" r="I77">
         <v>964</v>
       </c>
-      <c s="14" r="J77"/>
-      <c t="s" s="14" r="K77">
+      <c s="1" r="J77"/>
+      <c t="s" s="1" r="K77">
         <v>965</v>
       </c>
-      <c t="s" s="14" r="L77">
+      <c t="s" s="1" r="L77">
         <v>966</v>
       </c>
-      <c s="14" r="M77"/>
-      <c t="s" s="58" r="N77">
+      <c s="1" r="M77"/>
+      <c t="s" s="1" r="N77">
         <v>967</v>
       </c>
-      <c t="s" s="14" r="O77">
+      <c t="s" s="1" r="O77">
         <v>968</v>
       </c>
-      <c t="s" s="14" r="P77">
+      <c t="s" s="1" r="P77">
         <v>969</v>
       </c>
-      <c t="s" s="14" r="Q77">
+      <c t="s" s="1" r="Q77">
         <v>970</v>
       </c>
-      <c t="s" s="14" r="R77">
+      <c t="s" s="1" r="R77">
         <v>971</v>
       </c>
-      <c t="s" s="14" r="S77">
+      <c t="s" s="1" r="S77">
         <v>972</v>
       </c>
-      <c t="s" s="14" r="T77">
+      <c t="s" s="1" r="T77">
         <v>973</v>
       </c>
-      <c t="s" s="13" r="U77">
+      <c t="s" s="12" r="U77">
         <v>974</v>
       </c>
-      <c t="s" s="13" r="V77">
+      <c t="s" s="12" r="V77">
         <v>975</v>
       </c>
     </row>
     <row customHeight="1" r="78" ht="13.5">
-      <c s="14" r="A78"/>
-      <c s="14" r="B78"/>
-      <c t="s" s="14" r="C78">
+      <c s="1" r="A78"/>
+      <c s="1" r="B78"/>
+      <c t="s" s="1" r="C78">
         <v>976</v>
       </c>
-      <c s="14" r="D78"/>
-      <c s="14" r="E78"/>
-      <c s="14" r="F78"/>
-      <c t="s" s="14" r="G78">
+      <c s="1" r="D78"/>
+      <c s="1" r="E78"/>
+      <c s="1" r="F78"/>
+      <c t="s" s="1" r="G78">
         <v>977</v>
       </c>
-      <c t="s" s="14" r="H78">
+      <c t="s" s="1" r="H78">
         <v>978</v>
       </c>
-      <c t="s" s="14" r="I78">
+      <c t="s" s="1" r="I78">
         <v>979</v>
       </c>
-      <c s="14" r="J78"/>
-      <c t="s" s="14" r="K78">
+      <c s="1" r="J78"/>
+      <c t="s" s="1" r="K78">
         <v>980</v>
       </c>
-      <c t="s" s="14" r="L78">
+      <c t="s" s="1" r="L78">
         <v>981</v>
       </c>
-      <c s="14" r="M78"/>
-      <c t="s" s="14" r="N78">
+      <c s="1" r="M78"/>
+      <c t="s" s="1" r="N78">
         <v>982</v>
       </c>
-      <c t="s" s="14" r="O78">
+      <c t="s" s="1" r="O78">
         <v>983</v>
       </c>
-      <c t="s" s="14" r="P78">
+      <c t="s" s="1" r="P78">
         <v>984</v>
       </c>
-      <c t="s" s="14" r="Q78">
+      <c t="s" s="1" r="Q78">
         <v>985</v>
       </c>
-      <c t="s" s="14" r="R78">
+      <c t="s" s="1" r="R78">
         <v>986</v>
       </c>
-      <c s="14" r="S78"/>
-      <c t="s" s="14" r="T78">
+      <c s="1" r="S78"/>
+      <c t="s" s="1" r="T78">
         <v>987</v>
       </c>
-      <c t="s" s="13" r="U78">
+      <c t="s" s="12" r="U78">
         <v>988</v>
       </c>
-      <c t="s" s="13" r="V78">
+      <c t="s" s="12" r="V78">
         <v>989</v>
       </c>
     </row>
     <row customHeight="1" r="79" ht="13.5">
-      <c s="14" r="A79"/>
-      <c s="14" r="B79"/>
-      <c t="s" s="14" r="C79">
+      <c s="1" r="A79"/>
+      <c s="1" r="B79"/>
+      <c t="s" s="1" r="C79">
         <v>990</v>
       </c>
-      <c s="14" r="D79"/>
-      <c s="14" r="E79"/>
-      <c s="14" r="F79"/>
-      <c s="14" r="G79"/>
-      <c t="s" s="14" r="H79">
+      <c s="1" r="D79"/>
+      <c s="1" r="E79"/>
+      <c s="1" r="F79"/>
+      <c s="1" r="G79"/>
+      <c t="s" s="1" r="H79">
         <v>991</v>
       </c>
-      <c s="14" r="I79"/>
-      <c s="14" r="J79"/>
-      <c t="s" s="14" r="K79">
+      <c s="1" r="I79"/>
+      <c s="1" r="J79"/>
+      <c t="s" s="1" r="K79">
         <v>992</v>
       </c>
-      <c t="s" s="14" r="L79">
+      <c t="s" s="1" r="L79">
         <v>993</v>
       </c>
-      <c s="14" r="M79"/>
-      <c s="14" r="N79"/>
-      <c t="s" s="14" r="O79">
+      <c s="1" r="M79"/>
+      <c s="1" r="N79"/>
+      <c t="s" s="1" r="O79">
         <v>994</v>
       </c>
-      <c t="s" s="14" r="P79">
+      <c t="s" s="1" r="P79">
         <v>995</v>
       </c>
-      <c t="s" s="14" r="Q79">
+      <c t="s" s="1" r="Q79">
         <v>996</v>
       </c>
-      <c s="14" r="R79"/>
-      <c s="14" r="S79"/>
-      <c t="s" s="13" r="T79">
+      <c s="1" r="R79"/>
+      <c s="1" r="S79"/>
+      <c t="s" s="12" r="T79">
         <v>997</v>
       </c>
-      <c t="s" s="14" r="U79">
+      <c t="s" s="1" r="U79">
         <v>998</v>
       </c>
-      <c t="s" s="13" r="V79">
+      <c t="s" s="12" r="V79">
         <v>999</v>
       </c>
     </row>
     <row customHeight="1" r="80" ht="13.5">
-      <c s="14" r="A80"/>
-      <c s="14" r="B80"/>
-      <c t="s" s="14" r="C80">
+      <c s="1" r="A80"/>
+      <c s="1" r="B80"/>
+      <c t="s" s="1" r="C80">
         <v>1000</v>
       </c>
-      <c s="14" r="D80"/>
-      <c s="14" r="E80"/>
-      <c s="14" r="F80"/>
-      <c s="14" r="G80"/>
-      <c s="14" r="H80"/>
-      <c s="14" r="I80"/>
-      <c s="14" r="J80"/>
-      <c t="s" s="14" r="K80">
+      <c s="1" r="D80"/>
+      <c s="1" r="E80"/>
+      <c s="1" r="F80"/>
+      <c s="1" r="G80"/>
+      <c s="1" r="H80"/>
+      <c s="1" r="I80"/>
+      <c s="1" r="J80"/>
+      <c t="s" s="1" r="K80">
         <v>1001</v>
       </c>
-      <c s="14" r="L80"/>
-      <c s="14" r="M80"/>
-      <c s="14" r="N80"/>
-      <c t="s" s="14" r="O80">
+      <c s="1" r="L80"/>
+      <c s="1" r="M80"/>
+      <c s="1" r="N80"/>
+      <c t="s" s="1" r="O80">
         <v>1002</v>
       </c>
-      <c t="s" s="14" r="P80">
+      <c t="s" s="1" r="P80">
         <v>1003</v>
       </c>
-      <c t="s" s="14" r="Q80">
+      <c t="s" s="1" r="Q80">
         <v>1004</v>
       </c>
-      <c s="14" r="R80"/>
-      <c s="14" r="S80"/>
-      <c t="s" s="13" r="T80">
+      <c s="1" r="R80"/>
+      <c s="1" r="S80"/>
+      <c t="s" s="12" r="T80">
         <v>1005</v>
       </c>
-      <c t="s" s="13" r="U80">
+      <c t="s" s="12" r="U80">
         <v>1006</v>
       </c>
-      <c t="s" s="13" r="V80">
+      <c t="s" s="12" r="V80">
         <v>1007</v>
       </c>
     </row>
     <row customHeight="1" r="81" ht="12.75">
-      <c s="14" r="A81"/>
-      <c s="14" r="B81"/>
-      <c t="s" s="14" r="C81">
+      <c s="1" r="A81"/>
+      <c s="1" r="B81"/>
+      <c t="s" s="1" r="C81">
         <v>1008</v>
       </c>
-      <c s="14" r="D81"/>
-      <c s="14" r="E81"/>
-      <c s="14" r="F81"/>
-      <c s="14" r="G81"/>
-      <c s="14" r="H81"/>
-      <c s="14" r="I81"/>
-      <c s="14" r="J81"/>
-      <c t="s" s="14" r="K81">
+      <c s="1" r="D81"/>
+      <c s="1" r="E81"/>
+      <c s="1" r="F81"/>
+      <c s="1" r="G81"/>
+      <c s="1" r="H81"/>
+      <c s="1" r="I81"/>
+      <c s="1" r="J81"/>
+      <c t="s" s="1" r="K81">
         <v>1009</v>
       </c>
-      <c s="14" r="L81"/>
-      <c s="14" r="M81"/>
-      <c s="14" r="N81"/>
-      <c s="14" r="O81"/>
-      <c s="14" r="P81"/>
-      <c s="14" r="Q81"/>
-      <c s="14" r="R81"/>
-      <c s="14" r="S81"/>
-      <c t="s" s="14" r="T81">
+      <c s="1" r="L81"/>
+      <c s="1" r="M81"/>
+      <c s="1" r="N81"/>
+      <c s="1" r="O81"/>
+      <c s="1" r="P81"/>
+      <c s="1" r="Q81"/>
+      <c s="1" r="R81"/>
+      <c s="1" r="S81"/>
+      <c t="s" s="1" r="T81">
         <v>1010</v>
       </c>
-      <c t="s" s="13" r="U81">
+      <c t="s" s="12" r="U81">
         <v>1011</v>
       </c>
-      <c t="s" s="13" r="V81">
+      <c t="s" s="12" r="V81">
         <v>1012</v>
       </c>
     </row>
     <row customHeight="1" r="82" ht="12.75">
-      <c s="14" r="A82"/>
-      <c s="14" r="B82"/>
-      <c s="14" r="C82"/>
-      <c s="14" r="D82"/>
-      <c s="14" r="E82"/>
-      <c s="14" r="F82"/>
-      <c s="14" r="G82"/>
-      <c s="14" r="H82"/>
-      <c s="14" r="I82"/>
-      <c s="14" r="J82"/>
-      <c t="s" s="14" r="K82">
+      <c s="1" r="A82"/>
+      <c s="1" r="B82"/>
+      <c s="1" r="C82"/>
+      <c s="1" r="D82"/>
+      <c s="1" r="E82"/>
+      <c s="1" r="F82"/>
+      <c s="1" r="G82"/>
+      <c s="1" r="H82"/>
+      <c s="1" r="I82"/>
+      <c s="1" r="J82"/>
+      <c t="s" s="1" r="K82">
         <v>1013</v>
       </c>
-      <c s="14" r="L82"/>
-      <c s="14" r="M82"/>
-      <c s="14" r="N82"/>
-      <c s="14" r="O82"/>
-      <c s="14" r="P82"/>
-      <c s="14" r="Q82"/>
-      <c s="14" r="R82"/>
-      <c s="14" r="S82"/>
-      <c t="s" s="14" r="T82">
+      <c s="1" r="L82"/>
+      <c s="1" r="M82"/>
+      <c s="1" r="N82"/>
+      <c s="1" r="O82"/>
+      <c s="1" r="P82"/>
+      <c s="1" r="Q82"/>
+      <c s="1" r="R82"/>
+      <c s="1" r="S82"/>
+      <c t="s" s="1" r="T82">
         <v>1014</v>
       </c>
-      <c t="s" s="13" r="U82">
+      <c t="s" s="12" r="U82">
         <v>1015</v>
       </c>
-      <c s="9" r="V82"/>
+      <c s="3" r="V82"/>
     </row>
     <row customHeight="1" r="83" ht="11.25">
-      <c s="14" r="A83"/>
-      <c s="14" r="B83"/>
-      <c s="14" r="C83"/>
-      <c s="14" r="D83"/>
-      <c s="14" r="E83"/>
-      <c s="14" r="F83"/>
-      <c s="14" r="G83"/>
-      <c s="14" r="H83"/>
-      <c s="14" r="I83"/>
-      <c s="14" r="J83"/>
-      <c t="s" s="14" r="K83">
+      <c s="1" r="A83"/>
+      <c s="1" r="B83"/>
+      <c s="1" r="C83"/>
+      <c s="1" r="D83"/>
+      <c s="1" r="E83"/>
+      <c s="1" r="F83"/>
+      <c s="1" r="G83"/>
+      <c s="1" r="H83"/>
+      <c s="1" r="I83"/>
+      <c s="1" r="J83"/>
+      <c t="s" s="1" r="K83">
         <v>1016</v>
       </c>
-      <c s="14" r="L83"/>
-      <c s="14" r="M83"/>
-      <c s="14" r="N83"/>
-      <c s="14" r="O83"/>
-      <c s="14" r="P83"/>
-      <c s="14" r="Q83"/>
-      <c s="14" r="R83"/>
-      <c s="14" r="S83"/>
-      <c s="14" r="T83"/>
-      <c t="s" s="13" r="U83">
+      <c s="1" r="L83"/>
+      <c s="1" r="M83"/>
+      <c s="1" r="N83"/>
+      <c s="1" r="O83"/>
+      <c s="1" r="P83"/>
+      <c s="1" r="Q83"/>
+      <c s="1" r="R83"/>
+      <c s="1" r="S83"/>
+      <c s="1" r="T83"/>
+      <c t="s" s="12" r="U83">
         <v>1017</v>
       </c>
-      <c s="9" r="V83"/>
+      <c s="3" r="V83"/>
     </row>
     <row customHeight="1" r="84" ht="11.25">
-      <c s="59" r="A84"/>
-      <c s="59" r="B84"/>
-      <c s="14" r="C84"/>
-      <c s="14" r="D84"/>
-      <c s="14" r="E84"/>
-      <c s="14" r="F84"/>
-      <c s="14" r="G84"/>
-      <c s="14" r="H84"/>
-      <c s="14" r="I84"/>
-      <c s="14" r="J84"/>
-      <c t="s" s="14" r="K84">
+      <c s="41" r="A84"/>
+      <c s="41" r="B84"/>
+      <c s="1" r="C84"/>
+      <c s="1" r="D84"/>
+      <c s="1" r="E84"/>
+      <c s="1" r="F84"/>
+      <c s="1" r="G84"/>
+      <c s="1" r="H84"/>
+      <c s="1" r="I84"/>
+      <c s="1" r="J84"/>
+      <c t="s" s="1" r="K84">
         <v>1018</v>
       </c>
-      <c s="14" r="L84"/>
-      <c s="14" r="M84"/>
-      <c s="14" r="N84"/>
-      <c s="14" r="O84"/>
-      <c s="14" r="P84"/>
-      <c s="14" r="Q84"/>
-      <c s="14" r="R84"/>
-      <c s="14" r="S84"/>
-      <c s="14" r="T84"/>
-      <c t="s" s="13" r="U84">
+      <c s="1" r="L84"/>
+      <c s="1" r="M84"/>
+      <c s="1" r="N84"/>
+      <c s="1" r="O84"/>
+      <c s="1" r="P84"/>
+      <c s="1" r="Q84"/>
+      <c s="1" r="R84"/>
+      <c s="1" r="S84"/>
+      <c s="1" r="T84"/>
+      <c t="s" s="12" r="U84">
         <v>1019</v>
       </c>
-      <c s="9" r="V84"/>
+      <c s="3" r="V84"/>
     </row>
     <row customHeight="1" r="85" ht="12.75">
-      <c s="59" r="A85"/>
-      <c s="59" r="B85"/>
-      <c s="14" r="C85"/>
-      <c s="14" r="D85"/>
-      <c s="14" r="E85"/>
-      <c s="14" r="F85"/>
-      <c s="14" r="G85"/>
-      <c s="14" r="H85"/>
-      <c s="14" r="I85"/>
-      <c s="14" r="J85"/>
-      <c s="14" r="K85"/>
-      <c s="14" r="L85"/>
-      <c s="14" r="M85"/>
-      <c s="14" r="N85"/>
-      <c s="14" r="O85"/>
-      <c s="14" r="P85"/>
-      <c s="14" r="Q85"/>
-      <c s="14" r="R85"/>
-      <c s="14" r="S85"/>
-      <c s="14" r="T85"/>
-      <c t="s" s="13" r="U85">
+      <c s="41" r="A85"/>
+      <c s="41" r="B85"/>
+      <c s="1" r="C85"/>
+      <c s="1" r="D85"/>
+      <c s="1" r="E85"/>
+      <c s="1" r="F85"/>
+      <c s="1" r="G85"/>
+      <c s="1" r="H85"/>
+      <c s="1" r="I85"/>
+      <c s="1" r="J85"/>
+      <c s="1" r="K85"/>
+      <c s="1" r="L85"/>
+      <c s="1" r="M85"/>
+      <c s="1" r="N85"/>
+      <c s="1" r="O85"/>
+      <c s="1" r="P85"/>
+      <c s="1" r="Q85"/>
+      <c s="1" r="R85"/>
+      <c s="1" r="S85"/>
+      <c s="1" r="T85"/>
+      <c t="s" s="12" r="U85">
         <v>1020</v>
       </c>
-      <c s="9" r="V85"/>
+      <c s="3" r="V85"/>
     </row>
     <row customHeight="1" r="86" ht="12.75">
-      <c s="14" r="A86"/>
-      <c s="14" r="B86"/>
-      <c s="14" r="C86"/>
-      <c s="14" r="D86"/>
-      <c s="14" r="E86"/>
-      <c s="14" r="F86"/>
-      <c s="14" r="G86"/>
-      <c s="14" r="H86"/>
-      <c s="14" r="I86"/>
-      <c s="14" r="J86"/>
-      <c s="14" r="K86"/>
-      <c s="14" r="L86"/>
-      <c s="14" r="M86"/>
-      <c s="14" r="N86"/>
-      <c s="14" r="O86"/>
-      <c s="14" r="P86"/>
-      <c s="14" r="Q86"/>
-      <c s="14" r="R86"/>
-      <c s="14" r="S86"/>
-      <c s="14" r="T86"/>
-      <c t="s" s="13" r="U86">
+      <c s="1" r="A86"/>
+      <c s="1" r="B86"/>
+      <c s="1" r="C86"/>
+      <c s="1" r="D86"/>
+      <c s="1" r="E86"/>
+      <c s="1" r="F86"/>
+      <c s="1" r="G86"/>
+      <c s="1" r="H86"/>
+      <c s="1" r="I86"/>
+      <c s="1" r="J86"/>
+      <c s="1" r="K86"/>
+      <c s="1" r="L86"/>
+      <c s="1" r="M86"/>
+      <c s="1" r="N86"/>
+      <c s="1" r="O86"/>
+      <c s="1" r="P86"/>
+      <c s="1" r="Q86"/>
+      <c s="1" r="R86"/>
+      <c s="1" r="S86"/>
+      <c s="1" r="T86"/>
+      <c t="s" s="12" r="U86">
         <v>1021</v>
       </c>
-      <c s="9" r="V86"/>
+      <c s="3" r="V86"/>
     </row>
     <row customHeight="1" r="87" ht="11.25">
       <c s="1" r="A87"/>
@@ -7446,43 +7365,22 @@
       <c s="1" r="R87"/>
       <c s="1" r="S87"/>
       <c s="1" r="T87"/>
-      <c s="60" r="U87"/>
-      <c s="2" r="V87"/>
+      <c s="12" r="U87"/>
+      <c s="3" r="V87"/>
     </row>
     <row customHeight="1" r="88" ht="11.25">
-      <c t="s" s="61" r="A88">
+      <c t="s" s="42" r="A88">
         <v>1022</v>
       </c>
-      <c s="62" r="B88"/>
-      <c s="62" r="C88"/>
-      <c s="62" r="D88"/>
-      <c s="62" r="E88"/>
-      <c s="62" r="F88"/>
-      <c s="62" r="G88"/>
-      <c s="62" r="H88"/>
-      <c s="62" r="I88"/>
-      <c s="62" r="J88"/>
-      <c s="62" r="K88"/>
-      <c s="62" r="L88"/>
-      <c s="62" r="M88"/>
-      <c s="62" r="N88"/>
-      <c s="62" r="O88"/>
-      <c s="62" r="P88"/>
-      <c s="62" r="Q88"/>
-      <c s="62" r="R88"/>
-      <c s="62" r="S88"/>
-      <c s="62" r="T88"/>
-      <c s="62" r="U88"/>
-      <c s="62" r="V88"/>
     </row>
     <row customHeight="1" r="89" ht="11.25">
-      <c t="s" s="63" r="A89">
+      <c t="s" s="43" r="A89">
         <v>1023</v>
       </c>
       <c t="s" s="1" r="B89">
         <v>1024</v>
       </c>
-      <c t="s" s="60" r="C89">
+      <c t="s" s="12" r="C89">
         <v>1025</v>
       </c>
       <c s="1" r="D89"/>
@@ -7502,14 +7400,14 @@
       <c s="1" r="R89"/>
       <c s="1" r="S89"/>
       <c s="1" r="T89"/>
-      <c s="2" r="U89"/>
-      <c s="2" r="V89"/>
-    </row>
-    <row customHeight="1" r="90" ht="12.75">
-      <c s="55" r="A90"/>
+      <c s="3" r="U89"/>
+      <c s="3" r="V89"/>
+    </row>
+    <row customHeight="1" r="90" ht="11.25">
+      <c s="35" r="A90"/>
     </row>
     <row customHeight="1" r="91" ht="11.25">
-      <c t="s" s="64" r="A91">
+      <c t="s" s="36" r="A91">
         <v>1026</v>
       </c>
     </row>
@@ -7536,8 +7434,8 @@
       <c s="1" r="R92"/>
       <c s="1" r="S92"/>
       <c s="1" r="T92"/>
-      <c s="2" r="U92"/>
-      <c s="2" r="V92"/>
+      <c s="3" r="U92"/>
+      <c s="3" r="V92"/>
     </row>
     <row customHeight="1" r="93" ht="11.25">
       <c s="1" r="A93"/>
@@ -7562,8 +7460,8 @@
       <c s="1" r="R93"/>
       <c s="1" r="S93"/>
       <c s="1" r="T93"/>
-      <c s="2" r="U93"/>
-      <c s="2" r="V93"/>
+      <c s="3" r="U93"/>
+      <c s="3" r="V93"/>
     </row>
     <row customHeight="1" r="94" ht="11.25">
       <c s="1" r="A94"/>
@@ -7588,8 +7486,8 @@
       <c s="1" r="R94"/>
       <c s="1" r="S94"/>
       <c s="1" r="T94"/>
-      <c s="2" r="U94"/>
-      <c s="2" r="V94"/>
+      <c s="3" r="U94"/>
+      <c s="3" r="V94"/>
     </row>
     <row customHeight="1" r="95" ht="11.25">
       <c s="1" r="A95"/>
@@ -7614,8 +7512,8 @@
       <c s="1" r="R95"/>
       <c s="1" r="S95"/>
       <c s="1" r="T95"/>
-      <c s="2" r="U95"/>
-      <c s="2" r="V95"/>
+      <c s="3" r="U95"/>
+      <c s="3" r="V95"/>
     </row>
     <row customHeight="1" r="96" ht="11.25">
       <c s="1" r="A96"/>
@@ -7630,7 +7528,7 @@
       <c s="1" r="H96"/>
       <c s="1" r="I96"/>
       <c s="1" r="J96"/>
-      <c s="65" r="K96"/>
+      <c s="1" r="K96"/>
       <c s="1" r="L96"/>
       <c s="1" r="M96"/>
       <c s="1" r="N96"/>
@@ -7640,8 +7538,8 @@
       <c s="1" r="R96"/>
       <c s="1" r="S96"/>
       <c s="1" r="T96"/>
-      <c s="2" r="U96"/>
-      <c s="2" r="V96"/>
+      <c s="3" r="U96"/>
+      <c s="3" r="V96"/>
     </row>
     <row customHeight="1" r="97" ht="11.25">
       <c s="1" r="A97"/>
@@ -7656,7 +7554,7 @@
       <c s="1" r="H97"/>
       <c s="1" r="I97"/>
       <c s="1" r="J97"/>
-      <c s="65" r="K97"/>
+      <c s="1" r="K97"/>
       <c s="1" r="L97"/>
       <c s="1" r="M97"/>
       <c s="1" r="N97"/>
@@ -7666,8 +7564,8 @@
       <c s="1" r="R97"/>
       <c s="1" r="S97"/>
       <c s="1" r="T97"/>
-      <c s="2" r="U97"/>
-      <c s="2" r="V97"/>
+      <c s="3" r="U97"/>
+      <c s="3" r="V97"/>
     </row>
     <row customHeight="1" r="98" ht="11.25">
       <c s="1" r="A98"/>
@@ -7682,7 +7580,7 @@
       <c s="1" r="H98"/>
       <c s="1" r="I98"/>
       <c s="1" r="J98"/>
-      <c s="65" r="K98"/>
+      <c s="1" r="K98"/>
       <c s="1" r="L98"/>
       <c s="1" r="M98"/>
       <c s="1" r="N98"/>
@@ -7692,8 +7590,8 @@
       <c s="1" r="R98"/>
       <c s="1" r="S98"/>
       <c s="1" r="T98"/>
-      <c s="2" r="U98"/>
-      <c s="2" r="V98"/>
+      <c s="3" r="U98"/>
+      <c s="3" r="V98"/>
     </row>
     <row customHeight="1" r="99" ht="11.25">
       <c s="1" r="A99"/>
@@ -7708,7 +7606,7 @@
       <c s="1" r="H99"/>
       <c s="1" r="I99"/>
       <c s="1" r="J99"/>
-      <c s="65" r="K99"/>
+      <c s="1" r="K99"/>
       <c s="1" r="L99"/>
       <c s="1" r="M99"/>
       <c s="1" r="N99"/>
@@ -7718,8 +7616,8 @@
       <c s="1" r="R99"/>
       <c s="1" r="S99"/>
       <c s="1" r="T99"/>
-      <c s="2" r="U99"/>
-      <c s="2" r="V99"/>
+      <c s="3" r="U99"/>
+      <c s="3" r="V99"/>
     </row>
     <row customHeight="1" r="100" ht="11.25">
       <c s="1" r="A100"/>
@@ -7734,7 +7632,7 @@
       <c s="1" r="H100"/>
       <c s="1" r="I100"/>
       <c s="1" r="J100"/>
-      <c s="65" r="K100"/>
+      <c s="1" r="K100"/>
       <c s="1" r="L100"/>
       <c s="1" r="M100"/>
       <c s="1" r="N100"/>
@@ -7744,8 +7642,8 @@
       <c s="1" r="R100"/>
       <c s="1" r="S100"/>
       <c s="1" r="T100"/>
-      <c s="2" r="U100"/>
-      <c s="2" r="V100"/>
+      <c s="3" r="U100"/>
+      <c s="3" r="V100"/>
     </row>
     <row customHeight="1" r="101" ht="11.25">
       <c s="1" r="A101"/>
@@ -7770,8 +7668,8 @@
       <c s="1" r="R101"/>
       <c s="1" r="S101"/>
       <c s="1" r="T101"/>
-      <c s="2" r="U101"/>
-      <c s="2" r="V101"/>
+      <c s="3" r="U101"/>
+      <c s="3" r="V101"/>
     </row>
     <row customHeight="1" r="102" ht="11.25">
       <c s="1" r="A102"/>
@@ -7796,8 +7694,8 @@
       <c s="1" r="R102"/>
       <c s="1" r="S102"/>
       <c s="1" r="T102"/>
-      <c s="2" r="U102"/>
-      <c s="2" r="V102"/>
+      <c s="3" r="U102"/>
+      <c s="3" r="V102"/>
     </row>
     <row customHeight="1" r="103" ht="11.25">
       <c s="1" r="A103"/>
@@ -7822,8 +7720,8 @@
       <c s="1" r="R103"/>
       <c s="1" r="S103"/>
       <c s="1" r="T103"/>
-      <c s="2" r="U103"/>
-      <c s="2" r="V103"/>
+      <c s="3" r="U103"/>
+      <c s="3" r="V103"/>
     </row>
     <row customHeight="1" r="104" ht="11.25">
       <c s="1" r="A104"/>
@@ -7846,51 +7744,52 @@
       <c s="1" r="R104"/>
       <c s="1" r="S104"/>
       <c s="1" r="T104"/>
-      <c s="2" r="U104"/>
-      <c s="2" r="V104"/>
+      <c s="3" r="U104"/>
+      <c s="3" r="V104"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:V52"/>
-    <mergeCell ref="B50:B51"/>
+  <mergeCells count="41">
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:V52"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A72:N72"/>
+    <mergeCell ref="A65:V65"/>
     <mergeCell ref="A71:V71"/>
+    <mergeCell ref="A53:V53"/>
+    <mergeCell ref="A91:V91"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A11:V11"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A53:N53"/>
-    <mergeCell ref="A72:N72"/>
-    <mergeCell ref="A91:V91"/>
-    <mergeCell ref="A90:V90"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B27:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A30"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A11:V11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A90:V90"/>
+    <mergeCell ref="A88:V88"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/spreadsheets/DBex.xlsx
+++ b/spreadsheets/DBex.xlsx
@@ -2995,7 +2995,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:absoluteAnchor>
     <xdr:pos y="809625" x="12334875"/>
@@ -3865,141 +3865,143 @@
       </c>
     </row>
     <row customHeight="1" r="22" ht="12.75">
-      <c s="22" r="C22"/>
-      <c s="22" r="D22"/>
-      <c s="22" r="E22"/>
-      <c s="22" r="F22"/>
-      <c s="22" r="G22"/>
-      <c s="22" r="H22"/>
-      <c s="22" r="I22"/>
-      <c s="22" r="J22"/>
-      <c s="22" r="K22"/>
-      <c s="22" r="L22"/>
-      <c s="22" r="M22"/>
-      <c s="22" r="N22"/>
-      <c s="22" r="O22"/>
-      <c s="22" r="P22"/>
-      <c s="22" r="Q22"/>
-      <c s="22" r="R22"/>
-      <c s="22" r="S22"/>
-      <c s="23" r="T22"/>
+      <c t="s" s="18" r="A22">
+        <v>197</v>
+      </c>
+      <c t="s" s="18" r="B22">
+        <v>198</v>
+      </c>
+      <c t="s" s="19" r="C22">
+        <v>199</v>
+      </c>
+      <c t="s" s="19" r="D22">
+        <v>200</v>
+      </c>
+      <c t="s" s="19" r="E22">
+        <v>201</v>
+      </c>
+      <c t="s" s="19" r="F22">
+        <v>202</v>
+      </c>
+      <c t="s" s="19" r="G22">
+        <v>203</v>
+      </c>
+      <c t="s" s="19" r="H22">
+        <v>204</v>
+      </c>
+      <c t="s" s="19" r="I22">
+        <v>205</v>
+      </c>
+      <c t="s" s="19" r="J22">
+        <v>206</v>
+      </c>
+      <c t="s" s="19" r="K22">
+        <v>207</v>
+      </c>
+      <c t="s" s="19" r="L22">
+        <v>208</v>
+      </c>
+      <c t="s" s="19" r="M22">
+        <v>209</v>
+      </c>
+      <c t="s" s="19" r="N22">
+        <v>210</v>
+      </c>
+      <c t="s" s="12" r="O22">
+        <v>211</v>
+      </c>
+      <c t="s" s="12" r="P22">
+        <v>212</v>
+      </c>
+      <c t="s" s="12" r="Q22">
+        <v>213</v>
+      </c>
+      <c t="s" s="12" r="R22">
+        <v>214</v>
+      </c>
+      <c t="s" s="12" r="S22">
+        <v>215</v>
+      </c>
+      <c t="s" s="19" r="T22">
+        <v>216</v>
+      </c>
     </row>
     <row customHeight="1" r="23" ht="12.75">
-      <c t="s" s="18" r="A23">
-        <v>197</v>
-      </c>
-      <c t="s" s="18" r="B23">
-        <v>198</v>
-      </c>
       <c t="s" s="19" r="C23">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c t="s" s="19" r="D23">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c t="s" s="19" r="E23">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c t="s" s="19" r="F23">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c t="s" s="19" r="G23">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c t="s" s="19" r="H23">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c t="s" s="19" r="I23">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c t="s" s="19" r="J23">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c t="s" s="19" r="K23">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c t="s" s="19" r="L23">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c t="s" s="19" r="M23">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c t="s" s="19" r="N23">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c t="s" s="12" r="O23">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c t="s" s="12" r="P23">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c t="s" s="12" r="Q23">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c t="s" s="12" r="R23">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c t="s" s="12" r="S23">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c t="s" s="19" r="T23">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row customHeight="1" r="24" ht="12.75">
-      <c t="s" s="19" r="C24">
-        <v>217</v>
-      </c>
-      <c t="s" s="19" r="D24">
-        <v>218</v>
-      </c>
-      <c t="s" s="19" r="E24">
-        <v>219</v>
-      </c>
-      <c t="s" s="19" r="F24">
-        <v>220</v>
-      </c>
-      <c t="s" s="19" r="G24">
-        <v>221</v>
-      </c>
-      <c t="s" s="19" r="H24">
-        <v>222</v>
-      </c>
-      <c t="s" s="19" r="I24">
-        <v>223</v>
-      </c>
-      <c t="s" s="19" r="J24">
-        <v>224</v>
-      </c>
-      <c t="s" s="19" r="K24">
-        <v>225</v>
-      </c>
-      <c t="s" s="19" r="L24">
-        <v>226</v>
-      </c>
-      <c t="s" s="19" r="M24">
-        <v>227</v>
-      </c>
-      <c t="s" s="19" r="N24">
-        <v>228</v>
-      </c>
-      <c t="s" s="12" r="O24">
-        <v>229</v>
-      </c>
-      <c t="s" s="12" r="P24">
-        <v>230</v>
-      </c>
-      <c t="s" s="12" r="Q24">
-        <v>231</v>
-      </c>
-      <c t="s" s="12" r="R24">
-        <v>232</v>
-      </c>
-      <c t="s" s="12" r="S24">
-        <v>233</v>
-      </c>
+      <c s="19" r="C24"/>
+      <c s="19" r="D24"/>
+      <c s="19" r="E24"/>
+      <c s="19" r="F24"/>
+      <c s="19" r="G24"/>
+      <c s="19" r="H24"/>
+      <c s="19" r="I24"/>
+      <c s="19" r="J24"/>
+      <c s="19" r="K24"/>
+      <c s="19" r="L24"/>
+      <c s="19" r="M24"/>
+      <c s="19" r="N24"/>
+      <c s="12" r="O24"/>
+      <c s="12" r="P24"/>
+      <c s="12" r="Q24"/>
+      <c s="12" r="R24"/>
+      <c s="12" r="S24"/>
       <c t="s" s="19" r="T24">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row customHeight="1" r="25" ht="12.75">
@@ -4020,148 +4022,158 @@
       <c s="12" r="Q25"/>
       <c s="12" r="R25"/>
       <c s="12" r="S25"/>
-      <c t="s" s="19" r="T25">
-        <v>235</v>
+      <c t="s" s="11" r="T25">
+        <v>236</v>
       </c>
     </row>
     <row customHeight="1" r="26" ht="12.75">
-      <c s="19" r="C26"/>
-      <c s="19" r="D26"/>
-      <c s="19" r="E26"/>
-      <c s="19" r="F26"/>
-      <c s="19" r="G26"/>
-      <c s="19" r="H26"/>
-      <c s="19" r="I26"/>
-      <c s="19" r="J26"/>
-      <c s="19" r="K26"/>
-      <c s="19" r="L26"/>
-      <c s="19" r="M26"/>
-      <c s="19" r="N26"/>
-      <c s="12" r="O26"/>
-      <c s="12" r="P26"/>
-      <c s="12" r="Q26"/>
-      <c s="12" r="R26"/>
-      <c s="12" r="S26"/>
-      <c t="s" s="11" r="T26">
-        <v>236</v>
+      <c t="s" s="21" r="A26">
+        <v>237</v>
+      </c>
+      <c t="s" s="21" r="B26">
+        <v>238</v>
+      </c>
+      <c t="s" s="22" r="C26">
+        <v>239</v>
+      </c>
+      <c t="s" s="22" r="D26">
+        <v>240</v>
+      </c>
+      <c t="s" s="22" r="E26">
+        <v>241</v>
+      </c>
+      <c t="s" s="22" r="F26">
+        <v>242</v>
+      </c>
+      <c t="s" s="22" r="G26">
+        <v>243</v>
+      </c>
+      <c t="s" s="22" r="H26">
+        <v>244</v>
+      </c>
+      <c t="s" s="22" r="I26">
+        <v>245</v>
+      </c>
+      <c t="s" s="22" r="J26">
+        <v>246</v>
+      </c>
+      <c t="s" s="22" r="K26">
+        <v>247</v>
+      </c>
+      <c t="s" s="22" r="L26">
+        <v>248</v>
+      </c>
+      <c t="s" s="22" r="M26">
+        <v>249</v>
+      </c>
+      <c t="s" s="22" r="N26">
+        <v>250</v>
+      </c>
+      <c t="s" s="1" r="O26">
+        <v>251</v>
+      </c>
+      <c t="s" s="1" r="P26">
+        <v>252</v>
+      </c>
+      <c t="s" s="1" r="Q26">
+        <v>253</v>
+      </c>
+      <c t="s" s="1" r="R26">
+        <v>254</v>
+      </c>
+      <c t="s" s="1" r="S26">
+        <v>255</v>
+      </c>
+      <c t="s" s="23" r="T26">
+        <v>256</v>
       </c>
     </row>
     <row customHeight="1" r="27" ht="12.75">
-      <c t="s" s="21" r="A27">
-        <v>237</v>
-      </c>
-      <c t="s" s="21" r="B27">
-        <v>238</v>
-      </c>
       <c t="s" s="22" r="C27">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c t="s" s="22" r="D27">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c t="s" s="22" r="E27">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c t="s" s="22" r="F27">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c t="s" s="22" r="G27">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c t="s" s="22" r="H27">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c t="s" s="22" r="I27">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c t="s" s="22" r="J27">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c t="s" s="22" r="K27">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c t="s" s="22" r="L27">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c t="s" s="22" r="M27">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c t="s" s="22" r="N27">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c t="s" s="1" r="O27">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c t="s" s="1" r="P27">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c t="s" s="1" r="Q27">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c t="s" s="1" r="R27">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c t="s" s="1" r="S27">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c t="s" s="23" r="T27">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row customHeight="1" r="28" ht="12.75">
-      <c t="s" s="22" r="C28">
-        <v>257</v>
-      </c>
-      <c t="s" s="22" r="D28">
-        <v>258</v>
-      </c>
-      <c t="s" s="22" r="E28">
-        <v>259</v>
-      </c>
-      <c t="s" s="22" r="F28">
-        <v>260</v>
-      </c>
-      <c t="s" s="22" r="G28">
-        <v>261</v>
-      </c>
-      <c t="s" s="22" r="H28">
-        <v>262</v>
-      </c>
-      <c t="s" s="22" r="I28">
-        <v>263</v>
-      </c>
-      <c t="s" s="22" r="J28">
-        <v>264</v>
-      </c>
-      <c t="s" s="22" r="K28">
-        <v>265</v>
-      </c>
-      <c t="s" s="22" r="L28">
-        <v>266</v>
-      </c>
-      <c t="s" s="22" r="M28">
-        <v>267</v>
-      </c>
-      <c t="s" s="22" r="N28">
-        <v>268</v>
-      </c>
+      <c s="22" r="C28"/>
+      <c s="22" r="D28"/>
+      <c s="22" r="E28"/>
+      <c s="22" r="F28"/>
+      <c s="22" r="G28"/>
+      <c s="22" r="H28"/>
+      <c s="22" r="I28"/>
+      <c s="22" r="J28"/>
+      <c s="22" r="K28"/>
+      <c s="22" r="L28"/>
+      <c s="22" r="M28"/>
+      <c s="22" r="N28"/>
       <c t="s" s="1" r="O28">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c t="s" s="1" r="P28">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c t="s" s="1" r="Q28">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c t="s" s="1" r="R28">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c t="s" s="1" r="S28">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c t="s" s="23" r="T28">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row customHeight="1" r="29" ht="12.75">
@@ -4177,698 +4189,696 @@
       <c s="22" r="L29"/>
       <c s="22" r="M29"/>
       <c s="22" r="N29"/>
-      <c t="s" s="1" r="O29">
-        <v>275</v>
-      </c>
-      <c t="s" s="1" r="P29">
-        <v>276</v>
-      </c>
-      <c t="s" s="1" r="Q29">
-        <v>277</v>
-      </c>
-      <c t="s" s="1" r="R29">
-        <v>278</v>
-      </c>
-      <c t="s" s="1" r="S29">
-        <v>279</v>
-      </c>
-      <c t="s" s="23" r="T29">
-        <v>280</v>
+      <c s="1" r="O29"/>
+      <c s="1" r="P29"/>
+      <c s="1" r="Q29"/>
+      <c s="1" r="R29"/>
+      <c s="1" r="S29"/>
+      <c t="s" s="9" r="T29">
+        <v>281</v>
       </c>
     </row>
     <row customHeight="1" r="30" ht="12.75">
-      <c s="22" r="C30"/>
-      <c s="22" r="D30"/>
-      <c s="22" r="E30"/>
-      <c s="22" r="F30"/>
-      <c s="22" r="G30"/>
-      <c s="22" r="H30"/>
-      <c s="22" r="I30"/>
-      <c s="22" r="J30"/>
-      <c s="22" r="K30"/>
-      <c s="22" r="L30"/>
-      <c s="22" r="M30"/>
-      <c s="22" r="N30"/>
-      <c s="1" r="O30"/>
-      <c s="1" r="P30"/>
-      <c s="1" r="Q30"/>
-      <c s="1" r="R30"/>
-      <c s="1" r="S30"/>
-      <c t="s" s="9" r="T30">
-        <v>281</v>
+      <c t="s" s="24" r="A30">
+        <v>282</v>
+      </c>
+      <c t="s" s="24" r="B30">
+        <v>283</v>
+      </c>
+      <c t="s" s="11" r="C30">
+        <v>284</v>
+      </c>
+      <c t="s" s="20" r="D30">
+        <v>285</v>
+      </c>
+      <c t="s" s="20" r="E30">
+        <v>286</v>
+      </c>
+      <c t="s" s="20" r="F30">
+        <v>287</v>
+      </c>
+      <c t="s" s="20" r="G30">
+        <v>288</v>
+      </c>
+      <c t="s" s="20" r="H30">
+        <v>289</v>
+      </c>
+      <c t="s" s="20" r="I30">
+        <v>290</v>
+      </c>
+      <c t="s" s="20" r="J30">
+        <v>291</v>
+      </c>
+      <c t="s" s="20" r="K30">
+        <v>292</v>
+      </c>
+      <c t="s" s="20" r="L30">
+        <v>293</v>
+      </c>
+      <c t="s" s="20" r="M30">
+        <v>294</v>
+      </c>
+      <c t="s" s="20" r="N30">
+        <v>295</v>
+      </c>
+      <c t="s" s="12" r="O30">
+        <v>296</v>
+      </c>
+      <c t="s" s="12" r="P30">
+        <v>297</v>
+      </c>
+      <c t="s" s="12" r="Q30">
+        <v>298</v>
+      </c>
+      <c t="s" s="12" r="R30">
+        <v>299</v>
+      </c>
+      <c t="s" s="12" r="S30">
+        <v>300</v>
+      </c>
+      <c t="s" s="20" r="T30">
+        <v>301</v>
       </c>
     </row>
     <row customHeight="1" r="31" ht="12.75">
-      <c t="s" s="24" r="A31">
-        <v>282</v>
-      </c>
-      <c t="s" s="24" r="B31">
-        <v>283</v>
-      </c>
-      <c t="s" s="11" r="C31">
-        <v>284</v>
-      </c>
+      <c s="11" r="C31"/>
       <c t="s" s="20" r="D31">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c t="s" s="20" r="E31">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c t="s" s="20" r="F31">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c t="s" s="20" r="G31">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c t="s" s="20" r="H31">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c t="s" s="20" r="I31">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c t="s" s="20" r="J31">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c t="s" s="20" r="K31">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c t="s" s="20" r="L31">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c t="s" s="20" r="M31">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c t="s" s="20" r="N31">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c t="s" s="12" r="O31">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c t="s" s="12" r="P31">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c t="s" s="12" r="Q31">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c t="s" s="12" r="R31">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c t="s" s="12" r="S31">
-        <v>300</v>
-      </c>
-      <c t="s" s="20" r="T31">
-        <v>301</v>
+        <v>317</v>
+      </c>
+      <c t="s" s="11" r="T31">
+        <v>318</v>
       </c>
     </row>
     <row customHeight="1" r="32" ht="12.75">
-      <c s="11" r="C32"/>
-      <c t="s" s="20" r="D32">
-        <v>302</v>
-      </c>
-      <c t="s" s="20" r="E32">
-        <v>303</v>
-      </c>
-      <c t="s" s="20" r="F32">
-        <v>304</v>
-      </c>
-      <c t="s" s="20" r="G32">
-        <v>305</v>
-      </c>
-      <c t="s" s="20" r="H32">
-        <v>306</v>
-      </c>
-      <c t="s" s="20" r="I32">
-        <v>307</v>
-      </c>
-      <c t="s" s="20" r="J32">
-        <v>308</v>
-      </c>
-      <c t="s" s="20" r="K32">
-        <v>309</v>
-      </c>
-      <c t="s" s="20" r="L32">
-        <v>310</v>
-      </c>
-      <c t="s" s="20" r="M32">
-        <v>311</v>
-      </c>
-      <c t="s" s="20" r="N32">
-        <v>312</v>
-      </c>
-      <c t="s" s="12" r="O32">
-        <v>313</v>
-      </c>
-      <c t="s" s="12" r="P32">
-        <v>314</v>
-      </c>
-      <c t="s" s="12" r="Q32">
-        <v>315</v>
-      </c>
-      <c t="s" s="12" r="R32">
-        <v>316</v>
-      </c>
-      <c t="s" s="12" r="S32">
-        <v>317</v>
-      </c>
-      <c t="s" s="11" r="T32">
-        <v>318</v>
+      <c t="s" s="21" r="A32">
+        <v>319</v>
+      </c>
+      <c t="s" s="21" r="B32">
+        <v>320</v>
+      </c>
+      <c t="s" s="9" r="C32">
+        <v>321</v>
+      </c>
+      <c t="s" s="25" r="D32">
+        <v>322</v>
+      </c>
+      <c t="s" s="25" r="E32">
+        <v>323</v>
+      </c>
+      <c t="s" s="25" r="F32">
+        <v>324</v>
+      </c>
+      <c t="s" s="25" r="G32">
+        <v>325</v>
+      </c>
+      <c t="s" s="25" r="H32">
+        <v>326</v>
+      </c>
+      <c t="s" s="25" r="I32">
+        <v>327</v>
+      </c>
+      <c t="s" s="25" r="J32">
+        <v>328</v>
+      </c>
+      <c t="s" s="25" r="K32">
+        <v>329</v>
+      </c>
+      <c t="s" s="25" r="L32">
+        <v>330</v>
+      </c>
+      <c t="s" s="25" r="M32">
+        <v>331</v>
+      </c>
+      <c t="s" s="25" r="N32">
+        <v>332</v>
+      </c>
+      <c t="s" s="1" r="O32">
+        <v>333</v>
+      </c>
+      <c t="s" s="1" r="P32">
+        <v>334</v>
+      </c>
+      <c t="s" s="1" r="Q32">
+        <v>335</v>
+      </c>
+      <c t="s" s="1" r="R32">
+        <v>336</v>
+      </c>
+      <c t="s" s="1" r="S32">
+        <v>337</v>
+      </c>
+      <c t="s" s="26" r="T32">
+        <v>338</v>
       </c>
     </row>
     <row customHeight="1" r="33" ht="12.75">
-      <c t="s" s="21" r="A33">
-        <v>319</v>
-      </c>
-      <c t="s" s="21" r="B33">
-        <v>320</v>
-      </c>
-      <c t="s" s="9" r="C33">
-        <v>321</v>
-      </c>
+      <c s="9" r="C33"/>
       <c t="s" s="25" r="D33">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c t="s" s="25" r="E33">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c t="s" s="25" r="F33">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c t="s" s="25" r="G33">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c t="s" s="25" r="H33">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c t="s" s="25" r="I33">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c t="s" s="25" r="J33">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c t="s" s="25" r="K33">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c t="s" s="25" r="L33">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c t="s" s="25" r="M33">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c t="s" s="25" r="N33">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c t="s" s="1" r="O33">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c t="s" s="1" r="P33">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c t="s" s="1" r="Q33">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c t="s" s="1" r="R33">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c t="s" s="1" r="S33">
-        <v>337</v>
-      </c>
-      <c t="s" s="26" r="T33">
-        <v>338</v>
+        <v>354</v>
+      </c>
+      <c t="s" s="9" r="T33">
+        <v>355</v>
       </c>
     </row>
     <row customHeight="1" r="34" ht="12.75">
-      <c s="9" r="C34"/>
-      <c t="s" s="25" r="D34">
-        <v>339</v>
-      </c>
-      <c t="s" s="25" r="E34">
-        <v>340</v>
-      </c>
-      <c t="s" s="25" r="F34">
-        <v>341</v>
-      </c>
-      <c t="s" s="25" r="G34">
-        <v>342</v>
-      </c>
-      <c t="s" s="25" r="H34">
-        <v>343</v>
-      </c>
-      <c t="s" s="25" r="I34">
-        <v>344</v>
-      </c>
-      <c t="s" s="25" r="J34">
-        <v>345</v>
-      </c>
-      <c t="s" s="25" r="K34">
-        <v>346</v>
-      </c>
-      <c t="s" s="25" r="L34">
-        <v>347</v>
-      </c>
-      <c t="s" s="25" r="M34">
-        <v>348</v>
-      </c>
-      <c t="s" s="25" r="N34">
-        <v>349</v>
-      </c>
-      <c t="s" s="1" r="O34">
-        <v>350</v>
-      </c>
-      <c t="s" s="1" r="P34">
-        <v>351</v>
-      </c>
-      <c t="s" s="1" r="Q34">
-        <v>352</v>
-      </c>
-      <c t="s" s="1" r="R34">
-        <v>353</v>
-      </c>
-      <c t="s" s="1" r="S34">
-        <v>354</v>
-      </c>
-      <c t="s" s="9" r="T34">
-        <v>355</v>
+      <c t="s" s="24" r="A34">
+        <v>356</v>
+      </c>
+      <c t="s" s="24" r="B34">
+        <v>357</v>
+      </c>
+      <c t="s" s="11" r="C34">
+        <v>358</v>
+      </c>
+      <c t="s" s="20" r="D34">
+        <v>359</v>
+      </c>
+      <c t="s" s="20" r="E34">
+        <v>360</v>
+      </c>
+      <c t="s" s="20" r="F34">
+        <v>361</v>
+      </c>
+      <c t="s" s="20" r="G34">
+        <v>362</v>
+      </c>
+      <c t="s" s="20" r="H34">
+        <v>363</v>
+      </c>
+      <c t="s" s="20" r="I34">
+        <v>364</v>
+      </c>
+      <c t="s" s="20" r="J34">
+        <v>365</v>
+      </c>
+      <c t="s" s="20" r="K34">
+        <v>366</v>
+      </c>
+      <c t="s" s="20" r="L34">
+        <v>367</v>
+      </c>
+      <c t="s" s="20" r="M34">
+        <v>368</v>
+      </c>
+      <c t="s" s="20" r="N34">
+        <v>369</v>
+      </c>
+      <c t="s" s="12" r="O34">
+        <v>370</v>
+      </c>
+      <c t="s" s="12" r="P34">
+        <v>371</v>
+      </c>
+      <c t="s" s="12" r="Q34">
+        <v>372</v>
+      </c>
+      <c t="s" s="12" r="R34">
+        <v>373</v>
+      </c>
+      <c t="s" s="12" r="S34">
+        <v>374</v>
+      </c>
+      <c t="s" s="20" r="T34">
+        <v>375</v>
       </c>
     </row>
     <row customHeight="1" r="35" ht="12.75">
-      <c t="s" s="24" r="A35">
-        <v>356</v>
-      </c>
-      <c t="s" s="24" r="B35">
-        <v>357</v>
-      </c>
-      <c t="s" s="11" r="C35">
-        <v>358</v>
-      </c>
+      <c s="11" r="C35"/>
       <c t="s" s="20" r="D35">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c t="s" s="20" r="E35">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c t="s" s="20" r="F35">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c t="s" s="20" r="G35">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c t="s" s="20" r="H35">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c t="s" s="20" r="I35">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c t="s" s="20" r="J35">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c t="s" s="20" r="K35">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c t="s" s="20" r="L35">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c t="s" s="20" r="M35">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c t="s" s="20" r="N35">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c t="s" s="12" r="O35">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c t="s" s="12" r="P35">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c t="s" s="12" r="Q35">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c t="s" s="12" r="R35">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c t="s" s="12" r="S35">
-        <v>374</v>
-      </c>
-      <c t="s" s="20" r="T35">
-        <v>375</v>
+        <v>391</v>
+      </c>
+      <c t="s" s="11" r="T35">
+        <v>392</v>
       </c>
     </row>
     <row customHeight="1" r="36" ht="12.75">
-      <c s="11" r="C36"/>
-      <c t="s" s="20" r="D36">
-        <v>376</v>
-      </c>
-      <c t="s" s="20" r="E36">
-        <v>377</v>
-      </c>
-      <c t="s" s="20" r="F36">
-        <v>378</v>
-      </c>
-      <c t="s" s="20" r="G36">
-        <v>379</v>
-      </c>
-      <c t="s" s="20" r="H36">
-        <v>380</v>
-      </c>
-      <c t="s" s="20" r="I36">
-        <v>381</v>
-      </c>
-      <c t="s" s="20" r="J36">
-        <v>382</v>
-      </c>
-      <c t="s" s="20" r="K36">
-        <v>383</v>
-      </c>
-      <c t="s" s="20" r="L36">
-        <v>384</v>
-      </c>
-      <c t="s" s="20" r="M36">
-        <v>385</v>
-      </c>
-      <c t="s" s="20" r="N36">
-        <v>386</v>
-      </c>
-      <c t="s" s="12" r="O36">
-        <v>387</v>
-      </c>
-      <c t="s" s="12" r="P36">
-        <v>388</v>
-      </c>
-      <c t="s" s="12" r="Q36">
-        <v>389</v>
-      </c>
-      <c t="s" s="12" r="R36">
-        <v>390</v>
-      </c>
-      <c t="s" s="12" r="S36">
-        <v>391</v>
-      </c>
-      <c t="s" s="11" r="T36">
-        <v>392</v>
+      <c t="s" s="21" r="A36">
+        <v>393</v>
+      </c>
+      <c t="s" s="21" r="B36">
+        <v>394</v>
+      </c>
+      <c t="s" s="9" r="C36">
+        <v>395</v>
+      </c>
+      <c t="s" s="25" r="D36">
+        <v>396</v>
+      </c>
+      <c t="s" s="25" r="E36">
+        <v>397</v>
+      </c>
+      <c t="s" s="25" r="F36">
+        <v>398</v>
+      </c>
+      <c t="s" s="25" r="G36">
+        <v>399</v>
+      </c>
+      <c t="s" s="25" r="H36">
+        <v>400</v>
+      </c>
+      <c t="s" s="25" r="I36">
+        <v>401</v>
+      </c>
+      <c t="s" s="25" r="J36">
+        <v>402</v>
+      </c>
+      <c t="s" s="25" r="K36">
+        <v>403</v>
+      </c>
+      <c t="s" s="25" r="L36">
+        <v>404</v>
+      </c>
+      <c t="s" s="25" r="M36">
+        <v>405</v>
+      </c>
+      <c t="s" s="25" r="N36">
+        <v>406</v>
+      </c>
+      <c t="s" s="1" r="O36">
+        <v>407</v>
+      </c>
+      <c t="s" s="1" r="P36">
+        <v>408</v>
+      </c>
+      <c t="s" s="1" r="Q36">
+        <v>409</v>
+      </c>
+      <c t="s" s="1" r="R36">
+        <v>410</v>
+      </c>
+      <c t="s" s="1" r="S36">
+        <v>411</v>
+      </c>
+      <c t="s" s="26" r="T36">
+        <v>412</v>
       </c>
     </row>
     <row customHeight="1" r="37" ht="12.75">
-      <c t="s" s="21" r="A37">
-        <v>393</v>
-      </c>
-      <c t="s" s="21" r="B37">
-        <v>394</v>
-      </c>
-      <c t="s" s="9" r="C37">
-        <v>395</v>
-      </c>
+      <c s="27" r="C37"/>
       <c t="s" s="25" r="D37">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c t="s" s="25" r="E37">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c t="s" s="25" r="F37">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c t="s" s="25" r="G37">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c t="s" s="25" r="H37">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c t="s" s="25" r="I37">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c t="s" s="25" r="J37">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c t="s" s="25" r="K37">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c t="s" s="25" r="L37">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c t="s" s="25" r="M37">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c t="s" s="25" r="N37">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c t="s" s="1" r="O37">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c t="s" s="1" r="P37">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c t="s" s="1" r="Q37">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c t="s" s="1" r="R37">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c t="s" s="1" r="S37">
-        <v>411</v>
-      </c>
-      <c t="s" s="26" r="T37">
-        <v>412</v>
+        <v>428</v>
+      </c>
+      <c t="s" s="9" r="T37">
+        <v>429</v>
       </c>
     </row>
     <row customHeight="1" r="38" ht="12.75">
-      <c s="27" r="C38"/>
-      <c t="s" s="25" r="D38">
-        <v>413</v>
-      </c>
-      <c t="s" s="25" r="E38">
-        <v>414</v>
-      </c>
-      <c t="s" s="25" r="F38">
-        <v>415</v>
-      </c>
-      <c t="s" s="25" r="G38">
-        <v>416</v>
-      </c>
-      <c t="s" s="25" r="H38">
-        <v>417</v>
-      </c>
-      <c t="s" s="25" r="I38">
-        <v>418</v>
-      </c>
-      <c t="s" s="25" r="J38">
-        <v>419</v>
-      </c>
-      <c t="s" s="25" r="K38">
-        <v>420</v>
-      </c>
-      <c t="s" s="25" r="L38">
-        <v>421</v>
-      </c>
-      <c t="s" s="25" r="M38">
-        <v>422</v>
-      </c>
-      <c t="s" s="25" r="N38">
-        <v>423</v>
-      </c>
-      <c t="s" s="1" r="O38">
-        <v>424</v>
-      </c>
-      <c t="s" s="1" r="P38">
-        <v>425</v>
-      </c>
-      <c t="s" s="1" r="Q38">
-        <v>426</v>
-      </c>
-      <c t="s" s="1" r="R38">
-        <v>427</v>
-      </c>
-      <c t="s" s="1" r="S38">
-        <v>428</v>
-      </c>
-      <c t="s" s="9" r="T38">
-        <v>429</v>
+      <c t="s" s="18" r="A38">
+        <v>430</v>
+      </c>
+      <c t="s" s="18" r="B38">
+        <v>431</v>
+      </c>
+      <c t="s" s="28" r="C38">
+        <v>432</v>
+      </c>
+      <c t="s" s="20" r="D38">
+        <v>433</v>
+      </c>
+      <c t="s" s="20" r="E38">
+        <v>434</v>
+      </c>
+      <c t="s" s="20" r="F38">
+        <v>435</v>
+      </c>
+      <c t="s" s="20" r="G38">
+        <v>436</v>
+      </c>
+      <c t="s" s="20" r="H38">
+        <v>437</v>
+      </c>
+      <c t="s" s="20" r="I38">
+        <v>438</v>
+      </c>
+      <c t="s" s="20" r="J38">
+        <v>439</v>
+      </c>
+      <c t="s" s="20" r="K38">
+        <v>440</v>
+      </c>
+      <c t="s" s="20" r="L38">
+        <v>441</v>
+      </c>
+      <c t="s" s="20" r="M38">
+        <v>442</v>
+      </c>
+      <c t="s" s="20" r="N38">
+        <v>443</v>
+      </c>
+      <c t="s" s="12" r="O38">
+        <v>444</v>
+      </c>
+      <c t="s" s="12" r="P38">
+        <v>445</v>
+      </c>
+      <c t="s" s="12" r="Q38">
+        <v>446</v>
+      </c>
+      <c t="s" s="12" r="R38">
+        <v>447</v>
+      </c>
+      <c t="s" s="12" r="S38">
+        <v>448</v>
+      </c>
+      <c t="s" s="20" r="T38">
+        <v>449</v>
       </c>
     </row>
     <row customHeight="1" r="39" ht="12.75">
-      <c t="s" s="18" r="A39">
-        <v>430</v>
-      </c>
-      <c t="s" s="18" r="B39">
-        <v>431</v>
-      </c>
-      <c t="s" s="28" r="C39">
-        <v>432</v>
-      </c>
+      <c s="28" r="C39"/>
       <c t="s" s="20" r="D39">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c t="s" s="20" r="E39">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c t="s" s="20" r="F39">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c t="s" s="20" r="G39">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c t="s" s="20" r="H39">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c t="s" s="20" r="I39">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c t="s" s="20" r="J39">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c t="s" s="20" r="K39">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c t="s" s="20" r="L39">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c t="s" s="20" r="M39">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c t="s" s="20" r="N39">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c t="s" s="12" r="O39">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c t="s" s="12" r="P39">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c t="s" s="12" r="Q39">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c t="s" s="12" r="R39">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c t="s" s="12" r="S39">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c t="s" s="20" r="T39">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row customHeight="1" r="40" ht="12.75">
       <c s="28" r="C40"/>
       <c t="s" s="20" r="D40">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c t="s" s="20" r="E40">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c t="s" s="20" r="F40">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c t="s" s="20" r="G40">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c t="s" s="20" r="H40">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c t="s" s="20" r="I40">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c t="s" s="20" r="J40">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c t="s" s="20" r="K40">
-        <v>457</v>
-      </c>
-      <c t="s" s="20" r="L40">
-        <v>458</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c s="20" r="L40"/>
       <c t="s" s="20" r="M40">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c t="s" s="20" r="N40">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c t="s" s="12" r="O40">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c t="s" s="12" r="P40">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c t="s" s="12" r="Q40">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c t="s" s="12" r="R40">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c t="s" s="12" r="S40">
-        <v>465</v>
-      </c>
-      <c t="s" s="20" r="T40">
-        <v>466</v>
+        <v>481</v>
+      </c>
+      <c t="s" s="11" r="T40">
+        <v>482</v>
       </c>
     </row>
     <row customHeight="1" r="41" ht="12.75">
-      <c s="28" r="C41"/>
-      <c t="s" s="20" r="D41">
-        <v>467</v>
-      </c>
-      <c t="s" s="20" r="E41">
-        <v>468</v>
-      </c>
-      <c t="s" s="20" r="F41">
-        <v>469</v>
-      </c>
-      <c t="s" s="20" r="G41">
-        <v>470</v>
-      </c>
-      <c t="s" s="20" r="H41">
-        <v>471</v>
-      </c>
-      <c t="s" s="20" r="I41">
-        <v>472</v>
-      </c>
-      <c t="s" s="20" r="J41">
-        <v>473</v>
-      </c>
-      <c t="s" s="20" r="K41">
-        <v>474</v>
-      </c>
-      <c s="20" r="L41"/>
-      <c t="s" s="20" r="M41">
-        <v>475</v>
-      </c>
-      <c t="s" s="20" r="N41">
-        <v>476</v>
-      </c>
-      <c t="s" s="12" r="O41">
-        <v>477</v>
-      </c>
-      <c t="s" s="12" r="P41">
-        <v>478</v>
-      </c>
-      <c t="s" s="12" r="Q41">
-        <v>479</v>
-      </c>
-      <c t="s" s="12" r="R41">
-        <v>480</v>
-      </c>
-      <c t="s" s="12" r="S41">
-        <v>481</v>
-      </c>
-      <c t="s" s="11" r="T41">
-        <v>482</v>
-      </c>
+      <c t="s" s="21" r="A41">
+        <v>483</v>
+      </c>
+      <c t="s" s="21" r="B41">
+        <v>484</v>
+      </c>
+      <c t="s" s="27" r="C41">
+        <v>485</v>
+      </c>
+      <c t="s" s="25" r="D41">
+        <v>486</v>
+      </c>
+      <c t="s" s="25" r="E41">
+        <v>487</v>
+      </c>
+      <c t="s" s="25" r="F41">
+        <v>488</v>
+      </c>
+      <c s="25" r="G41"/>
+      <c s="25" r="H41"/>
+      <c s="25" r="I41"/>
+      <c s="25" r="J41"/>
+      <c s="25" r="K41"/>
+      <c s="25" r="L41"/>
+      <c s="25" r="M41"/>
+      <c s="25" r="N41"/>
+      <c t="s" s="1" r="O41">
+        <v>489</v>
+      </c>
+      <c t="s" s="1" r="P41">
+        <v>490</v>
+      </c>
+      <c t="s" s="1" r="Q41">
+        <v>491</v>
+      </c>
+      <c t="s" s="1" r="R41">
+        <v>492</v>
+      </c>
+      <c t="s" s="1" r="S41">
+        <v>493</v>
+      </c>
+      <c s="2" r="T41"/>
     </row>
     <row customHeight="1" r="42" ht="12.75">
-      <c t="s" s="21" r="A42">
-        <v>483</v>
-      </c>
-      <c t="s" s="21" r="B42">
-        <v>484</v>
-      </c>
-      <c t="s" s="27" r="C42">
-        <v>485</v>
-      </c>
-      <c t="s" s="25" r="D42">
-        <v>486</v>
-      </c>
-      <c t="s" s="25" r="E42">
-        <v>487</v>
-      </c>
-      <c t="s" s="25" r="F42">
-        <v>488</v>
-      </c>
+      <c s="27" r="C42"/>
+      <c s="25" r="D42"/>
+      <c s="25" r="E42"/>
+      <c s="25" r="F42"/>
       <c s="25" r="G42"/>
       <c s="25" r="H42"/>
       <c s="25" r="I42"/>
@@ -4878,320 +4888,332 @@
       <c s="25" r="M42"/>
       <c s="25" r="N42"/>
       <c t="s" s="1" r="O42">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c t="s" s="1" r="P42">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c t="s" s="1" r="Q42">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c t="s" s="1" r="R42">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c t="s" s="1" r="S42">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c s="2" r="T42"/>
     </row>
     <row customHeight="1" r="43" ht="12.75">
-      <c s="27" r="C43"/>
-      <c s="25" r="D43"/>
-      <c s="25" r="E43"/>
-      <c s="25" r="F43"/>
-      <c s="25" r="G43"/>
-      <c s="25" r="H43"/>
-      <c s="25" r="I43"/>
-      <c s="25" r="J43"/>
-      <c s="25" r="K43"/>
-      <c s="25" r="L43"/>
-      <c s="25" r="M43"/>
-      <c s="25" r="N43"/>
-      <c t="s" s="1" r="O43">
-        <v>494</v>
-      </c>
-      <c t="s" s="1" r="P43">
-        <v>495</v>
-      </c>
-      <c t="s" s="1" r="Q43">
-        <v>496</v>
-      </c>
-      <c t="s" s="1" r="R43">
-        <v>497</v>
-      </c>
-      <c t="s" s="1" r="S43">
-        <v>498</v>
-      </c>
-      <c s="2" r="T43"/>
+      <c t="s" s="18" r="A43">
+        <v>499</v>
+      </c>
+      <c t="s" s="18" r="B43">
+        <v>500</v>
+      </c>
+      <c t="s" s="28" r="C43">
+        <v>501</v>
+      </c>
+      <c t="s" s="28" r="D43">
+        <v>502</v>
+      </c>
+      <c t="s" s="28" r="E43">
+        <v>503</v>
+      </c>
+      <c t="s" s="28" r="F43">
+        <v>504</v>
+      </c>
+      <c t="s" s="28" r="G43">
+        <v>505</v>
+      </c>
+      <c t="s" s="28" r="H43">
+        <v>506</v>
+      </c>
+      <c t="s" s="28" r="I43">
+        <v>507</v>
+      </c>
+      <c t="s" s="28" r="J43">
+        <v>508</v>
+      </c>
+      <c t="s" s="28" r="K43">
+        <v>509</v>
+      </c>
+      <c t="s" s="28" r="L43">
+        <v>510</v>
+      </c>
+      <c t="s" s="28" r="M43">
+        <v>511</v>
+      </c>
+      <c t="s" s="28" r="N43">
+        <v>512</v>
+      </c>
+      <c t="s" s="12" r="O43">
+        <v>513</v>
+      </c>
+      <c t="s" s="12" r="P43">
+        <v>514</v>
+      </c>
+      <c t="s" s="12" r="Q43">
+        <v>515</v>
+      </c>
+      <c t="s" s="12" r="R43">
+        <v>516</v>
+      </c>
+      <c t="s" s="12" r="S43">
+        <v>517</v>
+      </c>
+      <c t="s" s="28" r="T43">
+        <v>518</v>
+      </c>
     </row>
     <row customHeight="1" r="44" ht="12.75">
-      <c t="s" s="18" r="A44">
-        <v>499</v>
-      </c>
-      <c t="s" s="18" r="B44">
-        <v>500</v>
-      </c>
       <c t="s" s="28" r="C44">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c t="s" s="28" r="D44">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c t="s" s="28" r="E44">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c t="s" s="28" r="F44">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c t="s" s="28" r="G44">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c t="s" s="28" r="H44">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c t="s" s="28" r="I44">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c t="s" s="28" r="J44">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c t="s" s="28" r="K44">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c t="s" s="28" r="L44">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c t="s" s="28" r="M44">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c t="s" s="28" r="N44">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c t="s" s="12" r="O44">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c t="s" s="12" r="P44">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c t="s" s="12" r="Q44">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c t="s" s="12" r="R44">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c t="s" s="12" r="S44">
-        <v>517</v>
-      </c>
-      <c t="s" s="28" r="T44">
-        <v>518</v>
+        <v>535</v>
+      </c>
+      <c t="s" s="11" r="T44">
+        <v>536</v>
       </c>
     </row>
     <row customHeight="1" r="45" ht="12.75">
-      <c t="s" s="28" r="C45">
-        <v>519</v>
-      </c>
-      <c t="s" s="28" r="D45">
-        <v>520</v>
-      </c>
-      <c t="s" s="28" r="E45">
-        <v>521</v>
-      </c>
-      <c t="s" s="28" r="F45">
-        <v>522</v>
-      </c>
-      <c t="s" s="28" r="G45">
-        <v>523</v>
-      </c>
-      <c t="s" s="28" r="H45">
-        <v>524</v>
-      </c>
-      <c t="s" s="28" r="I45">
-        <v>525</v>
-      </c>
-      <c t="s" s="28" r="J45">
-        <v>526</v>
-      </c>
-      <c t="s" s="28" r="K45">
-        <v>527</v>
-      </c>
-      <c t="s" s="28" r="L45">
-        <v>528</v>
-      </c>
-      <c t="s" s="28" r="M45">
-        <v>529</v>
-      </c>
-      <c t="s" s="28" r="N45">
-        <v>530</v>
-      </c>
-      <c t="s" s="12" r="O45">
-        <v>531</v>
-      </c>
-      <c t="s" s="12" r="P45">
-        <v>532</v>
-      </c>
-      <c t="s" s="12" r="Q45">
-        <v>533</v>
-      </c>
-      <c t="s" s="12" r="R45">
-        <v>534</v>
-      </c>
-      <c t="s" s="12" r="S45">
-        <v>535</v>
-      </c>
-      <c t="s" s="11" r="T45">
-        <v>536</v>
+      <c t="s" s="29" r="A45">
+        <v>537</v>
+      </c>
+      <c t="s" s="29" r="B45">
+        <v>538</v>
+      </c>
+      <c s="27" r="C45"/>
+      <c t="s" s="27" r="D45">
+        <v>539</v>
+      </c>
+      <c t="s" s="27" r="E45">
+        <v>540</v>
+      </c>
+      <c t="s" s="27" r="F45">
+        <v>541</v>
+      </c>
+      <c t="s" s="27" r="G45">
+        <v>542</v>
+      </c>
+      <c t="s" s="27" r="H45">
+        <v>543</v>
+      </c>
+      <c t="s" s="27" r="I45">
+        <v>544</v>
+      </c>
+      <c t="s" s="27" r="J45">
+        <v>545</v>
+      </c>
+      <c t="s" s="27" r="K45">
+        <v>546</v>
+      </c>
+      <c t="s" s="27" r="L45">
+        <v>547</v>
+      </c>
+      <c t="s" s="27" r="M45">
+        <v>548</v>
+      </c>
+      <c t="s" s="27" r="N45">
+        <v>549</v>
+      </c>
+      <c s="1" r="O45"/>
+      <c t="s" s="1" r="P45">
+        <v>550</v>
+      </c>
+      <c t="s" s="1" r="Q45">
+        <v>551</v>
+      </c>
+      <c t="s" s="1" r="R45">
+        <v>552</v>
+      </c>
+      <c t="s" s="1" r="S45">
+        <v>553</v>
+      </c>
+      <c t="s" s="5" r="T45">
+        <v>554</v>
       </c>
     </row>
     <row customHeight="1" r="46" ht="12.75">
-      <c t="s" s="29" r="A46">
-        <v>537</v>
-      </c>
-      <c t="s" s="29" r="B46">
-        <v>538</v>
-      </c>
       <c s="27" r="C46"/>
       <c t="s" s="27" r="D46">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c t="s" s="27" r="E46">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c t="s" s="27" r="F46">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c t="s" s="27" r="G46">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c t="s" s="27" r="H46">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c t="s" s="27" r="I46">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c t="s" s="27" r="J46">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c t="s" s="27" r="K46">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c t="s" s="27" r="L46">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c t="s" s="27" r="M46">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c t="s" s="27" r="N46">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c s="1" r="O46"/>
       <c t="s" s="1" r="P46">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c t="s" s="1" r="Q46">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c t="s" s="1" r="R46">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c t="s" s="1" r="S46">
-        <v>553</v>
-      </c>
-      <c t="s" s="5" r="T46">
-        <v>554</v>
+        <v>569</v>
+      </c>
+      <c t="s" s="9" r="T46">
+        <v>570</v>
       </c>
     </row>
     <row customHeight="1" r="47" ht="12.75">
-      <c s="27" r="C47"/>
-      <c t="s" s="27" r="D47">
-        <v>555</v>
-      </c>
-      <c t="s" s="27" r="E47">
-        <v>556</v>
-      </c>
-      <c t="s" s="27" r="F47">
-        <v>557</v>
-      </c>
-      <c t="s" s="27" r="G47">
-        <v>558</v>
-      </c>
-      <c t="s" s="27" r="H47">
-        <v>559</v>
-      </c>
-      <c t="s" s="27" r="I47">
-        <v>560</v>
-      </c>
-      <c t="s" s="27" r="J47">
-        <v>561</v>
-      </c>
-      <c t="s" s="27" r="K47">
-        <v>562</v>
-      </c>
-      <c t="s" s="27" r="L47">
-        <v>563</v>
-      </c>
-      <c t="s" s="27" r="M47">
-        <v>564</v>
-      </c>
-      <c t="s" s="27" r="N47">
-        <v>565</v>
-      </c>
-      <c s="1" r="O47"/>
-      <c t="s" s="1" r="P47">
-        <v>566</v>
-      </c>
-      <c t="s" s="1" r="Q47">
-        <v>567</v>
-      </c>
-      <c t="s" s="1" r="R47">
-        <v>568</v>
-      </c>
-      <c t="s" s="1" r="S47">
-        <v>569</v>
-      </c>
-      <c t="s" s="9" r="T47">
-        <v>570</v>
-      </c>
+      <c t="s" s="10" r="A47">
+        <v>571</v>
+      </c>
+      <c t="s" s="10" r="B47">
+        <v>572</v>
+      </c>
+      <c t="s" s="28" r="C47">
+        <v>573</v>
+      </c>
+      <c t="s" s="28" r="D47">
+        <v>574</v>
+      </c>
+      <c t="s" s="28" r="E47">
+        <v>575</v>
+      </c>
+      <c t="s" s="28" r="F47">
+        <v>576</v>
+      </c>
+      <c t="s" s="28" r="G47">
+        <v>577</v>
+      </c>
+      <c t="s" s="28" r="H47">
+        <v>578</v>
+      </c>
+      <c t="s" s="28" r="I47">
+        <v>579</v>
+      </c>
+      <c t="s" s="28" r="J47">
+        <v>580</v>
+      </c>
+      <c t="s" s="28" r="K47">
+        <v>581</v>
+      </c>
+      <c s="28" r="L47"/>
+      <c t="s" s="28" r="M47">
+        <v>582</v>
+      </c>
+      <c t="s" s="28" r="N47">
+        <v>583</v>
+      </c>
+      <c s="12" r="O47"/>
+      <c s="12" r="P47"/>
+      <c s="12" r="Q47"/>
+      <c s="12" r="R47"/>
+      <c s="12" r="S47"/>
+      <c s="30" r="T47"/>
     </row>
     <row customHeight="1" r="48" ht="12.75">
-      <c t="s" s="10" r="A48">
-        <v>571</v>
-      </c>
-      <c t="s" s="10" r="B48">
-        <v>572</v>
-      </c>
       <c t="s" s="28" r="C48">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c t="s" s="28" r="D48">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c t="s" s="28" r="E48">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c t="s" s="28" r="F48">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c t="s" s="28" r="G48">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c t="s" s="28" r="H48">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c t="s" s="28" r="I48">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c t="s" s="28" r="J48">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c t="s" s="28" r="K48">
-        <v>581</v>
-      </c>
-      <c s="28" r="L48"/>
+        <v>592</v>
+      </c>
+      <c s="20" r="L48"/>
       <c t="s" s="28" r="M48">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c t="s" s="28" r="N48">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c s="12" r="O48"/>
       <c s="12" r="P48"/>
@@ -5200,414 +5222,410 @@
       <c s="12" r="S48"/>
       <c s="30" r="T48"/>
     </row>
-    <row customHeight="1" r="49" ht="12.75">
-      <c t="s" s="28" r="C49">
-        <v>584</v>
-      </c>
-      <c t="s" s="28" r="D49">
-        <v>585</v>
-      </c>
-      <c t="s" s="28" r="E49">
-        <v>586</v>
-      </c>
-      <c t="s" s="28" r="F49">
-        <v>587</v>
-      </c>
-      <c t="s" s="28" r="G49">
-        <v>588</v>
-      </c>
-      <c t="s" s="28" r="H49">
-        <v>589</v>
-      </c>
-      <c t="s" s="28" r="I49">
-        <v>590</v>
-      </c>
-      <c t="s" s="28" r="J49">
-        <v>591</v>
-      </c>
-      <c t="s" s="28" r="K49">
-        <v>592</v>
-      </c>
-      <c s="20" r="L49"/>
-      <c t="s" s="28" r="M49">
-        <v>593</v>
-      </c>
-      <c t="s" s="28" r="N49">
-        <v>594</v>
-      </c>
-      <c s="12" r="O49"/>
-      <c s="12" r="P49"/>
-      <c s="12" r="Q49"/>
-      <c s="12" r="R49"/>
-      <c s="12" r="S49"/>
-      <c s="30" r="T49"/>
-    </row>
-    <row customHeight="1" r="50" ht="13.5">
-      <c t="s" s="29" r="A50">
+    <row customHeight="1" r="49" ht="13.5">
+      <c t="s" s="29" r="A49">
         <v>595</v>
       </c>
-      <c t="s" s="29" r="B50">
+      <c t="s" s="29" r="B49">
         <v>596</v>
       </c>
+      <c s="27" r="C49"/>
+      <c t="s" s="27" r="D49">
+        <v>597</v>
+      </c>
+      <c t="s" s="27" r="E49">
+        <v>598</v>
+      </c>
+      <c t="s" s="27" r="F49">
+        <v>599</v>
+      </c>
+      <c t="s" s="27" r="G49">
+        <v>600</v>
+      </c>
+      <c t="s" s="27" r="H49">
+        <v>601</v>
+      </c>
+      <c t="s" s="27" r="I49">
+        <v>602</v>
+      </c>
+      <c t="s" s="27" r="J49">
+        <v>603</v>
+      </c>
+      <c t="s" s="27" r="K49">
+        <v>604</v>
+      </c>
+      <c t="s" s="27" r="L49">
+        <v>605</v>
+      </c>
+      <c t="s" s="27" r="M49">
+        <v>606</v>
+      </c>
+      <c t="s" s="27" r="N49">
+        <v>607</v>
+      </c>
+      <c t="s" s="1" r="O49">
+        <v>608</v>
+      </c>
+      <c t="s" s="1" r="P49">
+        <v>609</v>
+      </c>
+      <c t="s" s="1" r="Q49">
+        <v>610</v>
+      </c>
+      <c t="s" s="1" r="R49">
+        <v>611</v>
+      </c>
+      <c t="s" s="1" r="S49">
+        <v>612</v>
+      </c>
+      <c t="s" s="5" r="T49">
+        <v>613</v>
+      </c>
+    </row>
+    <row customHeight="1" r="50" ht="12.75">
       <c s="27" r="C50"/>
-      <c t="s" s="27" r="D50">
-        <v>597</v>
-      </c>
-      <c t="s" s="27" r="E50">
-        <v>598</v>
-      </c>
-      <c t="s" s="27" r="F50">
-        <v>599</v>
-      </c>
-      <c t="s" s="27" r="G50">
-        <v>600</v>
-      </c>
-      <c t="s" s="27" r="H50">
-        <v>601</v>
-      </c>
-      <c t="s" s="27" r="I50">
-        <v>602</v>
-      </c>
-      <c t="s" s="27" r="J50">
-        <v>603</v>
-      </c>
-      <c t="s" s="27" r="K50">
-        <v>604</v>
-      </c>
-      <c t="s" s="27" r="L50">
-        <v>605</v>
-      </c>
-      <c t="s" s="27" r="M50">
-        <v>606</v>
-      </c>
-      <c t="s" s="27" r="N50">
-        <v>607</v>
-      </c>
-      <c t="s" s="1" r="O50">
-        <v>608</v>
-      </c>
-      <c t="s" s="1" r="P50">
-        <v>609</v>
-      </c>
-      <c t="s" s="1" r="Q50">
-        <v>610</v>
-      </c>
-      <c t="s" s="1" r="R50">
-        <v>611</v>
-      </c>
-      <c t="s" s="1" r="S50">
-        <v>612</v>
-      </c>
-      <c t="s" s="5" r="T50">
-        <v>613</v>
+      <c t="s" s="25" r="D50">
+        <v>614</v>
+      </c>
+      <c t="s" s="25" r="E50">
+        <v>615</v>
+      </c>
+      <c t="s" s="25" r="F50">
+        <v>616</v>
+      </c>
+      <c t="s" s="25" r="G50">
+        <v>617</v>
+      </c>
+      <c t="s" s="25" r="H50">
+        <v>618</v>
+      </c>
+      <c t="s" s="25" r="I50">
+        <v>619</v>
+      </c>
+      <c t="s" s="25" r="J50">
+        <v>620</v>
+      </c>
+      <c t="s" s="25" r="K50">
+        <v>621</v>
+      </c>
+      <c t="s" s="25" r="L50">
+        <v>622</v>
+      </c>
+      <c t="s" s="25" r="M50">
+        <v>623</v>
+      </c>
+      <c t="s" s="25" r="N50">
+        <v>624</v>
+      </c>
+      <c s="1" r="O50"/>
+      <c s="1" r="P50"/>
+      <c s="1" r="Q50"/>
+      <c s="1" r="R50"/>
+      <c s="1" r="S50"/>
+      <c t="s" s="9" r="T50">
+        <v>625</v>
       </c>
     </row>
     <row customHeight="1" r="51" ht="12.75">
-      <c s="27" r="C51"/>
-      <c t="s" s="25" r="D51">
-        <v>614</v>
-      </c>
-      <c t="s" s="25" r="E51">
-        <v>615</v>
-      </c>
-      <c t="s" s="25" r="F51">
-        <v>616</v>
-      </c>
-      <c t="s" s="25" r="G51">
-        <v>617</v>
-      </c>
-      <c t="s" s="25" r="H51">
-        <v>618</v>
-      </c>
-      <c t="s" s="25" r="I51">
-        <v>619</v>
-      </c>
-      <c t="s" s="25" r="J51">
-        <v>620</v>
-      </c>
-      <c t="s" s="25" r="K51">
-        <v>621</v>
-      </c>
-      <c t="s" s="25" r="L51">
-        <v>622</v>
-      </c>
-      <c t="s" s="25" r="M51">
-        <v>623</v>
-      </c>
-      <c t="s" s="25" r="N51">
-        <v>624</v>
-      </c>
-      <c s="1" r="O51"/>
-      <c s="1" r="P51"/>
-      <c s="1" r="Q51"/>
-      <c s="1" r="R51"/>
-      <c s="1" r="S51"/>
-      <c t="s" s="9" r="T51">
-        <v>625</v>
-      </c>
+      <c s="31" r="A51"/>
     </row>
     <row customHeight="1" r="52" ht="12.75">
-      <c s="31" r="A52"/>
+      <c t="s" s="32" r="A52">
+        <v>626</v>
+      </c>
+      <c s="1" r="B52"/>
+      <c s="1" r="C52"/>
+      <c s="1" r="D52"/>
+      <c s="1" r="E52"/>
+      <c s="1" r="F52"/>
+      <c s="1" r="G52"/>
+      <c s="1" r="H52"/>
+      <c s="1" r="I52"/>
+      <c s="1" r="J52"/>
+      <c s="1" r="K52"/>
+      <c s="1" r="L52"/>
+      <c s="1" r="M52"/>
+      <c s="1" r="N52"/>
+      <c s="1" r="O52"/>
+      <c s="1" r="P52"/>
+      <c s="1" r="Q52"/>
+      <c s="1" r="R52"/>
+      <c s="1" r="S52"/>
+      <c s="1" r="T52"/>
     </row>
     <row customHeight="1" r="53" ht="12.75">
-      <c t="s" s="32" r="A53">
-        <v>626</v>
-      </c>
-      <c s="1" r="B53"/>
-      <c s="1" r="C53"/>
-      <c s="1" r="D53"/>
-      <c s="1" r="E53"/>
-      <c s="1" r="F53"/>
-      <c s="1" r="G53"/>
-      <c s="1" r="H53"/>
-      <c s="1" r="I53"/>
-      <c s="1" r="J53"/>
-      <c s="1" r="K53"/>
-      <c s="1" r="L53"/>
-      <c s="1" r="M53"/>
-      <c s="1" r="N53"/>
-      <c s="1" r="O53"/>
-      <c s="1" r="P53"/>
-      <c s="1" r="Q53"/>
-      <c s="1" r="R53"/>
-      <c s="1" r="S53"/>
-      <c s="1" r="T53"/>
+      <c s="27" r="A53"/>
+      <c s="27" r="B53"/>
+      <c t="s" s="1" r="C53">
+        <v>627</v>
+      </c>
+      <c t="s" s="1" r="D53">
+        <v>628</v>
+      </c>
+      <c t="s" s="1" r="E53">
+        <v>629</v>
+      </c>
+      <c t="s" s="1" r="F53">
+        <v>630</v>
+      </c>
+      <c t="s" s="1" r="G53">
+        <v>631</v>
+      </c>
+      <c t="s" s="1" r="H53">
+        <v>632</v>
+      </c>
+      <c t="s" s="1" r="I53">
+        <v>633</v>
+      </c>
+      <c t="s" s="1" r="J53">
+        <v>634</v>
+      </c>
+      <c t="s" s="1" r="K53">
+        <v>635</v>
+      </c>
+      <c t="s" s="1" r="L53">
+        <v>636</v>
+      </c>
+      <c t="s" s="1" r="M53">
+        <v>637</v>
+      </c>
+      <c t="s" s="1" r="N53">
+        <v>638</v>
+      </c>
+      <c t="s" s="1" r="O53">
+        <v>639</v>
+      </c>
+      <c t="s" s="1" r="P53">
+        <v>640</v>
+      </c>
+      <c t="s" s="1" r="Q53">
+        <v>641</v>
+      </c>
+      <c t="s" s="1" r="R53">
+        <v>642</v>
+      </c>
+      <c t="s" s="1" r="S53">
+        <v>643</v>
+      </c>
+      <c t="s" s="9" r="T53">
+        <v>644</v>
+      </c>
     </row>
     <row customHeight="1" r="54" ht="12.75">
       <c s="27" r="A54"/>
       <c s="27" r="B54"/>
       <c t="s" s="1" r="C54">
-        <v>627</v>
-      </c>
-      <c t="s" s="1" r="D54">
-        <v>628</v>
-      </c>
-      <c t="s" s="1" r="E54">
-        <v>629</v>
-      </c>
-      <c t="s" s="1" r="F54">
-        <v>630</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c s="25" r="D54"/>
+      <c s="25" r="E54"/>
+      <c s="25" r="F54"/>
       <c t="s" s="1" r="G54">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c t="s" s="1" r="H54">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c t="s" s="1" r="I54">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c t="s" s="1" r="J54">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c t="s" s="1" r="K54">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c t="s" s="1" r="L54">
-        <v>636</v>
-      </c>
-      <c t="s" s="1" r="M54">
-        <v>637</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c s="25" r="M54"/>
       <c t="s" s="1" r="N54">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c t="s" s="1" r="O54">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c t="s" s="1" r="P54">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c t="s" s="1" r="Q54">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c t="s" s="1" r="R54">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c t="s" s="1" r="S54">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c t="s" s="9" r="T54">
-        <v>644</v>
+        <v>658</v>
       </c>
     </row>
     <row customHeight="1" r="55" ht="12.75">
       <c s="27" r="A55"/>
       <c s="27" r="B55"/>
       <c t="s" s="1" r="C55">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c s="25" r="D55"/>
       <c s="25" r="E55"/>
       <c s="25" r="F55"/>
       <c t="s" s="1" r="G55">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c t="s" s="1" r="H55">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c t="s" s="1" r="I55">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c t="s" s="1" r="J55">
-        <v>649</v>
-      </c>
-      <c t="s" s="1" r="K55">
-        <v>650</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c s="25" r="K55"/>
       <c t="s" s="1" r="L55">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c s="25" r="M55"/>
       <c t="s" s="1" r="N55">
-        <v>652</v>
-      </c>
-      <c t="s" s="1" r="O55">
-        <v>653</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c s="1" r="O55"/>
       <c t="s" s="1" r="P55">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c t="s" s="1" r="Q55">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c t="s" s="1" r="R55">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c t="s" s="1" r="S55">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c t="s" s="9" r="T55">
-        <v>658</v>
+        <v>670</v>
       </c>
     </row>
     <row customHeight="1" r="56" ht="12.75">
       <c s="27" r="A56"/>
       <c s="27" r="B56"/>
       <c t="s" s="1" r="C56">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c s="25" r="D56"/>
       <c s="25" r="E56"/>
       <c s="25" r="F56"/>
-      <c t="s" s="1" r="G56">
-        <v>660</v>
-      </c>
-      <c t="s" s="1" r="H56">
-        <v>661</v>
+      <c t="s" s="25" r="G56">
+        <v>672</v>
+      </c>
+      <c t="s" s="25" r="H56">
+        <v>673</v>
       </c>
       <c t="s" s="1" r="I56">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c t="s" s="1" r="J56">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c s="25" r="K56"/>
       <c t="s" s="1" r="L56">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c s="25" r="M56"/>
-      <c t="s" s="1" r="N56">
-        <v>665</v>
-      </c>
+      <c s="25" r="N56"/>
       <c s="1" r="O56"/>
       <c t="s" s="1" r="P56">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c t="s" s="1" r="Q56">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c t="s" s="1" r="R56">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c t="s" s="1" r="S56">
-        <v>669</v>
-      </c>
-      <c t="s" s="9" r="T56">
-        <v>670</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c s="2" r="T56"/>
     </row>
     <row customHeight="1" r="57" ht="12.75">
       <c s="27" r="A57"/>
       <c s="27" r="B57"/>
       <c t="s" s="1" r="C57">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c s="25" r="D57"/>
       <c s="25" r="E57"/>
       <c s="25" r="F57"/>
-      <c t="s" s="25" r="G57">
-        <v>672</v>
-      </c>
-      <c t="s" s="25" r="H57">
-        <v>673</v>
+      <c t="s" s="1" r="G57">
+        <v>682</v>
+      </c>
+      <c t="s" s="1" r="H57">
+        <v>683</v>
       </c>
       <c t="s" s="1" r="I57">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c t="s" s="1" r="J57">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c s="25" r="K57"/>
       <c t="s" s="1" r="L57">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c s="25" r="M57"/>
       <c s="25" r="N57"/>
       <c s="1" r="O57"/>
       <c t="s" s="1" r="P57">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c t="s" s="1" r="Q57">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c t="s" s="1" r="R57">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c t="s" s="1" r="S57">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c s="2" r="T57"/>
     </row>
     <row customHeight="1" r="58" ht="12.75">
       <c s="27" r="A58"/>
       <c s="27" r="B58"/>
-      <c t="s" s="1" r="C58">
-        <v>681</v>
-      </c>
+      <c s="27" r="C58"/>
       <c s="25" r="D58"/>
       <c s="25" r="E58"/>
       <c s="25" r="F58"/>
       <c t="s" s="1" r="G58">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c t="s" s="1" r="H58">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c t="s" s="1" r="I58">
-        <v>684</v>
-      </c>
-      <c t="s" s="1" r="J58">
-        <v>685</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c s="25" r="J58"/>
       <c s="25" r="K58"/>
       <c t="s" s="1" r="L58">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c s="25" r="M58"/>
       <c s="25" r="N58"/>
       <c s="1" r="O58"/>
       <c t="s" s="1" r="P58">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c t="s" s="1" r="Q58">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c t="s" s="1" r="R58">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c t="s" s="1" r="S58">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c s="2" r="T58"/>
     </row>
@@ -5619,34 +5637,28 @@
       <c s="25" r="E59"/>
       <c s="25" r="F59"/>
       <c t="s" s="1" r="G59">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c t="s" s="1" r="H59">
-        <v>692</v>
-      </c>
-      <c t="s" s="1" r="I59">
-        <v>693</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c s="25" r="I59"/>
       <c s="25" r="J59"/>
       <c s="25" r="K59"/>
       <c t="s" s="1" r="L59">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c s="25" r="M59"/>
       <c s="25" r="N59"/>
       <c s="1" r="O59"/>
       <c t="s" s="1" r="P59">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c t="s" s="1" r="Q59">
-        <v>696</v>
-      </c>
-      <c t="s" s="1" r="R59">
-        <v>697</v>
-      </c>
-      <c t="s" s="1" r="S59">
-        <v>698</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c s="1" r="R59"/>
+      <c s="1" r="S59"/>
       <c s="2" r="T59"/>
     </row>
     <row customHeight="1" r="60" ht="12.75">
@@ -5656,26 +5668,20 @@
       <c s="25" r="D60"/>
       <c s="25" r="E60"/>
       <c s="25" r="F60"/>
-      <c t="s" s="1" r="G60">
-        <v>699</v>
-      </c>
-      <c t="s" s="1" r="H60">
-        <v>700</v>
-      </c>
+      <c s="25" r="G60"/>
+      <c s="25" r="H60"/>
       <c s="25" r="I60"/>
       <c s="25" r="J60"/>
       <c s="25" r="K60"/>
-      <c t="s" s="1" r="L60">
-        <v>701</v>
-      </c>
+      <c s="25" r="L60"/>
       <c s="25" r="M60"/>
       <c s="25" r="N60"/>
       <c s="1" r="O60"/>
       <c t="s" s="1" r="P60">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c t="s" s="1" r="Q60">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c s="1" r="R60"/>
       <c s="1" r="S60"/>
@@ -5697,12 +5703,8 @@
       <c s="25" r="M61"/>
       <c s="25" r="N61"/>
       <c s="1" r="O61"/>
-      <c t="s" s="1" r="P61">
-        <v>704</v>
-      </c>
-      <c t="s" s="1" r="Q61">
-        <v>705</v>
-      </c>
+      <c s="1" r="P61"/>
+      <c s="1" r="Q61"/>
       <c s="1" r="R61"/>
       <c s="1" r="S61"/>
       <c s="2" r="T61"/>
@@ -5752,706 +5754,718 @@
       <c s="2" r="T63"/>
     </row>
     <row customHeight="1" r="64" ht="12.75">
-      <c s="27" r="A64"/>
-      <c s="27" r="B64"/>
-      <c s="27" r="C64"/>
-      <c s="25" r="D64"/>
-      <c s="25" r="E64"/>
-      <c s="25" r="F64"/>
-      <c s="25" r="G64"/>
-      <c s="25" r="H64"/>
-      <c s="25" r="I64"/>
-      <c s="25" r="J64"/>
-      <c s="25" r="K64"/>
-      <c s="25" r="L64"/>
-      <c s="25" r="M64"/>
-      <c s="25" r="N64"/>
-      <c s="1" r="O64"/>
-      <c s="1" r="P64"/>
-      <c s="1" r="Q64"/>
-      <c s="1" r="R64"/>
-      <c s="1" r="S64"/>
-      <c s="2" r="T64"/>
+      <c t="s" s="7" r="A64">
+        <v>706</v>
+      </c>
+      <c s="33" r="B64"/>
+      <c s="33" r="C64"/>
+      <c s="33" r="D64"/>
+      <c s="33" r="E64"/>
+      <c s="33" r="F64"/>
+      <c s="33" r="G64"/>
+      <c s="33" r="H64"/>
+      <c s="33" r="I64"/>
+      <c s="33" r="J64"/>
+      <c s="33" r="K64"/>
+      <c s="33" r="L64"/>
+      <c s="33" r="M64"/>
+      <c s="33" r="N64"/>
+      <c s="33" r="O64"/>
+      <c s="33" r="P64"/>
+      <c s="33" r="Q64"/>
+      <c s="33" r="R64"/>
+      <c s="33" r="S64"/>
+      <c s="33" r="T64"/>
     </row>
     <row customHeight="1" r="65" ht="12.75">
-      <c t="s" s="7" r="A65">
-        <v>706</v>
-      </c>
-      <c s="33" r="B65"/>
-      <c s="33" r="C65"/>
-      <c s="33" r="D65"/>
-      <c s="33" r="E65"/>
-      <c s="33" r="F65"/>
-      <c s="33" r="G65"/>
-      <c s="33" r="H65"/>
-      <c s="33" r="I65"/>
-      <c s="33" r="J65"/>
-      <c s="33" r="K65"/>
-      <c s="33" r="L65"/>
-      <c s="33" r="M65"/>
-      <c s="33" r="N65"/>
-      <c s="33" r="O65"/>
-      <c s="33" r="P65"/>
-      <c s="33" r="Q65"/>
-      <c s="33" r="R65"/>
-      <c s="33" r="S65"/>
-      <c s="33" r="T65"/>
+      <c t="s" s="34" r="A65">
+        <v>707</v>
+      </c>
+      <c t="s" s="35" r="B65">
+        <v>708</v>
+      </c>
+      <c t="s" s="9" r="C65">
+        <v>709</v>
+      </c>
+      <c t="s" s="9" r="D65">
+        <v>710</v>
+      </c>
+      <c t="s" s="9" r="E65">
+        <v>711</v>
+      </c>
+      <c t="s" s="9" r="F65">
+        <v>712</v>
+      </c>
+      <c t="s" s="9" r="G65">
+        <v>713</v>
+      </c>
+      <c t="s" s="9" r="H65">
+        <v>714</v>
+      </c>
+      <c t="s" s="9" r="I65">
+        <v>715</v>
+      </c>
+      <c t="s" s="9" r="J65">
+        <v>716</v>
+      </c>
+      <c t="s" s="9" r="K65">
+        <v>717</v>
+      </c>
+      <c t="s" s="9" r="L65">
+        <v>718</v>
+      </c>
+      <c t="s" s="9" r="M65">
+        <v>719</v>
+      </c>
+      <c t="s" s="9" r="N65">
+        <v>720</v>
+      </c>
+      <c t="s" s="1" r="O65">
+        <v>721</v>
+      </c>
+      <c t="s" s="1" r="P65">
+        <v>722</v>
+      </c>
+      <c t="s" s="1" r="Q65">
+        <v>723</v>
+      </c>
+      <c t="s" s="1" r="R65">
+        <v>724</v>
+      </c>
+      <c t="s" s="1" r="S65">
+        <v>725</v>
+      </c>
+      <c t="s" s="9" r="T65">
+        <v>726</v>
+      </c>
     </row>
     <row customHeight="1" r="66" ht="12.75">
       <c t="s" s="34" r="A66">
-        <v>707</v>
+        <v>727</v>
       </c>
       <c t="s" s="35" r="B66">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c t="s" s="9" r="C66">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c t="s" s="9" r="D66">
-        <v>710</v>
+        <v>730</v>
       </c>
       <c t="s" s="9" r="E66">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c t="s" s="9" r="F66">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c t="s" s="9" r="G66">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c t="s" s="9" r="H66">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c t="s" s="9" r="I66">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c t="s" s="9" r="J66">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c t="s" s="9" r="K66">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c t="s" s="9" r="L66">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c t="s" s="9" r="M66">
-        <v>719</v>
+        <v>739</v>
       </c>
       <c t="s" s="9" r="N66">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c t="s" s="1" r="O66">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c t="s" s="1" r="P66">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c t="s" s="1" r="Q66">
-        <v>723</v>
+        <v>743</v>
       </c>
       <c t="s" s="1" r="R66">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c t="s" s="1" r="S66">
-        <v>725</v>
+        <v>745</v>
       </c>
       <c t="s" s="9" r="T66">
-        <v>726</v>
+        <v>746</v>
       </c>
     </row>
     <row customHeight="1" r="67" ht="12.75">
       <c t="s" s="34" r="A67">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c t="s" s="35" r="B67">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c t="s" s="9" r="C67">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c t="s" s="9" r="D67">
-        <v>730</v>
+        <v>750</v>
       </c>
       <c t="s" s="9" r="E67">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c t="s" s="9" r="F67">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c t="s" s="9" r="G67">
-        <v>733</v>
+        <v>753</v>
       </c>
       <c t="s" s="9" r="H67">
-        <v>734</v>
+        <v>754</v>
       </c>
       <c t="s" s="9" r="I67">
-        <v>735</v>
+        <v>755</v>
       </c>
       <c t="s" s="9" r="J67">
-        <v>736</v>
+        <v>756</v>
       </c>
       <c t="s" s="9" r="K67">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c t="s" s="9" r="L67">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c t="s" s="9" r="M67">
-        <v>739</v>
+        <v>759</v>
       </c>
       <c t="s" s="9" r="N67">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c t="s" s="1" r="O67">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c t="s" s="1" r="P67">
-        <v>742</v>
+        <v>762</v>
       </c>
       <c t="s" s="1" r="Q67">
-        <v>743</v>
+        <v>763</v>
       </c>
       <c t="s" s="1" r="R67">
-        <v>744</v>
+        <v>764</v>
       </c>
       <c t="s" s="1" r="S67">
-        <v>745</v>
+        <v>765</v>
       </c>
       <c t="s" s="9" r="T67">
-        <v>746</v>
+        <v>766</v>
       </c>
     </row>
     <row customHeight="1" r="68" ht="12.75">
       <c t="s" s="34" r="A68">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c t="s" s="35" r="B68">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c t="s" s="9" r="C68">
-        <v>749</v>
+        <v>769</v>
       </c>
       <c t="s" s="9" r="D68">
-        <v>750</v>
+        <v>770</v>
       </c>
       <c t="s" s="9" r="E68">
-        <v>751</v>
+        <v>771</v>
       </c>
       <c t="s" s="9" r="F68">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c t="s" s="9" r="G68">
-        <v>753</v>
+        <v>773</v>
       </c>
       <c t="s" s="9" r="H68">
-        <v>754</v>
+        <v>774</v>
       </c>
       <c t="s" s="9" r="I68">
-        <v>755</v>
+        <v>775</v>
       </c>
       <c t="s" s="9" r="J68">
-        <v>756</v>
+        <v>776</v>
       </c>
       <c t="s" s="9" r="K68">
-        <v>757</v>
+        <v>777</v>
       </c>
       <c t="s" s="9" r="L68">
-        <v>758</v>
+        <v>778</v>
       </c>
       <c t="s" s="9" r="M68">
-        <v>759</v>
+        <v>779</v>
       </c>
       <c t="s" s="9" r="N68">
-        <v>760</v>
+        <v>780</v>
       </c>
       <c t="s" s="1" r="O68">
-        <v>761</v>
+        <v>781</v>
       </c>
       <c t="s" s="1" r="P68">
-        <v>762</v>
+        <v>782</v>
       </c>
       <c t="s" s="1" r="Q68">
-        <v>763</v>
+        <v>783</v>
       </c>
       <c t="s" s="1" r="R68">
-        <v>764</v>
+        <v>784</v>
       </c>
       <c t="s" s="1" r="S68">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c t="s" s="9" r="T68">
-        <v>766</v>
+        <v>786</v>
       </c>
     </row>
     <row customHeight="1" r="69" ht="12.75">
       <c t="s" s="34" r="A69">
-        <v>767</v>
+        <v>787</v>
       </c>
       <c t="s" s="35" r="B69">
-        <v>768</v>
+        <v>788</v>
       </c>
       <c t="s" s="9" r="C69">
-        <v>769</v>
+        <v>789</v>
       </c>
       <c t="s" s="9" r="D69">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c t="s" s="9" r="E69">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c t="s" s="9" r="F69">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c t="s" s="9" r="G69">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c t="s" s="9" r="H69">
-        <v>774</v>
+        <v>794</v>
       </c>
       <c t="s" s="9" r="I69">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c t="s" s="9" r="J69">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c t="s" s="9" r="K69">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c t="s" s="9" r="L69">
-        <v>778</v>
+        <v>798</v>
       </c>
       <c t="s" s="9" r="M69">
-        <v>779</v>
-      </c>
-      <c t="s" s="9" r="N69">
-        <v>780</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c s="9" r="N69"/>
       <c t="s" s="1" r="O69">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c t="s" s="1" r="P69">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c t="s" s="1" r="Q69">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c t="s" s="1" r="R69">
-        <v>784</v>
-      </c>
-      <c t="s" s="1" r="S69">
-        <v>785</v>
-      </c>
-      <c t="s" s="9" r="T69">
-        <v>786</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c s="1" r="S69"/>
+      <c s="2" r="T69"/>
     </row>
     <row customHeight="1" r="70" ht="12.75">
-      <c t="s" s="34" r="A70">
-        <v>787</v>
-      </c>
-      <c t="s" s="35" r="B70">
-        <v>788</v>
-      </c>
-      <c t="s" s="9" r="C70">
-        <v>789</v>
-      </c>
-      <c t="s" s="9" r="D70">
-        <v>790</v>
-      </c>
-      <c t="s" s="9" r="E70">
-        <v>791</v>
-      </c>
-      <c t="s" s="9" r="F70">
-        <v>792</v>
-      </c>
-      <c t="s" s="9" r="G70">
-        <v>793</v>
-      </c>
-      <c t="s" s="9" r="H70">
-        <v>794</v>
-      </c>
-      <c t="s" s="9" r="I70">
-        <v>795</v>
-      </c>
-      <c t="s" s="9" r="J70">
-        <v>796</v>
-      </c>
-      <c t="s" s="9" r="K70">
-        <v>797</v>
-      </c>
-      <c t="s" s="9" r="L70">
-        <v>798</v>
-      </c>
-      <c t="s" s="9" r="M70">
-        <v>799</v>
-      </c>
-      <c s="9" r="N70"/>
-      <c t="s" s="1" r="O70">
-        <v>800</v>
-      </c>
-      <c t="s" s="1" r="P70">
-        <v>801</v>
-      </c>
-      <c t="s" s="1" r="Q70">
-        <v>802</v>
-      </c>
-      <c t="s" s="1" r="R70">
-        <v>803</v>
-      </c>
-      <c s="1" r="S70"/>
-      <c s="2" r="T70"/>
+      <c s="31" r="A70"/>
     </row>
     <row customHeight="1" r="71" ht="12.75">
-      <c s="31" r="A71"/>
-    </row>
-    <row customHeight="1" r="72" ht="12.75">
-      <c t="s" s="32" r="A72">
+      <c t="s" s="32" r="A71">
         <v>804</v>
+      </c>
+    </row>
+    <row customHeight="1" r="72" ht="13.5">
+      <c s="1" r="A72"/>
+      <c s="1" r="B72"/>
+      <c t="s" s="1" r="C72">
+        <v>805</v>
+      </c>
+      <c t="s" s="1" r="D72">
+        <v>806</v>
+      </c>
+      <c t="s" s="1" r="E72">
+        <v>807</v>
+      </c>
+      <c t="s" s="1" r="F72">
+        <v>808</v>
+      </c>
+      <c t="s" s="1" r="G72">
+        <v>809</v>
+      </c>
+      <c t="s" s="1" r="H72">
+        <v>810</v>
+      </c>
+      <c t="s" s="1" r="I72">
+        <v>811</v>
+      </c>
+      <c t="s" s="1" r="J72">
+        <v>812</v>
+      </c>
+      <c t="s" s="1" r="K72">
+        <v>813</v>
+      </c>
+      <c t="s" s="1" r="L72">
+        <v>814</v>
+      </c>
+      <c t="s" s="1" r="M72">
+        <v>815</v>
+      </c>
+      <c t="s" s="1" r="N72">
+        <v>816</v>
+      </c>
+      <c t="s" s="1" r="O72">
+        <v>817</v>
+      </c>
+      <c t="s" s="1" r="P72">
+        <v>818</v>
+      </c>
+      <c t="s" s="1" r="Q72">
+        <v>819</v>
+      </c>
+      <c t="s" s="1" r="R72">
+        <v>820</v>
+      </c>
+      <c t="s" s="1" r="S72">
+        <v>821</v>
+      </c>
+      <c t="s" s="9" r="T72">
+        <v>822</v>
       </c>
     </row>
     <row customHeight="1" r="73" ht="13.5">
       <c s="1" r="A73"/>
       <c s="1" r="B73"/>
       <c t="s" s="1" r="C73">
-        <v>805</v>
-      </c>
-      <c t="s" s="1" r="D73">
-        <v>806</v>
-      </c>
-      <c t="s" s="1" r="E73">
-        <v>807</v>
-      </c>
-      <c t="s" s="1" r="F73">
-        <v>808</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c s="1" r="D73"/>
+      <c s="1" r="E73"/>
+      <c s="1" r="F73"/>
       <c t="s" s="1" r="G73">
-        <v>809</v>
-      </c>
-      <c t="s" s="1" r="H73">
-        <v>810</v>
+        <v>824</v>
+      </c>
+      <c t="s" s="36" r="H73">
+        <v>825</v>
       </c>
       <c t="s" s="1" r="I73">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c t="s" s="1" r="J73">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c t="s" s="1" r="K73">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c t="s" s="1" r="L73">
-        <v>814</v>
-      </c>
-      <c t="s" s="1" r="M73">
-        <v>815</v>
-      </c>
+        <v>829</v>
+      </c>
+      <c s="1" r="M73"/>
       <c t="s" s="1" r="N73">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c t="s" s="1" r="O73">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c t="s" s="1" r="P73">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c t="s" s="1" r="Q73">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c t="s" s="1" r="R73">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c t="s" s="1" r="S73">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c t="s" s="9" r="T73">
-        <v>822</v>
+        <v>836</v>
       </c>
     </row>
     <row customHeight="1" r="74" ht="13.5">
       <c s="1" r="A74"/>
       <c s="1" r="B74"/>
       <c t="s" s="1" r="C74">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c s="1" r="D74"/>
       <c s="1" r="E74"/>
       <c s="1" r="F74"/>
       <c t="s" s="1" r="G74">
-        <v>824</v>
-      </c>
-      <c t="s" s="36" r="H74">
-        <v>825</v>
+        <v>838</v>
+      </c>
+      <c t="s" s="1" r="H74">
+        <v>839</v>
       </c>
       <c t="s" s="1" r="I74">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c t="s" s="1" r="J74">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c t="s" s="1" r="K74">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c t="s" s="1" r="L74">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c s="1" r="M74"/>
       <c t="s" s="1" r="N74">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c t="s" s="1" r="O74">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c t="s" s="1" r="P74">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c t="s" s="1" r="Q74">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c t="s" s="1" r="R74">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c t="s" s="1" r="S74">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c t="s" s="9" r="T74">
-        <v>836</v>
+        <v>850</v>
       </c>
     </row>
     <row customHeight="1" r="75" ht="13.5">
       <c s="1" r="A75"/>
       <c s="1" r="B75"/>
       <c t="s" s="1" r="C75">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c s="1" r="D75"/>
       <c s="1" r="E75"/>
       <c s="1" r="F75"/>
-      <c t="s" s="1" r="G75">
-        <v>838</v>
+      <c t="s" s="25" r="G75">
+        <v>852</v>
       </c>
       <c t="s" s="1" r="H75">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c t="s" s="1" r="I75">
-        <v>840</v>
-      </c>
-      <c t="s" s="1" r="J75">
-        <v>841</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c s="1" r="J75"/>
       <c t="s" s="1" r="K75">
-        <v>842</v>
+        <v>855</v>
       </c>
       <c t="s" s="1" r="L75">
-        <v>843</v>
+        <v>856</v>
       </c>
       <c s="1" r="M75"/>
       <c t="s" s="1" r="N75">
-        <v>844</v>
+        <v>857</v>
       </c>
       <c t="s" s="1" r="O75">
-        <v>845</v>
+        <v>858</v>
       </c>
       <c t="s" s="1" r="P75">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c t="s" s="1" r="Q75">
-        <v>847</v>
+        <v>860</v>
       </c>
       <c t="s" s="1" r="R75">
-        <v>848</v>
+        <v>861</v>
       </c>
       <c t="s" s="1" r="S75">
-        <v>849</v>
+        <v>862</v>
       </c>
       <c t="s" s="9" r="T75">
-        <v>850</v>
+        <v>863</v>
       </c>
     </row>
     <row customHeight="1" r="76" ht="13.5">
       <c s="1" r="A76"/>
       <c s="1" r="B76"/>
       <c t="s" s="1" r="C76">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c s="1" r="D76"/>
       <c s="1" r="E76"/>
       <c s="1" r="F76"/>
-      <c t="s" s="25" r="G76">
-        <v>852</v>
+      <c t="s" s="1" r="G76">
+        <v>865</v>
       </c>
       <c t="s" s="1" r="H76">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c t="s" s="1" r="I76">
-        <v>854</v>
+        <v>867</v>
       </c>
       <c s="1" r="J76"/>
       <c t="s" s="1" r="K76">
-        <v>855</v>
+        <v>868</v>
       </c>
       <c t="s" s="1" r="L76">
-        <v>856</v>
+        <v>869</v>
       </c>
       <c s="1" r="M76"/>
       <c t="s" s="1" r="N76">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c t="s" s="1" r="O76">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c t="s" s="1" r="P76">
-        <v>859</v>
+        <v>872</v>
       </c>
       <c t="s" s="1" r="Q76">
-        <v>860</v>
+        <v>873</v>
       </c>
       <c t="s" s="1" r="R76">
-        <v>861</v>
+        <v>874</v>
       </c>
       <c t="s" s="1" r="S76">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c t="s" s="9" r="T76">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row customHeight="1" r="77" ht="13.5">
       <c s="1" r="A77"/>
       <c s="1" r="B77"/>
       <c t="s" s="1" r="C77">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c s="1" r="D77"/>
       <c s="1" r="E77"/>
       <c s="1" r="F77"/>
       <c t="s" s="1" r="G77">
-        <v>865</v>
+        <v>878</v>
       </c>
       <c t="s" s="1" r="H77">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c t="s" s="1" r="I77">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c s="1" r="J77"/>
       <c t="s" s="1" r="K77">
-        <v>868</v>
+        <v>881</v>
       </c>
       <c t="s" s="1" r="L77">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c s="1" r="M77"/>
       <c t="s" s="1" r="N77">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c t="s" s="1" r="O77">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c t="s" s="1" r="P77">
-        <v>872</v>
+        <v>885</v>
       </c>
       <c t="s" s="1" r="Q77">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c t="s" s="1" r="R77">
-        <v>874</v>
-      </c>
-      <c t="s" s="1" r="S77">
-        <v>875</v>
-      </c>
+        <v>887</v>
+      </c>
+      <c s="1" r="S77"/>
       <c t="s" s="9" r="T77">
-        <v>876</v>
+        <v>888</v>
       </c>
     </row>
     <row customHeight="1" r="78" ht="13.5">
       <c s="1" r="A78"/>
       <c s="1" r="B78"/>
       <c t="s" s="1" r="C78">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c s="1" r="D78"/>
       <c s="1" r="E78"/>
       <c s="1" r="F78"/>
-      <c t="s" s="1" r="G78">
-        <v>878</v>
-      </c>
+      <c s="1" r="G78"/>
       <c t="s" s="1" r="H78">
-        <v>879</v>
-      </c>
-      <c t="s" s="1" r="I78">
-        <v>880</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c s="1" r="I78"/>
       <c s="1" r="J78"/>
       <c t="s" s="1" r="K78">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c t="s" s="1" r="L78">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c s="1" r="M78"/>
-      <c t="s" s="1" r="N78">
-        <v>883</v>
-      </c>
+      <c s="1" r="N78"/>
       <c t="s" s="1" r="O78">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c t="s" s="1" r="P78">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c t="s" s="1" r="Q78">
-        <v>886</v>
-      </c>
-      <c t="s" s="1" r="R78">
-        <v>887</v>
-      </c>
+        <v>895</v>
+      </c>
+      <c s="1" r="R78"/>
       <c s="1" r="S78"/>
       <c t="s" s="9" r="T78">
-        <v>888</v>
+        <v>896</v>
       </c>
     </row>
     <row customHeight="1" r="79" ht="13.5">
       <c s="1" r="A79"/>
       <c s="1" r="B79"/>
       <c t="s" s="1" r="C79">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c s="1" r="D79"/>
       <c s="1" r="E79"/>
       <c s="1" r="F79"/>
       <c s="1" r="G79"/>
-      <c t="s" s="1" r="H79">
-        <v>890</v>
-      </c>
+      <c s="1" r="H79"/>
       <c s="1" r="I79"/>
       <c s="1" r="J79"/>
       <c t="s" s="1" r="K79">
-        <v>891</v>
-      </c>
-      <c t="s" s="1" r="L79">
-        <v>892</v>
-      </c>
+        <v>898</v>
+      </c>
+      <c s="1" r="L79"/>
       <c s="1" r="M79"/>
       <c s="1" r="N79"/>
       <c t="s" s="1" r="O79">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c t="s" s="1" r="P79">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c t="s" s="1" r="Q79">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c s="1" r="R79"/>
       <c s="1" r="S79"/>
       <c t="s" s="9" r="T79">
-        <v>896</v>
-      </c>
-    </row>
-    <row customHeight="1" r="80" ht="13.5">
+        <v>902</v>
+      </c>
+    </row>
+    <row customHeight="1" r="80" ht="12.75">
       <c s="1" r="A80"/>
       <c s="1" r="B80"/>
       <c t="s" s="1" r="C80">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c s="1" r="D80"/>
       <c s="1" r="E80"/>
@@ -6461,32 +6475,24 @@
       <c s="1" r="I80"/>
       <c s="1" r="J80"/>
       <c t="s" s="1" r="K80">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c s="1" r="L80"/>
       <c s="1" r="M80"/>
       <c s="1" r="N80"/>
-      <c t="s" s="1" r="O80">
-        <v>899</v>
-      </c>
-      <c t="s" s="1" r="P80">
-        <v>900</v>
-      </c>
-      <c t="s" s="1" r="Q80">
-        <v>901</v>
-      </c>
+      <c s="1" r="O80"/>
+      <c s="1" r="P80"/>
+      <c s="1" r="Q80"/>
       <c s="1" r="R80"/>
       <c s="1" r="S80"/>
       <c t="s" s="9" r="T80">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row customHeight="1" r="81" ht="12.75">
       <c s="1" r="A81"/>
       <c s="1" r="B81"/>
-      <c t="s" s="1" r="C81">
-        <v>903</v>
-      </c>
+      <c s="1" r="C81"/>
       <c s="1" r="D81"/>
       <c s="1" r="E81"/>
       <c s="1" r="F81"/>
@@ -6495,7 +6501,7 @@
       <c s="1" r="I81"/>
       <c s="1" r="J81"/>
       <c t="s" s="1" r="K81">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c s="1" r="L81"/>
       <c s="1" r="M81"/>
@@ -6505,11 +6511,9 @@
       <c s="1" r="Q81"/>
       <c s="1" r="R81"/>
       <c s="1" r="S81"/>
-      <c t="s" s="9" r="T81">
-        <v>905</v>
-      </c>
-    </row>
-    <row customHeight="1" r="82" ht="12.75">
+      <c s="2" r="T81"/>
+    </row>
+    <row customHeight="1" r="82" ht="11.25">
       <c s="1" r="A82"/>
       <c s="1" r="B82"/>
       <c s="1" r="C82"/>
@@ -6521,7 +6525,7 @@
       <c s="1" r="I82"/>
       <c s="1" r="J82"/>
       <c t="s" s="1" r="K82">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c s="1" r="L82"/>
       <c s="1" r="M82"/>
@@ -6534,8 +6538,8 @@
       <c s="2" r="T82"/>
     </row>
     <row customHeight="1" r="83" ht="11.25">
-      <c s="1" r="A83"/>
-      <c s="1" r="B83"/>
+      <c s="37" r="A83"/>
+      <c s="37" r="B83"/>
       <c s="1" r="C83"/>
       <c s="1" r="D83"/>
       <c s="1" r="E83"/>
@@ -6545,7 +6549,7 @@
       <c s="1" r="I83"/>
       <c s="1" r="J83"/>
       <c t="s" s="1" r="K83">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c s="1" r="L83"/>
       <c s="1" r="M83"/>
@@ -6557,7 +6561,7 @@
       <c s="1" r="S83"/>
       <c s="2" r="T83"/>
     </row>
-    <row customHeight="1" r="84" ht="11.25">
+    <row customHeight="1" r="84" ht="12.75">
       <c s="37" r="A84"/>
       <c s="37" r="B84"/>
       <c s="1" r="C84"/>
@@ -6568,9 +6572,7 @@
       <c s="1" r="H84"/>
       <c s="1" r="I84"/>
       <c s="1" r="J84"/>
-      <c t="s" s="1" r="K84">
-        <v>908</v>
-      </c>
+      <c s="1" r="K84"/>
       <c s="1" r="L84"/>
       <c s="1" r="M84"/>
       <c s="1" r="N84"/>
@@ -6582,8 +6584,8 @@
       <c s="2" r="T84"/>
     </row>
     <row customHeight="1" r="85" ht="12.75">
-      <c s="37" r="A85"/>
-      <c s="37" r="B85"/>
+      <c s="1" r="A85"/>
+      <c s="1" r="B85"/>
       <c s="1" r="C85"/>
       <c s="1" r="D85"/>
       <c s="1" r="E85"/>
@@ -6603,7 +6605,7 @@
       <c s="1" r="S85"/>
       <c s="2" r="T85"/>
     </row>
-    <row customHeight="1" r="86" ht="12.75">
+    <row customHeight="1" r="86" ht="11.25">
       <c s="1" r="A86"/>
       <c s="1" r="B86"/>
       <c s="1" r="C86"/>
@@ -6626,92 +6628,94 @@
       <c s="2" r="T86"/>
     </row>
     <row customHeight="1" r="87" ht="11.25">
-      <c s="1" r="A87"/>
-      <c s="1" r="B87"/>
-      <c s="1" r="C87"/>
-      <c s="1" r="D87"/>
-      <c s="1" r="E87"/>
-      <c s="1" r="F87"/>
-      <c s="1" r="G87"/>
-      <c s="1" r="H87"/>
-      <c s="1" r="I87"/>
-      <c s="1" r="J87"/>
-      <c s="1" r="K87"/>
-      <c s="1" r="L87"/>
-      <c s="1" r="M87"/>
-      <c s="1" r="N87"/>
-      <c s="1" r="O87"/>
-      <c s="1" r="P87"/>
-      <c s="1" r="Q87"/>
-      <c s="1" r="R87"/>
-      <c s="1" r="S87"/>
-      <c s="2" r="T87"/>
+      <c t="s" s="38" r="A87">
+        <v>909</v>
+      </c>
+      <c s="33" r="B87"/>
+      <c s="33" r="C87"/>
+      <c s="33" r="D87"/>
+      <c s="33" r="E87"/>
+      <c s="33" r="F87"/>
+      <c s="33" r="G87"/>
+      <c s="33" r="H87"/>
+      <c s="33" r="I87"/>
+      <c s="33" r="J87"/>
+      <c s="33" r="K87"/>
+      <c s="33" r="L87"/>
+      <c s="33" r="M87"/>
+      <c s="33" r="N87"/>
+      <c s="33" r="O87"/>
+      <c s="33" r="P87"/>
+      <c s="33" r="Q87"/>
+      <c s="33" r="R87"/>
+      <c s="33" r="S87"/>
+      <c s="33" r="T87"/>
     </row>
     <row customHeight="1" r="88" ht="11.25">
-      <c t="s" s="38" r="A88">
-        <v>909</v>
-      </c>
-      <c s="33" r="B88"/>
-      <c s="33" r="C88"/>
-      <c s="33" r="D88"/>
-      <c s="33" r="E88"/>
-      <c s="33" r="F88"/>
-      <c s="33" r="G88"/>
-      <c s="33" r="H88"/>
-      <c s="33" r="I88"/>
-      <c s="33" r="J88"/>
-      <c s="33" r="K88"/>
-      <c s="33" r="L88"/>
-      <c s="33" r="M88"/>
-      <c s="33" r="N88"/>
-      <c s="33" r="O88"/>
-      <c s="33" r="P88"/>
-      <c s="33" r="Q88"/>
-      <c s="33" r="R88"/>
-      <c s="33" r="S88"/>
-      <c s="33" r="T88"/>
-    </row>
-    <row customHeight="1" r="89" ht="11.25">
-      <c t="s" s="39" r="A89">
+      <c t="s" s="39" r="A88">
         <v>910</v>
       </c>
-      <c t="s" s="1" r="B89">
+      <c t="s" s="1" r="B88">
         <v>911</v>
       </c>
-      <c t="s" s="9" r="C89">
+      <c t="s" s="9" r="C88">
         <v>912</v>
       </c>
-      <c s="1" r="D89"/>
-      <c s="1" r="E89"/>
-      <c s="1" r="F89"/>
-      <c s="1" r="G89"/>
-      <c s="1" r="H89"/>
-      <c s="1" r="I89"/>
-      <c s="1" r="J89"/>
-      <c s="1" r="K89"/>
-      <c s="1" r="L89"/>
-      <c s="1" r="M89"/>
-      <c s="1" r="N89"/>
-      <c s="1" r="O89"/>
-      <c s="1" r="P89"/>
-      <c s="1" r="Q89"/>
-      <c s="1" r="R89"/>
-      <c s="1" r="S89"/>
-      <c s="2" r="T89"/>
+      <c s="1" r="D88"/>
+      <c s="1" r="E88"/>
+      <c s="1" r="F88"/>
+      <c s="1" r="G88"/>
+      <c s="1" r="H88"/>
+      <c s="1" r="I88"/>
+      <c s="1" r="J88"/>
+      <c s="1" r="K88"/>
+      <c s="1" r="L88"/>
+      <c s="1" r="M88"/>
+      <c s="1" r="N88"/>
+      <c s="1" r="O88"/>
+      <c s="1" r="P88"/>
+      <c s="1" r="Q88"/>
+      <c s="1" r="R88"/>
+      <c s="1" r="S88"/>
+      <c s="2" r="T88"/>
+    </row>
+    <row customHeight="1" r="89" ht="12.75">
+      <c s="31" r="A89"/>
     </row>
     <row customHeight="1" r="90" ht="12.75">
-      <c s="31" r="A90"/>
-    </row>
-    <row customHeight="1" r="91" ht="12.75">
-      <c t="s" s="32" r="A91">
+      <c t="s" s="32" r="A90">
         <v>913</v>
       </c>
+    </row>
+    <row customHeight="1" r="91" ht="11.25">
+      <c s="1" r="A91"/>
+      <c s="1" r="B91"/>
+      <c t="s" s="1" r="C91">
+        <v>914</v>
+      </c>
+      <c s="1" r="D91"/>
+      <c s="1" r="E91"/>
+      <c s="1" r="F91"/>
+      <c s="1" r="G91"/>
+      <c s="1" r="H91"/>
+      <c s="1" r="I91"/>
+      <c s="1" r="J91"/>
+      <c s="1" r="K91"/>
+      <c s="1" r="L91"/>
+      <c s="1" r="M91"/>
+      <c s="1" r="N91"/>
+      <c s="1" r="O91"/>
+      <c s="1" r="P91"/>
+      <c s="1" r="Q91"/>
+      <c s="1" r="R91"/>
+      <c s="1" r="S91"/>
+      <c s="2" r="T91"/>
     </row>
     <row customHeight="1" r="92" ht="11.25">
       <c s="1" r="A92"/>
       <c s="1" r="B92"/>
       <c t="s" s="1" r="C92">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c s="1" r="D92"/>
       <c s="1" r="E92"/>
@@ -6735,7 +6739,7 @@
       <c s="1" r="A93"/>
       <c s="1" r="B93"/>
       <c t="s" s="1" r="C93">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c s="1" r="D93"/>
       <c s="1" r="E93"/>
@@ -6759,7 +6763,7 @@
       <c s="1" r="A94"/>
       <c s="1" r="B94"/>
       <c t="s" s="1" r="C94">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c s="1" r="D94"/>
       <c s="1" r="E94"/>
@@ -6783,7 +6787,7 @@
       <c s="1" r="A95"/>
       <c s="1" r="B95"/>
       <c t="s" s="1" r="C95">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c s="1" r="D95"/>
       <c s="1" r="E95"/>
@@ -6807,7 +6811,7 @@
       <c s="1" r="A96"/>
       <c s="1" r="B96"/>
       <c t="s" s="1" r="C96">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c s="1" r="D96"/>
       <c s="1" r="E96"/>
@@ -6831,7 +6835,7 @@
       <c s="1" r="A97"/>
       <c s="1" r="B97"/>
       <c t="s" s="1" r="C97">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c s="1" r="D97"/>
       <c s="1" r="E97"/>
@@ -6855,7 +6859,7 @@
       <c s="1" r="A98"/>
       <c s="1" r="B98"/>
       <c t="s" s="1" r="C98">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c s="1" r="D98"/>
       <c s="1" r="E98"/>
@@ -6879,7 +6883,7 @@
       <c s="1" r="A99"/>
       <c s="1" r="B99"/>
       <c t="s" s="1" r="C99">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c s="1" r="D99"/>
       <c s="1" r="E99"/>
@@ -6903,7 +6907,7 @@
       <c s="1" r="A100"/>
       <c s="1" r="B100"/>
       <c t="s" s="1" r="C100">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c s="1" r="D100"/>
       <c s="1" r="E100"/>
@@ -6927,7 +6931,7 @@
       <c s="1" r="A101"/>
       <c s="1" r="B101"/>
       <c t="s" s="1" r="C101">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c s="1" r="D101"/>
       <c s="1" r="E101"/>
@@ -6951,7 +6955,7 @@
       <c s="1" r="A102"/>
       <c s="1" r="B102"/>
       <c t="s" s="1" r="C102">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c s="1" r="D102"/>
       <c s="1" r="E102"/>
@@ -6974,9 +6978,7 @@
     <row customHeight="1" r="103" ht="11.25">
       <c s="1" r="A103"/>
       <c s="1" r="B103"/>
-      <c t="s" s="1" r="C103">
-        <v>925</v>
-      </c>
+      <c s="1" r="C103"/>
       <c s="1" r="D103"/>
       <c s="1" r="E103"/>
       <c s="1" r="F103"/>
@@ -6995,30 +6997,32 @@
       <c s="1" r="S103"/>
       <c s="2" r="T103"/>
     </row>
-    <row customHeight="1" r="104" ht="11.25">
-      <c s="1" r="A104"/>
-      <c s="1" r="B104"/>
-      <c s="1" r="C104"/>
-      <c s="1" r="D104"/>
-      <c s="1" r="E104"/>
-      <c s="1" r="F104"/>
-      <c s="1" r="G104"/>
-      <c s="1" r="H104"/>
-      <c s="1" r="I104"/>
-      <c s="1" r="J104"/>
-      <c s="1" r="K104"/>
-      <c s="1" r="L104"/>
-      <c s="1" r="M104"/>
-      <c s="1" r="N104"/>
-      <c s="1" r="O104"/>
-      <c s="1" r="P104"/>
-      <c s="1" r="Q104"/>
-      <c s="1" r="R104"/>
-      <c s="1" r="S104"/>
-      <c s="2" r="T104"/>
-    </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A51:T51"/>
+    <mergeCell ref="A70:T70"/>
+    <mergeCell ref="A71:T71"/>
+    <mergeCell ref="A89:T89"/>
+    <mergeCell ref="A90:T90"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A14:A15"/>
@@ -7026,37 +7030,13 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A11:T11"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:T52"/>
-    <mergeCell ref="A71:T71"/>
-    <mergeCell ref="A72:T72"/>
-    <mergeCell ref="A90:T90"/>
-    <mergeCell ref="A91:T91"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/spreadsheets/DBex.xlsx
+++ b/spreadsheets/DBex.xlsx
@@ -1930,10 +1930,10 @@
     <t>81-Антрацит</t>
   </si>
   <si>
-    <t>В1-Белый</t>
-  </si>
-  <si>
-    <t>В-Белый</t>
+    <t>B1-Белый</t>
+  </si>
+  <si>
+    <t>B-Белый</t>
   </si>
   <si>
     <t>01-Белый/Бело-ледяной</t>
@@ -1972,10 +1972,10 @@
     <t>82-Слоновая кость</t>
   </si>
   <si>
-    <t>С2-Слоновая кость</t>
-  </si>
-  <si>
-    <t>С-Слоновая кость</t>
+    <t>C2-Слоновая кость</t>
+  </si>
+  <si>
+    <t>C-Слоновая кость</t>
   </si>
   <si>
     <t>03-Белый/Белый</t>
@@ -2464,10 +2464,10 @@
     <t>811-Белое стекло</t>
   </si>
   <si>
-    <t>В1-Белый</t>
-  </si>
-  <si>
-    <t>В-Белый</t>
+    <t>B1-Белый</t>
+  </si>
+  <si>
+    <t>B-Белый</t>
   </si>
   <si>
     <t>01-Белый/Бело-ледяной</t>
@@ -2509,7 +2509,7 @@
     <t>C1-Кремовый</t>
   </si>
   <si>
-    <t>С-Слоновая кость</t>
+    <t>C-Слоновая кость</t>
   </si>
   <si>
     <t>03-Белый/Белый</t>
@@ -2548,7 +2548,7 @@
     <t>823-101-Золото</t>
   </si>
   <si>
-    <t>С2 -Слоновая кость </t>
+    <t>C2 -Слоновая кость </t>
   </si>
   <si>
     <t>S-Серый</t>
@@ -2971,6 +2971,9 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment horizontal="left"/>
     </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment/>
+    </xf>
     <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2983,9 +2986,6 @@
     <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2995,7 +2995,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:absoluteAnchor>
     <xdr:pos y="809625" x="12334875"/>
@@ -5392,10 +5392,10 @@
       <c t="s" s="1" r="N53">
         <v>638</v>
       </c>
-      <c t="s" s="1" r="O53">
+      <c t="s" s="33" r="O53">
         <v>639</v>
       </c>
-      <c t="s" s="1" r="P53">
+      <c t="s" s="33" r="P53">
         <v>640</v>
       </c>
       <c t="s" s="1" r="Q53">
@@ -5442,10 +5442,10 @@
       <c t="s" s="1" r="N54">
         <v>652</v>
       </c>
-      <c t="s" s="1" r="O54">
+      <c t="s" s="33" r="O54">
         <v>653</v>
       </c>
-      <c t="s" s="1" r="P54">
+      <c t="s" s="33" r="P54">
         <v>654</v>
       </c>
       <c t="s" s="1" r="Q54">
@@ -5757,31 +5757,31 @@
       <c t="s" s="7" r="A64">
         <v>706</v>
       </c>
-      <c s="33" r="B64"/>
-      <c s="33" r="C64"/>
-      <c s="33" r="D64"/>
-      <c s="33" r="E64"/>
-      <c s="33" r="F64"/>
-      <c s="33" r="G64"/>
-      <c s="33" r="H64"/>
-      <c s="33" r="I64"/>
-      <c s="33" r="J64"/>
-      <c s="33" r="K64"/>
-      <c s="33" r="L64"/>
-      <c s="33" r="M64"/>
-      <c s="33" r="N64"/>
-      <c s="33" r="O64"/>
-      <c s="33" r="P64"/>
-      <c s="33" r="Q64"/>
-      <c s="33" r="R64"/>
-      <c s="33" r="S64"/>
-      <c s="33" r="T64"/>
+      <c s="34" r="B64"/>
+      <c s="34" r="C64"/>
+      <c s="34" r="D64"/>
+      <c s="34" r="E64"/>
+      <c s="34" r="F64"/>
+      <c s="34" r="G64"/>
+      <c s="34" r="H64"/>
+      <c s="34" r="I64"/>
+      <c s="34" r="J64"/>
+      <c s="34" r="K64"/>
+      <c s="34" r="L64"/>
+      <c s="34" r="M64"/>
+      <c s="34" r="N64"/>
+      <c s="34" r="O64"/>
+      <c s="34" r="P64"/>
+      <c s="34" r="Q64"/>
+      <c s="34" r="R64"/>
+      <c s="34" r="S64"/>
+      <c s="34" r="T64"/>
     </row>
     <row customHeight="1" r="65" ht="12.75">
-      <c t="s" s="34" r="A65">
+      <c t="s" s="35" r="A65">
         <v>707</v>
       </c>
-      <c t="s" s="35" r="B65">
+      <c t="s" s="36" r="B65">
         <v>708</v>
       </c>
       <c t="s" s="9" r="C65">
@@ -5840,10 +5840,10 @@
       </c>
     </row>
     <row customHeight="1" r="66" ht="12.75">
-      <c t="s" s="34" r="A66">
+      <c t="s" s="35" r="A66">
         <v>727</v>
       </c>
-      <c t="s" s="35" r="B66">
+      <c t="s" s="36" r="B66">
         <v>728</v>
       </c>
       <c t="s" s="9" r="C66">
@@ -5902,10 +5902,10 @@
       </c>
     </row>
     <row customHeight="1" r="67" ht="12.75">
-      <c t="s" s="34" r="A67">
+      <c t="s" s="35" r="A67">
         <v>747</v>
       </c>
-      <c t="s" s="35" r="B67">
+      <c t="s" s="36" r="B67">
         <v>748</v>
       </c>
       <c t="s" s="9" r="C67">
@@ -5964,10 +5964,10 @@
       </c>
     </row>
     <row customHeight="1" r="68" ht="12.75">
-      <c t="s" s="34" r="A68">
+      <c t="s" s="35" r="A68">
         <v>767</v>
       </c>
-      <c t="s" s="35" r="B68">
+      <c t="s" s="36" r="B68">
         <v>768</v>
       </c>
       <c t="s" s="9" r="C68">
@@ -6026,10 +6026,10 @@
       </c>
     </row>
     <row customHeight="1" r="69" ht="12.75">
-      <c t="s" s="34" r="A69">
+      <c t="s" s="35" r="A69">
         <v>787</v>
       </c>
-      <c t="s" s="35" r="B69">
+      <c t="s" s="36" r="B69">
         <v>788</v>
       </c>
       <c t="s" s="9" r="C69">
@@ -6128,10 +6128,10 @@
       <c t="s" s="1" r="N72">
         <v>816</v>
       </c>
-      <c t="s" s="1" r="O72">
+      <c t="s" s="33" r="O72">
         <v>817</v>
       </c>
-      <c t="s" s="1" r="P72">
+      <c t="s" s="33" r="P72">
         <v>818</v>
       </c>
       <c t="s" s="1" r="Q72">
@@ -6159,7 +6159,7 @@
       <c t="s" s="1" r="G73">
         <v>824</v>
       </c>
-      <c t="s" s="36" r="H73">
+      <c t="s" s="37" r="H73">
         <v>825</v>
       </c>
       <c t="s" s="1" r="I73">
@@ -6181,7 +6181,7 @@
       <c t="s" s="1" r="O73">
         <v>831</v>
       </c>
-      <c t="s" s="1" r="P73">
+      <c t="s" s="33" r="P73">
         <v>832</v>
       </c>
       <c t="s" s="1" r="Q73">
@@ -6228,7 +6228,7 @@
       <c t="s" s="1" r="N74">
         <v>844</v>
       </c>
-      <c t="s" s="1" r="O74">
+      <c t="s" s="33" r="O74">
         <v>845</v>
       </c>
       <c t="s" s="1" r="P74">
@@ -6538,8 +6538,8 @@
       <c s="2" r="T82"/>
     </row>
     <row customHeight="1" r="83" ht="11.25">
-      <c s="37" r="A83"/>
-      <c s="37" r="B83"/>
+      <c s="38" r="A83"/>
+      <c s="38" r="B83"/>
       <c s="1" r="C83"/>
       <c s="1" r="D83"/>
       <c s="1" r="E83"/>
@@ -6562,8 +6562,8 @@
       <c s="2" r="T83"/>
     </row>
     <row customHeight="1" r="84" ht="12.75">
-      <c s="37" r="A84"/>
-      <c s="37" r="B84"/>
+      <c s="38" r="A84"/>
+      <c s="38" r="B84"/>
       <c s="1" r="C84"/>
       <c s="1" r="D84"/>
       <c s="1" r="E84"/>
@@ -6628,31 +6628,31 @@
       <c s="2" r="T86"/>
     </row>
     <row customHeight="1" r="87" ht="11.25">
-      <c t="s" s="38" r="A87">
+      <c t="s" s="39" r="A87">
         <v>909</v>
       </c>
-      <c s="33" r="B87"/>
-      <c s="33" r="C87"/>
-      <c s="33" r="D87"/>
-      <c s="33" r="E87"/>
-      <c s="33" r="F87"/>
-      <c s="33" r="G87"/>
-      <c s="33" r="H87"/>
-      <c s="33" r="I87"/>
-      <c s="33" r="J87"/>
-      <c s="33" r="K87"/>
-      <c s="33" r="L87"/>
-      <c s="33" r="M87"/>
-      <c s="33" r="N87"/>
-      <c s="33" r="O87"/>
-      <c s="33" r="P87"/>
-      <c s="33" r="Q87"/>
-      <c s="33" r="R87"/>
-      <c s="33" r="S87"/>
-      <c s="33" r="T87"/>
+      <c s="34" r="B87"/>
+      <c s="34" r="C87"/>
+      <c s="34" r="D87"/>
+      <c s="34" r="E87"/>
+      <c s="34" r="F87"/>
+      <c s="34" r="G87"/>
+      <c s="34" r="H87"/>
+      <c s="34" r="I87"/>
+      <c s="34" r="J87"/>
+      <c s="34" r="K87"/>
+      <c s="34" r="L87"/>
+      <c s="34" r="M87"/>
+      <c s="34" r="N87"/>
+      <c s="34" r="O87"/>
+      <c s="34" r="P87"/>
+      <c s="34" r="Q87"/>
+      <c s="34" r="R87"/>
+      <c s="34" r="S87"/>
+      <c s="34" r="T87"/>
     </row>
     <row customHeight="1" r="88" ht="11.25">
-      <c t="s" s="39" r="A88">
+      <c t="s" s="33" r="A88">
         <v>910</v>
       </c>
       <c t="s" s="1" r="B88">

--- a/spreadsheets/DBex.xlsx
+++ b/spreadsheets/DBex.xlsx
@@ -1891,7 +1891,7 @@
     <t>N2271.9</t>
   </si>
   <si>
-    <t>Параметр X1 - Цвет</t>
+    <t>Параметр X1 - Цвет вставки</t>
   </si>
   <si>
     <t>92-Слоновая кость</t>
@@ -2425,7 +2425,7 @@
     <t>3901F-A00150 X2</t>
   </si>
   <si>
-    <t>Параметр X2 - Цвет</t>
+    <t>Параметр X2 - Цвет рамки</t>
   </si>
   <si>
     <t>91-Серый энтре</t>
@@ -2879,7 +2879,7 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
@@ -2986,6 +2986,9 @@
     <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
       <alignment horizontal="left"/>
     </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -6683,7 +6686,7 @@
       <c s="31" r="A89"/>
     </row>
     <row customHeight="1" r="90" ht="12.75">
-      <c t="s" s="32" r="A90">
+      <c t="s" s="40" r="A90">
         <v>913</v>
       </c>
     </row>

--- a/spreadsheets/DBex.xlsx
+++ b/spreadsheets/DBex.xlsx
@@ -61,21 +61,6 @@
     <t>ABB</t>
   </si>
   <si>
-    <t>ABB</t>
-  </si>
-  <si>
-    <t>ABB</t>
-  </si>
-  <si>
-    <t>ABB</t>
-  </si>
-  <si>
-    <t>ABB</t>
-  </si>
-  <si>
-    <t>ABB</t>
-  </si>
-  <si>
     <t>Страна</t>
   </si>
   <si>
@@ -115,25 +100,10 @@
     <t>Германия</t>
   </si>
   <si>
-    <t>Чехия</t>
-  </si>
-  <si>
-    <t>Чехия</t>
-  </si>
-  <si>
-    <t>Чехия</t>
-  </si>
-  <si>
-    <t>Чехия</t>
-  </si>
-  <si>
-    <t>Чехия</t>
-  </si>
-  <si>
     <t>Испания</t>
   </si>
   <si>
-    <t>Наименование/ Серия</t>
+    <t>Наименование/Серия</t>
   </si>
   <si>
     <t>Basic 55</t>
@@ -172,21 +142,6 @@
     <t>Carat</t>
   </si>
   <si>
-    <t>Swing</t>
-  </si>
-  <si>
-    <t>Tango</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Time Arbo</t>
-  </si>
-  <si>
     <t>Zenit</t>
   </si>
   <si>
@@ -253,21 +208,6 @@
     <t>20 EUC-X1</t>
   </si>
   <si>
-    <t>5518G-A03449 X1</t>
-  </si>
-  <si>
-    <t>5518A-A3459 X1X</t>
-  </si>
-  <si>
-    <t>5518E-A03459 X1</t>
-  </si>
-  <si>
-    <t>5518E-A03459 X1</t>
-  </si>
-  <si>
-    <t>5518E-A03459 X1</t>
-  </si>
-  <si>
     <t>N2288 X1</t>
   </si>
   <si>
@@ -319,18 +259,6 @@
     <t>20 EUK-X1</t>
   </si>
   <si>
-    <t>5518A-A3499 X1X</t>
-  </si>
-  <si>
-    <t>5518E-A03499 X1</t>
-  </si>
-  <si>
-    <t>5518E-A03499 X1</t>
-  </si>
-  <si>
-    <t>5518E-A03499 X1</t>
-  </si>
-  <si>
     <t>N2288.1 X1</t>
   </si>
   <si>
@@ -343,21 +271,6 @@
     <t>Розетка двойная с заземлением</t>
   </si>
   <si>
-    <t>5512J-C03459 X1</t>
-  </si>
-  <si>
-    <t>5512A-3459 X1</t>
-  </si>
-  <si>
-    <t>5512E-C03459 X1</t>
-  </si>
-  <si>
-    <t>5512F-C03459 X1</t>
-  </si>
-  <si>
-    <t>5512F-C03459 X1</t>
-  </si>
-  <si>
     <t>Socket4</t>
   </si>
   <si>
@@ -418,21 +331,6 @@
     <t>5011-A3503</t>
   </si>
   <si>
-    <t>5011-A3503</t>
-  </si>
-  <si>
-    <t>5011-A3503</t>
-  </si>
-  <si>
-    <t>5011-A3503</t>
-  </si>
-  <si>
-    <t>5011-A3503</t>
-  </si>
-  <si>
-    <t>5011-A3503</t>
-  </si>
-  <si>
     <t>8150</t>
   </si>
   <si>
@@ -472,21 +370,6 @@
     <t>1743-X1</t>
   </si>
   <si>
-    <t>5011G-A00300 X1</t>
-  </si>
-  <si>
-    <t>5011A-A00300 X1</t>
-  </si>
-  <si>
-    <t>5011E-A00300 X1</t>
-  </si>
-  <si>
-    <t>5011E-A00300 X1</t>
-  </si>
-  <si>
-    <t>5011E-A00300 X1</t>
-  </si>
-  <si>
     <t>N2250.8 X1</t>
   </si>
   <si>
@@ -532,21 +415,6 @@
     <t>0213-507</t>
   </si>
   <si>
-    <t>5013U-A01103</t>
-  </si>
-  <si>
-    <t>5013U-A01103</t>
-  </si>
-  <si>
-    <t>5013U-A01103</t>
-  </si>
-  <si>
-    <t>5013U-A01103</t>
-  </si>
-  <si>
-    <t>5013U-A01103</t>
-  </si>
-  <si>
     <t>N2217.6 X1</t>
   </si>
   <si>
@@ -586,21 +454,6 @@
     <t>1803-X1</t>
   </si>
   <si>
-    <t>5013G-A00213 X1</t>
-  </si>
-  <si>
-    <t>5013A-A00213 X1</t>
-  </si>
-  <si>
-    <t>5013E-A00213 X1</t>
-  </si>
-  <si>
-    <t>5013E-A00213 X1</t>
-  </si>
-  <si>
-    <t>5013E-A00213 X1</t>
-  </si>
-  <si>
     <t>N2271.9</t>
   </si>
   <si>
@@ -646,21 +499,6 @@
     <t>0220/12-507</t>
   </si>
   <si>
-    <t>1228.01 RJ 12-6 *2шт</t>
-  </si>
-  <si>
-    <t>5013U-A01105</t>
-  </si>
-  <si>
-    <t>5013U-A01105</t>
-  </si>
-  <si>
-    <t>5013U-A01105</t>
-  </si>
-  <si>
-    <t>5013U-A01105</t>
-  </si>
-  <si>
     <t>0211/11-507*2шт</t>
   </si>
   <si>
@@ -700,21 +538,6 @@
     <t>1803-02-X1</t>
   </si>
   <si>
-    <t>5014G-A01018 X1</t>
-  </si>
-  <si>
-    <t>5013A-A00215 X1</t>
-  </si>
-  <si>
-    <t>5013E-A00215 X1</t>
-  </si>
-  <si>
-    <t>5013E-A00215 X1</t>
-  </si>
-  <si>
-    <t>5013E-A00215 X1</t>
-  </si>
-  <si>
     <t>U-2018*2шт</t>
   </si>
   <si>
@@ -766,21 +589,6 @@
     <t>0220-507</t>
   </si>
   <si>
-    <t>1375189-1</t>
-  </si>
-  <si>
-    <t>1375189-1</t>
-  </si>
-  <si>
-    <t>1375189-1</t>
-  </si>
-  <si>
-    <t>1375189-1</t>
-  </si>
-  <si>
-    <t>1375189-1</t>
-  </si>
-  <si>
     <t>0211/11-507</t>
   </si>
   <si>
@@ -820,39 +628,9 @@
     <t>1803-X1</t>
   </si>
   <si>
-    <t>5014G-A01018 X1</t>
-  </si>
-  <si>
-    <t>5014A-A100 X1</t>
-  </si>
-  <si>
-    <t>5014E-A00100 X1</t>
-  </si>
-  <si>
-    <t>5014E-A00100 X1</t>
-  </si>
-  <si>
-    <t>5014E-A00100 X1</t>
-  </si>
-  <si>
     <t>U-2018</t>
   </si>
   <si>
-    <t>1116412-3</t>
-  </si>
-  <si>
-    <t>5014A-B1017</t>
-  </si>
-  <si>
-    <t>5014E-B01017</t>
-  </si>
-  <si>
-    <t>5014E-B01017</t>
-  </si>
-  <si>
-    <t>5014E-B01017</t>
-  </si>
-  <si>
     <t>N2218.1 X1</t>
   </si>
   <si>
@@ -901,21 +679,6 @@
     <t>2000/1 US-500</t>
   </si>
   <si>
-    <t>3557-A01440</t>
-  </si>
-  <si>
-    <t>3558-A01440</t>
-  </si>
-  <si>
-    <t>3559-A01445</t>
-  </si>
-  <si>
-    <t>3559-A01445</t>
-  </si>
-  <si>
-    <t>3559-A01445</t>
-  </si>
-  <si>
     <t>N2201 X1</t>
   </si>
   <si>
@@ -952,21 +715,6 @@
     <t>1786-X1</t>
   </si>
   <si>
-    <t>3557G-A00651 X1</t>
-  </si>
-  <si>
-    <t>3558A-A651 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00651 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00651 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00651 X1</t>
-  </si>
-  <si>
     <t>N2271.9</t>
   </si>
   <si>
@@ -1012,21 +760,6 @@
     <t>2000/6 US-507</t>
   </si>
   <si>
-    <t>3557-A06440</t>
-  </si>
-  <si>
-    <t>3558-A06440</t>
-  </si>
-  <si>
-    <t>3559-A06445</t>
-  </si>
-  <si>
-    <t>3559-A06445</t>
-  </si>
-  <si>
-    <t>3559-A06445</t>
-  </si>
-  <si>
     <t>N2202 X1</t>
   </si>
   <si>
@@ -1063,21 +796,6 @@
     <t>1786-X1</t>
   </si>
   <si>
-    <t>3557G-A00651 X1</t>
-  </si>
-  <si>
-    <t>3558A-A651 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00651 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00651 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00651 X1</t>
-  </si>
-  <si>
     <t>N2271.9</t>
   </si>
   <si>
@@ -1123,21 +841,6 @@
     <t>2000/5 US-507</t>
   </si>
   <si>
-    <t>3557-A05440</t>
-  </si>
-  <si>
-    <t>3558-A05440</t>
-  </si>
-  <si>
-    <t>3559-A05445</t>
-  </si>
-  <si>
-    <t>3559-A05445</t>
-  </si>
-  <si>
-    <t>3559-A05445</t>
-  </si>
-  <si>
     <t>N2101 X1 * 2шт.</t>
   </si>
   <si>
@@ -1174,21 +877,6 @@
     <t>1785-X1</t>
   </si>
   <si>
-    <t>3557G-A00652 X1</t>
-  </si>
-  <si>
-    <t>3558A-A652 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00652 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00652 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00652 X1</t>
-  </si>
-  <si>
     <t>N2271.9</t>
   </si>
   <si>
@@ -1234,21 +922,6 @@
     <t>2000/6/6 US-101-500</t>
   </si>
   <si>
-    <t>3557-A52440</t>
-  </si>
-  <si>
-    <t>3558-A52440</t>
-  </si>
-  <si>
-    <t>3558-A52440</t>
-  </si>
-  <si>
-    <t>3558-A52440</t>
-  </si>
-  <si>
-    <t>3558-A52440</t>
-  </si>
-  <si>
     <t>N2102 X1 * 2шт.</t>
   </si>
   <si>
@@ -1285,21 +958,6 @@
     <t>1785-X1</t>
   </si>
   <si>
-    <t>3557G-A00652 X1</t>
-  </si>
-  <si>
-    <t>3558A-A652 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00652 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00652 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00652 X1</t>
-  </si>
-  <si>
     <t>N2271.9</t>
   </si>
   <si>
@@ -1345,21 +1003,6 @@
     <t>2000/1 US-500</t>
   </si>
   <si>
-    <t>3557-A01440</t>
-  </si>
-  <si>
-    <t>3558-A01440</t>
-  </si>
-  <si>
-    <t>3559-A01445</t>
-  </si>
-  <si>
-    <t>3559-A01445</t>
-  </si>
-  <si>
-    <t>3559-A01445</t>
-  </si>
-  <si>
     <t>N2201 X1</t>
   </si>
   <si>
@@ -1396,21 +1039,6 @@
     <t>1789-X1</t>
   </si>
   <si>
-    <t>3557G-A00653 X1</t>
-  </si>
-  <si>
-    <t>3558A-A653 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00653 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00653 X1</t>
-  </si>
-  <si>
-    <t>3558E-A00653 X1</t>
-  </si>
-  <si>
     <t>N2191 VD</t>
   </si>
   <si>
@@ -1444,21 +1072,6 @@
     <t>3916-12221</t>
   </si>
   <si>
-    <t>3916-12221</t>
-  </si>
-  <si>
-    <t>3916-12221</t>
-  </si>
-  <si>
-    <t>3916-12221</t>
-  </si>
-  <si>
-    <t>3916-12221</t>
-  </si>
-  <si>
-    <t>3916-12221</t>
-  </si>
-  <si>
     <t>N2271.9</t>
   </si>
   <si>
@@ -1480,36 +1093,6 @@
     <t>2200 UJ-212</t>
   </si>
   <si>
-    <t>6514-0-0111</t>
-  </si>
-  <si>
-    <t>6514-0-0111</t>
-  </si>
-  <si>
-    <t>6514-0-0111</t>
-  </si>
-  <si>
-    <t>6514-0-0111</t>
-  </si>
-  <si>
-    <t>6514-0-0111</t>
-  </si>
-  <si>
-    <t>3294G-A00125 X1</t>
-  </si>
-  <si>
-    <t>3294A-A123 X1</t>
-  </si>
-  <si>
-    <t>3294E-A00123 X1</t>
-  </si>
-  <si>
-    <t>3294E-A00123 X1</t>
-  </si>
-  <si>
-    <t>3294E-A00123 X1</t>
-  </si>
-  <si>
     <t>Dimmer2</t>
   </si>
   <si>
@@ -1552,21 +1135,6 @@
     <t>2250 U-507</t>
   </si>
   <si>
-    <t>2250 U-507</t>
-  </si>
-  <si>
-    <t>2250 U-507</t>
-  </si>
-  <si>
-    <t>2250 U-507</t>
-  </si>
-  <si>
-    <t>2250 U-507</t>
-  </si>
-  <si>
-    <t>2250 U-507</t>
-  </si>
-  <si>
     <t>N2260.2 X1</t>
   </si>
   <si>
@@ -1606,21 +1174,6 @@
     <t>6540-X1-102</t>
   </si>
   <si>
-    <t>3294G-A00125 X1</t>
-  </si>
-  <si>
-    <t>3294A-A123 X1</t>
-  </si>
-  <si>
-    <t>3294E-A00123 X1</t>
-  </si>
-  <si>
-    <t>3294E-A00123 X1</t>
-  </si>
-  <si>
-    <t>3294E-A00123 X1</t>
-  </si>
-  <si>
     <t>N2271.9</t>
   </si>
   <si>
@@ -1663,18 +1216,6 @@
     <t>6560 U-101</t>
   </si>
   <si>
-    <t>6560 U-101</t>
-  </si>
-  <si>
-    <t>6560 U-101</t>
-  </si>
-  <si>
-    <t>6560 U-101</t>
-  </si>
-  <si>
-    <t>6560 U-101</t>
-  </si>
-  <si>
     <t>N2260 X1</t>
   </si>
   <si>
@@ -1711,18 +1252,6 @@
     <t>6543-X1-101</t>
   </si>
   <si>
-    <t>3299A-A100 X1</t>
-  </si>
-  <si>
-    <t>3299E-A00100 X1</t>
-  </si>
-  <si>
-    <t>3299E-A00100 X1</t>
-  </si>
-  <si>
-    <t>3299E-A00100 X1</t>
-  </si>
-  <si>
     <t>N2271.9</t>
   </si>
   <si>
@@ -1837,21 +1366,6 @@
     <t>6804 U-101-500</t>
   </si>
   <si>
-    <t>3299G-A22180 X1</t>
-  </si>
-  <si>
-    <t>3299A-A22100 X1</t>
-  </si>
-  <si>
-    <t>3299E-A22100 X1</t>
-  </si>
-  <si>
-    <t>3299E-A22100 X1</t>
-  </si>
-  <si>
-    <t>3299E-A22100 X1</t>
-  </si>
-  <si>
     <t>N2241 X1</t>
   </si>
   <si>
@@ -1930,21 +1444,6 @@
     <t>81-Антрацит</t>
   </si>
   <si>
-    <t>B1-Белый</t>
-  </si>
-  <si>
-    <t>B-Белый</t>
-  </si>
-  <si>
-    <t>01-Белый/Бело-ледяной</t>
-  </si>
-  <si>
-    <t>01-Белый/Бело-ледяной</t>
-  </si>
-  <si>
-    <t>01-Белый/Бело-ледяной</t>
-  </si>
-  <si>
     <t>BL-альпийский белый</t>
   </si>
   <si>
@@ -1972,21 +1471,6 @@
     <t>82-Слоновая кость</t>
   </si>
   <si>
-    <t>C2-Слоновая кость</t>
-  </si>
-  <si>
-    <t>C-Слоновая кость</t>
-  </si>
-  <si>
-    <t>03-Белый/Белый</t>
-  </si>
-  <si>
-    <t>03-Белый/Белый</t>
-  </si>
-  <si>
-    <t>03-Белый/Белый</t>
-  </si>
-  <si>
     <t>AN-Антрацит</t>
   </si>
   <si>
@@ -2011,18 +1495,6 @@
     <t>84-Белый</t>
   </si>
   <si>
-    <t>S-Серый</t>
-  </si>
-  <si>
-    <t>04-Белый/Серо-ледяной</t>
-  </si>
-  <si>
-    <t>08-Титан/Титан</t>
-  </si>
-  <si>
-    <t>08-Титан/Титан</t>
-  </si>
-  <si>
     <t>PL-Серебро</t>
   </si>
   <si>
@@ -2044,18 +1516,6 @@
     <t>774-Белый бархат</t>
   </si>
   <si>
-    <t>D-Бежевый</t>
-  </si>
-  <si>
-    <t>07-Карамель/Серо-ледяной</t>
-  </si>
-  <si>
-    <t>32-Серебристый металлик</t>
-  </si>
-  <si>
-    <t>32-Серебристый металлик</t>
-  </si>
-  <si>
     <t>96-Белый шале</t>
   </si>
   <si>
@@ -2074,18 +1534,6 @@
     <t>775-Черный бархат</t>
   </si>
   <si>
-    <t>H-Тобакко</t>
-  </si>
-  <si>
-    <t>21-Слоновая кость/Бело-ледяной</t>
-  </si>
-  <si>
-    <t>33-Шампань металлик</t>
-  </si>
-  <si>
-    <t>33-Шампань металлик</t>
-  </si>
-  <si>
     <t>260-Палладий</t>
   </si>
   <si>
@@ -2098,18 +1546,6 @@
     <t>777 -Ежевика</t>
   </si>
   <si>
-    <t>N-Черный</t>
-  </si>
-  <si>
-    <t>22-Агава/Бело-ледяной</t>
-  </si>
-  <si>
-    <t>34-Черный металлик</t>
-  </si>
-  <si>
-    <t>34-Черный металлик</t>
-  </si>
-  <si>
     <t>266-Титан</t>
   </si>
   <si>
@@ -2119,18 +1555,6 @@
     <t>783-Серебристый металлик</t>
   </si>
   <si>
-    <t>S2-Дымчатый</t>
-  </si>
-  <si>
-    <t>24-Карминовый/Серо-ледяной</t>
-  </si>
-  <si>
-    <t>R2-Кирпичный</t>
-  </si>
-  <si>
-    <t>25-Капучино</t>
-  </si>
-  <si>
     <t>Группа устройств: Рамка</t>
   </si>
   <si>
@@ -2176,21 +1600,6 @@
     <t>1721-X2</t>
   </si>
   <si>
-    <t>3901J-A00010 X2</t>
-  </si>
-  <si>
-    <t>3901A-B10 X2</t>
-  </si>
-  <si>
-    <t>3901E-A00110 X2</t>
-  </si>
-  <si>
-    <t>3901F-A00110 X2</t>
-  </si>
-  <si>
-    <t>3901F-A50110 X2</t>
-  </si>
-  <si>
     <t>N2271 X2</t>
   </si>
   <si>
@@ -2236,21 +1645,6 @@
     <t>1722-X2</t>
   </si>
   <si>
-    <t>3901J-A00020 X2</t>
-  </si>
-  <si>
-    <t>3901A-B20 X2</t>
-  </si>
-  <si>
-    <t>3901E-A00120 X2</t>
-  </si>
-  <si>
-    <t>3901F-A00120 X2</t>
-  </si>
-  <si>
-    <t>3901F-A50120 X2</t>
-  </si>
-  <si>
     <t>N2272 X2</t>
   </si>
   <si>
@@ -2296,21 +1690,6 @@
     <t>1723-X2</t>
   </si>
   <si>
-    <t>3901J-A00030 X2</t>
-  </si>
-  <si>
-    <t>3901A-B30 X2</t>
-  </si>
-  <si>
-    <t>3901E-A00130 X2</t>
-  </si>
-  <si>
-    <t>3901F-A00130 X2</t>
-  </si>
-  <si>
-    <t>3901F-A50130 X2</t>
-  </si>
-  <si>
     <t>N2273 X2</t>
   </si>
   <si>
@@ -2356,21 +1735,6 @@
     <t>1724-X2</t>
   </si>
   <si>
-    <t>3901J-A00040 X2</t>
-  </si>
-  <si>
-    <t>3901A-B40 X2</t>
-  </si>
-  <si>
-    <t>3901E-A00140 X2</t>
-  </si>
-  <si>
-    <t>3901F-A00140 X2</t>
-  </si>
-  <si>
-    <t>3901F-A50140 X2</t>
-  </si>
-  <si>
     <t>N2274 X2</t>
   </si>
   <si>
@@ -2413,18 +1777,6 @@
     <t>1725-X2</t>
   </si>
   <si>
-    <t>3901J-A00050 X2</t>
-  </si>
-  <si>
-    <t>3901A-B50 X2</t>
-  </si>
-  <si>
-    <t>3901E-A00150 X2</t>
-  </si>
-  <si>
-    <t>3901F-A00150 X2</t>
-  </si>
-  <si>
     <t>Параметр X2 - Цвет рамки</t>
   </si>
   <si>
@@ -2464,21 +1816,6 @@
     <t>811-Белое стекло</t>
   </si>
   <si>
-    <t>B1-Белый</t>
-  </si>
-  <si>
-    <t>B-Белый</t>
-  </si>
-  <si>
-    <t>01-Белый/Бело-ледяной</t>
-  </si>
-  <si>
-    <t>01-Белый/Бело-ледяной</t>
-  </si>
-  <si>
-    <t>50-Натуральный Бук</t>
-  </si>
-  <si>
     <t>BL-альпийский белый</t>
   </si>
   <si>
@@ -2506,21 +1843,6 @@
     <t>821-Бронза</t>
   </si>
   <si>
-    <t>C1-Кремовый</t>
-  </si>
-  <si>
-    <t>C-Слоновая кость</t>
-  </si>
-  <si>
-    <t>03-Белый/Белый</t>
-  </si>
-  <si>
-    <t>03-Белый/Белый</t>
-  </si>
-  <si>
-    <t>51-Ольха</t>
-  </si>
-  <si>
     <t>AN-Антрацит</t>
   </si>
   <si>
@@ -2548,21 +1870,6 @@
     <t>823-101-Золото</t>
   </si>
   <si>
-    <t>C2 -Слоновая кость </t>
-  </si>
-  <si>
-    <t>S-Серый</t>
-  </si>
-  <si>
-    <t>04-Белый/Серо-ледяной</t>
-  </si>
-  <si>
-    <t>08-Титан/Титан</t>
-  </si>
-  <si>
-    <t>52-Вишня</t>
-  </si>
-  <si>
     <t>PL-Серебро</t>
   </si>
   <si>
@@ -2587,21 +1894,6 @@
     <t>825-Черное стекло</t>
   </si>
   <si>
-    <t>C3-Мокка</t>
-  </si>
-  <si>
-    <t>D-Бежевый</t>
-  </si>
-  <si>
-    <t>07-Карамель/Серо-ледяной</t>
-  </si>
-  <si>
-    <t>32-Серебристый металлик</t>
-  </si>
-  <si>
-    <t>53-Крсное дерево</t>
-  </si>
-  <si>
     <t>CV-Шампань</t>
   </si>
   <si>
@@ -2626,21 +1918,6 @@
     <t>826-101-Хром</t>
   </si>
   <si>
-    <t>S1-Серый</t>
-  </si>
-  <si>
-    <t>H-Тобакко</t>
-  </si>
-  <si>
-    <t>21-Слоновая кость/Бело-ледяной</t>
-  </si>
-  <si>
-    <t>33-Шампань металлик</t>
-  </si>
-  <si>
-    <t>54-Венге</t>
-  </si>
-  <si>
     <t>CB-Белое стекло</t>
   </si>
   <si>
@@ -2665,18 +1942,6 @@
     <t>860-Сталь</t>
   </si>
   <si>
-    <t>R3-Персиковый</t>
-  </si>
-  <si>
-    <t>N-Черный</t>
-  </si>
-  <si>
-    <t>22-Агава/Бело-ледяной</t>
-  </si>
-  <si>
-    <t>34-Черный металлик</t>
-  </si>
-  <si>
     <t>CN-Черное стекло</t>
   </si>
   <si>
@@ -2692,15 +1957,6 @@
     <t>775-Черный бархат</t>
   </si>
   <si>
-    <t>08-Титан</t>
-  </si>
-  <si>
-    <t>S2-Дымчатый</t>
-  </si>
-  <si>
-    <t>24-Карминовый/Серо-ледяной</t>
-  </si>
-  <si>
     <t>WG-Натральное Венге</t>
   </si>
   <si>
@@ -2708,15 +1964,6 @@
   </si>
   <si>
     <t>291-Серый энтре</t>
-  </si>
-  <si>
-    <t>33-Шампань металлик</t>
-  </si>
-  <si>
-    <t>R2-Кирпичный</t>
-  </si>
-  <si>
-    <t>25-Капучино</t>
   </si>
   <si>
     <t>OX-Натуральная сталь</t>
@@ -2879,7 +2126,7 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
@@ -2890,6 +2137,9 @@
     </xf>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
@@ -2912,14 +2162,12 @@
     <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
     <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
     <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2971,9 +2219,6 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment/>
-    </xf>
     <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2985,6 +2230,9 @@
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4"/>
     <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
       <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment horizontal="left"/>
@@ -3040,12 +2288,7 @@
     <col min="3" customWidth="1" max="11" width="20.57"/>
     <col min="12" customWidth="1" max="12" width="24.71"/>
     <col min="13" customWidth="1" max="14" width="20.57"/>
-    <col min="15" customWidth="1" max="15" width="23.0"/>
-    <col min="16" customWidth="1" max="16" width="17.43"/>
-    <col min="17" customWidth="1" max="17" width="29.86"/>
-    <col min="18" customWidth="1" max="18" width="31.29"/>
-    <col min="19" customWidth="1" max="19" width="27.0"/>
-    <col min="20" customWidth="1" max="20" width="22.14"/>
+    <col min="15" customWidth="1" max="15" width="22.14"/>
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="12.75">
@@ -3066,12 +2309,7 @@
       <c t="s" s="2" r="N1">
         <v>1</v>
       </c>
-      <c s="1" r="O1"/>
-      <c s="1" r="P1"/>
-      <c s="1" r="Q1"/>
-      <c s="1" r="R1"/>
-      <c s="1" r="S1"/>
-      <c s="2" r="T1"/>
+      <c s="2" r="O1"/>
     </row>
     <row customHeight="1" r="2" ht="12.75">
       <c s="1" r="A2"/>
@@ -3087,12 +2325,7 @@
       <c s="1" r="L2"/>
       <c s="1" r="M2"/>
       <c s="1" r="N2"/>
-      <c s="1" r="O2"/>
-      <c s="1" r="P2"/>
-      <c s="1" r="Q2"/>
-      <c s="1" r="R2"/>
-      <c s="1" r="S2"/>
-      <c s="2" r="T2"/>
+      <c s="2" r="O2"/>
     </row>
     <row customHeight="1" r="3" ht="12.75">
       <c s="1" r="A3"/>
@@ -3108,12 +2341,7 @@
       <c s="1" r="L3"/>
       <c s="1" r="M3"/>
       <c s="1" r="N3"/>
-      <c s="1" r="O3"/>
-      <c s="1" r="P3"/>
-      <c s="1" r="Q3"/>
-      <c s="1" r="R3"/>
-      <c s="1" r="S3"/>
-      <c s="2" r="T3"/>
+      <c s="2" r="O3"/>
     </row>
     <row customHeight="1" r="4" ht="12.75">
       <c t="s" s="1" r="A4">
@@ -3158,415 +2386,312 @@
       <c t="s" s="3" r="O4">
         <v>15</v>
       </c>
-      <c t="s" s="3" r="P4">
-        <v>16</v>
-      </c>
-      <c t="s" s="3" r="Q4">
-        <v>17</v>
-      </c>
-      <c t="s" s="3" r="R4">
-        <v>18</v>
-      </c>
-      <c t="s" s="3" r="S4">
-        <v>19</v>
-      </c>
-      <c t="s" s="3" r="T4">
-        <v>20</v>
-      </c>
     </row>
     <row customHeight="1" r="5" ht="12.75">
       <c t="s" s="1" r="A5">
+        <v>16</v>
+      </c>
+      <c t="s" s="4" r="C5">
+        <v>17</v>
+      </c>
+      <c t="s" s="4" r="D5">
+        <v>18</v>
+      </c>
+      <c t="s" s="4" r="E5">
+        <v>19</v>
+      </c>
+      <c t="s" s="4" r="F5">
+        <v>20</v>
+      </c>
+      <c t="s" s="4" r="G5">
         <v>21</v>
       </c>
-      <c t="s" s="4" r="C5">
+      <c t="s" s="4" r="H5">
         <v>22</v>
       </c>
-      <c t="s" s="4" r="D5">
+      <c t="s" s="4" r="I5">
         <v>23</v>
       </c>
-      <c t="s" s="4" r="E5">
+      <c t="s" s="4" r="J5">
         <v>24</v>
       </c>
-      <c t="s" s="4" r="F5">
+      <c t="s" s="4" r="K5">
         <v>25</v>
       </c>
-      <c t="s" s="4" r="G5">
+      <c t="s" s="4" r="L5">
         <v>26</v>
       </c>
-      <c t="s" s="4" r="H5">
+      <c t="s" s="4" r="M5">
         <v>27</v>
       </c>
-      <c t="s" s="4" r="I5">
+      <c t="s" s="4" r="N5">
         <v>28</v>
       </c>
-      <c t="s" s="4" r="J5">
+      <c t="s" s="4" r="O5">
         <v>29</v>
-      </c>
-      <c t="s" s="4" r="K5">
-        <v>30</v>
-      </c>
-      <c t="s" s="4" r="L5">
-        <v>31</v>
-      </c>
-      <c t="s" s="4" r="M5">
-        <v>32</v>
-      </c>
-      <c t="s" s="4" r="N5">
-        <v>33</v>
-      </c>
-      <c t="s" s="4" r="O5">
-        <v>34</v>
-      </c>
-      <c t="s" s="4" r="P5">
-        <v>35</v>
-      </c>
-      <c t="s" s="4" r="Q5">
-        <v>36</v>
-      </c>
-      <c t="s" s="4" r="R5">
-        <v>37</v>
-      </c>
-      <c t="s" s="4" r="S5">
-        <v>38</v>
-      </c>
-      <c t="s" s="4" r="T5">
-        <v>39</v>
       </c>
     </row>
     <row customHeight="1" r="6" ht="12.75">
       <c t="s" s="5" r="A6">
+        <v>30</v>
+      </c>
+      <c t="s" s="3" r="C6">
+        <v>31</v>
+      </c>
+      <c t="s" s="3" r="D6">
+        <v>32</v>
+      </c>
+      <c t="s" s="3" r="E6">
+        <v>33</v>
+      </c>
+      <c t="s" s="3" r="F6">
+        <v>34</v>
+      </c>
+      <c t="s" s="3" r="G6">
+        <v>35</v>
+      </c>
+      <c t="s" s="3" r="H6">
+        <v>36</v>
+      </c>
+      <c t="s" s="3" r="I6">
+        <v>37</v>
+      </c>
+      <c t="s" s="3" r="J6">
+        <v>38</v>
+      </c>
+      <c t="s" s="3" r="K6">
+        <v>39</v>
+      </c>
+      <c t="s" s="3" r="L6">
         <v>40</v>
       </c>
-      <c t="s" s="3" r="C6">
+      <c t="s" s="3" r="M6">
         <v>41</v>
       </c>
-      <c t="s" s="3" r="D6">
+      <c t="s" s="3" r="N6">
         <v>42</v>
       </c>
-      <c t="s" s="3" r="E6">
+      <c t="s" s="3" r="O6">
         <v>43</v>
       </c>
-      <c t="s" s="3" r="F6">
+    </row>
+    <row customHeight="1" r="7" ht="12.75">
+      <c s="6" r="A7"/>
+      <c s="7" r="C7"/>
+      <c s="7" r="D7"/>
+      <c s="7" r="E7"/>
+      <c s="7" r="F7"/>
+      <c s="7" r="G7"/>
+      <c s="7" r="H7"/>
+      <c s="7" r="I7"/>
+      <c s="7" r="J7"/>
+      <c s="7" r="K7"/>
+      <c s="7" r="L7"/>
+      <c s="7" r="M7"/>
+      <c s="7" r="N7"/>
+      <c s="2" r="O7"/>
+    </row>
+    <row customHeight="1" r="8" ht="28.5">
+      <c t="s" s="6" r="A8">
         <v>44</v>
       </c>
-      <c t="s" s="3" r="G6">
+      <c s="7" r="C8"/>
+      <c s="7" r="D8"/>
+      <c s="7" r="E8"/>
+      <c s="7" r="F8"/>
+      <c t="s" s="7" r="G8">
         <v>45</v>
       </c>
-      <c t="s" s="3" r="H6">
+      <c t="s" s="7" r="H8">
         <v>46</v>
       </c>
-      <c t="s" s="3" r="I6">
+      <c s="7" r="I8"/>
+      <c s="7" r="J8"/>
+      <c s="7" r="K8"/>
+      <c s="7" r="L8"/>
+      <c s="7" r="M8"/>
+      <c s="7" r="N8"/>
+      <c s="2" r="O8"/>
+    </row>
+    <row customHeight="1" r="9" ht="28.5">
+      <c t="s" s="6" r="A9">
         <v>47</v>
       </c>
-      <c t="s" s="3" r="J6">
+      <c s="7" r="C9"/>
+      <c s="7" r="D9"/>
+      <c s="7" r="E9"/>
+      <c s="7" r="F9"/>
+      <c s="7" r="G9"/>
+      <c s="7" r="H9"/>
+      <c s="7" r="I9"/>
+      <c s="7" r="J9"/>
+      <c s="7" r="K9"/>
+      <c s="7" r="L9"/>
+      <c s="7" r="M9"/>
+      <c t="s" s="7" r="N9">
         <v>48</v>
       </c>
-      <c t="s" s="3" r="K6">
+      <c s="2" r="O9"/>
+    </row>
+    <row customHeight="1" r="10" ht="12.75">
+      <c t="s" s="6" r="A10">
         <v>49</v>
       </c>
-      <c t="s" s="3" r="L6">
+      <c s="7" r="C10"/>
+      <c s="7" r="D10"/>
+      <c s="7" r="E10"/>
+      <c s="7" r="F10"/>
+      <c s="7" r="G10"/>
+      <c s="7" r="H10"/>
+      <c s="7" r="I10"/>
+      <c s="7" r="J10"/>
+      <c s="7" r="K10"/>
+      <c s="7" r="L10"/>
+      <c s="7" r="M10"/>
+      <c s="7" r="N10"/>
+      <c s="2" r="O10"/>
+    </row>
+    <row customHeight="1" r="11" ht="12.75">
+      <c t="s" s="8" r="A11">
         <v>50</v>
       </c>
-      <c t="s" s="3" r="M6">
+    </row>
+    <row customHeight="1" r="12" ht="12.75">
+      <c t="s" s="9" r="A12">
         <v>51</v>
       </c>
-      <c t="s" s="3" r="N6">
+      <c t="s" s="9" r="B12">
         <v>52</v>
       </c>
-      <c t="s" s="3" r="O6">
+      <c t="s" s="10" r="C12">
         <v>53</v>
       </c>
-      <c t="s" s="3" r="P6">
+      <c t="s" s="10" r="D12">
         <v>54</v>
       </c>
-      <c t="s" s="3" r="Q6">
+      <c t="s" s="10" r="E12">
         <v>55</v>
       </c>
-      <c t="s" s="3" r="R6">
+      <c t="s" s="10" r="F12">
         <v>56</v>
       </c>
-      <c t="s" s="3" r="S6">
+      <c t="s" s="10" r="G12">
         <v>57</v>
       </c>
-      <c t="s" s="3" r="T6">
+      <c t="s" s="10" r="H12">
         <v>58</v>
       </c>
-    </row>
-    <row customHeight="1" r="7" ht="12.75">
-      <c s="5" r="A7"/>
-      <c s="6" r="C7"/>
-      <c s="6" r="D7"/>
-      <c s="6" r="E7"/>
-      <c s="6" r="F7"/>
-      <c s="6" r="G7"/>
-      <c s="6" r="H7"/>
-      <c s="6" r="I7"/>
-      <c s="6" r="J7"/>
-      <c s="6" r="K7"/>
-      <c s="6" r="L7"/>
-      <c s="6" r="M7"/>
-      <c s="6" r="N7"/>
-      <c s="2" r="O7"/>
-      <c s="2" r="P7"/>
-      <c s="2" r="Q7"/>
-      <c s="2" r="R7"/>
-      <c s="2" r="S7"/>
-      <c s="2" r="T7"/>
-    </row>
-    <row customHeight="1" r="8" ht="28.5">
-      <c t="s" s="5" r="A8">
+      <c t="s" s="10" r="I12">
         <v>59</v>
       </c>
-      <c s="6" r="C8"/>
-      <c s="6" r="D8"/>
-      <c s="6" r="E8"/>
-      <c s="6" r="F8"/>
-      <c t="s" s="6" r="G8">
+      <c t="s" s="10" r="J12">
         <v>60</v>
       </c>
-      <c t="s" s="6" r="H8">
+      <c t="s" s="10" r="K12">
         <v>61</v>
       </c>
-      <c s="6" r="I8"/>
-      <c s="6" r="J8"/>
-      <c s="6" r="K8"/>
-      <c s="6" r="L8"/>
-      <c s="6" r="M8"/>
-      <c s="6" r="N8"/>
-      <c s="2" r="O8"/>
-      <c s="2" r="P8"/>
-      <c s="2" r="Q8"/>
-      <c s="2" r="R8"/>
-      <c s="2" r="S8"/>
-      <c s="2" r="T8"/>
-    </row>
-    <row customHeight="1" r="9" ht="28.5">
-      <c t="s" s="5" r="A9">
+      <c t="s" s="10" r="L12">
         <v>62</v>
       </c>
-      <c s="6" r="C9"/>
-      <c s="6" r="D9"/>
-      <c s="6" r="E9"/>
-      <c s="6" r="F9"/>
-      <c s="6" r="G9"/>
-      <c s="6" r="H9"/>
-      <c s="6" r="I9"/>
-      <c s="6" r="J9"/>
-      <c s="6" r="K9"/>
-      <c s="6" r="L9"/>
-      <c s="6" r="M9"/>
-      <c t="s" s="6" r="N9">
+      <c t="s" s="10" r="M12">
         <v>63</v>
       </c>
-      <c s="2" r="O9"/>
-      <c s="2" r="P9"/>
-      <c s="2" r="Q9"/>
-      <c s="2" r="R9"/>
-      <c s="2" r="S9"/>
-      <c s="2" r="T9"/>
-    </row>
-    <row customHeight="1" r="10" ht="12.75">
-      <c t="s" s="5" r="A10">
+      <c t="s" s="10" r="N12">
         <v>64</v>
       </c>
-      <c s="6" r="C10"/>
-      <c s="6" r="D10"/>
-      <c s="6" r="E10"/>
-      <c s="6" r="F10"/>
-      <c s="6" r="G10"/>
-      <c s="6" r="H10"/>
-      <c s="6" r="I10"/>
-      <c s="6" r="J10"/>
-      <c s="6" r="K10"/>
-      <c s="6" r="L10"/>
-      <c s="6" r="M10"/>
-      <c s="6" r="N10"/>
-      <c s="2" r="O10"/>
-      <c s="2" r="P10"/>
-      <c s="2" r="Q10"/>
-      <c s="2" r="R10"/>
-      <c s="2" r="S10"/>
-      <c s="2" r="T10"/>
-    </row>
-    <row customHeight="1" r="11" ht="12.75">
-      <c t="s" s="7" r="A11">
+      <c t="s" s="10" r="O12">
         <v>65</v>
       </c>
     </row>
-    <row customHeight="1" r="12" ht="12.75">
-      <c t="s" s="8" r="A12">
+    <row customHeight="1" r="13" ht="12.75">
+      <c t="s" s="10" r="C13">
         <v>66</v>
       </c>
-      <c t="s" s="8" r="B12">
+      <c s="10" r="D13"/>
+      <c s="10" r="E13"/>
+      <c s="10" r="F13"/>
+      <c s="10" r="G13"/>
+      <c s="10" r="H13"/>
+      <c s="10" r="I13"/>
+      <c s="10" r="J13"/>
+      <c s="10" r="K13"/>
+      <c s="10" r="L13"/>
+      <c s="10" r="M13"/>
+      <c s="10" r="N13"/>
+      <c t="s" s="10" r="O13">
         <v>67</v>
       </c>
-      <c t="s" s="9" r="C12">
+    </row>
+    <row customHeight="1" r="14" ht="12.75">
+      <c t="s" s="11" r="A14">
         <v>68</v>
       </c>
-      <c t="s" s="9" r="D12">
+      <c t="s" s="11" r="B14">
         <v>69</v>
       </c>
-      <c t="s" s="9" r="E12">
+      <c t="s" s="12" r="C14">
         <v>70</v>
       </c>
-      <c t="s" s="9" r="F12">
+      <c t="s" s="12" r="D14">
         <v>71</v>
       </c>
-      <c t="s" s="9" r="G12">
+      <c t="s" s="12" r="E14">
         <v>72</v>
       </c>
-      <c t="s" s="9" r="H12">
+      <c t="s" s="12" r="F14">
         <v>73</v>
       </c>
-      <c t="s" s="9" r="I12">
+      <c t="s" s="12" r="G14">
         <v>74</v>
       </c>
-      <c t="s" s="9" r="J12">
+      <c t="s" s="12" r="H14">
         <v>75</v>
       </c>
-      <c t="s" s="9" r="K12">
+      <c t="s" s="12" r="I14">
         <v>76</v>
       </c>
-      <c t="s" s="9" r="L12">
+      <c t="s" s="12" r="J14">
         <v>77</v>
       </c>
-      <c t="s" s="9" r="M12">
+      <c t="s" s="12" r="K14">
         <v>78</v>
       </c>
-      <c t="s" s="9" r="N12">
+      <c t="s" s="12" r="L14">
         <v>79</v>
       </c>
-      <c t="s" s="1" r="O12">
+      <c t="s" s="12" r="M14">
         <v>80</v>
       </c>
-      <c t="s" s="1" r="P12">
+      <c t="s" s="12" r="N14">
         <v>81</v>
       </c>
-      <c t="s" s="1" r="Q12">
+      <c t="s" s="12" r="O14">
         <v>82</v>
       </c>
-      <c t="s" s="1" r="R12">
+    </row>
+    <row customHeight="1" r="15" ht="12.75">
+      <c s="12" r="C15"/>
+      <c s="12" r="D15"/>
+      <c s="12" r="E15"/>
+      <c s="12" r="F15"/>
+      <c s="12" r="G15"/>
+      <c s="12" r="H15"/>
+      <c s="12" r="I15"/>
+      <c s="12" r="J15"/>
+      <c s="12" r="K15"/>
+      <c s="12" r="L15"/>
+      <c s="12" r="M15"/>
+      <c s="12" r="N15"/>
+      <c t="s" s="12" r="O15">
         <v>83</v>
-      </c>
-      <c t="s" s="1" r="S12">
-        <v>84</v>
-      </c>
-      <c t="s" s="9" r="T12">
-        <v>85</v>
-      </c>
-    </row>
-    <row customHeight="1" r="13" ht="12.75">
-      <c t="s" s="9" r="C13">
-        <v>86</v>
-      </c>
-      <c s="9" r="D13"/>
-      <c s="9" r="E13"/>
-      <c s="9" r="F13"/>
-      <c s="9" r="G13"/>
-      <c s="9" r="H13"/>
-      <c s="9" r="I13"/>
-      <c s="9" r="J13"/>
-      <c s="9" r="K13"/>
-      <c s="9" r="L13"/>
-      <c s="9" r="M13"/>
-      <c s="9" r="N13"/>
-      <c s="1" r="O13"/>
-      <c s="1" r="P13"/>
-      <c s="1" r="Q13"/>
-      <c s="1" r="R13"/>
-      <c s="1" r="S13"/>
-      <c t="s" s="9" r="T13">
-        <v>87</v>
-      </c>
-    </row>
-    <row customHeight="1" r="14" ht="12.75">
-      <c t="s" s="10" r="A14">
-        <v>88</v>
-      </c>
-      <c t="s" s="10" r="B14">
-        <v>89</v>
-      </c>
-      <c t="s" s="11" r="C14">
-        <v>90</v>
-      </c>
-      <c t="s" s="11" r="D14">
-        <v>91</v>
-      </c>
-      <c t="s" s="11" r="E14">
-        <v>92</v>
-      </c>
-      <c t="s" s="11" r="F14">
-        <v>93</v>
-      </c>
-      <c t="s" s="11" r="G14">
-        <v>94</v>
-      </c>
-      <c t="s" s="11" r="H14">
-        <v>95</v>
-      </c>
-      <c t="s" s="11" r="I14">
-        <v>96</v>
-      </c>
-      <c t="s" s="11" r="J14">
-        <v>97</v>
-      </c>
-      <c t="s" s="11" r="K14">
-        <v>98</v>
-      </c>
-      <c t="s" s="11" r="L14">
-        <v>99</v>
-      </c>
-      <c t="s" s="11" r="M14">
-        <v>100</v>
-      </c>
-      <c t="s" s="11" r="N14">
-        <v>101</v>
-      </c>
-      <c s="12" r="O14"/>
-      <c t="s" s="12" r="P14">
-        <v>102</v>
-      </c>
-      <c t="s" s="12" r="Q14">
-        <v>103</v>
-      </c>
-      <c t="s" s="12" r="R14">
-        <v>104</v>
-      </c>
-      <c t="s" s="12" r="S14">
-        <v>105</v>
-      </c>
-      <c t="s" s="11" r="T14">
-        <v>106</v>
-      </c>
-    </row>
-    <row customHeight="1" r="15" ht="12.75">
-      <c s="11" r="C15"/>
-      <c s="11" r="D15"/>
-      <c s="11" r="E15"/>
-      <c s="11" r="F15"/>
-      <c s="11" r="G15"/>
-      <c s="11" r="H15"/>
-      <c s="11" r="I15"/>
-      <c s="11" r="J15"/>
-      <c s="11" r="K15"/>
-      <c s="11" r="L15"/>
-      <c s="11" r="M15"/>
-      <c s="11" r="N15"/>
-      <c s="12" r="O15"/>
-      <c s="12" r="P15"/>
-      <c s="12" r="Q15"/>
-      <c s="12" r="R15"/>
-      <c s="12" r="S15"/>
-      <c t="s" s="11" r="T15">
-        <v>107</v>
       </c>
     </row>
     <row customHeight="1" r="16" ht="12.75">
       <c t="s" s="13" r="A16">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c t="s" s="13" r="B16">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c s="14" r="C16"/>
       <c s="14" r="D16"/>
@@ -3580,1761 +2705,1310 @@
       <c s="14" r="L16"/>
       <c s="14" r="M16"/>
       <c s="14" r="N16"/>
-      <c t="s" s="15" r="O16">
+      <c s="15" r="O16"/>
+    </row>
+    <row customHeight="1" r="17" ht="12.75">
+      <c t="s" s="16" r="A17">
+        <v>86</v>
+      </c>
+      <c t="s" s="16" r="B17">
+        <v>87</v>
+      </c>
+      <c t="s" s="10" r="C17">
+        <v>88</v>
+      </c>
+      <c t="s" s="10" r="D17">
+        <v>89</v>
+      </c>
+      <c t="s" s="10" r="E17">
+        <v>90</v>
+      </c>
+      <c t="s" s="10" r="F17">
+        <v>91</v>
+      </c>
+      <c s="10" r="G17"/>
+      <c s="10" r="H17"/>
+      <c s="10" r="I17"/>
+      <c s="10" r="J17"/>
+      <c s="10" r="K17"/>
+      <c s="10" r="L17"/>
+      <c s="10" r="M17"/>
+      <c s="10" r="N17"/>
+      <c s="2" r="O17"/>
+    </row>
+    <row customHeight="1" r="18" ht="12.75">
+      <c t="s" s="17" r="A18">
+        <v>92</v>
+      </c>
+      <c t="s" s="17" r="B18">
+        <v>93</v>
+      </c>
+      <c t="s" s="18" r="C18">
+        <v>94</v>
+      </c>
+      <c t="s" s="18" r="D18">
+        <v>95</v>
+      </c>
+      <c t="s" s="18" r="E18">
+        <v>96</v>
+      </c>
+      <c t="s" s="18" r="F18">
+        <v>97</v>
+      </c>
+      <c t="s" s="18" r="G18">
+        <v>98</v>
+      </c>
+      <c t="s" s="18" r="H18">
+        <v>99</v>
+      </c>
+      <c t="s" s="18" r="I18">
+        <v>100</v>
+      </c>
+      <c t="s" s="18" r="J18">
+        <v>101</v>
+      </c>
+      <c t="s" s="18" r="K18">
+        <v>102</v>
+      </c>
+      <c t="s" s="18" r="L18">
+        <v>103</v>
+      </c>
+      <c t="s" s="18" r="M18">
+        <v>104</v>
+      </c>
+      <c t="s" s="18" r="N18">
+        <v>105</v>
+      </c>
+      <c t="s" s="18" r="O18">
+        <v>106</v>
+      </c>
+    </row>
+    <row customHeight="1" r="19" ht="12.75">
+      <c t="s" s="18" r="C19">
+        <v>107</v>
+      </c>
+      <c t="s" s="18" r="D19">
+        <v>108</v>
+      </c>
+      <c t="s" s="18" r="E19">
+        <v>109</v>
+      </c>
+      <c t="s" s="18" r="F19">
         <v>110</v>
       </c>
-      <c t="s" s="15" r="P16">
+      <c t="s" s="19" r="G19">
         <v>111</v>
       </c>
-      <c t="s" s="15" r="Q16">
+      <c t="s" s="19" r="H19">
         <v>112</v>
       </c>
-      <c t="s" s="15" r="R16">
+      <c t="s" s="19" r="I19">
         <v>113</v>
       </c>
-      <c t="s" s="15" r="S16">
+      <c t="s" s="19" r="J19">
         <v>114</v>
       </c>
-      <c s="16" r="T16"/>
-    </row>
-    <row customHeight="1" r="17" ht="12.75">
-      <c t="s" s="17" r="A17">
+      <c t="s" s="19" r="K19">
         <v>115</v>
       </c>
-      <c t="s" s="17" r="B17">
+      <c t="s" s="19" r="L19">
         <v>116</v>
       </c>
-      <c t="s" s="9" r="C17">
+      <c t="s" s="19" r="M19">
         <v>117</v>
       </c>
-      <c t="s" s="9" r="D17">
+      <c t="s" s="19" r="N19">
         <v>118</v>
       </c>
-      <c t="s" s="9" r="E17">
+      <c t="s" s="18" r="O19">
         <v>119</v>
       </c>
-      <c t="s" s="9" r="F17">
+    </row>
+    <row customHeight="1" r="20" ht="12.75">
+      <c t="s" s="20" r="A20">
         <v>120</v>
       </c>
-      <c s="9" r="G17"/>
-      <c s="9" r="H17"/>
-      <c s="9" r="I17"/>
-      <c s="9" r="J17"/>
-      <c s="9" r="K17"/>
-      <c s="9" r="L17"/>
-      <c s="9" r="M17"/>
-      <c s="9" r="N17"/>
-      <c s="1" r="O17"/>
-      <c s="1" r="P17"/>
-      <c s="1" r="Q17"/>
-      <c s="1" r="R17"/>
-      <c s="1" r="S17"/>
-      <c s="2" r="T17"/>
-    </row>
-    <row customHeight="1" r="18" ht="12.75">
-      <c t="s" s="18" r="A18">
+      <c t="s" s="20" r="B20">
         <v>121</v>
       </c>
-      <c t="s" s="18" r="B18">
+      <c t="s" s="21" r="C20">
         <v>122</v>
       </c>
-      <c t="s" s="19" r="C18">
+      <c t="s" s="21" r="D20">
         <v>123</v>
       </c>
-      <c t="s" s="19" r="D18">
+      <c t="s" s="21" r="E20">
         <v>124</v>
       </c>
-      <c t="s" s="19" r="E18">
+      <c t="s" s="21" r="F20">
         <v>125</v>
       </c>
-      <c t="s" s="19" r="F18">
+      <c t="s" s="21" r="G20">
         <v>126</v>
       </c>
-      <c t="s" s="19" r="G18">
+      <c t="s" s="21" r="H20">
         <v>127</v>
       </c>
-      <c t="s" s="19" r="H18">
+      <c t="s" s="21" r="I20">
         <v>128</v>
       </c>
-      <c t="s" s="19" r="I18">
+      <c t="s" s="21" r="J20">
         <v>129</v>
       </c>
-      <c t="s" s="19" r="J18">
+      <c t="s" s="21" r="K20">
         <v>130</v>
       </c>
-      <c t="s" s="19" r="K18">
+      <c t="s" s="21" r="L20">
         <v>131</v>
       </c>
-      <c t="s" s="19" r="L18">
+      <c t="s" s="21" r="M20">
         <v>132</v>
       </c>
-      <c t="s" s="19" r="M18">
+      <c t="s" s="21" r="N20">
         <v>133</v>
       </c>
-      <c t="s" s="19" r="N18">
+      <c t="s" s="22" r="O20">
         <v>134</v>
       </c>
-      <c t="s" s="12" r="O18">
+    </row>
+    <row customHeight="1" r="21" ht="12.75">
+      <c t="s" s="21" r="C21">
         <v>135</v>
       </c>
-      <c t="s" s="12" r="P18">
+      <c t="s" s="21" r="D21">
         <v>136</v>
       </c>
-      <c t="s" s="12" r="Q18">
+      <c t="s" s="21" r="E21">
         <v>137</v>
       </c>
-      <c t="s" s="12" r="R18">
+      <c t="s" s="21" r="F21">
         <v>138</v>
       </c>
-      <c t="s" s="12" r="S18">
+      <c t="s" s="21" r="G21">
         <v>139</v>
       </c>
-      <c t="s" s="19" r="T18">
+      <c t="s" s="21" r="H21">
         <v>140</v>
       </c>
-    </row>
-    <row customHeight="1" r="19" ht="12.75">
-      <c t="s" s="19" r="C19">
+      <c t="s" s="21" r="I21">
         <v>141</v>
       </c>
-      <c t="s" s="19" r="D19">
+      <c t="s" s="21" r="J21">
         <v>142</v>
       </c>
-      <c t="s" s="19" r="E19">
+      <c t="s" s="21" r="K21">
         <v>143</v>
       </c>
-      <c t="s" s="19" r="F19">
+      <c t="s" s="21" r="L21">
         <v>144</v>
       </c>
-      <c t="s" s="20" r="G19">
+      <c t="s" s="21" r="M21">
         <v>145</v>
       </c>
-      <c t="s" s="20" r="H19">
+      <c t="s" s="21" r="N21">
         <v>146</v>
       </c>
-      <c t="s" s="20" r="I19">
+      <c t="s" s="10" r="O21">
         <v>147</v>
       </c>
-      <c t="s" s="20" r="J19">
+    </row>
+    <row customHeight="1" r="22" ht="12.75">
+      <c t="s" s="17" r="A22">
         <v>148</v>
       </c>
-      <c t="s" s="20" r="K19">
+      <c t="s" s="17" r="B22">
         <v>149</v>
       </c>
-      <c t="s" s="20" r="L19">
+      <c t="s" s="18" r="C22">
         <v>150</v>
       </c>
-      <c t="s" s="20" r="M19">
+      <c t="s" s="18" r="D22">
         <v>151</v>
       </c>
-      <c t="s" s="20" r="N19">
+      <c t="s" s="18" r="E22">
         <v>152</v>
       </c>
-      <c t="s" s="12" r="O19">
+      <c t="s" s="18" r="F22">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="P19">
+      <c t="s" s="18" r="G22">
         <v>154</v>
       </c>
-      <c t="s" s="12" r="Q19">
+      <c t="s" s="18" r="H22">
         <v>155</v>
       </c>
-      <c t="s" s="12" r="R19">
+      <c t="s" s="18" r="I22">
         <v>156</v>
       </c>
-      <c t="s" s="12" r="S19">
+      <c t="s" s="18" r="J22">
         <v>157</v>
       </c>
-      <c t="s" s="19" r="T19">
+      <c t="s" s="18" r="K22">
         <v>158</v>
       </c>
-    </row>
-    <row customHeight="1" r="20" ht="12.75">
-      <c t="s" s="21" r="A20">
+      <c t="s" s="18" r="L22">
         <v>159</v>
       </c>
-      <c t="s" s="21" r="B20">
+      <c t="s" s="18" r="M22">
         <v>160</v>
       </c>
-      <c t="s" s="22" r="C20">
+      <c t="s" s="18" r="N22">
         <v>161</v>
       </c>
-      <c t="s" s="22" r="D20">
+      <c t="s" s="18" r="O22">
         <v>162</v>
       </c>
-      <c t="s" s="22" r="E20">
+    </row>
+    <row customHeight="1" r="23" ht="12.75">
+      <c t="s" s="18" r="C23">
         <v>163</v>
       </c>
-      <c t="s" s="22" r="F20">
+      <c t="s" s="18" r="D23">
         <v>164</v>
       </c>
-      <c t="s" s="22" r="G20">
+      <c t="s" s="18" r="E23">
         <v>165</v>
       </c>
-      <c t="s" s="22" r="H20">
+      <c t="s" s="18" r="F23">
         <v>166</v>
       </c>
-      <c t="s" s="22" r="I20">
+      <c t="s" s="18" r="G23">
         <v>167</v>
       </c>
-      <c t="s" s="22" r="J20">
+      <c t="s" s="18" r="H23">
         <v>168</v>
       </c>
-      <c t="s" s="22" r="K20">
+      <c t="s" s="18" r="I23">
         <v>169</v>
       </c>
-      <c t="s" s="22" r="L20">
+      <c t="s" s="18" r="J23">
         <v>170</v>
       </c>
-      <c t="s" s="22" r="M20">
+      <c t="s" s="18" r="K23">
         <v>171</v>
       </c>
-      <c t="s" s="22" r="N20">
+      <c t="s" s="18" r="L23">
         <v>172</v>
       </c>
-      <c t="s" s="22" r="O20">
+      <c t="s" s="18" r="M23">
         <v>173</v>
       </c>
-      <c t="s" s="22" r="P20">
+      <c t="s" s="18" r="N23">
         <v>174</v>
       </c>
-      <c t="s" s="22" r="Q20">
+      <c t="s" s="18" r="O23">
         <v>175</v>
       </c>
-      <c t="s" s="22" r="R20">
+    </row>
+    <row customHeight="1" r="24" ht="12.75">
+      <c s="18" r="C24"/>
+      <c s="18" r="D24"/>
+      <c s="18" r="E24"/>
+      <c s="18" r="F24"/>
+      <c s="18" r="G24"/>
+      <c s="18" r="H24"/>
+      <c s="18" r="I24"/>
+      <c s="18" r="J24"/>
+      <c s="18" r="K24"/>
+      <c s="18" r="L24"/>
+      <c s="18" r="M24"/>
+      <c s="18" r="N24"/>
+      <c t="s" s="18" r="O24">
         <v>176</v>
       </c>
-      <c t="s" s="22" r="S20">
+    </row>
+    <row customHeight="1" r="25" ht="12.75">
+      <c s="18" r="C25"/>
+      <c s="18" r="D25"/>
+      <c s="18" r="E25"/>
+      <c s="18" r="F25"/>
+      <c s="18" r="G25"/>
+      <c s="18" r="H25"/>
+      <c s="18" r="I25"/>
+      <c s="18" r="J25"/>
+      <c s="18" r="K25"/>
+      <c s="18" r="L25"/>
+      <c s="18" r="M25"/>
+      <c s="18" r="N25"/>
+      <c t="s" s="12" r="O25">
         <v>177</v>
       </c>
-      <c t="s" s="23" r="T20">
+    </row>
+    <row customHeight="1" r="26" ht="12.75">
+      <c t="s" s="20" r="A26">
         <v>178</v>
       </c>
-    </row>
-    <row customHeight="1" r="21" ht="12.75">
-      <c t="s" s="22" r="C21">
+      <c t="s" s="20" r="B26">
         <v>179</v>
       </c>
-      <c t="s" s="22" r="D21">
+      <c t="s" s="21" r="C26">
         <v>180</v>
       </c>
-      <c t="s" s="22" r="E21">
+      <c t="s" s="21" r="D26">
         <v>181</v>
       </c>
-      <c t="s" s="22" r="F21">
+      <c t="s" s="21" r="E26">
         <v>182</v>
       </c>
-      <c t="s" s="22" r="G21">
+      <c t="s" s="21" r="F26">
         <v>183</v>
       </c>
-      <c t="s" s="22" r="H21">
+      <c t="s" s="21" r="G26">
         <v>184</v>
       </c>
-      <c t="s" s="22" r="I21">
+      <c t="s" s="21" r="H26">
         <v>185</v>
       </c>
-      <c t="s" s="22" r="J21">
+      <c t="s" s="21" r="I26">
         <v>186</v>
       </c>
-      <c t="s" s="22" r="K21">
+      <c t="s" s="21" r="J26">
         <v>187</v>
       </c>
-      <c t="s" s="22" r="L21">
+      <c t="s" s="21" r="K26">
         <v>188</v>
       </c>
-      <c t="s" s="22" r="M21">
+      <c t="s" s="21" r="L26">
         <v>189</v>
       </c>
-      <c t="s" s="22" r="N21">
+      <c t="s" s="21" r="M26">
         <v>190</v>
       </c>
-      <c t="s" s="22" r="O21">
+      <c t="s" s="21" r="N26">
         <v>191</v>
       </c>
-      <c t="s" s="22" r="P21">
+      <c t="s" s="22" r="O26">
         <v>192</v>
       </c>
-      <c t="s" s="22" r="Q21">
+    </row>
+    <row customHeight="1" r="27" ht="12.75">
+      <c t="s" s="21" r="C27">
         <v>193</v>
       </c>
-      <c t="s" s="22" r="R21">
+      <c t="s" s="21" r="D27">
         <v>194</v>
       </c>
-      <c t="s" s="22" r="S21">
+      <c t="s" s="21" r="E27">
         <v>195</v>
       </c>
-      <c t="s" s="9" r="T21">
+      <c t="s" s="21" r="F27">
         <v>196</v>
       </c>
-    </row>
-    <row customHeight="1" r="22" ht="12.75">
-      <c t="s" s="18" r="A22">
+      <c t="s" s="21" r="G27">
         <v>197</v>
       </c>
-      <c t="s" s="18" r="B22">
+      <c t="s" s="21" r="H27">
         <v>198</v>
       </c>
-      <c t="s" s="19" r="C22">
+      <c t="s" s="21" r="I27">
         <v>199</v>
       </c>
-      <c t="s" s="19" r="D22">
+      <c t="s" s="21" r="J27">
         <v>200</v>
       </c>
-      <c t="s" s="19" r="E22">
+      <c t="s" s="21" r="K27">
         <v>201</v>
       </c>
-      <c t="s" s="19" r="F22">
+      <c t="s" s="21" r="L27">
         <v>202</v>
       </c>
-      <c t="s" s="19" r="G22">
+      <c t="s" s="21" r="M27">
         <v>203</v>
       </c>
-      <c t="s" s="19" r="H22">
+      <c t="s" s="21" r="N27">
         <v>204</v>
       </c>
-      <c t="s" s="19" r="I22">
+      <c t="s" s="22" r="O27">
         <v>205</v>
       </c>
-      <c t="s" s="19" r="J22">
+    </row>
+    <row customHeight="1" r="28" ht="12.75">
+      <c s="21" r="C28"/>
+      <c s="21" r="D28"/>
+      <c s="21" r="E28"/>
+      <c s="21" r="F28"/>
+      <c s="21" r="G28"/>
+      <c s="21" r="H28"/>
+      <c s="21" r="I28"/>
+      <c s="21" r="J28"/>
+      <c s="21" r="K28"/>
+      <c s="21" r="L28"/>
+      <c s="21" r="M28"/>
+      <c s="21" r="N28"/>
+      <c t="s" s="22" r="O28">
         <v>206</v>
       </c>
-      <c t="s" s="19" r="K22">
+    </row>
+    <row customHeight="1" r="29" ht="12.75">
+      <c s="21" r="C29"/>
+      <c s="21" r="D29"/>
+      <c s="21" r="E29"/>
+      <c s="21" r="F29"/>
+      <c s="21" r="G29"/>
+      <c s="21" r="H29"/>
+      <c s="21" r="I29"/>
+      <c s="21" r="J29"/>
+      <c s="21" r="K29"/>
+      <c s="21" r="L29"/>
+      <c s="21" r="M29"/>
+      <c s="21" r="N29"/>
+      <c t="s" s="10" r="O29">
         <v>207</v>
       </c>
-      <c t="s" s="19" r="L22">
+    </row>
+    <row customHeight="1" r="30" ht="12.75">
+      <c t="s" s="23" r="A30">
         <v>208</v>
       </c>
-      <c t="s" s="19" r="M22">
+      <c t="s" s="23" r="B30">
         <v>209</v>
       </c>
-      <c t="s" s="19" r="N22">
+      <c t="s" s="12" r="C30">
         <v>210</v>
       </c>
-      <c t="s" s="12" r="O22">
+      <c t="s" s="19" r="D30">
         <v>211</v>
       </c>
-      <c t="s" s="12" r="P22">
+      <c t="s" s="19" r="E30">
         <v>212</v>
       </c>
-      <c t="s" s="12" r="Q22">
+      <c t="s" s="19" r="F30">
         <v>213</v>
       </c>
-      <c t="s" s="12" r="R22">
+      <c t="s" s="19" r="G30">
         <v>214</v>
       </c>
-      <c t="s" s="12" r="S22">
+      <c t="s" s="19" r="H30">
         <v>215</v>
       </c>
-      <c t="s" s="19" r="T22">
+      <c t="s" s="19" r="I30">
         <v>216</v>
       </c>
-    </row>
-    <row customHeight="1" r="23" ht="12.75">
-      <c t="s" s="19" r="C23">
+      <c t="s" s="19" r="J30">
         <v>217</v>
       </c>
-      <c t="s" s="19" r="D23">
+      <c t="s" s="19" r="K30">
         <v>218</v>
       </c>
-      <c t="s" s="19" r="E23">
+      <c t="s" s="19" r="L30">
         <v>219</v>
       </c>
-      <c t="s" s="19" r="F23">
+      <c t="s" s="19" r="M30">
         <v>220</v>
       </c>
-      <c t="s" s="19" r="G23">
+      <c t="s" s="19" r="N30">
         <v>221</v>
       </c>
-      <c t="s" s="19" r="H23">
+      <c t="s" s="19" r="O30">
         <v>222</v>
       </c>
-      <c t="s" s="19" r="I23">
+    </row>
+    <row customHeight="1" r="31" ht="12.75">
+      <c s="12" r="C31"/>
+      <c t="s" s="19" r="D31">
         <v>223</v>
       </c>
-      <c t="s" s="19" r="J23">
+      <c t="s" s="19" r="E31">
         <v>224</v>
       </c>
-      <c t="s" s="19" r="K23">
+      <c t="s" s="19" r="F31">
         <v>225</v>
       </c>
-      <c t="s" s="19" r="L23">
+      <c t="s" s="19" r="G31">
         <v>226</v>
       </c>
-      <c t="s" s="19" r="M23">
+      <c t="s" s="19" r="H31">
         <v>227</v>
       </c>
-      <c t="s" s="19" r="N23">
+      <c t="s" s="19" r="I31">
         <v>228</v>
       </c>
-      <c t="s" s="12" r="O23">
+      <c t="s" s="19" r="J31">
         <v>229</v>
       </c>
-      <c t="s" s="12" r="P23">
+      <c t="s" s="19" r="K31">
         <v>230</v>
       </c>
-      <c t="s" s="12" r="Q23">
+      <c t="s" s="19" r="L31">
         <v>231</v>
       </c>
-      <c t="s" s="12" r="R23">
+      <c t="s" s="19" r="M31">
         <v>232</v>
       </c>
-      <c t="s" s="12" r="S23">
+      <c t="s" s="19" r="N31">
         <v>233</v>
       </c>
-      <c t="s" s="19" r="T23">
+      <c t="s" s="12" r="O31">
         <v>234</v>
       </c>
     </row>
-    <row customHeight="1" r="24" ht="12.75">
-      <c s="19" r="C24"/>
-      <c s="19" r="D24"/>
-      <c s="19" r="E24"/>
-      <c s="19" r="F24"/>
-      <c s="19" r="G24"/>
-      <c s="19" r="H24"/>
-      <c s="19" r="I24"/>
-      <c s="19" r="J24"/>
-      <c s="19" r="K24"/>
-      <c s="19" r="L24"/>
-      <c s="19" r="M24"/>
-      <c s="19" r="N24"/>
-      <c s="12" r="O24"/>
-      <c s="12" r="P24"/>
-      <c s="12" r="Q24"/>
-      <c s="12" r="R24"/>
-      <c s="12" r="S24"/>
-      <c t="s" s="19" r="T24">
+    <row customHeight="1" r="32" ht="12.75">
+      <c t="s" s="20" r="A32">
         <v>235</v>
       </c>
-    </row>
-    <row customHeight="1" r="25" ht="12.75">
-      <c s="19" r="C25"/>
-      <c s="19" r="D25"/>
-      <c s="19" r="E25"/>
-      <c s="19" r="F25"/>
-      <c s="19" r="G25"/>
-      <c s="19" r="H25"/>
-      <c s="19" r="I25"/>
-      <c s="19" r="J25"/>
-      <c s="19" r="K25"/>
-      <c s="19" r="L25"/>
-      <c s="19" r="M25"/>
-      <c s="19" r="N25"/>
-      <c s="12" r="O25"/>
-      <c s="12" r="P25"/>
-      <c s="12" r="Q25"/>
-      <c s="12" r="R25"/>
-      <c s="12" r="S25"/>
-      <c t="s" s="11" r="T25">
+      <c t="s" s="20" r="B32">
         <v>236</v>
       </c>
-    </row>
-    <row customHeight="1" r="26" ht="12.75">
-      <c t="s" s="21" r="A26">
+      <c t="s" s="10" r="C32">
         <v>237</v>
       </c>
-      <c t="s" s="21" r="B26">
+      <c t="s" s="24" r="D32">
         <v>238</v>
       </c>
-      <c t="s" s="22" r="C26">
+      <c t="s" s="24" r="E32">
         <v>239</v>
       </c>
-      <c t="s" s="22" r="D26">
+      <c t="s" s="24" r="F32">
         <v>240</v>
       </c>
-      <c t="s" s="22" r="E26">
+      <c t="s" s="24" r="G32">
         <v>241</v>
       </c>
-      <c t="s" s="22" r="F26">
+      <c t="s" s="24" r="H32">
         <v>242</v>
       </c>
-      <c t="s" s="22" r="G26">
+      <c t="s" s="24" r="I32">
         <v>243</v>
       </c>
-      <c t="s" s="22" r="H26">
+      <c t="s" s="24" r="J32">
         <v>244</v>
       </c>
-      <c t="s" s="22" r="I26">
+      <c t="s" s="24" r="K32">
         <v>245</v>
       </c>
-      <c t="s" s="22" r="J26">
+      <c t="s" s="24" r="L32">
         <v>246</v>
       </c>
-      <c t="s" s="22" r="K26">
+      <c t="s" s="24" r="M32">
         <v>247</v>
       </c>
-      <c t="s" s="22" r="L26">
+      <c t="s" s="24" r="N32">
         <v>248</v>
       </c>
-      <c t="s" s="22" r="M26">
+      <c t="s" s="25" r="O32">
         <v>249</v>
       </c>
-      <c t="s" s="22" r="N26">
+    </row>
+    <row customHeight="1" r="33" ht="12.75">
+      <c s="10" r="C33"/>
+      <c t="s" s="24" r="D33">
         <v>250</v>
       </c>
-      <c t="s" s="1" r="O26">
+      <c t="s" s="24" r="E33">
         <v>251</v>
       </c>
-      <c t="s" s="1" r="P26">
+      <c t="s" s="24" r="F33">
         <v>252</v>
       </c>
-      <c t="s" s="1" r="Q26">
+      <c t="s" s="24" r="G33">
         <v>253</v>
       </c>
-      <c t="s" s="1" r="R26">
+      <c t="s" s="24" r="H33">
         <v>254</v>
       </c>
-      <c t="s" s="1" r="S26">
+      <c t="s" s="24" r="I33">
         <v>255</v>
       </c>
-      <c t="s" s="23" r="T26">
+      <c t="s" s="24" r="J33">
         <v>256</v>
       </c>
-    </row>
-    <row customHeight="1" r="27" ht="12.75">
-      <c t="s" s="22" r="C27">
+      <c t="s" s="24" r="K33">
         <v>257</v>
       </c>
-      <c t="s" s="22" r="D27">
+      <c t="s" s="24" r="L33">
         <v>258</v>
       </c>
-      <c t="s" s="22" r="E27">
+      <c t="s" s="24" r="M33">
         <v>259</v>
       </c>
-      <c t="s" s="22" r="F27">
+      <c t="s" s="24" r="N33">
         <v>260</v>
       </c>
-      <c t="s" s="22" r="G27">
+      <c t="s" s="10" r="O33">
         <v>261</v>
       </c>
-      <c t="s" s="22" r="H27">
+    </row>
+    <row customHeight="1" r="34" ht="12.75">
+      <c t="s" s="23" r="A34">
         <v>262</v>
       </c>
-      <c t="s" s="22" r="I27">
+      <c t="s" s="23" r="B34">
         <v>263</v>
       </c>
-      <c t="s" s="22" r="J27">
+      <c t="s" s="12" r="C34">
         <v>264</v>
       </c>
-      <c t="s" s="22" r="K27">
+      <c t="s" s="19" r="D34">
         <v>265</v>
       </c>
-      <c t="s" s="22" r="L27">
+      <c t="s" s="19" r="E34">
         <v>266</v>
       </c>
-      <c t="s" s="22" r="M27">
+      <c t="s" s="19" r="F34">
         <v>267</v>
       </c>
-      <c t="s" s="22" r="N27">
+      <c t="s" s="19" r="G34">
         <v>268</v>
       </c>
-      <c t="s" s="1" r="O27">
+      <c t="s" s="19" r="H34">
         <v>269</v>
       </c>
-      <c t="s" s="1" r="P27">
+      <c t="s" s="19" r="I34">
         <v>270</v>
       </c>
-      <c t="s" s="1" r="Q27">
+      <c t="s" s="19" r="J34">
         <v>271</v>
       </c>
-      <c t="s" s="1" r="R27">
+      <c t="s" s="19" r="K34">
         <v>272</v>
       </c>
-      <c t="s" s="1" r="S27">
+      <c t="s" s="19" r="L34">
         <v>273</v>
       </c>
-      <c t="s" s="23" r="T27">
+      <c t="s" s="19" r="M34">
         <v>274</v>
       </c>
-    </row>
-    <row customHeight="1" r="28" ht="12.75">
-      <c s="22" r="C28"/>
-      <c s="22" r="D28"/>
-      <c s="22" r="E28"/>
-      <c s="22" r="F28"/>
-      <c s="22" r="G28"/>
-      <c s="22" r="H28"/>
-      <c s="22" r="I28"/>
-      <c s="22" r="J28"/>
-      <c s="22" r="K28"/>
-      <c s="22" r="L28"/>
-      <c s="22" r="M28"/>
-      <c s="22" r="N28"/>
-      <c t="s" s="1" r="O28">
+      <c t="s" s="19" r="N34">
         <v>275</v>
       </c>
-      <c t="s" s="1" r="P28">
+      <c t="s" s="19" r="O34">
         <v>276</v>
       </c>
-      <c t="s" s="1" r="Q28">
+    </row>
+    <row customHeight="1" r="35" ht="12.75">
+      <c s="12" r="C35"/>
+      <c t="s" s="19" r="D35">
         <v>277</v>
       </c>
-      <c t="s" s="1" r="R28">
+      <c t="s" s="19" r="E35">
         <v>278</v>
       </c>
-      <c t="s" s="1" r="S28">
+      <c t="s" s="19" r="F35">
         <v>279</v>
       </c>
-      <c t="s" s="23" r="T28">
+      <c t="s" s="19" r="G35">
         <v>280</v>
       </c>
-    </row>
-    <row customHeight="1" r="29" ht="12.75">
-      <c s="22" r="C29"/>
-      <c s="22" r="D29"/>
-      <c s="22" r="E29"/>
-      <c s="22" r="F29"/>
-      <c s="22" r="G29"/>
-      <c s="22" r="H29"/>
-      <c s="22" r="I29"/>
-      <c s="22" r="J29"/>
-      <c s="22" r="K29"/>
-      <c s="22" r="L29"/>
-      <c s="22" r="M29"/>
-      <c s="22" r="N29"/>
-      <c s="1" r="O29"/>
-      <c s="1" r="P29"/>
-      <c s="1" r="Q29"/>
-      <c s="1" r="R29"/>
-      <c s="1" r="S29"/>
-      <c t="s" s="9" r="T29">
+      <c t="s" s="19" r="H35">
         <v>281</v>
       </c>
-    </row>
-    <row customHeight="1" r="30" ht="12.75">
-      <c t="s" s="24" r="A30">
+      <c t="s" s="19" r="I35">
         <v>282</v>
       </c>
-      <c t="s" s="24" r="B30">
+      <c t="s" s="19" r="J35">
         <v>283</v>
       </c>
-      <c t="s" s="11" r="C30">
+      <c t="s" s="19" r="K35">
         <v>284</v>
       </c>
-      <c t="s" s="20" r="D30">
+      <c t="s" s="19" r="L35">
         <v>285</v>
       </c>
-      <c t="s" s="20" r="E30">
+      <c t="s" s="19" r="M35">
         <v>286</v>
       </c>
-      <c t="s" s="20" r="F30">
+      <c t="s" s="19" r="N35">
         <v>287</v>
       </c>
-      <c t="s" s="20" r="G30">
+      <c t="s" s="12" r="O35">
         <v>288</v>
       </c>
-      <c t="s" s="20" r="H30">
+    </row>
+    <row customHeight="1" r="36" ht="12.75">
+      <c t="s" s="20" r="A36">
         <v>289</v>
       </c>
-      <c t="s" s="20" r="I30">
+      <c t="s" s="20" r="B36">
         <v>290</v>
       </c>
-      <c t="s" s="20" r="J30">
+      <c t="s" s="10" r="C36">
         <v>291</v>
       </c>
-      <c t="s" s="20" r="K30">
+      <c t="s" s="24" r="D36">
         <v>292</v>
       </c>
-      <c t="s" s="20" r="L30">
+      <c t="s" s="24" r="E36">
         <v>293</v>
       </c>
-      <c t="s" s="20" r="M30">
+      <c t="s" s="24" r="F36">
         <v>294</v>
       </c>
-      <c t="s" s="20" r="N30">
+      <c t="s" s="24" r="G36">
         <v>295</v>
       </c>
-      <c t="s" s="12" r="O30">
+      <c t="s" s="24" r="H36">
         <v>296</v>
       </c>
-      <c t="s" s="12" r="P30">
+      <c t="s" s="24" r="I36">
         <v>297</v>
       </c>
-      <c t="s" s="12" r="Q30">
+      <c t="s" s="24" r="J36">
         <v>298</v>
       </c>
-      <c t="s" s="12" r="R30">
+      <c t="s" s="24" r="K36">
         <v>299</v>
       </c>
-      <c t="s" s="12" r="S30">
+      <c t="s" s="24" r="L36">
         <v>300</v>
       </c>
-      <c t="s" s="20" r="T30">
+      <c t="s" s="24" r="M36">
         <v>301</v>
       </c>
-    </row>
-    <row customHeight="1" r="31" ht="12.75">
-      <c s="11" r="C31"/>
-      <c t="s" s="20" r="D31">
+      <c t="s" s="24" r="N36">
         <v>302</v>
       </c>
-      <c t="s" s="20" r="E31">
+      <c t="s" s="25" r="O36">
         <v>303</v>
       </c>
-      <c t="s" s="20" r="F31">
+    </row>
+    <row customHeight="1" r="37" ht="12.75">
+      <c s="26" r="C37"/>
+      <c t="s" s="24" r="D37">
         <v>304</v>
       </c>
-      <c t="s" s="20" r="G31">
+      <c t="s" s="24" r="E37">
         <v>305</v>
       </c>
-      <c t="s" s="20" r="H31">
+      <c t="s" s="24" r="F37">
         <v>306</v>
       </c>
-      <c t="s" s="20" r="I31">
+      <c t="s" s="24" r="G37">
         <v>307</v>
       </c>
-      <c t="s" s="20" r="J31">
+      <c t="s" s="24" r="H37">
         <v>308</v>
       </c>
-      <c t="s" s="20" r="K31">
+      <c t="s" s="24" r="I37">
         <v>309</v>
       </c>
-      <c t="s" s="20" r="L31">
+      <c t="s" s="24" r="J37">
         <v>310</v>
       </c>
-      <c t="s" s="20" r="M31">
+      <c t="s" s="24" r="K37">
         <v>311</v>
       </c>
-      <c t="s" s="20" r="N31">
+      <c t="s" s="24" r="L37">
         <v>312</v>
       </c>
-      <c t="s" s="12" r="O31">
+      <c t="s" s="24" r="M37">
         <v>313</v>
       </c>
-      <c t="s" s="12" r="P31">
+      <c t="s" s="24" r="N37">
         <v>314</v>
       </c>
-      <c t="s" s="12" r="Q31">
+      <c t="s" s="10" r="O37">
         <v>315</v>
       </c>
-      <c t="s" s="12" r="R31">
+    </row>
+    <row customHeight="1" r="38" ht="12.75">
+      <c t="s" s="17" r="A38">
         <v>316</v>
       </c>
-      <c t="s" s="12" r="S31">
+      <c t="s" s="17" r="B38">
         <v>317</v>
       </c>
-      <c t="s" s="11" r="T31">
+      <c t="s" s="27" r="C38">
         <v>318</v>
       </c>
-    </row>
-    <row customHeight="1" r="32" ht="12.75">
-      <c t="s" s="21" r="A32">
+      <c t="s" s="19" r="D38">
         <v>319</v>
       </c>
-      <c t="s" s="21" r="B32">
+      <c t="s" s="19" r="E38">
         <v>320</v>
       </c>
-      <c t="s" s="9" r="C32">
+      <c t="s" s="19" r="F38">
         <v>321</v>
       </c>
-      <c t="s" s="25" r="D32">
+      <c t="s" s="19" r="G38">
         <v>322</v>
       </c>
-      <c t="s" s="25" r="E32">
+      <c t="s" s="19" r="H38">
         <v>323</v>
       </c>
-      <c t="s" s="25" r="F32">
+      <c t="s" s="19" r="I38">
         <v>324</v>
       </c>
-      <c t="s" s="25" r="G32">
+      <c t="s" s="19" r="J38">
         <v>325</v>
       </c>
-      <c t="s" s="25" r="H32">
+      <c t="s" s="19" r="K38">
         <v>326</v>
       </c>
-      <c t="s" s="25" r="I32">
+      <c t="s" s="19" r="L38">
         <v>327</v>
       </c>
-      <c t="s" s="25" r="J32">
+      <c t="s" s="19" r="M38">
         <v>328</v>
       </c>
-      <c t="s" s="25" r="K32">
+      <c t="s" s="19" r="N38">
         <v>329</v>
       </c>
-      <c t="s" s="25" r="L32">
+      <c t="s" s="19" r="O38">
         <v>330</v>
       </c>
-      <c t="s" s="25" r="M32">
+    </row>
+    <row customHeight="1" r="39" ht="12.75">
+      <c s="27" r="C39"/>
+      <c t="s" s="19" r="D39">
         <v>331</v>
       </c>
-      <c t="s" s="25" r="N32">
+      <c t="s" s="19" r="E39">
         <v>332</v>
       </c>
-      <c t="s" s="1" r="O32">
+      <c t="s" s="19" r="F39">
         <v>333</v>
       </c>
-      <c t="s" s="1" r="P32">
+      <c t="s" s="19" r="G39">
         <v>334</v>
       </c>
-      <c t="s" s="1" r="Q32">
+      <c t="s" s="19" r="H39">
         <v>335</v>
       </c>
-      <c t="s" s="1" r="R32">
+      <c t="s" s="19" r="I39">
         <v>336</v>
       </c>
-      <c t="s" s="1" r="S32">
+      <c t="s" s="19" r="J39">
         <v>337</v>
       </c>
-      <c t="s" s="26" r="T32">
+      <c t="s" s="19" r="K39">
         <v>338</v>
       </c>
-    </row>
-    <row customHeight="1" r="33" ht="12.75">
-      <c s="9" r="C33"/>
-      <c t="s" s="25" r="D33">
+      <c t="s" s="19" r="L39">
         <v>339</v>
       </c>
-      <c t="s" s="25" r="E33">
+      <c t="s" s="19" r="M39">
         <v>340</v>
       </c>
-      <c t="s" s="25" r="F33">
+      <c t="s" s="19" r="N39">
         <v>341</v>
       </c>
-      <c t="s" s="25" r="G33">
+      <c t="s" s="19" r="O39">
         <v>342</v>
       </c>
-      <c t="s" s="25" r="H33">
+    </row>
+    <row customHeight="1" r="40" ht="12.75">
+      <c s="27" r="C40"/>
+      <c t="s" s="19" r="D40">
         <v>343</v>
       </c>
-      <c t="s" s="25" r="I33">
+      <c t="s" s="19" r="E40">
         <v>344</v>
       </c>
-      <c t="s" s="25" r="J33">
+      <c t="s" s="19" r="F40">
         <v>345</v>
       </c>
-      <c t="s" s="25" r="K33">
+      <c t="s" s="19" r="G40">
         <v>346</v>
       </c>
-      <c t="s" s="25" r="L33">
+      <c t="s" s="19" r="H40">
         <v>347</v>
       </c>
-      <c t="s" s="25" r="M33">
+      <c t="s" s="19" r="I40">
         <v>348</v>
       </c>
-      <c t="s" s="25" r="N33">
+      <c t="s" s="19" r="J40">
         <v>349</v>
       </c>
-      <c t="s" s="1" r="O33">
+      <c t="s" s="19" r="K40">
         <v>350</v>
       </c>
-      <c t="s" s="1" r="P33">
+      <c s="19" r="L40"/>
+      <c t="s" s="19" r="M40">
         <v>351</v>
       </c>
-      <c t="s" s="1" r="Q33">
+      <c t="s" s="19" r="N40">
         <v>352</v>
       </c>
-      <c t="s" s="1" r="R33">
+      <c t="s" s="12" r="O40">
         <v>353</v>
       </c>
-      <c t="s" s="1" r="S33">
+    </row>
+    <row customHeight="1" r="41" ht="12.75">
+      <c t="s" s="20" r="A41">
         <v>354</v>
       </c>
-      <c t="s" s="9" r="T33">
+      <c t="s" s="20" r="B41">
         <v>355</v>
       </c>
-    </row>
-    <row customHeight="1" r="34" ht="12.75">
-      <c t="s" s="24" r="A34">
+      <c t="s" s="26" r="C41">
         <v>356</v>
       </c>
-      <c t="s" s="24" r="B34">
+      <c t="s" s="24" r="D41">
         <v>357</v>
       </c>
-      <c t="s" s="11" r="C34">
+      <c t="s" s="24" r="E41">
         <v>358</v>
       </c>
-      <c t="s" s="20" r="D34">
+      <c t="s" s="24" r="F41">
         <v>359</v>
       </c>
-      <c t="s" s="20" r="E34">
+      <c s="24" r="G41"/>
+      <c s="24" r="H41"/>
+      <c s="24" r="I41"/>
+      <c s="24" r="J41"/>
+      <c s="24" r="K41"/>
+      <c s="24" r="L41"/>
+      <c s="24" r="M41"/>
+      <c s="24" r="N41"/>
+      <c s="2" r="O41"/>
+    </row>
+    <row customHeight="1" r="42" ht="12.75">
+      <c s="26" r="C42"/>
+      <c s="24" r="D42"/>
+      <c s="24" r="E42"/>
+      <c s="24" r="F42"/>
+      <c s="24" r="G42"/>
+      <c s="24" r="H42"/>
+      <c s="24" r="I42"/>
+      <c s="24" r="J42"/>
+      <c s="24" r="K42"/>
+      <c s="24" r="L42"/>
+      <c s="24" r="M42"/>
+      <c s="24" r="N42"/>
+      <c s="2" r="O42"/>
+    </row>
+    <row customHeight="1" r="43" ht="12.75">
+      <c t="s" s="17" r="A43">
         <v>360</v>
       </c>
-      <c t="s" s="20" r="F34">
+      <c t="s" s="17" r="B43">
         <v>361</v>
       </c>
-      <c t="s" s="20" r="G34">
+      <c t="s" s="27" r="C43">
         <v>362</v>
       </c>
-      <c t="s" s="20" r="H34">
+      <c t="s" s="27" r="D43">
         <v>363</v>
       </c>
-      <c t="s" s="20" r="I34">
+      <c t="s" s="27" r="E43">
         <v>364</v>
       </c>
-      <c t="s" s="20" r="J34">
+      <c t="s" s="27" r="F43">
         <v>365</v>
       </c>
-      <c t="s" s="20" r="K34">
+      <c t="s" s="27" r="G43">
         <v>366</v>
       </c>
-      <c t="s" s="20" r="L34">
+      <c t="s" s="27" r="H43">
         <v>367</v>
       </c>
-      <c t="s" s="20" r="M34">
+      <c t="s" s="27" r="I43">
         <v>368</v>
       </c>
-      <c t="s" s="20" r="N34">
+      <c t="s" s="27" r="J43">
         <v>369</v>
       </c>
-      <c t="s" s="12" r="O34">
+      <c t="s" s="27" r="K43">
         <v>370</v>
       </c>
-      <c t="s" s="12" r="P34">
+      <c t="s" s="27" r="L43">
         <v>371</v>
       </c>
-      <c t="s" s="12" r="Q34">
+      <c t="s" s="27" r="M43">
         <v>372</v>
       </c>
-      <c t="s" s="12" r="R34">
+      <c t="s" s="27" r="N43">
         <v>373</v>
       </c>
-      <c t="s" s="12" r="S34">
+      <c t="s" s="27" r="O43">
         <v>374</v>
       </c>
-      <c t="s" s="20" r="T34">
+    </row>
+    <row customHeight="1" r="44" ht="12.75">
+      <c t="s" s="27" r="C44">
         <v>375</v>
       </c>
-    </row>
-    <row customHeight="1" r="35" ht="12.75">
-      <c s="11" r="C35"/>
-      <c t="s" s="20" r="D35">
+      <c t="s" s="27" r="D44">
         <v>376</v>
       </c>
-      <c t="s" s="20" r="E35">
+      <c t="s" s="27" r="E44">
         <v>377</v>
       </c>
-      <c t="s" s="20" r="F35">
+      <c t="s" s="27" r="F44">
         <v>378</v>
       </c>
-      <c t="s" s="20" r="G35">
+      <c t="s" s="27" r="G44">
         <v>379</v>
       </c>
-      <c t="s" s="20" r="H35">
+      <c t="s" s="27" r="H44">
         <v>380</v>
       </c>
-      <c t="s" s="20" r="I35">
+      <c t="s" s="27" r="I44">
         <v>381</v>
       </c>
-      <c t="s" s="20" r="J35">
+      <c t="s" s="27" r="J44">
         <v>382</v>
       </c>
-      <c t="s" s="20" r="K35">
+      <c t="s" s="27" r="K44">
         <v>383</v>
       </c>
-      <c t="s" s="20" r="L35">
+      <c t="s" s="27" r="L44">
         <v>384</v>
       </c>
-      <c t="s" s="20" r="M35">
+      <c t="s" s="27" r="M44">
         <v>385</v>
       </c>
-      <c t="s" s="20" r="N35">
+      <c t="s" s="27" r="N44">
         <v>386</v>
       </c>
-      <c t="s" s="12" r="O35">
+      <c t="s" s="12" r="O44">
         <v>387</v>
       </c>
-      <c t="s" s="12" r="P35">
+    </row>
+    <row customHeight="1" r="45" ht="12.75">
+      <c t="s" s="28" r="A45">
         <v>388</v>
       </c>
-      <c t="s" s="12" r="Q35">
+      <c t="s" s="28" r="B45">
         <v>389</v>
       </c>
-      <c t="s" s="12" r="R35">
+      <c s="26" r="C45"/>
+      <c t="s" s="26" r="D45">
         <v>390</v>
       </c>
-      <c t="s" s="12" r="S35">
+      <c t="s" s="26" r="E45">
         <v>391</v>
       </c>
-      <c t="s" s="11" r="T35">
+      <c t="s" s="26" r="F45">
         <v>392</v>
       </c>
-    </row>
-    <row customHeight="1" r="36" ht="12.75">
-      <c t="s" s="21" r="A36">
+      <c t="s" s="26" r="G45">
         <v>393</v>
       </c>
-      <c t="s" s="21" r="B36">
+      <c t="s" s="26" r="H45">
         <v>394</v>
       </c>
-      <c t="s" s="9" r="C36">
+      <c t="s" s="26" r="I45">
         <v>395</v>
       </c>
-      <c t="s" s="25" r="D36">
+      <c t="s" s="26" r="J45">
         <v>396</v>
       </c>
-      <c t="s" s="25" r="E36">
+      <c t="s" s="26" r="K45">
         <v>397</v>
       </c>
-      <c t="s" s="25" r="F36">
+      <c t="s" s="26" r="L45">
         <v>398</v>
       </c>
-      <c t="s" s="25" r="G36">
+      <c t="s" s="26" r="M45">
         <v>399</v>
       </c>
-      <c t="s" s="25" r="H36">
+      <c t="s" s="26" r="N45">
         <v>400</v>
       </c>
-      <c t="s" s="25" r="I36">
+      <c t="s" s="6" r="O45">
         <v>401</v>
       </c>
-      <c t="s" s="25" r="J36">
+    </row>
+    <row customHeight="1" r="46" ht="12.75">
+      <c s="26" r="C46"/>
+      <c t="s" s="26" r="D46">
         <v>402</v>
       </c>
-      <c t="s" s="25" r="K36">
+      <c t="s" s="26" r="E46">
         <v>403</v>
       </c>
-      <c t="s" s="25" r="L36">
+      <c t="s" s="26" r="F46">
         <v>404</v>
       </c>
-      <c t="s" s="25" r="M36">
+      <c t="s" s="26" r="G46">
         <v>405</v>
       </c>
-      <c t="s" s="25" r="N36">
+      <c t="s" s="26" r="H46">
         <v>406</v>
       </c>
-      <c t="s" s="1" r="O36">
+      <c t="s" s="26" r="I46">
         <v>407</v>
       </c>
-      <c t="s" s="1" r="P36">
+      <c t="s" s="26" r="J46">
         <v>408</v>
       </c>
-      <c t="s" s="1" r="Q36">
+      <c t="s" s="26" r="K46">
         <v>409</v>
       </c>
-      <c t="s" s="1" r="R36">
+      <c t="s" s="26" r="L46">
         <v>410</v>
       </c>
-      <c t="s" s="1" r="S36">
+      <c t="s" s="26" r="M46">
         <v>411</v>
       </c>
-      <c t="s" s="26" r="T36">
+      <c t="s" s="26" r="N46">
         <v>412</v>
       </c>
-    </row>
-    <row customHeight="1" r="37" ht="12.75">
-      <c s="27" r="C37"/>
-      <c t="s" s="25" r="D37">
+      <c t="s" s="10" r="O46">
         <v>413</v>
       </c>
-      <c t="s" s="25" r="E37">
+    </row>
+    <row customHeight="1" r="47" ht="12.75">
+      <c t="s" s="11" r="A47">
         <v>414</v>
       </c>
-      <c t="s" s="25" r="F37">
+      <c t="s" s="11" r="B47">
         <v>415</v>
       </c>
-      <c t="s" s="25" r="G37">
+      <c t="s" s="27" r="C47">
         <v>416</v>
       </c>
-      <c t="s" s="25" r="H37">
+      <c t="s" s="27" r="D47">
         <v>417</v>
       </c>
-      <c t="s" s="25" r="I37">
+      <c t="s" s="27" r="E47">
         <v>418</v>
       </c>
-      <c t="s" s="25" r="J37">
+      <c t="s" s="27" r="F47">
         <v>419</v>
       </c>
-      <c t="s" s="25" r="K37">
+      <c t="s" s="27" r="G47">
         <v>420</v>
       </c>
-      <c t="s" s="25" r="L37">
+      <c t="s" s="27" r="H47">
         <v>421</v>
       </c>
-      <c t="s" s="25" r="M37">
+      <c t="s" s="27" r="I47">
         <v>422</v>
       </c>
-      <c t="s" s="25" r="N37">
+      <c t="s" s="27" r="J47">
         <v>423</v>
       </c>
-      <c t="s" s="1" r="O37">
+      <c t="s" s="27" r="K47">
         <v>424</v>
       </c>
-      <c t="s" s="1" r="P37">
+      <c s="27" r="L47"/>
+      <c t="s" s="27" r="M47">
         <v>425</v>
       </c>
-      <c t="s" s="1" r="Q37">
+      <c t="s" s="27" r="N47">
         <v>426</v>
       </c>
-      <c t="s" s="1" r="R37">
+      <c s="29" r="O47"/>
+    </row>
+    <row customHeight="1" r="48" ht="12.75">
+      <c t="s" s="27" r="C48">
         <v>427</v>
       </c>
-      <c t="s" s="1" r="S37">
+      <c t="s" s="27" r="D48">
         <v>428</v>
       </c>
-      <c t="s" s="9" r="T37">
+      <c t="s" s="27" r="E48">
         <v>429</v>
       </c>
-    </row>
-    <row customHeight="1" r="38" ht="12.75">
-      <c t="s" s="18" r="A38">
+      <c t="s" s="27" r="F48">
         <v>430</v>
       </c>
-      <c t="s" s="18" r="B38">
+      <c t="s" s="27" r="G48">
         <v>431</v>
       </c>
-      <c t="s" s="28" r="C38">
+      <c t="s" s="27" r="H48">
         <v>432</v>
       </c>
-      <c t="s" s="20" r="D38">
+      <c t="s" s="27" r="I48">
         <v>433</v>
       </c>
-      <c t="s" s="20" r="E38">
+      <c t="s" s="27" r="J48">
         <v>434</v>
       </c>
-      <c t="s" s="20" r="F38">
+      <c t="s" s="27" r="K48">
         <v>435</v>
       </c>
-      <c t="s" s="20" r="G38">
+      <c s="19" r="L48"/>
+      <c t="s" s="27" r="M48">
         <v>436</v>
       </c>
-      <c t="s" s="20" r="H38">
+      <c t="s" s="27" r="N48">
         <v>437</v>
       </c>
-      <c t="s" s="20" r="I38">
+      <c s="29" r="O48"/>
+    </row>
+    <row customHeight="1" r="49" ht="13.5">
+      <c t="s" s="28" r="A49">
         <v>438</v>
       </c>
-      <c t="s" s="20" r="J38">
+      <c t="s" s="28" r="B49">
         <v>439</v>
       </c>
-      <c t="s" s="20" r="K38">
+      <c s="26" r="C49"/>
+      <c t="s" s="26" r="D49">
         <v>440</v>
       </c>
-      <c t="s" s="20" r="L38">
+      <c t="s" s="26" r="E49">
         <v>441</v>
       </c>
-      <c t="s" s="20" r="M38">
+      <c t="s" s="26" r="F49">
         <v>442</v>
       </c>
-      <c t="s" s="20" r="N38">
+      <c t="s" s="26" r="G49">
         <v>443</v>
       </c>
-      <c t="s" s="12" r="O38">
+      <c t="s" s="26" r="H49">
         <v>444</v>
       </c>
-      <c t="s" s="12" r="P38">
+      <c t="s" s="26" r="I49">
         <v>445</v>
       </c>
-      <c t="s" s="12" r="Q38">
+      <c t="s" s="26" r="J49">
         <v>446</v>
       </c>
-      <c t="s" s="12" r="R38">
+      <c t="s" s="26" r="K49">
         <v>447</v>
       </c>
-      <c t="s" s="12" r="S38">
+      <c t="s" s="26" r="L49">
         <v>448</v>
       </c>
-      <c t="s" s="20" r="T38">
+      <c t="s" s="26" r="M49">
         <v>449</v>
       </c>
-    </row>
-    <row customHeight="1" r="39" ht="12.75">
-      <c s="28" r="C39"/>
-      <c t="s" s="20" r="D39">
+      <c t="s" s="26" r="N49">
         <v>450</v>
       </c>
-      <c t="s" s="20" r="E39">
+      <c t="s" s="6" r="O49">
         <v>451</v>
       </c>
-      <c t="s" s="20" r="F39">
+    </row>
+    <row customHeight="1" r="50" ht="12.75">
+      <c s="26" r="C50"/>
+      <c t="s" s="24" r="D50">
         <v>452</v>
       </c>
-      <c t="s" s="20" r="G39">
+      <c t="s" s="24" r="E50">
         <v>453</v>
       </c>
-      <c t="s" s="20" r="H39">
+      <c t="s" s="24" r="F50">
         <v>454</v>
       </c>
-      <c t="s" s="20" r="I39">
+      <c t="s" s="24" r="G50">
         <v>455</v>
       </c>
-      <c t="s" s="20" r="J39">
+      <c t="s" s="24" r="H50">
         <v>456</v>
       </c>
-      <c t="s" s="20" r="K39">
+      <c t="s" s="24" r="I50">
         <v>457</v>
       </c>
-      <c t="s" s="20" r="L39">
+      <c t="s" s="24" r="J50">
         <v>458</v>
       </c>
-      <c t="s" s="20" r="M39">
+      <c t="s" s="24" r="K50">
         <v>459</v>
       </c>
-      <c t="s" s="20" r="N39">
+      <c t="s" s="24" r="L50">
         <v>460</v>
       </c>
-      <c t="s" s="12" r="O39">
+      <c t="s" s="24" r="M50">
         <v>461</v>
       </c>
-      <c t="s" s="12" r="P39">
+      <c t="s" s="24" r="N50">
         <v>462</v>
       </c>
-      <c t="s" s="12" r="Q39">
+      <c t="s" s="10" r="O50">
         <v>463</v>
       </c>
-      <c t="s" s="12" r="R39">
+    </row>
+    <row customHeight="1" r="51" ht="12.75">
+      <c s="30" r="A51"/>
+    </row>
+    <row customHeight="1" r="52" ht="12.75">
+      <c t="s" s="31" r="A52">
         <v>464</v>
-      </c>
-      <c t="s" s="12" r="S39">
-        <v>465</v>
-      </c>
-      <c t="s" s="20" r="T39">
-        <v>466</v>
-      </c>
-    </row>
-    <row customHeight="1" r="40" ht="12.75">
-      <c s="28" r="C40"/>
-      <c t="s" s="20" r="D40">
-        <v>467</v>
-      </c>
-      <c t="s" s="20" r="E40">
-        <v>468</v>
-      </c>
-      <c t="s" s="20" r="F40">
-        <v>469</v>
-      </c>
-      <c t="s" s="20" r="G40">
-        <v>470</v>
-      </c>
-      <c t="s" s="20" r="H40">
-        <v>471</v>
-      </c>
-      <c t="s" s="20" r="I40">
-        <v>472</v>
-      </c>
-      <c t="s" s="20" r="J40">
-        <v>473</v>
-      </c>
-      <c t="s" s="20" r="K40">
-        <v>474</v>
-      </c>
-      <c s="20" r="L40"/>
-      <c t="s" s="20" r="M40">
-        <v>475</v>
-      </c>
-      <c t="s" s="20" r="N40">
-        <v>476</v>
-      </c>
-      <c t="s" s="12" r="O40">
-        <v>477</v>
-      </c>
-      <c t="s" s="12" r="P40">
-        <v>478</v>
-      </c>
-      <c t="s" s="12" r="Q40">
-        <v>479</v>
-      </c>
-      <c t="s" s="12" r="R40">
-        <v>480</v>
-      </c>
-      <c t="s" s="12" r="S40">
-        <v>481</v>
-      </c>
-      <c t="s" s="11" r="T40">
-        <v>482</v>
-      </c>
-    </row>
-    <row customHeight="1" r="41" ht="12.75">
-      <c t="s" s="21" r="A41">
-        <v>483</v>
-      </c>
-      <c t="s" s="21" r="B41">
-        <v>484</v>
-      </c>
-      <c t="s" s="27" r="C41">
-        <v>485</v>
-      </c>
-      <c t="s" s="25" r="D41">
-        <v>486</v>
-      </c>
-      <c t="s" s="25" r="E41">
-        <v>487</v>
-      </c>
-      <c t="s" s="25" r="F41">
-        <v>488</v>
-      </c>
-      <c s="25" r="G41"/>
-      <c s="25" r="H41"/>
-      <c s="25" r="I41"/>
-      <c s="25" r="J41"/>
-      <c s="25" r="K41"/>
-      <c s="25" r="L41"/>
-      <c s="25" r="M41"/>
-      <c s="25" r="N41"/>
-      <c t="s" s="1" r="O41">
-        <v>489</v>
-      </c>
-      <c t="s" s="1" r="P41">
-        <v>490</v>
-      </c>
-      <c t="s" s="1" r="Q41">
-        <v>491</v>
-      </c>
-      <c t="s" s="1" r="R41">
-        <v>492</v>
-      </c>
-      <c t="s" s="1" r="S41">
-        <v>493</v>
-      </c>
-      <c s="2" r="T41"/>
-    </row>
-    <row customHeight="1" r="42" ht="12.75">
-      <c s="27" r="C42"/>
-      <c s="25" r="D42"/>
-      <c s="25" r="E42"/>
-      <c s="25" r="F42"/>
-      <c s="25" r="G42"/>
-      <c s="25" r="H42"/>
-      <c s="25" r="I42"/>
-      <c s="25" r="J42"/>
-      <c s="25" r="K42"/>
-      <c s="25" r="L42"/>
-      <c s="25" r="M42"/>
-      <c s="25" r="N42"/>
-      <c t="s" s="1" r="O42">
-        <v>494</v>
-      </c>
-      <c t="s" s="1" r="P42">
-        <v>495</v>
-      </c>
-      <c t="s" s="1" r="Q42">
-        <v>496</v>
-      </c>
-      <c t="s" s="1" r="R42">
-        <v>497</v>
-      </c>
-      <c t="s" s="1" r="S42">
-        <v>498</v>
-      </c>
-      <c s="2" r="T42"/>
-    </row>
-    <row customHeight="1" r="43" ht="12.75">
-      <c t="s" s="18" r="A43">
-        <v>499</v>
-      </c>
-      <c t="s" s="18" r="B43">
-        <v>500</v>
-      </c>
-      <c t="s" s="28" r="C43">
-        <v>501</v>
-      </c>
-      <c t="s" s="28" r="D43">
-        <v>502</v>
-      </c>
-      <c t="s" s="28" r="E43">
-        <v>503</v>
-      </c>
-      <c t="s" s="28" r="F43">
-        <v>504</v>
-      </c>
-      <c t="s" s="28" r="G43">
-        <v>505</v>
-      </c>
-      <c t="s" s="28" r="H43">
-        <v>506</v>
-      </c>
-      <c t="s" s="28" r="I43">
-        <v>507</v>
-      </c>
-      <c t="s" s="28" r="J43">
-        <v>508</v>
-      </c>
-      <c t="s" s="28" r="K43">
-        <v>509</v>
-      </c>
-      <c t="s" s="28" r="L43">
-        <v>510</v>
-      </c>
-      <c t="s" s="28" r="M43">
-        <v>511</v>
-      </c>
-      <c t="s" s="28" r="N43">
-        <v>512</v>
-      </c>
-      <c t="s" s="12" r="O43">
-        <v>513</v>
-      </c>
-      <c t="s" s="12" r="P43">
-        <v>514</v>
-      </c>
-      <c t="s" s="12" r="Q43">
-        <v>515</v>
-      </c>
-      <c t="s" s="12" r="R43">
-        <v>516</v>
-      </c>
-      <c t="s" s="12" r="S43">
-        <v>517</v>
-      </c>
-      <c t="s" s="28" r="T43">
-        <v>518</v>
-      </c>
-    </row>
-    <row customHeight="1" r="44" ht="12.75">
-      <c t="s" s="28" r="C44">
-        <v>519</v>
-      </c>
-      <c t="s" s="28" r="D44">
-        <v>520</v>
-      </c>
-      <c t="s" s="28" r="E44">
-        <v>521</v>
-      </c>
-      <c t="s" s="28" r="F44">
-        <v>522</v>
-      </c>
-      <c t="s" s="28" r="G44">
-        <v>523</v>
-      </c>
-      <c t="s" s="28" r="H44">
-        <v>524</v>
-      </c>
-      <c t="s" s="28" r="I44">
-        <v>525</v>
-      </c>
-      <c t="s" s="28" r="J44">
-        <v>526</v>
-      </c>
-      <c t="s" s="28" r="K44">
-        <v>527</v>
-      </c>
-      <c t="s" s="28" r="L44">
-        <v>528</v>
-      </c>
-      <c t="s" s="28" r="M44">
-        <v>529</v>
-      </c>
-      <c t="s" s="28" r="N44">
-        <v>530</v>
-      </c>
-      <c t="s" s="12" r="O44">
-        <v>531</v>
-      </c>
-      <c t="s" s="12" r="P44">
-        <v>532</v>
-      </c>
-      <c t="s" s="12" r="Q44">
-        <v>533</v>
-      </c>
-      <c t="s" s="12" r="R44">
-        <v>534</v>
-      </c>
-      <c t="s" s="12" r="S44">
-        <v>535</v>
-      </c>
-      <c t="s" s="11" r="T44">
-        <v>536</v>
-      </c>
-    </row>
-    <row customHeight="1" r="45" ht="12.75">
-      <c t="s" s="29" r="A45">
-        <v>537</v>
-      </c>
-      <c t="s" s="29" r="B45">
-        <v>538</v>
-      </c>
-      <c s="27" r="C45"/>
-      <c t="s" s="27" r="D45">
-        <v>539</v>
-      </c>
-      <c t="s" s="27" r="E45">
-        <v>540</v>
-      </c>
-      <c t="s" s="27" r="F45">
-        <v>541</v>
-      </c>
-      <c t="s" s="27" r="G45">
-        <v>542</v>
-      </c>
-      <c t="s" s="27" r="H45">
-        <v>543</v>
-      </c>
-      <c t="s" s="27" r="I45">
-        <v>544</v>
-      </c>
-      <c t="s" s="27" r="J45">
-        <v>545</v>
-      </c>
-      <c t="s" s="27" r="K45">
-        <v>546</v>
-      </c>
-      <c t="s" s="27" r="L45">
-        <v>547</v>
-      </c>
-      <c t="s" s="27" r="M45">
-        <v>548</v>
-      </c>
-      <c t="s" s="27" r="N45">
-        <v>549</v>
-      </c>
-      <c s="1" r="O45"/>
-      <c t="s" s="1" r="P45">
-        <v>550</v>
-      </c>
-      <c t="s" s="1" r="Q45">
-        <v>551</v>
-      </c>
-      <c t="s" s="1" r="R45">
-        <v>552</v>
-      </c>
-      <c t="s" s="1" r="S45">
-        <v>553</v>
-      </c>
-      <c t="s" s="5" r="T45">
-        <v>554</v>
-      </c>
-    </row>
-    <row customHeight="1" r="46" ht="12.75">
-      <c s="27" r="C46"/>
-      <c t="s" s="27" r="D46">
-        <v>555</v>
-      </c>
-      <c t="s" s="27" r="E46">
-        <v>556</v>
-      </c>
-      <c t="s" s="27" r="F46">
-        <v>557</v>
-      </c>
-      <c t="s" s="27" r="G46">
-        <v>558</v>
-      </c>
-      <c t="s" s="27" r="H46">
-        <v>559</v>
-      </c>
-      <c t="s" s="27" r="I46">
-        <v>560</v>
-      </c>
-      <c t="s" s="27" r="J46">
-        <v>561</v>
-      </c>
-      <c t="s" s="27" r="K46">
-        <v>562</v>
-      </c>
-      <c t="s" s="27" r="L46">
-        <v>563</v>
-      </c>
-      <c t="s" s="27" r="M46">
-        <v>564</v>
-      </c>
-      <c t="s" s="27" r="N46">
-        <v>565</v>
-      </c>
-      <c s="1" r="O46"/>
-      <c t="s" s="1" r="P46">
-        <v>566</v>
-      </c>
-      <c t="s" s="1" r="Q46">
-        <v>567</v>
-      </c>
-      <c t="s" s="1" r="R46">
-        <v>568</v>
-      </c>
-      <c t="s" s="1" r="S46">
-        <v>569</v>
-      </c>
-      <c t="s" s="9" r="T46">
-        <v>570</v>
-      </c>
-    </row>
-    <row customHeight="1" r="47" ht="12.75">
-      <c t="s" s="10" r="A47">
-        <v>571</v>
-      </c>
-      <c t="s" s="10" r="B47">
-        <v>572</v>
-      </c>
-      <c t="s" s="28" r="C47">
-        <v>573</v>
-      </c>
-      <c t="s" s="28" r="D47">
-        <v>574</v>
-      </c>
-      <c t="s" s="28" r="E47">
-        <v>575</v>
-      </c>
-      <c t="s" s="28" r="F47">
-        <v>576</v>
-      </c>
-      <c t="s" s="28" r="G47">
-        <v>577</v>
-      </c>
-      <c t="s" s="28" r="H47">
-        <v>578</v>
-      </c>
-      <c t="s" s="28" r="I47">
-        <v>579</v>
-      </c>
-      <c t="s" s="28" r="J47">
-        <v>580</v>
-      </c>
-      <c t="s" s="28" r="K47">
-        <v>581</v>
-      </c>
-      <c s="28" r="L47"/>
-      <c t="s" s="28" r="M47">
-        <v>582</v>
-      </c>
-      <c t="s" s="28" r="N47">
-        <v>583</v>
-      </c>
-      <c s="12" r="O47"/>
-      <c s="12" r="P47"/>
-      <c s="12" r="Q47"/>
-      <c s="12" r="R47"/>
-      <c s="12" r="S47"/>
-      <c s="30" r="T47"/>
-    </row>
-    <row customHeight="1" r="48" ht="12.75">
-      <c t="s" s="28" r="C48">
-        <v>584</v>
-      </c>
-      <c t="s" s="28" r="D48">
-        <v>585</v>
-      </c>
-      <c t="s" s="28" r="E48">
-        <v>586</v>
-      </c>
-      <c t="s" s="28" r="F48">
-        <v>587</v>
-      </c>
-      <c t="s" s="28" r="G48">
-        <v>588</v>
-      </c>
-      <c t="s" s="28" r="H48">
-        <v>589</v>
-      </c>
-      <c t="s" s="28" r="I48">
-        <v>590</v>
-      </c>
-      <c t="s" s="28" r="J48">
-        <v>591</v>
-      </c>
-      <c t="s" s="28" r="K48">
-        <v>592</v>
-      </c>
-      <c s="20" r="L48"/>
-      <c t="s" s="28" r="M48">
-        <v>593</v>
-      </c>
-      <c t="s" s="28" r="N48">
-        <v>594</v>
-      </c>
-      <c s="12" r="O48"/>
-      <c s="12" r="P48"/>
-      <c s="12" r="Q48"/>
-      <c s="12" r="R48"/>
-      <c s="12" r="S48"/>
-      <c s="30" r="T48"/>
-    </row>
-    <row customHeight="1" r="49" ht="13.5">
-      <c t="s" s="29" r="A49">
-        <v>595</v>
-      </c>
-      <c t="s" s="29" r="B49">
-        <v>596</v>
-      </c>
-      <c s="27" r="C49"/>
-      <c t="s" s="27" r="D49">
-        <v>597</v>
-      </c>
-      <c t="s" s="27" r="E49">
-        <v>598</v>
-      </c>
-      <c t="s" s="27" r="F49">
-        <v>599</v>
-      </c>
-      <c t="s" s="27" r="G49">
-        <v>600</v>
-      </c>
-      <c t="s" s="27" r="H49">
-        <v>601</v>
-      </c>
-      <c t="s" s="27" r="I49">
-        <v>602</v>
-      </c>
-      <c t="s" s="27" r="J49">
-        <v>603</v>
-      </c>
-      <c t="s" s="27" r="K49">
-        <v>604</v>
-      </c>
-      <c t="s" s="27" r="L49">
-        <v>605</v>
-      </c>
-      <c t="s" s="27" r="M49">
-        <v>606</v>
-      </c>
-      <c t="s" s="27" r="N49">
-        <v>607</v>
-      </c>
-      <c t="s" s="1" r="O49">
-        <v>608</v>
-      </c>
-      <c t="s" s="1" r="P49">
-        <v>609</v>
-      </c>
-      <c t="s" s="1" r="Q49">
-        <v>610</v>
-      </c>
-      <c t="s" s="1" r="R49">
-        <v>611</v>
-      </c>
-      <c t="s" s="1" r="S49">
-        <v>612</v>
-      </c>
-      <c t="s" s="5" r="T49">
-        <v>613</v>
-      </c>
-    </row>
-    <row customHeight="1" r="50" ht="12.75">
-      <c s="27" r="C50"/>
-      <c t="s" s="25" r="D50">
-        <v>614</v>
-      </c>
-      <c t="s" s="25" r="E50">
-        <v>615</v>
-      </c>
-      <c t="s" s="25" r="F50">
-        <v>616</v>
-      </c>
-      <c t="s" s="25" r="G50">
-        <v>617</v>
-      </c>
-      <c t="s" s="25" r="H50">
-        <v>618</v>
-      </c>
-      <c t="s" s="25" r="I50">
-        <v>619</v>
-      </c>
-      <c t="s" s="25" r="J50">
-        <v>620</v>
-      </c>
-      <c t="s" s="25" r="K50">
-        <v>621</v>
-      </c>
-      <c t="s" s="25" r="L50">
-        <v>622</v>
-      </c>
-      <c t="s" s="25" r="M50">
-        <v>623</v>
-      </c>
-      <c t="s" s="25" r="N50">
-        <v>624</v>
-      </c>
-      <c s="1" r="O50"/>
-      <c s="1" r="P50"/>
-      <c s="1" r="Q50"/>
-      <c s="1" r="R50"/>
-      <c s="1" r="S50"/>
-      <c t="s" s="9" r="T50">
-        <v>625</v>
-      </c>
-    </row>
-    <row customHeight="1" r="51" ht="12.75">
-      <c s="31" r="A51"/>
-    </row>
-    <row customHeight="1" r="52" ht="12.75">
-      <c t="s" s="32" r="A52">
-        <v>626</v>
       </c>
       <c s="1" r="B52"/>
       <c s="1" r="C52"/>
@@ -5350,1091 +4024,794 @@
       <c s="1" r="M52"/>
       <c s="1" r="N52"/>
       <c s="1" r="O52"/>
-      <c s="1" r="P52"/>
-      <c s="1" r="Q52"/>
-      <c s="1" r="R52"/>
-      <c s="1" r="S52"/>
-      <c s="1" r="T52"/>
     </row>
     <row customHeight="1" r="53" ht="12.75">
-      <c s="27" r="A53"/>
-      <c s="27" r="B53"/>
+      <c s="26" r="A53"/>
+      <c s="26" r="B53"/>
       <c t="s" s="1" r="C53">
-        <v>627</v>
+        <v>465</v>
       </c>
       <c t="s" s="1" r="D53">
-        <v>628</v>
+        <v>466</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>629</v>
+        <v>467</v>
       </c>
       <c t="s" s="1" r="F53">
-        <v>630</v>
+        <v>468</v>
       </c>
       <c t="s" s="1" r="G53">
-        <v>631</v>
+        <v>469</v>
       </c>
       <c t="s" s="1" r="H53">
-        <v>632</v>
+        <v>470</v>
       </c>
       <c t="s" s="1" r="I53">
-        <v>633</v>
+        <v>471</v>
       </c>
       <c t="s" s="1" r="J53">
-        <v>634</v>
+        <v>472</v>
       </c>
       <c t="s" s="1" r="K53">
-        <v>635</v>
+        <v>473</v>
       </c>
       <c t="s" s="1" r="L53">
-        <v>636</v>
+        <v>474</v>
       </c>
       <c t="s" s="1" r="M53">
-        <v>637</v>
+        <v>475</v>
       </c>
       <c t="s" s="1" r="N53">
-        <v>638</v>
-      </c>
-      <c t="s" s="33" r="O53">
-        <v>639</v>
-      </c>
-      <c t="s" s="33" r="P53">
-        <v>640</v>
-      </c>
-      <c t="s" s="1" r="Q53">
-        <v>641</v>
-      </c>
-      <c t="s" s="1" r="R53">
-        <v>642</v>
-      </c>
-      <c t="s" s="1" r="S53">
-        <v>643</v>
-      </c>
-      <c t="s" s="9" r="T53">
-        <v>644</v>
+        <v>476</v>
+      </c>
+      <c t="s" s="10" r="O53">
+        <v>477</v>
       </c>
     </row>
     <row customHeight="1" r="54" ht="12.75">
-      <c s="27" r="A54"/>
-      <c s="27" r="B54"/>
+      <c s="26" r="A54"/>
+      <c s="26" r="B54"/>
       <c t="s" s="1" r="C54">
-        <v>645</v>
-      </c>
-      <c s="25" r="D54"/>
-      <c s="25" r="E54"/>
-      <c s="25" r="F54"/>
+        <v>478</v>
+      </c>
+      <c s="24" r="D54"/>
+      <c s="24" r="E54"/>
+      <c s="24" r="F54"/>
       <c t="s" s="1" r="G54">
-        <v>646</v>
+        <v>479</v>
       </c>
       <c t="s" s="1" r="H54">
-        <v>647</v>
+        <v>480</v>
       </c>
       <c t="s" s="1" r="I54">
-        <v>648</v>
+        <v>481</v>
       </c>
       <c t="s" s="1" r="J54">
-        <v>649</v>
+        <v>482</v>
       </c>
       <c t="s" s="1" r="K54">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c t="s" s="1" r="L54">
-        <v>651</v>
-      </c>
-      <c s="25" r="M54"/>
+        <v>484</v>
+      </c>
+      <c s="24" r="M54"/>
       <c t="s" s="1" r="N54">
-        <v>652</v>
-      </c>
-      <c t="s" s="33" r="O54">
-        <v>653</v>
-      </c>
-      <c t="s" s="33" r="P54">
-        <v>654</v>
-      </c>
-      <c t="s" s="1" r="Q54">
-        <v>655</v>
-      </c>
-      <c t="s" s="1" r="R54">
-        <v>656</v>
-      </c>
-      <c t="s" s="1" r="S54">
-        <v>657</v>
-      </c>
-      <c t="s" s="9" r="T54">
-        <v>658</v>
+        <v>485</v>
+      </c>
+      <c t="s" s="10" r="O54">
+        <v>486</v>
       </c>
     </row>
     <row customHeight="1" r="55" ht="12.75">
-      <c s="27" r="A55"/>
-      <c s="27" r="B55"/>
+      <c s="26" r="A55"/>
+      <c s="26" r="B55"/>
       <c t="s" s="1" r="C55">
-        <v>659</v>
-      </c>
-      <c s="25" r="D55"/>
-      <c s="25" r="E55"/>
-      <c s="25" r="F55"/>
+        <v>487</v>
+      </c>
+      <c s="24" r="D55"/>
+      <c s="24" r="E55"/>
+      <c s="24" r="F55"/>
       <c t="s" s="1" r="G55">
-        <v>660</v>
+        <v>488</v>
       </c>
       <c t="s" s="1" r="H55">
-        <v>661</v>
+        <v>489</v>
       </c>
       <c t="s" s="1" r="I55">
-        <v>662</v>
+        <v>490</v>
       </c>
       <c t="s" s="1" r="J55">
-        <v>663</v>
-      </c>
-      <c s="25" r="K55"/>
+        <v>491</v>
+      </c>
+      <c s="24" r="K55"/>
       <c t="s" s="1" r="L55">
-        <v>664</v>
-      </c>
-      <c s="25" r="M55"/>
+        <v>492</v>
+      </c>
+      <c s="24" r="M55"/>
       <c t="s" s="1" r="N55">
-        <v>665</v>
-      </c>
-      <c s="1" r="O55"/>
-      <c t="s" s="1" r="P55">
-        <v>666</v>
-      </c>
-      <c t="s" s="1" r="Q55">
-        <v>667</v>
-      </c>
-      <c t="s" s="1" r="R55">
-        <v>668</v>
-      </c>
-      <c t="s" s="1" r="S55">
-        <v>669</v>
-      </c>
-      <c t="s" s="9" r="T55">
-        <v>670</v>
+        <v>493</v>
+      </c>
+      <c t="s" s="10" r="O55">
+        <v>494</v>
       </c>
     </row>
     <row customHeight="1" r="56" ht="12.75">
-      <c s="27" r="A56"/>
-      <c s="27" r="B56"/>
+      <c s="26" r="A56"/>
+      <c s="26" r="B56"/>
       <c t="s" s="1" r="C56">
-        <v>671</v>
-      </c>
-      <c s="25" r="D56"/>
-      <c s="25" r="E56"/>
-      <c s="25" r="F56"/>
-      <c t="s" s="25" r="G56">
-        <v>672</v>
-      </c>
-      <c t="s" s="25" r="H56">
-        <v>673</v>
+        <v>495</v>
+      </c>
+      <c s="24" r="D56"/>
+      <c s="24" r="E56"/>
+      <c s="24" r="F56"/>
+      <c t="s" s="24" r="G56">
+        <v>496</v>
+      </c>
+      <c t="s" s="24" r="H56">
+        <v>497</v>
       </c>
       <c t="s" s="1" r="I56">
-        <v>674</v>
+        <v>498</v>
       </c>
       <c t="s" s="1" r="J56">
-        <v>675</v>
-      </c>
-      <c s="25" r="K56"/>
+        <v>499</v>
+      </c>
+      <c s="24" r="K56"/>
       <c t="s" s="1" r="L56">
-        <v>676</v>
-      </c>
-      <c s="25" r="M56"/>
-      <c s="25" r="N56"/>
-      <c s="1" r="O56"/>
-      <c t="s" s="1" r="P56">
-        <v>677</v>
-      </c>
-      <c t="s" s="1" r="Q56">
-        <v>678</v>
-      </c>
-      <c t="s" s="1" r="R56">
-        <v>679</v>
-      </c>
-      <c t="s" s="1" r="S56">
-        <v>680</v>
-      </c>
-      <c s="2" r="T56"/>
+        <v>500</v>
+      </c>
+      <c s="24" r="M56"/>
+      <c s="24" r="N56"/>
+      <c s="2" r="O56"/>
     </row>
     <row customHeight="1" r="57" ht="12.75">
-      <c s="27" r="A57"/>
-      <c s="27" r="B57"/>
+      <c s="26" r="A57"/>
+      <c s="26" r="B57"/>
       <c t="s" s="1" r="C57">
-        <v>681</v>
-      </c>
-      <c s="25" r="D57"/>
-      <c s="25" r="E57"/>
-      <c s="25" r="F57"/>
+        <v>501</v>
+      </c>
+      <c s="24" r="D57"/>
+      <c s="24" r="E57"/>
+      <c s="24" r="F57"/>
       <c t="s" s="1" r="G57">
-        <v>682</v>
+        <v>502</v>
       </c>
       <c t="s" s="1" r="H57">
-        <v>683</v>
+        <v>503</v>
       </c>
       <c t="s" s="1" r="I57">
-        <v>684</v>
+        <v>504</v>
       </c>
       <c t="s" s="1" r="J57">
-        <v>685</v>
-      </c>
-      <c s="25" r="K57"/>
+        <v>505</v>
+      </c>
+      <c s="24" r="K57"/>
       <c t="s" s="1" r="L57">
-        <v>686</v>
-      </c>
-      <c s="25" r="M57"/>
-      <c s="25" r="N57"/>
-      <c s="1" r="O57"/>
-      <c t="s" s="1" r="P57">
-        <v>687</v>
-      </c>
-      <c t="s" s="1" r="Q57">
-        <v>688</v>
-      </c>
-      <c t="s" s="1" r="R57">
-        <v>689</v>
-      </c>
-      <c t="s" s="1" r="S57">
-        <v>690</v>
-      </c>
-      <c s="2" r="T57"/>
+        <v>506</v>
+      </c>
+      <c s="24" r="M57"/>
+      <c s="24" r="N57"/>
+      <c s="2" r="O57"/>
     </row>
     <row customHeight="1" r="58" ht="12.75">
-      <c s="27" r="A58"/>
-      <c s="27" r="B58"/>
-      <c s="27" r="C58"/>
-      <c s="25" r="D58"/>
-      <c s="25" r="E58"/>
-      <c s="25" r="F58"/>
+      <c s="26" r="A58"/>
+      <c s="26" r="B58"/>
+      <c s="26" r="C58"/>
+      <c s="24" r="D58"/>
+      <c s="24" r="E58"/>
+      <c s="24" r="F58"/>
       <c t="s" s="1" r="G58">
-        <v>691</v>
+        <v>507</v>
       </c>
       <c t="s" s="1" r="H58">
-        <v>692</v>
+        <v>508</v>
       </c>
       <c t="s" s="1" r="I58">
-        <v>693</v>
-      </c>
-      <c s="25" r="J58"/>
-      <c s="25" r="K58"/>
+        <v>509</v>
+      </c>
+      <c s="24" r="J58"/>
+      <c s="24" r="K58"/>
       <c t="s" s="1" r="L58">
-        <v>694</v>
-      </c>
-      <c s="25" r="M58"/>
-      <c s="25" r="N58"/>
-      <c s="1" r="O58"/>
-      <c t="s" s="1" r="P58">
-        <v>695</v>
-      </c>
-      <c t="s" s="1" r="Q58">
-        <v>696</v>
-      </c>
-      <c t="s" s="1" r="R58">
-        <v>697</v>
-      </c>
-      <c t="s" s="1" r="S58">
-        <v>698</v>
-      </c>
-      <c s="2" r="T58"/>
+        <v>510</v>
+      </c>
+      <c s="24" r="M58"/>
+      <c s="24" r="N58"/>
+      <c s="2" r="O58"/>
     </row>
     <row customHeight="1" r="59" ht="12.75">
-      <c s="27" r="A59"/>
-      <c s="27" r="B59"/>
-      <c s="27" r="C59"/>
-      <c s="25" r="D59"/>
-      <c s="25" r="E59"/>
-      <c s="25" r="F59"/>
+      <c s="26" r="A59"/>
+      <c s="26" r="B59"/>
+      <c s="26" r="C59"/>
+      <c s="24" r="D59"/>
+      <c s="24" r="E59"/>
+      <c s="24" r="F59"/>
       <c t="s" s="1" r="G59">
-        <v>699</v>
+        <v>511</v>
       </c>
       <c t="s" s="1" r="H59">
-        <v>700</v>
-      </c>
-      <c s="25" r="I59"/>
-      <c s="25" r="J59"/>
-      <c s="25" r="K59"/>
+        <v>512</v>
+      </c>
+      <c s="24" r="I59"/>
+      <c s="24" r="J59"/>
+      <c s="24" r="K59"/>
       <c t="s" s="1" r="L59">
-        <v>701</v>
-      </c>
-      <c s="25" r="M59"/>
-      <c s="25" r="N59"/>
-      <c s="1" r="O59"/>
-      <c t="s" s="1" r="P59">
-        <v>702</v>
-      </c>
-      <c t="s" s="1" r="Q59">
-        <v>703</v>
-      </c>
-      <c s="1" r="R59"/>
-      <c s="1" r="S59"/>
-      <c s="2" r="T59"/>
+        <v>513</v>
+      </c>
+      <c s="24" r="M59"/>
+      <c s="24" r="N59"/>
+      <c s="2" r="O59"/>
     </row>
     <row customHeight="1" r="60" ht="12.75">
-      <c s="27" r="A60"/>
-      <c s="27" r="B60"/>
-      <c s="27" r="C60"/>
-      <c s="25" r="D60"/>
-      <c s="25" r="E60"/>
-      <c s="25" r="F60"/>
-      <c s="25" r="G60"/>
-      <c s="25" r="H60"/>
-      <c s="25" r="I60"/>
-      <c s="25" r="J60"/>
-      <c s="25" r="K60"/>
-      <c s="25" r="L60"/>
-      <c s="25" r="M60"/>
-      <c s="25" r="N60"/>
-      <c s="1" r="O60"/>
-      <c t="s" s="1" r="P60">
-        <v>704</v>
-      </c>
-      <c t="s" s="1" r="Q60">
-        <v>705</v>
-      </c>
-      <c s="1" r="R60"/>
-      <c s="1" r="S60"/>
-      <c s="2" r="T60"/>
+      <c s="26" r="A60"/>
+      <c s="26" r="B60"/>
+      <c s="26" r="C60"/>
+      <c s="24" r="D60"/>
+      <c s="24" r="E60"/>
+      <c s="24" r="F60"/>
+      <c s="24" r="G60"/>
+      <c s="24" r="H60"/>
+      <c s="24" r="I60"/>
+      <c s="24" r="J60"/>
+      <c s="24" r="K60"/>
+      <c s="24" r="L60"/>
+      <c s="24" r="M60"/>
+      <c s="24" r="N60"/>
+      <c s="2" r="O60"/>
     </row>
     <row customHeight="1" r="61" ht="12.75">
-      <c s="27" r="A61"/>
-      <c s="27" r="B61"/>
-      <c s="27" r="C61"/>
-      <c s="25" r="D61"/>
-      <c s="25" r="E61"/>
-      <c s="25" r="F61"/>
-      <c s="25" r="G61"/>
-      <c s="25" r="H61"/>
-      <c s="25" r="I61"/>
-      <c s="25" r="J61"/>
-      <c s="25" r="K61"/>
-      <c s="25" r="L61"/>
-      <c s="25" r="M61"/>
-      <c s="25" r="N61"/>
-      <c s="1" r="O61"/>
-      <c s="1" r="P61"/>
-      <c s="1" r="Q61"/>
-      <c s="1" r="R61"/>
-      <c s="1" r="S61"/>
-      <c s="2" r="T61"/>
+      <c s="26" r="A61"/>
+      <c s="26" r="B61"/>
+      <c s="26" r="C61"/>
+      <c s="24" r="D61"/>
+      <c s="24" r="E61"/>
+      <c s="24" r="F61"/>
+      <c s="24" r="G61"/>
+      <c s="24" r="H61"/>
+      <c s="24" r="I61"/>
+      <c s="24" r="J61"/>
+      <c s="24" r="K61"/>
+      <c s="24" r="L61"/>
+      <c s="24" r="M61"/>
+      <c s="24" r="N61"/>
+      <c s="2" r="O61"/>
     </row>
     <row customHeight="1" r="62" ht="12.75">
-      <c s="27" r="A62"/>
-      <c s="27" r="B62"/>
-      <c s="27" r="C62"/>
-      <c s="25" r="D62"/>
-      <c s="25" r="E62"/>
-      <c s="25" r="F62"/>
-      <c s="25" r="G62"/>
-      <c s="25" r="H62"/>
-      <c s="25" r="I62"/>
-      <c s="25" r="J62"/>
-      <c s="25" r="K62"/>
-      <c s="25" r="L62"/>
-      <c s="25" r="M62"/>
-      <c s="25" r="N62"/>
-      <c s="1" r="O62"/>
-      <c s="1" r="P62"/>
-      <c s="1" r="Q62"/>
-      <c s="1" r="R62"/>
-      <c s="1" r="S62"/>
-      <c s="2" r="T62"/>
+      <c s="26" r="A62"/>
+      <c s="26" r="B62"/>
+      <c s="26" r="C62"/>
+      <c s="24" r="D62"/>
+      <c s="24" r="E62"/>
+      <c s="24" r="F62"/>
+      <c s="24" r="G62"/>
+      <c s="24" r="H62"/>
+      <c s="24" r="I62"/>
+      <c s="24" r="J62"/>
+      <c s="24" r="K62"/>
+      <c s="24" r="L62"/>
+      <c s="24" r="M62"/>
+      <c s="24" r="N62"/>
+      <c s="2" r="O62"/>
     </row>
     <row customHeight="1" r="63" ht="12.75">
-      <c s="27" r="A63"/>
-      <c s="27" r="B63"/>
-      <c s="27" r="C63"/>
-      <c s="25" r="D63"/>
-      <c s="25" r="E63"/>
-      <c s="25" r="F63"/>
-      <c s="25" r="G63"/>
-      <c s="25" r="H63"/>
-      <c s="25" r="I63"/>
-      <c s="25" r="J63"/>
-      <c s="25" r="K63"/>
-      <c s="25" r="L63"/>
-      <c s="25" r="M63"/>
-      <c s="25" r="N63"/>
-      <c s="1" r="O63"/>
-      <c s="1" r="P63"/>
-      <c s="1" r="Q63"/>
-      <c s="1" r="R63"/>
-      <c s="1" r="S63"/>
-      <c s="2" r="T63"/>
+      <c s="26" r="A63"/>
+      <c s="26" r="B63"/>
+      <c s="26" r="C63"/>
+      <c s="24" r="D63"/>
+      <c s="24" r="E63"/>
+      <c s="24" r="F63"/>
+      <c s="24" r="G63"/>
+      <c s="24" r="H63"/>
+      <c s="24" r="I63"/>
+      <c s="24" r="J63"/>
+      <c s="24" r="K63"/>
+      <c s="24" r="L63"/>
+      <c s="24" r="M63"/>
+      <c s="24" r="N63"/>
+      <c s="2" r="O63"/>
     </row>
     <row customHeight="1" r="64" ht="12.75">
-      <c t="s" s="7" r="A64">
-        <v>706</v>
-      </c>
-      <c s="34" r="B64"/>
-      <c s="34" r="C64"/>
-      <c s="34" r="D64"/>
-      <c s="34" r="E64"/>
-      <c s="34" r="F64"/>
-      <c s="34" r="G64"/>
-      <c s="34" r="H64"/>
-      <c s="34" r="I64"/>
-      <c s="34" r="J64"/>
-      <c s="34" r="K64"/>
-      <c s="34" r="L64"/>
-      <c s="34" r="M64"/>
-      <c s="34" r="N64"/>
-      <c s="34" r="O64"/>
-      <c s="34" r="P64"/>
-      <c s="34" r="Q64"/>
-      <c s="34" r="R64"/>
-      <c s="34" r="S64"/>
-      <c s="34" r="T64"/>
+      <c t="s" s="8" r="A64">
+        <v>514</v>
+      </c>
+      <c s="32" r="B64"/>
+      <c s="32" r="C64"/>
+      <c s="32" r="D64"/>
+      <c s="32" r="E64"/>
+      <c s="32" r="F64"/>
+      <c s="32" r="G64"/>
+      <c s="32" r="H64"/>
+      <c s="32" r="I64"/>
+      <c s="32" r="J64"/>
+      <c s="32" r="K64"/>
+      <c s="32" r="L64"/>
+      <c s="32" r="M64"/>
+      <c s="32" r="N64"/>
+      <c s="32" r="O64"/>
     </row>
     <row customHeight="1" r="65" ht="12.75">
-      <c t="s" s="35" r="A65">
-        <v>707</v>
-      </c>
-      <c t="s" s="36" r="B65">
-        <v>708</v>
-      </c>
-      <c t="s" s="9" r="C65">
-        <v>709</v>
-      </c>
-      <c t="s" s="9" r="D65">
-        <v>710</v>
-      </c>
-      <c t="s" s="9" r="E65">
-        <v>711</v>
-      </c>
-      <c t="s" s="9" r="F65">
-        <v>712</v>
-      </c>
-      <c t="s" s="9" r="G65">
-        <v>713</v>
-      </c>
-      <c t="s" s="9" r="H65">
-        <v>714</v>
-      </c>
-      <c t="s" s="9" r="I65">
-        <v>715</v>
-      </c>
-      <c t="s" s="9" r="J65">
-        <v>716</v>
-      </c>
-      <c t="s" s="9" r="K65">
-        <v>717</v>
-      </c>
-      <c t="s" s="9" r="L65">
-        <v>718</v>
-      </c>
-      <c t="s" s="9" r="M65">
-        <v>719</v>
-      </c>
-      <c t="s" s="9" r="N65">
-        <v>720</v>
-      </c>
-      <c t="s" s="1" r="O65">
-        <v>721</v>
-      </c>
-      <c t="s" s="1" r="P65">
-        <v>722</v>
-      </c>
-      <c t="s" s="1" r="Q65">
-        <v>723</v>
-      </c>
-      <c t="s" s="1" r="R65">
-        <v>724</v>
-      </c>
-      <c t="s" s="1" r="S65">
-        <v>725</v>
-      </c>
-      <c t="s" s="9" r="T65">
-        <v>726</v>
+      <c t="s" s="33" r="A65">
+        <v>515</v>
+      </c>
+      <c t="s" s="34" r="B65">
+        <v>516</v>
+      </c>
+      <c t="s" s="10" r="C65">
+        <v>517</v>
+      </c>
+      <c t="s" s="10" r="D65">
+        <v>518</v>
+      </c>
+      <c t="s" s="10" r="E65">
+        <v>519</v>
+      </c>
+      <c t="s" s="10" r="F65">
+        <v>520</v>
+      </c>
+      <c t="s" s="10" r="G65">
+        <v>521</v>
+      </c>
+      <c t="s" s="10" r="H65">
+        <v>522</v>
+      </c>
+      <c t="s" s="10" r="I65">
+        <v>523</v>
+      </c>
+      <c t="s" s="10" r="J65">
+        <v>524</v>
+      </c>
+      <c t="s" s="10" r="K65">
+        <v>525</v>
+      </c>
+      <c t="s" s="10" r="L65">
+        <v>526</v>
+      </c>
+      <c t="s" s="10" r="M65">
+        <v>527</v>
+      </c>
+      <c t="s" s="10" r="N65">
+        <v>528</v>
+      </c>
+      <c t="s" s="10" r="O65">
+        <v>529</v>
       </c>
     </row>
     <row customHeight="1" r="66" ht="12.75">
-      <c t="s" s="35" r="A66">
-        <v>727</v>
-      </c>
-      <c t="s" s="36" r="B66">
-        <v>728</v>
-      </c>
-      <c t="s" s="9" r="C66">
-        <v>729</v>
-      </c>
-      <c t="s" s="9" r="D66">
-        <v>730</v>
-      </c>
-      <c t="s" s="9" r="E66">
-        <v>731</v>
-      </c>
-      <c t="s" s="9" r="F66">
-        <v>732</v>
-      </c>
-      <c t="s" s="9" r="G66">
-        <v>733</v>
-      </c>
-      <c t="s" s="9" r="H66">
-        <v>734</v>
-      </c>
-      <c t="s" s="9" r="I66">
-        <v>735</v>
-      </c>
-      <c t="s" s="9" r="J66">
-        <v>736</v>
-      </c>
-      <c t="s" s="9" r="K66">
-        <v>737</v>
-      </c>
-      <c t="s" s="9" r="L66">
-        <v>738</v>
-      </c>
-      <c t="s" s="9" r="M66">
-        <v>739</v>
-      </c>
-      <c t="s" s="9" r="N66">
-        <v>740</v>
-      </c>
-      <c t="s" s="1" r="O66">
-        <v>741</v>
-      </c>
-      <c t="s" s="1" r="P66">
-        <v>742</v>
-      </c>
-      <c t="s" s="1" r="Q66">
-        <v>743</v>
-      </c>
-      <c t="s" s="1" r="R66">
-        <v>744</v>
-      </c>
-      <c t="s" s="1" r="S66">
-        <v>745</v>
-      </c>
-      <c t="s" s="9" r="T66">
-        <v>746</v>
+      <c t="s" s="33" r="A66">
+        <v>530</v>
+      </c>
+      <c t="s" s="34" r="B66">
+        <v>531</v>
+      </c>
+      <c t="s" s="10" r="C66">
+        <v>532</v>
+      </c>
+      <c t="s" s="10" r="D66">
+        <v>533</v>
+      </c>
+      <c t="s" s="10" r="E66">
+        <v>534</v>
+      </c>
+      <c t="s" s="10" r="F66">
+        <v>535</v>
+      </c>
+      <c t="s" s="10" r="G66">
+        <v>536</v>
+      </c>
+      <c t="s" s="10" r="H66">
+        <v>537</v>
+      </c>
+      <c t="s" s="10" r="I66">
+        <v>538</v>
+      </c>
+      <c t="s" s="10" r="J66">
+        <v>539</v>
+      </c>
+      <c t="s" s="10" r="K66">
+        <v>540</v>
+      </c>
+      <c t="s" s="10" r="L66">
+        <v>541</v>
+      </c>
+      <c t="s" s="10" r="M66">
+        <v>542</v>
+      </c>
+      <c t="s" s="10" r="N66">
+        <v>543</v>
+      </c>
+      <c t="s" s="10" r="O66">
+        <v>544</v>
       </c>
     </row>
     <row customHeight="1" r="67" ht="12.75">
-      <c t="s" s="35" r="A67">
-        <v>747</v>
-      </c>
-      <c t="s" s="36" r="B67">
-        <v>748</v>
-      </c>
-      <c t="s" s="9" r="C67">
-        <v>749</v>
-      </c>
-      <c t="s" s="9" r="D67">
-        <v>750</v>
-      </c>
-      <c t="s" s="9" r="E67">
-        <v>751</v>
-      </c>
-      <c t="s" s="9" r="F67">
-        <v>752</v>
-      </c>
-      <c t="s" s="9" r="G67">
-        <v>753</v>
-      </c>
-      <c t="s" s="9" r="H67">
-        <v>754</v>
-      </c>
-      <c t="s" s="9" r="I67">
-        <v>755</v>
-      </c>
-      <c t="s" s="9" r="J67">
-        <v>756</v>
-      </c>
-      <c t="s" s="9" r="K67">
-        <v>757</v>
-      </c>
-      <c t="s" s="9" r="L67">
-        <v>758</v>
-      </c>
-      <c t="s" s="9" r="M67">
-        <v>759</v>
-      </c>
-      <c t="s" s="9" r="N67">
-        <v>760</v>
-      </c>
-      <c t="s" s="1" r="O67">
-        <v>761</v>
-      </c>
-      <c t="s" s="1" r="P67">
-        <v>762</v>
-      </c>
-      <c t="s" s="1" r="Q67">
-        <v>763</v>
-      </c>
-      <c t="s" s="1" r="R67">
-        <v>764</v>
-      </c>
-      <c t="s" s="1" r="S67">
-        <v>765</v>
-      </c>
-      <c t="s" s="9" r="T67">
-        <v>766</v>
+      <c t="s" s="33" r="A67">
+        <v>545</v>
+      </c>
+      <c t="s" s="34" r="B67">
+        <v>546</v>
+      </c>
+      <c t="s" s="10" r="C67">
+        <v>547</v>
+      </c>
+      <c t="s" s="10" r="D67">
+        <v>548</v>
+      </c>
+      <c t="s" s="10" r="E67">
+        <v>549</v>
+      </c>
+      <c t="s" s="10" r="F67">
+        <v>550</v>
+      </c>
+      <c t="s" s="10" r="G67">
+        <v>551</v>
+      </c>
+      <c t="s" s="10" r="H67">
+        <v>552</v>
+      </c>
+      <c t="s" s="10" r="I67">
+        <v>553</v>
+      </c>
+      <c t="s" s="10" r="J67">
+        <v>554</v>
+      </c>
+      <c t="s" s="10" r="K67">
+        <v>555</v>
+      </c>
+      <c t="s" s="10" r="L67">
+        <v>556</v>
+      </c>
+      <c t="s" s="10" r="M67">
+        <v>557</v>
+      </c>
+      <c t="s" s="10" r="N67">
+        <v>558</v>
+      </c>
+      <c t="s" s="10" r="O67">
+        <v>559</v>
       </c>
     </row>
     <row customHeight="1" r="68" ht="12.75">
-      <c t="s" s="35" r="A68">
-        <v>767</v>
-      </c>
-      <c t="s" s="36" r="B68">
-        <v>768</v>
-      </c>
-      <c t="s" s="9" r="C68">
-        <v>769</v>
-      </c>
-      <c t="s" s="9" r="D68">
-        <v>770</v>
-      </c>
-      <c t="s" s="9" r="E68">
-        <v>771</v>
-      </c>
-      <c t="s" s="9" r="F68">
-        <v>772</v>
-      </c>
-      <c t="s" s="9" r="G68">
-        <v>773</v>
-      </c>
-      <c t="s" s="9" r="H68">
-        <v>774</v>
-      </c>
-      <c t="s" s="9" r="I68">
-        <v>775</v>
-      </c>
-      <c t="s" s="9" r="J68">
-        <v>776</v>
-      </c>
-      <c t="s" s="9" r="K68">
-        <v>777</v>
-      </c>
-      <c t="s" s="9" r="L68">
-        <v>778</v>
-      </c>
-      <c t="s" s="9" r="M68">
-        <v>779</v>
-      </c>
-      <c t="s" s="9" r="N68">
-        <v>780</v>
-      </c>
-      <c t="s" s="1" r="O68">
-        <v>781</v>
-      </c>
-      <c t="s" s="1" r="P68">
-        <v>782</v>
-      </c>
-      <c t="s" s="1" r="Q68">
-        <v>783</v>
-      </c>
-      <c t="s" s="1" r="R68">
-        <v>784</v>
-      </c>
-      <c t="s" s="1" r="S68">
-        <v>785</v>
-      </c>
-      <c t="s" s="9" r="T68">
-        <v>786</v>
+      <c t="s" s="33" r="A68">
+        <v>560</v>
+      </c>
+      <c t="s" s="34" r="B68">
+        <v>561</v>
+      </c>
+      <c t="s" s="10" r="C68">
+        <v>562</v>
+      </c>
+      <c t="s" s="10" r="D68">
+        <v>563</v>
+      </c>
+      <c t="s" s="10" r="E68">
+        <v>564</v>
+      </c>
+      <c t="s" s="10" r="F68">
+        <v>565</v>
+      </c>
+      <c t="s" s="10" r="G68">
+        <v>566</v>
+      </c>
+      <c t="s" s="10" r="H68">
+        <v>567</v>
+      </c>
+      <c t="s" s="10" r="I68">
+        <v>568</v>
+      </c>
+      <c t="s" s="10" r="J68">
+        <v>569</v>
+      </c>
+      <c t="s" s="10" r="K68">
+        <v>570</v>
+      </c>
+      <c t="s" s="10" r="L68">
+        <v>571</v>
+      </c>
+      <c t="s" s="10" r="M68">
+        <v>572</v>
+      </c>
+      <c t="s" s="10" r="N68">
+        <v>573</v>
+      </c>
+      <c t="s" s="10" r="O68">
+        <v>574</v>
       </c>
     </row>
     <row customHeight="1" r="69" ht="12.75">
-      <c t="s" s="35" r="A69">
-        <v>787</v>
-      </c>
-      <c t="s" s="36" r="B69">
-        <v>788</v>
-      </c>
-      <c t="s" s="9" r="C69">
-        <v>789</v>
-      </c>
-      <c t="s" s="9" r="D69">
-        <v>790</v>
-      </c>
-      <c t="s" s="9" r="E69">
-        <v>791</v>
-      </c>
-      <c t="s" s="9" r="F69">
-        <v>792</v>
-      </c>
-      <c t="s" s="9" r="G69">
-        <v>793</v>
-      </c>
-      <c t="s" s="9" r="H69">
-        <v>794</v>
-      </c>
-      <c t="s" s="9" r="I69">
-        <v>795</v>
-      </c>
-      <c t="s" s="9" r="J69">
-        <v>796</v>
-      </c>
-      <c t="s" s="9" r="K69">
-        <v>797</v>
-      </c>
-      <c t="s" s="9" r="L69">
-        <v>798</v>
-      </c>
-      <c t="s" s="9" r="M69">
-        <v>799</v>
-      </c>
-      <c s="9" r="N69"/>
-      <c t="s" s="1" r="O69">
-        <v>800</v>
-      </c>
-      <c t="s" s="1" r="P69">
-        <v>801</v>
-      </c>
-      <c t="s" s="1" r="Q69">
-        <v>802</v>
-      </c>
-      <c t="s" s="1" r="R69">
-        <v>803</v>
-      </c>
-      <c s="1" r="S69"/>
-      <c s="2" r="T69"/>
+      <c t="s" s="33" r="A69">
+        <v>575</v>
+      </c>
+      <c t="s" s="34" r="B69">
+        <v>576</v>
+      </c>
+      <c t="s" s="10" r="C69">
+        <v>577</v>
+      </c>
+      <c t="s" s="10" r="D69">
+        <v>578</v>
+      </c>
+      <c t="s" s="10" r="E69">
+        <v>579</v>
+      </c>
+      <c t="s" s="10" r="F69">
+        <v>580</v>
+      </c>
+      <c t="s" s="10" r="G69">
+        <v>581</v>
+      </c>
+      <c t="s" s="10" r="H69">
+        <v>582</v>
+      </c>
+      <c t="s" s="10" r="I69">
+        <v>583</v>
+      </c>
+      <c t="s" s="10" r="J69">
+        <v>584</v>
+      </c>
+      <c t="s" s="10" r="K69">
+        <v>585</v>
+      </c>
+      <c t="s" s="10" r="L69">
+        <v>586</v>
+      </c>
+      <c t="s" s="10" r="M69">
+        <v>587</v>
+      </c>
+      <c s="10" r="N69"/>
+      <c s="2" r="O69"/>
     </row>
     <row customHeight="1" r="70" ht="12.75">
-      <c s="31" r="A70"/>
+      <c s="30" r="A70"/>
     </row>
     <row customHeight="1" r="71" ht="12.75">
-      <c t="s" s="32" r="A71">
-        <v>804</v>
+      <c t="s" s="31" r="A71">
+        <v>588</v>
       </c>
     </row>
     <row customHeight="1" r="72" ht="13.5">
       <c s="1" r="A72"/>
       <c s="1" r="B72"/>
       <c t="s" s="1" r="C72">
-        <v>805</v>
+        <v>589</v>
       </c>
       <c t="s" s="1" r="D72">
-        <v>806</v>
+        <v>590</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>807</v>
+        <v>591</v>
       </c>
       <c t="s" s="1" r="F72">
-        <v>808</v>
+        <v>592</v>
       </c>
       <c t="s" s="1" r="G72">
-        <v>809</v>
+        <v>593</v>
       </c>
       <c t="s" s="1" r="H72">
-        <v>810</v>
+        <v>594</v>
       </c>
       <c t="s" s="1" r="I72">
-        <v>811</v>
+        <v>595</v>
       </c>
       <c t="s" s="1" r="J72">
-        <v>812</v>
+        <v>596</v>
       </c>
       <c t="s" s="1" r="K72">
-        <v>813</v>
+        <v>597</v>
       </c>
       <c t="s" s="1" r="L72">
-        <v>814</v>
+        <v>598</v>
       </c>
       <c t="s" s="1" r="M72">
-        <v>815</v>
+        <v>599</v>
       </c>
       <c t="s" s="1" r="N72">
-        <v>816</v>
-      </c>
-      <c t="s" s="33" r="O72">
-        <v>817</v>
-      </c>
-      <c t="s" s="33" r="P72">
-        <v>818</v>
-      </c>
-      <c t="s" s="1" r="Q72">
-        <v>819</v>
-      </c>
-      <c t="s" s="1" r="R72">
-        <v>820</v>
-      </c>
-      <c t="s" s="1" r="S72">
-        <v>821</v>
-      </c>
-      <c t="s" s="9" r="T72">
-        <v>822</v>
+        <v>600</v>
+      </c>
+      <c t="s" s="10" r="O72">
+        <v>601</v>
       </c>
     </row>
     <row customHeight="1" r="73" ht="13.5">
       <c s="1" r="A73"/>
       <c s="1" r="B73"/>
       <c t="s" s="1" r="C73">
-        <v>823</v>
+        <v>602</v>
       </c>
       <c s="1" r="D73"/>
       <c s="1" r="E73"/>
       <c s="1" r="F73"/>
       <c t="s" s="1" r="G73">
-        <v>824</v>
-      </c>
-      <c t="s" s="37" r="H73">
-        <v>825</v>
+        <v>603</v>
+      </c>
+      <c t="s" s="35" r="H73">
+        <v>604</v>
       </c>
       <c t="s" s="1" r="I73">
-        <v>826</v>
+        <v>605</v>
       </c>
       <c t="s" s="1" r="J73">
-        <v>827</v>
+        <v>606</v>
       </c>
       <c t="s" s="1" r="K73">
-        <v>828</v>
+        <v>607</v>
       </c>
       <c t="s" s="1" r="L73">
-        <v>829</v>
+        <v>608</v>
       </c>
       <c s="1" r="M73"/>
       <c t="s" s="1" r="N73">
-        <v>830</v>
-      </c>
-      <c t="s" s="1" r="O73">
-        <v>831</v>
-      </c>
-      <c t="s" s="33" r="P73">
-        <v>832</v>
-      </c>
-      <c t="s" s="1" r="Q73">
-        <v>833</v>
-      </c>
-      <c t="s" s="1" r="R73">
-        <v>834</v>
-      </c>
-      <c t="s" s="1" r="S73">
-        <v>835</v>
-      </c>
-      <c t="s" s="9" r="T73">
-        <v>836</v>
+        <v>609</v>
+      </c>
+      <c t="s" s="10" r="O73">
+        <v>610</v>
       </c>
     </row>
     <row customHeight="1" r="74" ht="13.5">
       <c s="1" r="A74"/>
       <c s="1" r="B74"/>
       <c t="s" s="1" r="C74">
-        <v>837</v>
+        <v>611</v>
       </c>
       <c s="1" r="D74"/>
       <c s="1" r="E74"/>
       <c s="1" r="F74"/>
       <c t="s" s="1" r="G74">
-        <v>838</v>
+        <v>612</v>
       </c>
       <c t="s" s="1" r="H74">
-        <v>839</v>
+        <v>613</v>
       </c>
       <c t="s" s="1" r="I74">
-        <v>840</v>
+        <v>614</v>
       </c>
       <c t="s" s="1" r="J74">
-        <v>841</v>
+        <v>615</v>
       </c>
       <c t="s" s="1" r="K74">
-        <v>842</v>
+        <v>616</v>
       </c>
       <c t="s" s="1" r="L74">
-        <v>843</v>
+        <v>617</v>
       </c>
       <c s="1" r="M74"/>
       <c t="s" s="1" r="N74">
-        <v>844</v>
-      </c>
-      <c t="s" s="33" r="O74">
-        <v>845</v>
-      </c>
-      <c t="s" s="1" r="P74">
-        <v>846</v>
-      </c>
-      <c t="s" s="1" r="Q74">
-        <v>847</v>
-      </c>
-      <c t="s" s="1" r="R74">
-        <v>848</v>
-      </c>
-      <c t="s" s="1" r="S74">
-        <v>849</v>
-      </c>
-      <c t="s" s="9" r="T74">
-        <v>850</v>
+        <v>618</v>
+      </c>
+      <c t="s" s="10" r="O74">
+        <v>619</v>
       </c>
     </row>
     <row customHeight="1" r="75" ht="13.5">
       <c s="1" r="A75"/>
       <c s="1" r="B75"/>
       <c t="s" s="1" r="C75">
-        <v>851</v>
+        <v>620</v>
       </c>
       <c s="1" r="D75"/>
       <c s="1" r="E75"/>
       <c s="1" r="F75"/>
-      <c t="s" s="25" r="G75">
-        <v>852</v>
+      <c t="s" s="24" r="G75">
+        <v>621</v>
       </c>
       <c t="s" s="1" r="H75">
-        <v>853</v>
+        <v>622</v>
       </c>
       <c t="s" s="1" r="I75">
-        <v>854</v>
+        <v>623</v>
       </c>
       <c s="1" r="J75"/>
       <c t="s" s="1" r="K75">
-        <v>855</v>
+        <v>624</v>
       </c>
       <c t="s" s="1" r="L75">
-        <v>856</v>
+        <v>625</v>
       </c>
       <c s="1" r="M75"/>
       <c t="s" s="1" r="N75">
-        <v>857</v>
-      </c>
-      <c t="s" s="1" r="O75">
-        <v>858</v>
-      </c>
-      <c t="s" s="1" r="P75">
-        <v>859</v>
-      </c>
-      <c t="s" s="1" r="Q75">
-        <v>860</v>
-      </c>
-      <c t="s" s="1" r="R75">
-        <v>861</v>
-      </c>
-      <c t="s" s="1" r="S75">
-        <v>862</v>
-      </c>
-      <c t="s" s="9" r="T75">
-        <v>863</v>
+        <v>626</v>
+      </c>
+      <c t="s" s="10" r="O75">
+        <v>627</v>
       </c>
     </row>
     <row customHeight="1" r="76" ht="13.5">
       <c s="1" r="A76"/>
       <c s="1" r="B76"/>
       <c t="s" s="1" r="C76">
-        <v>864</v>
+        <v>628</v>
       </c>
       <c s="1" r="D76"/>
       <c s="1" r="E76"/>
       <c s="1" r="F76"/>
       <c t="s" s="1" r="G76">
-        <v>865</v>
+        <v>629</v>
       </c>
       <c t="s" s="1" r="H76">
-        <v>866</v>
+        <v>630</v>
       </c>
       <c t="s" s="1" r="I76">
-        <v>867</v>
+        <v>631</v>
       </c>
       <c s="1" r="J76"/>
       <c t="s" s="1" r="K76">
-        <v>868</v>
+        <v>632</v>
       </c>
       <c t="s" s="1" r="L76">
-        <v>869</v>
+        <v>633</v>
       </c>
       <c s="1" r="M76"/>
       <c t="s" s="1" r="N76">
-        <v>870</v>
-      </c>
-      <c t="s" s="1" r="O76">
-        <v>871</v>
-      </c>
-      <c t="s" s="1" r="P76">
-        <v>872</v>
-      </c>
-      <c t="s" s="1" r="Q76">
-        <v>873</v>
-      </c>
-      <c t="s" s="1" r="R76">
-        <v>874</v>
-      </c>
-      <c t="s" s="1" r="S76">
-        <v>875</v>
-      </c>
-      <c t="s" s="9" r="T76">
-        <v>876</v>
+        <v>634</v>
+      </c>
+      <c t="s" s="10" r="O76">
+        <v>635</v>
       </c>
     </row>
     <row customHeight="1" r="77" ht="13.5">
       <c s="1" r="A77"/>
       <c s="1" r="B77"/>
       <c t="s" s="1" r="C77">
-        <v>877</v>
+        <v>636</v>
       </c>
       <c s="1" r="D77"/>
       <c s="1" r="E77"/>
       <c s="1" r="F77"/>
       <c t="s" s="1" r="G77">
-        <v>878</v>
+        <v>637</v>
       </c>
       <c t="s" s="1" r="H77">
-        <v>879</v>
+        <v>638</v>
       </c>
       <c t="s" s="1" r="I77">
-        <v>880</v>
+        <v>639</v>
       </c>
       <c s="1" r="J77"/>
       <c t="s" s="1" r="K77">
-        <v>881</v>
+        <v>640</v>
       </c>
       <c t="s" s="1" r="L77">
-        <v>882</v>
+        <v>641</v>
       </c>
       <c s="1" r="M77"/>
       <c t="s" s="1" r="N77">
-        <v>883</v>
-      </c>
-      <c t="s" s="1" r="O77">
-        <v>884</v>
-      </c>
-      <c t="s" s="1" r="P77">
-        <v>885</v>
-      </c>
-      <c t="s" s="1" r="Q77">
-        <v>886</v>
-      </c>
-      <c t="s" s="1" r="R77">
-        <v>887</v>
-      </c>
-      <c s="1" r="S77"/>
-      <c t="s" s="9" r="T77">
-        <v>888</v>
+        <v>642</v>
+      </c>
+      <c t="s" s="10" r="O77">
+        <v>643</v>
       </c>
     </row>
     <row customHeight="1" r="78" ht="13.5">
       <c s="1" r="A78"/>
       <c s="1" r="B78"/>
       <c t="s" s="1" r="C78">
-        <v>889</v>
+        <v>644</v>
       </c>
       <c s="1" r="D78"/>
       <c s="1" r="E78"/>
       <c s="1" r="F78"/>
       <c s="1" r="G78"/>
       <c t="s" s="1" r="H78">
-        <v>890</v>
+        <v>645</v>
       </c>
       <c s="1" r="I78"/>
       <c s="1" r="J78"/>
       <c t="s" s="1" r="K78">
-        <v>891</v>
+        <v>646</v>
       </c>
       <c t="s" s="1" r="L78">
-        <v>892</v>
+        <v>647</v>
       </c>
       <c s="1" r="M78"/>
       <c s="1" r="N78"/>
-      <c t="s" s="1" r="O78">
-        <v>893</v>
-      </c>
-      <c t="s" s="1" r="P78">
-        <v>894</v>
-      </c>
-      <c t="s" s="1" r="Q78">
-        <v>895</v>
-      </c>
-      <c s="1" r="R78"/>
-      <c s="1" r="S78"/>
-      <c t="s" s="9" r="T78">
-        <v>896</v>
+      <c t="s" s="10" r="O78">
+        <v>648</v>
       </c>
     </row>
     <row customHeight="1" r="79" ht="13.5">
       <c s="1" r="A79"/>
       <c s="1" r="B79"/>
       <c t="s" s="1" r="C79">
-        <v>897</v>
+        <v>649</v>
       </c>
       <c s="1" r="D79"/>
       <c s="1" r="E79"/>
@@ -6444,31 +4821,20 @@
       <c s="1" r="I79"/>
       <c s="1" r="J79"/>
       <c t="s" s="1" r="K79">
-        <v>898</v>
+        <v>650</v>
       </c>
       <c s="1" r="L79"/>
       <c s="1" r="M79"/>
       <c s="1" r="N79"/>
-      <c t="s" s="1" r="O79">
-        <v>899</v>
-      </c>
-      <c t="s" s="1" r="P79">
-        <v>900</v>
-      </c>
-      <c t="s" s="1" r="Q79">
-        <v>901</v>
-      </c>
-      <c s="1" r="R79"/>
-      <c s="1" r="S79"/>
-      <c t="s" s="9" r="T79">
-        <v>902</v>
+      <c t="s" s="10" r="O79">
+        <v>651</v>
       </c>
     </row>
     <row customHeight="1" r="80" ht="12.75">
       <c s="1" r="A80"/>
       <c s="1" r="B80"/>
       <c t="s" s="1" r="C80">
-        <v>903</v>
+        <v>652</v>
       </c>
       <c s="1" r="D80"/>
       <c s="1" r="E80"/>
@@ -6478,18 +4844,13 @@
       <c s="1" r="I80"/>
       <c s="1" r="J80"/>
       <c t="s" s="1" r="K80">
-        <v>904</v>
+        <v>653</v>
       </c>
       <c s="1" r="L80"/>
       <c s="1" r="M80"/>
       <c s="1" r="N80"/>
-      <c s="1" r="O80"/>
-      <c s="1" r="P80"/>
-      <c s="1" r="Q80"/>
-      <c s="1" r="R80"/>
-      <c s="1" r="S80"/>
-      <c t="s" s="9" r="T80">
-        <v>905</v>
+      <c t="s" s="10" r="O80">
+        <v>654</v>
       </c>
     </row>
     <row customHeight="1" r="81" ht="12.75">
@@ -6504,17 +4865,12 @@
       <c s="1" r="I81"/>
       <c s="1" r="J81"/>
       <c t="s" s="1" r="K81">
-        <v>906</v>
+        <v>655</v>
       </c>
       <c s="1" r="L81"/>
       <c s="1" r="M81"/>
       <c s="1" r="N81"/>
-      <c s="1" r="O81"/>
-      <c s="1" r="P81"/>
-      <c s="1" r="Q81"/>
-      <c s="1" r="R81"/>
-      <c s="1" r="S81"/>
-      <c s="2" r="T81"/>
+      <c s="2" r="O81"/>
     </row>
     <row customHeight="1" r="82" ht="11.25">
       <c s="1" r="A82"/>
@@ -6528,21 +4884,16 @@
       <c s="1" r="I82"/>
       <c s="1" r="J82"/>
       <c t="s" s="1" r="K82">
-        <v>907</v>
+        <v>656</v>
       </c>
       <c s="1" r="L82"/>
       <c s="1" r="M82"/>
       <c s="1" r="N82"/>
-      <c s="1" r="O82"/>
-      <c s="1" r="P82"/>
-      <c s="1" r="Q82"/>
-      <c s="1" r="R82"/>
-      <c s="1" r="S82"/>
-      <c s="2" r="T82"/>
+      <c s="2" r="O82"/>
     </row>
     <row customHeight="1" r="83" ht="11.25">
-      <c s="38" r="A83"/>
-      <c s="38" r="B83"/>
+      <c s="36" r="A83"/>
+      <c s="36" r="B83"/>
       <c s="1" r="C83"/>
       <c s="1" r="D83"/>
       <c s="1" r="E83"/>
@@ -6552,21 +4903,16 @@
       <c s="1" r="I83"/>
       <c s="1" r="J83"/>
       <c t="s" s="1" r="K83">
-        <v>908</v>
+        <v>657</v>
       </c>
       <c s="1" r="L83"/>
       <c s="1" r="M83"/>
       <c s="1" r="N83"/>
-      <c s="1" r="O83"/>
-      <c s="1" r="P83"/>
-      <c s="1" r="Q83"/>
-      <c s="1" r="R83"/>
-      <c s="1" r="S83"/>
-      <c s="2" r="T83"/>
+      <c s="2" r="O83"/>
     </row>
     <row customHeight="1" r="84" ht="12.75">
-      <c s="38" r="A84"/>
-      <c s="38" r="B84"/>
+      <c s="36" r="A84"/>
+      <c s="36" r="B84"/>
       <c s="1" r="C84"/>
       <c s="1" r="D84"/>
       <c s="1" r="E84"/>
@@ -6579,12 +4925,7 @@
       <c s="1" r="L84"/>
       <c s="1" r="M84"/>
       <c s="1" r="N84"/>
-      <c s="1" r="O84"/>
-      <c s="1" r="P84"/>
-      <c s="1" r="Q84"/>
-      <c s="1" r="R84"/>
-      <c s="1" r="S84"/>
-      <c s="2" r="T84"/>
+      <c s="2" r="O84"/>
     </row>
     <row customHeight="1" r="85" ht="12.75">
       <c s="1" r="A85"/>
@@ -6601,12 +4942,7 @@
       <c s="1" r="L85"/>
       <c s="1" r="M85"/>
       <c s="1" r="N85"/>
-      <c s="1" r="O85"/>
-      <c s="1" r="P85"/>
-      <c s="1" r="Q85"/>
-      <c s="1" r="R85"/>
-      <c s="1" r="S85"/>
-      <c s="2" r="T85"/>
+      <c s="2" r="O85"/>
     </row>
     <row customHeight="1" r="86" ht="11.25">
       <c s="1" r="A86"/>
@@ -6623,46 +4959,36 @@
       <c s="1" r="L86"/>
       <c s="1" r="M86"/>
       <c s="1" r="N86"/>
-      <c s="1" r="O86"/>
-      <c s="1" r="P86"/>
-      <c s="1" r="Q86"/>
-      <c s="1" r="R86"/>
-      <c s="1" r="S86"/>
-      <c s="2" r="T86"/>
+      <c s="2" r="O86"/>
     </row>
     <row customHeight="1" r="87" ht="11.25">
-      <c t="s" s="39" r="A87">
-        <v>909</v>
-      </c>
-      <c s="34" r="B87"/>
-      <c s="34" r="C87"/>
-      <c s="34" r="D87"/>
-      <c s="34" r="E87"/>
-      <c s="34" r="F87"/>
-      <c s="34" r="G87"/>
-      <c s="34" r="H87"/>
-      <c s="34" r="I87"/>
-      <c s="34" r="J87"/>
-      <c s="34" r="K87"/>
-      <c s="34" r="L87"/>
-      <c s="34" r="M87"/>
-      <c s="34" r="N87"/>
-      <c s="34" r="O87"/>
-      <c s="34" r="P87"/>
-      <c s="34" r="Q87"/>
-      <c s="34" r="R87"/>
-      <c s="34" r="S87"/>
-      <c s="34" r="T87"/>
+      <c t="s" s="37" r="A87">
+        <v>658</v>
+      </c>
+      <c s="32" r="B87"/>
+      <c s="32" r="C87"/>
+      <c s="32" r="D87"/>
+      <c s="32" r="E87"/>
+      <c s="32" r="F87"/>
+      <c s="32" r="G87"/>
+      <c s="32" r="H87"/>
+      <c s="32" r="I87"/>
+      <c s="32" r="J87"/>
+      <c s="32" r="K87"/>
+      <c s="32" r="L87"/>
+      <c s="32" r="M87"/>
+      <c s="32" r="N87"/>
+      <c s="32" r="O87"/>
     </row>
     <row customHeight="1" r="88" ht="11.25">
-      <c t="s" s="33" r="A88">
-        <v>910</v>
+      <c t="s" s="38" r="A88">
+        <v>659</v>
       </c>
       <c t="s" s="1" r="B88">
-        <v>911</v>
-      </c>
-      <c t="s" s="9" r="C88">
-        <v>912</v>
+        <v>660</v>
+      </c>
+      <c t="s" s="10" r="C88">
+        <v>661</v>
       </c>
       <c s="1" r="D88"/>
       <c s="1" r="E88"/>
@@ -6675,26 +5001,21 @@
       <c s="1" r="L88"/>
       <c s="1" r="M88"/>
       <c s="1" r="N88"/>
-      <c s="1" r="O88"/>
-      <c s="1" r="P88"/>
-      <c s="1" r="Q88"/>
-      <c s="1" r="R88"/>
-      <c s="1" r="S88"/>
-      <c s="2" r="T88"/>
+      <c s="2" r="O88"/>
     </row>
     <row customHeight="1" r="89" ht="12.75">
-      <c s="31" r="A89"/>
+      <c s="30" r="A89"/>
     </row>
     <row customHeight="1" r="90" ht="12.75">
-      <c t="s" s="40" r="A90">
-        <v>913</v>
+      <c t="s" s="39" r="A90">
+        <v>662</v>
       </c>
     </row>
     <row customHeight="1" r="91" ht="11.25">
       <c s="1" r="A91"/>
       <c s="1" r="B91"/>
       <c t="s" s="1" r="C91">
-        <v>914</v>
+        <v>663</v>
       </c>
       <c s="1" r="D91"/>
       <c s="1" r="E91"/>
@@ -6707,18 +5028,13 @@
       <c s="1" r="L91"/>
       <c s="1" r="M91"/>
       <c s="1" r="N91"/>
-      <c s="1" r="O91"/>
-      <c s="1" r="P91"/>
-      <c s="1" r="Q91"/>
-      <c s="1" r="R91"/>
-      <c s="1" r="S91"/>
-      <c s="2" r="T91"/>
+      <c s="2" r="O91"/>
     </row>
     <row customHeight="1" r="92" ht="11.25">
       <c s="1" r="A92"/>
       <c s="1" r="B92"/>
       <c t="s" s="1" r="C92">
-        <v>915</v>
+        <v>664</v>
       </c>
       <c s="1" r="D92"/>
       <c s="1" r="E92"/>
@@ -6731,18 +5047,13 @@
       <c s="1" r="L92"/>
       <c s="1" r="M92"/>
       <c s="1" r="N92"/>
-      <c s="1" r="O92"/>
-      <c s="1" r="P92"/>
-      <c s="1" r="Q92"/>
-      <c s="1" r="R92"/>
-      <c s="1" r="S92"/>
-      <c s="2" r="T92"/>
+      <c s="2" r="O92"/>
     </row>
     <row customHeight="1" r="93" ht="11.25">
       <c s="1" r="A93"/>
       <c s="1" r="B93"/>
       <c t="s" s="1" r="C93">
-        <v>916</v>
+        <v>665</v>
       </c>
       <c s="1" r="D93"/>
       <c s="1" r="E93"/>
@@ -6755,18 +5066,13 @@
       <c s="1" r="L93"/>
       <c s="1" r="M93"/>
       <c s="1" r="N93"/>
-      <c s="1" r="O93"/>
-      <c s="1" r="P93"/>
-      <c s="1" r="Q93"/>
-      <c s="1" r="R93"/>
-      <c s="1" r="S93"/>
-      <c s="2" r="T93"/>
+      <c s="2" r="O93"/>
     </row>
     <row customHeight="1" r="94" ht="11.25">
       <c s="1" r="A94"/>
       <c s="1" r="B94"/>
       <c t="s" s="1" r="C94">
-        <v>917</v>
+        <v>666</v>
       </c>
       <c s="1" r="D94"/>
       <c s="1" r="E94"/>
@@ -6779,18 +5085,13 @@
       <c s="1" r="L94"/>
       <c s="1" r="M94"/>
       <c s="1" r="N94"/>
-      <c s="1" r="O94"/>
-      <c s="1" r="P94"/>
-      <c s="1" r="Q94"/>
-      <c s="1" r="R94"/>
-      <c s="1" r="S94"/>
-      <c s="2" r="T94"/>
+      <c s="2" r="O94"/>
     </row>
     <row customHeight="1" r="95" ht="11.25">
       <c s="1" r="A95"/>
       <c s="1" r="B95"/>
       <c t="s" s="1" r="C95">
-        <v>918</v>
+        <v>667</v>
       </c>
       <c s="1" r="D95"/>
       <c s="1" r="E95"/>
@@ -6803,18 +5104,13 @@
       <c s="1" r="L95"/>
       <c s="1" r="M95"/>
       <c s="1" r="N95"/>
-      <c s="1" r="O95"/>
-      <c s="1" r="P95"/>
-      <c s="1" r="Q95"/>
-      <c s="1" r="R95"/>
-      <c s="1" r="S95"/>
-      <c s="2" r="T95"/>
+      <c s="2" r="O95"/>
     </row>
     <row customHeight="1" r="96" ht="11.25">
       <c s="1" r="A96"/>
       <c s="1" r="B96"/>
       <c t="s" s="1" r="C96">
-        <v>919</v>
+        <v>668</v>
       </c>
       <c s="1" r="D96"/>
       <c s="1" r="E96"/>
@@ -6827,18 +5123,13 @@
       <c s="1" r="L96"/>
       <c s="1" r="M96"/>
       <c s="1" r="N96"/>
-      <c s="1" r="O96"/>
-      <c s="1" r="P96"/>
-      <c s="1" r="Q96"/>
-      <c s="1" r="R96"/>
-      <c s="1" r="S96"/>
-      <c s="2" r="T96"/>
+      <c s="2" r="O96"/>
     </row>
     <row customHeight="1" r="97" ht="11.25">
       <c s="1" r="A97"/>
       <c s="1" r="B97"/>
       <c t="s" s="1" r="C97">
-        <v>920</v>
+        <v>669</v>
       </c>
       <c s="1" r="D97"/>
       <c s="1" r="E97"/>
@@ -6851,18 +5142,13 @@
       <c s="1" r="L97"/>
       <c s="1" r="M97"/>
       <c s="1" r="N97"/>
-      <c s="1" r="O97"/>
-      <c s="1" r="P97"/>
-      <c s="1" r="Q97"/>
-      <c s="1" r="R97"/>
-      <c s="1" r="S97"/>
-      <c s="2" r="T97"/>
+      <c s="2" r="O97"/>
     </row>
     <row customHeight="1" r="98" ht="11.25">
       <c s="1" r="A98"/>
       <c s="1" r="B98"/>
       <c t="s" s="1" r="C98">
-        <v>921</v>
+        <v>670</v>
       </c>
       <c s="1" r="D98"/>
       <c s="1" r="E98"/>
@@ -6875,18 +5161,13 @@
       <c s="1" r="L98"/>
       <c s="1" r="M98"/>
       <c s="1" r="N98"/>
-      <c s="1" r="O98"/>
-      <c s="1" r="P98"/>
-      <c s="1" r="Q98"/>
-      <c s="1" r="R98"/>
-      <c s="1" r="S98"/>
-      <c s="2" r="T98"/>
+      <c s="2" r="O98"/>
     </row>
     <row customHeight="1" r="99" ht="11.25">
       <c s="1" r="A99"/>
       <c s="1" r="B99"/>
       <c t="s" s="1" r="C99">
-        <v>922</v>
+        <v>671</v>
       </c>
       <c s="1" r="D99"/>
       <c s="1" r="E99"/>
@@ -6899,18 +5180,13 @@
       <c s="1" r="L99"/>
       <c s="1" r="M99"/>
       <c s="1" r="N99"/>
-      <c s="1" r="O99"/>
-      <c s="1" r="P99"/>
-      <c s="1" r="Q99"/>
-      <c s="1" r="R99"/>
-      <c s="1" r="S99"/>
-      <c s="2" r="T99"/>
+      <c s="2" r="O99"/>
     </row>
     <row customHeight="1" r="100" ht="11.25">
       <c s="1" r="A100"/>
       <c s="1" r="B100"/>
       <c t="s" s="1" r="C100">
-        <v>923</v>
+        <v>672</v>
       </c>
       <c s="1" r="D100"/>
       <c s="1" r="E100"/>
@@ -6923,18 +5199,13 @@
       <c s="1" r="L100"/>
       <c s="1" r="M100"/>
       <c s="1" r="N100"/>
-      <c s="1" r="O100"/>
-      <c s="1" r="P100"/>
-      <c s="1" r="Q100"/>
-      <c s="1" r="R100"/>
-      <c s="1" r="S100"/>
-      <c s="2" r="T100"/>
+      <c s="2" r="O100"/>
     </row>
     <row customHeight="1" r="101" ht="11.25">
       <c s="1" r="A101"/>
       <c s="1" r="B101"/>
       <c t="s" s="1" r="C101">
-        <v>924</v>
+        <v>673</v>
       </c>
       <c s="1" r="D101"/>
       <c s="1" r="E101"/>
@@ -6947,18 +5218,13 @@
       <c s="1" r="L101"/>
       <c s="1" r="M101"/>
       <c s="1" r="N101"/>
-      <c s="1" r="O101"/>
-      <c s="1" r="P101"/>
-      <c s="1" r="Q101"/>
-      <c s="1" r="R101"/>
-      <c s="1" r="S101"/>
-      <c s="2" r="T101"/>
+      <c s="2" r="O101"/>
     </row>
     <row customHeight="1" r="102" ht="11.25">
       <c s="1" r="A102"/>
       <c s="1" r="B102"/>
       <c t="s" s="1" r="C102">
-        <v>925</v>
+        <v>674</v>
       </c>
       <c s="1" r="D102"/>
       <c s="1" r="E102"/>
@@ -6971,12 +5237,7 @@
       <c s="1" r="L102"/>
       <c s="1" r="M102"/>
       <c s="1" r="N102"/>
-      <c s="1" r="O102"/>
-      <c s="1" r="P102"/>
-      <c s="1" r="Q102"/>
-      <c s="1" r="R102"/>
-      <c s="1" r="S102"/>
-      <c s="2" r="T102"/>
+      <c s="2" r="O102"/>
     </row>
     <row customHeight="1" r="103" ht="11.25">
       <c s="1" r="A103"/>
@@ -6993,53 +5254,48 @@
       <c s="1" r="L103"/>
       <c s="1" r="M103"/>
       <c s="1" r="N103"/>
-      <c s="1" r="O103"/>
-      <c s="1" r="P103"/>
-      <c s="1" r="Q103"/>
-      <c s="1" r="R103"/>
-      <c s="1" r="S103"/>
-      <c s="2" r="T103"/>
+      <c s="2" r="O103"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A89:O89"/>
+    <mergeCell ref="A90:O90"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A71:O71"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A51:T51"/>
-    <mergeCell ref="A70:T70"/>
-    <mergeCell ref="A71:T71"/>
-    <mergeCell ref="A89:T89"/>
-    <mergeCell ref="A90:T90"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A11:O11"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/spreadsheets/DBex.xlsx
+++ b/spreadsheets/DBex.xlsx
@@ -163,12 +163,15 @@
     <t>…</t>
   </si>
   <si>
-    <t>Группа устройств: Общее</t>
+    <t>Группа устройств: Вставки</t>
   </si>
   <si>
     <t>Socket1</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Розетка с заземлением</t>
   </si>
   <si>
@@ -220,6 +223,9 @@
     <t>Socket2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Розетка с заземлением и крышкой</t>
   </si>
   <si>
@@ -265,15 +271,12 @@
     <t>N2271.9</t>
   </si>
   <si>
-    <t>Socket3</t>
-  </si>
-  <si>
-    <t>Розетка двойная с заземлением</t>
-  </si>
-  <si>
     <t>Socket4</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Розетка ТВ</t>
   </si>
   <si>
@@ -292,6 +295,9 @@
     <t>Socket5</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Розетка ТВ + Спутник</t>
   </si>
   <si>
@@ -376,6 +382,9 @@
     <t>Socket6</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Розетка телефонная</t>
   </si>
   <si>
@@ -460,6 +469,9 @@
     <t>Socket7</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Розетка телефонная двойная</t>
   </si>
   <si>
@@ -550,6 +562,9 @@
     <t>Socket8</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Розетка компьютерная</t>
   </si>
   <si>
@@ -640,6 +655,9 @@
     <t>Switch1</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Выключатель 1-кл.</t>
   </si>
   <si>
@@ -721,6 +739,9 @@
     <t>Switch2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Выключатель 1-кл. проходной</t>
   </si>
   <si>
@@ -802,6 +823,9 @@
     <t>Switch3</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Выключатель 2-кл.</t>
   </si>
   <si>
@@ -883,6 +907,9 @@
     <t>Switch4</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Выключатель 2-кл. проходной</t>
   </si>
   <si>
@@ -964,6 +991,9 @@
     <t>Switch5</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Выключатель 1-кл. с подсветкой</t>
   </si>
   <si>
@@ -1078,6 +1108,9 @@
     <t>Dimmer1</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Диммер поворотный 400Вт</t>
   </si>
   <si>
@@ -1096,6 +1129,9 @@
     <t>Dimmer2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Диммер поворотный 600Вт</t>
   </si>
   <si>
@@ -1180,6 +1216,9 @@
     <t>Dimmer3</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Диммер сенсорный 500Вт</t>
   </si>
   <si>
@@ -1258,6 +1297,9 @@
     <t>ComfortSwitch1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Комфортный выключатель</t>
   </si>
   <si>
@@ -1330,6 +1372,9 @@
     <t>MoSensor1</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Датчик движения</t>
   </si>
   <si>
@@ -1561,6 +1606,9 @@
     <t>Frame1</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Рамка 1-ая</t>
   </si>
   <si>
@@ -1606,6 +1654,9 @@
     <t>Frame2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Рамка 2-ая</t>
   </si>
   <si>
@@ -1651,6 +1702,9 @@
     <t>Frame3</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Рамка 3-ая</t>
   </si>
   <si>
@@ -1696,6 +1750,9 @@
     <t>Frame4</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Рамка 4-ая</t>
   </si>
   <si>
@@ -1741,6 +1798,9 @@
     <t>Frame5</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Рамка 5-ая</t>
   </si>
   <si>
@@ -1978,9 +2038,6 @@
     <t>PZ-Натуральный сланец</t>
   </si>
   <si>
-    <t>296-Белый шале</t>
-  </si>
-  <si>
     <t>297-Огненно красный</t>
   </si>
   <si>
@@ -1991,6 +2048,9 @@
   </si>
   <si>
     <t>escutcheon</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Декоративная накладка</t>
@@ -2064,7 +2124,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2087,12 +2147,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
         <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
-        <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
     <fill>
@@ -2126,20 +2180,19 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="0"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="0"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
@@ -2147,8 +2200,11 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2" applyFill="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
+      <alignment vertical="center" horizontal="left"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment vertical="center" horizontal="left"/>
@@ -2156,85 +2212,81 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
+    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment vertical="center" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
+    <xf applyBorder="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4"/>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2246,10 +2298,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:absoluteAnchor>
-    <xdr:pos y="809625" x="12334875"/>
+    <xdr:pos y="800100" x="11639550"/>
     <xdr:ext cy="0" cx="38100"/>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2284,36 +2336,47 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="2" width="30.86"/>
-    <col min="3" customWidth="1" max="11" width="20.57"/>
-    <col min="12" customWidth="1" max="12" width="24.71"/>
-    <col min="13" customWidth="1" max="14" width="20.57"/>
-    <col min="15" customWidth="1" max="15" width="22.14"/>
+    <col min="1" customWidth="1" max="1" width="28.0"/>
+    <col min="2" customWidth="1" max="2" width="5.14"/>
+    <col min="3" customWidth="1" max="3" width="30.14"/>
+    <col min="4" customWidth="1" max="4" width="18.86"/>
+    <col min="5" customWidth="1" max="7" width="17.86"/>
+    <col min="8" customWidth="1" max="9" width="18.57"/>
+    <col min="10" customWidth="1" max="10" width="19.29"/>
+    <col min="11" customWidth="1" max="11" width="18.57"/>
+    <col min="12" customWidth="1" max="12" width="18.86"/>
+    <col min="13" customWidth="1" max="13" width="24.29"/>
+    <col min="14" customWidth="1" max="14" width="17.86"/>
+    <col min="15" customWidth="1" max="15" width="22.0"/>
+    <col min="16" customWidth="1" max="16" width="21.43"/>
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="12.75">
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
-      <c s="2" r="C1"/>
-      <c s="2" r="D1"/>
-      <c s="2" r="E1"/>
-      <c s="2" r="F1"/>
-      <c s="2" r="G1"/>
-      <c s="2" r="H1"/>
-      <c s="2" r="I1"/>
-      <c s="2" r="J1"/>
-      <c s="2" r="K1"/>
-      <c s="2" r="L1"/>
-      <c s="2" r="M1"/>
-      <c t="s" s="2" r="N1">
+      <c s="2" r="B1"/>
+      <c s="3" r="C1"/>
+      <c s="4" r="D1"/>
+      <c s="4" r="E1"/>
+      <c s="4" r="F1"/>
+      <c s="4" r="G1"/>
+      <c s="4" r="H1"/>
+      <c s="4" r="I1"/>
+      <c s="4" r="J1"/>
+      <c s="4" r="K1"/>
+      <c s="4" r="L1"/>
+      <c s="4" r="M1"/>
+      <c s="4" r="N1"/>
+      <c t="s" s="4" r="O1">
         <v>1</v>
       </c>
-      <c s="2" r="O1"/>
+      <c s="4" r="P1"/>
     </row>
     <row customHeight="1" r="2" ht="12.75">
       <c s="1" r="A2"/>
-      <c s="1" r="C2"/>
+      <c s="2" r="B2"/>
+      <c s="3" r="C2"/>
       <c s="1" r="D2"/>
       <c s="1" r="E2"/>
       <c s="1" r="F2"/>
@@ -2325,11 +2388,13 @@
       <c s="1" r="L2"/>
       <c s="1" r="M2"/>
       <c s="1" r="N2"/>
-      <c s="2" r="O2"/>
+      <c s="1" r="O2"/>
+      <c s="4" r="P2"/>
     </row>
     <row customHeight="1" r="3" ht="12.75">
       <c s="1" r="A3"/>
-      <c s="1" r="C3"/>
+      <c s="2" r="B3"/>
+      <c s="3" r="C3"/>
       <c s="1" r="D3"/>
       <c s="1" r="E3"/>
       <c s="1" r="F3"/>
@@ -2341,49 +2406,52 @@
       <c s="1" r="L3"/>
       <c s="1" r="M3"/>
       <c s="1" r="N3"/>
-      <c s="2" r="O3"/>
+      <c s="1" r="O3"/>
+      <c s="4" r="P3"/>
     </row>
     <row customHeight="1" r="4" ht="12.75">
       <c t="s" s="1" r="A4">
         <v>2</v>
       </c>
-      <c t="s" s="3" r="C4">
+      <c s="2" r="B4"/>
+      <c s="3" r="C4"/>
+      <c t="s" s="5" r="D4">
         <v>3</v>
       </c>
-      <c t="s" s="3" r="D4">
+      <c t="s" s="5" r="E4">
         <v>4</v>
       </c>
-      <c t="s" s="3" r="E4">
+      <c t="s" s="5" r="F4">
         <v>5</v>
       </c>
-      <c t="s" s="3" r="F4">
+      <c t="s" s="5" r="G4">
         <v>6</v>
       </c>
-      <c t="s" s="3" r="G4">
+      <c t="s" s="5" r="H4">
         <v>7</v>
       </c>
-      <c t="s" s="3" r="H4">
+      <c t="s" s="5" r="I4">
         <v>8</v>
       </c>
-      <c t="s" s="3" r="I4">
+      <c t="s" s="5" r="J4">
         <v>9</v>
       </c>
-      <c t="s" s="3" r="J4">
+      <c t="s" s="5" r="K4">
         <v>10</v>
       </c>
-      <c t="s" s="3" r="K4">
+      <c t="s" s="5" r="L4">
         <v>11</v>
       </c>
-      <c t="s" s="3" r="L4">
+      <c t="s" s="5" r="M4">
         <v>12</v>
       </c>
-      <c t="s" s="3" r="M4">
+      <c t="s" s="5" r="N4">
         <v>13</v>
       </c>
-      <c t="s" s="3" r="N4">
+      <c t="s" s="5" r="O4">
         <v>14</v>
       </c>
-      <c t="s" s="3" r="O4">
+      <c t="s" s="5" r="P4">
         <v>15</v>
       </c>
     </row>
@@ -2391,617 +2459,642 @@
       <c t="s" s="1" r="A5">
         <v>16</v>
       </c>
-      <c t="s" s="4" r="C5">
+      <c s="2" r="B5"/>
+      <c s="3" r="C5"/>
+      <c t="s" s="6" r="D5">
         <v>17</v>
       </c>
-      <c t="s" s="4" r="D5">
+      <c t="s" s="6" r="E5">
         <v>18</v>
       </c>
-      <c t="s" s="4" r="E5">
+      <c t="s" s="6" r="F5">
         <v>19</v>
       </c>
-      <c t="s" s="4" r="F5">
+      <c t="s" s="6" r="G5">
         <v>20</v>
       </c>
-      <c t="s" s="4" r="G5">
+      <c t="s" s="6" r="H5">
         <v>21</v>
       </c>
-      <c t="s" s="4" r="H5">
+      <c t="s" s="6" r="I5">
         <v>22</v>
       </c>
-      <c t="s" s="4" r="I5">
+      <c t="s" s="6" r="J5">
         <v>23</v>
       </c>
-      <c t="s" s="4" r="J5">
+      <c t="s" s="6" r="K5">
         <v>24</v>
       </c>
-      <c t="s" s="4" r="K5">
+      <c t="s" s="6" r="L5">
         <v>25</v>
       </c>
-      <c t="s" s="4" r="L5">
+      <c t="s" s="6" r="M5">
         <v>26</v>
       </c>
-      <c t="s" s="4" r="M5">
+      <c t="s" s="6" r="N5">
         <v>27</v>
       </c>
-      <c t="s" s="4" r="N5">
+      <c t="s" s="6" r="O5">
         <v>28</v>
       </c>
-      <c t="s" s="4" r="O5">
+      <c t="s" s="6" r="P5">
         <v>29</v>
       </c>
     </row>
     <row customHeight="1" r="6" ht="12.75">
-      <c t="s" s="5" r="A6">
+      <c t="s" s="7" r="A6">
         <v>30</v>
       </c>
-      <c t="s" s="3" r="C6">
+      <c s="2" r="B6"/>
+      <c s="3" r="C6"/>
+      <c t="s" s="5" r="D6">
         <v>31</v>
       </c>
-      <c t="s" s="3" r="D6">
+      <c t="s" s="5" r="E6">
         <v>32</v>
       </c>
-      <c t="s" s="3" r="E6">
+      <c t="s" s="5" r="F6">
         <v>33</v>
       </c>
-      <c t="s" s="3" r="F6">
+      <c t="s" s="5" r="G6">
         <v>34</v>
       </c>
-      <c t="s" s="3" r="G6">
+      <c t="s" s="5" r="H6">
         <v>35</v>
       </c>
-      <c t="s" s="3" r="H6">
+      <c t="s" s="5" r="I6">
         <v>36</v>
       </c>
-      <c t="s" s="3" r="I6">
+      <c t="s" s="5" r="J6">
         <v>37</v>
       </c>
-      <c t="s" s="3" r="J6">
+      <c t="s" s="5" r="K6">
         <v>38</v>
       </c>
-      <c t="s" s="3" r="K6">
+      <c t="s" s="5" r="L6">
         <v>39</v>
       </c>
-      <c t="s" s="3" r="L6">
+      <c t="s" s="5" r="M6">
         <v>40</v>
       </c>
-      <c t="s" s="3" r="M6">
+      <c t="s" s="5" r="N6">
         <v>41</v>
       </c>
-      <c t="s" s="3" r="N6">
+      <c t="s" s="5" r="O6">
         <v>42</v>
       </c>
-      <c t="s" s="3" r="O6">
+      <c t="s" s="5" r="P6">
         <v>43</v>
       </c>
     </row>
     <row customHeight="1" r="7" ht="12.75">
-      <c s="6" r="A7"/>
-      <c s="7" r="C7"/>
-      <c s="7" r="D7"/>
-      <c s="7" r="E7"/>
-      <c s="7" r="F7"/>
-      <c s="7" r="G7"/>
-      <c s="7" r="H7"/>
-      <c s="7" r="I7"/>
-      <c s="7" r="J7"/>
-      <c s="7" r="K7"/>
-      <c s="7" r="L7"/>
-      <c s="7" r="M7"/>
-      <c s="7" r="N7"/>
-      <c s="2" r="O7"/>
+      <c s="7" r="A7"/>
+      <c s="2" r="B7"/>
+      <c s="3" r="C7"/>
+      <c s="8" r="D7"/>
+      <c s="8" r="E7"/>
+      <c s="8" r="F7"/>
+      <c s="8" r="G7"/>
+      <c s="8" r="H7"/>
+      <c s="8" r="I7"/>
+      <c s="8" r="J7"/>
+      <c s="8" r="K7"/>
+      <c s="8" r="L7"/>
+      <c s="8" r="M7"/>
+      <c s="8" r="N7"/>
+      <c s="8" r="O7"/>
+      <c s="4" r="P7"/>
     </row>
     <row customHeight="1" r="8" ht="28.5">
-      <c t="s" s="6" r="A8">
+      <c t="s" s="7" r="A8">
         <v>44</v>
       </c>
-      <c s="7" r="C8"/>
-      <c s="7" r="D8"/>
-      <c s="7" r="E8"/>
-      <c s="7" r="F8"/>
-      <c t="s" s="7" r="G8">
+      <c s="2" r="B8"/>
+      <c s="3" r="C8"/>
+      <c s="8" r="D8"/>
+      <c s="8" r="E8"/>
+      <c s="8" r="F8"/>
+      <c s="8" r="G8"/>
+      <c t="s" s="8" r="H8">
         <v>45</v>
       </c>
-      <c t="s" s="7" r="H8">
+      <c t="s" s="8" r="I8">
         <v>46</v>
       </c>
-      <c s="7" r="I8"/>
-      <c s="7" r="J8"/>
-      <c s="7" r="K8"/>
-      <c s="7" r="L8"/>
-      <c s="7" r="M8"/>
-      <c s="7" r="N8"/>
-      <c s="2" r="O8"/>
+      <c s="8" r="J8"/>
+      <c s="8" r="K8"/>
+      <c s="8" r="L8"/>
+      <c s="8" r="M8"/>
+      <c s="8" r="N8"/>
+      <c s="8" r="O8"/>
+      <c s="4" r="P8"/>
     </row>
     <row customHeight="1" r="9" ht="28.5">
-      <c t="s" s="6" r="A9">
+      <c t="s" s="7" r="A9">
         <v>47</v>
       </c>
-      <c s="7" r="C9"/>
-      <c s="7" r="D9"/>
-      <c s="7" r="E9"/>
-      <c s="7" r="F9"/>
-      <c s="7" r="G9"/>
-      <c s="7" r="H9"/>
-      <c s="7" r="I9"/>
-      <c s="7" r="J9"/>
-      <c s="7" r="K9"/>
-      <c s="7" r="L9"/>
-      <c s="7" r="M9"/>
-      <c t="s" s="7" r="N9">
+      <c s="2" r="B9"/>
+      <c s="3" r="C9"/>
+      <c s="8" r="D9"/>
+      <c s="8" r="E9"/>
+      <c s="8" r="F9"/>
+      <c s="8" r="G9"/>
+      <c s="8" r="H9"/>
+      <c s="8" r="I9"/>
+      <c s="8" r="J9"/>
+      <c s="8" r="K9"/>
+      <c s="8" r="L9"/>
+      <c s="8" r="M9"/>
+      <c s="8" r="N9"/>
+      <c t="s" s="8" r="O9">
         <v>48</v>
       </c>
-      <c s="2" r="O9"/>
+      <c s="4" r="P9"/>
     </row>
     <row customHeight="1" r="10" ht="12.75">
-      <c t="s" s="6" r="A10">
+      <c t="s" s="7" r="A10">
         <v>49</v>
       </c>
-      <c s="7" r="C10"/>
-      <c s="7" r="D10"/>
-      <c s="7" r="E10"/>
-      <c s="7" r="F10"/>
-      <c s="7" r="G10"/>
-      <c s="7" r="H10"/>
-      <c s="7" r="I10"/>
-      <c s="7" r="J10"/>
-      <c s="7" r="K10"/>
-      <c s="7" r="L10"/>
-      <c s="7" r="M10"/>
-      <c s="7" r="N10"/>
-      <c s="2" r="O10"/>
+      <c s="2" r="B10"/>
+      <c s="3" r="C10"/>
+      <c s="8" r="D10"/>
+      <c s="8" r="E10"/>
+      <c s="8" r="F10"/>
+      <c s="8" r="G10"/>
+      <c s="8" r="H10"/>
+      <c s="8" r="I10"/>
+      <c s="8" r="J10"/>
+      <c s="8" r="K10"/>
+      <c s="8" r="L10"/>
+      <c s="8" r="M10"/>
+      <c s="8" r="N10"/>
+      <c s="8" r="O10"/>
+      <c s="4" r="P10"/>
     </row>
     <row customHeight="1" r="11" ht="12.75">
-      <c t="s" s="8" r="A11">
+      <c t="s" s="9" r="A11">
         <v>50</v>
       </c>
     </row>
     <row customHeight="1" r="12" ht="12.75">
-      <c t="s" s="9" r="A12">
+      <c t="s" s="10" r="A12">
         <v>51</v>
       </c>
-      <c t="s" s="9" r="B12">
+      <c t="s" s="11" r="B12">
         <v>52</v>
       </c>
       <c t="s" s="10" r="C12">
         <v>53</v>
       </c>
-      <c t="s" s="10" r="D12">
+      <c t="s" s="12" r="D12">
         <v>54</v>
       </c>
-      <c t="s" s="10" r="E12">
+      <c t="s" s="12" r="E12">
         <v>55</v>
       </c>
-      <c t="s" s="10" r="F12">
+      <c t="s" s="12" r="F12">
         <v>56</v>
       </c>
-      <c t="s" s="10" r="G12">
+      <c t="s" s="12" r="G12">
         <v>57</v>
       </c>
-      <c t="s" s="10" r="H12">
+      <c t="s" s="12" r="H12">
         <v>58</v>
       </c>
-      <c t="s" s="10" r="I12">
+      <c t="s" s="12" r="I12">
         <v>59</v>
       </c>
-      <c t="s" s="10" r="J12">
+      <c t="s" s="12" r="J12">
         <v>60</v>
       </c>
-      <c t="s" s="10" r="K12">
+      <c t="s" s="12" r="K12">
         <v>61</v>
       </c>
-      <c t="s" s="10" r="L12">
+      <c t="s" s="12" r="L12">
         <v>62</v>
       </c>
-      <c t="s" s="10" r="M12">
+      <c t="s" s="12" r="M12">
         <v>63</v>
       </c>
-      <c t="s" s="10" r="N12">
+      <c t="s" s="12" r="N12">
         <v>64</v>
       </c>
-      <c t="s" s="10" r="O12">
+      <c t="s" s="12" r="O12">
         <v>65</v>
       </c>
+      <c t="s" s="12" r="P12">
+        <v>66</v>
+      </c>
     </row>
     <row customHeight="1" r="13" ht="12.75">
-      <c t="s" s="10" r="C13">
-        <v>66</v>
-      </c>
-      <c s="10" r="D13"/>
-      <c s="10" r="E13"/>
-      <c s="10" r="F13"/>
-      <c s="10" r="G13"/>
-      <c s="10" r="H13"/>
-      <c s="10" r="I13"/>
-      <c s="10" r="J13"/>
-      <c s="10" r="K13"/>
-      <c s="10" r="L13"/>
-      <c s="10" r="M13"/>
-      <c s="10" r="N13"/>
-      <c t="s" s="10" r="O13">
+      <c t="s" s="12" r="D13">
         <v>67</v>
       </c>
+      <c s="12" r="E13"/>
+      <c s="12" r="F13"/>
+      <c s="12" r="G13"/>
+      <c s="12" r="H13"/>
+      <c s="12" r="I13"/>
+      <c s="12" r="J13"/>
+      <c s="12" r="K13"/>
+      <c s="12" r="L13"/>
+      <c s="12" r="M13"/>
+      <c s="12" r="N13"/>
+      <c s="12" r="O13"/>
+      <c t="s" s="12" r="P13">
+        <v>68</v>
+      </c>
     </row>
     <row customHeight="1" r="14" ht="12.75">
-      <c t="s" s="11" r="A14">
-        <v>68</v>
-      </c>
-      <c t="s" s="11" r="B14">
+      <c t="s" s="13" r="A14">
         <v>69</v>
       </c>
-      <c t="s" s="12" r="C14">
+      <c t="s" s="14" r="B14">
         <v>70</v>
       </c>
-      <c t="s" s="12" r="D14">
+      <c t="s" s="13" r="C14">
         <v>71</v>
       </c>
-      <c t="s" s="12" r="E14">
+      <c t="s" s="15" r="D14">
         <v>72</v>
       </c>
-      <c t="s" s="12" r="F14">
+      <c t="s" s="15" r="E14">
         <v>73</v>
       </c>
-      <c t="s" s="12" r="G14">
+      <c t="s" s="15" r="F14">
         <v>74</v>
       </c>
-      <c t="s" s="12" r="H14">
+      <c t="s" s="15" r="G14">
         <v>75</v>
       </c>
-      <c t="s" s="12" r="I14">
+      <c t="s" s="15" r="H14">
         <v>76</v>
       </c>
-      <c t="s" s="12" r="J14">
+      <c t="s" s="15" r="I14">
         <v>77</v>
       </c>
-      <c t="s" s="12" r="K14">
+      <c t="s" s="15" r="J14">
         <v>78</v>
       </c>
-      <c t="s" s="12" r="L14">
+      <c t="s" s="15" r="K14">
         <v>79</v>
       </c>
-      <c t="s" s="12" r="M14">
+      <c t="s" s="15" r="L14">
         <v>80</v>
       </c>
-      <c t="s" s="12" r="N14">
+      <c t="s" s="15" r="M14">
         <v>81</v>
       </c>
-      <c t="s" s="12" r="O14">
+      <c t="s" s="15" r="N14">
         <v>82</v>
       </c>
+      <c t="s" s="15" r="O14">
+        <v>83</v>
+      </c>
+      <c t="s" s="15" r="P14">
+        <v>84</v>
+      </c>
     </row>
     <row customHeight="1" r="15" ht="12.75">
-      <c s="12" r="C15"/>
-      <c s="12" r="D15"/>
-      <c s="12" r="E15"/>
-      <c s="12" r="F15"/>
-      <c s="12" r="G15"/>
-      <c s="12" r="H15"/>
-      <c s="12" r="I15"/>
-      <c s="12" r="J15"/>
-      <c s="12" r="K15"/>
-      <c s="12" r="L15"/>
-      <c s="12" r="M15"/>
-      <c s="12" r="N15"/>
-      <c t="s" s="12" r="O15">
-        <v>83</v>
+      <c s="15" r="D15"/>
+      <c s="15" r="E15"/>
+      <c s="15" r="F15"/>
+      <c s="15" r="G15"/>
+      <c s="15" r="H15"/>
+      <c s="15" r="I15"/>
+      <c s="15" r="J15"/>
+      <c s="15" r="K15"/>
+      <c s="15" r="L15"/>
+      <c s="15" r="M15"/>
+      <c s="15" r="N15"/>
+      <c s="15" r="O15"/>
+      <c t="s" s="15" r="P15">
+        <v>85</v>
       </c>
     </row>
     <row customHeight="1" r="16" ht="12.75">
-      <c t="s" s="13" r="A16">
-        <v>84</v>
-      </c>
-      <c t="s" s="13" r="B16">
-        <v>85</v>
-      </c>
-      <c s="14" r="C16"/>
-      <c s="14" r="D16"/>
-      <c s="14" r="E16"/>
-      <c s="14" r="F16"/>
-      <c s="14" r="G16"/>
-      <c s="14" r="H16"/>
-      <c s="14" r="I16"/>
-      <c s="14" r="J16"/>
-      <c s="14" r="K16"/>
-      <c s="14" r="L16"/>
-      <c s="14" r="M16"/>
-      <c s="14" r="N16"/>
-      <c s="15" r="O16"/>
+      <c t="s" s="16" r="A16">
+        <v>86</v>
+      </c>
+      <c t="s" s="11" r="B16">
+        <v>87</v>
+      </c>
+      <c t="s" s="16" r="C16">
+        <v>88</v>
+      </c>
+      <c t="s" s="12" r="D16">
+        <v>89</v>
+      </c>
+      <c t="s" s="12" r="E16">
+        <v>90</v>
+      </c>
+      <c t="s" s="12" r="F16">
+        <v>91</v>
+      </c>
+      <c t="s" s="12" r="G16">
+        <v>92</v>
+      </c>
+      <c s="12" r="H16"/>
+      <c s="12" r="I16"/>
+      <c s="12" r="J16"/>
+      <c s="12" r="K16"/>
+      <c s="12" r="L16"/>
+      <c s="12" r="M16"/>
+      <c s="12" r="N16"/>
+      <c s="12" r="O16"/>
+      <c s="4" r="P16"/>
     </row>
     <row customHeight="1" r="17" ht="12.75">
-      <c t="s" s="16" r="A17">
-        <v>86</v>
-      </c>
-      <c t="s" s="16" r="B17">
-        <v>87</v>
-      </c>
-      <c t="s" s="10" r="C17">
-        <v>88</v>
-      </c>
-      <c t="s" s="10" r="D17">
-        <v>89</v>
-      </c>
-      <c t="s" s="10" r="E17">
-        <v>90</v>
-      </c>
-      <c t="s" s="10" r="F17">
-        <v>91</v>
-      </c>
-      <c s="10" r="G17"/>
-      <c s="10" r="H17"/>
-      <c s="10" r="I17"/>
-      <c s="10" r="J17"/>
-      <c s="10" r="K17"/>
-      <c s="10" r="L17"/>
-      <c s="10" r="M17"/>
-      <c s="10" r="N17"/>
-      <c s="2" r="O17"/>
+      <c t="s" s="17" r="A17">
+        <v>93</v>
+      </c>
+      <c t="s" s="14" r="B17">
+        <v>94</v>
+      </c>
+      <c t="s" s="17" r="C17">
+        <v>95</v>
+      </c>
+      <c t="s" s="18" r="D17">
+        <v>96</v>
+      </c>
+      <c t="s" s="18" r="E17">
+        <v>97</v>
+      </c>
+      <c t="s" s="18" r="F17">
+        <v>98</v>
+      </c>
+      <c t="s" s="18" r="G17">
+        <v>99</v>
+      </c>
+      <c t="s" s="18" r="H17">
+        <v>100</v>
+      </c>
+      <c t="s" s="18" r="I17">
+        <v>101</v>
+      </c>
+      <c t="s" s="18" r="J17">
+        <v>102</v>
+      </c>
+      <c t="s" s="18" r="K17">
+        <v>103</v>
+      </c>
+      <c t="s" s="18" r="L17">
+        <v>104</v>
+      </c>
+      <c t="s" s="18" r="M17">
+        <v>105</v>
+      </c>
+      <c t="s" s="18" r="N17">
+        <v>106</v>
+      </c>
+      <c t="s" s="18" r="O17">
+        <v>107</v>
+      </c>
+      <c t="s" s="18" r="P17">
+        <v>108</v>
+      </c>
     </row>
     <row customHeight="1" r="18" ht="12.75">
-      <c t="s" s="17" r="A18">
-        <v>92</v>
-      </c>
-      <c t="s" s="17" r="B18">
-        <v>93</v>
-      </c>
-      <c t="s" s="18" r="C18">
-        <v>94</v>
-      </c>
       <c t="s" s="18" r="D18">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c t="s" s="18" r="E18">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c t="s" s="18" r="F18">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c t="s" s="18" r="G18">
-        <v>98</v>
-      </c>
-      <c t="s" s="18" r="H18">
-        <v>99</v>
-      </c>
-      <c t="s" s="18" r="I18">
-        <v>100</v>
-      </c>
-      <c t="s" s="18" r="J18">
-        <v>101</v>
-      </c>
-      <c t="s" s="18" r="K18">
-        <v>102</v>
-      </c>
-      <c t="s" s="18" r="L18">
-        <v>103</v>
-      </c>
-      <c t="s" s="18" r="M18">
-        <v>104</v>
-      </c>
-      <c t="s" s="18" r="N18">
-        <v>105</v>
-      </c>
-      <c t="s" s="18" r="O18">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c t="s" s="19" r="H18">
+        <v>113</v>
+      </c>
+      <c t="s" s="19" r="I18">
+        <v>114</v>
+      </c>
+      <c t="s" s="19" r="J18">
+        <v>115</v>
+      </c>
+      <c t="s" s="19" r="K18">
+        <v>116</v>
+      </c>
+      <c t="s" s="19" r="L18">
+        <v>117</v>
+      </c>
+      <c t="s" s="19" r="M18">
+        <v>118</v>
+      </c>
+      <c t="s" s="19" r="N18">
+        <v>119</v>
+      </c>
+      <c t="s" s="19" r="O18">
+        <v>120</v>
+      </c>
+      <c t="s" s="18" r="P18">
+        <v>121</v>
       </c>
     </row>
     <row customHeight="1" r="19" ht="12.75">
-      <c t="s" s="18" r="C19">
-        <v>107</v>
-      </c>
-      <c t="s" s="18" r="D19">
-        <v>108</v>
-      </c>
-      <c t="s" s="18" r="E19">
-        <v>109</v>
-      </c>
-      <c t="s" s="18" r="F19">
-        <v>110</v>
-      </c>
-      <c t="s" s="19" r="G19">
-        <v>111</v>
-      </c>
-      <c t="s" s="19" r="H19">
-        <v>112</v>
-      </c>
-      <c t="s" s="19" r="I19">
-        <v>113</v>
-      </c>
-      <c t="s" s="19" r="J19">
-        <v>114</v>
-      </c>
-      <c t="s" s="19" r="K19">
-        <v>115</v>
-      </c>
-      <c t="s" s="19" r="L19">
-        <v>116</v>
-      </c>
-      <c t="s" s="19" r="M19">
-        <v>117</v>
-      </c>
-      <c t="s" s="19" r="N19">
-        <v>118</v>
-      </c>
-      <c t="s" s="18" r="O19">
-        <v>119</v>
+      <c t="s" s="10" r="A19">
+        <v>122</v>
+      </c>
+      <c t="s" s="11" r="B19">
+        <v>123</v>
+      </c>
+      <c t="s" s="10" r="C19">
+        <v>124</v>
+      </c>
+      <c t="s" s="20" r="D19">
+        <v>125</v>
+      </c>
+      <c t="s" s="20" r="E19">
+        <v>126</v>
+      </c>
+      <c t="s" s="20" r="F19">
+        <v>127</v>
+      </c>
+      <c t="s" s="20" r="G19">
+        <v>128</v>
+      </c>
+      <c t="s" s="20" r="H19">
+        <v>129</v>
+      </c>
+      <c t="s" s="20" r="I19">
+        <v>130</v>
+      </c>
+      <c t="s" s="20" r="J19">
+        <v>131</v>
+      </c>
+      <c t="s" s="20" r="K19">
+        <v>132</v>
+      </c>
+      <c t="s" s="20" r="L19">
+        <v>133</v>
+      </c>
+      <c t="s" s="20" r="M19">
+        <v>134</v>
+      </c>
+      <c t="s" s="20" r="N19">
+        <v>135</v>
+      </c>
+      <c t="s" s="20" r="O19">
+        <v>136</v>
+      </c>
+      <c t="s" s="21" r="P19">
+        <v>137</v>
       </c>
     </row>
     <row customHeight="1" r="20" ht="12.75">
-      <c t="s" s="20" r="A20">
-        <v>120</v>
-      </c>
-      <c t="s" s="20" r="B20">
-        <v>121</v>
-      </c>
-      <c t="s" s="21" r="C20">
-        <v>122</v>
-      </c>
-      <c t="s" s="21" r="D20">
-        <v>123</v>
-      </c>
-      <c t="s" s="21" r="E20">
-        <v>124</v>
-      </c>
-      <c t="s" s="21" r="F20">
-        <v>125</v>
-      </c>
-      <c t="s" s="21" r="G20">
-        <v>126</v>
-      </c>
-      <c t="s" s="21" r="H20">
-        <v>127</v>
-      </c>
-      <c t="s" s="21" r="I20">
-        <v>128</v>
-      </c>
-      <c t="s" s="21" r="J20">
-        <v>129</v>
-      </c>
-      <c t="s" s="21" r="K20">
-        <v>130</v>
-      </c>
-      <c t="s" s="21" r="L20">
-        <v>131</v>
-      </c>
-      <c t="s" s="21" r="M20">
-        <v>132</v>
-      </c>
-      <c t="s" s="21" r="N20">
-        <v>133</v>
-      </c>
-      <c t="s" s="22" r="O20">
-        <v>134</v>
+      <c t="s" s="20" r="D20">
+        <v>138</v>
+      </c>
+      <c t="s" s="20" r="E20">
+        <v>139</v>
+      </c>
+      <c t="s" s="20" r="F20">
+        <v>140</v>
+      </c>
+      <c t="s" s="20" r="G20">
+        <v>141</v>
+      </c>
+      <c t="s" s="20" r="H20">
+        <v>142</v>
+      </c>
+      <c t="s" s="20" r="I20">
+        <v>143</v>
+      </c>
+      <c t="s" s="20" r="J20">
+        <v>144</v>
+      </c>
+      <c t="s" s="20" r="K20">
+        <v>145</v>
+      </c>
+      <c t="s" s="20" r="L20">
+        <v>146</v>
+      </c>
+      <c t="s" s="20" r="M20">
+        <v>147</v>
+      </c>
+      <c t="s" s="20" r="N20">
+        <v>148</v>
+      </c>
+      <c t="s" s="20" r="O20">
+        <v>149</v>
+      </c>
+      <c t="s" s="12" r="P20">
+        <v>150</v>
       </c>
     </row>
     <row customHeight="1" r="21" ht="12.75">
-      <c t="s" s="21" r="C21">
-        <v>135</v>
-      </c>
-      <c t="s" s="21" r="D21">
-        <v>136</v>
-      </c>
-      <c t="s" s="21" r="E21">
-        <v>137</v>
-      </c>
-      <c t="s" s="21" r="F21">
-        <v>138</v>
-      </c>
-      <c t="s" s="21" r="G21">
-        <v>139</v>
-      </c>
-      <c t="s" s="21" r="H21">
-        <v>140</v>
-      </c>
-      <c t="s" s="21" r="I21">
-        <v>141</v>
-      </c>
-      <c t="s" s="21" r="J21">
-        <v>142</v>
-      </c>
-      <c t="s" s="21" r="K21">
-        <v>143</v>
-      </c>
-      <c t="s" s="21" r="L21">
-        <v>144</v>
-      </c>
-      <c t="s" s="21" r="M21">
-        <v>145</v>
-      </c>
-      <c t="s" s="21" r="N21">
-        <v>146</v>
-      </c>
-      <c t="s" s="10" r="O21">
-        <v>147</v>
+      <c t="s" s="17" r="A21">
+        <v>151</v>
+      </c>
+      <c t="s" s="14" r="B21">
+        <v>152</v>
+      </c>
+      <c t="s" s="17" r="C21">
+        <v>153</v>
+      </c>
+      <c t="s" s="18" r="D21">
+        <v>154</v>
+      </c>
+      <c t="s" s="18" r="E21">
+        <v>155</v>
+      </c>
+      <c t="s" s="18" r="F21">
+        <v>156</v>
+      </c>
+      <c t="s" s="18" r="G21">
+        <v>157</v>
+      </c>
+      <c t="s" s="18" r="H21">
+        <v>158</v>
+      </c>
+      <c t="s" s="18" r="I21">
+        <v>159</v>
+      </c>
+      <c t="s" s="18" r="J21">
+        <v>160</v>
+      </c>
+      <c t="s" s="18" r="K21">
+        <v>161</v>
+      </c>
+      <c t="s" s="18" r="L21">
+        <v>162</v>
+      </c>
+      <c t="s" s="18" r="M21">
+        <v>163</v>
+      </c>
+      <c t="s" s="18" r="N21">
+        <v>164</v>
+      </c>
+      <c t="s" s="18" r="O21">
+        <v>165</v>
+      </c>
+      <c t="s" s="18" r="P21">
+        <v>166</v>
       </c>
     </row>
     <row customHeight="1" r="22" ht="12.75">
-      <c t="s" s="17" r="A22">
-        <v>148</v>
-      </c>
-      <c t="s" s="17" r="B22">
-        <v>149</v>
-      </c>
-      <c t="s" s="18" r="C22">
-        <v>150</v>
-      </c>
       <c t="s" s="18" r="D22">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c t="s" s="18" r="E22">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c t="s" s="18" r="F22">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c t="s" s="18" r="G22">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c t="s" s="18" r="H22">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c t="s" s="18" r="I22">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c t="s" s="18" r="J22">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c t="s" s="18" r="K22">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c t="s" s="18" r="L22">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c t="s" s="18" r="M22">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c t="s" s="18" r="N22">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c t="s" s="18" r="O22">
-        <v>162</v>
+        <v>178</v>
+      </c>
+      <c t="s" s="18" r="P22">
+        <v>179</v>
       </c>
     </row>
     <row customHeight="1" r="23" ht="12.75">
-      <c t="s" s="18" r="C23">
-        <v>163</v>
-      </c>
-      <c t="s" s="18" r="D23">
-        <v>164</v>
-      </c>
-      <c t="s" s="18" r="E23">
-        <v>165</v>
-      </c>
-      <c t="s" s="18" r="F23">
-        <v>166</v>
-      </c>
-      <c t="s" s="18" r="G23">
-        <v>167</v>
-      </c>
-      <c t="s" s="18" r="H23">
-        <v>168</v>
-      </c>
-      <c t="s" s="18" r="I23">
-        <v>169</v>
-      </c>
-      <c t="s" s="18" r="J23">
-        <v>170</v>
-      </c>
-      <c t="s" s="18" r="K23">
-        <v>171</v>
-      </c>
-      <c t="s" s="18" r="L23">
-        <v>172</v>
-      </c>
-      <c t="s" s="18" r="M23">
-        <v>173</v>
-      </c>
-      <c t="s" s="18" r="N23">
-        <v>174</v>
-      </c>
-      <c t="s" s="18" r="O23">
-        <v>175</v>
+      <c s="18" r="D23"/>
+      <c s="18" r="E23"/>
+      <c s="18" r="F23"/>
+      <c s="18" r="G23"/>
+      <c s="18" r="H23"/>
+      <c s="18" r="I23"/>
+      <c s="18" r="J23"/>
+      <c s="18" r="K23"/>
+      <c s="18" r="L23"/>
+      <c s="18" r="M23"/>
+      <c s="18" r="N23"/>
+      <c s="18" r="O23"/>
+      <c t="s" s="18" r="P23">
+        <v>180</v>
       </c>
     </row>
     <row customHeight="1" r="24" ht="12.75">
-      <c s="18" r="C24"/>
       <c s="18" r="D24"/>
       <c s="18" r="E24"/>
       <c s="18" r="F24"/>
@@ -3013,1806 +3106,1889 @@
       <c s="18" r="L24"/>
       <c s="18" r="M24"/>
       <c s="18" r="N24"/>
-      <c t="s" s="18" r="O24">
-        <v>176</v>
+      <c s="18" r="O24"/>
+      <c t="s" s="15" r="P24">
+        <v>181</v>
       </c>
     </row>
     <row customHeight="1" r="25" ht="12.75">
-      <c s="18" r="C25"/>
-      <c s="18" r="D25"/>
-      <c s="18" r="E25"/>
-      <c s="18" r="F25"/>
-      <c s="18" r="G25"/>
-      <c s="18" r="H25"/>
-      <c s="18" r="I25"/>
-      <c s="18" r="J25"/>
-      <c s="18" r="K25"/>
-      <c s="18" r="L25"/>
-      <c s="18" r="M25"/>
-      <c s="18" r="N25"/>
-      <c t="s" s="12" r="O25">
-        <v>177</v>
+      <c t="s" s="10" r="A25">
+        <v>182</v>
+      </c>
+      <c t="s" s="11" r="B25">
+        <v>183</v>
+      </c>
+      <c t="s" s="10" r="C25">
+        <v>184</v>
+      </c>
+      <c t="s" s="20" r="D25">
+        <v>185</v>
+      </c>
+      <c t="s" s="20" r="E25">
+        <v>186</v>
+      </c>
+      <c t="s" s="20" r="F25">
+        <v>187</v>
+      </c>
+      <c t="s" s="20" r="G25">
+        <v>188</v>
+      </c>
+      <c t="s" s="20" r="H25">
+        <v>189</v>
+      </c>
+      <c t="s" s="20" r="I25">
+        <v>190</v>
+      </c>
+      <c t="s" s="20" r="J25">
+        <v>191</v>
+      </c>
+      <c t="s" s="20" r="K25">
+        <v>192</v>
+      </c>
+      <c t="s" s="20" r="L25">
+        <v>193</v>
+      </c>
+      <c t="s" s="20" r="M25">
+        <v>194</v>
+      </c>
+      <c t="s" s="20" r="N25">
+        <v>195</v>
+      </c>
+      <c t="s" s="20" r="O25">
+        <v>196</v>
+      </c>
+      <c t="s" s="21" r="P25">
+        <v>197</v>
       </c>
     </row>
     <row customHeight="1" r="26" ht="12.75">
-      <c t="s" s="20" r="A26">
-        <v>178</v>
-      </c>
-      <c t="s" s="20" r="B26">
-        <v>179</v>
-      </c>
-      <c t="s" s="21" r="C26">
-        <v>180</v>
-      </c>
-      <c t="s" s="21" r="D26">
-        <v>181</v>
-      </c>
-      <c t="s" s="21" r="E26">
-        <v>182</v>
-      </c>
-      <c t="s" s="21" r="F26">
-        <v>183</v>
-      </c>
-      <c t="s" s="21" r="G26">
-        <v>184</v>
-      </c>
-      <c t="s" s="21" r="H26">
-        <v>185</v>
-      </c>
-      <c t="s" s="21" r="I26">
-        <v>186</v>
-      </c>
-      <c t="s" s="21" r="J26">
-        <v>187</v>
-      </c>
-      <c t="s" s="21" r="K26">
-        <v>188</v>
-      </c>
-      <c t="s" s="21" r="L26">
-        <v>189</v>
-      </c>
-      <c t="s" s="21" r="M26">
-        <v>190</v>
-      </c>
-      <c t="s" s="21" r="N26">
-        <v>191</v>
-      </c>
-      <c t="s" s="22" r="O26">
-        <v>192</v>
+      <c t="s" s="20" r="D26">
+        <v>198</v>
+      </c>
+      <c t="s" s="20" r="E26">
+        <v>199</v>
+      </c>
+      <c t="s" s="20" r="F26">
+        <v>200</v>
+      </c>
+      <c t="s" s="20" r="G26">
+        <v>201</v>
+      </c>
+      <c t="s" s="20" r="H26">
+        <v>202</v>
+      </c>
+      <c t="s" s="20" r="I26">
+        <v>203</v>
+      </c>
+      <c t="s" s="20" r="J26">
+        <v>204</v>
+      </c>
+      <c t="s" s="20" r="K26">
+        <v>205</v>
+      </c>
+      <c t="s" s="20" r="L26">
+        <v>206</v>
+      </c>
+      <c t="s" s="20" r="M26">
+        <v>207</v>
+      </c>
+      <c t="s" s="20" r="N26">
+        <v>208</v>
+      </c>
+      <c t="s" s="20" r="O26">
+        <v>209</v>
+      </c>
+      <c t="s" s="21" r="P26">
+        <v>210</v>
       </c>
     </row>
     <row customHeight="1" r="27" ht="12.75">
-      <c t="s" s="21" r="C27">
-        <v>193</v>
-      </c>
-      <c t="s" s="21" r="D27">
-        <v>194</v>
-      </c>
-      <c t="s" s="21" r="E27">
-        <v>195</v>
-      </c>
-      <c t="s" s="21" r="F27">
-        <v>196</v>
-      </c>
-      <c t="s" s="21" r="G27">
-        <v>197</v>
-      </c>
-      <c t="s" s="21" r="H27">
-        <v>198</v>
-      </c>
-      <c t="s" s="21" r="I27">
-        <v>199</v>
-      </c>
-      <c t="s" s="21" r="J27">
-        <v>200</v>
-      </c>
-      <c t="s" s="21" r="K27">
-        <v>201</v>
-      </c>
-      <c t="s" s="21" r="L27">
-        <v>202</v>
-      </c>
-      <c t="s" s="21" r="M27">
-        <v>203</v>
-      </c>
-      <c t="s" s="21" r="N27">
-        <v>204</v>
-      </c>
-      <c t="s" s="22" r="O27">
-        <v>205</v>
+      <c s="20" r="D27"/>
+      <c s="20" r="E27"/>
+      <c s="20" r="F27"/>
+      <c s="20" r="G27"/>
+      <c s="20" r="H27"/>
+      <c s="20" r="I27"/>
+      <c s="20" r="J27"/>
+      <c s="20" r="K27"/>
+      <c s="20" r="L27"/>
+      <c s="20" r="M27"/>
+      <c s="20" r="N27"/>
+      <c s="20" r="O27"/>
+      <c t="s" s="21" r="P27">
+        <v>211</v>
       </c>
     </row>
     <row customHeight="1" r="28" ht="12.75">
-      <c s="21" r="C28"/>
-      <c s="21" r="D28"/>
-      <c s="21" r="E28"/>
-      <c s="21" r="F28"/>
-      <c s="21" r="G28"/>
-      <c s="21" r="H28"/>
-      <c s="21" r="I28"/>
-      <c s="21" r="J28"/>
-      <c s="21" r="K28"/>
-      <c s="21" r="L28"/>
-      <c s="21" r="M28"/>
-      <c s="21" r="N28"/>
-      <c t="s" s="22" r="O28">
-        <v>206</v>
+      <c s="20" r="D28"/>
+      <c s="20" r="E28"/>
+      <c s="20" r="F28"/>
+      <c s="20" r="G28"/>
+      <c s="20" r="H28"/>
+      <c s="20" r="I28"/>
+      <c s="20" r="J28"/>
+      <c s="20" r="K28"/>
+      <c s="20" r="L28"/>
+      <c s="20" r="M28"/>
+      <c s="20" r="N28"/>
+      <c s="20" r="O28"/>
+      <c t="s" s="12" r="P28">
+        <v>212</v>
       </c>
     </row>
     <row customHeight="1" r="29" ht="12.75">
-      <c s="21" r="C29"/>
-      <c s="21" r="D29"/>
-      <c s="21" r="E29"/>
-      <c s="21" r="F29"/>
-      <c s="21" r="G29"/>
-      <c s="21" r="H29"/>
-      <c s="21" r="I29"/>
-      <c s="21" r="J29"/>
-      <c s="21" r="K29"/>
-      <c s="21" r="L29"/>
-      <c s="21" r="M29"/>
-      <c s="21" r="N29"/>
-      <c t="s" s="10" r="O29">
-        <v>207</v>
+      <c t="s" s="17" r="A29">
+        <v>213</v>
+      </c>
+      <c t="s" s="14" r="B29">
+        <v>214</v>
+      </c>
+      <c t="s" s="17" r="C29">
+        <v>215</v>
+      </c>
+      <c t="s" s="15" r="D29">
+        <v>216</v>
+      </c>
+      <c t="s" s="19" r="E29">
+        <v>217</v>
+      </c>
+      <c t="s" s="19" r="F29">
+        <v>218</v>
+      </c>
+      <c t="s" s="19" r="G29">
+        <v>219</v>
+      </c>
+      <c t="s" s="19" r="H29">
+        <v>220</v>
+      </c>
+      <c t="s" s="19" r="I29">
+        <v>221</v>
+      </c>
+      <c t="s" s="19" r="J29">
+        <v>222</v>
+      </c>
+      <c t="s" s="19" r="K29">
+        <v>223</v>
+      </c>
+      <c t="s" s="19" r="L29">
+        <v>224</v>
+      </c>
+      <c t="s" s="19" r="M29">
+        <v>225</v>
+      </c>
+      <c t="s" s="19" r="N29">
+        <v>226</v>
+      </c>
+      <c t="s" s="19" r="O29">
+        <v>227</v>
+      </c>
+      <c t="s" s="19" r="P29">
+        <v>228</v>
       </c>
     </row>
     <row customHeight="1" r="30" ht="12.75">
-      <c t="s" s="23" r="A30">
-        <v>208</v>
-      </c>
-      <c t="s" s="23" r="B30">
-        <v>209</v>
-      </c>
-      <c t="s" s="12" r="C30">
-        <v>210</v>
-      </c>
-      <c t="s" s="19" r="D30">
-        <v>211</v>
-      </c>
+      <c s="15" r="D30"/>
       <c t="s" s="19" r="E30">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c t="s" s="19" r="F30">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c t="s" s="19" r="G30">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c t="s" s="19" r="H30">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c t="s" s="19" r="I30">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c t="s" s="19" r="J30">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c t="s" s="19" r="K30">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c t="s" s="19" r="L30">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c t="s" s="19" r="M30">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c t="s" s="19" r="N30">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c t="s" s="19" r="O30">
-        <v>222</v>
+        <v>239</v>
+      </c>
+      <c t="s" s="15" r="P30">
+        <v>240</v>
       </c>
     </row>
     <row customHeight="1" r="31" ht="12.75">
-      <c s="12" r="C31"/>
-      <c t="s" s="19" r="D31">
-        <v>223</v>
-      </c>
-      <c t="s" s="19" r="E31">
-        <v>224</v>
-      </c>
-      <c t="s" s="19" r="F31">
-        <v>225</v>
-      </c>
-      <c t="s" s="19" r="G31">
-        <v>226</v>
-      </c>
-      <c t="s" s="19" r="H31">
-        <v>227</v>
-      </c>
-      <c t="s" s="19" r="I31">
-        <v>228</v>
-      </c>
-      <c t="s" s="19" r="J31">
-        <v>229</v>
-      </c>
-      <c t="s" s="19" r="K31">
-        <v>230</v>
-      </c>
-      <c t="s" s="19" r="L31">
-        <v>231</v>
-      </c>
-      <c t="s" s="19" r="M31">
-        <v>232</v>
-      </c>
-      <c t="s" s="19" r="N31">
-        <v>233</v>
-      </c>
-      <c t="s" s="12" r="O31">
-        <v>234</v>
+      <c t="s" s="10" r="A31">
+        <v>241</v>
+      </c>
+      <c t="s" s="11" r="B31">
+        <v>242</v>
+      </c>
+      <c t="s" s="10" r="C31">
+        <v>243</v>
+      </c>
+      <c t="s" s="12" r="D31">
+        <v>244</v>
+      </c>
+      <c t="s" s="22" r="E31">
+        <v>245</v>
+      </c>
+      <c t="s" s="22" r="F31">
+        <v>246</v>
+      </c>
+      <c t="s" s="22" r="G31">
+        <v>247</v>
+      </c>
+      <c t="s" s="22" r="H31">
+        <v>248</v>
+      </c>
+      <c t="s" s="22" r="I31">
+        <v>249</v>
+      </c>
+      <c t="s" s="22" r="J31">
+        <v>250</v>
+      </c>
+      <c t="s" s="22" r="K31">
+        <v>251</v>
+      </c>
+      <c t="s" s="22" r="L31">
+        <v>252</v>
+      </c>
+      <c t="s" s="22" r="M31">
+        <v>253</v>
+      </c>
+      <c t="s" s="22" r="N31">
+        <v>254</v>
+      </c>
+      <c t="s" s="22" r="O31">
+        <v>255</v>
+      </c>
+      <c t="s" s="23" r="P31">
+        <v>256</v>
       </c>
     </row>
     <row customHeight="1" r="32" ht="12.75">
-      <c t="s" s="20" r="A32">
-        <v>235</v>
-      </c>
-      <c t="s" s="20" r="B32">
-        <v>236</v>
-      </c>
-      <c t="s" s="10" r="C32">
-        <v>237</v>
-      </c>
-      <c t="s" s="24" r="D32">
-        <v>238</v>
-      </c>
-      <c t="s" s="24" r="E32">
-        <v>239</v>
-      </c>
-      <c t="s" s="24" r="F32">
-        <v>240</v>
-      </c>
-      <c t="s" s="24" r="G32">
-        <v>241</v>
-      </c>
-      <c t="s" s="24" r="H32">
-        <v>242</v>
-      </c>
-      <c t="s" s="24" r="I32">
-        <v>243</v>
-      </c>
-      <c t="s" s="24" r="J32">
-        <v>244</v>
-      </c>
-      <c t="s" s="24" r="K32">
-        <v>245</v>
-      </c>
-      <c t="s" s="24" r="L32">
-        <v>246</v>
-      </c>
-      <c t="s" s="24" r="M32">
-        <v>247</v>
-      </c>
-      <c t="s" s="24" r="N32">
-        <v>248</v>
-      </c>
-      <c t="s" s="25" r="O32">
-        <v>249</v>
+      <c s="12" r="D32"/>
+      <c t="s" s="22" r="E32">
+        <v>257</v>
+      </c>
+      <c t="s" s="22" r="F32">
+        <v>258</v>
+      </c>
+      <c t="s" s="22" r="G32">
+        <v>259</v>
+      </c>
+      <c t="s" s="22" r="H32">
+        <v>260</v>
+      </c>
+      <c t="s" s="22" r="I32">
+        <v>261</v>
+      </c>
+      <c t="s" s="22" r="J32">
+        <v>262</v>
+      </c>
+      <c t="s" s="22" r="K32">
+        <v>263</v>
+      </c>
+      <c t="s" s="22" r="L32">
+        <v>264</v>
+      </c>
+      <c t="s" s="22" r="M32">
+        <v>265</v>
+      </c>
+      <c t="s" s="22" r="N32">
+        <v>266</v>
+      </c>
+      <c t="s" s="22" r="O32">
+        <v>267</v>
+      </c>
+      <c t="s" s="12" r="P32">
+        <v>268</v>
       </c>
     </row>
     <row customHeight="1" r="33" ht="12.75">
-      <c s="10" r="C33"/>
-      <c t="s" s="24" r="D33">
-        <v>250</v>
-      </c>
-      <c t="s" s="24" r="E33">
-        <v>251</v>
-      </c>
-      <c t="s" s="24" r="F33">
-        <v>252</v>
-      </c>
-      <c t="s" s="24" r="G33">
-        <v>253</v>
-      </c>
-      <c t="s" s="24" r="H33">
-        <v>254</v>
-      </c>
-      <c t="s" s="24" r="I33">
-        <v>255</v>
-      </c>
-      <c t="s" s="24" r="J33">
-        <v>256</v>
-      </c>
-      <c t="s" s="24" r="K33">
-        <v>257</v>
-      </c>
-      <c t="s" s="24" r="L33">
-        <v>258</v>
-      </c>
-      <c t="s" s="24" r="M33">
-        <v>259</v>
-      </c>
-      <c t="s" s="24" r="N33">
-        <v>260</v>
-      </c>
-      <c t="s" s="10" r="O33">
-        <v>261</v>
+      <c t="s" s="17" r="A33">
+        <v>269</v>
+      </c>
+      <c t="s" s="14" r="B33">
+        <v>270</v>
+      </c>
+      <c t="s" s="17" r="C33">
+        <v>271</v>
+      </c>
+      <c t="s" s="15" r="D33">
+        <v>272</v>
+      </c>
+      <c t="s" s="19" r="E33">
+        <v>273</v>
+      </c>
+      <c t="s" s="19" r="F33">
+        <v>274</v>
+      </c>
+      <c t="s" s="19" r="G33">
+        <v>275</v>
+      </c>
+      <c t="s" s="19" r="H33">
+        <v>276</v>
+      </c>
+      <c t="s" s="19" r="I33">
+        <v>277</v>
+      </c>
+      <c t="s" s="19" r="J33">
+        <v>278</v>
+      </c>
+      <c t="s" s="19" r="K33">
+        <v>279</v>
+      </c>
+      <c t="s" s="19" r="L33">
+        <v>280</v>
+      </c>
+      <c t="s" s="19" r="M33">
+        <v>281</v>
+      </c>
+      <c t="s" s="19" r="N33">
+        <v>282</v>
+      </c>
+      <c t="s" s="19" r="O33">
+        <v>283</v>
+      </c>
+      <c t="s" s="19" r="P33">
+        <v>284</v>
       </c>
     </row>
     <row customHeight="1" r="34" ht="12.75">
-      <c t="s" s="23" r="A34">
-        <v>262</v>
-      </c>
-      <c t="s" s="23" r="B34">
-        <v>263</v>
-      </c>
-      <c t="s" s="12" r="C34">
-        <v>264</v>
-      </c>
-      <c t="s" s="19" r="D34">
-        <v>265</v>
-      </c>
+      <c s="15" r="D34"/>
       <c t="s" s="19" r="E34">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c t="s" s="19" r="F34">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c t="s" s="19" r="G34">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c t="s" s="19" r="H34">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c t="s" s="19" r="I34">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c t="s" s="19" r="J34">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c t="s" s="19" r="K34">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c t="s" s="19" r="L34">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c t="s" s="19" r="M34">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c t="s" s="19" r="N34">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c t="s" s="19" r="O34">
-        <v>276</v>
+        <v>295</v>
+      </c>
+      <c t="s" s="15" r="P34">
+        <v>296</v>
       </c>
     </row>
     <row customHeight="1" r="35" ht="12.75">
-      <c s="12" r="C35"/>
-      <c t="s" s="19" r="D35">
-        <v>277</v>
-      </c>
-      <c t="s" s="19" r="E35">
-        <v>278</v>
-      </c>
-      <c t="s" s="19" r="F35">
-        <v>279</v>
-      </c>
-      <c t="s" s="19" r="G35">
-        <v>280</v>
-      </c>
-      <c t="s" s="19" r="H35">
-        <v>281</v>
-      </c>
-      <c t="s" s="19" r="I35">
-        <v>282</v>
-      </c>
-      <c t="s" s="19" r="J35">
-        <v>283</v>
-      </c>
-      <c t="s" s="19" r="K35">
-        <v>284</v>
-      </c>
-      <c t="s" s="19" r="L35">
-        <v>285</v>
-      </c>
-      <c t="s" s="19" r="M35">
-        <v>286</v>
-      </c>
-      <c t="s" s="19" r="N35">
-        <v>287</v>
-      </c>
-      <c t="s" s="12" r="O35">
-        <v>288</v>
+      <c t="s" s="10" r="A35">
+        <v>297</v>
+      </c>
+      <c t="s" s="11" r="B35">
+        <v>298</v>
+      </c>
+      <c t="s" s="10" r="C35">
+        <v>299</v>
+      </c>
+      <c t="s" s="12" r="D35">
+        <v>300</v>
+      </c>
+      <c t="s" s="22" r="E35">
+        <v>301</v>
+      </c>
+      <c t="s" s="22" r="F35">
+        <v>302</v>
+      </c>
+      <c t="s" s="22" r="G35">
+        <v>303</v>
+      </c>
+      <c t="s" s="22" r="H35">
+        <v>304</v>
+      </c>
+      <c t="s" s="22" r="I35">
+        <v>305</v>
+      </c>
+      <c t="s" s="22" r="J35">
+        <v>306</v>
+      </c>
+      <c t="s" s="22" r="K35">
+        <v>307</v>
+      </c>
+      <c t="s" s="22" r="L35">
+        <v>308</v>
+      </c>
+      <c t="s" s="22" r="M35">
+        <v>309</v>
+      </c>
+      <c t="s" s="22" r="N35">
+        <v>310</v>
+      </c>
+      <c t="s" s="22" r="O35">
+        <v>311</v>
+      </c>
+      <c t="s" s="23" r="P35">
+        <v>312</v>
       </c>
     </row>
     <row customHeight="1" r="36" ht="12.75">
-      <c t="s" s="20" r="A36">
-        <v>289</v>
-      </c>
-      <c t="s" s="20" r="B36">
-        <v>290</v>
-      </c>
-      <c t="s" s="10" r="C36">
-        <v>291</v>
-      </c>
-      <c t="s" s="24" r="D36">
-        <v>292</v>
-      </c>
-      <c t="s" s="24" r="E36">
-        <v>293</v>
-      </c>
-      <c t="s" s="24" r="F36">
-        <v>294</v>
-      </c>
-      <c t="s" s="24" r="G36">
-        <v>295</v>
-      </c>
-      <c t="s" s="24" r="H36">
-        <v>296</v>
-      </c>
-      <c t="s" s="24" r="I36">
-        <v>297</v>
-      </c>
-      <c t="s" s="24" r="J36">
-        <v>298</v>
-      </c>
-      <c t="s" s="24" r="K36">
-        <v>299</v>
-      </c>
-      <c t="s" s="24" r="L36">
-        <v>300</v>
-      </c>
-      <c t="s" s="24" r="M36">
-        <v>301</v>
-      </c>
-      <c t="s" s="24" r="N36">
-        <v>302</v>
-      </c>
-      <c t="s" s="25" r="O36">
-        <v>303</v>
+      <c s="24" r="D36"/>
+      <c t="s" s="22" r="E36">
+        <v>313</v>
+      </c>
+      <c t="s" s="22" r="F36">
+        <v>314</v>
+      </c>
+      <c t="s" s="22" r="G36">
+        <v>315</v>
+      </c>
+      <c t="s" s="22" r="H36">
+        <v>316</v>
+      </c>
+      <c t="s" s="22" r="I36">
+        <v>317</v>
+      </c>
+      <c t="s" s="22" r="J36">
+        <v>318</v>
+      </c>
+      <c t="s" s="22" r="K36">
+        <v>319</v>
+      </c>
+      <c t="s" s="22" r="L36">
+        <v>320</v>
+      </c>
+      <c t="s" s="22" r="M36">
+        <v>321</v>
+      </c>
+      <c t="s" s="22" r="N36">
+        <v>322</v>
+      </c>
+      <c t="s" s="22" r="O36">
+        <v>323</v>
+      </c>
+      <c t="s" s="12" r="P36">
+        <v>324</v>
       </c>
     </row>
     <row customHeight="1" r="37" ht="12.75">
-      <c s="26" r="C37"/>
-      <c t="s" s="24" r="D37">
-        <v>304</v>
-      </c>
-      <c t="s" s="24" r="E37">
-        <v>305</v>
-      </c>
-      <c t="s" s="24" r="F37">
-        <v>306</v>
-      </c>
-      <c t="s" s="24" r="G37">
-        <v>307</v>
-      </c>
-      <c t="s" s="24" r="H37">
-        <v>308</v>
-      </c>
-      <c t="s" s="24" r="I37">
-        <v>309</v>
-      </c>
-      <c t="s" s="24" r="J37">
-        <v>310</v>
-      </c>
-      <c t="s" s="24" r="K37">
-        <v>311</v>
-      </c>
-      <c t="s" s="24" r="L37">
-        <v>312</v>
-      </c>
-      <c t="s" s="24" r="M37">
-        <v>313</v>
-      </c>
-      <c t="s" s="24" r="N37">
-        <v>314</v>
-      </c>
-      <c t="s" s="10" r="O37">
-        <v>315</v>
+      <c t="s" s="17" r="A37">
+        <v>325</v>
+      </c>
+      <c t="s" s="14" r="B37">
+        <v>326</v>
+      </c>
+      <c t="s" s="17" r="C37">
+        <v>327</v>
+      </c>
+      <c t="s" s="25" r="D37">
+        <v>328</v>
+      </c>
+      <c t="s" s="19" r="E37">
+        <v>329</v>
+      </c>
+      <c t="s" s="19" r="F37">
+        <v>330</v>
+      </c>
+      <c t="s" s="19" r="G37">
+        <v>331</v>
+      </c>
+      <c t="s" s="19" r="H37">
+        <v>332</v>
+      </c>
+      <c t="s" s="19" r="I37">
+        <v>333</v>
+      </c>
+      <c t="s" s="19" r="J37">
+        <v>334</v>
+      </c>
+      <c t="s" s="19" r="K37">
+        <v>335</v>
+      </c>
+      <c t="s" s="19" r="L37">
+        <v>336</v>
+      </c>
+      <c t="s" s="19" r="M37">
+        <v>337</v>
+      </c>
+      <c t="s" s="19" r="N37">
+        <v>338</v>
+      </c>
+      <c t="s" s="19" r="O37">
+        <v>339</v>
+      </c>
+      <c t="s" s="19" r="P37">
+        <v>340</v>
       </c>
     </row>
     <row customHeight="1" r="38" ht="12.75">
-      <c t="s" s="17" r="A38">
-        <v>316</v>
-      </c>
-      <c t="s" s="17" r="B38">
-        <v>317</v>
-      </c>
-      <c t="s" s="27" r="C38">
-        <v>318</v>
-      </c>
-      <c t="s" s="19" r="D38">
-        <v>319</v>
-      </c>
+      <c s="25" r="D38"/>
       <c t="s" s="19" r="E38">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c t="s" s="19" r="F38">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c t="s" s="19" r="G38">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c t="s" s="19" r="H38">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c t="s" s="19" r="I38">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c t="s" s="19" r="J38">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c t="s" s="19" r="K38">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c t="s" s="19" r="L38">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c t="s" s="19" r="M38">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c t="s" s="19" r="N38">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c t="s" s="19" r="O38">
-        <v>330</v>
+        <v>351</v>
+      </c>
+      <c t="s" s="19" r="P38">
+        <v>352</v>
       </c>
     </row>
     <row customHeight="1" r="39" ht="12.75">
-      <c s="27" r="C39"/>
-      <c t="s" s="19" r="D39">
-        <v>331</v>
-      </c>
+      <c s="25" r="D39"/>
       <c t="s" s="19" r="E39">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c t="s" s="19" r="F39">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c t="s" s="19" r="G39">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c t="s" s="19" r="H39">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c t="s" s="19" r="I39">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c t="s" s="19" r="J39">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c t="s" s="19" r="K39">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c t="s" s="19" r="L39">
-        <v>339</v>
-      </c>
-      <c t="s" s="19" r="M39">
-        <v>340</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c s="19" r="M39"/>
       <c t="s" s="19" r="N39">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c t="s" s="19" r="O39">
-        <v>342</v>
+        <v>362</v>
+      </c>
+      <c t="s" s="15" r="P39">
+        <v>363</v>
       </c>
     </row>
     <row customHeight="1" r="40" ht="12.75">
-      <c s="27" r="C40"/>
-      <c t="s" s="19" r="D40">
-        <v>343</v>
-      </c>
-      <c t="s" s="19" r="E40">
-        <v>344</v>
-      </c>
-      <c t="s" s="19" r="F40">
-        <v>345</v>
-      </c>
-      <c t="s" s="19" r="G40">
-        <v>346</v>
-      </c>
-      <c t="s" s="19" r="H40">
-        <v>347</v>
-      </c>
-      <c t="s" s="19" r="I40">
-        <v>348</v>
-      </c>
-      <c t="s" s="19" r="J40">
-        <v>349</v>
-      </c>
-      <c t="s" s="19" r="K40">
-        <v>350</v>
-      </c>
-      <c s="19" r="L40"/>
-      <c t="s" s="19" r="M40">
-        <v>351</v>
-      </c>
-      <c t="s" s="19" r="N40">
-        <v>352</v>
-      </c>
-      <c t="s" s="12" r="O40">
-        <v>353</v>
-      </c>
+      <c t="s" s="10" r="A40">
+        <v>364</v>
+      </c>
+      <c t="s" s="11" r="B40">
+        <v>365</v>
+      </c>
+      <c t="s" s="10" r="C40">
+        <v>366</v>
+      </c>
+      <c t="s" s="24" r="D40">
+        <v>367</v>
+      </c>
+      <c t="s" s="22" r="E40">
+        <v>368</v>
+      </c>
+      <c t="s" s="22" r="F40">
+        <v>369</v>
+      </c>
+      <c t="s" s="22" r="G40">
+        <v>370</v>
+      </c>
+      <c s="22" r="H40"/>
+      <c s="22" r="I40"/>
+      <c s="22" r="J40"/>
+      <c s="22" r="K40"/>
+      <c s="22" r="L40"/>
+      <c s="22" r="M40"/>
+      <c s="22" r="N40"/>
+      <c s="22" r="O40"/>
+      <c s="4" r="P40"/>
     </row>
     <row customHeight="1" r="41" ht="12.75">
-      <c t="s" s="20" r="A41">
-        <v>354</v>
-      </c>
-      <c t="s" s="20" r="B41">
-        <v>355</v>
-      </c>
-      <c t="s" s="26" r="C41">
-        <v>356</v>
-      </c>
-      <c t="s" s="24" r="D41">
-        <v>357</v>
-      </c>
-      <c t="s" s="24" r="E41">
-        <v>358</v>
-      </c>
-      <c t="s" s="24" r="F41">
-        <v>359</v>
-      </c>
-      <c s="24" r="G41"/>
-      <c s="24" r="H41"/>
-      <c s="24" r="I41"/>
-      <c s="24" r="J41"/>
-      <c s="24" r="K41"/>
-      <c s="24" r="L41"/>
-      <c s="24" r="M41"/>
-      <c s="24" r="N41"/>
-      <c s="2" r="O41"/>
+      <c t="s" s="17" r="A41">
+        <v>371</v>
+      </c>
+      <c t="s" s="14" r="B41">
+        <v>372</v>
+      </c>
+      <c t="s" s="17" r="C41">
+        <v>373</v>
+      </c>
+      <c t="s" s="25" r="D41">
+        <v>374</v>
+      </c>
+      <c t="s" s="25" r="E41">
+        <v>375</v>
+      </c>
+      <c t="s" s="25" r="F41">
+        <v>376</v>
+      </c>
+      <c t="s" s="25" r="G41">
+        <v>377</v>
+      </c>
+      <c t="s" s="25" r="H41">
+        <v>378</v>
+      </c>
+      <c t="s" s="25" r="I41">
+        <v>379</v>
+      </c>
+      <c t="s" s="25" r="J41">
+        <v>380</v>
+      </c>
+      <c t="s" s="25" r="K41">
+        <v>381</v>
+      </c>
+      <c t="s" s="25" r="L41">
+        <v>382</v>
+      </c>
+      <c t="s" s="25" r="M41">
+        <v>383</v>
+      </c>
+      <c t="s" s="25" r="N41">
+        <v>384</v>
+      </c>
+      <c t="s" s="25" r="O41">
+        <v>385</v>
+      </c>
+      <c t="s" s="25" r="P41">
+        <v>386</v>
+      </c>
     </row>
     <row customHeight="1" r="42" ht="12.75">
-      <c s="26" r="C42"/>
-      <c s="24" r="D42"/>
-      <c s="24" r="E42"/>
-      <c s="24" r="F42"/>
-      <c s="24" r="G42"/>
-      <c s="24" r="H42"/>
-      <c s="24" r="I42"/>
-      <c s="24" r="J42"/>
-      <c s="24" r="K42"/>
-      <c s="24" r="L42"/>
-      <c s="24" r="M42"/>
-      <c s="24" r="N42"/>
-      <c s="2" r="O42"/>
+      <c t="s" s="25" r="D42">
+        <v>387</v>
+      </c>
+      <c t="s" s="25" r="E42">
+        <v>388</v>
+      </c>
+      <c t="s" s="25" r="F42">
+        <v>389</v>
+      </c>
+      <c t="s" s="25" r="G42">
+        <v>390</v>
+      </c>
+      <c t="s" s="25" r="H42">
+        <v>391</v>
+      </c>
+      <c t="s" s="25" r="I42">
+        <v>392</v>
+      </c>
+      <c t="s" s="25" r="J42">
+        <v>393</v>
+      </c>
+      <c t="s" s="25" r="K42">
+        <v>394</v>
+      </c>
+      <c t="s" s="25" r="L42">
+        <v>395</v>
+      </c>
+      <c t="s" s="25" r="M42">
+        <v>396</v>
+      </c>
+      <c t="s" s="25" r="N42">
+        <v>397</v>
+      </c>
+      <c t="s" s="25" r="O42">
+        <v>398</v>
+      </c>
+      <c t="s" s="15" r="P42">
+        <v>399</v>
+      </c>
     </row>
     <row customHeight="1" r="43" ht="12.75">
-      <c t="s" s="17" r="A43">
-        <v>360</v>
-      </c>
-      <c t="s" s="17" r="B43">
-        <v>361</v>
-      </c>
-      <c t="s" s="27" r="C43">
-        <v>362</v>
-      </c>
-      <c t="s" s="27" r="D43">
-        <v>363</v>
-      </c>
-      <c t="s" s="27" r="E43">
-        <v>364</v>
-      </c>
-      <c t="s" s="27" r="F43">
-        <v>365</v>
-      </c>
-      <c t="s" s="27" r="G43">
-        <v>366</v>
-      </c>
-      <c t="s" s="27" r="H43">
-        <v>367</v>
-      </c>
-      <c t="s" s="27" r="I43">
-        <v>368</v>
-      </c>
-      <c t="s" s="27" r="J43">
-        <v>369</v>
-      </c>
-      <c t="s" s="27" r="K43">
-        <v>370</v>
-      </c>
-      <c t="s" s="27" r="L43">
-        <v>371</v>
-      </c>
-      <c t="s" s="27" r="M43">
-        <v>372</v>
-      </c>
-      <c t="s" s="27" r="N43">
-        <v>373</v>
-      </c>
-      <c t="s" s="27" r="O43">
-        <v>374</v>
+      <c t="s" s="26" r="A43">
+        <v>400</v>
+      </c>
+      <c t="s" s="27" r="B43">
+        <v>401</v>
+      </c>
+      <c t="s" s="26" r="C43">
+        <v>402</v>
+      </c>
+      <c s="24" r="D43"/>
+      <c t="s" s="24" r="E43">
+        <v>403</v>
+      </c>
+      <c t="s" s="24" r="F43">
+        <v>404</v>
+      </c>
+      <c t="s" s="24" r="G43">
+        <v>405</v>
+      </c>
+      <c t="s" s="24" r="H43">
+        <v>406</v>
+      </c>
+      <c t="s" s="24" r="I43">
+        <v>407</v>
+      </c>
+      <c t="s" s="24" r="J43">
+        <v>408</v>
+      </c>
+      <c t="s" s="24" r="K43">
+        <v>409</v>
+      </c>
+      <c t="s" s="24" r="L43">
+        <v>410</v>
+      </c>
+      <c t="s" s="24" r="M43">
+        <v>411</v>
+      </c>
+      <c t="s" s="24" r="N43">
+        <v>412</v>
+      </c>
+      <c t="s" s="24" r="O43">
+        <v>413</v>
+      </c>
+      <c t="s" s="7" r="P43">
+        <v>414</v>
       </c>
     </row>
     <row customHeight="1" r="44" ht="12.75">
-      <c t="s" s="27" r="C44">
-        <v>375</v>
-      </c>
-      <c t="s" s="27" r="D44">
-        <v>376</v>
-      </c>
-      <c t="s" s="27" r="E44">
-        <v>377</v>
-      </c>
-      <c t="s" s="27" r="F44">
-        <v>378</v>
-      </c>
-      <c t="s" s="27" r="G44">
-        <v>379</v>
-      </c>
-      <c t="s" s="27" r="H44">
-        <v>380</v>
-      </c>
-      <c t="s" s="27" r="I44">
-        <v>381</v>
-      </c>
-      <c t="s" s="27" r="J44">
-        <v>382</v>
-      </c>
-      <c t="s" s="27" r="K44">
-        <v>383</v>
-      </c>
-      <c t="s" s="27" r="L44">
-        <v>384</v>
-      </c>
-      <c t="s" s="27" r="M44">
-        <v>385</v>
-      </c>
-      <c t="s" s="27" r="N44">
-        <v>386</v>
-      </c>
-      <c t="s" s="12" r="O44">
-        <v>387</v>
+      <c s="24" r="D44"/>
+      <c t="s" s="24" r="E44">
+        <v>415</v>
+      </c>
+      <c t="s" s="24" r="F44">
+        <v>416</v>
+      </c>
+      <c t="s" s="24" r="G44">
+        <v>417</v>
+      </c>
+      <c t="s" s="24" r="H44">
+        <v>418</v>
+      </c>
+      <c t="s" s="24" r="I44">
+        <v>419</v>
+      </c>
+      <c t="s" s="24" r="J44">
+        <v>420</v>
+      </c>
+      <c t="s" s="24" r="K44">
+        <v>421</v>
+      </c>
+      <c t="s" s="24" r="L44">
+        <v>422</v>
+      </c>
+      <c t="s" s="24" r="M44">
+        <v>423</v>
+      </c>
+      <c t="s" s="24" r="N44">
+        <v>424</v>
+      </c>
+      <c t="s" s="24" r="O44">
+        <v>425</v>
+      </c>
+      <c t="s" s="12" r="P44">
+        <v>426</v>
       </c>
     </row>
     <row customHeight="1" r="45" ht="12.75">
-      <c t="s" s="28" r="A45">
-        <v>388</v>
-      </c>
-      <c t="s" s="28" r="B45">
-        <v>389</v>
-      </c>
-      <c s="26" r="C45"/>
-      <c t="s" s="26" r="D45">
-        <v>390</v>
-      </c>
-      <c t="s" s="26" r="E45">
-        <v>391</v>
-      </c>
-      <c t="s" s="26" r="F45">
-        <v>392</v>
-      </c>
-      <c t="s" s="26" r="G45">
-        <v>393</v>
-      </c>
-      <c t="s" s="26" r="H45">
-        <v>394</v>
-      </c>
-      <c t="s" s="26" r="I45">
-        <v>395</v>
-      </c>
-      <c t="s" s="26" r="J45">
-        <v>396</v>
-      </c>
-      <c t="s" s="26" r="K45">
-        <v>397</v>
-      </c>
-      <c t="s" s="26" r="L45">
-        <v>398</v>
-      </c>
-      <c t="s" s="26" r="M45">
-        <v>399</v>
-      </c>
-      <c t="s" s="26" r="N45">
-        <v>400</v>
-      </c>
-      <c t="s" s="6" r="O45">
-        <v>401</v>
-      </c>
+      <c t="s" s="13" r="A45">
+        <v>427</v>
+      </c>
+      <c t="s" s="14" r="B45">
+        <v>428</v>
+      </c>
+      <c t="s" s="13" r="C45">
+        <v>429</v>
+      </c>
+      <c t="s" s="25" r="D45">
+        <v>430</v>
+      </c>
+      <c t="s" s="25" r="E45">
+        <v>431</v>
+      </c>
+      <c t="s" s="25" r="F45">
+        <v>432</v>
+      </c>
+      <c t="s" s="25" r="G45">
+        <v>433</v>
+      </c>
+      <c t="s" s="25" r="H45">
+        <v>434</v>
+      </c>
+      <c t="s" s="25" r="I45">
+        <v>435</v>
+      </c>
+      <c t="s" s="25" r="J45">
+        <v>436</v>
+      </c>
+      <c t="s" s="25" r="K45">
+        <v>437</v>
+      </c>
+      <c t="s" s="25" r="L45">
+        <v>438</v>
+      </c>
+      <c s="25" r="M45"/>
+      <c t="s" s="25" r="N45">
+        <v>439</v>
+      </c>
+      <c t="s" s="25" r="O45">
+        <v>440</v>
+      </c>
+      <c s="28" r="P45"/>
     </row>
     <row customHeight="1" r="46" ht="12.75">
-      <c s="26" r="C46"/>
-      <c t="s" s="26" r="D46">
-        <v>402</v>
-      </c>
-      <c t="s" s="26" r="E46">
-        <v>403</v>
-      </c>
-      <c t="s" s="26" r="F46">
-        <v>404</v>
-      </c>
-      <c t="s" s="26" r="G46">
-        <v>405</v>
-      </c>
-      <c t="s" s="26" r="H46">
-        <v>406</v>
-      </c>
-      <c t="s" s="26" r="I46">
-        <v>407</v>
-      </c>
-      <c t="s" s="26" r="J46">
-        <v>408</v>
-      </c>
-      <c t="s" s="26" r="K46">
-        <v>409</v>
-      </c>
-      <c t="s" s="26" r="L46">
-        <v>410</v>
-      </c>
-      <c t="s" s="26" r="M46">
-        <v>411</v>
-      </c>
-      <c t="s" s="26" r="N46">
-        <v>412</v>
-      </c>
-      <c t="s" s="10" r="O46">
-        <v>413</v>
-      </c>
-    </row>
-    <row customHeight="1" r="47" ht="12.75">
-      <c t="s" s="11" r="A47">
-        <v>414</v>
-      </c>
-      <c t="s" s="11" r="B47">
-        <v>415</v>
-      </c>
-      <c t="s" s="27" r="C47">
-        <v>416</v>
-      </c>
-      <c t="s" s="27" r="D47">
-        <v>417</v>
-      </c>
-      <c t="s" s="27" r="E47">
-        <v>418</v>
-      </c>
-      <c t="s" s="27" r="F47">
-        <v>419</v>
-      </c>
-      <c t="s" s="27" r="G47">
-        <v>420</v>
-      </c>
-      <c t="s" s="27" r="H47">
-        <v>421</v>
-      </c>
-      <c t="s" s="27" r="I47">
-        <v>422</v>
-      </c>
-      <c t="s" s="27" r="J47">
-        <v>423</v>
-      </c>
-      <c t="s" s="27" r="K47">
-        <v>424</v>
-      </c>
-      <c s="27" r="L47"/>
-      <c t="s" s="27" r="M47">
-        <v>425</v>
-      </c>
-      <c t="s" s="27" r="N47">
-        <v>426</v>
-      </c>
-      <c s="29" r="O47"/>
+      <c t="s" s="25" r="D46">
+        <v>441</v>
+      </c>
+      <c t="s" s="25" r="E46">
+        <v>442</v>
+      </c>
+      <c t="s" s="25" r="F46">
+        <v>443</v>
+      </c>
+      <c t="s" s="25" r="G46">
+        <v>444</v>
+      </c>
+      <c t="s" s="25" r="H46">
+        <v>445</v>
+      </c>
+      <c t="s" s="25" r="I46">
+        <v>446</v>
+      </c>
+      <c t="s" s="25" r="J46">
+        <v>447</v>
+      </c>
+      <c t="s" s="25" r="K46">
+        <v>448</v>
+      </c>
+      <c t="s" s="25" r="L46">
+        <v>449</v>
+      </c>
+      <c s="19" r="M46"/>
+      <c t="s" s="25" r="N46">
+        <v>450</v>
+      </c>
+      <c t="s" s="25" r="O46">
+        <v>451</v>
+      </c>
+      <c s="28" r="P46"/>
+    </row>
+    <row customHeight="1" r="47" ht="13.5">
+      <c t="s" s="26" r="A47">
+        <v>452</v>
+      </c>
+      <c t="s" s="27" r="B47">
+        <v>453</v>
+      </c>
+      <c t="s" s="26" r="C47">
+        <v>454</v>
+      </c>
+      <c s="24" r="D47"/>
+      <c t="s" s="24" r="E47">
+        <v>455</v>
+      </c>
+      <c t="s" s="24" r="F47">
+        <v>456</v>
+      </c>
+      <c t="s" s="24" r="G47">
+        <v>457</v>
+      </c>
+      <c t="s" s="24" r="H47">
+        <v>458</v>
+      </c>
+      <c t="s" s="24" r="I47">
+        <v>459</v>
+      </c>
+      <c t="s" s="24" r="J47">
+        <v>460</v>
+      </c>
+      <c t="s" s="24" r="K47">
+        <v>461</v>
+      </c>
+      <c t="s" s="24" r="L47">
+        <v>462</v>
+      </c>
+      <c t="s" s="24" r="M47">
+        <v>463</v>
+      </c>
+      <c t="s" s="24" r="N47">
+        <v>464</v>
+      </c>
+      <c t="s" s="24" r="O47">
+        <v>465</v>
+      </c>
+      <c t="s" s="7" r="P47">
+        <v>466</v>
+      </c>
     </row>
     <row customHeight="1" r="48" ht="12.75">
-      <c t="s" s="27" r="C48">
-        <v>427</v>
-      </c>
-      <c t="s" s="27" r="D48">
-        <v>428</v>
-      </c>
-      <c t="s" s="27" r="E48">
-        <v>429</v>
-      </c>
-      <c t="s" s="27" r="F48">
-        <v>430</v>
-      </c>
-      <c t="s" s="27" r="G48">
-        <v>431</v>
-      </c>
-      <c t="s" s="27" r="H48">
-        <v>432</v>
-      </c>
-      <c t="s" s="27" r="I48">
-        <v>433</v>
-      </c>
-      <c t="s" s="27" r="J48">
-        <v>434</v>
-      </c>
-      <c t="s" s="27" r="K48">
-        <v>435</v>
-      </c>
-      <c s="19" r="L48"/>
-      <c t="s" s="27" r="M48">
-        <v>436</v>
-      </c>
-      <c t="s" s="27" r="N48">
-        <v>437</v>
-      </c>
-      <c s="29" r="O48"/>
-    </row>
-    <row customHeight="1" r="49" ht="13.5">
-      <c t="s" s="28" r="A49">
-        <v>438</v>
-      </c>
-      <c t="s" s="28" r="B49">
-        <v>439</v>
-      </c>
-      <c s="26" r="C49"/>
-      <c t="s" s="26" r="D49">
-        <v>440</v>
-      </c>
-      <c t="s" s="26" r="E49">
-        <v>441</v>
-      </c>
-      <c t="s" s="26" r="F49">
-        <v>442</v>
-      </c>
-      <c t="s" s="26" r="G49">
-        <v>443</v>
-      </c>
-      <c t="s" s="26" r="H49">
-        <v>444</v>
-      </c>
-      <c t="s" s="26" r="I49">
-        <v>445</v>
-      </c>
-      <c t="s" s="26" r="J49">
-        <v>446</v>
-      </c>
-      <c t="s" s="26" r="K49">
-        <v>447</v>
-      </c>
-      <c t="s" s="26" r="L49">
-        <v>448</v>
-      </c>
-      <c t="s" s="26" r="M49">
-        <v>449</v>
-      </c>
-      <c t="s" s="26" r="N49">
-        <v>450</v>
-      </c>
-      <c t="s" s="6" r="O49">
-        <v>451</v>
-      </c>
+      <c s="24" r="D48"/>
+      <c t="s" s="22" r="E48">
+        <v>467</v>
+      </c>
+      <c t="s" s="22" r="F48">
+        <v>468</v>
+      </c>
+      <c t="s" s="22" r="G48">
+        <v>469</v>
+      </c>
+      <c t="s" s="22" r="H48">
+        <v>470</v>
+      </c>
+      <c t="s" s="22" r="I48">
+        <v>471</v>
+      </c>
+      <c t="s" s="22" r="J48">
+        <v>472</v>
+      </c>
+      <c t="s" s="22" r="K48">
+        <v>473</v>
+      </c>
+      <c t="s" s="22" r="L48">
+        <v>474</v>
+      </c>
+      <c t="s" s="22" r="M48">
+        <v>475</v>
+      </c>
+      <c t="s" s="22" r="N48">
+        <v>476</v>
+      </c>
+      <c t="s" s="22" r="O48">
+        <v>477</v>
+      </c>
+      <c t="s" s="12" r="P48">
+        <v>478</v>
+      </c>
+    </row>
+    <row customHeight="1" r="49" ht="12.75">
+      <c s="29" r="A49"/>
     </row>
     <row customHeight="1" r="50" ht="12.75">
-      <c s="26" r="C50"/>
-      <c t="s" s="24" r="D50">
-        <v>452</v>
-      </c>
-      <c t="s" s="24" r="E50">
-        <v>453</v>
-      </c>
-      <c t="s" s="24" r="F50">
-        <v>454</v>
-      </c>
-      <c t="s" s="24" r="G50">
-        <v>455</v>
-      </c>
-      <c t="s" s="24" r="H50">
-        <v>456</v>
-      </c>
-      <c t="s" s="24" r="I50">
-        <v>457</v>
-      </c>
-      <c t="s" s="24" r="J50">
-        <v>458</v>
-      </c>
-      <c t="s" s="24" r="K50">
-        <v>459</v>
-      </c>
-      <c t="s" s="24" r="L50">
-        <v>460</v>
-      </c>
-      <c t="s" s="24" r="M50">
-        <v>461</v>
-      </c>
-      <c t="s" s="24" r="N50">
-        <v>462</v>
-      </c>
-      <c t="s" s="10" r="O50">
-        <v>463</v>
-      </c>
+      <c t="s" s="30" r="A50">
+        <v>479</v>
+      </c>
+      <c s="31" r="B50"/>
+      <c s="1" r="C50"/>
+      <c s="1" r="D50"/>
+      <c s="1" r="E50"/>
+      <c s="1" r="F50"/>
+      <c s="1" r="G50"/>
+      <c s="1" r="H50"/>
+      <c s="1" r="I50"/>
+      <c s="1" r="J50"/>
+      <c s="1" r="K50"/>
+      <c s="1" r="L50"/>
+      <c s="1" r="M50"/>
+      <c s="1" r="N50"/>
+      <c s="1" r="O50"/>
+      <c s="1" r="P50"/>
     </row>
     <row customHeight="1" r="51" ht="12.75">
-      <c s="30" r="A51"/>
+      <c s="24" r="A51"/>
+      <c s="32" r="B51"/>
+      <c s="24" r="C51"/>
+      <c t="s" s="1" r="D51">
+        <v>480</v>
+      </c>
+      <c t="s" s="1" r="E51">
+        <v>481</v>
+      </c>
+      <c t="s" s="1" r="F51">
+        <v>482</v>
+      </c>
+      <c t="s" s="1" r="G51">
+        <v>483</v>
+      </c>
+      <c t="s" s="1" r="H51">
+        <v>484</v>
+      </c>
+      <c t="s" s="1" r="I51">
+        <v>485</v>
+      </c>
+      <c t="s" s="1" r="J51">
+        <v>486</v>
+      </c>
+      <c t="s" s="1" r="K51">
+        <v>487</v>
+      </c>
+      <c t="s" s="1" r="L51">
+        <v>488</v>
+      </c>
+      <c t="s" s="1" r="M51">
+        <v>489</v>
+      </c>
+      <c t="s" s="1" r="N51">
+        <v>490</v>
+      </c>
+      <c t="s" s="1" r="O51">
+        <v>491</v>
+      </c>
+      <c t="s" s="12" r="P51">
+        <v>492</v>
+      </c>
     </row>
     <row customHeight="1" r="52" ht="12.75">
-      <c t="s" s="31" r="A52">
-        <v>464</v>
-      </c>
-      <c s="1" r="B52"/>
-      <c s="1" r="C52"/>
-      <c s="1" r="D52"/>
-      <c s="1" r="E52"/>
-      <c s="1" r="F52"/>
-      <c s="1" r="G52"/>
-      <c s="1" r="H52"/>
-      <c s="1" r="I52"/>
-      <c s="1" r="J52"/>
-      <c s="1" r="K52"/>
-      <c s="1" r="L52"/>
-      <c s="1" r="M52"/>
-      <c s="1" r="N52"/>
-      <c s="1" r="O52"/>
+      <c s="24" r="A52"/>
+      <c s="32" r="B52"/>
+      <c s="24" r="C52"/>
+      <c t="s" s="1" r="D52">
+        <v>493</v>
+      </c>
+      <c s="22" r="E52"/>
+      <c s="22" r="F52"/>
+      <c s="22" r="G52"/>
+      <c t="s" s="1" r="H52">
+        <v>494</v>
+      </c>
+      <c t="s" s="1" r="I52">
+        <v>495</v>
+      </c>
+      <c t="s" s="1" r="J52">
+        <v>496</v>
+      </c>
+      <c t="s" s="1" r="K52">
+        <v>497</v>
+      </c>
+      <c t="s" s="1" r="L52">
+        <v>498</v>
+      </c>
+      <c t="s" s="1" r="M52">
+        <v>499</v>
+      </c>
+      <c s="22" r="N52"/>
+      <c t="s" s="1" r="O52">
+        <v>500</v>
+      </c>
+      <c t="s" s="12" r="P52">
+        <v>501</v>
+      </c>
     </row>
     <row customHeight="1" r="53" ht="12.75">
-      <c s="26" r="A53"/>
-      <c s="26" r="B53"/>
-      <c t="s" s="1" r="C53">
-        <v>465</v>
-      </c>
+      <c s="24" r="A53"/>
+      <c s="32" r="B53"/>
+      <c s="24" r="C53"/>
       <c t="s" s="1" r="D53">
-        <v>466</v>
-      </c>
-      <c t="s" s="1" r="E53">
-        <v>467</v>
-      </c>
-      <c t="s" s="1" r="F53">
-        <v>468</v>
-      </c>
-      <c t="s" s="1" r="G53">
-        <v>469</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c s="22" r="E53"/>
+      <c s="22" r="F53"/>
+      <c s="22" r="G53"/>
       <c t="s" s="1" r="H53">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c t="s" s="1" r="I53">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c t="s" s="1" r="J53">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c t="s" s="1" r="K53">
-        <v>473</v>
-      </c>
-      <c t="s" s="1" r="L53">
-        <v>474</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c s="22" r="L53"/>
       <c t="s" s="1" r="M53">
-        <v>475</v>
-      </c>
-      <c t="s" s="1" r="N53">
-        <v>476</v>
-      </c>
-      <c t="s" s="10" r="O53">
-        <v>477</v>
+        <v>507</v>
+      </c>
+      <c s="22" r="N53"/>
+      <c t="s" s="1" r="O53">
+        <v>508</v>
+      </c>
+      <c t="s" s="12" r="P53">
+        <v>509</v>
       </c>
     </row>
     <row customHeight="1" r="54" ht="12.75">
-      <c s="26" r="A54"/>
-      <c s="26" r="B54"/>
-      <c t="s" s="1" r="C54">
-        <v>478</v>
-      </c>
-      <c s="24" r="D54"/>
-      <c s="24" r="E54"/>
-      <c s="24" r="F54"/>
-      <c t="s" s="1" r="G54">
-        <v>479</v>
-      </c>
-      <c t="s" s="1" r="H54">
-        <v>480</v>
-      </c>
-      <c t="s" s="1" r="I54">
-        <v>481</v>
+      <c s="24" r="A54"/>
+      <c s="32" r="B54"/>
+      <c s="24" r="C54"/>
+      <c t="s" s="1" r="D54">
+        <v>510</v>
+      </c>
+      <c s="22" r="E54"/>
+      <c s="22" r="F54"/>
+      <c s="22" r="G54"/>
+      <c t="s" s="22" r="H54">
+        <v>511</v>
+      </c>
+      <c t="s" s="22" r="I54">
+        <v>512</v>
       </c>
       <c t="s" s="1" r="J54">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c t="s" s="1" r="K54">
-        <v>483</v>
-      </c>
-      <c t="s" s="1" r="L54">
-        <v>484</v>
-      </c>
-      <c s="24" r="M54"/>
-      <c t="s" s="1" r="N54">
-        <v>485</v>
-      </c>
-      <c t="s" s="10" r="O54">
-        <v>486</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c s="22" r="L54"/>
+      <c t="s" s="1" r="M54">
+        <v>515</v>
+      </c>
+      <c s="22" r="N54"/>
+      <c s="22" r="O54"/>
+      <c s="4" r="P54"/>
     </row>
     <row customHeight="1" r="55" ht="12.75">
-      <c s="26" r="A55"/>
-      <c s="26" r="B55"/>
-      <c t="s" s="1" r="C55">
-        <v>487</v>
-      </c>
-      <c s="24" r="D55"/>
-      <c s="24" r="E55"/>
-      <c s="24" r="F55"/>
-      <c t="s" s="1" r="G55">
-        <v>488</v>
-      </c>
+      <c s="24" r="A55"/>
+      <c s="32" r="B55"/>
+      <c s="24" r="C55"/>
+      <c t="s" s="1" r="D55">
+        <v>516</v>
+      </c>
+      <c s="22" r="E55"/>
+      <c s="22" r="F55"/>
+      <c s="22" r="G55"/>
       <c t="s" s="1" r="H55">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c t="s" s="1" r="I55">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c t="s" s="1" r="J55">
-        <v>491</v>
-      </c>
-      <c s="24" r="K55"/>
-      <c t="s" s="1" r="L55">
-        <v>492</v>
-      </c>
-      <c s="24" r="M55"/>
-      <c t="s" s="1" r="N55">
-        <v>493</v>
-      </c>
-      <c t="s" s="10" r="O55">
-        <v>494</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c t="s" s="1" r="K55">
+        <v>520</v>
+      </c>
+      <c s="22" r="L55"/>
+      <c t="s" s="1" r="M55">
+        <v>521</v>
+      </c>
+      <c s="22" r="N55"/>
+      <c s="22" r="O55"/>
+      <c s="4" r="P55"/>
     </row>
     <row customHeight="1" r="56" ht="12.75">
-      <c s="26" r="A56"/>
-      <c s="26" r="B56"/>
-      <c t="s" s="1" r="C56">
-        <v>495</v>
-      </c>
+      <c s="24" r="A56"/>
+      <c s="32" r="B56"/>
+      <c s="24" r="C56"/>
       <c s="24" r="D56"/>
-      <c s="24" r="E56"/>
-      <c s="24" r="F56"/>
-      <c t="s" s="24" r="G56">
-        <v>496</v>
-      </c>
-      <c t="s" s="24" r="H56">
-        <v>497</v>
+      <c s="22" r="E56"/>
+      <c s="22" r="F56"/>
+      <c s="22" r="G56"/>
+      <c t="s" s="1" r="H56">
+        <v>522</v>
       </c>
       <c t="s" s="1" r="I56">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c t="s" s="1" r="J56">
-        <v>499</v>
-      </c>
-      <c s="24" r="K56"/>
-      <c t="s" s="1" r="L56">
-        <v>500</v>
-      </c>
-      <c s="24" r="M56"/>
-      <c s="24" r="N56"/>
-      <c s="2" r="O56"/>
+        <v>524</v>
+      </c>
+      <c s="22" r="K56"/>
+      <c s="22" r="L56"/>
+      <c t="s" s="1" r="M56">
+        <v>525</v>
+      </c>
+      <c s="22" r="N56"/>
+      <c s="22" r="O56"/>
+      <c s="4" r="P56"/>
     </row>
     <row customHeight="1" r="57" ht="12.75">
-      <c s="26" r="A57"/>
-      <c s="26" r="B57"/>
-      <c t="s" s="1" r="C57">
-        <v>501</v>
-      </c>
+      <c s="24" r="A57"/>
+      <c s="32" r="B57"/>
+      <c s="24" r="C57"/>
       <c s="24" r="D57"/>
-      <c s="24" r="E57"/>
-      <c s="24" r="F57"/>
-      <c t="s" s="1" r="G57">
-        <v>502</v>
-      </c>
+      <c s="22" r="E57"/>
+      <c s="22" r="F57"/>
+      <c s="22" r="G57"/>
       <c t="s" s="1" r="H57">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c t="s" s="1" r="I57">
-        <v>504</v>
-      </c>
-      <c t="s" s="1" r="J57">
-        <v>505</v>
-      </c>
-      <c s="24" r="K57"/>
-      <c t="s" s="1" r="L57">
-        <v>506</v>
-      </c>
-      <c s="24" r="M57"/>
-      <c s="24" r="N57"/>
-      <c s="2" r="O57"/>
+        <v>527</v>
+      </c>
+      <c s="22" r="J57"/>
+      <c s="22" r="K57"/>
+      <c s="22" r="L57"/>
+      <c t="s" s="1" r="M57">
+        <v>528</v>
+      </c>
+      <c s="22" r="N57"/>
+      <c s="22" r="O57"/>
+      <c s="4" r="P57"/>
     </row>
     <row customHeight="1" r="58" ht="12.75">
-      <c s="26" r="A58"/>
-      <c s="26" r="B58"/>
-      <c s="26" r="C58"/>
+      <c s="24" r="A58"/>
+      <c s="32" r="B58"/>
+      <c s="24" r="C58"/>
       <c s="24" r="D58"/>
-      <c s="24" r="E58"/>
-      <c s="24" r="F58"/>
-      <c t="s" s="1" r="G58">
-        <v>507</v>
-      </c>
-      <c t="s" s="1" r="H58">
-        <v>508</v>
-      </c>
-      <c t="s" s="1" r="I58">
-        <v>509</v>
-      </c>
-      <c s="24" r="J58"/>
-      <c s="24" r="K58"/>
-      <c t="s" s="1" r="L58">
-        <v>510</v>
-      </c>
-      <c s="24" r="M58"/>
-      <c s="24" r="N58"/>
-      <c s="2" r="O58"/>
+      <c s="22" r="E58"/>
+      <c s="22" r="F58"/>
+      <c s="22" r="G58"/>
+      <c s="22" r="H58"/>
+      <c s="22" r="I58"/>
+      <c s="22" r="J58"/>
+      <c s="22" r="K58"/>
+      <c s="22" r="L58"/>
+      <c s="22" r="M58"/>
+      <c s="22" r="N58"/>
+      <c s="22" r="O58"/>
+      <c s="4" r="P58"/>
     </row>
     <row customHeight="1" r="59" ht="12.75">
-      <c s="26" r="A59"/>
-      <c s="26" r="B59"/>
-      <c s="26" r="C59"/>
+      <c s="24" r="A59"/>
+      <c s="32" r="B59"/>
+      <c s="24" r="C59"/>
       <c s="24" r="D59"/>
-      <c s="24" r="E59"/>
-      <c s="24" r="F59"/>
-      <c t="s" s="1" r="G59">
-        <v>511</v>
-      </c>
-      <c t="s" s="1" r="H59">
-        <v>512</v>
-      </c>
-      <c s="24" r="I59"/>
-      <c s="24" r="J59"/>
-      <c s="24" r="K59"/>
-      <c t="s" s="1" r="L59">
-        <v>513</v>
-      </c>
-      <c s="24" r="M59"/>
-      <c s="24" r="N59"/>
-      <c s="2" r="O59"/>
+      <c s="22" r="E59"/>
+      <c s="22" r="F59"/>
+      <c s="22" r="G59"/>
+      <c s="22" r="H59"/>
+      <c s="22" r="I59"/>
+      <c s="22" r="J59"/>
+      <c s="22" r="K59"/>
+      <c s="22" r="L59"/>
+      <c s="22" r="M59"/>
+      <c s="22" r="N59"/>
+      <c s="22" r="O59"/>
+      <c s="4" r="P59"/>
     </row>
     <row customHeight="1" r="60" ht="12.75">
-      <c s="26" r="A60"/>
-      <c s="26" r="B60"/>
-      <c s="26" r="C60"/>
+      <c s="24" r="A60"/>
+      <c s="32" r="B60"/>
+      <c s="24" r="C60"/>
       <c s="24" r="D60"/>
-      <c s="24" r="E60"/>
-      <c s="24" r="F60"/>
-      <c s="24" r="G60"/>
-      <c s="24" r="H60"/>
-      <c s="24" r="I60"/>
-      <c s="24" r="J60"/>
-      <c s="24" r="K60"/>
-      <c s="24" r="L60"/>
-      <c s="24" r="M60"/>
-      <c s="24" r="N60"/>
-      <c s="2" r="O60"/>
+      <c s="22" r="E60"/>
+      <c s="22" r="F60"/>
+      <c s="22" r="G60"/>
+      <c s="22" r="H60"/>
+      <c s="22" r="I60"/>
+      <c s="22" r="J60"/>
+      <c s="22" r="K60"/>
+      <c s="22" r="L60"/>
+      <c s="22" r="M60"/>
+      <c s="22" r="N60"/>
+      <c s="22" r="O60"/>
+      <c s="4" r="P60"/>
     </row>
     <row customHeight="1" r="61" ht="12.75">
-      <c s="26" r="A61"/>
-      <c s="26" r="B61"/>
-      <c s="26" r="C61"/>
+      <c s="24" r="A61"/>
+      <c s="32" r="B61"/>
+      <c s="24" r="C61"/>
       <c s="24" r="D61"/>
-      <c s="24" r="E61"/>
-      <c s="24" r="F61"/>
-      <c s="24" r="G61"/>
-      <c s="24" r="H61"/>
-      <c s="24" r="I61"/>
-      <c s="24" r="J61"/>
-      <c s="24" r="K61"/>
-      <c s="24" r="L61"/>
-      <c s="24" r="M61"/>
-      <c s="24" r="N61"/>
-      <c s="2" r="O61"/>
+      <c s="22" r="E61"/>
+      <c s="22" r="F61"/>
+      <c s="22" r="G61"/>
+      <c s="22" r="H61"/>
+      <c s="22" r="I61"/>
+      <c s="22" r="J61"/>
+      <c s="22" r="K61"/>
+      <c s="22" r="L61"/>
+      <c s="22" r="M61"/>
+      <c s="22" r="N61"/>
+      <c s="22" r="O61"/>
+      <c s="4" r="P61"/>
     </row>
     <row customHeight="1" r="62" ht="12.75">
-      <c s="26" r="A62"/>
-      <c s="26" r="B62"/>
-      <c s="26" r="C62"/>
-      <c s="24" r="D62"/>
-      <c s="24" r="E62"/>
-      <c s="24" r="F62"/>
-      <c s="24" r="G62"/>
-      <c s="24" r="H62"/>
-      <c s="24" r="I62"/>
-      <c s="24" r="J62"/>
-      <c s="24" r="K62"/>
-      <c s="24" r="L62"/>
-      <c s="24" r="M62"/>
-      <c s="24" r="N62"/>
-      <c s="2" r="O62"/>
+      <c t="s" s="9" r="A62">
+        <v>529</v>
+      </c>
+      <c s="33" r="B62"/>
+      <c s="34" r="C62"/>
+      <c s="34" r="D62"/>
+      <c s="34" r="E62"/>
+      <c s="34" r="F62"/>
+      <c s="34" r="G62"/>
+      <c s="34" r="H62"/>
+      <c s="34" r="I62"/>
+      <c s="34" r="J62"/>
+      <c s="34" r="K62"/>
+      <c s="34" r="L62"/>
+      <c s="34" r="M62"/>
+      <c s="34" r="N62"/>
+      <c s="34" r="O62"/>
+      <c s="34" r="P62"/>
     </row>
     <row customHeight="1" r="63" ht="12.75">
-      <c s="26" r="A63"/>
-      <c s="26" r="B63"/>
-      <c s="26" r="C63"/>
-      <c s="24" r="D63"/>
-      <c s="24" r="E63"/>
-      <c s="24" r="F63"/>
-      <c s="24" r="G63"/>
-      <c s="24" r="H63"/>
-      <c s="24" r="I63"/>
-      <c s="24" r="J63"/>
-      <c s="24" r="K63"/>
-      <c s="24" r="L63"/>
-      <c s="24" r="M63"/>
-      <c s="24" r="N63"/>
-      <c s="2" r="O63"/>
+      <c t="s" s="35" r="A63">
+        <v>530</v>
+      </c>
+      <c t="s" s="36" r="B63">
+        <v>531</v>
+      </c>
+      <c t="s" s="37" r="C63">
+        <v>532</v>
+      </c>
+      <c t="s" s="12" r="D63">
+        <v>533</v>
+      </c>
+      <c t="s" s="12" r="E63">
+        <v>534</v>
+      </c>
+      <c t="s" s="12" r="F63">
+        <v>535</v>
+      </c>
+      <c t="s" s="12" r="G63">
+        <v>536</v>
+      </c>
+      <c t="s" s="12" r="H63">
+        <v>537</v>
+      </c>
+      <c t="s" s="12" r="I63">
+        <v>538</v>
+      </c>
+      <c t="s" s="12" r="J63">
+        <v>539</v>
+      </c>
+      <c t="s" s="12" r="K63">
+        <v>540</v>
+      </c>
+      <c t="s" s="12" r="L63">
+        <v>541</v>
+      </c>
+      <c t="s" s="12" r="M63">
+        <v>542</v>
+      </c>
+      <c t="s" s="12" r="N63">
+        <v>543</v>
+      </c>
+      <c t="s" s="12" r="O63">
+        <v>544</v>
+      </c>
+      <c t="s" s="12" r="P63">
+        <v>545</v>
+      </c>
     </row>
     <row customHeight="1" r="64" ht="12.75">
-      <c t="s" s="8" r="A64">
-        <v>514</v>
-      </c>
-      <c s="32" r="B64"/>
-      <c s="32" r="C64"/>
-      <c s="32" r="D64"/>
-      <c s="32" r="E64"/>
-      <c s="32" r="F64"/>
-      <c s="32" r="G64"/>
-      <c s="32" r="H64"/>
-      <c s="32" r="I64"/>
-      <c s="32" r="J64"/>
-      <c s="32" r="K64"/>
-      <c s="32" r="L64"/>
-      <c s="32" r="M64"/>
-      <c s="32" r="N64"/>
-      <c s="32" r="O64"/>
+      <c t="s" s="35" r="A64">
+        <v>546</v>
+      </c>
+      <c t="s" s="36" r="B64">
+        <v>547</v>
+      </c>
+      <c t="s" s="37" r="C64">
+        <v>548</v>
+      </c>
+      <c t="s" s="12" r="D64">
+        <v>549</v>
+      </c>
+      <c t="s" s="12" r="E64">
+        <v>550</v>
+      </c>
+      <c t="s" s="12" r="F64">
+        <v>551</v>
+      </c>
+      <c t="s" s="12" r="G64">
+        <v>552</v>
+      </c>
+      <c t="s" s="12" r="H64">
+        <v>553</v>
+      </c>
+      <c t="s" s="12" r="I64">
+        <v>554</v>
+      </c>
+      <c t="s" s="12" r="J64">
+        <v>555</v>
+      </c>
+      <c t="s" s="12" r="K64">
+        <v>556</v>
+      </c>
+      <c t="s" s="12" r="L64">
+        <v>557</v>
+      </c>
+      <c t="s" s="12" r="M64">
+        <v>558</v>
+      </c>
+      <c t="s" s="12" r="N64">
+        <v>559</v>
+      </c>
+      <c t="s" s="12" r="O64">
+        <v>560</v>
+      </c>
+      <c t="s" s="12" r="P64">
+        <v>561</v>
+      </c>
     </row>
     <row customHeight="1" r="65" ht="12.75">
-      <c t="s" s="33" r="A65">
-        <v>515</v>
-      </c>
-      <c t="s" s="34" r="B65">
-        <v>516</v>
-      </c>
-      <c t="s" s="10" r="C65">
-        <v>517</v>
-      </c>
-      <c t="s" s="10" r="D65">
-        <v>518</v>
-      </c>
-      <c t="s" s="10" r="E65">
-        <v>519</v>
-      </c>
-      <c t="s" s="10" r="F65">
-        <v>520</v>
-      </c>
-      <c t="s" s="10" r="G65">
-        <v>521</v>
-      </c>
-      <c t="s" s="10" r="H65">
-        <v>522</v>
-      </c>
-      <c t="s" s="10" r="I65">
-        <v>523</v>
-      </c>
-      <c t="s" s="10" r="J65">
-        <v>524</v>
-      </c>
-      <c t="s" s="10" r="K65">
-        <v>525</v>
-      </c>
-      <c t="s" s="10" r="L65">
-        <v>526</v>
-      </c>
-      <c t="s" s="10" r="M65">
-        <v>527</v>
-      </c>
-      <c t="s" s="10" r="N65">
-        <v>528</v>
-      </c>
-      <c t="s" s="10" r="O65">
-        <v>529</v>
+      <c t="s" s="35" r="A65">
+        <v>562</v>
+      </c>
+      <c t="s" s="36" r="B65">
+        <v>563</v>
+      </c>
+      <c t="s" s="37" r="C65">
+        <v>564</v>
+      </c>
+      <c t="s" s="12" r="D65">
+        <v>565</v>
+      </c>
+      <c t="s" s="12" r="E65">
+        <v>566</v>
+      </c>
+      <c t="s" s="12" r="F65">
+        <v>567</v>
+      </c>
+      <c t="s" s="12" r="G65">
+        <v>568</v>
+      </c>
+      <c t="s" s="12" r="H65">
+        <v>569</v>
+      </c>
+      <c t="s" s="12" r="I65">
+        <v>570</v>
+      </c>
+      <c t="s" s="12" r="J65">
+        <v>571</v>
+      </c>
+      <c t="s" s="12" r="K65">
+        <v>572</v>
+      </c>
+      <c t="s" s="12" r="L65">
+        <v>573</v>
+      </c>
+      <c t="s" s="12" r="M65">
+        <v>574</v>
+      </c>
+      <c t="s" s="12" r="N65">
+        <v>575</v>
+      </c>
+      <c t="s" s="12" r="O65">
+        <v>576</v>
+      </c>
+      <c t="s" s="12" r="P65">
+        <v>577</v>
       </c>
     </row>
     <row customHeight="1" r="66" ht="12.75">
-      <c t="s" s="33" r="A66">
-        <v>530</v>
-      </c>
-      <c t="s" s="34" r="B66">
-        <v>531</v>
-      </c>
-      <c t="s" s="10" r="C66">
-        <v>532</v>
-      </c>
-      <c t="s" s="10" r="D66">
-        <v>533</v>
-      </c>
-      <c t="s" s="10" r="E66">
-        <v>534</v>
-      </c>
-      <c t="s" s="10" r="F66">
-        <v>535</v>
-      </c>
-      <c t="s" s="10" r="G66">
-        <v>536</v>
-      </c>
-      <c t="s" s="10" r="H66">
-        <v>537</v>
-      </c>
-      <c t="s" s="10" r="I66">
-        <v>538</v>
-      </c>
-      <c t="s" s="10" r="J66">
-        <v>539</v>
-      </c>
-      <c t="s" s="10" r="K66">
-        <v>540</v>
-      </c>
-      <c t="s" s="10" r="L66">
-        <v>541</v>
-      </c>
-      <c t="s" s="10" r="M66">
-        <v>542</v>
-      </c>
-      <c t="s" s="10" r="N66">
-        <v>543</v>
-      </c>
-      <c t="s" s="10" r="O66">
-        <v>544</v>
+      <c t="s" s="35" r="A66">
+        <v>578</v>
+      </c>
+      <c t="s" s="36" r="B66">
+        <v>579</v>
+      </c>
+      <c t="s" s="37" r="C66">
+        <v>580</v>
+      </c>
+      <c t="s" s="12" r="D66">
+        <v>581</v>
+      </c>
+      <c t="s" s="12" r="E66">
+        <v>582</v>
+      </c>
+      <c t="s" s="12" r="F66">
+        <v>583</v>
+      </c>
+      <c t="s" s="12" r="G66">
+        <v>584</v>
+      </c>
+      <c t="s" s="12" r="H66">
+        <v>585</v>
+      </c>
+      <c t="s" s="12" r="I66">
+        <v>586</v>
+      </c>
+      <c t="s" s="12" r="J66">
+        <v>587</v>
+      </c>
+      <c t="s" s="12" r="K66">
+        <v>588</v>
+      </c>
+      <c t="s" s="12" r="L66">
+        <v>589</v>
+      </c>
+      <c t="s" s="12" r="M66">
+        <v>590</v>
+      </c>
+      <c t="s" s="12" r="N66">
+        <v>591</v>
+      </c>
+      <c t="s" s="12" r="O66">
+        <v>592</v>
+      </c>
+      <c t="s" s="12" r="P66">
+        <v>593</v>
       </c>
     </row>
     <row customHeight="1" r="67" ht="12.75">
-      <c t="s" s="33" r="A67">
-        <v>545</v>
-      </c>
-      <c t="s" s="34" r="B67">
-        <v>546</v>
-      </c>
-      <c t="s" s="10" r="C67">
-        <v>547</v>
-      </c>
-      <c t="s" s="10" r="D67">
-        <v>548</v>
-      </c>
-      <c t="s" s="10" r="E67">
-        <v>549</v>
-      </c>
-      <c t="s" s="10" r="F67">
-        <v>550</v>
-      </c>
-      <c t="s" s="10" r="G67">
-        <v>551</v>
-      </c>
-      <c t="s" s="10" r="H67">
-        <v>552</v>
-      </c>
-      <c t="s" s="10" r="I67">
-        <v>553</v>
-      </c>
-      <c t="s" s="10" r="J67">
-        <v>554</v>
-      </c>
-      <c t="s" s="10" r="K67">
-        <v>555</v>
-      </c>
-      <c t="s" s="10" r="L67">
-        <v>556</v>
-      </c>
-      <c t="s" s="10" r="M67">
-        <v>557</v>
-      </c>
-      <c t="s" s="10" r="N67">
-        <v>558</v>
-      </c>
-      <c t="s" s="10" r="O67">
-        <v>559</v>
-      </c>
+      <c t="s" s="35" r="A67">
+        <v>594</v>
+      </c>
+      <c t="s" s="36" r="B67">
+        <v>595</v>
+      </c>
+      <c t="s" s="37" r="C67">
+        <v>596</v>
+      </c>
+      <c t="s" s="12" r="D67">
+        <v>597</v>
+      </c>
+      <c t="s" s="12" r="E67">
+        <v>598</v>
+      </c>
+      <c t="s" s="12" r="F67">
+        <v>599</v>
+      </c>
+      <c t="s" s="12" r="G67">
+        <v>600</v>
+      </c>
+      <c t="s" s="12" r="H67">
+        <v>601</v>
+      </c>
+      <c t="s" s="12" r="I67">
+        <v>602</v>
+      </c>
+      <c t="s" s="12" r="J67">
+        <v>603</v>
+      </c>
+      <c t="s" s="12" r="K67">
+        <v>604</v>
+      </c>
+      <c t="s" s="12" r="L67">
+        <v>605</v>
+      </c>
+      <c t="s" s="12" r="M67">
+        <v>606</v>
+      </c>
+      <c t="s" s="12" r="N67">
+        <v>607</v>
+      </c>
+      <c s="12" r="O67"/>
+      <c s="4" r="P67"/>
     </row>
     <row customHeight="1" r="68" ht="12.75">
-      <c t="s" s="33" r="A68">
-        <v>560</v>
-      </c>
-      <c t="s" s="34" r="B68">
-        <v>561</v>
-      </c>
-      <c t="s" s="10" r="C68">
-        <v>562</v>
-      </c>
-      <c t="s" s="10" r="D68">
-        <v>563</v>
-      </c>
-      <c t="s" s="10" r="E68">
-        <v>564</v>
-      </c>
-      <c t="s" s="10" r="F68">
-        <v>565</v>
-      </c>
-      <c t="s" s="10" r="G68">
-        <v>566</v>
-      </c>
-      <c t="s" s="10" r="H68">
-        <v>567</v>
-      </c>
-      <c t="s" s="10" r="I68">
-        <v>568</v>
-      </c>
-      <c t="s" s="10" r="J68">
-        <v>569</v>
-      </c>
-      <c t="s" s="10" r="K68">
-        <v>570</v>
-      </c>
-      <c t="s" s="10" r="L68">
-        <v>571</v>
-      </c>
-      <c t="s" s="10" r="M68">
-        <v>572</v>
-      </c>
-      <c t="s" s="10" r="N68">
-        <v>573</v>
-      </c>
-      <c t="s" s="10" r="O68">
-        <v>574</v>
-      </c>
+      <c s="29" r="A68"/>
     </row>
     <row customHeight="1" r="69" ht="12.75">
-      <c t="s" s="33" r="A69">
-        <v>575</v>
-      </c>
-      <c t="s" s="34" r="B69">
-        <v>576</v>
-      </c>
-      <c t="s" s="10" r="C69">
-        <v>577</v>
-      </c>
-      <c t="s" s="10" r="D69">
-        <v>578</v>
-      </c>
-      <c t="s" s="10" r="E69">
-        <v>579</v>
-      </c>
-      <c t="s" s="10" r="F69">
-        <v>580</v>
-      </c>
-      <c t="s" s="10" r="G69">
-        <v>581</v>
-      </c>
-      <c t="s" s="10" r="H69">
-        <v>582</v>
-      </c>
-      <c t="s" s="10" r="I69">
-        <v>583</v>
-      </c>
-      <c t="s" s="10" r="J69">
-        <v>584</v>
-      </c>
-      <c t="s" s="10" r="K69">
-        <v>585</v>
-      </c>
-      <c t="s" s="10" r="L69">
-        <v>586</v>
-      </c>
-      <c t="s" s="10" r="M69">
-        <v>587</v>
-      </c>
-      <c s="10" r="N69"/>
-      <c s="2" r="O69"/>
-    </row>
-    <row customHeight="1" r="70" ht="12.75">
-      <c s="30" r="A70"/>
-    </row>
-    <row customHeight="1" r="71" ht="12.75">
-      <c t="s" s="31" r="A71">
-        <v>588</v>
+      <c t="s" s="30" r="A69">
+        <v>608</v>
+      </c>
+    </row>
+    <row customHeight="1" r="70" ht="13.5">
+      <c s="1" r="A70"/>
+      <c s="31" r="B70"/>
+      <c s="1" r="C70"/>
+      <c t="s" s="1" r="D70">
+        <v>609</v>
+      </c>
+      <c t="s" s="1" r="E70">
+        <v>610</v>
+      </c>
+      <c t="s" s="1" r="F70">
+        <v>611</v>
+      </c>
+      <c t="s" s="1" r="G70">
+        <v>612</v>
+      </c>
+      <c t="s" s="1" r="H70">
+        <v>613</v>
+      </c>
+      <c t="s" s="1" r="I70">
+        <v>614</v>
+      </c>
+      <c t="s" s="1" r="J70">
+        <v>615</v>
+      </c>
+      <c t="s" s="1" r="K70">
+        <v>616</v>
+      </c>
+      <c t="s" s="1" r="L70">
+        <v>617</v>
+      </c>
+      <c t="s" s="1" r="M70">
+        <v>618</v>
+      </c>
+      <c t="s" s="1" r="N70">
+        <v>619</v>
+      </c>
+      <c t="s" s="1" r="O70">
+        <v>620</v>
+      </c>
+      <c t="s" s="12" r="P70">
+        <v>621</v>
+      </c>
+    </row>
+    <row customHeight="1" r="71" ht="13.5">
+      <c s="1" r="A71"/>
+      <c s="31" r="B71"/>
+      <c s="1" r="C71"/>
+      <c t="s" s="1" r="D71">
+        <v>622</v>
+      </c>
+      <c s="1" r="E71"/>
+      <c s="1" r="F71"/>
+      <c s="1" r="G71"/>
+      <c t="s" s="1" r="H71">
+        <v>623</v>
+      </c>
+      <c t="s" s="38" r="I71">
+        <v>624</v>
+      </c>
+      <c t="s" s="1" r="J71">
+        <v>625</v>
+      </c>
+      <c t="s" s="1" r="K71">
+        <v>626</v>
+      </c>
+      <c t="s" s="1" r="L71">
+        <v>627</v>
+      </c>
+      <c t="s" s="1" r="M71">
+        <v>628</v>
+      </c>
+      <c s="1" r="N71"/>
+      <c t="s" s="1" r="O71">
+        <v>629</v>
+      </c>
+      <c t="s" s="12" r="P71">
+        <v>630</v>
       </c>
     </row>
     <row customHeight="1" r="72" ht="13.5">
       <c s="1" r="A72"/>
-      <c s="1" r="B72"/>
-      <c t="s" s="1" r="C72">
-        <v>589</v>
-      </c>
+      <c s="31" r="B72"/>
+      <c s="1" r="C72"/>
       <c t="s" s="1" r="D72">
-        <v>590</v>
-      </c>
-      <c t="s" s="1" r="E72">
-        <v>591</v>
-      </c>
-      <c t="s" s="1" r="F72">
-        <v>592</v>
-      </c>
-      <c t="s" s="1" r="G72">
-        <v>593</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c s="1" r="E72"/>
+      <c s="1" r="F72"/>
+      <c s="1" r="G72"/>
       <c t="s" s="1" r="H72">
-        <v>594</v>
+        <v>632</v>
       </c>
       <c t="s" s="1" r="I72">
-        <v>595</v>
+        <v>633</v>
       </c>
       <c t="s" s="1" r="J72">
-        <v>596</v>
+        <v>634</v>
       </c>
       <c t="s" s="1" r="K72">
-        <v>597</v>
+        <v>635</v>
       </c>
       <c t="s" s="1" r="L72">
-        <v>598</v>
+        <v>636</v>
       </c>
       <c t="s" s="1" r="M72">
-        <v>599</v>
-      </c>
-      <c t="s" s="1" r="N72">
-        <v>600</v>
-      </c>
-      <c t="s" s="10" r="O72">
-        <v>601</v>
+        <v>637</v>
+      </c>
+      <c s="1" r="N72"/>
+      <c t="s" s="1" r="O72">
+        <v>638</v>
+      </c>
+      <c t="s" s="12" r="P72">
+        <v>639</v>
       </c>
     </row>
     <row customHeight="1" r="73" ht="13.5">
       <c s="1" r="A73"/>
-      <c s="1" r="B73"/>
-      <c t="s" s="1" r="C73">
-        <v>602</v>
-      </c>
-      <c s="1" r="D73"/>
+      <c s="31" r="B73"/>
+      <c s="1" r="C73"/>
+      <c t="s" s="1" r="D73">
+        <v>640</v>
+      </c>
       <c s="1" r="E73"/>
       <c s="1" r="F73"/>
-      <c t="s" s="1" r="G73">
-        <v>603</v>
-      </c>
-      <c t="s" s="35" r="H73">
-        <v>604</v>
+      <c s="1" r="G73"/>
+      <c t="s" s="22" r="H73">
+        <v>641</v>
       </c>
       <c t="s" s="1" r="I73">
-        <v>605</v>
+        <v>642</v>
       </c>
       <c t="s" s="1" r="J73">
-        <v>606</v>
-      </c>
-      <c t="s" s="1" r="K73">
-        <v>607</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c s="1" r="K73"/>
       <c t="s" s="1" r="L73">
-        <v>608</v>
-      </c>
-      <c s="1" r="M73"/>
-      <c t="s" s="1" r="N73">
-        <v>609</v>
-      </c>
-      <c t="s" s="10" r="O73">
-        <v>610</v>
+        <v>644</v>
+      </c>
+      <c t="s" s="1" r="M73">
+        <v>645</v>
+      </c>
+      <c s="1" r="N73"/>
+      <c t="s" s="1" r="O73">
+        <v>646</v>
+      </c>
+      <c t="s" s="12" r="P73">
+        <v>647</v>
       </c>
     </row>
     <row customHeight="1" r="74" ht="13.5">
       <c s="1" r="A74"/>
-      <c s="1" r="B74"/>
-      <c t="s" s="1" r="C74">
-        <v>611</v>
-      </c>
-      <c s="1" r="D74"/>
+      <c s="31" r="B74"/>
+      <c s="1" r="C74"/>
+      <c t="s" s="1" r="D74">
+        <v>648</v>
+      </c>
       <c s="1" r="E74"/>
       <c s="1" r="F74"/>
-      <c t="s" s="1" r="G74">
-        <v>612</v>
-      </c>
+      <c s="1" r="G74"/>
       <c t="s" s="1" r="H74">
-        <v>613</v>
+        <v>649</v>
       </c>
       <c t="s" s="1" r="I74">
-        <v>614</v>
+        <v>650</v>
       </c>
       <c t="s" s="1" r="J74">
-        <v>615</v>
-      </c>
-      <c t="s" s="1" r="K74">
-        <v>616</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c s="1" r="K74"/>
       <c t="s" s="1" r="L74">
-        <v>617</v>
-      </c>
-      <c s="1" r="M74"/>
-      <c t="s" s="1" r="N74">
-        <v>618</v>
-      </c>
-      <c t="s" s="10" r="O74">
-        <v>619</v>
+        <v>652</v>
+      </c>
+      <c t="s" s="1" r="M74">
+        <v>653</v>
+      </c>
+      <c s="1" r="N74"/>
+      <c t="s" s="1" r="O74">
+        <v>654</v>
+      </c>
+      <c t="s" s="12" r="P74">
+        <v>655</v>
       </c>
     </row>
     <row customHeight="1" r="75" ht="13.5">
       <c s="1" r="A75"/>
-      <c s="1" r="B75"/>
-      <c t="s" s="1" r="C75">
-        <v>620</v>
-      </c>
-      <c s="1" r="D75"/>
+      <c s="31" r="B75"/>
+      <c s="1" r="C75"/>
+      <c t="s" s="1" r="D75">
+        <v>656</v>
+      </c>
       <c s="1" r="E75"/>
       <c s="1" r="F75"/>
-      <c t="s" s="24" r="G75">
-        <v>621</v>
-      </c>
+      <c s="1" r="G75"/>
       <c t="s" s="1" r="H75">
-        <v>622</v>
+        <v>657</v>
       </c>
       <c t="s" s="1" r="I75">
-        <v>623</v>
-      </c>
-      <c s="1" r="J75"/>
-      <c t="s" s="1" r="K75">
-        <v>624</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c t="s" s="1" r="J75">
+        <v>659</v>
+      </c>
+      <c s="1" r="K75"/>
       <c t="s" s="1" r="L75">
-        <v>625</v>
-      </c>
-      <c s="1" r="M75"/>
-      <c t="s" s="1" r="N75">
-        <v>626</v>
-      </c>
-      <c t="s" s="10" r="O75">
-        <v>627</v>
+        <v>660</v>
+      </c>
+      <c t="s" s="1" r="M75">
+        <v>661</v>
+      </c>
+      <c s="1" r="N75"/>
+      <c t="s" s="1" r="O75">
+        <v>662</v>
+      </c>
+      <c t="s" s="12" r="P75">
+        <v>663</v>
       </c>
     </row>
     <row customHeight="1" r="76" ht="13.5">
       <c s="1" r="A76"/>
-      <c s="1" r="B76"/>
-      <c t="s" s="1" r="C76">
-        <v>628</v>
-      </c>
-      <c s="1" r="D76"/>
+      <c s="31" r="B76"/>
+      <c s="1" r="C76"/>
+      <c t="s" s="1" r="D76">
+        <v>664</v>
+      </c>
       <c s="1" r="E76"/>
       <c s="1" r="F76"/>
-      <c t="s" s="1" r="G76">
-        <v>629</v>
-      </c>
-      <c t="s" s="1" r="H76">
-        <v>630</v>
-      </c>
+      <c s="1" r="G76"/>
+      <c s="1" r="H76"/>
       <c t="s" s="1" r="I76">
-        <v>631</v>
+        <v>665</v>
       </c>
       <c s="1" r="J76"/>
-      <c t="s" s="1" r="K76">
-        <v>632</v>
-      </c>
+      <c s="1" r="K76"/>
       <c t="s" s="1" r="L76">
-        <v>633</v>
-      </c>
-      <c s="1" r="M76"/>
-      <c t="s" s="1" r="N76">
-        <v>634</v>
-      </c>
-      <c t="s" s="10" r="O76">
-        <v>635</v>
+        <v>666</v>
+      </c>
+      <c t="s" s="1" r="M76">
+        <v>667</v>
+      </c>
+      <c s="1" r="N76"/>
+      <c s="1" r="O76"/>
+      <c t="s" s="12" r="P76">
+        <v>668</v>
       </c>
     </row>
     <row customHeight="1" r="77" ht="13.5">
       <c s="1" r="A77"/>
-      <c s="1" r="B77"/>
-      <c t="s" s="1" r="C77">
-        <v>636</v>
-      </c>
-      <c s="1" r="D77"/>
+      <c s="31" r="B77"/>
+      <c s="1" r="C77"/>
+      <c t="s" s="1" r="D77">
+        <v>669</v>
+      </c>
       <c s="1" r="E77"/>
       <c s="1" r="F77"/>
-      <c t="s" s="1" r="G77">
-        <v>637</v>
-      </c>
-      <c t="s" s="1" r="H77">
-        <v>638</v>
-      </c>
-      <c t="s" s="1" r="I77">
-        <v>639</v>
-      </c>
+      <c s="1" r="G77"/>
+      <c s="1" r="H77"/>
+      <c s="1" r="I77"/>
       <c s="1" r="J77"/>
-      <c t="s" s="1" r="K77">
-        <v>640</v>
-      </c>
+      <c s="1" r="K77"/>
       <c t="s" s="1" r="L77">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c s="1" r="M77"/>
-      <c t="s" s="1" r="N77">
-        <v>642</v>
-      </c>
-      <c t="s" s="10" r="O77">
-        <v>643</v>
-      </c>
-    </row>
-    <row customHeight="1" r="78" ht="13.5">
+      <c s="1" r="N77"/>
+      <c s="1" r="O77"/>
+      <c t="s" s="12" r="P77">
+        <v>671</v>
+      </c>
+    </row>
+    <row customHeight="1" r="78" ht="12.75">
       <c s="1" r="A78"/>
-      <c s="1" r="B78"/>
-      <c t="s" s="1" r="C78">
-        <v>644</v>
-      </c>
-      <c s="1" r="D78"/>
+      <c s="31" r="B78"/>
+      <c s="1" r="C78"/>
+      <c t="s" s="1" r="D78">
+        <v>672</v>
+      </c>
       <c s="1" r="E78"/>
       <c s="1" r="F78"/>
       <c s="1" r="G78"/>
-      <c t="s" s="1" r="H78">
-        <v>645</v>
-      </c>
+      <c s="1" r="H78"/>
       <c s="1" r="I78"/>
       <c s="1" r="J78"/>
-      <c t="s" s="1" r="K78">
-        <v>646</v>
-      </c>
+      <c s="1" r="K78"/>
       <c t="s" s="1" r="L78">
-        <v>647</v>
+        <v>673</v>
       </c>
       <c s="1" r="M78"/>
       <c s="1" r="N78"/>
-      <c t="s" s="10" r="O78">
-        <v>648</v>
-      </c>
-    </row>
-    <row customHeight="1" r="79" ht="13.5">
+      <c s="1" r="O78"/>
+      <c t="s" s="12" r="P78">
+        <v>674</v>
+      </c>
+    </row>
+    <row customHeight="1" r="79" ht="12.75">
       <c s="1" r="A79"/>
-      <c s="1" r="B79"/>
-      <c t="s" s="1" r="C79">
-        <v>649</v>
-      </c>
+      <c s="31" r="B79"/>
+      <c s="1" r="C79"/>
       <c s="1" r="D79"/>
       <c s="1" r="E79"/>
       <c s="1" r="F79"/>
@@ -4820,22 +4996,17 @@
       <c s="1" r="H79"/>
       <c s="1" r="I79"/>
       <c s="1" r="J79"/>
-      <c t="s" s="1" r="K79">
-        <v>650</v>
-      </c>
+      <c s="1" r="K79"/>
       <c s="1" r="L79"/>
       <c s="1" r="M79"/>
       <c s="1" r="N79"/>
-      <c t="s" s="10" r="O79">
-        <v>651</v>
-      </c>
-    </row>
-    <row customHeight="1" r="80" ht="12.75">
+      <c s="1" r="O79"/>
+      <c s="4" r="P79"/>
+    </row>
+    <row customHeight="1" r="80" ht="11.25">
       <c s="1" r="A80"/>
-      <c s="1" r="B80"/>
-      <c t="s" s="1" r="C80">
-        <v>652</v>
-      </c>
+      <c s="31" r="B80"/>
+      <c s="1" r="C80"/>
       <c s="1" r="D80"/>
       <c s="1" r="E80"/>
       <c s="1" r="F80"/>
@@ -4843,20 +5014,19 @@
       <c s="1" r="H80"/>
       <c s="1" r="I80"/>
       <c s="1" r="J80"/>
-      <c t="s" s="1" r="K80">
-        <v>653</v>
-      </c>
-      <c s="1" r="L80"/>
+      <c s="1" r="K80"/>
+      <c t="s" s="1" r="L80">
+        <v>675</v>
+      </c>
       <c s="1" r="M80"/>
       <c s="1" r="N80"/>
-      <c t="s" s="10" r="O80">
-        <v>654</v>
-      </c>
-    </row>
-    <row customHeight="1" r="81" ht="12.75">
-      <c s="1" r="A81"/>
-      <c s="1" r="B81"/>
-      <c s="1" r="C81"/>
+      <c s="1" r="O80"/>
+      <c s="4" r="P80"/>
+    </row>
+    <row customHeight="1" r="81" ht="11.25">
+      <c s="39" r="A81"/>
+      <c s="40" r="B81"/>
+      <c s="39" r="C81"/>
       <c s="1" r="D81"/>
       <c s="1" r="E81"/>
       <c s="1" r="F81"/>
@@ -4864,18 +5034,19 @@
       <c s="1" r="H81"/>
       <c s="1" r="I81"/>
       <c s="1" r="J81"/>
-      <c t="s" s="1" r="K81">
-        <v>655</v>
-      </c>
-      <c s="1" r="L81"/>
+      <c s="1" r="K81"/>
+      <c t="s" s="1" r="L81">
+        <v>676</v>
+      </c>
       <c s="1" r="M81"/>
       <c s="1" r="N81"/>
-      <c s="2" r="O81"/>
-    </row>
-    <row customHeight="1" r="82" ht="11.25">
-      <c s="1" r="A82"/>
-      <c s="1" r="B82"/>
-      <c s="1" r="C82"/>
+      <c s="1" r="O81"/>
+      <c s="4" r="P81"/>
+    </row>
+    <row customHeight="1" r="82" ht="12.75">
+      <c s="39" r="A82"/>
+      <c s="40" r="B82"/>
+      <c s="39" r="C82"/>
       <c s="1" r="D82"/>
       <c s="1" r="E82"/>
       <c s="1" r="F82"/>
@@ -4883,17 +5054,16 @@
       <c s="1" r="H82"/>
       <c s="1" r="I82"/>
       <c s="1" r="J82"/>
-      <c t="s" s="1" r="K82">
-        <v>656</v>
-      </c>
+      <c s="1" r="K82"/>
       <c s="1" r="L82"/>
       <c s="1" r="M82"/>
       <c s="1" r="N82"/>
-      <c s="2" r="O82"/>
-    </row>
-    <row customHeight="1" r="83" ht="11.25">
-      <c s="36" r="A83"/>
-      <c s="36" r="B83"/>
+      <c s="1" r="O82"/>
+      <c s="4" r="P82"/>
+    </row>
+    <row customHeight="1" r="83" ht="12.75">
+      <c s="1" r="A83"/>
+      <c s="31" r="B83"/>
       <c s="1" r="C83"/>
       <c s="1" r="D83"/>
       <c s="1" r="E83"/>
@@ -4902,17 +5072,16 @@
       <c s="1" r="H83"/>
       <c s="1" r="I83"/>
       <c s="1" r="J83"/>
-      <c t="s" s="1" r="K83">
-        <v>657</v>
-      </c>
+      <c s="1" r="K83"/>
       <c s="1" r="L83"/>
       <c s="1" r="M83"/>
       <c s="1" r="N83"/>
-      <c s="2" r="O83"/>
-    </row>
-    <row customHeight="1" r="84" ht="12.75">
-      <c s="36" r="A84"/>
-      <c s="36" r="B84"/>
+      <c s="1" r="O83"/>
+      <c s="4" r="P83"/>
+    </row>
+    <row customHeight="1" r="84" ht="11.25">
+      <c s="1" r="A84"/>
+      <c s="31" r="B84"/>
       <c s="1" r="C84"/>
       <c s="1" r="D84"/>
       <c s="1" r="E84"/>
@@ -4925,30 +5094,42 @@
       <c s="1" r="L84"/>
       <c s="1" r="M84"/>
       <c s="1" r="N84"/>
-      <c s="2" r="O84"/>
-    </row>
-    <row customHeight="1" r="85" ht="12.75">
-      <c s="1" r="A85"/>
-      <c s="1" r="B85"/>
-      <c s="1" r="C85"/>
-      <c s="1" r="D85"/>
-      <c s="1" r="E85"/>
-      <c s="1" r="F85"/>
-      <c s="1" r="G85"/>
-      <c s="1" r="H85"/>
-      <c s="1" r="I85"/>
-      <c s="1" r="J85"/>
-      <c s="1" r="K85"/>
-      <c s="1" r="L85"/>
-      <c s="1" r="M85"/>
-      <c s="1" r="N85"/>
-      <c s="2" r="O85"/>
+      <c s="1" r="O84"/>
+      <c s="4" r="P84"/>
+    </row>
+    <row customHeight="1" r="85" ht="11.25">
+      <c t="s" s="9" r="A85">
+        <v>677</v>
+      </c>
+      <c s="33" r="B85"/>
+      <c s="34" r="C85"/>
+      <c s="34" r="D85"/>
+      <c s="34" r="E85"/>
+      <c s="34" r="F85"/>
+      <c s="34" r="G85"/>
+      <c s="34" r="H85"/>
+      <c s="34" r="I85"/>
+      <c s="34" r="J85"/>
+      <c s="34" r="K85"/>
+      <c s="34" r="L85"/>
+      <c s="34" r="M85"/>
+      <c s="34" r="N85"/>
+      <c s="34" r="O85"/>
+      <c s="34" r="P85"/>
     </row>
     <row customHeight="1" r="86" ht="11.25">
-      <c s="1" r="A86"/>
-      <c s="1" r="B86"/>
-      <c s="1" r="C86"/>
-      <c s="1" r="D86"/>
+      <c t="s" s="1" r="A86">
+        <v>678</v>
+      </c>
+      <c t="s" s="41" r="B86">
+        <v>679</v>
+      </c>
+      <c t="s" s="1" r="C86">
+        <v>680</v>
+      </c>
+      <c t="s" s="12" r="D86">
+        <v>681</v>
+      </c>
       <c s="1" r="E86"/>
       <c s="1" r="F86"/>
       <c s="1" r="G86"/>
@@ -4959,65 +5140,64 @@
       <c s="1" r="L86"/>
       <c s="1" r="M86"/>
       <c s="1" r="N86"/>
-      <c s="2" r="O86"/>
-    </row>
-    <row customHeight="1" r="87" ht="11.25">
-      <c t="s" s="37" r="A87">
-        <v>658</v>
-      </c>
-      <c s="32" r="B87"/>
-      <c s="32" r="C87"/>
-      <c s="32" r="D87"/>
-      <c s="32" r="E87"/>
-      <c s="32" r="F87"/>
-      <c s="32" r="G87"/>
-      <c s="32" r="H87"/>
-      <c s="32" r="I87"/>
-      <c s="32" r="J87"/>
-      <c s="32" r="K87"/>
-      <c s="32" r="L87"/>
-      <c s="32" r="M87"/>
-      <c s="32" r="N87"/>
-      <c s="32" r="O87"/>
-    </row>
-    <row customHeight="1" r="88" ht="11.25">
-      <c t="s" s="38" r="A88">
-        <v>659</v>
-      </c>
-      <c t="s" s="1" r="B88">
-        <v>660</v>
-      </c>
-      <c t="s" s="10" r="C88">
-        <v>661</v>
-      </c>
-      <c s="1" r="D88"/>
-      <c s="1" r="E88"/>
-      <c s="1" r="F88"/>
-      <c s="1" r="G88"/>
-      <c s="1" r="H88"/>
-      <c s="1" r="I88"/>
-      <c s="1" r="J88"/>
-      <c s="1" r="K88"/>
-      <c s="1" r="L88"/>
-      <c s="1" r="M88"/>
-      <c s="1" r="N88"/>
-      <c s="2" r="O88"/>
-    </row>
-    <row customHeight="1" r="89" ht="12.75">
-      <c s="30" r="A89"/>
-    </row>
-    <row customHeight="1" r="90" ht="12.75">
-      <c t="s" s="39" r="A90">
-        <v>662</v>
-      </c>
+      <c s="1" r="O86"/>
+      <c s="4" r="P86"/>
+    </row>
+    <row customHeight="1" r="87" ht="12.75">
+      <c s="29" r="A87"/>
+    </row>
+    <row customHeight="1" r="88" ht="12.75">
+      <c t="s" s="30" r="A88">
+        <v>682</v>
+      </c>
+    </row>
+    <row customHeight="1" r="89" ht="11.25">
+      <c s="1" r="A89"/>
+      <c s="31" r="B89"/>
+      <c s="1" r="C89"/>
+      <c t="s" s="1" r="D89">
+        <v>683</v>
+      </c>
+      <c s="1" r="E89"/>
+      <c s="1" r="F89"/>
+      <c s="1" r="G89"/>
+      <c s="1" r="H89"/>
+      <c s="1" r="I89"/>
+      <c s="1" r="J89"/>
+      <c s="1" r="K89"/>
+      <c s="1" r="L89"/>
+      <c s="1" r="M89"/>
+      <c s="1" r="N89"/>
+      <c s="1" r="O89"/>
+      <c s="4" r="P89"/>
+    </row>
+    <row customHeight="1" r="90" ht="11.25">
+      <c s="1" r="A90"/>
+      <c s="31" r="B90"/>
+      <c s="1" r="C90"/>
+      <c t="s" s="1" r="D90">
+        <v>684</v>
+      </c>
+      <c s="1" r="E90"/>
+      <c s="1" r="F90"/>
+      <c s="1" r="G90"/>
+      <c s="1" r="H90"/>
+      <c s="1" r="I90"/>
+      <c s="1" r="J90"/>
+      <c s="1" r="K90"/>
+      <c s="1" r="L90"/>
+      <c s="1" r="M90"/>
+      <c s="1" r="N90"/>
+      <c s="1" r="O90"/>
+      <c s="4" r="P90"/>
     </row>
     <row customHeight="1" r="91" ht="11.25">
       <c s="1" r="A91"/>
-      <c s="1" r="B91"/>
-      <c t="s" s="1" r="C91">
-        <v>663</v>
-      </c>
-      <c s="1" r="D91"/>
+      <c s="31" r="B91"/>
+      <c s="1" r="C91"/>
+      <c t="s" s="1" r="D91">
+        <v>685</v>
+      </c>
       <c s="1" r="E91"/>
       <c s="1" r="F91"/>
       <c s="1" r="G91"/>
@@ -5028,15 +5208,16 @@
       <c s="1" r="L91"/>
       <c s="1" r="M91"/>
       <c s="1" r="N91"/>
-      <c s="2" r="O91"/>
+      <c s="1" r="O91"/>
+      <c s="4" r="P91"/>
     </row>
     <row customHeight="1" r="92" ht="11.25">
       <c s="1" r="A92"/>
-      <c s="1" r="B92"/>
-      <c t="s" s="1" r="C92">
-        <v>664</v>
-      </c>
-      <c s="1" r="D92"/>
+      <c s="31" r="B92"/>
+      <c s="1" r="C92"/>
+      <c t="s" s="1" r="D92">
+        <v>686</v>
+      </c>
       <c s="1" r="E92"/>
       <c s="1" r="F92"/>
       <c s="1" r="G92"/>
@@ -5047,15 +5228,16 @@
       <c s="1" r="L92"/>
       <c s="1" r="M92"/>
       <c s="1" r="N92"/>
-      <c s="2" r="O92"/>
+      <c s="1" r="O92"/>
+      <c s="4" r="P92"/>
     </row>
     <row customHeight="1" r="93" ht="11.25">
       <c s="1" r="A93"/>
-      <c s="1" r="B93"/>
-      <c t="s" s="1" r="C93">
-        <v>665</v>
-      </c>
-      <c s="1" r="D93"/>
+      <c s="31" r="B93"/>
+      <c s="1" r="C93"/>
+      <c t="s" s="1" r="D93">
+        <v>687</v>
+      </c>
       <c s="1" r="E93"/>
       <c s="1" r="F93"/>
       <c s="1" r="G93"/>
@@ -5066,15 +5248,16 @@
       <c s="1" r="L93"/>
       <c s="1" r="M93"/>
       <c s="1" r="N93"/>
-      <c s="2" r="O93"/>
+      <c s="1" r="O93"/>
+      <c s="4" r="P93"/>
     </row>
     <row customHeight="1" r="94" ht="11.25">
       <c s="1" r="A94"/>
-      <c s="1" r="B94"/>
-      <c t="s" s="1" r="C94">
-        <v>666</v>
-      </c>
-      <c s="1" r="D94"/>
+      <c s="31" r="B94"/>
+      <c s="1" r="C94"/>
+      <c t="s" s="1" r="D94">
+        <v>688</v>
+      </c>
       <c s="1" r="E94"/>
       <c s="1" r="F94"/>
       <c s="1" r="G94"/>
@@ -5085,15 +5268,16 @@
       <c s="1" r="L94"/>
       <c s="1" r="M94"/>
       <c s="1" r="N94"/>
-      <c s="2" r="O94"/>
+      <c s="1" r="O94"/>
+      <c s="4" r="P94"/>
     </row>
     <row customHeight="1" r="95" ht="11.25">
       <c s="1" r="A95"/>
-      <c s="1" r="B95"/>
-      <c t="s" s="1" r="C95">
-        <v>667</v>
-      </c>
-      <c s="1" r="D95"/>
+      <c s="31" r="B95"/>
+      <c s="1" r="C95"/>
+      <c t="s" s="1" r="D95">
+        <v>689</v>
+      </c>
       <c s="1" r="E95"/>
       <c s="1" r="F95"/>
       <c s="1" r="G95"/>
@@ -5104,15 +5288,16 @@
       <c s="1" r="L95"/>
       <c s="1" r="M95"/>
       <c s="1" r="N95"/>
-      <c s="2" r="O95"/>
+      <c s="1" r="O95"/>
+      <c s="4" r="P95"/>
     </row>
     <row customHeight="1" r="96" ht="11.25">
       <c s="1" r="A96"/>
-      <c s="1" r="B96"/>
-      <c t="s" s="1" r="C96">
-        <v>668</v>
-      </c>
-      <c s="1" r="D96"/>
+      <c s="31" r="B96"/>
+      <c s="1" r="C96"/>
+      <c t="s" s="1" r="D96">
+        <v>690</v>
+      </c>
       <c s="1" r="E96"/>
       <c s="1" r="F96"/>
       <c s="1" r="G96"/>
@@ -5123,15 +5308,16 @@
       <c s="1" r="L96"/>
       <c s="1" r="M96"/>
       <c s="1" r="N96"/>
-      <c s="2" r="O96"/>
+      <c s="1" r="O96"/>
+      <c s="4" r="P96"/>
     </row>
     <row customHeight="1" r="97" ht="11.25">
       <c s="1" r="A97"/>
-      <c s="1" r="B97"/>
-      <c t="s" s="1" r="C97">
-        <v>669</v>
-      </c>
-      <c s="1" r="D97"/>
+      <c s="31" r="B97"/>
+      <c s="1" r="C97"/>
+      <c t="s" s="1" r="D97">
+        <v>691</v>
+      </c>
       <c s="1" r="E97"/>
       <c s="1" r="F97"/>
       <c s="1" r="G97"/>
@@ -5142,15 +5328,16 @@
       <c s="1" r="L97"/>
       <c s="1" r="M97"/>
       <c s="1" r="N97"/>
-      <c s="2" r="O97"/>
+      <c s="1" r="O97"/>
+      <c s="4" r="P97"/>
     </row>
     <row customHeight="1" r="98" ht="11.25">
       <c s="1" r="A98"/>
-      <c s="1" r="B98"/>
-      <c t="s" s="1" r="C98">
-        <v>670</v>
-      </c>
-      <c s="1" r="D98"/>
+      <c s="31" r="B98"/>
+      <c s="1" r="C98"/>
+      <c t="s" s="1" r="D98">
+        <v>692</v>
+      </c>
       <c s="1" r="E98"/>
       <c s="1" r="F98"/>
       <c s="1" r="G98"/>
@@ -5161,15 +5348,16 @@
       <c s="1" r="L98"/>
       <c s="1" r="M98"/>
       <c s="1" r="N98"/>
-      <c s="2" r="O98"/>
+      <c s="1" r="O98"/>
+      <c s="4" r="P98"/>
     </row>
     <row customHeight="1" r="99" ht="11.25">
       <c s="1" r="A99"/>
-      <c s="1" r="B99"/>
-      <c t="s" s="1" r="C99">
-        <v>671</v>
-      </c>
-      <c s="1" r="D99"/>
+      <c s="31" r="B99"/>
+      <c s="1" r="C99"/>
+      <c t="s" s="1" r="D99">
+        <v>693</v>
+      </c>
       <c s="1" r="E99"/>
       <c s="1" r="F99"/>
       <c s="1" r="G99"/>
@@ -5180,15 +5368,16 @@
       <c s="1" r="L99"/>
       <c s="1" r="M99"/>
       <c s="1" r="N99"/>
-      <c s="2" r="O99"/>
+      <c s="1" r="O99"/>
+      <c s="4" r="P99"/>
     </row>
     <row customHeight="1" r="100" ht="11.25">
       <c s="1" r="A100"/>
-      <c s="1" r="B100"/>
-      <c t="s" s="1" r="C100">
-        <v>672</v>
-      </c>
-      <c s="1" r="D100"/>
+      <c s="31" r="B100"/>
+      <c s="1" r="C100"/>
+      <c t="s" s="1" r="D100">
+        <v>694</v>
+      </c>
       <c s="1" r="E100"/>
       <c s="1" r="F100"/>
       <c s="1" r="G100"/>
@@ -5199,14 +5388,13 @@
       <c s="1" r="L100"/>
       <c s="1" r="M100"/>
       <c s="1" r="N100"/>
-      <c s="2" r="O100"/>
+      <c s="1" r="O100"/>
+      <c s="4" r="P100"/>
     </row>
     <row customHeight="1" r="101" ht="11.25">
       <c s="1" r="A101"/>
-      <c s="1" r="B101"/>
-      <c t="s" s="1" r="C101">
-        <v>673</v>
-      </c>
+      <c s="31" r="B101"/>
+      <c s="1" r="C101"/>
       <c s="1" r="D101"/>
       <c s="1" r="E101"/>
       <c s="1" r="F101"/>
@@ -5218,84 +5406,62 @@
       <c s="1" r="L101"/>
       <c s="1" r="M101"/>
       <c s="1" r="N101"/>
-      <c s="2" r="O101"/>
-    </row>
-    <row customHeight="1" r="102" ht="11.25">
-      <c s="1" r="A102"/>
-      <c s="1" r="B102"/>
-      <c t="s" s="1" r="C102">
-        <v>674</v>
-      </c>
-      <c s="1" r="D102"/>
-      <c s="1" r="E102"/>
-      <c s="1" r="F102"/>
-      <c s="1" r="G102"/>
-      <c s="1" r="H102"/>
-      <c s="1" r="I102"/>
-      <c s="1" r="J102"/>
-      <c s="1" r="K102"/>
-      <c s="1" r="L102"/>
-      <c s="1" r="M102"/>
-      <c s="1" r="N102"/>
-      <c s="2" r="O102"/>
-    </row>
-    <row customHeight="1" r="103" ht="11.25">
-      <c s="1" r="A103"/>
-      <c s="1" r="B103"/>
-      <c s="1" r="C103"/>
-      <c s="1" r="D103"/>
-      <c s="1" r="E103"/>
-      <c s="1" r="F103"/>
-      <c s="1" r="G103"/>
-      <c s="1" r="H103"/>
-      <c s="1" r="I103"/>
-      <c s="1" r="J103"/>
-      <c s="1" r="K103"/>
-      <c s="1" r="L103"/>
-      <c s="1" r="M103"/>
-      <c s="1" r="N103"/>
-      <c s="2" r="O103"/>
+      <c s="1" r="O101"/>
+      <c s="4" r="P101"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A89:O89"/>
-    <mergeCell ref="A90:O90"/>
+  <mergeCells count="51">
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C33:C34"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A71:O71"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A49:P49"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A69:P69"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="A88:P88"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C41:C42"/>
     <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A11:O11"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/spreadsheets/DBex.xlsx
+++ b/spreadsheets/DBex.xlsx
@@ -1372,7 +1372,7 @@
     <t>MoSensor1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>0</t>
   </si>
   <si>
     <t>Датчик движения</t>
@@ -2298,7 +2298,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:absoluteAnchor>
     <xdr:pos y="800100" x="11639550"/>
@@ -5411,57 +5411,57 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A49:P49"/>
-    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="A69:P69"/>
     <mergeCell ref="A87:P87"/>
     <mergeCell ref="A88:P88"/>
-    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A49:P49"/>
+    <mergeCell ref="A68:P68"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/spreadsheets/DBex.xlsx
+++ b/spreadsheets/DBex.xlsx
@@ -2180,10 +2180,11 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="0"/>
+    <xf fillId="0" xfId="0" numFmtId="1" borderId="1" applyFont="1" fontId="0" applyNumberFormat="1"/>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="0"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="center"/>
@@ -2209,6 +2210,9 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="1" borderId="1" applyFont="1" fontId="3" applyNumberFormat="1">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2216,6 +2220,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="1" borderId="1" applyFont="1" fontId="3" applyNumberFormat="1">
       <alignment vertical="center" horizontal="left"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
@@ -2257,6 +2264,9 @@
     <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="1" borderId="1" applyFont="1" fontId="3" applyNumberFormat="1">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2267,10 +2277,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
+    <xf fillId="0" xfId="0" numFmtId="1" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1"/>
     <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="1" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1">
+      <alignment vertical="center" horizontal="left" wrapText="1"/>
+    </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="1" borderId="1" applyFont="1" fontId="4" applyNumberFormat="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
@@ -2280,13 +2297,20 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center" horizontal="left"/>
     </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="1" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="center"/>
     </xf>
     <xf applyBorder="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4"/>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4"/>
+    <xf fillId="0" xfId="0" numFmtId="1" borderId="1" applyFont="1" fontId="4" applyNumberFormat="1"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="1" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2301,7 +2325,7 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:absoluteAnchor>
-    <xdr:pos y="800100" x="11639550"/>
+    <xdr:pos y="800100" x="11982450"/>
     <xdr:ext cy="0" cx="38100"/>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2337,18 +2361,18 @@
   <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" customWidth="1" max="1" width="28.0"/>
-    <col min="2" customWidth="1" max="2" width="5.14"/>
-    <col min="3" customWidth="1" max="3" width="30.14"/>
-    <col min="4" customWidth="1" max="4" width="18.86"/>
-    <col min="5" customWidth="1" max="7" width="17.86"/>
-    <col min="8" customWidth="1" max="9" width="18.57"/>
-    <col min="10" customWidth="1" max="10" width="19.29"/>
-    <col min="11" customWidth="1" max="11" width="18.57"/>
-    <col min="12" customWidth="1" max="12" width="18.86"/>
-    <col min="13" customWidth="1" max="13" width="24.29"/>
-    <col min="14" customWidth="1" max="14" width="17.86"/>
-    <col min="15" customWidth="1" max="15" width="22.0"/>
-    <col min="16" customWidth="1" max="16" width="21.43"/>
+    <col min="2" customWidth="1" max="3" width="5.14"/>
+    <col min="4" customWidth="1" max="4" width="30.14"/>
+    <col min="5" customWidth="1" max="5" width="18.86"/>
+    <col min="6" customWidth="1" max="8" width="17.86"/>
+    <col min="9" customWidth="1" max="10" width="18.57"/>
+    <col min="11" customWidth="1" max="11" width="19.29"/>
+    <col min="12" customWidth="1" max="12" width="18.57"/>
+    <col min="13" customWidth="1" max="13" width="18.86"/>
+    <col min="14" customWidth="1" max="14" width="24.29"/>
+    <col min="15" customWidth="1" max="15" width="17.86"/>
+    <col min="16" customWidth="1" max="16" width="22.0"/>
+    <col min="17" customWidth="1" max="17" width="21.43"/>
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="12.75">
@@ -2358,26 +2382,27 @@
       <c s="2" r="B1"/>
       <c s="3" r="C1"/>
       <c s="4" r="D1"/>
-      <c s="4" r="E1"/>
-      <c s="4" r="F1"/>
-      <c s="4" r="G1"/>
-      <c s="4" r="H1"/>
-      <c s="4" r="I1"/>
-      <c s="4" r="J1"/>
-      <c s="4" r="K1"/>
-      <c s="4" r="L1"/>
-      <c s="4" r="M1"/>
-      <c s="4" r="N1"/>
-      <c t="s" s="4" r="O1">
+      <c s="5" r="E1"/>
+      <c s="5" r="F1"/>
+      <c s="5" r="G1"/>
+      <c s="5" r="H1"/>
+      <c s="5" r="I1"/>
+      <c s="5" r="J1"/>
+      <c s="5" r="K1"/>
+      <c s="5" r="L1"/>
+      <c s="5" r="M1"/>
+      <c s="5" r="N1"/>
+      <c s="5" r="O1"/>
+      <c t="s" s="5" r="P1">
         <v>1</v>
       </c>
-      <c s="4" r="P1"/>
+      <c s="5" r="Q1"/>
     </row>
     <row customHeight="1" r="2" ht="12.75">
       <c s="1" r="A2"/>
       <c s="2" r="B2"/>
       <c s="3" r="C2"/>
-      <c s="1" r="D2"/>
+      <c s="4" r="D2"/>
       <c s="1" r="E2"/>
       <c s="1" r="F2"/>
       <c s="1" r="G2"/>
@@ -2389,13 +2414,14 @@
       <c s="1" r="M2"/>
       <c s="1" r="N2"/>
       <c s="1" r="O2"/>
-      <c s="4" r="P2"/>
+      <c s="1" r="P2"/>
+      <c s="5" r="Q2"/>
     </row>
     <row customHeight="1" r="3" ht="12.75">
       <c s="1" r="A3"/>
       <c s="2" r="B3"/>
       <c s="3" r="C3"/>
-      <c s="1" r="D3"/>
+      <c s="4" r="D3"/>
       <c s="1" r="E3"/>
       <c s="1" r="F3"/>
       <c s="1" r="G3"/>
@@ -2407,7 +2433,8 @@
       <c s="1" r="M3"/>
       <c s="1" r="N3"/>
       <c s="1" r="O3"/>
-      <c s="4" r="P3"/>
+      <c s="1" r="P3"/>
+      <c s="5" r="Q3"/>
     </row>
     <row customHeight="1" r="4" ht="12.75">
       <c t="s" s="1" r="A4">
@@ -2415,43 +2442,44 @@
       </c>
       <c s="2" r="B4"/>
       <c s="3" r="C4"/>
-      <c t="s" s="5" r="D4">
+      <c s="4" r="D4"/>
+      <c t="s" s="6" r="E4">
         <v>3</v>
       </c>
-      <c t="s" s="5" r="E4">
+      <c t="s" s="6" r="F4">
         <v>4</v>
       </c>
-      <c t="s" s="5" r="F4">
+      <c t="s" s="6" r="G4">
         <v>5</v>
       </c>
-      <c t="s" s="5" r="G4">
+      <c t="s" s="6" r="H4">
         <v>6</v>
       </c>
-      <c t="s" s="5" r="H4">
+      <c t="s" s="6" r="I4">
         <v>7</v>
       </c>
-      <c t="s" s="5" r="I4">
+      <c t="s" s="6" r="J4">
         <v>8</v>
       </c>
-      <c t="s" s="5" r="J4">
+      <c t="s" s="6" r="K4">
         <v>9</v>
       </c>
-      <c t="s" s="5" r="K4">
+      <c t="s" s="6" r="L4">
         <v>10</v>
       </c>
-      <c t="s" s="5" r="L4">
+      <c t="s" s="6" r="M4">
         <v>11</v>
       </c>
-      <c t="s" s="5" r="M4">
+      <c t="s" s="6" r="N4">
         <v>12</v>
       </c>
-      <c t="s" s="5" r="N4">
+      <c t="s" s="6" r="O4">
         <v>13</v>
       </c>
-      <c t="s" s="5" r="O4">
+      <c t="s" s="6" r="P4">
         <v>14</v>
       </c>
-      <c t="s" s="5" r="P4">
+      <c t="s" s="6" r="Q4">
         <v>15</v>
       </c>
     </row>
@@ -2461,1652 +2489,1709 @@
       </c>
       <c s="2" r="B5"/>
       <c s="3" r="C5"/>
-      <c t="s" s="6" r="D5">
+      <c s="4" r="D5"/>
+      <c t="s" s="7" r="E5">
         <v>17</v>
       </c>
-      <c t="s" s="6" r="E5">
+      <c t="s" s="7" r="F5">
         <v>18</v>
       </c>
-      <c t="s" s="6" r="F5">
+      <c t="s" s="7" r="G5">
         <v>19</v>
       </c>
-      <c t="s" s="6" r="G5">
+      <c t="s" s="7" r="H5">
         <v>20</v>
       </c>
-      <c t="s" s="6" r="H5">
+      <c t="s" s="7" r="I5">
         <v>21</v>
       </c>
-      <c t="s" s="6" r="I5">
+      <c t="s" s="7" r="J5">
         <v>22</v>
       </c>
-      <c t="s" s="6" r="J5">
+      <c t="s" s="7" r="K5">
         <v>23</v>
       </c>
-      <c t="s" s="6" r="K5">
+      <c t="s" s="7" r="L5">
         <v>24</v>
       </c>
-      <c t="s" s="6" r="L5">
+      <c t="s" s="7" r="M5">
         <v>25</v>
       </c>
-      <c t="s" s="6" r="M5">
+      <c t="s" s="7" r="N5">
         <v>26</v>
       </c>
-      <c t="s" s="6" r="N5">
+      <c t="s" s="7" r="O5">
         <v>27</v>
       </c>
-      <c t="s" s="6" r="O5">
+      <c t="s" s="7" r="P5">
         <v>28</v>
       </c>
-      <c t="s" s="6" r="P5">
+      <c t="s" s="7" r="Q5">
         <v>29</v>
       </c>
     </row>
     <row customHeight="1" r="6" ht="12.75">
-      <c t="s" s="7" r="A6">
+      <c t="s" s="8" r="A6">
         <v>30</v>
       </c>
       <c s="2" r="B6"/>
       <c s="3" r="C6"/>
-      <c t="s" s="5" r="D6">
+      <c s="4" r="D6"/>
+      <c t="s" s="6" r="E6">
         <v>31</v>
       </c>
-      <c t="s" s="5" r="E6">
+      <c t="s" s="6" r="F6">
         <v>32</v>
       </c>
-      <c t="s" s="5" r="F6">
+      <c t="s" s="6" r="G6">
         <v>33</v>
       </c>
-      <c t="s" s="5" r="G6">
+      <c t="s" s="6" r="H6">
         <v>34</v>
       </c>
-      <c t="s" s="5" r="H6">
+      <c t="s" s="6" r="I6">
         <v>35</v>
       </c>
-      <c t="s" s="5" r="I6">
+      <c t="s" s="6" r="J6">
         <v>36</v>
       </c>
-      <c t="s" s="5" r="J6">
+      <c t="s" s="6" r="K6">
         <v>37</v>
       </c>
-      <c t="s" s="5" r="K6">
+      <c t="s" s="6" r="L6">
         <v>38</v>
       </c>
-      <c t="s" s="5" r="L6">
+      <c t="s" s="6" r="M6">
         <v>39</v>
       </c>
-      <c t="s" s="5" r="M6">
+      <c t="s" s="6" r="N6">
         <v>40</v>
       </c>
-      <c t="s" s="5" r="N6">
+      <c t="s" s="6" r="O6">
         <v>41</v>
       </c>
-      <c t="s" s="5" r="O6">
+      <c t="s" s="6" r="P6">
         <v>42</v>
       </c>
-      <c t="s" s="5" r="P6">
+      <c t="s" s="6" r="Q6">
         <v>43</v>
       </c>
     </row>
     <row customHeight="1" r="7" ht="12.75">
-      <c s="7" r="A7"/>
+      <c s="8" r="A7"/>
       <c s="2" r="B7"/>
       <c s="3" r="C7"/>
-      <c s="8" r="D7"/>
-      <c s="8" r="E7"/>
-      <c s="8" r="F7"/>
-      <c s="8" r="G7"/>
-      <c s="8" r="H7"/>
-      <c s="8" r="I7"/>
-      <c s="8" r="J7"/>
-      <c s="8" r="K7"/>
-      <c s="8" r="L7"/>
-      <c s="8" r="M7"/>
-      <c s="8" r="N7"/>
-      <c s="8" r="O7"/>
-      <c s="4" r="P7"/>
+      <c s="4" r="D7"/>
+      <c s="9" r="E7"/>
+      <c s="9" r="F7"/>
+      <c s="9" r="G7"/>
+      <c s="9" r="H7"/>
+      <c s="9" r="I7"/>
+      <c s="9" r="J7"/>
+      <c s="9" r="K7"/>
+      <c s="9" r="L7"/>
+      <c s="9" r="M7"/>
+      <c s="9" r="N7"/>
+      <c s="9" r="O7"/>
+      <c s="9" r="P7"/>
+      <c s="5" r="Q7"/>
     </row>
     <row customHeight="1" r="8" ht="28.5">
-      <c t="s" s="7" r="A8">
+      <c t="s" s="8" r="A8">
         <v>44</v>
       </c>
       <c s="2" r="B8"/>
       <c s="3" r="C8"/>
-      <c s="8" r="D8"/>
-      <c s="8" r="E8"/>
-      <c s="8" r="F8"/>
-      <c s="8" r="G8"/>
-      <c t="s" s="8" r="H8">
+      <c s="4" r="D8"/>
+      <c s="9" r="E8"/>
+      <c s="9" r="F8"/>
+      <c s="9" r="G8"/>
+      <c s="9" r="H8"/>
+      <c t="s" s="9" r="I8">
         <v>45</v>
       </c>
-      <c t="s" s="8" r="I8">
+      <c t="s" s="9" r="J8">
         <v>46</v>
       </c>
-      <c s="8" r="J8"/>
-      <c s="8" r="K8"/>
-      <c s="8" r="L8"/>
-      <c s="8" r="M8"/>
-      <c s="8" r="N8"/>
-      <c s="8" r="O8"/>
-      <c s="4" r="P8"/>
+      <c s="9" r="K8"/>
+      <c s="9" r="L8"/>
+      <c s="9" r="M8"/>
+      <c s="9" r="N8"/>
+      <c s="9" r="O8"/>
+      <c s="9" r="P8"/>
+      <c s="5" r="Q8"/>
     </row>
     <row customHeight="1" r="9" ht="28.5">
-      <c t="s" s="7" r="A9">
+      <c t="s" s="8" r="A9">
         <v>47</v>
       </c>
       <c s="2" r="B9"/>
       <c s="3" r="C9"/>
-      <c s="8" r="D9"/>
-      <c s="8" r="E9"/>
-      <c s="8" r="F9"/>
-      <c s="8" r="G9"/>
-      <c s="8" r="H9"/>
-      <c s="8" r="I9"/>
-      <c s="8" r="J9"/>
-      <c s="8" r="K9"/>
-      <c s="8" r="L9"/>
-      <c s="8" r="M9"/>
-      <c s="8" r="N9"/>
-      <c t="s" s="8" r="O9">
+      <c s="4" r="D9"/>
+      <c s="9" r="E9"/>
+      <c s="9" r="F9"/>
+      <c s="9" r="G9"/>
+      <c s="9" r="H9"/>
+      <c s="9" r="I9"/>
+      <c s="9" r="J9"/>
+      <c s="9" r="K9"/>
+      <c s="9" r="L9"/>
+      <c s="9" r="M9"/>
+      <c s="9" r="N9"/>
+      <c s="9" r="O9"/>
+      <c t="s" s="9" r="P9">
         <v>48</v>
       </c>
-      <c s="4" r="P9"/>
+      <c s="5" r="Q9"/>
     </row>
     <row customHeight="1" r="10" ht="12.75">
-      <c t="s" s="7" r="A10">
+      <c t="s" s="8" r="A10">
         <v>49</v>
       </c>
       <c s="2" r="B10"/>
       <c s="3" r="C10"/>
-      <c s="8" r="D10"/>
-      <c s="8" r="E10"/>
-      <c s="8" r="F10"/>
-      <c s="8" r="G10"/>
-      <c s="8" r="H10"/>
-      <c s="8" r="I10"/>
-      <c s="8" r="J10"/>
-      <c s="8" r="K10"/>
-      <c s="8" r="L10"/>
-      <c s="8" r="M10"/>
-      <c s="8" r="N10"/>
-      <c s="8" r="O10"/>
-      <c s="4" r="P10"/>
+      <c s="4" r="D10"/>
+      <c s="9" r="E10"/>
+      <c s="9" r="F10"/>
+      <c s="9" r="G10"/>
+      <c s="9" r="H10"/>
+      <c s="9" r="I10"/>
+      <c s="9" r="J10"/>
+      <c s="9" r="K10"/>
+      <c s="9" r="L10"/>
+      <c s="9" r="M10"/>
+      <c s="9" r="N10"/>
+      <c s="9" r="O10"/>
+      <c s="9" r="P10"/>
+      <c s="5" r="Q10"/>
     </row>
     <row customHeight="1" r="11" ht="12.75">
-      <c t="s" s="9" r="A11">
+      <c t="s" s="10" r="A11">
         <v>50</v>
       </c>
     </row>
     <row customHeight="1" r="12" ht="12.75">
-      <c t="s" s="10" r="A12">
+      <c t="s" s="11" r="A12">
         <v>51</v>
       </c>
-      <c t="s" s="11" r="B12">
+      <c t="s" s="12" r="B12">
         <v>52</v>
       </c>
-      <c t="s" s="10" r="C12">
+      <c s="13" r="C12">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="11" r="D12">
         <v>53</v>
       </c>
-      <c t="s" s="12" r="D12">
+      <c t="s" s="14" r="E12">
         <v>54</v>
       </c>
-      <c t="s" s="12" r="E12">
+      <c t="s" s="14" r="F12">
         <v>55</v>
       </c>
-      <c t="s" s="12" r="F12">
+      <c t="s" s="14" r="G12">
         <v>56</v>
       </c>
-      <c t="s" s="12" r="G12">
+      <c t="s" s="14" r="H12">
         <v>57</v>
       </c>
-      <c t="s" s="12" r="H12">
+      <c t="s" s="14" r="I12">
         <v>58</v>
       </c>
-      <c t="s" s="12" r="I12">
+      <c t="s" s="14" r="J12">
         <v>59</v>
       </c>
-      <c t="s" s="12" r="J12">
+      <c t="s" s="14" r="K12">
         <v>60</v>
       </c>
-      <c t="s" s="12" r="K12">
+      <c t="s" s="14" r="L12">
         <v>61</v>
       </c>
-      <c t="s" s="12" r="L12">
+      <c t="s" s="14" r="M12">
         <v>62</v>
       </c>
-      <c t="s" s="12" r="M12">
+      <c t="s" s="14" r="N12">
         <v>63</v>
       </c>
-      <c t="s" s="12" r="N12">
+      <c t="s" s="14" r="O12">
         <v>64</v>
       </c>
-      <c t="s" s="12" r="O12">
+      <c t="s" s="14" r="P12">
         <v>65</v>
       </c>
-      <c t="s" s="12" r="P12">
+      <c t="s" s="14" r="Q12">
         <v>66</v>
       </c>
     </row>
     <row customHeight="1" r="13" ht="12.75">
-      <c t="s" s="12" r="D13">
+      <c t="s" s="14" r="E13">
         <v>67</v>
       </c>
-      <c s="12" r="E13"/>
-      <c s="12" r="F13"/>
-      <c s="12" r="G13"/>
-      <c s="12" r="H13"/>
-      <c s="12" r="I13"/>
-      <c s="12" r="J13"/>
-      <c s="12" r="K13"/>
-      <c s="12" r="L13"/>
-      <c s="12" r="M13"/>
-      <c s="12" r="N13"/>
-      <c s="12" r="O13"/>
-      <c t="s" s="12" r="P13">
+      <c s="14" r="F13"/>
+      <c s="14" r="G13"/>
+      <c s="14" r="H13"/>
+      <c s="14" r="I13"/>
+      <c s="14" r="J13"/>
+      <c s="14" r="K13"/>
+      <c s="14" r="L13"/>
+      <c s="14" r="M13"/>
+      <c s="14" r="N13"/>
+      <c s="14" r="O13"/>
+      <c s="14" r="P13"/>
+      <c t="s" s="14" r="Q13">
         <v>68</v>
       </c>
     </row>
     <row customHeight="1" r="14" ht="12.75">
-      <c t="s" s="13" r="A14">
+      <c t="s" s="15" r="A14">
         <v>69</v>
       </c>
-      <c t="s" s="14" r="B14">
+      <c t="s" s="16" r="B14">
         <v>70</v>
       </c>
-      <c t="s" s="13" r="C14">
+      <c s="17" r="C14">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="15" r="D14">
         <v>71</v>
       </c>
-      <c t="s" s="15" r="D14">
+      <c t="s" s="18" r="E14">
         <v>72</v>
       </c>
-      <c t="s" s="15" r="E14">
+      <c t="s" s="18" r="F14">
         <v>73</v>
       </c>
-      <c t="s" s="15" r="F14">
+      <c t="s" s="18" r="G14">
         <v>74</v>
       </c>
-      <c t="s" s="15" r="G14">
+      <c t="s" s="18" r="H14">
         <v>75</v>
       </c>
-      <c t="s" s="15" r="H14">
+      <c t="s" s="18" r="I14">
         <v>76</v>
       </c>
-      <c t="s" s="15" r="I14">
+      <c t="s" s="18" r="J14">
         <v>77</v>
       </c>
-      <c t="s" s="15" r="J14">
+      <c t="s" s="18" r="K14">
         <v>78</v>
       </c>
-      <c t="s" s="15" r="K14">
+      <c t="s" s="18" r="L14">
         <v>79</v>
       </c>
-      <c t="s" s="15" r="L14">
+      <c t="s" s="18" r="M14">
         <v>80</v>
       </c>
-      <c t="s" s="15" r="M14">
+      <c t="s" s="18" r="N14">
         <v>81</v>
       </c>
-      <c t="s" s="15" r="N14">
+      <c t="s" s="18" r="O14">
         <v>82</v>
       </c>
-      <c t="s" s="15" r="O14">
+      <c t="s" s="18" r="P14">
         <v>83</v>
       </c>
-      <c t="s" s="15" r="P14">
+      <c t="s" s="18" r="Q14">
         <v>84</v>
       </c>
     </row>
     <row customHeight="1" r="15" ht="12.75">
-      <c s="15" r="D15"/>
-      <c s="15" r="E15"/>
-      <c s="15" r="F15"/>
-      <c s="15" r="G15"/>
-      <c s="15" r="H15"/>
-      <c s="15" r="I15"/>
-      <c s="15" r="J15"/>
-      <c s="15" r="K15"/>
-      <c s="15" r="L15"/>
-      <c s="15" r="M15"/>
-      <c s="15" r="N15"/>
-      <c s="15" r="O15"/>
-      <c t="s" s="15" r="P15">
+      <c s="18" r="E15"/>
+      <c s="18" r="F15"/>
+      <c s="18" r="G15"/>
+      <c s="18" r="H15"/>
+      <c s="18" r="I15"/>
+      <c s="18" r="J15"/>
+      <c s="18" r="K15"/>
+      <c s="18" r="L15"/>
+      <c s="18" r="M15"/>
+      <c s="18" r="N15"/>
+      <c s="18" r="O15"/>
+      <c s="18" r="P15"/>
+      <c t="s" s="18" r="Q15">
         <v>85</v>
       </c>
     </row>
     <row customHeight="1" r="16" ht="12.75">
-      <c t="s" s="16" r="A16">
+      <c t="s" s="19" r="A16">
         <v>86</v>
       </c>
-      <c t="s" s="11" r="B16">
+      <c t="s" s="12" r="B16">
         <v>87</v>
       </c>
-      <c t="s" s="16" r="C16">
+      <c s="13" r="C16">
+        <v>7.0</v>
+      </c>
+      <c t="s" s="19" r="D16">
         <v>88</v>
       </c>
-      <c t="s" s="12" r="D16">
+      <c t="s" s="14" r="E16">
         <v>89</v>
       </c>
-      <c t="s" s="12" r="E16">
+      <c t="s" s="14" r="F16">
         <v>90</v>
       </c>
-      <c t="s" s="12" r="F16">
+      <c t="s" s="14" r="G16">
         <v>91</v>
       </c>
-      <c t="s" s="12" r="G16">
+      <c t="s" s="14" r="H16">
         <v>92</v>
       </c>
-      <c s="12" r="H16"/>
-      <c s="12" r="I16"/>
-      <c s="12" r="J16"/>
-      <c s="12" r="K16"/>
-      <c s="12" r="L16"/>
-      <c s="12" r="M16"/>
-      <c s="12" r="N16"/>
-      <c s="12" r="O16"/>
-      <c s="4" r="P16"/>
+      <c s="14" r="I16"/>
+      <c s="14" r="J16"/>
+      <c s="14" r="K16"/>
+      <c s="14" r="L16"/>
+      <c s="14" r="M16"/>
+      <c s="14" r="N16"/>
+      <c s="14" r="O16"/>
+      <c s="14" r="P16"/>
+      <c s="5" r="Q16"/>
     </row>
     <row customHeight="1" r="17" ht="12.75">
-      <c t="s" s="17" r="A17">
+      <c t="s" s="20" r="A17">
         <v>93</v>
       </c>
-      <c t="s" s="14" r="B17">
+      <c t="s" s="16" r="B17">
         <v>94</v>
       </c>
-      <c t="s" s="17" r="C17">
+      <c s="17" r="C17">
+        <v>8.0</v>
+      </c>
+      <c t="s" s="20" r="D17">
         <v>95</v>
       </c>
-      <c t="s" s="18" r="D17">
+      <c t="s" s="21" r="E17">
         <v>96</v>
       </c>
-      <c t="s" s="18" r="E17">
+      <c t="s" s="21" r="F17">
         <v>97</v>
       </c>
-      <c t="s" s="18" r="F17">
+      <c t="s" s="21" r="G17">
         <v>98</v>
       </c>
-      <c t="s" s="18" r="G17">
+      <c t="s" s="21" r="H17">
         <v>99</v>
       </c>
-      <c t="s" s="18" r="H17">
+      <c t="s" s="21" r="I17">
         <v>100</v>
       </c>
-      <c t="s" s="18" r="I17">
+      <c t="s" s="21" r="J17">
         <v>101</v>
       </c>
-      <c t="s" s="18" r="J17">
+      <c t="s" s="21" r="K17">
         <v>102</v>
       </c>
-      <c t="s" s="18" r="K17">
+      <c t="s" s="21" r="L17">
         <v>103</v>
       </c>
-      <c t="s" s="18" r="L17">
+      <c t="s" s="21" r="M17">
         <v>104</v>
       </c>
-      <c t="s" s="18" r="M17">
+      <c t="s" s="21" r="N17">
         <v>105</v>
       </c>
-      <c t="s" s="18" r="N17">
+      <c t="s" s="21" r="O17">
         <v>106</v>
       </c>
-      <c t="s" s="18" r="O17">
+      <c t="s" s="21" r="P17">
         <v>107</v>
       </c>
-      <c t="s" s="18" r="P17">
+      <c t="s" s="21" r="Q17">
         <v>108</v>
       </c>
     </row>
     <row customHeight="1" r="18" ht="12.75">
-      <c t="s" s="18" r="D18">
+      <c t="s" s="21" r="E18">
         <v>109</v>
       </c>
-      <c t="s" s="18" r="E18">
+      <c t="s" s="21" r="F18">
         <v>110</v>
       </c>
-      <c t="s" s="18" r="F18">
+      <c t="s" s="21" r="G18">
         <v>111</v>
       </c>
-      <c t="s" s="18" r="G18">
+      <c t="s" s="21" r="H18">
         <v>112</v>
       </c>
-      <c t="s" s="19" r="H18">
+      <c t="s" s="22" r="I18">
         <v>113</v>
       </c>
-      <c t="s" s="19" r="I18">
+      <c t="s" s="22" r="J18">
         <v>114</v>
       </c>
-      <c t="s" s="19" r="J18">
+      <c t="s" s="22" r="K18">
         <v>115</v>
       </c>
-      <c t="s" s="19" r="K18">
+      <c t="s" s="22" r="L18">
         <v>116</v>
       </c>
-      <c t="s" s="19" r="L18">
+      <c t="s" s="22" r="M18">
         <v>117</v>
       </c>
-      <c t="s" s="19" r="M18">
+      <c t="s" s="22" r="N18">
         <v>118</v>
       </c>
-      <c t="s" s="19" r="N18">
+      <c t="s" s="22" r="O18">
         <v>119</v>
       </c>
-      <c t="s" s="19" r="O18">
+      <c t="s" s="22" r="P18">
         <v>120</v>
       </c>
-      <c t="s" s="18" r="P18">
+      <c t="s" s="21" r="Q18">
         <v>121</v>
       </c>
     </row>
     <row customHeight="1" r="19" ht="12.75">
-      <c t="s" s="10" r="A19">
+      <c t="s" s="11" r="A19">
         <v>122</v>
       </c>
-      <c t="s" s="11" r="B19">
+      <c t="s" s="12" r="B19">
         <v>123</v>
       </c>
-      <c t="s" s="10" r="C19">
+      <c s="13" r="C19">
+        <v>9.0</v>
+      </c>
+      <c t="s" s="11" r="D19">
         <v>124</v>
       </c>
-      <c t="s" s="20" r="D19">
+      <c t="s" s="23" r="E19">
         <v>125</v>
       </c>
-      <c t="s" s="20" r="E19">
+      <c t="s" s="23" r="F19">
         <v>126</v>
       </c>
-      <c t="s" s="20" r="F19">
+      <c t="s" s="23" r="G19">
         <v>127</v>
       </c>
-      <c t="s" s="20" r="G19">
+      <c t="s" s="23" r="H19">
         <v>128</v>
       </c>
-      <c t="s" s="20" r="H19">
+      <c t="s" s="23" r="I19">
         <v>129</v>
       </c>
-      <c t="s" s="20" r="I19">
+      <c t="s" s="23" r="J19">
         <v>130</v>
       </c>
-      <c t="s" s="20" r="J19">
+      <c t="s" s="23" r="K19">
         <v>131</v>
       </c>
-      <c t="s" s="20" r="K19">
+      <c t="s" s="23" r="L19">
         <v>132</v>
       </c>
-      <c t="s" s="20" r="L19">
+      <c t="s" s="23" r="M19">
         <v>133</v>
       </c>
-      <c t="s" s="20" r="M19">
+      <c t="s" s="23" r="N19">
         <v>134</v>
       </c>
-      <c t="s" s="20" r="N19">
+      <c t="s" s="23" r="O19">
         <v>135</v>
       </c>
-      <c t="s" s="20" r="O19">
+      <c t="s" s="23" r="P19">
         <v>136</v>
       </c>
-      <c t="s" s="21" r="P19">
+      <c t="s" s="24" r="Q19">
         <v>137</v>
       </c>
     </row>
     <row customHeight="1" r="20" ht="12.75">
-      <c t="s" s="20" r="D20">
+      <c t="s" s="23" r="E20">
         <v>138</v>
       </c>
-      <c t="s" s="20" r="E20">
+      <c t="s" s="23" r="F20">
         <v>139</v>
       </c>
-      <c t="s" s="20" r="F20">
+      <c t="s" s="23" r="G20">
         <v>140</v>
       </c>
-      <c t="s" s="20" r="G20">
+      <c t="s" s="23" r="H20">
         <v>141</v>
       </c>
-      <c t="s" s="20" r="H20">
+      <c t="s" s="23" r="I20">
         <v>142</v>
       </c>
-      <c t="s" s="20" r="I20">
+      <c t="s" s="23" r="J20">
         <v>143</v>
       </c>
-      <c t="s" s="20" r="J20">
+      <c t="s" s="23" r="K20">
         <v>144</v>
       </c>
-      <c t="s" s="20" r="K20">
+      <c t="s" s="23" r="L20">
         <v>145</v>
       </c>
-      <c t="s" s="20" r="L20">
+      <c t="s" s="23" r="M20">
         <v>146</v>
       </c>
-      <c t="s" s="20" r="M20">
+      <c t="s" s="23" r="N20">
         <v>147</v>
       </c>
-      <c t="s" s="20" r="N20">
+      <c t="s" s="23" r="O20">
         <v>148</v>
       </c>
-      <c t="s" s="20" r="O20">
+      <c t="s" s="23" r="P20">
         <v>149</v>
       </c>
-      <c t="s" s="12" r="P20">
+      <c t="s" s="14" r="Q20">
         <v>150</v>
       </c>
     </row>
     <row customHeight="1" r="21" ht="12.75">
-      <c t="s" s="17" r="A21">
+      <c t="s" s="20" r="A21">
         <v>151</v>
       </c>
-      <c t="s" s="14" r="B21">
+      <c t="s" s="16" r="B21">
         <v>152</v>
       </c>
-      <c t="s" s="17" r="C21">
+      <c s="17" r="C21">
+        <v>0.0</v>
+      </c>
+      <c t="s" s="20" r="D21">
         <v>153</v>
       </c>
-      <c t="s" s="18" r="D21">
+      <c t="s" s="21" r="E21">
         <v>154</v>
       </c>
-      <c t="s" s="18" r="E21">
+      <c t="s" s="21" r="F21">
         <v>155</v>
       </c>
-      <c t="s" s="18" r="F21">
+      <c t="s" s="21" r="G21">
         <v>156</v>
       </c>
-      <c t="s" s="18" r="G21">
+      <c t="s" s="21" r="H21">
         <v>157</v>
       </c>
-      <c t="s" s="18" r="H21">
+      <c t="s" s="21" r="I21">
         <v>158</v>
       </c>
-      <c t="s" s="18" r="I21">
+      <c t="s" s="21" r="J21">
         <v>159</v>
       </c>
-      <c t="s" s="18" r="J21">
+      <c t="s" s="21" r="K21">
         <v>160</v>
       </c>
-      <c t="s" s="18" r="K21">
+      <c t="s" s="21" r="L21">
         <v>161</v>
       </c>
-      <c t="s" s="18" r="L21">
+      <c t="s" s="21" r="M21">
         <v>162</v>
       </c>
-      <c t="s" s="18" r="M21">
+      <c t="s" s="21" r="N21">
         <v>163</v>
       </c>
-      <c t="s" s="18" r="N21">
+      <c t="s" s="21" r="O21">
         <v>164</v>
       </c>
-      <c t="s" s="18" r="O21">
+      <c t="s" s="21" r="P21">
         <v>165</v>
       </c>
-      <c t="s" s="18" r="P21">
+      <c t="s" s="21" r="Q21">
         <v>166</v>
       </c>
     </row>
     <row customHeight="1" r="22" ht="12.75">
-      <c t="s" s="18" r="D22">
+      <c t="s" s="21" r="E22">
         <v>167</v>
       </c>
-      <c t="s" s="18" r="E22">
+      <c t="s" s="21" r="F22">
         <v>168</v>
       </c>
-      <c t="s" s="18" r="F22">
+      <c t="s" s="21" r="G22">
         <v>169</v>
       </c>
-      <c t="s" s="18" r="G22">
+      <c t="s" s="21" r="H22">
         <v>170</v>
       </c>
-      <c t="s" s="18" r="H22">
+      <c t="s" s="21" r="I22">
         <v>171</v>
       </c>
-      <c t="s" s="18" r="I22">
+      <c t="s" s="21" r="J22">
         <v>172</v>
       </c>
-      <c t="s" s="18" r="J22">
+      <c t="s" s="21" r="K22">
         <v>173</v>
       </c>
-      <c t="s" s="18" r="K22">
+      <c t="s" s="21" r="L22">
         <v>174</v>
       </c>
-      <c t="s" s="18" r="L22">
+      <c t="s" s="21" r="M22">
         <v>175</v>
       </c>
-      <c t="s" s="18" r="M22">
+      <c t="s" s="21" r="N22">
         <v>176</v>
       </c>
-      <c t="s" s="18" r="N22">
+      <c t="s" s="21" r="O22">
         <v>177</v>
       </c>
-      <c t="s" s="18" r="O22">
+      <c t="s" s="21" r="P22">
         <v>178</v>
       </c>
-      <c t="s" s="18" r="P22">
+      <c t="s" s="21" r="Q22">
         <v>179</v>
       </c>
     </row>
     <row customHeight="1" r="23" ht="12.75">
-      <c s="18" r="D23"/>
-      <c s="18" r="E23"/>
-      <c s="18" r="F23"/>
-      <c s="18" r="G23"/>
-      <c s="18" r="H23"/>
-      <c s="18" r="I23"/>
-      <c s="18" r="J23"/>
-      <c s="18" r="K23"/>
-      <c s="18" r="L23"/>
-      <c s="18" r="M23"/>
-      <c s="18" r="N23"/>
-      <c s="18" r="O23"/>
-      <c t="s" s="18" r="P23">
+      <c s="21" r="E23"/>
+      <c s="21" r="F23"/>
+      <c s="21" r="G23"/>
+      <c s="21" r="H23"/>
+      <c s="21" r="I23"/>
+      <c s="21" r="J23"/>
+      <c s="21" r="K23"/>
+      <c s="21" r="L23"/>
+      <c s="21" r="M23"/>
+      <c s="21" r="N23"/>
+      <c s="21" r="O23"/>
+      <c s="21" r="P23"/>
+      <c t="s" s="21" r="Q23">
         <v>180</v>
       </c>
     </row>
     <row customHeight="1" r="24" ht="12.75">
-      <c s="18" r="D24"/>
-      <c s="18" r="E24"/>
-      <c s="18" r="F24"/>
-      <c s="18" r="G24"/>
-      <c s="18" r="H24"/>
-      <c s="18" r="I24"/>
-      <c s="18" r="J24"/>
-      <c s="18" r="K24"/>
-      <c s="18" r="L24"/>
-      <c s="18" r="M24"/>
-      <c s="18" r="N24"/>
-      <c s="18" r="O24"/>
-      <c t="s" s="15" r="P24">
+      <c s="21" r="E24"/>
+      <c s="21" r="F24"/>
+      <c s="21" r="G24"/>
+      <c s="21" r="H24"/>
+      <c s="21" r="I24"/>
+      <c s="21" r="J24"/>
+      <c s="21" r="K24"/>
+      <c s="21" r="L24"/>
+      <c s="21" r="M24"/>
+      <c s="21" r="N24"/>
+      <c s="21" r="O24"/>
+      <c s="21" r="P24"/>
+      <c t="s" s="18" r="Q24">
         <v>181</v>
       </c>
     </row>
     <row customHeight="1" r="25" ht="12.75">
-      <c t="s" s="10" r="A25">
+      <c t="s" s="11" r="A25">
         <v>182</v>
       </c>
-      <c t="s" s="11" r="B25">
+      <c t="s" s="12" r="B25">
         <v>183</v>
       </c>
-      <c t="s" s="10" r="C25">
+      <c s="13" r="C25">
+        <v>10.0</v>
+      </c>
+      <c t="s" s="11" r="D25">
         <v>184</v>
       </c>
-      <c t="s" s="20" r="D25">
+      <c t="s" s="23" r="E25">
         <v>185</v>
       </c>
-      <c t="s" s="20" r="E25">
+      <c t="s" s="23" r="F25">
         <v>186</v>
       </c>
-      <c t="s" s="20" r="F25">
+      <c t="s" s="23" r="G25">
         <v>187</v>
       </c>
-      <c t="s" s="20" r="G25">
+      <c t="s" s="23" r="H25">
         <v>188</v>
       </c>
-      <c t="s" s="20" r="H25">
+      <c t="s" s="23" r="I25">
         <v>189</v>
       </c>
-      <c t="s" s="20" r="I25">
+      <c t="s" s="23" r="J25">
         <v>190</v>
       </c>
-      <c t="s" s="20" r="J25">
+      <c t="s" s="23" r="K25">
         <v>191</v>
       </c>
-      <c t="s" s="20" r="K25">
+      <c t="s" s="23" r="L25">
         <v>192</v>
       </c>
-      <c t="s" s="20" r="L25">
+      <c t="s" s="23" r="M25">
         <v>193</v>
       </c>
-      <c t="s" s="20" r="M25">
+      <c t="s" s="23" r="N25">
         <v>194</v>
       </c>
-      <c t="s" s="20" r="N25">
+      <c t="s" s="23" r="O25">
         <v>195</v>
       </c>
-      <c t="s" s="20" r="O25">
+      <c t="s" s="23" r="P25">
         <v>196</v>
       </c>
-      <c t="s" s="21" r="P25">
+      <c t="s" s="24" r="Q25">
         <v>197</v>
       </c>
     </row>
     <row customHeight="1" r="26" ht="12.75">
-      <c t="s" s="20" r="D26">
+      <c t="s" s="23" r="E26">
         <v>198</v>
       </c>
-      <c t="s" s="20" r="E26">
+      <c t="s" s="23" r="F26">
         <v>199</v>
       </c>
-      <c t="s" s="20" r="F26">
+      <c t="s" s="23" r="G26">
         <v>200</v>
       </c>
-      <c t="s" s="20" r="G26">
+      <c t="s" s="23" r="H26">
         <v>201</v>
       </c>
-      <c t="s" s="20" r="H26">
+      <c t="s" s="23" r="I26">
         <v>202</v>
       </c>
-      <c t="s" s="20" r="I26">
+      <c t="s" s="23" r="J26">
         <v>203</v>
       </c>
-      <c t="s" s="20" r="J26">
+      <c t="s" s="23" r="K26">
         <v>204</v>
       </c>
-      <c t="s" s="20" r="K26">
+      <c t="s" s="23" r="L26">
         <v>205</v>
       </c>
-      <c t="s" s="20" r="L26">
+      <c t="s" s="23" r="M26">
         <v>206</v>
       </c>
-      <c t="s" s="20" r="M26">
+      <c t="s" s="23" r="N26">
         <v>207</v>
       </c>
-      <c t="s" s="20" r="N26">
+      <c t="s" s="23" r="O26">
         <v>208</v>
       </c>
-      <c t="s" s="20" r="O26">
+      <c t="s" s="23" r="P26">
         <v>209</v>
       </c>
-      <c t="s" s="21" r="P26">
+      <c t="s" s="24" r="Q26">
         <v>210</v>
       </c>
     </row>
     <row customHeight="1" r="27" ht="12.75">
-      <c s="20" r="D27"/>
-      <c s="20" r="E27"/>
-      <c s="20" r="F27"/>
-      <c s="20" r="G27"/>
-      <c s="20" r="H27"/>
-      <c s="20" r="I27"/>
-      <c s="20" r="J27"/>
-      <c s="20" r="K27"/>
-      <c s="20" r="L27"/>
-      <c s="20" r="M27"/>
-      <c s="20" r="N27"/>
-      <c s="20" r="O27"/>
-      <c t="s" s="21" r="P27">
+      <c s="23" r="E27"/>
+      <c s="23" r="F27"/>
+      <c s="23" r="G27"/>
+      <c s="23" r="H27"/>
+      <c s="23" r="I27"/>
+      <c s="23" r="J27"/>
+      <c s="23" r="K27"/>
+      <c s="23" r="L27"/>
+      <c s="23" r="M27"/>
+      <c s="23" r="N27"/>
+      <c s="23" r="O27"/>
+      <c s="23" r="P27"/>
+      <c t="s" s="24" r="Q27">
         <v>211</v>
       </c>
     </row>
     <row customHeight="1" r="28" ht="12.75">
-      <c s="20" r="D28"/>
-      <c s="20" r="E28"/>
-      <c s="20" r="F28"/>
-      <c s="20" r="G28"/>
-      <c s="20" r="H28"/>
-      <c s="20" r="I28"/>
-      <c s="20" r="J28"/>
-      <c s="20" r="K28"/>
-      <c s="20" r="L28"/>
-      <c s="20" r="M28"/>
-      <c s="20" r="N28"/>
-      <c s="20" r="O28"/>
-      <c t="s" s="12" r="P28">
+      <c s="23" r="E28"/>
+      <c s="23" r="F28"/>
+      <c s="23" r="G28"/>
+      <c s="23" r="H28"/>
+      <c s="23" r="I28"/>
+      <c s="23" r="J28"/>
+      <c s="23" r="K28"/>
+      <c s="23" r="L28"/>
+      <c s="23" r="M28"/>
+      <c s="23" r="N28"/>
+      <c s="23" r="O28"/>
+      <c s="23" r="P28"/>
+      <c t="s" s="14" r="Q28">
         <v>212</v>
       </c>
     </row>
     <row customHeight="1" r="29" ht="12.75">
-      <c t="s" s="17" r="A29">
+      <c t="s" s="20" r="A29">
         <v>213</v>
       </c>
-      <c t="s" s="14" r="B29">
+      <c t="s" s="16" r="B29">
         <v>214</v>
       </c>
-      <c t="s" s="17" r="C29">
+      <c s="17" r="C29">
+        <v>3.0</v>
+      </c>
+      <c t="s" s="20" r="D29">
         <v>215</v>
       </c>
-      <c t="s" s="15" r="D29">
+      <c t="s" s="18" r="E29">
         <v>216</v>
       </c>
-      <c t="s" s="19" r="E29">
+      <c t="s" s="22" r="F29">
         <v>217</v>
       </c>
-      <c t="s" s="19" r="F29">
+      <c t="s" s="22" r="G29">
         <v>218</v>
       </c>
-      <c t="s" s="19" r="G29">
+      <c t="s" s="22" r="H29">
         <v>219</v>
       </c>
-      <c t="s" s="19" r="H29">
+      <c t="s" s="22" r="I29">
         <v>220</v>
       </c>
-      <c t="s" s="19" r="I29">
+      <c t="s" s="22" r="J29">
         <v>221</v>
       </c>
-      <c t="s" s="19" r="J29">
+      <c t="s" s="22" r="K29">
         <v>222</v>
       </c>
-      <c t="s" s="19" r="K29">
+      <c t="s" s="22" r="L29">
         <v>223</v>
       </c>
-      <c t="s" s="19" r="L29">
+      <c t="s" s="22" r="M29">
         <v>224</v>
       </c>
-      <c t="s" s="19" r="M29">
+      <c t="s" s="22" r="N29">
         <v>225</v>
       </c>
-      <c t="s" s="19" r="N29">
+      <c t="s" s="22" r="O29">
         <v>226</v>
       </c>
-      <c t="s" s="19" r="O29">
+      <c t="s" s="22" r="P29">
         <v>227</v>
       </c>
-      <c t="s" s="19" r="P29">
+      <c t="s" s="22" r="Q29">
         <v>228</v>
       </c>
     </row>
     <row customHeight="1" r="30" ht="12.75">
-      <c s="15" r="D30"/>
-      <c t="s" s="19" r="E30">
+      <c s="18" r="E30"/>
+      <c t="s" s="22" r="F30">
         <v>229</v>
       </c>
-      <c t="s" s="19" r="F30">
+      <c t="s" s="22" r="G30">
         <v>230</v>
       </c>
-      <c t="s" s="19" r="G30">
+      <c t="s" s="22" r="H30">
         <v>231</v>
       </c>
-      <c t="s" s="19" r="H30">
+      <c t="s" s="22" r="I30">
         <v>232</v>
       </c>
-      <c t="s" s="19" r="I30">
+      <c t="s" s="22" r="J30">
         <v>233</v>
       </c>
-      <c t="s" s="19" r="J30">
+      <c t="s" s="22" r="K30">
         <v>234</v>
       </c>
-      <c t="s" s="19" r="K30">
+      <c t="s" s="22" r="L30">
         <v>235</v>
       </c>
-      <c t="s" s="19" r="L30">
+      <c t="s" s="22" r="M30">
         <v>236</v>
       </c>
-      <c t="s" s="19" r="M30">
+      <c t="s" s="22" r="N30">
         <v>237</v>
       </c>
-      <c t="s" s="19" r="N30">
+      <c t="s" s="22" r="O30">
         <v>238</v>
       </c>
-      <c t="s" s="19" r="O30">
+      <c t="s" s="22" r="P30">
         <v>239</v>
       </c>
-      <c t="s" s="15" r="P30">
+      <c t="s" s="18" r="Q30">
         <v>240</v>
       </c>
     </row>
     <row customHeight="1" r="31" ht="12.75">
-      <c t="s" s="10" r="A31">
+      <c t="s" s="11" r="A31">
         <v>241</v>
       </c>
-      <c t="s" s="11" r="B31">
+      <c t="s" s="12" r="B31">
         <v>242</v>
       </c>
-      <c t="s" s="10" r="C31">
+      <c s="13" r="C31">
+        <v>5.0</v>
+      </c>
+      <c t="s" s="11" r="D31">
         <v>243</v>
       </c>
-      <c t="s" s="12" r="D31">
+      <c t="s" s="14" r="E31">
         <v>244</v>
       </c>
-      <c t="s" s="22" r="E31">
+      <c t="s" s="25" r="F31">
         <v>245</v>
       </c>
-      <c t="s" s="22" r="F31">
+      <c t="s" s="25" r="G31">
         <v>246</v>
       </c>
-      <c t="s" s="22" r="G31">
+      <c t="s" s="25" r="H31">
         <v>247</v>
       </c>
-      <c t="s" s="22" r="H31">
+      <c t="s" s="25" r="I31">
         <v>248</v>
       </c>
-      <c t="s" s="22" r="I31">
+      <c t="s" s="25" r="J31">
         <v>249</v>
       </c>
-      <c t="s" s="22" r="J31">
+      <c t="s" s="25" r="K31">
         <v>250</v>
       </c>
-      <c t="s" s="22" r="K31">
+      <c t="s" s="25" r="L31">
         <v>251</v>
       </c>
-      <c t="s" s="22" r="L31">
+      <c t="s" s="25" r="M31">
         <v>252</v>
       </c>
-      <c t="s" s="22" r="M31">
+      <c t="s" s="25" r="N31">
         <v>253</v>
       </c>
-      <c t="s" s="22" r="N31">
+      <c t="s" s="25" r="O31">
         <v>254</v>
       </c>
-      <c t="s" s="22" r="O31">
+      <c t="s" s="25" r="P31">
         <v>255</v>
       </c>
-      <c t="s" s="23" r="P31">
+      <c t="s" s="26" r="Q31">
         <v>256</v>
       </c>
     </row>
     <row customHeight="1" r="32" ht="12.75">
-      <c s="12" r="D32"/>
-      <c t="s" s="22" r="E32">
+      <c s="14" r="E32"/>
+      <c t="s" s="25" r="F32">
         <v>257</v>
       </c>
-      <c t="s" s="22" r="F32">
+      <c t="s" s="25" r="G32">
         <v>258</v>
       </c>
-      <c t="s" s="22" r="G32">
+      <c t="s" s="25" r="H32">
         <v>259</v>
       </c>
-      <c t="s" s="22" r="H32">
+      <c t="s" s="25" r="I32">
         <v>260</v>
       </c>
-      <c t="s" s="22" r="I32">
+      <c t="s" s="25" r="J32">
         <v>261</v>
       </c>
-      <c t="s" s="22" r="J32">
+      <c t="s" s="25" r="K32">
         <v>262</v>
       </c>
-      <c t="s" s="22" r="K32">
+      <c t="s" s="25" r="L32">
         <v>263</v>
       </c>
-      <c t="s" s="22" r="L32">
+      <c t="s" s="25" r="M32">
         <v>264</v>
       </c>
-      <c t="s" s="22" r="M32">
+      <c t="s" s="25" r="N32">
         <v>265</v>
       </c>
-      <c t="s" s="22" r="N32">
+      <c t="s" s="25" r="O32">
         <v>266</v>
       </c>
-      <c t="s" s="22" r="O32">
+      <c t="s" s="25" r="P32">
         <v>267</v>
       </c>
-      <c t="s" s="12" r="P32">
+      <c t="s" s="14" r="Q32">
         <v>268</v>
       </c>
     </row>
     <row customHeight="1" r="33" ht="12.75">
-      <c t="s" s="17" r="A33">
+      <c t="s" s="20" r="A33">
         <v>269</v>
       </c>
-      <c t="s" s="14" r="B33">
+      <c t="s" s="16" r="B33">
         <v>270</v>
       </c>
-      <c t="s" s="17" r="C33">
+      <c s="17" r="C33">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="20" r="D33">
         <v>271</v>
       </c>
-      <c t="s" s="15" r="D33">
+      <c t="s" s="18" r="E33">
         <v>272</v>
       </c>
-      <c t="s" s="19" r="E33">
+      <c t="s" s="22" r="F33">
         <v>273</v>
       </c>
-      <c t="s" s="19" r="F33">
+      <c t="s" s="22" r="G33">
         <v>274</v>
       </c>
-      <c t="s" s="19" r="G33">
+      <c t="s" s="22" r="H33">
         <v>275</v>
       </c>
-      <c t="s" s="19" r="H33">
+      <c t="s" s="22" r="I33">
         <v>276</v>
       </c>
-      <c t="s" s="19" r="I33">
+      <c t="s" s="22" r="J33">
         <v>277</v>
       </c>
-      <c t="s" s="19" r="J33">
+      <c t="s" s="22" r="K33">
         <v>278</v>
       </c>
-      <c t="s" s="19" r="K33">
+      <c t="s" s="22" r="L33">
         <v>279</v>
       </c>
-      <c t="s" s="19" r="L33">
+      <c t="s" s="22" r="M33">
         <v>280</v>
       </c>
-      <c t="s" s="19" r="M33">
+      <c t="s" s="22" r="N33">
         <v>281</v>
       </c>
-      <c t="s" s="19" r="N33">
+      <c t="s" s="22" r="O33">
         <v>282</v>
       </c>
-      <c t="s" s="19" r="O33">
+      <c t="s" s="22" r="P33">
         <v>283</v>
       </c>
-      <c t="s" s="19" r="P33">
+      <c t="s" s="22" r="Q33">
         <v>284</v>
       </c>
     </row>
     <row customHeight="1" r="34" ht="12.75">
-      <c s="15" r="D34"/>
-      <c t="s" s="19" r="E34">
+      <c s="18" r="E34"/>
+      <c t="s" s="22" r="F34">
         <v>285</v>
       </c>
-      <c t="s" s="19" r="F34">
+      <c t="s" s="22" r="G34">
         <v>286</v>
       </c>
-      <c t="s" s="19" r="G34">
+      <c t="s" s="22" r="H34">
         <v>287</v>
       </c>
-      <c t="s" s="19" r="H34">
+      <c t="s" s="22" r="I34">
         <v>288</v>
       </c>
-      <c t="s" s="19" r="I34">
+      <c t="s" s="22" r="J34">
         <v>289</v>
       </c>
-      <c t="s" s="19" r="J34">
+      <c t="s" s="22" r="K34">
         <v>290</v>
       </c>
-      <c t="s" s="19" r="K34">
+      <c t="s" s="22" r="L34">
         <v>291</v>
       </c>
-      <c t="s" s="19" r="L34">
+      <c t="s" s="22" r="M34">
         <v>292</v>
       </c>
-      <c t="s" s="19" r="M34">
+      <c t="s" s="22" r="N34">
         <v>293</v>
       </c>
-      <c t="s" s="19" r="N34">
+      <c t="s" s="22" r="O34">
         <v>294</v>
       </c>
-      <c t="s" s="19" r="O34">
+      <c t="s" s="22" r="P34">
         <v>295</v>
       </c>
-      <c t="s" s="15" r="P34">
+      <c t="s" s="18" r="Q34">
         <v>296</v>
       </c>
     </row>
     <row customHeight="1" r="35" ht="12.75">
-      <c t="s" s="10" r="A35">
+      <c t="s" s="11" r="A35">
         <v>297</v>
       </c>
-      <c t="s" s="11" r="B35">
+      <c t="s" s="12" r="B35">
         <v>298</v>
       </c>
-      <c t="s" s="10" r="C35">
+      <c s="13" r="C35">
+        <v>6.0</v>
+      </c>
+      <c t="s" s="11" r="D35">
         <v>299</v>
       </c>
-      <c t="s" s="12" r="D35">
+      <c t="s" s="14" r="E35">
         <v>300</v>
       </c>
-      <c t="s" s="22" r="E35">
+      <c t="s" s="25" r="F35">
         <v>301</v>
       </c>
-      <c t="s" s="22" r="F35">
+      <c t="s" s="25" r="G35">
         <v>302</v>
       </c>
-      <c t="s" s="22" r="G35">
+      <c t="s" s="25" r="H35">
         <v>303</v>
       </c>
-      <c t="s" s="22" r="H35">
+      <c t="s" s="25" r="I35">
         <v>304</v>
       </c>
-      <c t="s" s="22" r="I35">
+      <c t="s" s="25" r="J35">
         <v>305</v>
       </c>
-      <c t="s" s="22" r="J35">
+      <c t="s" s="25" r="K35">
         <v>306</v>
       </c>
-      <c t="s" s="22" r="K35">
+      <c t="s" s="25" r="L35">
         <v>307</v>
       </c>
-      <c t="s" s="22" r="L35">
+      <c t="s" s="25" r="M35">
         <v>308</v>
       </c>
-      <c t="s" s="22" r="M35">
+      <c t="s" s="25" r="N35">
         <v>309</v>
       </c>
-      <c t="s" s="22" r="N35">
+      <c t="s" s="25" r="O35">
         <v>310</v>
       </c>
-      <c t="s" s="22" r="O35">
+      <c t="s" s="25" r="P35">
         <v>311</v>
       </c>
-      <c t="s" s="23" r="P35">
+      <c t="s" s="26" r="Q35">
         <v>312</v>
       </c>
     </row>
     <row customHeight="1" r="36" ht="12.75">
-      <c s="24" r="D36"/>
-      <c t="s" s="22" r="E36">
+      <c s="27" r="E36"/>
+      <c t="s" s="25" r="F36">
         <v>313</v>
       </c>
-      <c t="s" s="22" r="F36">
+      <c t="s" s="25" r="G36">
         <v>314</v>
       </c>
-      <c t="s" s="22" r="G36">
+      <c t="s" s="25" r="H36">
         <v>315</v>
       </c>
-      <c t="s" s="22" r="H36">
+      <c t="s" s="25" r="I36">
         <v>316</v>
       </c>
-      <c t="s" s="22" r="I36">
+      <c t="s" s="25" r="J36">
         <v>317</v>
       </c>
-      <c t="s" s="22" r="J36">
+      <c t="s" s="25" r="K36">
         <v>318</v>
       </c>
-      <c t="s" s="22" r="K36">
+      <c t="s" s="25" r="L36">
         <v>319</v>
       </c>
-      <c t="s" s="22" r="L36">
+      <c t="s" s="25" r="M36">
         <v>320</v>
       </c>
-      <c t="s" s="22" r="M36">
+      <c t="s" s="25" r="N36">
         <v>321</v>
       </c>
-      <c t="s" s="22" r="N36">
+      <c t="s" s="25" r="O36">
         <v>322</v>
       </c>
-      <c t="s" s="22" r="O36">
+      <c t="s" s="25" r="P36">
         <v>323</v>
       </c>
-      <c t="s" s="12" r="P36">
+      <c t="s" s="14" r="Q36">
         <v>324</v>
       </c>
     </row>
     <row customHeight="1" r="37" ht="12.75">
-      <c t="s" s="17" r="A37">
+      <c t="s" s="20" r="A37">
         <v>325</v>
       </c>
-      <c t="s" s="14" r="B37">
+      <c t="s" s="16" r="B37">
         <v>326</v>
       </c>
-      <c t="s" s="17" r="C37">
+      <c s="17" r="C37">
+        <v>13.0</v>
+      </c>
+      <c t="s" s="20" r="D37">
         <v>327</v>
       </c>
-      <c t="s" s="25" r="D37">
+      <c t="s" s="28" r="E37">
         <v>328</v>
       </c>
-      <c t="s" s="19" r="E37">
+      <c t="s" s="22" r="F37">
         <v>329</v>
       </c>
-      <c t="s" s="19" r="F37">
+      <c t="s" s="22" r="G37">
         <v>330</v>
       </c>
-      <c t="s" s="19" r="G37">
+      <c t="s" s="22" r="H37">
         <v>331</v>
       </c>
-      <c t="s" s="19" r="H37">
+      <c t="s" s="22" r="I37">
         <v>332</v>
       </c>
-      <c t="s" s="19" r="I37">
+      <c t="s" s="22" r="J37">
         <v>333</v>
       </c>
-      <c t="s" s="19" r="J37">
+      <c t="s" s="22" r="K37">
         <v>334</v>
       </c>
-      <c t="s" s="19" r="K37">
+      <c t="s" s="22" r="L37">
         <v>335</v>
       </c>
-      <c t="s" s="19" r="L37">
+      <c t="s" s="22" r="M37">
         <v>336</v>
       </c>
-      <c t="s" s="19" r="M37">
+      <c t="s" s="22" r="N37">
         <v>337</v>
       </c>
-      <c t="s" s="19" r="N37">
+      <c t="s" s="22" r="O37">
         <v>338</v>
       </c>
-      <c t="s" s="19" r="O37">
+      <c t="s" s="22" r="P37">
         <v>339</v>
       </c>
-      <c t="s" s="19" r="P37">
+      <c t="s" s="22" r="Q37">
         <v>340</v>
       </c>
     </row>
     <row customHeight="1" r="38" ht="12.75">
-      <c s="25" r="D38"/>
-      <c t="s" s="19" r="E38">
+      <c s="28" r="E38"/>
+      <c t="s" s="22" r="F38">
         <v>341</v>
       </c>
-      <c t="s" s="19" r="F38">
+      <c t="s" s="22" r="G38">
         <v>342</v>
       </c>
-      <c t="s" s="19" r="G38">
+      <c t="s" s="22" r="H38">
         <v>343</v>
       </c>
-      <c t="s" s="19" r="H38">
+      <c t="s" s="22" r="I38">
         <v>344</v>
       </c>
-      <c t="s" s="19" r="I38">
+      <c t="s" s="22" r="J38">
         <v>345</v>
       </c>
-      <c t="s" s="19" r="J38">
+      <c t="s" s="22" r="K38">
         <v>346</v>
       </c>
-      <c t="s" s="19" r="K38">
+      <c t="s" s="22" r="L38">
         <v>347</v>
       </c>
-      <c t="s" s="19" r="L38">
+      <c t="s" s="22" r="M38">
         <v>348</v>
       </c>
-      <c t="s" s="19" r="M38">
+      <c t="s" s="22" r="N38">
         <v>349</v>
       </c>
-      <c t="s" s="19" r="N38">
+      <c t="s" s="22" r="O38">
         <v>350</v>
       </c>
-      <c t="s" s="19" r="O38">
+      <c t="s" s="22" r="P38">
         <v>351</v>
       </c>
-      <c t="s" s="19" r="P38">
+      <c t="s" s="22" r="Q38">
         <v>352</v>
       </c>
     </row>
     <row customHeight="1" r="39" ht="12.75">
-      <c s="25" r="D39"/>
-      <c t="s" s="19" r="E39">
+      <c s="28" r="E39"/>
+      <c t="s" s="22" r="F39">
         <v>353</v>
       </c>
-      <c t="s" s="19" r="F39">
+      <c t="s" s="22" r="G39">
         <v>354</v>
       </c>
-      <c t="s" s="19" r="G39">
+      <c t="s" s="22" r="H39">
         <v>355</v>
       </c>
-      <c t="s" s="19" r="H39">
+      <c t="s" s="22" r="I39">
         <v>356</v>
       </c>
-      <c t="s" s="19" r="I39">
+      <c t="s" s="22" r="J39">
         <v>357</v>
       </c>
-      <c t="s" s="19" r="J39">
+      <c t="s" s="22" r="K39">
         <v>358</v>
       </c>
-      <c t="s" s="19" r="K39">
+      <c t="s" s="22" r="L39">
         <v>359</v>
       </c>
-      <c t="s" s="19" r="L39">
+      <c t="s" s="22" r="M39">
         <v>360</v>
       </c>
-      <c s="19" r="M39"/>
-      <c t="s" s="19" r="N39">
+      <c s="22" r="N39"/>
+      <c t="s" s="22" r="O39">
         <v>361</v>
       </c>
-      <c t="s" s="19" r="O39">
+      <c t="s" s="22" r="P39">
         <v>362</v>
       </c>
-      <c t="s" s="15" r="P39">
+      <c t="s" s="18" r="Q39">
         <v>363</v>
       </c>
     </row>
     <row customHeight="1" r="40" ht="12.75">
-      <c t="s" s="10" r="A40">
+      <c t="s" s="11" r="A40">
         <v>364</v>
       </c>
-      <c t="s" s="11" r="B40">
+      <c t="s" s="12" r="B40">
         <v>365</v>
       </c>
-      <c t="s" s="10" r="C40">
+      <c s="13" r="C40">
+        <v>11.0</v>
+      </c>
+      <c t="s" s="11" r="D40">
         <v>366</v>
       </c>
-      <c t="s" s="24" r="D40">
+      <c t="s" s="27" r="E40">
         <v>367</v>
       </c>
-      <c t="s" s="22" r="E40">
+      <c t="s" s="25" r="F40">
         <v>368</v>
       </c>
-      <c t="s" s="22" r="F40">
+      <c t="s" s="25" r="G40">
         <v>369</v>
       </c>
-      <c t="s" s="22" r="G40">
+      <c t="s" s="25" r="H40">
         <v>370</v>
       </c>
-      <c s="22" r="H40"/>
-      <c s="22" r="I40"/>
-      <c s="22" r="J40"/>
-      <c s="22" r="K40"/>
-      <c s="22" r="L40"/>
-      <c s="22" r="M40"/>
-      <c s="22" r="N40"/>
-      <c s="22" r="O40"/>
-      <c s="4" r="P40"/>
+      <c s="25" r="I40"/>
+      <c s="25" r="J40"/>
+      <c s="25" r="K40"/>
+      <c s="25" r="L40"/>
+      <c s="25" r="M40"/>
+      <c s="25" r="N40"/>
+      <c s="25" r="O40"/>
+      <c s="25" r="P40"/>
+      <c s="5" r="Q40"/>
     </row>
     <row customHeight="1" r="41" ht="12.75">
-      <c t="s" s="17" r="A41">
+      <c t="s" s="20" r="A41">
         <v>371</v>
       </c>
-      <c t="s" s="14" r="B41">
+      <c t="s" s="16" r="B41">
         <v>372</v>
       </c>
-      <c t="s" s="17" r="C41">
+      <c s="17" r="C41">
+        <v>12.0</v>
+      </c>
+      <c t="s" s="20" r="D41">
         <v>373</v>
       </c>
-      <c t="s" s="25" r="D41">
+      <c t="s" s="28" r="E41">
         <v>374</v>
       </c>
-      <c t="s" s="25" r="E41">
+      <c t="s" s="28" r="F41">
         <v>375</v>
       </c>
-      <c t="s" s="25" r="F41">
+      <c t="s" s="28" r="G41">
         <v>376</v>
       </c>
-      <c t="s" s="25" r="G41">
+      <c t="s" s="28" r="H41">
         <v>377</v>
       </c>
-      <c t="s" s="25" r="H41">
+      <c t="s" s="28" r="I41">
         <v>378</v>
       </c>
-      <c t="s" s="25" r="I41">
+      <c t="s" s="28" r="J41">
         <v>379</v>
       </c>
-      <c t="s" s="25" r="J41">
+      <c t="s" s="28" r="K41">
         <v>380</v>
       </c>
-      <c t="s" s="25" r="K41">
+      <c t="s" s="28" r="L41">
         <v>381</v>
       </c>
-      <c t="s" s="25" r="L41">
+      <c t="s" s="28" r="M41">
         <v>382</v>
       </c>
-      <c t="s" s="25" r="M41">
+      <c t="s" s="28" r="N41">
         <v>383</v>
       </c>
-      <c t="s" s="25" r="N41">
+      <c t="s" s="28" r="O41">
         <v>384</v>
       </c>
-      <c t="s" s="25" r="O41">
+      <c t="s" s="28" r="P41">
         <v>385</v>
       </c>
-      <c t="s" s="25" r="P41">
+      <c t="s" s="28" r="Q41">
         <v>386</v>
       </c>
     </row>
     <row customHeight="1" r="42" ht="12.75">
-      <c t="s" s="25" r="D42">
+      <c t="s" s="28" r="E42">
         <v>387</v>
       </c>
-      <c t="s" s="25" r="E42">
+      <c t="s" s="28" r="F42">
         <v>388</v>
       </c>
-      <c t="s" s="25" r="F42">
+      <c t="s" s="28" r="G42">
         <v>389</v>
       </c>
-      <c t="s" s="25" r="G42">
+      <c t="s" s="28" r="H42">
         <v>390</v>
       </c>
-      <c t="s" s="25" r="H42">
+      <c t="s" s="28" r="I42">
         <v>391</v>
       </c>
-      <c t="s" s="25" r="I42">
+      <c t="s" s="28" r="J42">
         <v>392</v>
       </c>
-      <c t="s" s="25" r="J42">
+      <c t="s" s="28" r="K42">
         <v>393</v>
       </c>
-      <c t="s" s="25" r="K42">
+      <c t="s" s="28" r="L42">
         <v>394</v>
       </c>
-      <c t="s" s="25" r="L42">
+      <c t="s" s="28" r="M42">
         <v>395</v>
       </c>
-      <c t="s" s="25" r="M42">
+      <c t="s" s="28" r="N42">
         <v>396</v>
       </c>
-      <c t="s" s="25" r="N42">
+      <c t="s" s="28" r="O42">
         <v>397</v>
       </c>
-      <c t="s" s="25" r="O42">
+      <c t="s" s="28" r="P42">
         <v>398</v>
       </c>
-      <c t="s" s="15" r="P42">
+      <c t="s" s="18" r="Q42">
         <v>399</v>
       </c>
     </row>
     <row customHeight="1" r="43" ht="12.75">
-      <c t="s" s="26" r="A43">
+      <c t="s" s="29" r="A43">
         <v>400</v>
       </c>
-      <c t="s" s="27" r="B43">
+      <c t="s" s="30" r="B43">
         <v>401</v>
       </c>
-      <c t="s" s="26" r="C43">
+      <c s="31" r="C43">
+        <v>14.0</v>
+      </c>
+      <c t="s" s="29" r="D43">
         <v>402</v>
       </c>
-      <c s="24" r="D43"/>
-      <c t="s" s="24" r="E43">
+      <c s="27" r="E43"/>
+      <c t="s" s="27" r="F43">
         <v>403</v>
       </c>
-      <c t="s" s="24" r="F43">
+      <c t="s" s="27" r="G43">
         <v>404</v>
       </c>
-      <c t="s" s="24" r="G43">
+      <c t="s" s="27" r="H43">
         <v>405</v>
       </c>
-      <c t="s" s="24" r="H43">
+      <c t="s" s="27" r="I43">
         <v>406</v>
       </c>
-      <c t="s" s="24" r="I43">
+      <c t="s" s="27" r="J43">
         <v>407</v>
       </c>
-      <c t="s" s="24" r="J43">
+      <c t="s" s="27" r="K43">
         <v>408</v>
       </c>
-      <c t="s" s="24" r="K43">
+      <c t="s" s="27" r="L43">
         <v>409</v>
       </c>
-      <c t="s" s="24" r="L43">
+      <c t="s" s="27" r="M43">
         <v>410</v>
       </c>
-      <c t="s" s="24" r="M43">
+      <c t="s" s="27" r="N43">
         <v>411</v>
       </c>
-      <c t="s" s="24" r="N43">
+      <c t="s" s="27" r="O43">
         <v>412</v>
       </c>
-      <c t="s" s="24" r="O43">
+      <c t="s" s="27" r="P43">
         <v>413</v>
       </c>
-      <c t="s" s="7" r="P43">
+      <c t="s" s="8" r="Q43">
         <v>414</v>
       </c>
     </row>
     <row customHeight="1" r="44" ht="12.75">
-      <c s="24" r="D44"/>
-      <c t="s" s="24" r="E44">
+      <c s="27" r="E44"/>
+      <c t="s" s="27" r="F44">
         <v>415</v>
       </c>
-      <c t="s" s="24" r="F44">
+      <c t="s" s="27" r="G44">
         <v>416</v>
       </c>
-      <c t="s" s="24" r="G44">
+      <c t="s" s="27" r="H44">
         <v>417</v>
       </c>
-      <c t="s" s="24" r="H44">
+      <c t="s" s="27" r="I44">
         <v>418</v>
       </c>
-      <c t="s" s="24" r="I44">
+      <c t="s" s="27" r="J44">
         <v>419</v>
       </c>
-      <c t="s" s="24" r="J44">
+      <c t="s" s="27" r="K44">
         <v>420</v>
       </c>
-      <c t="s" s="24" r="K44">
+      <c t="s" s="27" r="L44">
         <v>421</v>
       </c>
-      <c t="s" s="24" r="L44">
+      <c t="s" s="27" r="M44">
         <v>422</v>
       </c>
-      <c t="s" s="24" r="M44">
+      <c t="s" s="27" r="N44">
         <v>423</v>
       </c>
-      <c t="s" s="24" r="N44">
+      <c t="s" s="27" r="O44">
         <v>424</v>
       </c>
-      <c t="s" s="24" r="O44">
+      <c t="s" s="27" r="P44">
         <v>425</v>
       </c>
-      <c t="s" s="12" r="P44">
+      <c t="s" s="14" r="Q44">
         <v>426</v>
       </c>
     </row>
     <row customHeight="1" r="45" ht="12.75">
-      <c t="s" s="13" r="A45">
+      <c t="s" s="15" r="A45">
         <v>427</v>
       </c>
-      <c t="s" s="14" r="B45">
+      <c t="s" s="16" r="B45">
         <v>428</v>
       </c>
-      <c t="s" s="13" r="C45">
+      <c s="17" r="C45">
+        <v>0.0</v>
+      </c>
+      <c t="s" s="15" r="D45">
         <v>429</v>
       </c>
-      <c t="s" s="25" r="D45">
+      <c t="s" s="28" r="E45">
         <v>430</v>
       </c>
-      <c t="s" s="25" r="E45">
+      <c t="s" s="28" r="F45">
         <v>431</v>
       </c>
-      <c t="s" s="25" r="F45">
+      <c t="s" s="28" r="G45">
         <v>432</v>
       </c>
-      <c t="s" s="25" r="G45">
+      <c t="s" s="28" r="H45">
         <v>433</v>
       </c>
-      <c t="s" s="25" r="H45">
+      <c t="s" s="28" r="I45">
         <v>434</v>
       </c>
-      <c t="s" s="25" r="I45">
+      <c t="s" s="28" r="J45">
         <v>435</v>
       </c>
-      <c t="s" s="25" r="J45">
+      <c t="s" s="28" r="K45">
         <v>436</v>
       </c>
-      <c t="s" s="25" r="K45">
+      <c t="s" s="28" r="L45">
         <v>437</v>
       </c>
-      <c t="s" s="25" r="L45">
+      <c t="s" s="28" r="M45">
         <v>438</v>
       </c>
-      <c s="25" r="M45"/>
-      <c t="s" s="25" r="N45">
+      <c s="28" r="N45"/>
+      <c t="s" s="28" r="O45">
         <v>439</v>
       </c>
-      <c t="s" s="25" r="O45">
+      <c t="s" s="28" r="P45">
         <v>440</v>
       </c>
-      <c s="28" r="P45"/>
+      <c s="32" r="Q45"/>
     </row>
     <row customHeight="1" r="46" ht="12.75">
-      <c t="s" s="25" r="D46">
+      <c t="s" s="28" r="E46">
         <v>441</v>
       </c>
-      <c t="s" s="25" r="E46">
+      <c t="s" s="28" r="F46">
         <v>442</v>
       </c>
-      <c t="s" s="25" r="F46">
+      <c t="s" s="28" r="G46">
         <v>443</v>
       </c>
-      <c t="s" s="25" r="G46">
+      <c t="s" s="28" r="H46">
         <v>444</v>
       </c>
-      <c t="s" s="25" r="H46">
+      <c t="s" s="28" r="I46">
         <v>445</v>
       </c>
-      <c t="s" s="25" r="I46">
+      <c t="s" s="28" r="J46">
         <v>446</v>
       </c>
-      <c t="s" s="25" r="J46">
+      <c t="s" s="28" r="K46">
         <v>447</v>
       </c>
-      <c t="s" s="25" r="K46">
+      <c t="s" s="28" r="L46">
         <v>448</v>
       </c>
-      <c t="s" s="25" r="L46">
+      <c t="s" s="28" r="M46">
         <v>449</v>
       </c>
-      <c s="19" r="M46"/>
-      <c t="s" s="25" r="N46">
+      <c s="22" r="N46"/>
+      <c t="s" s="28" r="O46">
         <v>450</v>
       </c>
-      <c t="s" s="25" r="O46">
+      <c t="s" s="28" r="P46">
         <v>451</v>
       </c>
-      <c s="28" r="P46"/>
+      <c s="32" r="Q46"/>
     </row>
     <row customHeight="1" r="47" ht="13.5">
-      <c t="s" s="26" r="A47">
+      <c t="s" s="29" r="A47">
         <v>452</v>
       </c>
-      <c t="s" s="27" r="B47">
+      <c t="s" s="30" r="B47">
         <v>453</v>
       </c>
-      <c t="s" s="26" r="C47">
+      <c s="31" r="C47">
+        <v>0.0</v>
+      </c>
+      <c t="s" s="29" r="D47">
         <v>454</v>
       </c>
-      <c s="24" r="D47"/>
-      <c t="s" s="24" r="E47">
+      <c s="27" r="E47"/>
+      <c t="s" s="27" r="F47">
         <v>455</v>
       </c>
-      <c t="s" s="24" r="F47">
+      <c t="s" s="27" r="G47">
         <v>456</v>
       </c>
-      <c t="s" s="24" r="G47">
+      <c t="s" s="27" r="H47">
         <v>457</v>
       </c>
-      <c t="s" s="24" r="H47">
+      <c t="s" s="27" r="I47">
         <v>458</v>
       </c>
-      <c t="s" s="24" r="I47">
+      <c t="s" s="27" r="J47">
         <v>459</v>
       </c>
-      <c t="s" s="24" r="J47">
+      <c t="s" s="27" r="K47">
         <v>460</v>
       </c>
-      <c t="s" s="24" r="K47">
+      <c t="s" s="27" r="L47">
         <v>461</v>
       </c>
-      <c t="s" s="24" r="L47">
+      <c t="s" s="27" r="M47">
         <v>462</v>
       </c>
-      <c t="s" s="24" r="M47">
+      <c t="s" s="27" r="N47">
         <v>463</v>
       </c>
-      <c t="s" s="24" r="N47">
+      <c t="s" s="27" r="O47">
         <v>464</v>
       </c>
-      <c t="s" s="24" r="O47">
+      <c t="s" s="27" r="P47">
         <v>465</v>
       </c>
-      <c t="s" s="7" r="P47">
+      <c t="s" s="8" r="Q47">
         <v>466</v>
       </c>
     </row>
     <row customHeight="1" r="48" ht="12.75">
-      <c s="24" r="D48"/>
-      <c t="s" s="22" r="E48">
+      <c s="27" r="E48"/>
+      <c t="s" s="25" r="F48">
         <v>467</v>
       </c>
-      <c t="s" s="22" r="F48">
+      <c t="s" s="25" r="G48">
         <v>468</v>
       </c>
-      <c t="s" s="22" r="G48">
+      <c t="s" s="25" r="H48">
         <v>469</v>
       </c>
-      <c t="s" s="22" r="H48">
+      <c t="s" s="25" r="I48">
         <v>470</v>
       </c>
-      <c t="s" s="22" r="I48">
+      <c t="s" s="25" r="J48">
         <v>471</v>
       </c>
-      <c t="s" s="22" r="J48">
+      <c t="s" s="25" r="K48">
         <v>472</v>
       </c>
-      <c t="s" s="22" r="K48">
+      <c t="s" s="25" r="L48">
         <v>473</v>
       </c>
-      <c t="s" s="22" r="L48">
+      <c t="s" s="25" r="M48">
         <v>474</v>
       </c>
-      <c t="s" s="22" r="M48">
+      <c t="s" s="25" r="N48">
         <v>475</v>
       </c>
-      <c t="s" s="22" r="N48">
+      <c t="s" s="25" r="O48">
         <v>476</v>
       </c>
-      <c t="s" s="22" r="O48">
+      <c t="s" s="25" r="P48">
         <v>477</v>
       </c>
-      <c t="s" s="12" r="P48">
+      <c t="s" s="14" r="Q48">
         <v>478</v>
       </c>
     </row>
     <row customHeight="1" r="49" ht="12.75">
-      <c s="29" r="A49"/>
+      <c s="33" r="A49"/>
     </row>
     <row customHeight="1" r="50" ht="12.75">
-      <c t="s" s="30" r="A50">
+      <c t="s" s="34" r="A50">
         <v>479</v>
       </c>
-      <c s="31" r="B50"/>
-      <c s="1" r="C50"/>
+      <c s="35" r="B50"/>
+      <c s="36" r="C50"/>
       <c s="1" r="D50"/>
       <c s="1" r="E50"/>
       <c s="1" r="F50"/>
@@ -4120,875 +4205,912 @@
       <c s="1" r="N50"/>
       <c s="1" r="O50"/>
       <c s="1" r="P50"/>
+      <c s="1" r="Q50"/>
     </row>
     <row customHeight="1" r="51" ht="12.75">
-      <c s="24" r="A51"/>
-      <c s="32" r="B51"/>
-      <c s="24" r="C51"/>
-      <c t="s" s="1" r="D51">
+      <c s="27" r="A51"/>
+      <c s="37" r="B51"/>
+      <c s="38" r="C51"/>
+      <c s="27" r="D51"/>
+      <c t="s" s="1" r="E51">
         <v>480</v>
       </c>
-      <c t="s" s="1" r="E51">
+      <c t="s" s="1" r="F51">
         <v>481</v>
       </c>
-      <c t="s" s="1" r="F51">
+      <c t="s" s="1" r="G51">
         <v>482</v>
       </c>
-      <c t="s" s="1" r="G51">
+      <c t="s" s="1" r="H51">
         <v>483</v>
       </c>
-      <c t="s" s="1" r="H51">
+      <c t="s" s="1" r="I51">
         <v>484</v>
       </c>
-      <c t="s" s="1" r="I51">
+      <c t="s" s="1" r="J51">
         <v>485</v>
       </c>
-      <c t="s" s="1" r="J51">
+      <c t="s" s="1" r="K51">
         <v>486</v>
       </c>
-      <c t="s" s="1" r="K51">
+      <c t="s" s="1" r="L51">
         <v>487</v>
       </c>
-      <c t="s" s="1" r="L51">
+      <c t="s" s="1" r="M51">
         <v>488</v>
       </c>
-      <c t="s" s="1" r="M51">
+      <c t="s" s="1" r="N51">
         <v>489</v>
       </c>
-      <c t="s" s="1" r="N51">
+      <c t="s" s="1" r="O51">
         <v>490</v>
       </c>
-      <c t="s" s="1" r="O51">
+      <c t="s" s="1" r="P51">
         <v>491</v>
       </c>
-      <c t="s" s="12" r="P51">
+      <c t="s" s="14" r="Q51">
         <v>492</v>
       </c>
     </row>
     <row customHeight="1" r="52" ht="12.75">
-      <c s="24" r="A52"/>
-      <c s="32" r="B52"/>
-      <c s="24" r="C52"/>
-      <c t="s" s="1" r="D52">
+      <c s="27" r="A52"/>
+      <c s="37" r="B52"/>
+      <c s="38" r="C52"/>
+      <c s="27" r="D52"/>
+      <c t="s" s="1" r="E52">
         <v>493</v>
       </c>
-      <c s="22" r="E52"/>
-      <c s="22" r="F52"/>
-      <c s="22" r="G52"/>
-      <c t="s" s="1" r="H52">
+      <c s="25" r="F52"/>
+      <c s="25" r="G52"/>
+      <c s="25" r="H52"/>
+      <c t="s" s="1" r="I52">
         <v>494</v>
       </c>
-      <c t="s" s="1" r="I52">
+      <c t="s" s="1" r="J52">
         <v>495</v>
       </c>
-      <c t="s" s="1" r="J52">
+      <c t="s" s="1" r="K52">
         <v>496</v>
       </c>
-      <c t="s" s="1" r="K52">
+      <c t="s" s="1" r="L52">
         <v>497</v>
       </c>
-      <c t="s" s="1" r="L52">
+      <c t="s" s="1" r="M52">
         <v>498</v>
       </c>
-      <c t="s" s="1" r="M52">
+      <c t="s" s="1" r="N52">
         <v>499</v>
       </c>
-      <c s="22" r="N52"/>
-      <c t="s" s="1" r="O52">
+      <c s="25" r="O52"/>
+      <c t="s" s="1" r="P52">
         <v>500</v>
       </c>
-      <c t="s" s="12" r="P52">
+      <c t="s" s="14" r="Q52">
         <v>501</v>
       </c>
     </row>
     <row customHeight="1" r="53" ht="12.75">
-      <c s="24" r="A53"/>
-      <c s="32" r="B53"/>
-      <c s="24" r="C53"/>
-      <c t="s" s="1" r="D53">
+      <c s="27" r="A53"/>
+      <c s="37" r="B53"/>
+      <c s="38" r="C53"/>
+      <c s="27" r="D53"/>
+      <c t="s" s="1" r="E53">
         <v>502</v>
       </c>
-      <c s="22" r="E53"/>
-      <c s="22" r="F53"/>
-      <c s="22" r="G53"/>
-      <c t="s" s="1" r="H53">
+      <c s="25" r="F53"/>
+      <c s="25" r="G53"/>
+      <c s="25" r="H53"/>
+      <c t="s" s="1" r="I53">
         <v>503</v>
       </c>
-      <c t="s" s="1" r="I53">
+      <c t="s" s="1" r="J53">
         <v>504</v>
       </c>
-      <c t="s" s="1" r="J53">
+      <c t="s" s="1" r="K53">
         <v>505</v>
       </c>
-      <c t="s" s="1" r="K53">
+      <c t="s" s="1" r="L53">
         <v>506</v>
       </c>
-      <c s="22" r="L53"/>
-      <c t="s" s="1" r="M53">
+      <c s="25" r="M53"/>
+      <c t="s" s="1" r="N53">
         <v>507</v>
       </c>
-      <c s="22" r="N53"/>
-      <c t="s" s="1" r="O53">
+      <c s="25" r="O53"/>
+      <c t="s" s="1" r="P53">
         <v>508</v>
       </c>
-      <c t="s" s="12" r="P53">
+      <c t="s" s="14" r="Q53">
         <v>509</v>
       </c>
     </row>
     <row customHeight="1" r="54" ht="12.75">
-      <c s="24" r="A54"/>
-      <c s="32" r="B54"/>
-      <c s="24" r="C54"/>
-      <c t="s" s="1" r="D54">
+      <c s="27" r="A54"/>
+      <c s="37" r="B54"/>
+      <c s="38" r="C54"/>
+      <c s="27" r="D54"/>
+      <c t="s" s="1" r="E54">
         <v>510</v>
       </c>
-      <c s="22" r="E54"/>
-      <c s="22" r="F54"/>
-      <c s="22" r="G54"/>
-      <c t="s" s="22" r="H54">
+      <c s="25" r="F54"/>
+      <c s="25" r="G54"/>
+      <c s="25" r="H54"/>
+      <c t="s" s="25" r="I54">
         <v>511</v>
       </c>
-      <c t="s" s="22" r="I54">
+      <c t="s" s="25" r="J54">
         <v>512</v>
       </c>
-      <c t="s" s="1" r="J54">
+      <c t="s" s="1" r="K54">
         <v>513</v>
       </c>
-      <c t="s" s="1" r="K54">
+      <c t="s" s="1" r="L54">
         <v>514</v>
       </c>
-      <c s="22" r="L54"/>
-      <c t="s" s="1" r="M54">
+      <c s="25" r="M54"/>
+      <c t="s" s="1" r="N54">
         <v>515</v>
       </c>
-      <c s="22" r="N54"/>
-      <c s="22" r="O54"/>
-      <c s="4" r="P54"/>
+      <c s="25" r="O54"/>
+      <c s="25" r="P54"/>
+      <c s="5" r="Q54"/>
     </row>
     <row customHeight="1" r="55" ht="12.75">
-      <c s="24" r="A55"/>
-      <c s="32" r="B55"/>
-      <c s="24" r="C55"/>
-      <c t="s" s="1" r="D55">
+      <c s="27" r="A55"/>
+      <c s="37" r="B55"/>
+      <c s="38" r="C55"/>
+      <c s="27" r="D55"/>
+      <c t="s" s="1" r="E55">
         <v>516</v>
       </c>
-      <c s="22" r="E55"/>
-      <c s="22" r="F55"/>
-      <c s="22" r="G55"/>
-      <c t="s" s="1" r="H55">
+      <c s="25" r="F55"/>
+      <c s="25" r="G55"/>
+      <c s="25" r="H55"/>
+      <c t="s" s="1" r="I55">
         <v>517</v>
       </c>
-      <c t="s" s="1" r="I55">
+      <c t="s" s="1" r="J55">
         <v>518</v>
       </c>
-      <c t="s" s="1" r="J55">
+      <c t="s" s="1" r="K55">
         <v>519</v>
       </c>
-      <c t="s" s="1" r="K55">
+      <c t="s" s="1" r="L55">
         <v>520</v>
       </c>
-      <c s="22" r="L55"/>
-      <c t="s" s="1" r="M55">
+      <c s="25" r="M55"/>
+      <c t="s" s="1" r="N55">
         <v>521</v>
       </c>
-      <c s="22" r="N55"/>
-      <c s="22" r="O55"/>
-      <c s="4" r="P55"/>
+      <c s="25" r="O55"/>
+      <c s="25" r="P55"/>
+      <c s="5" r="Q55"/>
     </row>
     <row customHeight="1" r="56" ht="12.75">
-      <c s="24" r="A56"/>
-      <c s="32" r="B56"/>
-      <c s="24" r="C56"/>
-      <c s="24" r="D56"/>
-      <c s="22" r="E56"/>
-      <c s="22" r="F56"/>
-      <c s="22" r="G56"/>
-      <c t="s" s="1" r="H56">
+      <c s="27" r="A56"/>
+      <c s="37" r="B56"/>
+      <c s="38" r="C56"/>
+      <c s="27" r="D56"/>
+      <c s="27" r="E56"/>
+      <c s="25" r="F56"/>
+      <c s="25" r="G56"/>
+      <c s="25" r="H56"/>
+      <c t="s" s="1" r="I56">
         <v>522</v>
       </c>
-      <c t="s" s="1" r="I56">
+      <c t="s" s="1" r="J56">
         <v>523</v>
       </c>
-      <c t="s" s="1" r="J56">
+      <c t="s" s="1" r="K56">
         <v>524</v>
       </c>
-      <c s="22" r="K56"/>
-      <c s="22" r="L56"/>
-      <c t="s" s="1" r="M56">
+      <c s="25" r="L56"/>
+      <c s="25" r="M56"/>
+      <c t="s" s="1" r="N56">
         <v>525</v>
       </c>
-      <c s="22" r="N56"/>
-      <c s="22" r="O56"/>
-      <c s="4" r="P56"/>
+      <c s="25" r="O56"/>
+      <c s="25" r="P56"/>
+      <c s="5" r="Q56"/>
     </row>
     <row customHeight="1" r="57" ht="12.75">
-      <c s="24" r="A57"/>
-      <c s="32" r="B57"/>
-      <c s="24" r="C57"/>
-      <c s="24" r="D57"/>
-      <c s="22" r="E57"/>
-      <c s="22" r="F57"/>
-      <c s="22" r="G57"/>
-      <c t="s" s="1" r="H57">
+      <c s="27" r="A57"/>
+      <c s="37" r="B57"/>
+      <c s="38" r="C57"/>
+      <c s="27" r="D57"/>
+      <c s="27" r="E57"/>
+      <c s="25" r="F57"/>
+      <c s="25" r="G57"/>
+      <c s="25" r="H57"/>
+      <c t="s" s="1" r="I57">
         <v>526</v>
       </c>
-      <c t="s" s="1" r="I57">
+      <c t="s" s="1" r="J57">
         <v>527</v>
       </c>
-      <c s="22" r="J57"/>
-      <c s="22" r="K57"/>
-      <c s="22" r="L57"/>
-      <c t="s" s="1" r="M57">
+      <c s="25" r="K57"/>
+      <c s="25" r="L57"/>
+      <c s="25" r="M57"/>
+      <c t="s" s="1" r="N57">
         <v>528</v>
       </c>
-      <c s="22" r="N57"/>
-      <c s="22" r="O57"/>
-      <c s="4" r="P57"/>
+      <c s="25" r="O57"/>
+      <c s="25" r="P57"/>
+      <c s="5" r="Q57"/>
     </row>
     <row customHeight="1" r="58" ht="12.75">
-      <c s="24" r="A58"/>
-      <c s="32" r="B58"/>
-      <c s="24" r="C58"/>
-      <c s="24" r="D58"/>
-      <c s="22" r="E58"/>
-      <c s="22" r="F58"/>
-      <c s="22" r="G58"/>
-      <c s="22" r="H58"/>
-      <c s="22" r="I58"/>
-      <c s="22" r="J58"/>
-      <c s="22" r="K58"/>
-      <c s="22" r="L58"/>
-      <c s="22" r="M58"/>
-      <c s="22" r="N58"/>
-      <c s="22" r="O58"/>
-      <c s="4" r="P58"/>
+      <c s="27" r="A58"/>
+      <c s="37" r="B58"/>
+      <c s="38" r="C58"/>
+      <c s="27" r="D58"/>
+      <c s="27" r="E58"/>
+      <c s="25" r="F58"/>
+      <c s="25" r="G58"/>
+      <c s="25" r="H58"/>
+      <c s="25" r="I58"/>
+      <c s="25" r="J58"/>
+      <c s="25" r="K58"/>
+      <c s="25" r="L58"/>
+      <c s="25" r="M58"/>
+      <c s="25" r="N58"/>
+      <c s="25" r="O58"/>
+      <c s="25" r="P58"/>
+      <c s="5" r="Q58"/>
     </row>
     <row customHeight="1" r="59" ht="12.75">
-      <c s="24" r="A59"/>
-      <c s="32" r="B59"/>
-      <c s="24" r="C59"/>
-      <c s="24" r="D59"/>
-      <c s="22" r="E59"/>
-      <c s="22" r="F59"/>
-      <c s="22" r="G59"/>
-      <c s="22" r="H59"/>
-      <c s="22" r="I59"/>
-      <c s="22" r="J59"/>
-      <c s="22" r="K59"/>
-      <c s="22" r="L59"/>
-      <c s="22" r="M59"/>
-      <c s="22" r="N59"/>
-      <c s="22" r="O59"/>
-      <c s="4" r="P59"/>
+      <c s="27" r="A59"/>
+      <c s="37" r="B59"/>
+      <c s="38" r="C59"/>
+      <c s="27" r="D59"/>
+      <c s="27" r="E59"/>
+      <c s="25" r="F59"/>
+      <c s="25" r="G59"/>
+      <c s="25" r="H59"/>
+      <c s="25" r="I59"/>
+      <c s="25" r="J59"/>
+      <c s="25" r="K59"/>
+      <c s="25" r="L59"/>
+      <c s="25" r="M59"/>
+      <c s="25" r="N59"/>
+      <c s="25" r="O59"/>
+      <c s="25" r="P59"/>
+      <c s="5" r="Q59"/>
     </row>
     <row customHeight="1" r="60" ht="12.75">
-      <c s="24" r="A60"/>
-      <c s="32" r="B60"/>
-      <c s="24" r="C60"/>
-      <c s="24" r="D60"/>
-      <c s="22" r="E60"/>
-      <c s="22" r="F60"/>
-      <c s="22" r="G60"/>
-      <c s="22" r="H60"/>
-      <c s="22" r="I60"/>
-      <c s="22" r="J60"/>
-      <c s="22" r="K60"/>
-      <c s="22" r="L60"/>
-      <c s="22" r="M60"/>
-      <c s="22" r="N60"/>
-      <c s="22" r="O60"/>
-      <c s="4" r="P60"/>
+      <c s="27" r="A60"/>
+      <c s="37" r="B60"/>
+      <c s="38" r="C60"/>
+      <c s="27" r="D60"/>
+      <c s="27" r="E60"/>
+      <c s="25" r="F60"/>
+      <c s="25" r="G60"/>
+      <c s="25" r="H60"/>
+      <c s="25" r="I60"/>
+      <c s="25" r="J60"/>
+      <c s="25" r="K60"/>
+      <c s="25" r="L60"/>
+      <c s="25" r="M60"/>
+      <c s="25" r="N60"/>
+      <c s="25" r="O60"/>
+      <c s="25" r="P60"/>
+      <c s="5" r="Q60"/>
     </row>
     <row customHeight="1" r="61" ht="12.75">
-      <c s="24" r="A61"/>
-      <c s="32" r="B61"/>
-      <c s="24" r="C61"/>
-      <c s="24" r="D61"/>
-      <c s="22" r="E61"/>
-      <c s="22" r="F61"/>
-      <c s="22" r="G61"/>
-      <c s="22" r="H61"/>
-      <c s="22" r="I61"/>
-      <c s="22" r="J61"/>
-      <c s="22" r="K61"/>
-      <c s="22" r="L61"/>
-      <c s="22" r="M61"/>
-      <c s="22" r="N61"/>
-      <c s="22" r="O61"/>
-      <c s="4" r="P61"/>
+      <c s="27" r="A61"/>
+      <c s="37" r="B61"/>
+      <c s="38" r="C61"/>
+      <c s="27" r="D61"/>
+      <c s="27" r="E61"/>
+      <c s="25" r="F61"/>
+      <c s="25" r="G61"/>
+      <c s="25" r="H61"/>
+      <c s="25" r="I61"/>
+      <c s="25" r="J61"/>
+      <c s="25" r="K61"/>
+      <c s="25" r="L61"/>
+      <c s="25" r="M61"/>
+      <c s="25" r="N61"/>
+      <c s="25" r="O61"/>
+      <c s="25" r="P61"/>
+      <c s="5" r="Q61"/>
     </row>
     <row customHeight="1" r="62" ht="12.75">
-      <c t="s" s="9" r="A62">
+      <c t="s" s="10" r="A62">
         <v>529</v>
       </c>
-      <c s="33" r="B62"/>
-      <c s="34" r="C62"/>
-      <c s="34" r="D62"/>
-      <c s="34" r="E62"/>
-      <c s="34" r="F62"/>
-      <c s="34" r="G62"/>
-      <c s="34" r="H62"/>
-      <c s="34" r="I62"/>
-      <c s="34" r="J62"/>
-      <c s="34" r="K62"/>
-      <c s="34" r="L62"/>
-      <c s="34" r="M62"/>
-      <c s="34" r="N62"/>
-      <c s="34" r="O62"/>
-      <c s="34" r="P62"/>
+      <c s="39" r="B62"/>
+      <c s="40" r="C62"/>
+      <c s="41" r="D62"/>
+      <c s="41" r="E62"/>
+      <c s="41" r="F62"/>
+      <c s="41" r="G62"/>
+      <c s="41" r="H62"/>
+      <c s="41" r="I62"/>
+      <c s="41" r="J62"/>
+      <c s="41" r="K62"/>
+      <c s="41" r="L62"/>
+      <c s="41" r="M62"/>
+      <c s="41" r="N62"/>
+      <c s="41" r="O62"/>
+      <c s="41" r="P62"/>
+      <c s="41" r="Q62"/>
     </row>
     <row customHeight="1" r="63" ht="12.75">
-      <c t="s" s="35" r="A63">
+      <c t="s" s="42" r="A63">
         <v>530</v>
       </c>
-      <c t="s" s="36" r="B63">
+      <c t="s" s="43" r="B63">
         <v>531</v>
       </c>
-      <c t="s" s="37" r="C63">
+      <c s="44" r="C63">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="45" r="D63">
         <v>532</v>
       </c>
-      <c t="s" s="12" r="D63">
+      <c t="s" s="14" r="E63">
         <v>533</v>
       </c>
-      <c t="s" s="12" r="E63">
+      <c t="s" s="14" r="F63">
         <v>534</v>
       </c>
-      <c t="s" s="12" r="F63">
+      <c t="s" s="14" r="G63">
         <v>535</v>
       </c>
-      <c t="s" s="12" r="G63">
+      <c t="s" s="14" r="H63">
         <v>536</v>
       </c>
-      <c t="s" s="12" r="H63">
+      <c t="s" s="14" r="I63">
         <v>537</v>
       </c>
-      <c t="s" s="12" r="I63">
+      <c t="s" s="14" r="J63">
         <v>538</v>
       </c>
-      <c t="s" s="12" r="J63">
+      <c t="s" s="14" r="K63">
         <v>539</v>
       </c>
-      <c t="s" s="12" r="K63">
+      <c t="s" s="14" r="L63">
         <v>540</v>
       </c>
-      <c t="s" s="12" r="L63">
+      <c t="s" s="14" r="M63">
         <v>541</v>
       </c>
-      <c t="s" s="12" r="M63">
+      <c t="s" s="14" r="N63">
         <v>542</v>
       </c>
-      <c t="s" s="12" r="N63">
+      <c t="s" s="14" r="O63">
         <v>543</v>
       </c>
-      <c t="s" s="12" r="O63">
+      <c t="s" s="14" r="P63">
         <v>544</v>
       </c>
-      <c t="s" s="12" r="P63">
+      <c t="s" s="14" r="Q63">
         <v>545</v>
       </c>
     </row>
     <row customHeight="1" r="64" ht="12.75">
-      <c t="s" s="35" r="A64">
+      <c t="s" s="42" r="A64">
         <v>546</v>
       </c>
-      <c t="s" s="36" r="B64">
+      <c t="s" s="43" r="B64">
         <v>547</v>
       </c>
-      <c t="s" s="37" r="C64">
+      <c s="44" r="C64">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="45" r="D64">
         <v>548</v>
       </c>
-      <c t="s" s="12" r="D64">
+      <c t="s" s="14" r="E64">
         <v>549</v>
       </c>
-      <c t="s" s="12" r="E64">
+      <c t="s" s="14" r="F64">
         <v>550</v>
       </c>
-      <c t="s" s="12" r="F64">
+      <c t="s" s="14" r="G64">
         <v>551</v>
       </c>
-      <c t="s" s="12" r="G64">
+      <c t="s" s="14" r="H64">
         <v>552</v>
       </c>
-      <c t="s" s="12" r="H64">
+      <c t="s" s="14" r="I64">
         <v>553</v>
       </c>
-      <c t="s" s="12" r="I64">
+      <c t="s" s="14" r="J64">
         <v>554</v>
       </c>
-      <c t="s" s="12" r="J64">
+      <c t="s" s="14" r="K64">
         <v>555</v>
       </c>
-      <c t="s" s="12" r="K64">
+      <c t="s" s="14" r="L64">
         <v>556</v>
       </c>
-      <c t="s" s="12" r="L64">
+      <c t="s" s="14" r="M64">
         <v>557</v>
       </c>
-      <c t="s" s="12" r="M64">
+      <c t="s" s="14" r="N64">
         <v>558</v>
       </c>
-      <c t="s" s="12" r="N64">
+      <c t="s" s="14" r="O64">
         <v>559</v>
       </c>
-      <c t="s" s="12" r="O64">
+      <c t="s" s="14" r="P64">
         <v>560</v>
       </c>
-      <c t="s" s="12" r="P64">
+      <c t="s" s="14" r="Q64">
         <v>561</v>
       </c>
     </row>
     <row customHeight="1" r="65" ht="12.75">
-      <c t="s" s="35" r="A65">
+      <c t="s" s="42" r="A65">
         <v>562</v>
       </c>
-      <c t="s" s="36" r="B65">
+      <c t="s" s="43" r="B65">
         <v>563</v>
       </c>
-      <c t="s" s="37" r="C65">
+      <c s="44" r="C65">
+        <v>3.0</v>
+      </c>
+      <c t="s" s="45" r="D65">
         <v>564</v>
       </c>
-      <c t="s" s="12" r="D65">
+      <c t="s" s="14" r="E65">
         <v>565</v>
       </c>
-      <c t="s" s="12" r="E65">
+      <c t="s" s="14" r="F65">
         <v>566</v>
       </c>
-      <c t="s" s="12" r="F65">
+      <c t="s" s="14" r="G65">
         <v>567</v>
       </c>
-      <c t="s" s="12" r="G65">
+      <c t="s" s="14" r="H65">
         <v>568</v>
       </c>
-      <c t="s" s="12" r="H65">
+      <c t="s" s="14" r="I65">
         <v>569</v>
       </c>
-      <c t="s" s="12" r="I65">
+      <c t="s" s="14" r="J65">
         <v>570</v>
       </c>
-      <c t="s" s="12" r="J65">
+      <c t="s" s="14" r="K65">
         <v>571</v>
       </c>
-      <c t="s" s="12" r="K65">
+      <c t="s" s="14" r="L65">
         <v>572</v>
       </c>
-      <c t="s" s="12" r="L65">
+      <c t="s" s="14" r="M65">
         <v>573</v>
       </c>
-      <c t="s" s="12" r="M65">
+      <c t="s" s="14" r="N65">
         <v>574</v>
       </c>
-      <c t="s" s="12" r="N65">
+      <c t="s" s="14" r="O65">
         <v>575</v>
       </c>
-      <c t="s" s="12" r="O65">
+      <c t="s" s="14" r="P65">
         <v>576</v>
       </c>
-      <c t="s" s="12" r="P65">
+      <c t="s" s="14" r="Q65">
         <v>577</v>
       </c>
     </row>
     <row customHeight="1" r="66" ht="12.75">
-      <c t="s" s="35" r="A66">
+      <c t="s" s="42" r="A66">
         <v>578</v>
       </c>
-      <c t="s" s="36" r="B66">
+      <c t="s" s="43" r="B66">
         <v>579</v>
       </c>
-      <c t="s" s="37" r="C66">
+      <c s="44" r="C66">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="45" r="D66">
         <v>580</v>
       </c>
-      <c t="s" s="12" r="D66">
+      <c t="s" s="14" r="E66">
         <v>581</v>
       </c>
-      <c t="s" s="12" r="E66">
+      <c t="s" s="14" r="F66">
         <v>582</v>
       </c>
-      <c t="s" s="12" r="F66">
+      <c t="s" s="14" r="G66">
         <v>583</v>
       </c>
-      <c t="s" s="12" r="G66">
+      <c t="s" s="14" r="H66">
         <v>584</v>
       </c>
-      <c t="s" s="12" r="H66">
+      <c t="s" s="14" r="I66">
         <v>585</v>
       </c>
-      <c t="s" s="12" r="I66">
+      <c t="s" s="14" r="J66">
         <v>586</v>
       </c>
-      <c t="s" s="12" r="J66">
+      <c t="s" s="14" r="K66">
         <v>587</v>
       </c>
-      <c t="s" s="12" r="K66">
+      <c t="s" s="14" r="L66">
         <v>588</v>
       </c>
-      <c t="s" s="12" r="L66">
+      <c t="s" s="14" r="M66">
         <v>589</v>
       </c>
-      <c t="s" s="12" r="M66">
+      <c t="s" s="14" r="N66">
         <v>590</v>
       </c>
-      <c t="s" s="12" r="N66">
+      <c t="s" s="14" r="O66">
         <v>591</v>
       </c>
-      <c t="s" s="12" r="O66">
+      <c t="s" s="14" r="P66">
         <v>592</v>
       </c>
-      <c t="s" s="12" r="P66">
+      <c t="s" s="14" r="Q66">
         <v>593</v>
       </c>
     </row>
     <row customHeight="1" r="67" ht="12.75">
-      <c t="s" s="35" r="A67">
+      <c t="s" s="42" r="A67">
         <v>594</v>
       </c>
-      <c t="s" s="36" r="B67">
+      <c t="s" s="43" r="B67">
         <v>595</v>
       </c>
-      <c t="s" s="37" r="C67">
+      <c s="44" r="C67">
+        <v>5.0</v>
+      </c>
+      <c t="s" s="45" r="D67">
         <v>596</v>
       </c>
-      <c t="s" s="12" r="D67">
+      <c t="s" s="14" r="E67">
         <v>597</v>
       </c>
-      <c t="s" s="12" r="E67">
+      <c t="s" s="14" r="F67">
         <v>598</v>
       </c>
-      <c t="s" s="12" r="F67">
+      <c t="s" s="14" r="G67">
         <v>599</v>
       </c>
-      <c t="s" s="12" r="G67">
+      <c t="s" s="14" r="H67">
         <v>600</v>
       </c>
-      <c t="s" s="12" r="H67">
+      <c t="s" s="14" r="I67">
         <v>601</v>
       </c>
-      <c t="s" s="12" r="I67">
+      <c t="s" s="14" r="J67">
         <v>602</v>
       </c>
-      <c t="s" s="12" r="J67">
+      <c t="s" s="14" r="K67">
         <v>603</v>
       </c>
-      <c t="s" s="12" r="K67">
+      <c t="s" s="14" r="L67">
         <v>604</v>
       </c>
-      <c t="s" s="12" r="L67">
+      <c t="s" s="14" r="M67">
         <v>605</v>
       </c>
-      <c t="s" s="12" r="M67">
+      <c t="s" s="14" r="N67">
         <v>606</v>
       </c>
-      <c t="s" s="12" r="N67">
+      <c t="s" s="14" r="O67">
         <v>607</v>
       </c>
-      <c s="12" r="O67"/>
-      <c s="4" r="P67"/>
+      <c s="14" r="P67"/>
+      <c s="5" r="Q67"/>
     </row>
     <row customHeight="1" r="68" ht="12.75">
-      <c s="29" r="A68"/>
+      <c s="33" r="A68"/>
     </row>
     <row customHeight="1" r="69" ht="12.75">
-      <c t="s" s="30" r="A69">
+      <c t="s" s="34" r="A69">
         <v>608</v>
       </c>
     </row>
     <row customHeight="1" r="70" ht="13.5">
       <c s="1" r="A70"/>
-      <c s="31" r="B70"/>
-      <c s="1" r="C70"/>
-      <c t="s" s="1" r="D70">
+      <c s="35" r="B70"/>
+      <c s="36" r="C70"/>
+      <c s="1" r="D70"/>
+      <c t="s" s="1" r="E70">
         <v>609</v>
       </c>
-      <c t="s" s="1" r="E70">
+      <c t="s" s="1" r="F70">
         <v>610</v>
       </c>
-      <c t="s" s="1" r="F70">
+      <c t="s" s="1" r="G70">
         <v>611</v>
       </c>
-      <c t="s" s="1" r="G70">
+      <c t="s" s="1" r="H70">
         <v>612</v>
       </c>
-      <c t="s" s="1" r="H70">
+      <c t="s" s="1" r="I70">
         <v>613</v>
       </c>
-      <c t="s" s="1" r="I70">
+      <c t="s" s="1" r="J70">
         <v>614</v>
       </c>
-      <c t="s" s="1" r="J70">
+      <c t="s" s="1" r="K70">
         <v>615</v>
       </c>
-      <c t="s" s="1" r="K70">
+      <c t="s" s="1" r="L70">
         <v>616</v>
       </c>
-      <c t="s" s="1" r="L70">
+      <c t="s" s="1" r="M70">
         <v>617</v>
       </c>
-      <c t="s" s="1" r="M70">
+      <c t="s" s="1" r="N70">
         <v>618</v>
       </c>
-      <c t="s" s="1" r="N70">
+      <c t="s" s="1" r="O70">
         <v>619</v>
       </c>
-      <c t="s" s="1" r="O70">
+      <c t="s" s="1" r="P70">
         <v>620</v>
       </c>
-      <c t="s" s="12" r="P70">
+      <c t="s" s="14" r="Q70">
         <v>621</v>
       </c>
     </row>
     <row customHeight="1" r="71" ht="13.5">
       <c s="1" r="A71"/>
-      <c s="31" r="B71"/>
-      <c s="1" r="C71"/>
-      <c t="s" s="1" r="D71">
+      <c s="35" r="B71"/>
+      <c s="36" r="C71"/>
+      <c s="1" r="D71"/>
+      <c t="s" s="1" r="E71">
         <v>622</v>
       </c>
-      <c s="1" r="E71"/>
       <c s="1" r="F71"/>
       <c s="1" r="G71"/>
-      <c t="s" s="1" r="H71">
+      <c s="1" r="H71"/>
+      <c t="s" s="1" r="I71">
         <v>623</v>
       </c>
-      <c t="s" s="38" r="I71">
+      <c t="s" s="46" r="J71">
         <v>624</v>
       </c>
-      <c t="s" s="1" r="J71">
+      <c t="s" s="1" r="K71">
         <v>625</v>
       </c>
-      <c t="s" s="1" r="K71">
+      <c t="s" s="1" r="L71">
         <v>626</v>
       </c>
-      <c t="s" s="1" r="L71">
+      <c t="s" s="1" r="M71">
         <v>627</v>
       </c>
-      <c t="s" s="1" r="M71">
+      <c t="s" s="1" r="N71">
         <v>628</v>
       </c>
-      <c s="1" r="N71"/>
-      <c t="s" s="1" r="O71">
+      <c s="1" r="O71"/>
+      <c t="s" s="1" r="P71">
         <v>629</v>
       </c>
-      <c t="s" s="12" r="P71">
+      <c t="s" s="14" r="Q71">
         <v>630</v>
       </c>
     </row>
     <row customHeight="1" r="72" ht="13.5">
       <c s="1" r="A72"/>
-      <c s="31" r="B72"/>
-      <c s="1" r="C72"/>
-      <c t="s" s="1" r="D72">
+      <c s="35" r="B72"/>
+      <c s="36" r="C72"/>
+      <c s="1" r="D72"/>
+      <c t="s" s="1" r="E72">
         <v>631</v>
       </c>
-      <c s="1" r="E72"/>
       <c s="1" r="F72"/>
       <c s="1" r="G72"/>
-      <c t="s" s="1" r="H72">
+      <c s="1" r="H72"/>
+      <c t="s" s="1" r="I72">
         <v>632</v>
       </c>
-      <c t="s" s="1" r="I72">
+      <c t="s" s="1" r="J72">
         <v>633</v>
       </c>
-      <c t="s" s="1" r="J72">
+      <c t="s" s="1" r="K72">
         <v>634</v>
       </c>
-      <c t="s" s="1" r="K72">
+      <c t="s" s="1" r="L72">
         <v>635</v>
       </c>
-      <c t="s" s="1" r="L72">
+      <c t="s" s="1" r="M72">
         <v>636</v>
       </c>
-      <c t="s" s="1" r="M72">
+      <c t="s" s="1" r="N72">
         <v>637</v>
       </c>
-      <c s="1" r="N72"/>
-      <c t="s" s="1" r="O72">
+      <c s="1" r="O72"/>
+      <c t="s" s="1" r="P72">
         <v>638</v>
       </c>
-      <c t="s" s="12" r="P72">
+      <c t="s" s="14" r="Q72">
         <v>639</v>
       </c>
     </row>
     <row customHeight="1" r="73" ht="13.5">
       <c s="1" r="A73"/>
-      <c s="31" r="B73"/>
-      <c s="1" r="C73"/>
-      <c t="s" s="1" r="D73">
+      <c s="35" r="B73"/>
+      <c s="36" r="C73"/>
+      <c s="1" r="D73"/>
+      <c t="s" s="1" r="E73">
         <v>640</v>
       </c>
-      <c s="1" r="E73"/>
       <c s="1" r="F73"/>
       <c s="1" r="G73"/>
-      <c t="s" s="22" r="H73">
+      <c s="1" r="H73"/>
+      <c t="s" s="25" r="I73">
         <v>641</v>
       </c>
-      <c t="s" s="1" r="I73">
+      <c t="s" s="1" r="J73">
         <v>642</v>
       </c>
-      <c t="s" s="1" r="J73">
+      <c t="s" s="1" r="K73">
         <v>643</v>
       </c>
-      <c s="1" r="K73"/>
-      <c t="s" s="1" r="L73">
+      <c s="1" r="L73"/>
+      <c t="s" s="1" r="M73">
         <v>644</v>
       </c>
-      <c t="s" s="1" r="M73">
+      <c t="s" s="1" r="N73">
         <v>645</v>
       </c>
-      <c s="1" r="N73"/>
-      <c t="s" s="1" r="O73">
+      <c s="1" r="O73"/>
+      <c t="s" s="1" r="P73">
         <v>646</v>
       </c>
-      <c t="s" s="12" r="P73">
+      <c t="s" s="14" r="Q73">
         <v>647</v>
       </c>
     </row>
     <row customHeight="1" r="74" ht="13.5">
       <c s="1" r="A74"/>
-      <c s="31" r="B74"/>
-      <c s="1" r="C74"/>
-      <c t="s" s="1" r="D74">
+      <c s="35" r="B74"/>
+      <c s="36" r="C74"/>
+      <c s="1" r="D74"/>
+      <c t="s" s="1" r="E74">
         <v>648</v>
       </c>
-      <c s="1" r="E74"/>
       <c s="1" r="F74"/>
       <c s="1" r="G74"/>
-      <c t="s" s="1" r="H74">
+      <c s="1" r="H74"/>
+      <c t="s" s="1" r="I74">
         <v>649</v>
       </c>
-      <c t="s" s="1" r="I74">
+      <c t="s" s="1" r="J74">
         <v>650</v>
       </c>
-      <c t="s" s="1" r="J74">
+      <c t="s" s="1" r="K74">
         <v>651</v>
       </c>
-      <c s="1" r="K74"/>
-      <c t="s" s="1" r="L74">
+      <c s="1" r="L74"/>
+      <c t="s" s="1" r="M74">
         <v>652</v>
       </c>
-      <c t="s" s="1" r="M74">
+      <c t="s" s="1" r="N74">
         <v>653</v>
       </c>
-      <c s="1" r="N74"/>
-      <c t="s" s="1" r="O74">
+      <c s="1" r="O74"/>
+      <c t="s" s="1" r="P74">
         <v>654</v>
       </c>
-      <c t="s" s="12" r="P74">
+      <c t="s" s="14" r="Q74">
         <v>655</v>
       </c>
     </row>
     <row customHeight="1" r="75" ht="13.5">
       <c s="1" r="A75"/>
-      <c s="31" r="B75"/>
-      <c s="1" r="C75"/>
-      <c t="s" s="1" r="D75">
+      <c s="35" r="B75"/>
+      <c s="36" r="C75"/>
+      <c s="1" r="D75"/>
+      <c t="s" s="1" r="E75">
         <v>656</v>
       </c>
-      <c s="1" r="E75"/>
       <c s="1" r="F75"/>
       <c s="1" r="G75"/>
-      <c t="s" s="1" r="H75">
+      <c s="1" r="H75"/>
+      <c t="s" s="1" r="I75">
         <v>657</v>
       </c>
-      <c t="s" s="1" r="I75">
+      <c t="s" s="1" r="J75">
         <v>658</v>
       </c>
-      <c t="s" s="1" r="J75">
+      <c t="s" s="1" r="K75">
         <v>659</v>
       </c>
-      <c s="1" r="K75"/>
-      <c t="s" s="1" r="L75">
+      <c s="1" r="L75"/>
+      <c t="s" s="1" r="M75">
         <v>660</v>
       </c>
-      <c t="s" s="1" r="M75">
+      <c t="s" s="1" r="N75">
         <v>661</v>
       </c>
-      <c s="1" r="N75"/>
-      <c t="s" s="1" r="O75">
+      <c s="1" r="O75"/>
+      <c t="s" s="1" r="P75">
         <v>662</v>
       </c>
-      <c t="s" s="12" r="P75">
+      <c t="s" s="14" r="Q75">
         <v>663</v>
       </c>
     </row>
     <row customHeight="1" r="76" ht="13.5">
       <c s="1" r="A76"/>
-      <c s="31" r="B76"/>
-      <c s="1" r="C76"/>
-      <c t="s" s="1" r="D76">
+      <c s="35" r="B76"/>
+      <c s="36" r="C76"/>
+      <c s="1" r="D76"/>
+      <c t="s" s="1" r="E76">
         <v>664</v>
       </c>
-      <c s="1" r="E76"/>
       <c s="1" r="F76"/>
       <c s="1" r="G76"/>
       <c s="1" r="H76"/>
-      <c t="s" s="1" r="I76">
+      <c s="1" r="I76"/>
+      <c t="s" s="1" r="J76">
         <v>665</v>
       </c>
-      <c s="1" r="J76"/>
       <c s="1" r="K76"/>
-      <c t="s" s="1" r="L76">
+      <c s="1" r="L76"/>
+      <c t="s" s="1" r="M76">
         <v>666</v>
       </c>
-      <c t="s" s="1" r="M76">
+      <c t="s" s="1" r="N76">
         <v>667</v>
       </c>
-      <c s="1" r="N76"/>
       <c s="1" r="O76"/>
-      <c t="s" s="12" r="P76">
+      <c s="1" r="P76"/>
+      <c t="s" s="14" r="Q76">
         <v>668</v>
       </c>
     </row>
     <row customHeight="1" r="77" ht="13.5">
       <c s="1" r="A77"/>
-      <c s="31" r="B77"/>
-      <c s="1" r="C77"/>
-      <c t="s" s="1" r="D77">
+      <c s="35" r="B77"/>
+      <c s="36" r="C77"/>
+      <c s="1" r="D77"/>
+      <c t="s" s="1" r="E77">
         <v>669</v>
       </c>
-      <c s="1" r="E77"/>
       <c s="1" r="F77"/>
       <c s="1" r="G77"/>
       <c s="1" r="H77"/>
       <c s="1" r="I77"/>
       <c s="1" r="J77"/>
       <c s="1" r="K77"/>
-      <c t="s" s="1" r="L77">
+      <c s="1" r="L77"/>
+      <c t="s" s="1" r="M77">
         <v>670</v>
       </c>
-      <c s="1" r="M77"/>
       <c s="1" r="N77"/>
       <c s="1" r="O77"/>
-      <c t="s" s="12" r="P77">
+      <c s="1" r="P77"/>
+      <c t="s" s="14" r="Q77">
         <v>671</v>
       </c>
     </row>
     <row customHeight="1" r="78" ht="12.75">
       <c s="1" r="A78"/>
-      <c s="31" r="B78"/>
-      <c s="1" r="C78"/>
-      <c t="s" s="1" r="D78">
+      <c s="35" r="B78"/>
+      <c s="36" r="C78"/>
+      <c s="1" r="D78"/>
+      <c t="s" s="1" r="E78">
         <v>672</v>
       </c>
-      <c s="1" r="E78"/>
       <c s="1" r="F78"/>
       <c s="1" r="G78"/>
       <c s="1" r="H78"/>
       <c s="1" r="I78"/>
       <c s="1" r="J78"/>
       <c s="1" r="K78"/>
-      <c t="s" s="1" r="L78">
+      <c s="1" r="L78"/>
+      <c t="s" s="1" r="M78">
         <v>673</v>
       </c>
-      <c s="1" r="M78"/>
       <c s="1" r="N78"/>
       <c s="1" r="O78"/>
-      <c t="s" s="12" r="P78">
+      <c s="1" r="P78"/>
+      <c t="s" s="14" r="Q78">
         <v>674</v>
       </c>
     </row>
     <row customHeight="1" r="79" ht="12.75">
       <c s="1" r="A79"/>
-      <c s="31" r="B79"/>
-      <c s="1" r="C79"/>
+      <c s="35" r="B79"/>
+      <c s="36" r="C79"/>
       <c s="1" r="D79"/>
       <c s="1" r="E79"/>
       <c s="1" r="F79"/>
@@ -5001,12 +5123,13 @@
       <c s="1" r="M79"/>
       <c s="1" r="N79"/>
       <c s="1" r="O79"/>
-      <c s="4" r="P79"/>
+      <c s="1" r="P79"/>
+      <c s="5" r="Q79"/>
     </row>
     <row customHeight="1" r="80" ht="11.25">
       <c s="1" r="A80"/>
-      <c s="31" r="B80"/>
-      <c s="1" r="C80"/>
+      <c s="35" r="B80"/>
+      <c s="36" r="C80"/>
       <c s="1" r="D80"/>
       <c s="1" r="E80"/>
       <c s="1" r="F80"/>
@@ -5015,19 +5138,20 @@
       <c s="1" r="I80"/>
       <c s="1" r="J80"/>
       <c s="1" r="K80"/>
-      <c t="s" s="1" r="L80">
+      <c s="1" r="L80"/>
+      <c t="s" s="1" r="M80">
         <v>675</v>
       </c>
-      <c s="1" r="M80"/>
       <c s="1" r="N80"/>
       <c s="1" r="O80"/>
-      <c s="4" r="P80"/>
+      <c s="1" r="P80"/>
+      <c s="5" r="Q80"/>
     </row>
     <row customHeight="1" r="81" ht="11.25">
-      <c s="39" r="A81"/>
-      <c s="40" r="B81"/>
-      <c s="39" r="C81"/>
-      <c s="1" r="D81"/>
+      <c s="47" r="A81"/>
+      <c s="48" r="B81"/>
+      <c s="49" r="C81"/>
+      <c s="47" r="D81"/>
       <c s="1" r="E81"/>
       <c s="1" r="F81"/>
       <c s="1" r="G81"/>
@@ -5035,19 +5159,20 @@
       <c s="1" r="I81"/>
       <c s="1" r="J81"/>
       <c s="1" r="K81"/>
-      <c t="s" s="1" r="L81">
+      <c s="1" r="L81"/>
+      <c t="s" s="1" r="M81">
         <v>676</v>
       </c>
-      <c s="1" r="M81"/>
       <c s="1" r="N81"/>
       <c s="1" r="O81"/>
-      <c s="4" r="P81"/>
+      <c s="1" r="P81"/>
+      <c s="5" r="Q81"/>
     </row>
     <row customHeight="1" r="82" ht="12.75">
-      <c s="39" r="A82"/>
-      <c s="40" r="B82"/>
-      <c s="39" r="C82"/>
-      <c s="1" r="D82"/>
+      <c s="47" r="A82"/>
+      <c s="48" r="B82"/>
+      <c s="49" r="C82"/>
+      <c s="47" r="D82"/>
       <c s="1" r="E82"/>
       <c s="1" r="F82"/>
       <c s="1" r="G82"/>
@@ -5059,12 +5184,13 @@
       <c s="1" r="M82"/>
       <c s="1" r="N82"/>
       <c s="1" r="O82"/>
-      <c s="4" r="P82"/>
+      <c s="1" r="P82"/>
+      <c s="5" r="Q82"/>
     </row>
     <row customHeight="1" r="83" ht="12.75">
       <c s="1" r="A83"/>
-      <c s="31" r="B83"/>
-      <c s="1" r="C83"/>
+      <c s="35" r="B83"/>
+      <c s="36" r="C83"/>
       <c s="1" r="D83"/>
       <c s="1" r="E83"/>
       <c s="1" r="F83"/>
@@ -5077,12 +5203,13 @@
       <c s="1" r="M83"/>
       <c s="1" r="N83"/>
       <c s="1" r="O83"/>
-      <c s="4" r="P83"/>
+      <c s="1" r="P83"/>
+      <c s="5" r="Q83"/>
     </row>
     <row customHeight="1" r="84" ht="11.25">
       <c s="1" r="A84"/>
-      <c s="31" r="B84"/>
-      <c s="1" r="C84"/>
+      <c s="35" r="B84"/>
+      <c s="36" r="C84"/>
       <c s="1" r="D84"/>
       <c s="1" r="E84"/>
       <c s="1" r="F84"/>
@@ -5095,42 +5222,46 @@
       <c s="1" r="M84"/>
       <c s="1" r="N84"/>
       <c s="1" r="O84"/>
-      <c s="4" r="P84"/>
+      <c s="1" r="P84"/>
+      <c s="5" r="Q84"/>
     </row>
     <row customHeight="1" r="85" ht="11.25">
-      <c t="s" s="9" r="A85">
+      <c t="s" s="10" r="A85">
         <v>677</v>
       </c>
-      <c s="33" r="B85"/>
-      <c s="34" r="C85"/>
-      <c s="34" r="D85"/>
-      <c s="34" r="E85"/>
-      <c s="34" r="F85"/>
-      <c s="34" r="G85"/>
-      <c s="34" r="H85"/>
-      <c s="34" r="I85"/>
-      <c s="34" r="J85"/>
-      <c s="34" r="K85"/>
-      <c s="34" r="L85"/>
-      <c s="34" r="M85"/>
-      <c s="34" r="N85"/>
-      <c s="34" r="O85"/>
-      <c s="34" r="P85"/>
+      <c s="39" r="B85"/>
+      <c s="40" r="C85"/>
+      <c s="41" r="D85"/>
+      <c s="41" r="E85"/>
+      <c s="41" r="F85"/>
+      <c s="41" r="G85"/>
+      <c s="41" r="H85"/>
+      <c s="41" r="I85"/>
+      <c s="41" r="J85"/>
+      <c s="41" r="K85"/>
+      <c s="41" r="L85"/>
+      <c s="41" r="M85"/>
+      <c s="41" r="N85"/>
+      <c s="41" r="O85"/>
+      <c s="41" r="P85"/>
+      <c s="41" r="Q85"/>
     </row>
     <row customHeight="1" r="86" ht="11.25">
       <c t="s" s="1" r="A86">
         <v>678</v>
       </c>
-      <c t="s" s="41" r="B86">
+      <c t="s" s="50" r="B86">
         <v>679</v>
       </c>
-      <c t="s" s="1" r="C86">
+      <c s="51" r="C86">
+        <v>0.0</v>
+      </c>
+      <c t="s" s="1" r="D86">
         <v>680</v>
       </c>
-      <c t="s" s="12" r="D86">
+      <c t="s" s="14" r="E86">
         <v>681</v>
       </c>
-      <c s="1" r="E86"/>
       <c s="1" r="F86"/>
       <c s="1" r="G86"/>
       <c s="1" r="H86"/>
@@ -5141,24 +5272,25 @@
       <c s="1" r="M86"/>
       <c s="1" r="N86"/>
       <c s="1" r="O86"/>
-      <c s="4" r="P86"/>
+      <c s="1" r="P86"/>
+      <c s="5" r="Q86"/>
     </row>
     <row customHeight="1" r="87" ht="12.75">
-      <c s="29" r="A87"/>
+      <c s="33" r="A87"/>
     </row>
     <row customHeight="1" r="88" ht="12.75">
-      <c t="s" s="30" r="A88">
+      <c t="s" s="34" r="A88">
         <v>682</v>
       </c>
     </row>
     <row customHeight="1" r="89" ht="11.25">
       <c s="1" r="A89"/>
-      <c s="31" r="B89"/>
-      <c s="1" r="C89"/>
-      <c t="s" s="1" r="D89">
+      <c s="35" r="B89"/>
+      <c s="36" r="C89"/>
+      <c s="1" r="D89"/>
+      <c t="s" s="1" r="E89">
         <v>683</v>
       </c>
-      <c s="1" r="E89"/>
       <c s="1" r="F89"/>
       <c s="1" r="G89"/>
       <c s="1" r="H89"/>
@@ -5169,16 +5301,17 @@
       <c s="1" r="M89"/>
       <c s="1" r="N89"/>
       <c s="1" r="O89"/>
-      <c s="4" r="P89"/>
+      <c s="1" r="P89"/>
+      <c s="5" r="Q89"/>
     </row>
     <row customHeight="1" r="90" ht="11.25">
       <c s="1" r="A90"/>
-      <c s="31" r="B90"/>
-      <c s="1" r="C90"/>
-      <c t="s" s="1" r="D90">
+      <c s="35" r="B90"/>
+      <c s="36" r="C90"/>
+      <c s="1" r="D90"/>
+      <c t="s" s="1" r="E90">
         <v>684</v>
       </c>
-      <c s="1" r="E90"/>
       <c s="1" r="F90"/>
       <c s="1" r="G90"/>
       <c s="1" r="H90"/>
@@ -5189,16 +5322,17 @@
       <c s="1" r="M90"/>
       <c s="1" r="N90"/>
       <c s="1" r="O90"/>
-      <c s="4" r="P90"/>
+      <c s="1" r="P90"/>
+      <c s="5" r="Q90"/>
     </row>
     <row customHeight="1" r="91" ht="11.25">
       <c s="1" r="A91"/>
-      <c s="31" r="B91"/>
-      <c s="1" r="C91"/>
-      <c t="s" s="1" r="D91">
+      <c s="35" r="B91"/>
+      <c s="36" r="C91"/>
+      <c s="1" r="D91"/>
+      <c t="s" s="1" r="E91">
         <v>685</v>
       </c>
-      <c s="1" r="E91"/>
       <c s="1" r="F91"/>
       <c s="1" r="G91"/>
       <c s="1" r="H91"/>
@@ -5209,16 +5343,17 @@
       <c s="1" r="M91"/>
       <c s="1" r="N91"/>
       <c s="1" r="O91"/>
-      <c s="4" r="P91"/>
+      <c s="1" r="P91"/>
+      <c s="5" r="Q91"/>
     </row>
     <row customHeight="1" r="92" ht="11.25">
       <c s="1" r="A92"/>
-      <c s="31" r="B92"/>
-      <c s="1" r="C92"/>
-      <c t="s" s="1" r="D92">
+      <c s="35" r="B92"/>
+      <c s="36" r="C92"/>
+      <c s="1" r="D92"/>
+      <c t="s" s="1" r="E92">
         <v>686</v>
       </c>
-      <c s="1" r="E92"/>
       <c s="1" r="F92"/>
       <c s="1" r="G92"/>
       <c s="1" r="H92"/>
@@ -5229,16 +5364,17 @@
       <c s="1" r="M92"/>
       <c s="1" r="N92"/>
       <c s="1" r="O92"/>
-      <c s="4" r="P92"/>
+      <c s="1" r="P92"/>
+      <c s="5" r="Q92"/>
     </row>
     <row customHeight="1" r="93" ht="11.25">
       <c s="1" r="A93"/>
-      <c s="31" r="B93"/>
-      <c s="1" r="C93"/>
-      <c t="s" s="1" r="D93">
+      <c s="35" r="B93"/>
+      <c s="36" r="C93"/>
+      <c s="1" r="D93"/>
+      <c t="s" s="1" r="E93">
         <v>687</v>
       </c>
-      <c s="1" r="E93"/>
       <c s="1" r="F93"/>
       <c s="1" r="G93"/>
       <c s="1" r="H93"/>
@@ -5249,16 +5385,17 @@
       <c s="1" r="M93"/>
       <c s="1" r="N93"/>
       <c s="1" r="O93"/>
-      <c s="4" r="P93"/>
+      <c s="1" r="P93"/>
+      <c s="5" r="Q93"/>
     </row>
     <row customHeight="1" r="94" ht="11.25">
       <c s="1" r="A94"/>
-      <c s="31" r="B94"/>
-      <c s="1" r="C94"/>
-      <c t="s" s="1" r="D94">
+      <c s="35" r="B94"/>
+      <c s="36" r="C94"/>
+      <c s="1" r="D94"/>
+      <c t="s" s="1" r="E94">
         <v>688</v>
       </c>
-      <c s="1" r="E94"/>
       <c s="1" r="F94"/>
       <c s="1" r="G94"/>
       <c s="1" r="H94"/>
@@ -5269,16 +5406,17 @@
       <c s="1" r="M94"/>
       <c s="1" r="N94"/>
       <c s="1" r="O94"/>
-      <c s="4" r="P94"/>
+      <c s="1" r="P94"/>
+      <c s="5" r="Q94"/>
     </row>
     <row customHeight="1" r="95" ht="11.25">
       <c s="1" r="A95"/>
-      <c s="31" r="B95"/>
-      <c s="1" r="C95"/>
-      <c t="s" s="1" r="D95">
+      <c s="35" r="B95"/>
+      <c s="36" r="C95"/>
+      <c s="1" r="D95"/>
+      <c t="s" s="1" r="E95">
         <v>689</v>
       </c>
-      <c s="1" r="E95"/>
       <c s="1" r="F95"/>
       <c s="1" r="G95"/>
       <c s="1" r="H95"/>
@@ -5289,16 +5427,17 @@
       <c s="1" r="M95"/>
       <c s="1" r="N95"/>
       <c s="1" r="O95"/>
-      <c s="4" r="P95"/>
+      <c s="1" r="P95"/>
+      <c s="5" r="Q95"/>
     </row>
     <row customHeight="1" r="96" ht="11.25">
       <c s="1" r="A96"/>
-      <c s="31" r="B96"/>
-      <c s="1" r="C96"/>
-      <c t="s" s="1" r="D96">
+      <c s="35" r="B96"/>
+      <c s="36" r="C96"/>
+      <c s="1" r="D96"/>
+      <c t="s" s="1" r="E96">
         <v>690</v>
       </c>
-      <c s="1" r="E96"/>
       <c s="1" r="F96"/>
       <c s="1" r="G96"/>
       <c s="1" r="H96"/>
@@ -5309,16 +5448,17 @@
       <c s="1" r="M96"/>
       <c s="1" r="N96"/>
       <c s="1" r="O96"/>
-      <c s="4" r="P96"/>
+      <c s="1" r="P96"/>
+      <c s="5" r="Q96"/>
     </row>
     <row customHeight="1" r="97" ht="11.25">
       <c s="1" r="A97"/>
-      <c s="31" r="B97"/>
-      <c s="1" r="C97"/>
-      <c t="s" s="1" r="D97">
+      <c s="35" r="B97"/>
+      <c s="36" r="C97"/>
+      <c s="1" r="D97"/>
+      <c t="s" s="1" r="E97">
         <v>691</v>
       </c>
-      <c s="1" r="E97"/>
       <c s="1" r="F97"/>
       <c s="1" r="G97"/>
       <c s="1" r="H97"/>
@@ -5329,16 +5469,17 @@
       <c s="1" r="M97"/>
       <c s="1" r="N97"/>
       <c s="1" r="O97"/>
-      <c s="4" r="P97"/>
+      <c s="1" r="P97"/>
+      <c s="5" r="Q97"/>
     </row>
     <row customHeight="1" r="98" ht="11.25">
       <c s="1" r="A98"/>
-      <c s="31" r="B98"/>
-      <c s="1" r="C98"/>
-      <c t="s" s="1" r="D98">
+      <c s="35" r="B98"/>
+      <c s="36" r="C98"/>
+      <c s="1" r="D98"/>
+      <c t="s" s="1" r="E98">
         <v>692</v>
       </c>
-      <c s="1" r="E98"/>
       <c s="1" r="F98"/>
       <c s="1" r="G98"/>
       <c s="1" r="H98"/>
@@ -5349,16 +5490,17 @@
       <c s="1" r="M98"/>
       <c s="1" r="N98"/>
       <c s="1" r="O98"/>
-      <c s="4" r="P98"/>
+      <c s="1" r="P98"/>
+      <c s="5" r="Q98"/>
     </row>
     <row customHeight="1" r="99" ht="11.25">
       <c s="1" r="A99"/>
-      <c s="31" r="B99"/>
-      <c s="1" r="C99"/>
-      <c t="s" s="1" r="D99">
+      <c s="35" r="B99"/>
+      <c s="36" r="C99"/>
+      <c s="1" r="D99"/>
+      <c t="s" s="1" r="E99">
         <v>693</v>
       </c>
-      <c s="1" r="E99"/>
       <c s="1" r="F99"/>
       <c s="1" r="G99"/>
       <c s="1" r="H99"/>
@@ -5369,16 +5511,17 @@
       <c s="1" r="M99"/>
       <c s="1" r="N99"/>
       <c s="1" r="O99"/>
-      <c s="4" r="P99"/>
+      <c s="1" r="P99"/>
+      <c s="5" r="Q99"/>
     </row>
     <row customHeight="1" r="100" ht="11.25">
       <c s="1" r="A100"/>
-      <c s="31" r="B100"/>
-      <c s="1" r="C100"/>
-      <c t="s" s="1" r="D100">
+      <c s="35" r="B100"/>
+      <c s="36" r="C100"/>
+      <c s="1" r="D100"/>
+      <c t="s" s="1" r="E100">
         <v>694</v>
       </c>
-      <c s="1" r="E100"/>
       <c s="1" r="F100"/>
       <c s="1" r="G100"/>
       <c s="1" r="H100"/>
@@ -5389,12 +5532,13 @@
       <c s="1" r="M100"/>
       <c s="1" r="N100"/>
       <c s="1" r="O100"/>
-      <c s="4" r="P100"/>
+      <c s="1" r="P100"/>
+      <c s="5" r="Q100"/>
     </row>
     <row customHeight="1" r="101" ht="11.25">
       <c s="1" r="A101"/>
-      <c s="31" r="B101"/>
-      <c s="1" r="C101"/>
+      <c s="35" r="B101"/>
+      <c s="36" r="C101"/>
       <c s="1" r="D101"/>
       <c s="1" r="E101"/>
       <c s="1" r="F101"/>
@@ -5407,61 +5551,77 @@
       <c s="1" r="M101"/>
       <c s="1" r="N101"/>
       <c s="1" r="O101"/>
-      <c s="4" r="P101"/>
+      <c s="1" r="P101"/>
+      <c s="5" r="Q101"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A69:P69"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="A88:P88"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A49:P49"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B43:B44"/>
+  <mergeCells count="66">
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A69:Q69"/>
+    <mergeCell ref="A68:Q68"/>
+    <mergeCell ref="A87:Q87"/>
+    <mergeCell ref="A88:Q88"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
